--- a/hauteur site.xlsx
+++ b/hauteur site.xlsx
@@ -4,7 +4,6 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Feuille 1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Feuille 2" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="4">
   <si>
     <t>code_pneu</t>
   </si>
@@ -111,10 +110,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1302,8 +1297,8 @@
       <c r="B28" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>3</v>
+      <c r="C28" s="7">
+        <v>300.0</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>2</v>
@@ -1806,8 +1801,8 @@
       <c r="B42" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>3</v>
+      <c r="C42" s="7">
+        <v>325.0</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>2</v>
@@ -30826,18 +30821,4 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/hauteur site.xlsx
+++ b/hauteur site.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="6">
   <si>
     <t>code_pneu</t>
   </si>
@@ -19,7 +19,13 @@
     <t>hauteur</t>
   </si>
   <si>
+    <t>zafer</t>
+  </si>
+  <si>
     <t>,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the creator </t>
   </si>
   <si>
     <t>?</t>
@@ -55,7 +61,7 @@
     </font>
     <font>
       <b/>
-      <color rgb="FF980000"/>
+      <color rgb="FF00FFFF"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -317,8 +323,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.75"/>
+    <col customWidth="1" min="1" max="1" width="12.0"/>
     <col customWidth="1" min="2" max="2" width="8.38"/>
+    <col customWidth="1" min="3" max="3" width="12.63"/>
     <col customWidth="1" min="4" max="4" width="7.88"/>
   </cols>
   <sheetData>
@@ -355,17 +362,17 @@
       <c r="Z1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="5">
-        <v>1.0</v>
+      <c r="A2" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -391,17 +398,17 @@
       <c r="Z2" s="4"/>
     </row>
     <row r="3">
-      <c r="A3" s="6">
-        <v>19.0</v>
+      <c r="A3" s="5">
+        <v>1.0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -428,16 +435,16 @@
     </row>
     <row r="4">
       <c r="A4" s="6">
-        <v>23.0</v>
+        <v>19.0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -463,17 +470,17 @@
       <c r="Z4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="1">
-        <v>44.0</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3">
-        <v>295.0</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>2</v>
+      <c r="A5" s="6">
+        <v>23.0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -499,17 +506,17 @@
       <c r="Z5" s="4"/>
     </row>
     <row r="6">
-      <c r="A6" s="6">
-        <v>45.0</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>2</v>
+      <c r="A6" s="1">
+        <v>44.0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -536,16 +543,16 @@
     </row>
     <row r="7">
       <c r="A7" s="6">
-        <v>47.0</v>
+        <v>45.0</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -571,17 +578,17 @@
       <c r="Z7" s="4"/>
     </row>
     <row r="8">
-      <c r="A8" s="1">
-        <v>49.0</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="3">
-        <v>275.0</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>2</v>
+      <c r="A8" s="6">
+        <v>47.0</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -607,17 +614,17 @@
       <c r="Z8" s="4"/>
     </row>
     <row r="9">
-      <c r="A9" s="6">
-        <v>52.0</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>2</v>
+      <c r="A9" s="1">
+        <v>49.0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3">
+        <v>275.0</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -643,17 +650,17 @@
       <c r="Z9" s="4"/>
     </row>
     <row r="10">
-      <c r="A10" s="1">
-        <v>57.0</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3">
-        <v>260.0</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>2</v>
+      <c r="A10" s="6">
+        <v>52.0</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -679,17 +686,17 @@
       <c r="Z10" s="4"/>
     </row>
     <row r="11">
-      <c r="A11" s="6">
-        <v>61.0</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>2</v>
+      <c r="A11" s="1">
+        <v>57.0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3">
+        <v>260.0</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -715,17 +722,17 @@
       <c r="Z11" s="4"/>
     </row>
     <row r="12">
-      <c r="A12" s="1">
-        <v>74.0</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="3">
-        <v>265.0</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>2</v>
+      <c r="A12" s="6">
+        <v>61.0</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -752,16 +759,16 @@
     </row>
     <row r="13">
       <c r="A13" s="1">
-        <v>77.0</v>
+        <v>74.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" s="3">
-        <v>260.0</v>
+        <v>265.0</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -788,16 +795,16 @@
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>83.0</v>
+        <v>77.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" s="3">
-        <v>295.0</v>
+        <v>260.0</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -824,16 +831,16 @@
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <v>93.0</v>
+        <v>83.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" s="3">
-        <v>250.0</v>
+        <v>295.0</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -860,16 +867,16 @@
     </row>
     <row r="16">
       <c r="A16" s="1">
-        <v>112.0</v>
+        <v>93.0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" s="3">
-        <v>270.0</v>
+        <v>250.0</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -896,16 +903,16 @@
     </row>
     <row r="17">
       <c r="A17" s="1">
-        <v>119.0</v>
+        <v>112.0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" s="3">
-        <v>310.0</v>
+        <v>270.0</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -931,17 +938,17 @@
       <c r="Z17" s="4"/>
     </row>
     <row r="18">
-      <c r="A18" s="6">
-        <v>123.0</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>2</v>
+      <c r="A18" s="1">
+        <v>119.0</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -968,16 +975,16 @@
     </row>
     <row r="19">
       <c r="A19" s="6">
-        <v>124.0</v>
+        <v>123.0</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="7">
-        <v>245.0</v>
+        <v>3</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -1003,17 +1010,17 @@
       <c r="Z19" s="4"/>
     </row>
     <row r="20">
-      <c r="A20" s="1">
-        <v>125.0</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="3">
-        <v>265.0</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>2</v>
+      <c r="A20" s="6">
+        <v>124.0</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="7">
+        <v>245.0</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -1040,16 +1047,16 @@
     </row>
     <row r="21">
       <c r="A21" s="1">
-        <v>129.0</v>
+        <v>125.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" s="3">
-        <v>270.0</v>
+        <v>265.0</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -1076,16 +1083,16 @@
     </row>
     <row r="22">
       <c r="A22" s="1">
-        <v>131.0</v>
+        <v>129.0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22" s="3">
-        <v>255.0</v>
+        <v>270.0</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -1112,16 +1119,16 @@
     </row>
     <row r="23">
       <c r="A23" s="1">
-        <v>132.0</v>
+        <v>131.0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23" s="3">
-        <v>250.0</v>
+        <v>255.0</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -1148,16 +1155,16 @@
     </row>
     <row r="24">
       <c r="A24" s="1">
-        <v>138.0</v>
+        <v>132.0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24" s="3">
-        <v>315.0</v>
+        <v>250.0</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -1184,16 +1191,16 @@
     </row>
     <row r="25">
       <c r="A25" s="1">
-        <v>139.0</v>
+        <v>138.0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" s="3">
-        <v>250.0</v>
+        <v>315.0</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -1219,17 +1226,17 @@
       <c r="Z25" s="4"/>
     </row>
     <row r="26">
-      <c r="A26" s="6">
-        <v>144.0</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>2</v>
+      <c r="A26" s="1">
+        <v>139.0</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -1255,17 +1262,17 @@
       <c r="Z26" s="4"/>
     </row>
     <row r="27">
-      <c r="A27" s="1">
-        <v>145.0</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="3">
-        <v>275.0</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>2</v>
+      <c r="A27" s="6">
+        <v>144.0</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -1291,17 +1298,17 @@
       <c r="Z27" s="4"/>
     </row>
     <row r="28">
-      <c r="A28" s="6">
-        <v>146.0</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="7">
-        <v>300.0</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>2</v>
+      <c r="A28" s="1">
+        <v>145.0</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="3">
+        <v>275.0</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -1327,17 +1334,17 @@
       <c r="Z28" s="4"/>
     </row>
     <row r="29">
-      <c r="A29" s="1">
-        <v>149.0</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="3">
-        <v>265.0</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>2</v>
+      <c r="A29" s="6">
+        <v>146.0</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="7">
+        <v>300.0</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -1364,16 +1371,16 @@
     </row>
     <row r="30">
       <c r="A30" s="1">
-        <v>153.0</v>
+        <v>149.0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30" s="3">
-        <v>325.0</v>
+        <v>265.0</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -1400,16 +1407,16 @@
     </row>
     <row r="31">
       <c r="A31" s="1">
-        <v>154.0</v>
+        <v>153.0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31" s="3">
         <v>325.0</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -1436,16 +1443,16 @@
     </row>
     <row r="32">
       <c r="A32" s="1">
-        <v>157.0</v>
+        <v>154.0</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C32" s="3">
-        <v>270.0</v>
+        <v>325.0</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -1472,16 +1479,16 @@
     </row>
     <row r="33">
       <c r="A33" s="1">
-        <v>167.0</v>
+        <v>157.0</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C33" s="3">
-        <v>250.0</v>
+        <v>270.0</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -1508,16 +1515,16 @@
     </row>
     <row r="34">
       <c r="A34" s="1">
-        <v>175.0</v>
+        <v>167.0</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C34" s="3">
         <v>250.0</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -1544,16 +1551,16 @@
     </row>
     <row r="35">
       <c r="A35" s="1">
-        <v>178.0</v>
+        <v>175.0</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C35" s="3">
-        <v>265.0</v>
+        <v>250.0</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -1580,16 +1587,16 @@
     </row>
     <row r="36">
       <c r="A36" s="1">
-        <v>182.0</v>
+        <v>178.0</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="7">
-        <v>285.0</v>
+        <v>3</v>
+      </c>
+      <c r="C36" s="3">
+        <v>265.0</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -1616,16 +1623,16 @@
     </row>
     <row r="37">
       <c r="A37" s="1">
-        <v>183.0</v>
+        <v>182.0</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" s="3">
-        <v>270.0</v>
+        <v>3</v>
+      </c>
+      <c r="C37" s="7">
+        <v>285.0</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -1652,16 +1659,16 @@
     </row>
     <row r="38">
       <c r="A38" s="1">
-        <v>190.0</v>
+        <v>183.0</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C38" s="3">
-        <v>305.0</v>
+        <v>270.0</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -1688,16 +1695,16 @@
     </row>
     <row r="39">
       <c r="A39" s="1">
-        <v>192.0</v>
+        <v>190.0</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C39" s="3">
-        <v>285.0</v>
+        <v>305.0</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -1724,16 +1731,16 @@
     </row>
     <row r="40">
       <c r="A40" s="1">
-        <v>201.0</v>
+        <v>192.0</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C40" s="3">
         <v>285.0</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -1760,16 +1767,16 @@
     </row>
     <row r="41">
       <c r="A41" s="1">
-        <v>204.0</v>
+        <v>201.0</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C41" s="3">
-        <v>270.0</v>
+        <v>285.0</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -1795,17 +1802,17 @@
       <c r="Z41" s="4"/>
     </row>
     <row r="42">
-      <c r="A42" s="6">
-        <v>207.0</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C42" s="7">
-        <v>325.0</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>2</v>
+      <c r="A42" s="1">
+        <v>204.0</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="3">
+        <v>270.0</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -1832,16 +1839,16 @@
     </row>
     <row r="43">
       <c r="A43" s="6">
-        <v>216.0</v>
+        <v>207.0</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
+        <v>325.0</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
@@ -1867,17 +1874,17 @@
       <c r="Z43" s="4"/>
     </row>
     <row r="44">
-      <c r="A44" s="1">
-        <v>218.0</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C44" s="3">
-        <v>275.0</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>2</v>
+      <c r="A44" s="6">
+        <v>216.0</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -1904,16 +1911,16 @@
     </row>
     <row r="45">
       <c r="A45" s="1">
-        <v>227.0</v>
+        <v>218.0</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C45" s="3">
-        <v>325.0</v>
+        <v>275.0</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -1940,16 +1947,16 @@
     </row>
     <row r="46">
       <c r="A46" s="1">
-        <v>229.0</v>
+        <v>227.0</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C46" s="3">
-        <v>300.0</v>
+        <v>325.0</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -1975,17 +1982,17 @@
       <c r="Z46" s="4"/>
     </row>
     <row r="47">
-      <c r="A47" s="6">
-        <v>232.0</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>2</v>
+      <c r="A47" s="1">
+        <v>229.0</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="3">
+        <v>300.0</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -2011,17 +2018,17 @@
       <c r="Z47" s="4"/>
     </row>
     <row r="48">
-      <c r="A48" s="1">
-        <v>237.0</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C48" s="3">
-        <v>240.0</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>2</v>
+      <c r="A48" s="6">
+        <v>232.0</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
@@ -2047,17 +2054,17 @@
       <c r="Z48" s="4"/>
     </row>
     <row r="49">
-      <c r="A49" s="6">
-        <v>238.0</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>2</v>
+      <c r="A49" s="1">
+        <v>237.0</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="3">
+        <v>240.0</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -2083,17 +2090,17 @@
       <c r="Z49" s="4"/>
     </row>
     <row r="50">
-      <c r="A50" s="1">
-        <v>243.0</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C50" s="3">
-        <v>225.0</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>2</v>
+      <c r="A50" s="6">
+        <v>238.0</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
@@ -2119,17 +2126,17 @@
       <c r="Z50" s="4"/>
     </row>
     <row r="51">
-      <c r="A51" s="6">
-        <v>250.0</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>2</v>
+      <c r="A51" s="1">
+        <v>243.0</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="3">
+        <v>225.0</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
@@ -2156,16 +2163,16 @@
     </row>
     <row r="52">
       <c r="A52" s="6">
-        <v>257.0</v>
+        <v>250.0</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
@@ -2191,17 +2198,17 @@
       <c r="Z52" s="4"/>
     </row>
     <row r="53">
-      <c r="A53" s="1">
-        <v>265.0</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C53" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>2</v>
+      <c r="A53" s="6">
+        <v>257.0</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
@@ -2227,17 +2234,17 @@
       <c r="Z53" s="4"/>
     </row>
     <row r="54">
-      <c r="A54" s="6">
-        <v>270.0</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>2</v>
+      <c r="A54" s="1">
+        <v>265.0</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
@@ -2264,16 +2271,16 @@
     </row>
     <row r="55">
       <c r="A55" s="6">
-        <v>273.0</v>
+        <v>270.0</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
@@ -2299,17 +2306,17 @@
       <c r="Z55" s="4"/>
     </row>
     <row r="56">
-      <c r="A56" s="1">
-        <v>274.0</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C56" s="3">
-        <v>260.0</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>2</v>
+      <c r="A56" s="6">
+        <v>273.0</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
@@ -2335,17 +2342,17 @@
       <c r="Z56" s="4"/>
     </row>
     <row r="57">
-      <c r="A57" s="6">
-        <v>275.0</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>2</v>
+      <c r="A57" s="1">
+        <v>274.0</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="3">
+        <v>260.0</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
@@ -2372,16 +2379,16 @@
     </row>
     <row r="58">
       <c r="A58" s="6">
-        <v>279.0</v>
+        <v>275.0</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
@@ -2407,17 +2414,17 @@
       <c r="Z58" s="4"/>
     </row>
     <row r="59">
-      <c r="A59" s="1">
-        <v>290.0</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C59" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>2</v>
+      <c r="A59" s="6">
+        <v>279.0</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
@@ -2447,13 +2454,13 @@
         <v>290.0</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C60" s="3">
         <v>310.0</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
@@ -2480,16 +2487,16 @@
     </row>
     <row r="61">
       <c r="A61" s="1">
-        <v>306.0</v>
+        <v>290.0</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C61" s="3">
-        <v>235.0</v>
+        <v>310.0</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
@@ -2515,17 +2522,17 @@
       <c r="Z61" s="4"/>
     </row>
     <row r="62">
-      <c r="A62" s="6">
-        <v>323.0</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>2</v>
+      <c r="A62" s="1">
+        <v>306.0</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="3">
+        <v>235.0</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
@@ -2551,17 +2558,17 @@
       <c r="Z62" s="4"/>
     </row>
     <row r="63">
-      <c r="A63" s="1">
-        <v>324.0</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C63" s="3">
-        <v>260.0</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>2</v>
+      <c r="A63" s="6">
+        <v>323.0</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
@@ -2588,16 +2595,16 @@
     </row>
     <row r="64">
       <c r="A64" s="1">
-        <v>328.0</v>
+        <v>324.0</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C64" s="3">
-        <v>255.0</v>
+        <v>260.0</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
@@ -2623,17 +2630,17 @@
       <c r="Z64" s="4"/>
     </row>
     <row r="65">
-      <c r="A65" s="6">
-        <v>338.0</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>2</v>
+      <c r="A65" s="1">
+        <v>328.0</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" s="3">
+        <v>255.0</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
@@ -2659,17 +2666,17 @@
       <c r="Z65" s="4"/>
     </row>
     <row r="66">
-      <c r="A66" s="1">
-        <v>349.0</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C66" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>2</v>
+      <c r="A66" s="6">
+        <v>338.0</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
@@ -2696,16 +2703,16 @@
     </row>
     <row r="67">
       <c r="A67" s="1">
-        <v>350.0</v>
+        <v>349.0</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C67" s="3">
-        <v>225.0</v>
+        <v>250.0</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
@@ -2732,16 +2739,16 @@
     </row>
     <row r="68">
       <c r="A68" s="1">
-        <v>361.0</v>
+        <v>350.0</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C68" s="3">
-        <v>245.0</v>
+        <v>225.0</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
@@ -2767,17 +2774,17 @@
       <c r="Z68" s="4"/>
     </row>
     <row r="69">
-      <c r="A69" s="6">
-        <v>365.0</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C69" s="7">
-        <v>335.0</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>2</v>
+      <c r="A69" s="1">
+        <v>361.0</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" s="3">
+        <v>245.0</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
@@ -2803,17 +2810,17 @@
       <c r="Z69" s="4"/>
     </row>
     <row r="70">
-      <c r="A70" s="1">
-        <v>367.0</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C70" s="3">
-        <v>225.0</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>2</v>
+      <c r="A70" s="6">
+        <v>365.0</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" s="7">
+        <v>335.0</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
@@ -2840,16 +2847,16 @@
     </row>
     <row r="71">
       <c r="A71" s="1">
-        <v>369.0</v>
+        <v>367.0</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C71" s="3">
-        <v>310.0</v>
+        <v>225.0</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
@@ -2876,16 +2883,16 @@
     </row>
     <row r="72">
       <c r="A72" s="1">
-        <v>375.0</v>
+        <v>369.0</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C72" s="3">
-        <v>245.0</v>
+        <v>310.0</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
@@ -2912,16 +2919,16 @@
     </row>
     <row r="73">
       <c r="A73" s="1">
-        <v>377.0</v>
+        <v>375.0</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C73" s="3">
-        <v>275.0</v>
+        <v>245.0</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
@@ -2948,16 +2955,16 @@
     </row>
     <row r="74">
       <c r="A74" s="1">
-        <v>382.0</v>
+        <v>377.0</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C74" s="3">
-        <v>295.0</v>
+        <v>275.0</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
@@ -2984,16 +2991,16 @@
     </row>
     <row r="75">
       <c r="A75" s="1">
-        <v>389.0</v>
+        <v>382.0</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C75" s="3">
-        <v>265.0</v>
+        <v>295.0</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
@@ -3019,17 +3026,17 @@
       <c r="Z75" s="4"/>
     </row>
     <row r="76">
-      <c r="A76" s="6">
-        <v>390.0</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>2</v>
+      <c r="A76" s="1">
+        <v>389.0</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" s="3">
+        <v>265.0</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
@@ -3056,16 +3063,16 @@
     </row>
     <row r="77">
       <c r="A77" s="6">
-        <v>398.0</v>
+        <v>390.0</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
@@ -3091,17 +3098,17 @@
       <c r="Z77" s="4"/>
     </row>
     <row r="78">
-      <c r="A78" s="1">
-        <v>399.0</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C78" s="3">
-        <v>260.0</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>2</v>
+      <c r="A78" s="6">
+        <v>398.0</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
@@ -3128,16 +3135,16 @@
     </row>
     <row r="79">
       <c r="A79" s="1">
-        <v>404.0</v>
+        <v>399.0</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C79" s="3">
-        <v>250.0</v>
+        <v>260.0</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
@@ -3163,17 +3170,17 @@
       <c r="Z79" s="4"/>
     </row>
     <row r="80">
-      <c r="A80" s="6">
-        <v>406.0</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>2</v>
+      <c r="A80" s="1">
+        <v>404.0</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
@@ -3200,16 +3207,16 @@
     </row>
     <row r="81">
       <c r="A81" s="6">
-        <v>413.0</v>
+        <v>406.0</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
@@ -3235,17 +3242,17 @@
       <c r="Z81" s="4"/>
     </row>
     <row r="82">
-      <c r="A82" s="1">
-        <v>423.0</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C82" s="3">
-        <v>280.0</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>2</v>
+      <c r="A82" s="6">
+        <v>413.0</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
@@ -3272,16 +3279,16 @@
     </row>
     <row r="83">
       <c r="A83" s="1">
-        <v>429.0</v>
+        <v>423.0</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C83" s="3">
-        <v>290.0</v>
+        <v>280.0</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
@@ -3308,16 +3315,16 @@
     </row>
     <row r="84">
       <c r="A84" s="1">
-        <v>430.0</v>
+        <v>429.0</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C84" s="3">
         <v>290.0</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
@@ -3344,16 +3351,16 @@
     </row>
     <row r="85">
       <c r="A85" s="1">
-        <v>442.0</v>
+        <v>430.0</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C85" s="3">
-        <v>295.0</v>
+        <v>290.0</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
@@ -3379,17 +3386,17 @@
       <c r="Z85" s="4"/>
     </row>
     <row r="86">
-      <c r="A86" s="6">
-        <v>450.0</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>2</v>
+      <c r="A86" s="1">
+        <v>442.0</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
@@ -3415,17 +3422,17 @@
       <c r="Z86" s="4"/>
     </row>
     <row r="87">
-      <c r="A87" s="1">
-        <v>456.0</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C87" s="3">
-        <v>235.0</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>2</v>
+      <c r="A87" s="6">
+        <v>450.0</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
@@ -3452,16 +3459,16 @@
     </row>
     <row r="88">
       <c r="A88" s="1">
-        <v>457.0</v>
+        <v>456.0</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C88" s="3">
-        <v>250.0</v>
+        <v>235.0</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
@@ -3488,16 +3495,16 @@
     </row>
     <row r="89">
       <c r="A89" s="1">
-        <v>463.0</v>
+        <v>457.0</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C89" s="3">
-        <v>310.0</v>
+        <v>250.0</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
@@ -3524,16 +3531,16 @@
     </row>
     <row r="90">
       <c r="A90" s="1">
-        <v>470.0</v>
+        <v>463.0</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C90" s="3">
-        <v>265.0</v>
+        <v>310.0</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
@@ -3559,17 +3566,17 @@
       <c r="Z90" s="4"/>
     </row>
     <row r="91">
-      <c r="A91" s="6">
-        <v>480.0</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>2</v>
+      <c r="A91" s="1">
+        <v>470.0</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" s="3">
+        <v>265.0</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
@@ -3595,17 +3602,17 @@
       <c r="Z91" s="4"/>
     </row>
     <row r="92">
-      <c r="A92" s="1">
-        <v>485.0</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C92" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>2</v>
+      <c r="A92" s="6">
+        <v>480.0</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
@@ -3632,16 +3639,16 @@
     </row>
     <row r="93">
       <c r="A93" s="1">
-        <v>503.0</v>
+        <v>485.0</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C93" s="3">
-        <v>260.0</v>
+        <v>310.0</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
@@ -3668,16 +3675,16 @@
     </row>
     <row r="94">
       <c r="A94" s="1">
-        <v>510.0</v>
+        <v>503.0</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C94" s="3">
-        <v>285.0</v>
+        <v>260.0</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
@@ -3703,17 +3710,17 @@
       <c r="Z94" s="4"/>
     </row>
     <row r="95">
-      <c r="A95" s="6">
-        <v>514.0</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>2</v>
+      <c r="A95" s="1">
+        <v>510.0</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" s="3">
+        <v>285.0</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
@@ -3739,17 +3746,17 @@
       <c r="Z95" s="4"/>
     </row>
     <row r="96">
-      <c r="A96" s="1">
-        <v>534.0</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C96" s="3">
-        <v>230.0</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>2</v>
+      <c r="A96" s="6">
+        <v>514.0</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
@@ -3776,16 +3783,16 @@
     </row>
     <row r="97">
       <c r="A97" s="1">
-        <v>535.0</v>
+        <v>534.0</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C97" s="3">
-        <v>295.0</v>
+        <v>230.0</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
@@ -3812,16 +3819,16 @@
     </row>
     <row r="98">
       <c r="A98" s="1">
-        <v>552.0</v>
+        <v>535.0</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C98" s="3">
-        <v>280.0</v>
+        <v>295.0</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
@@ -3848,16 +3855,16 @@
     </row>
     <row r="99">
       <c r="A99" s="1">
-        <v>561.0</v>
+        <v>552.0</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C99" s="3">
         <v>280.0</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
@@ -3883,17 +3890,17 @@
       <c r="Z99" s="4"/>
     </row>
     <row r="100">
-      <c r="A100" s="6">
-        <v>562.0</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>2</v>
+      <c r="A100" s="1">
+        <v>561.0</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" s="3">
+        <v>280.0</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
@@ -3919,17 +3926,17 @@
       <c r="Z100" s="4"/>
     </row>
     <row r="101">
-      <c r="A101" s="1">
-        <v>567.0</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C101" s="3">
-        <v>325.0</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>2</v>
+      <c r="A101" s="6">
+        <v>562.0</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
@@ -3956,16 +3963,16 @@
     </row>
     <row r="102">
       <c r="A102" s="1">
-        <v>576.0</v>
+        <v>567.0</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C102" s="3">
-        <v>260.0</v>
+        <v>325.0</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
@@ -3991,17 +3998,17 @@
       <c r="Z102" s="4"/>
     </row>
     <row r="103">
-      <c r="A103" s="6">
-        <v>580.0</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>2</v>
+      <c r="A103" s="1">
+        <v>576.0</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103" s="3">
+        <v>260.0</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
@@ -4027,17 +4034,17 @@
       <c r="Z103" s="4"/>
     </row>
     <row r="104">
-      <c r="A104" s="1">
-        <v>583.0</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C104" s="3">
-        <v>320.0</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>2</v>
+      <c r="A104" s="6">
+        <v>580.0</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
@@ -4064,16 +4071,16 @@
     </row>
     <row r="105">
       <c r="A105" s="1">
-        <v>584.0</v>
+        <v>583.0</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C105" s="3">
-        <v>270.0</v>
+        <v>320.0</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
@@ -4100,16 +4107,16 @@
     </row>
     <row r="106">
       <c r="A106" s="1">
-        <v>586.0</v>
+        <v>584.0</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C106" s="3">
-        <v>240.0</v>
+        <v>270.0</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
@@ -4135,17 +4142,17 @@
       <c r="Z106" s="4"/>
     </row>
     <row r="107">
-      <c r="A107" s="6">
-        <v>587.0</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>2</v>
+      <c r="A107" s="1">
+        <v>586.0</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" s="3">
+        <v>240.0</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
@@ -4171,17 +4178,17 @@
       <c r="Z107" s="4"/>
     </row>
     <row r="108">
-      <c r="A108" s="1">
-        <v>593.0</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C108" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>2</v>
+      <c r="A108" s="6">
+        <v>587.0</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
@@ -4207,17 +4214,17 @@
       <c r="Z108" s="4"/>
     </row>
     <row r="109">
-      <c r="A109" s="6">
-        <v>599.0</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>2</v>
+      <c r="A109" s="1">
+        <v>593.0</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
@@ -4243,17 +4250,17 @@
       <c r="Z109" s="4"/>
     </row>
     <row r="110">
-      <c r="A110" s="1">
-        <v>604.0</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C110" s="3">
-        <v>295.0</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>2</v>
+      <c r="A110" s="6">
+        <v>599.0</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
@@ -4283,13 +4290,13 @@
         <v>604.0</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C111" s="3">
         <v>295.0</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
@@ -4316,16 +4323,16 @@
     </row>
     <row r="112">
       <c r="A112" s="1">
-        <v>612.0</v>
+        <v>604.0</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C112" s="3">
-        <v>255.0</v>
+        <v>295.0</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
@@ -4351,17 +4358,17 @@
       <c r="Z112" s="4"/>
     </row>
     <row r="113">
-      <c r="A113" s="6">
-        <v>615.0</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C113" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>2</v>
+      <c r="A113" s="1">
+        <v>612.0</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113" s="3">
+        <v>255.0</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
@@ -4387,17 +4394,17 @@
       <c r="Z113" s="4"/>
     </row>
     <row r="114">
-      <c r="A114" s="1">
-        <v>617.0</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C114" s="3">
-        <v>330.0</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>2</v>
+      <c r="A114" s="6">
+        <v>615.0</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
@@ -4423,17 +4430,17 @@
       <c r="Z114" s="4"/>
     </row>
     <row r="115">
-      <c r="A115" s="6">
-        <v>618.0</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>2</v>
+      <c r="A115" s="1">
+        <v>617.0</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115" s="3">
+        <v>330.0</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
@@ -4459,17 +4466,17 @@
       <c r="Z115" s="4"/>
     </row>
     <row r="116">
-      <c r="A116" s="1">
-        <v>623.0</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C116" s="3">
-        <v>290.0</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>2</v>
+      <c r="A116" s="6">
+        <v>618.0</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
@@ -4496,16 +4503,16 @@
     </row>
     <row r="117">
       <c r="A117" s="1">
-        <v>625.0</v>
+        <v>623.0</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C117" s="3">
-        <v>320.0</v>
+        <v>290.0</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
@@ -4532,16 +4539,16 @@
     </row>
     <row r="118">
       <c r="A118" s="1">
-        <v>626.0</v>
+        <v>625.0</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C118" s="3">
-        <v>305.0</v>
+        <v>320.0</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
@@ -4568,16 +4575,16 @@
     </row>
     <row r="119">
       <c r="A119" s="1">
-        <v>635.0</v>
+        <v>626.0</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C119" s="3">
-        <v>295.0</v>
+        <v>305.0</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
@@ -4604,16 +4611,16 @@
     </row>
     <row r="120">
       <c r="A120" s="1">
-        <v>642.0</v>
+        <v>635.0</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C120" s="3">
-        <v>270.0</v>
+        <v>295.0</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
@@ -4640,16 +4647,16 @@
     </row>
     <row r="121">
       <c r="A121" s="1">
-        <v>643.0</v>
+        <v>642.0</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C121" s="3">
-        <v>310.0</v>
+        <v>270.0</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
@@ -4675,17 +4682,17 @@
       <c r="Z121" s="4"/>
     </row>
     <row r="122">
-      <c r="A122" s="6">
-        <v>651.0</v>
+      <c r="A122" s="1">
+        <v>643.0</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="C122" s="3">
+        <v>310.0</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
@@ -4711,17 +4718,17 @@
       <c r="Z122" s="4"/>
     </row>
     <row r="123">
-      <c r="A123" s="1">
-        <v>652.0</v>
+      <c r="A123" s="6">
+        <v>651.0</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C123" s="3">
-        <v>330.0</v>
+        <v>3</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
@@ -4748,16 +4755,16 @@
     </row>
     <row r="124">
       <c r="A124" s="1">
-        <v>663.0</v>
+        <v>652.0</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C124" s="3">
-        <v>265.0</v>
+        <v>330.0</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
@@ -4783,17 +4790,17 @@
       <c r="Z124" s="4"/>
     </row>
     <row r="125">
-      <c r="A125" s="6">
-        <v>666.0</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C125" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D125" s="5" t="s">
-        <v>2</v>
+      <c r="A125" s="1">
+        <v>663.0</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125" s="3">
+        <v>265.0</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
@@ -4819,17 +4826,17 @@
       <c r="Z125" s="4"/>
     </row>
     <row r="126">
-      <c r="A126" s="1">
-        <v>668.0</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C126" s="3">
-        <v>305.0</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>2</v>
+      <c r="A126" s="6">
+        <v>666.0</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
@@ -4856,16 +4863,16 @@
     </row>
     <row r="127">
       <c r="A127" s="1">
-        <v>670.0</v>
+        <v>668.0</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C127" s="3">
-        <v>250.0</v>
+        <v>305.0</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
@@ -4892,16 +4899,16 @@
     </row>
     <row r="128">
       <c r="A128" s="1">
-        <v>671.0</v>
+        <v>670.0</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C128" s="3">
-        <v>305.0</v>
+        <v>250.0</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
@@ -4928,16 +4935,16 @@
     </row>
     <row r="129">
       <c r="A129" s="1">
-        <v>672.0</v>
+        <v>671.0</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C129" s="3">
-        <v>295.0</v>
+        <v>305.0</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
@@ -4963,17 +4970,17 @@
       <c r="Z129" s="4"/>
     </row>
     <row r="130">
-      <c r="A130" s="6">
-        <v>676.0</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C130" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D130" s="5" t="s">
-        <v>2</v>
+      <c r="A130" s="1">
+        <v>672.0</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
@@ -4999,17 +5006,17 @@
       <c r="Z130" s="4"/>
     </row>
     <row r="131">
-      <c r="A131" s="1">
-        <v>680.0</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C131" s="3">
-        <v>285.0</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>2</v>
+      <c r="A131" s="6">
+        <v>676.0</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
@@ -5036,16 +5043,16 @@
     </row>
     <row r="132">
       <c r="A132" s="1">
-        <v>688.0</v>
+        <v>680.0</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C132" s="3">
-        <v>310.0</v>
+        <v>285.0</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
@@ -5072,16 +5079,16 @@
     </row>
     <row r="133">
       <c r="A133" s="1">
-        <v>692.0</v>
+        <v>688.0</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C133" s="3">
-        <v>300.0</v>
+        <v>310.0</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
@@ -5111,13 +5118,13 @@
         <v>692.0</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C134" s="8">
         <v>300.0</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
@@ -5147,13 +5154,13 @@
         <v>696.0</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C135" s="3">
         <v>300.0</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
@@ -5183,13 +5190,13 @@
         <v>713.0</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
@@ -5219,13 +5226,13 @@
         <v>714.0</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C137" s="3">
         <v>275.0</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
@@ -5255,13 +5262,13 @@
         <v>718.0</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C138" s="3">
         <v>330.0</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
@@ -5291,13 +5298,13 @@
         <v>719.0</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C139" s="3">
         <v>280.0</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
@@ -5327,13 +5334,13 @@
         <v>732.0</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C140" s="3">
         <v>280.0</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
@@ -5363,13 +5370,13 @@
         <v>733.0</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C141" s="3">
         <v>320.0</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
@@ -5399,13 +5406,13 @@
         <v>736.0</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C142" s="3">
         <v>250.0</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
@@ -5435,13 +5442,13 @@
         <v>744.0</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C143" s="3">
         <v>270.0</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
@@ -5471,13 +5478,13 @@
         <v>747.0</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C144" s="3">
         <v>250.0</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
@@ -5507,13 +5514,13 @@
         <v>749.0</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C145" s="3">
         <v>335.0</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
@@ -5543,13 +5550,13 @@
         <v>757.0</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
@@ -5579,13 +5586,13 @@
         <v>758.0</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C147" s="3">
         <v>295.0</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
@@ -5615,13 +5622,13 @@
         <v>767.0</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C148" s="3">
         <v>290.0</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
@@ -5651,13 +5658,13 @@
         <v>772.0</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
@@ -5687,13 +5694,13 @@
         <v>775.0</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C150" s="3">
         <v>260.0</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
@@ -5723,13 +5730,13 @@
         <v>777.0</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C151" s="3">
         <v>310.0</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
@@ -5759,13 +5766,13 @@
         <v>792.0</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C152" s="3">
         <v>320.0</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
@@ -5795,13 +5802,13 @@
         <v>795.0</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C153" s="3">
         <v>255.0</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
@@ -5831,13 +5838,13 @@
         <v>801.0</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C154" s="3">
         <v>230.0</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
@@ -5867,13 +5874,13 @@
         <v>806.0</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C155" s="7">
         <v>280.0</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
@@ -5903,13 +5910,13 @@
         <v>809.0</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C156" s="3">
         <v>270.0</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
@@ -5939,13 +5946,13 @@
         <v>811.0</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C157" s="3">
         <v>260.0</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
@@ -5975,13 +5982,13 @@
         <v>819.0</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C158" s="3">
         <v>200.0</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
@@ -6011,13 +6018,13 @@
         <v>820.0</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C159" s="3">
         <v>245.0</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
@@ -6047,13 +6054,13 @@
         <v>821.0</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C160" s="3">
         <v>300.0</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
@@ -6083,13 +6090,13 @@
         <v>829.0</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
@@ -6119,13 +6126,13 @@
         <v>837.0</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
@@ -6155,13 +6162,13 @@
         <v>838.0</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
@@ -6191,13 +6198,13 @@
         <v>843.0</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
@@ -6227,13 +6234,13 @@
         <v>846.0</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C165" s="3">
         <v>295.0</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
@@ -6263,13 +6270,13 @@
         <v>853.0</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C166" s="3">
         <v>290.0</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
@@ -6299,13 +6306,13 @@
         <v>856.0</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C167" s="3">
         <v>260.0</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
@@ -6335,13 +6342,13 @@
         <v>861.0</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C168" s="3">
         <v>305.0</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E168" s="4"/>
       <c r="F168" s="4"/>
@@ -6371,13 +6378,13 @@
         <v>863.0</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C169" s="3">
         <v>275.0</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
@@ -6407,13 +6414,13 @@
         <v>872.0</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C170" s="3">
         <v>295.0</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E170" s="4"/>
       <c r="F170" s="4"/>
@@ -6443,13 +6450,13 @@
         <v>876.0</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C171" s="7">
         <v>250.0</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E171" s="4"/>
       <c r="F171" s="4"/>
@@ -6479,13 +6486,13 @@
         <v>880.0</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C172" s="3">
         <v>225.0</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E172" s="4"/>
       <c r="F172" s="4"/>
@@ -6515,13 +6522,13 @@
         <v>899.0</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C173" s="3">
         <v>310.0</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E173" s="4"/>
       <c r="F173" s="4"/>
@@ -6551,13 +6558,13 @@
         <v>901.0</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C174" s="3">
         <v>275.0</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E174" s="4"/>
       <c r="F174" s="4"/>
@@ -6587,13 +6594,13 @@
         <v>935.0</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C175" s="3">
         <v>310.0</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E175" s="4"/>
       <c r="F175" s="4"/>
@@ -6623,13 +6630,13 @@
         <v>1000.0</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C176" s="5">
         <v>2000.0</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E176" s="4"/>
       <c r="F176" s="4"/>

--- a/hauteur site.xlsx
+++ b/hauteur site.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="7">
   <si>
     <t>code_pneu</t>
   </si>
@@ -25,7 +25,10 @@
     <t>,</t>
   </si>
   <si>
-    <t xml:space="preserve">the creator </t>
+    <t>the creator</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>?</t>
@@ -1881,7 +1884,7 @@
         <v>3</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>3</v>
@@ -5013,7 +5016,7 @@
         <v>3</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>3</v>

--- a/hauteur site.xlsx
+++ b/hauteur site.xlsx
@@ -25,7 +25,7 @@
     <t>,</t>
   </si>
   <si>
-    <t>the creator</t>
+    <t>THE CREATOR 😁</t>
   </si>
   <si>
     <t>-</t>
@@ -326,10 +326,10 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.0"/>
-    <col customWidth="1" min="2" max="2" width="8.38"/>
-    <col customWidth="1" min="3" max="3" width="12.63"/>
-    <col customWidth="1" min="4" max="4" width="7.88"/>
+    <col customWidth="1" min="1" max="1" width="14.25"/>
+    <col customWidth="1" min="2" max="2" width="6.75"/>
+    <col customWidth="1" min="3" max="3" width="14.13"/>
+    <col customWidth="1" min="4" max="4" width="6.63"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/hauteur site.xlsx
+++ b/hauteur site.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="7">
   <si>
     <t>code_pneu</t>
   </si>
@@ -761,16 +761,16 @@
       <c r="Z12" s="4"/>
     </row>
     <row r="13">
-      <c r="A13" s="1">
-        <v>74.0</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="3">
-        <v>265.0</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="A13" s="6">
+        <v>70.0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="7">
+        <v>225.0</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="4"/>
@@ -798,13 +798,13 @@
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>77.0</v>
+        <v>74.0</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="3">
-        <v>260.0</v>
+        <v>265.0</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>3</v>
@@ -834,13 +834,13 @@
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <v>83.0</v>
+        <v>77.0</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="3">
-        <v>295.0</v>
+        <v>260.0</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>3</v>
@@ -870,13 +870,13 @@
     </row>
     <row r="16">
       <c r="A16" s="1">
-        <v>93.0</v>
+        <v>83.0</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="3">
-        <v>250.0</v>
+        <v>295.0</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>3</v>
@@ -906,13 +906,13 @@
     </row>
     <row r="17">
       <c r="A17" s="1">
-        <v>112.0</v>
+        <v>93.0</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="3">
-        <v>270.0</v>
+        <v>250.0</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>3</v>
@@ -942,13 +942,13 @@
     </row>
     <row r="18">
       <c r="A18" s="1">
-        <v>119.0</v>
+        <v>112.0</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="3">
-        <v>310.0</v>
+        <v>270.0</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>3</v>
@@ -977,16 +977,16 @@
       <c r="Z18" s="4"/>
     </row>
     <row r="19">
-      <c r="A19" s="6">
-        <v>123.0</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="A19" s="1">
+        <v>119.0</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E19" s="4"/>
@@ -1014,13 +1014,13 @@
     </row>
     <row r="20">
       <c r="A20" s="6">
-        <v>124.0</v>
+        <v>123.0</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="7">
-        <v>245.0</v>
+      <c r="C20" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>3</v>
@@ -1049,16 +1049,16 @@
       <c r="Z20" s="4"/>
     </row>
     <row r="21">
-      <c r="A21" s="1">
-        <v>125.0</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="3">
-        <v>265.0</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="A21" s="6">
+        <v>124.0</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7">
+        <v>245.0</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E21" s="4"/>
@@ -1086,13 +1086,13 @@
     </row>
     <row r="22">
       <c r="A22" s="1">
-        <v>129.0</v>
+        <v>125.0</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="3">
-        <v>270.0</v>
+        <v>265.0</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>3</v>
@@ -1122,13 +1122,13 @@
     </row>
     <row r="23">
       <c r="A23" s="1">
-        <v>131.0</v>
+        <v>129.0</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="3">
-        <v>255.0</v>
+        <v>270.0</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>3</v>
@@ -1158,13 +1158,13 @@
     </row>
     <row r="24">
       <c r="A24" s="1">
-        <v>132.0</v>
+        <v>131.0</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C24" s="3">
-        <v>250.0</v>
+        <v>255.0</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>3</v>
@@ -1194,13 +1194,13 @@
     </row>
     <row r="25">
       <c r="A25" s="1">
-        <v>138.0</v>
+        <v>132.0</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C25" s="3">
-        <v>315.0</v>
+        <v>250.0</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>3</v>
@@ -1230,13 +1230,13 @@
     </row>
     <row r="26">
       <c r="A26" s="1">
-        <v>139.0</v>
+        <v>138.0</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C26" s="3">
-        <v>250.0</v>
+        <v>315.0</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>3</v>
@@ -1265,16 +1265,16 @@
       <c r="Z26" s="4"/>
     </row>
     <row r="27">
-      <c r="A27" s="6">
-        <v>144.0</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="5" t="s">
+      <c r="A27" s="1">
+        <v>139.0</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E27" s="4"/>
@@ -1301,16 +1301,16 @@
       <c r="Z27" s="4"/>
     </row>
     <row r="28">
-      <c r="A28" s="1">
-        <v>145.0</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="3">
-        <v>275.0</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="A28" s="6">
+        <v>144.0</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E28" s="4"/>
@@ -1337,16 +1337,16 @@
       <c r="Z28" s="4"/>
     </row>
     <row r="29">
-      <c r="A29" s="6">
-        <v>146.0</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="7">
-        <v>300.0</v>
-      </c>
-      <c r="D29" s="5" t="s">
+      <c r="A29" s="1">
+        <v>145.0</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="3">
+        <v>275.0</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E29" s="4"/>
@@ -1373,16 +1373,16 @@
       <c r="Z29" s="4"/>
     </row>
     <row r="30">
-      <c r="A30" s="1">
-        <v>149.0</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="3">
-        <v>265.0</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="A30" s="6">
+        <v>146.0</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="7">
+        <v>300.0</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E30" s="4"/>
@@ -1410,13 +1410,13 @@
     </row>
     <row r="31">
       <c r="A31" s="1">
-        <v>153.0</v>
+        <v>149.0</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="3">
-        <v>325.0</v>
+        <v>265.0</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>3</v>
@@ -1446,7 +1446,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1">
-        <v>154.0</v>
+        <v>153.0</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>3</v>
@@ -1482,13 +1482,13 @@
     </row>
     <row r="33">
       <c r="A33" s="1">
-        <v>157.0</v>
+        <v>154.0</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C33" s="3">
-        <v>270.0</v>
+        <v>325.0</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>3</v>
@@ -1518,13 +1518,13 @@
     </row>
     <row r="34">
       <c r="A34" s="1">
-        <v>167.0</v>
+        <v>157.0</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C34" s="3">
-        <v>250.0</v>
+        <v>270.0</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>3</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1">
-        <v>175.0</v>
+        <v>167.0</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>3</v>
@@ -1589,16 +1589,16 @@
       <c r="Z35" s="4"/>
     </row>
     <row r="36">
-      <c r="A36" s="1">
-        <v>178.0</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="3">
-        <v>265.0</v>
-      </c>
-      <c r="D36" s="2" t="s">
+      <c r="A36" s="6">
+        <v>169.0</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E36" s="4"/>
@@ -1626,13 +1626,13 @@
     </row>
     <row r="37">
       <c r="A37" s="1">
-        <v>182.0</v>
+        <v>175.0</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="7">
-        <v>285.0</v>
+      <c r="C37" s="3">
+        <v>250.0</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>3</v>
@@ -1662,13 +1662,13 @@
     </row>
     <row r="38">
       <c r="A38" s="1">
-        <v>183.0</v>
+        <v>178.0</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C38" s="3">
-        <v>270.0</v>
+        <v>265.0</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>3</v>
@@ -1698,13 +1698,13 @@
     </row>
     <row r="39">
       <c r="A39" s="1">
-        <v>190.0</v>
+        <v>182.0</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="3">
-        <v>305.0</v>
+      <c r="C39" s="7">
+        <v>285.0</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>3</v>
@@ -1734,13 +1734,13 @@
     </row>
     <row r="40">
       <c r="A40" s="1">
-        <v>192.0</v>
+        <v>183.0</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C40" s="3">
-        <v>285.0</v>
+        <v>270.0</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>3</v>
@@ -1770,13 +1770,13 @@
     </row>
     <row r="41">
       <c r="A41" s="1">
-        <v>201.0</v>
+        <v>190.0</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C41" s="3">
-        <v>285.0</v>
+        <v>305.0</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>3</v>
@@ -1806,13 +1806,13 @@
     </row>
     <row r="42">
       <c r="A42" s="1">
-        <v>204.0</v>
+        <v>192.0</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C42" s="3">
-        <v>270.0</v>
+        <v>285.0</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>3</v>
@@ -1841,16 +1841,16 @@
       <c r="Z42" s="4"/>
     </row>
     <row r="43">
-      <c r="A43" s="6">
-        <v>207.0</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" s="7">
-        <v>325.0</v>
-      </c>
-      <c r="D43" s="5" t="s">
+      <c r="A43" s="1">
+        <v>201.0</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="3">
+        <v>285.0</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E43" s="4"/>
@@ -1877,16 +1877,16 @@
       <c r="Z43" s="4"/>
     </row>
     <row r="44">
-      <c r="A44" s="6">
-        <v>216.0</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="5" t="s">
+      <c r="A44" s="1">
+        <v>204.0</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="3">
+        <v>270.0</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E44" s="4"/>
@@ -1913,16 +1913,16 @@
       <c r="Z44" s="4"/>
     </row>
     <row r="45">
-      <c r="A45" s="1">
-        <v>218.0</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" s="3">
-        <v>275.0</v>
-      </c>
-      <c r="D45" s="2" t="s">
+      <c r="A45" s="6">
+        <v>207.0</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="7">
+        <v>325.0</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E45" s="4"/>
@@ -1949,16 +1949,16 @@
       <c r="Z45" s="4"/>
     </row>
     <row r="46">
-      <c r="A46" s="1">
-        <v>227.0</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" s="3">
-        <v>325.0</v>
-      </c>
-      <c r="D46" s="2" t="s">
+      <c r="A46" s="6">
+        <v>209.0</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E46" s="4"/>
@@ -1985,16 +1985,16 @@
       <c r="Z46" s="4"/>
     </row>
     <row r="47">
-      <c r="A47" s="1">
-        <v>229.0</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" s="3">
-        <v>300.0</v>
-      </c>
-      <c r="D47" s="2" t="s">
+      <c r="A47" s="6">
+        <v>216.0</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E47" s="4"/>
@@ -2021,16 +2021,16 @@
       <c r="Z47" s="4"/>
     </row>
     <row r="48">
-      <c r="A48" s="6">
-        <v>232.0</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="5" t="s">
+      <c r="A48" s="1">
+        <v>218.0</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="3">
+        <v>275.0</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E48" s="4"/>
@@ -2058,13 +2058,13 @@
     </row>
     <row r="49">
       <c r="A49" s="1">
-        <v>237.0</v>
+        <v>227.0</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C49" s="3">
-        <v>240.0</v>
+        <v>325.0</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>3</v>
@@ -2093,16 +2093,16 @@
       <c r="Z49" s="4"/>
     </row>
     <row r="50">
-      <c r="A50" s="6">
-        <v>238.0</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="5" t="s">
+      <c r="A50" s="1">
+        <v>229.0</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="3">
+        <v>300.0</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E50" s="4"/>
@@ -2129,16 +2129,16 @@
       <c r="Z50" s="4"/>
     </row>
     <row r="51">
-      <c r="A51" s="1">
-        <v>243.0</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" s="3">
-        <v>225.0</v>
-      </c>
-      <c r="D51" s="2" t="s">
+      <c r="A51" s="6">
+        <v>232.0</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E51" s="4"/>
@@ -2165,16 +2165,16 @@
       <c r="Z51" s="4"/>
     </row>
     <row r="52">
-      <c r="A52" s="6">
-        <v>250.0</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="5" t="s">
+      <c r="A52" s="1">
+        <v>237.0</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="3">
+        <v>240.0</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E52" s="4"/>
@@ -2202,7 +2202,7 @@
     </row>
     <row r="53">
       <c r="A53" s="6">
-        <v>257.0</v>
+        <v>238.0</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>3</v>
@@ -2238,13 +2238,13 @@
     </row>
     <row r="54">
       <c r="A54" s="1">
-        <v>265.0</v>
+        <v>243.0</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C54" s="3">
-        <v>250.0</v>
+        <v>225.0</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>3</v>
@@ -2274,7 +2274,7 @@
     </row>
     <row r="55">
       <c r="A55" s="6">
-        <v>270.0</v>
+        <v>250.0</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>3</v>
@@ -2310,7 +2310,7 @@
     </row>
     <row r="56">
       <c r="A56" s="6">
-        <v>273.0</v>
+        <v>257.0</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>3</v>
@@ -2345,16 +2345,16 @@
       <c r="Z56" s="4"/>
     </row>
     <row r="57">
-      <c r="A57" s="1">
-        <v>274.0</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57" s="3">
-        <v>260.0</v>
-      </c>
-      <c r="D57" s="2" t="s">
+      <c r="A57" s="6">
+        <v>264.0</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E57" s="4"/>
@@ -2381,16 +2381,16 @@
       <c r="Z57" s="4"/>
     </row>
     <row r="58">
-      <c r="A58" s="6">
-        <v>275.0</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D58" s="5" t="s">
+      <c r="A58" s="1">
+        <v>265.0</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E58" s="4"/>
@@ -2418,7 +2418,7 @@
     </row>
     <row r="59">
       <c r="A59" s="6">
-        <v>279.0</v>
+        <v>270.0</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>3</v>
@@ -2453,16 +2453,16 @@
       <c r="Z59" s="4"/>
     </row>
     <row r="60">
-      <c r="A60" s="1">
-        <v>290.0</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D60" s="2" t="s">
+      <c r="A60" s="6">
+        <v>273.0</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E60" s="4"/>
@@ -2490,13 +2490,13 @@
     </row>
     <row r="61">
       <c r="A61" s="1">
-        <v>290.0</v>
+        <v>274.0</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C61" s="3">
-        <v>310.0</v>
+        <v>260.0</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>3</v>
@@ -2525,16 +2525,16 @@
       <c r="Z61" s="4"/>
     </row>
     <row r="62">
-      <c r="A62" s="1">
-        <v>306.0</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" s="3">
-        <v>235.0</v>
-      </c>
-      <c r="D62" s="2" t="s">
+      <c r="A62" s="6">
+        <v>275.0</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E62" s="4"/>
@@ -2562,7 +2562,7 @@
     </row>
     <row r="63">
       <c r="A63" s="6">
-        <v>323.0</v>
+        <v>279.0</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>3</v>
@@ -2598,13 +2598,13 @@
     </row>
     <row r="64">
       <c r="A64" s="1">
-        <v>324.0</v>
+        <v>290.0</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C64" s="3">
-        <v>260.0</v>
+        <v>310.0</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>3</v>
@@ -2634,13 +2634,13 @@
     </row>
     <row r="65">
       <c r="A65" s="1">
-        <v>328.0</v>
+        <v>290.0</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C65" s="3">
-        <v>255.0</v>
+        <v>310.0</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>3</v>
@@ -2669,16 +2669,16 @@
       <c r="Z65" s="4"/>
     </row>
     <row r="66">
-      <c r="A66" s="6">
-        <v>338.0</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D66" s="5" t="s">
+      <c r="A66" s="1">
+        <v>306.0</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="3">
+        <v>235.0</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E66" s="4"/>
@@ -2705,16 +2705,16 @@
       <c r="Z66" s="4"/>
     </row>
     <row r="67">
-      <c r="A67" s="1">
-        <v>349.0</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C67" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D67" s="2" t="s">
+      <c r="A67" s="6">
+        <v>309.0</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E67" s="4"/>
@@ -2741,16 +2741,16 @@
       <c r="Z67" s="4"/>
     </row>
     <row r="68">
-      <c r="A68" s="1">
-        <v>350.0</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" s="3">
-        <v>225.0</v>
-      </c>
-      <c r="D68" s="2" t="s">
+      <c r="A68" s="6">
+        <v>323.0</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E68" s="4"/>
@@ -2778,13 +2778,13 @@
     </row>
     <row r="69">
       <c r="A69" s="1">
-        <v>361.0</v>
+        <v>324.0</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C69" s="3">
-        <v>245.0</v>
+        <v>260.0</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>3</v>
@@ -2813,16 +2813,16 @@
       <c r="Z69" s="4"/>
     </row>
     <row r="70">
-      <c r="A70" s="6">
-        <v>365.0</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C70" s="7">
-        <v>335.0</v>
-      </c>
-      <c r="D70" s="5" t="s">
+      <c r="A70" s="1">
+        <v>328.0</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" s="3">
+        <v>255.0</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E70" s="4"/>
@@ -2849,16 +2849,16 @@
       <c r="Z70" s="4"/>
     </row>
     <row r="71">
-      <c r="A71" s="1">
-        <v>367.0</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C71" s="3">
-        <v>225.0</v>
-      </c>
-      <c r="D71" s="2" t="s">
+      <c r="A71" s="6">
+        <v>338.0</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E71" s="4"/>
@@ -2886,13 +2886,13 @@
     </row>
     <row r="72">
       <c r="A72" s="1">
-        <v>369.0</v>
+        <v>349.0</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C72" s="3">
-        <v>310.0</v>
+        <v>250.0</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>3</v>
@@ -2922,13 +2922,13 @@
     </row>
     <row r="73">
       <c r="A73" s="1">
-        <v>375.0</v>
+        <v>350.0</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C73" s="3">
-        <v>245.0</v>
+        <v>225.0</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>3</v>
@@ -2958,13 +2958,13 @@
     </row>
     <row r="74">
       <c r="A74" s="1">
-        <v>377.0</v>
+        <v>361.0</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C74" s="3">
-        <v>275.0</v>
+        <v>245.0</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>3</v>
@@ -2993,16 +2993,16 @@
       <c r="Z74" s="4"/>
     </row>
     <row r="75">
-      <c r="A75" s="1">
-        <v>382.0</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C75" s="3">
-        <v>295.0</v>
-      </c>
-      <c r="D75" s="2" t="s">
+      <c r="A75" s="6">
+        <v>365.0</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="7">
+        <v>335.0</v>
+      </c>
+      <c r="D75" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E75" s="4"/>
@@ -3030,13 +3030,13 @@
     </row>
     <row r="76">
       <c r="A76" s="1">
-        <v>389.0</v>
+        <v>367.0</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C76" s="3">
-        <v>265.0</v>
+        <v>225.0</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>3</v>
@@ -3065,16 +3065,16 @@
       <c r="Z76" s="4"/>
     </row>
     <row r="77">
-      <c r="A77" s="6">
-        <v>390.0</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D77" s="5" t="s">
+      <c r="A77" s="1">
+        <v>369.0</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E77" s="4"/>
@@ -3101,16 +3101,16 @@
       <c r="Z77" s="4"/>
     </row>
     <row r="78">
-      <c r="A78" s="6">
-        <v>398.0</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D78" s="5" t="s">
+      <c r="A78" s="1">
+        <v>375.0</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" s="3">
+        <v>245.0</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E78" s="4"/>
@@ -3138,13 +3138,13 @@
     </row>
     <row r="79">
       <c r="A79" s="1">
-        <v>399.0</v>
+        <v>377.0</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C79" s="3">
-        <v>260.0</v>
+        <v>275.0</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>3</v>
@@ -3174,13 +3174,13 @@
     </row>
     <row r="80">
       <c r="A80" s="1">
-        <v>404.0</v>
+        <v>382.0</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C80" s="3">
-        <v>250.0</v>
+        <v>295.0</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>3</v>
@@ -3209,16 +3209,16 @@
       <c r="Z80" s="4"/>
     </row>
     <row r="81">
-      <c r="A81" s="6">
-        <v>406.0</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D81" s="5" t="s">
+      <c r="A81" s="1">
+        <v>389.0</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" s="3">
+        <v>265.0</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E81" s="4"/>
@@ -3246,7 +3246,7 @@
     </row>
     <row r="82">
       <c r="A82" s="6">
-        <v>413.0</v>
+        <v>390.0</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>3</v>
@@ -3281,16 +3281,16 @@
       <c r="Z82" s="4"/>
     </row>
     <row r="83">
-      <c r="A83" s="1">
-        <v>423.0</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C83" s="3">
-        <v>280.0</v>
-      </c>
-      <c r="D83" s="2" t="s">
+      <c r="A83" s="6">
+        <v>398.0</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E83" s="4"/>
@@ -3318,13 +3318,13 @@
     </row>
     <row r="84">
       <c r="A84" s="1">
-        <v>429.0</v>
+        <v>399.0</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C84" s="3">
-        <v>290.0</v>
+        <v>260.0</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>3</v>
@@ -3354,13 +3354,13 @@
     </row>
     <row r="85">
       <c r="A85" s="1">
-        <v>430.0</v>
+        <v>404.0</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C85" s="3">
-        <v>290.0</v>
+        <v>250.0</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>3</v>
@@ -3389,16 +3389,16 @@
       <c r="Z85" s="4"/>
     </row>
     <row r="86">
-      <c r="A86" s="1">
-        <v>442.0</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C86" s="3">
-        <v>295.0</v>
-      </c>
-      <c r="D86" s="2" t="s">
+      <c r="A86" s="6">
+        <v>406.0</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E86" s="4"/>
@@ -3426,7 +3426,7 @@
     </row>
     <row r="87">
       <c r="A87" s="6">
-        <v>450.0</v>
+        <v>413.0</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>3</v>
@@ -3462,13 +3462,13 @@
     </row>
     <row r="88">
       <c r="A88" s="1">
-        <v>456.0</v>
+        <v>423.0</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C88" s="3">
-        <v>235.0</v>
+        <v>280.0</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>3</v>
@@ -3498,13 +3498,13 @@
     </row>
     <row r="89">
       <c r="A89" s="1">
-        <v>457.0</v>
+        <v>429.0</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C89" s="3">
-        <v>250.0</v>
+        <v>290.0</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>3</v>
@@ -3534,13 +3534,13 @@
     </row>
     <row r="90">
       <c r="A90" s="1">
-        <v>463.0</v>
+        <v>430.0</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C90" s="3">
-        <v>310.0</v>
+        <v>290.0</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>3</v>
@@ -3570,13 +3570,13 @@
     </row>
     <row r="91">
       <c r="A91" s="1">
-        <v>470.0</v>
+        <v>442.0</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C91" s="3">
-        <v>265.0</v>
+        <v>295.0</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>3</v>
@@ -3606,13 +3606,13 @@
     </row>
     <row r="92">
       <c r="A92" s="6">
-        <v>480.0</v>
+        <v>450.0</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C92" s="7" t="s">
-        <v>5</v>
+      <c r="C92" s="7">
+        <v>260.0</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>3</v>
@@ -3642,13 +3642,13 @@
     </row>
     <row r="93">
       <c r="A93" s="1">
-        <v>485.0</v>
+        <v>456.0</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C93" s="3">
-        <v>310.0</v>
+        <v>235.0</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>3</v>
@@ -3678,13 +3678,13 @@
     </row>
     <row r="94">
       <c r="A94" s="1">
-        <v>503.0</v>
+        <v>457.0</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C94" s="3">
-        <v>260.0</v>
+        <v>250.0</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>3</v>
@@ -3714,13 +3714,13 @@
     </row>
     <row r="95">
       <c r="A95" s="1">
-        <v>510.0</v>
+        <v>463.0</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C95" s="3">
-        <v>285.0</v>
+        <v>310.0</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>3</v>
@@ -3749,16 +3749,16 @@
       <c r="Z95" s="4"/>
     </row>
     <row r="96">
-      <c r="A96" s="6">
-        <v>514.0</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D96" s="5" t="s">
+      <c r="A96" s="1">
+        <v>470.0</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" s="3">
+        <v>265.0</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E96" s="4"/>
@@ -3785,16 +3785,16 @@
       <c r="Z96" s="4"/>
     </row>
     <row r="97">
-      <c r="A97" s="1">
-        <v>534.0</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C97" s="3">
-        <v>230.0</v>
-      </c>
-      <c r="D97" s="2" t="s">
+      <c r="A97" s="6">
+        <v>480.0</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E97" s="4"/>
@@ -3822,13 +3822,13 @@
     </row>
     <row r="98">
       <c r="A98" s="1">
-        <v>535.0</v>
+        <v>485.0</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C98" s="3">
-        <v>295.0</v>
+        <v>310.0</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>3</v>
@@ -3857,16 +3857,14 @@
       <c r="Z98" s="4"/>
     </row>
     <row r="99">
-      <c r="A99" s="1">
-        <v>552.0</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C99" s="3">
-        <v>280.0</v>
-      </c>
-      <c r="D99" s="2" t="s">
+      <c r="A99" s="6">
+        <v>490.0</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" s="3"/>
+      <c r="D99" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E99" s="4"/>
@@ -3894,13 +3892,13 @@
     </row>
     <row r="100">
       <c r="A100" s="1">
-        <v>561.0</v>
+        <v>503.0</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C100" s="3">
-        <v>280.0</v>
+        <v>260.0</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>3</v>
@@ -3929,16 +3927,16 @@
       <c r="Z100" s="4"/>
     </row>
     <row r="101">
-      <c r="A101" s="6">
-        <v>562.0</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D101" s="5" t="s">
+      <c r="A101" s="1">
+        <v>510.0</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" s="3">
+        <v>285.0</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E101" s="4"/>
@@ -3965,16 +3963,16 @@
       <c r="Z101" s="4"/>
     </row>
     <row r="102">
-      <c r="A102" s="1">
-        <v>567.0</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C102" s="3">
-        <v>325.0</v>
-      </c>
-      <c r="D102" s="2" t="s">
+      <c r="A102" s="6">
+        <v>514.0</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" s="7">
+        <v>315.0</v>
+      </c>
+      <c r="D102" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E102" s="4"/>
@@ -4002,13 +4000,13 @@
     </row>
     <row r="103">
       <c r="A103" s="1">
-        <v>576.0</v>
+        <v>534.0</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C103" s="3">
-        <v>260.0</v>
+        <v>230.0</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>3</v>
@@ -4037,16 +4035,16 @@
       <c r="Z103" s="4"/>
     </row>
     <row r="104">
-      <c r="A104" s="6">
-        <v>580.0</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D104" s="5" t="s">
+      <c r="A104" s="1">
+        <v>535.0</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E104" s="4"/>
@@ -4074,13 +4072,13 @@
     </row>
     <row r="105">
       <c r="A105" s="1">
-        <v>583.0</v>
+        <v>552.0</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C105" s="3">
-        <v>320.0</v>
+        <v>280.0</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>3</v>
@@ -4110,13 +4108,13 @@
     </row>
     <row r="106">
       <c r="A106" s="1">
-        <v>584.0</v>
+        <v>561.0</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C106" s="3">
-        <v>270.0</v>
+        <v>280.0</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>3</v>
@@ -4145,16 +4143,16 @@
       <c r="Z106" s="4"/>
     </row>
     <row r="107">
-      <c r="A107" s="1">
-        <v>586.0</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C107" s="3">
-        <v>240.0</v>
-      </c>
-      <c r="D107" s="2" t="s">
+      <c r="A107" s="6">
+        <v>562.0</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E107" s="4"/>
@@ -4181,16 +4179,16 @@
       <c r="Z107" s="4"/>
     </row>
     <row r="108">
-      <c r="A108" s="6">
-        <v>587.0</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D108" s="5" t="s">
+      <c r="A108" s="1">
+        <v>567.0</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108" s="3">
+        <v>325.0</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E108" s="4"/>
@@ -4218,13 +4216,13 @@
     </row>
     <row r="109">
       <c r="A109" s="1">
-        <v>593.0</v>
+        <v>576.0</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C109" s="3">
-        <v>250.0</v>
+        <v>260.0</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>3</v>
@@ -4254,13 +4252,13 @@
     </row>
     <row r="110">
       <c r="A110" s="6">
-        <v>599.0</v>
+        <v>580.0</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C110" s="7" t="s">
-        <v>5</v>
+      <c r="C110" s="7">
+        <v>240.0</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>3</v>
@@ -4290,13 +4288,13 @@
     </row>
     <row r="111">
       <c r="A111" s="1">
-        <v>604.0</v>
+        <v>583.0</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C111" s="3">
-        <v>295.0</v>
+        <v>320.0</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>3</v>
@@ -4326,13 +4324,13 @@
     </row>
     <row r="112">
       <c r="A112" s="1">
-        <v>604.0</v>
+        <v>584.0</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C112" s="3">
-        <v>295.0</v>
+        <v>270.0</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>3</v>
@@ -4362,13 +4360,13 @@
     </row>
     <row r="113">
       <c r="A113" s="1">
-        <v>612.0</v>
+        <v>586.0</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C113" s="3">
-        <v>255.0</v>
+        <v>240.0</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>3</v>
@@ -4398,7 +4396,7 @@
     </row>
     <row r="114">
       <c r="A114" s="6">
-        <v>615.0</v>
+        <v>587.0</v>
       </c>
       <c r="B114" s="5" t="s">
         <v>3</v>
@@ -4434,13 +4432,13 @@
     </row>
     <row r="115">
       <c r="A115" s="1">
-        <v>617.0</v>
+        <v>593.0</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C115" s="3">
-        <v>330.0</v>
+        <v>250.0</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>3</v>
@@ -4470,13 +4468,13 @@
     </row>
     <row r="116">
       <c r="A116" s="6">
-        <v>618.0</v>
+        <v>599.0</v>
       </c>
       <c r="B116" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C116" s="7" t="s">
-        <v>5</v>
+      <c r="C116" s="7">
+        <v>280.0</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>3</v>
@@ -4506,13 +4504,13 @@
     </row>
     <row r="117">
       <c r="A117" s="1">
-        <v>623.0</v>
+        <v>604.0</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C117" s="3">
-        <v>290.0</v>
+        <v>295.0</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>3</v>
@@ -4542,13 +4540,13 @@
     </row>
     <row r="118">
       <c r="A118" s="1">
-        <v>625.0</v>
+        <v>604.0</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C118" s="3">
-        <v>320.0</v>
+        <v>295.0</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>3</v>
@@ -4578,13 +4576,13 @@
     </row>
     <row r="119">
       <c r="A119" s="1">
-        <v>626.0</v>
+        <v>612.0</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C119" s="3">
-        <v>305.0</v>
+        <v>255.0</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>3</v>
@@ -4613,16 +4611,16 @@
       <c r="Z119" s="4"/>
     </row>
     <row r="120">
-      <c r="A120" s="1">
-        <v>635.0</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C120" s="3">
-        <v>295.0</v>
-      </c>
-      <c r="D120" s="2" t="s">
+      <c r="A120" s="6">
+        <v>615.0</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D120" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E120" s="4"/>
@@ -4650,13 +4648,13 @@
     </row>
     <row r="121">
       <c r="A121" s="1">
-        <v>642.0</v>
+        <v>617.0</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C121" s="3">
-        <v>270.0</v>
+        <v>330.0</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>3</v>
@@ -4685,16 +4683,16 @@
       <c r="Z121" s="4"/>
     </row>
     <row r="122">
-      <c r="A122" s="1">
-        <v>643.0</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C122" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D122" s="2" t="s">
+      <c r="A122" s="6">
+        <v>618.0</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C122" s="7">
+        <v>330.0</v>
+      </c>
+      <c r="D122" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E122" s="4"/>
@@ -4721,14 +4719,14 @@
       <c r="Z122" s="4"/>
     </row>
     <row r="123">
-      <c r="A123" s="6">
-        <v>651.0</v>
+      <c r="A123" s="1">
+        <v>623.0</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C123" s="7" t="s">
-        <v>5</v>
+      <c r="C123" s="3">
+        <v>290.0</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>3</v>
@@ -4758,13 +4756,13 @@
     </row>
     <row r="124">
       <c r="A124" s="1">
-        <v>652.0</v>
+        <v>625.0</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C124" s="3">
-        <v>330.0</v>
+        <v>320.0</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>3</v>
@@ -4794,13 +4792,13 @@
     </row>
     <row r="125">
       <c r="A125" s="1">
-        <v>663.0</v>
+        <v>626.0</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C125" s="3">
-        <v>265.0</v>
+        <v>305.0</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>3</v>
@@ -4829,16 +4827,16 @@
       <c r="Z125" s="4"/>
     </row>
     <row r="126">
-      <c r="A126" s="6">
-        <v>666.0</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C126" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D126" s="5" t="s">
+      <c r="A126" s="1">
+        <v>635.0</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E126" s="4"/>
@@ -4866,13 +4864,13 @@
     </row>
     <row r="127">
       <c r="A127" s="1">
-        <v>668.0</v>
+        <v>642.0</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C127" s="3">
-        <v>305.0</v>
+        <v>270.0</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>3</v>
@@ -4902,13 +4900,13 @@
     </row>
     <row r="128">
       <c r="A128" s="1">
-        <v>670.0</v>
+        <v>643.0</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C128" s="3">
-        <v>250.0</v>
+        <v>310.0</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>3</v>
@@ -4937,14 +4935,14 @@
       <c r="Z128" s="4"/>
     </row>
     <row r="129">
-      <c r="A129" s="1">
-        <v>671.0</v>
+      <c r="A129" s="6">
+        <v>651.0</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C129" s="3">
-        <v>305.0</v>
+      <c r="C129" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>3</v>
@@ -4974,13 +4972,13 @@
     </row>
     <row r="130">
       <c r="A130" s="1">
-        <v>672.0</v>
+        <v>652.0</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C130" s="3">
-        <v>295.0</v>
+        <v>330.0</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>3</v>
@@ -5009,16 +5007,16 @@
       <c r="Z130" s="4"/>
     </row>
     <row r="131">
-      <c r="A131" s="6">
-        <v>676.0</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C131" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D131" s="5" t="s">
+      <c r="A131" s="1">
+        <v>663.0</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131" s="3">
+        <v>265.0</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E131" s="4"/>
@@ -5045,16 +5043,16 @@
       <c r="Z131" s="4"/>
     </row>
     <row r="132">
-      <c r="A132" s="1">
-        <v>680.0</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C132" s="3">
-        <v>285.0</v>
-      </c>
-      <c r="D132" s="2" t="s">
+      <c r="A132" s="6">
+        <v>666.0</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C132" s="7">
+        <v>300.0</v>
+      </c>
+      <c r="D132" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E132" s="4"/>
@@ -5082,13 +5080,13 @@
     </row>
     <row r="133">
       <c r="A133" s="1">
-        <v>688.0</v>
+        <v>668.0</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C133" s="3">
-        <v>310.0</v>
+        <v>305.0</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>3</v>
@@ -5117,18 +5115,14 @@
       <c r="Z133" s="4"/>
     </row>
     <row r="134">
-      <c r="A134" s="8">
-        <v>692.0</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C134" s="8">
-        <v>300.0</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A134" s="6">
+        <v>669.0</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134" s="3"/>
+      <c r="D134" s="2"/>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
       <c r="G134" s="4"/>
@@ -5154,13 +5148,13 @@
     </row>
     <row r="135">
       <c r="A135" s="1">
-        <v>696.0</v>
+        <v>670.0</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C135" s="3">
-        <v>300.0</v>
+        <v>250.0</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>3</v>
@@ -5189,16 +5183,16 @@
       <c r="Z135" s="4"/>
     </row>
     <row r="136">
-      <c r="A136" s="6">
-        <v>713.0</v>
-      </c>
-      <c r="B136" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C136" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D136" s="5" t="s">
+      <c r="A136" s="1">
+        <v>671.0</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C136" s="3">
+        <v>305.0</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E136" s="4"/>
@@ -5226,13 +5220,13 @@
     </row>
     <row r="137">
       <c r="A137" s="1">
-        <v>714.0</v>
+        <v>672.0</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C137" s="3">
-        <v>275.0</v>
+        <v>295.0</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>3</v>
@@ -5261,16 +5255,16 @@
       <c r="Z137" s="4"/>
     </row>
     <row r="138">
-      <c r="A138" s="1">
-        <v>718.0</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C138" s="3">
-        <v>330.0</v>
-      </c>
-      <c r="D138" s="2" t="s">
+      <c r="A138" s="6">
+        <v>676.0</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D138" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E138" s="4"/>
@@ -5298,13 +5292,13 @@
     </row>
     <row r="139">
       <c r="A139" s="1">
-        <v>719.0</v>
+        <v>680.0</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C139" s="3">
-        <v>280.0</v>
+        <v>285.0</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>3</v>
@@ -5334,13 +5328,13 @@
     </row>
     <row r="140">
       <c r="A140" s="1">
-        <v>732.0</v>
+        <v>688.0</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C140" s="3">
-        <v>280.0</v>
+        <v>310.0</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>3</v>
@@ -5369,14 +5363,14 @@
       <c r="Z140" s="4"/>
     </row>
     <row r="141">
-      <c r="A141" s="1">
-        <v>733.0</v>
+      <c r="A141" s="8">
+        <v>692.0</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C141" s="3">
-        <v>320.0</v>
+      <c r="C141" s="8">
+        <v>300.0</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>3</v>
@@ -5406,13 +5400,13 @@
     </row>
     <row r="142">
       <c r="A142" s="1">
-        <v>736.0</v>
+        <v>696.0</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C142" s="3">
-        <v>250.0</v>
+        <v>300.0</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>3</v>
@@ -5441,16 +5435,16 @@
       <c r="Z142" s="4"/>
     </row>
     <row r="143">
-      <c r="A143" s="1">
-        <v>744.0</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C143" s="3">
-        <v>270.0</v>
-      </c>
-      <c r="D143" s="2" t="s">
+      <c r="A143" s="6">
+        <v>712.0</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C143" s="7">
+        <v>295.0</v>
+      </c>
+      <c r="D143" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E143" s="4"/>
@@ -5477,16 +5471,16 @@
       <c r="Z143" s="4"/>
     </row>
     <row r="144">
-      <c r="A144" s="1">
-        <v>747.0</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C144" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D144" s="2" t="s">
+      <c r="A144" s="6">
+        <v>713.0</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D144" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E144" s="4"/>
@@ -5514,13 +5508,13 @@
     </row>
     <row r="145">
       <c r="A145" s="1">
-        <v>749.0</v>
+        <v>714.0</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C145" s="3">
-        <v>335.0</v>
+        <v>275.0</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>3</v>
@@ -5549,16 +5543,16 @@
       <c r="Z145" s="4"/>
     </row>
     <row r="146">
-      <c r="A146" s="6">
-        <v>757.0</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C146" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D146" s="5" t="s">
+      <c r="A146" s="1">
+        <v>718.0</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C146" s="3">
+        <v>330.0</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E146" s="4"/>
@@ -5586,13 +5580,13 @@
     </row>
     <row r="147">
       <c r="A147" s="1">
-        <v>758.0</v>
+        <v>719.0</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C147" s="3">
-        <v>295.0</v>
+        <v>280.0</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>3</v>
@@ -5622,13 +5616,13 @@
     </row>
     <row r="148">
       <c r="A148" s="1">
-        <v>767.0</v>
+        <v>732.0</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C148" s="3">
-        <v>290.0</v>
+        <v>280.0</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>3</v>
@@ -5657,16 +5651,16 @@
       <c r="Z148" s="4"/>
     </row>
     <row r="149">
-      <c r="A149" s="6">
-        <v>772.0</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C149" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D149" s="5" t="s">
+      <c r="A149" s="1">
+        <v>733.0</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149" s="3">
+        <v>320.0</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E149" s="4"/>
@@ -5694,13 +5688,13 @@
     </row>
     <row r="150">
       <c r="A150" s="1">
-        <v>775.0</v>
+        <v>736.0</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C150" s="3">
-        <v>260.0</v>
+        <v>250.0</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>3</v>
@@ -5730,13 +5724,13 @@
     </row>
     <row r="151">
       <c r="A151" s="1">
-        <v>777.0</v>
+        <v>744.0</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C151" s="3">
-        <v>310.0</v>
+        <v>270.0</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>3</v>
@@ -5766,13 +5760,13 @@
     </row>
     <row r="152">
       <c r="A152" s="1">
-        <v>792.0</v>
+        <v>747.0</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C152" s="3">
-        <v>320.0</v>
+        <v>250.0</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>3</v>
@@ -5802,13 +5796,13 @@
     </row>
     <row r="153">
       <c r="A153" s="1">
-        <v>795.0</v>
+        <v>749.0</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C153" s="3">
-        <v>255.0</v>
+        <v>335.0</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>3</v>
@@ -5837,16 +5831,16 @@
       <c r="Z153" s="4"/>
     </row>
     <row r="154">
-      <c r="A154" s="1">
-        <v>801.0</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C154" s="3">
-        <v>230.0</v>
-      </c>
-      <c r="D154" s="2" t="s">
+      <c r="A154" s="6">
+        <v>757.0</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D154" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E154" s="4"/>
@@ -5873,16 +5867,16 @@
       <c r="Z154" s="4"/>
     </row>
     <row r="155">
-      <c r="A155" s="6">
-        <v>806.0</v>
-      </c>
-      <c r="B155" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C155" s="7">
-        <v>280.0</v>
-      </c>
-      <c r="D155" s="5" t="s">
+      <c r="A155" s="1">
+        <v>758.0</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C155" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E155" s="4"/>
@@ -5910,13 +5904,13 @@
     </row>
     <row r="156">
       <c r="A156" s="1">
-        <v>809.0</v>
+        <v>767.0</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C156" s="3">
-        <v>270.0</v>
+        <v>290.0</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>3</v>
@@ -5945,16 +5939,16 @@
       <c r="Z156" s="4"/>
     </row>
     <row r="157">
-      <c r="A157" s="1">
-        <v>811.0</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C157" s="3">
-        <v>260.0</v>
-      </c>
-      <c r="D157" s="2" t="s">
+      <c r="A157" s="6">
+        <v>772.0</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D157" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E157" s="4"/>
@@ -5982,13 +5976,13 @@
     </row>
     <row r="158">
       <c r="A158" s="1">
-        <v>819.0</v>
+        <v>775.0</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C158" s="3">
-        <v>200.0</v>
+        <v>260.0</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>3</v>
@@ -6018,13 +6012,13 @@
     </row>
     <row r="159">
       <c r="A159" s="1">
-        <v>820.0</v>
+        <v>777.0</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C159" s="3">
-        <v>245.0</v>
+        <v>310.0</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>3</v>
@@ -6054,13 +6048,13 @@
     </row>
     <row r="160">
       <c r="A160" s="1">
-        <v>821.0</v>
+        <v>792.0</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C160" s="3">
-        <v>300.0</v>
+        <v>320.0</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>3</v>
@@ -6089,16 +6083,16 @@
       <c r="Z160" s="4"/>
     </row>
     <row r="161">
-      <c r="A161" s="6">
-        <v>829.0</v>
-      </c>
-      <c r="B161" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C161" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D161" s="5" t="s">
+      <c r="A161" s="1">
+        <v>795.0</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C161" s="3">
+        <v>255.0</v>
+      </c>
+      <c r="D161" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E161" s="4"/>
@@ -6125,16 +6119,16 @@
       <c r="Z161" s="4"/>
     </row>
     <row r="162">
-      <c r="A162" s="6">
-        <v>837.0</v>
-      </c>
-      <c r="B162" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C162" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D162" s="5" t="s">
+      <c r="A162" s="1">
+        <v>801.0</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C162" s="3">
+        <v>230.0</v>
+      </c>
+      <c r="D162" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E162" s="4"/>
@@ -6162,13 +6156,13 @@
     </row>
     <row r="163">
       <c r="A163" s="6">
-        <v>838.0</v>
+        <v>806.0</v>
       </c>
       <c r="B163" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C163" s="7" t="s">
-        <v>5</v>
+      <c r="C163" s="7">
+        <v>280.0</v>
       </c>
       <c r="D163" s="5" t="s">
         <v>3</v>
@@ -6197,16 +6191,16 @@
       <c r="Z163" s="4"/>
     </row>
     <row r="164">
-      <c r="A164" s="6">
-        <v>843.0</v>
-      </c>
-      <c r="B164" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C164" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D164" s="5" t="s">
+      <c r="A164" s="1">
+        <v>809.0</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C164" s="3">
+        <v>270.0</v>
+      </c>
+      <c r="D164" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E164" s="4"/>
@@ -6234,13 +6228,13 @@
     </row>
     <row r="165">
       <c r="A165" s="1">
-        <v>846.0</v>
+        <v>811.0</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C165" s="3">
-        <v>295.0</v>
+        <v>260.0</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>3</v>
@@ -6270,13 +6264,13 @@
     </row>
     <row r="166">
       <c r="A166" s="1">
-        <v>853.0</v>
+        <v>819.0</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C166" s="3">
-        <v>290.0</v>
+        <v>200.0</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>3</v>
@@ -6306,13 +6300,13 @@
     </row>
     <row r="167">
       <c r="A167" s="1">
-        <v>856.0</v>
+        <v>820.0</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C167" s="3">
-        <v>260.0</v>
+        <v>245.0</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>3</v>
@@ -6342,13 +6336,13 @@
     </row>
     <row r="168">
       <c r="A168" s="1">
-        <v>861.0</v>
+        <v>821.0</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C168" s="3">
-        <v>305.0</v>
+        <v>300.0</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>3</v>
@@ -6377,16 +6371,16 @@
       <c r="Z168" s="4"/>
     </row>
     <row r="169">
-      <c r="A169" s="1">
-        <v>863.0</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C169" s="3">
-        <v>275.0</v>
-      </c>
-      <c r="D169" s="2" t="s">
+      <c r="A169" s="6">
+        <v>829.0</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D169" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E169" s="4"/>
@@ -6413,16 +6407,16 @@
       <c r="Z169" s="4"/>
     </row>
     <row r="170">
-      <c r="A170" s="1">
-        <v>872.0</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C170" s="3">
-        <v>295.0</v>
-      </c>
-      <c r="D170" s="2" t="s">
+      <c r="A170" s="6">
+        <v>834.0</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C170" s="7">
+        <v>225.0</v>
+      </c>
+      <c r="D170" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E170" s="4"/>
@@ -6450,13 +6444,13 @@
     </row>
     <row r="171">
       <c r="A171" s="6">
-        <v>876.0</v>
+        <v>837.0</v>
       </c>
       <c r="B171" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C171" s="7">
-        <v>250.0</v>
+      <c r="C171" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="D171" s="5" t="s">
         <v>3</v>
@@ -6485,16 +6479,16 @@
       <c r="Z171" s="4"/>
     </row>
     <row r="172">
-      <c r="A172" s="1">
-        <v>880.0</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C172" s="3">
-        <v>225.0</v>
-      </c>
-      <c r="D172" s="2" t="s">
+      <c r="A172" s="6">
+        <v>838.0</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D172" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E172" s="4"/>
@@ -6521,16 +6515,16 @@
       <c r="Z172" s="4"/>
     </row>
     <row r="173">
-      <c r="A173" s="1">
-        <v>899.0</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C173" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D173" s="2" t="s">
+      <c r="A173" s="6">
+        <v>843.0</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D173" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E173" s="4"/>
@@ -6558,13 +6552,13 @@
     </row>
     <row r="174">
       <c r="A174" s="1">
-        <v>901.0</v>
+        <v>846.0</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C174" s="3">
-        <v>275.0</v>
+        <v>295.0</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>3</v>
@@ -6594,15 +6588,15 @@
     </row>
     <row r="175">
       <c r="A175" s="1">
-        <v>935.0</v>
+        <v>853.0</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C175" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D175" s="5" t="s">
+        <v>290.0</v>
+      </c>
+      <c r="D175" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E175" s="4"/>
@@ -6629,16 +6623,16 @@
       <c r="Z175" s="4"/>
     </row>
     <row r="176">
-      <c r="A176" s="5">
-        <v>1000.0</v>
-      </c>
-      <c r="B176" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C176" s="5">
-        <v>2000.0</v>
-      </c>
-      <c r="D176" s="5" t="s">
+      <c r="A176" s="1">
+        <v>856.0</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C176" s="3">
+        <v>260.0</v>
+      </c>
+      <c r="D176" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E176" s="4"/>
@@ -6665,10 +6659,18 @@
       <c r="Z176" s="4"/>
     </row>
     <row r="177">
-      <c r="A177" s="2"/>
-      <c r="B177" s="2"/>
-      <c r="C177" s="2"/>
-      <c r="D177" s="2"/>
+      <c r="A177" s="1">
+        <v>861.0</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C177" s="3">
+        <v>305.0</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E177" s="4"/>
       <c r="F177" s="4"/>
       <c r="G177" s="4"/>
@@ -6693,10 +6695,18 @@
       <c r="Z177" s="4"/>
     </row>
     <row r="178">
-      <c r="A178" s="2"/>
-      <c r="B178" s="2"/>
-      <c r="C178" s="2"/>
-      <c r="D178" s="2"/>
+      <c r="A178" s="1">
+        <v>863.0</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C178" s="3">
+        <v>275.0</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E178" s="4"/>
       <c r="F178" s="4"/>
       <c r="G178" s="4"/>
@@ -6721,10 +6731,18 @@
       <c r="Z178" s="4"/>
     </row>
     <row r="179">
-      <c r="A179" s="2"/>
-      <c r="B179" s="2"/>
-      <c r="C179" s="2"/>
-      <c r="D179" s="2"/>
+      <c r="A179" s="1">
+        <v>872.0</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C179" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E179" s="4"/>
       <c r="F179" s="4"/>
       <c r="G179" s="4"/>
@@ -6749,10 +6767,18 @@
       <c r="Z179" s="4"/>
     </row>
     <row r="180">
-      <c r="A180" s="2"/>
-      <c r="B180" s="2"/>
-      <c r="C180" s="2"/>
-      <c r="D180" s="2"/>
+      <c r="A180" s="6">
+        <v>876.0</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C180" s="7">
+        <v>250.0</v>
+      </c>
+      <c r="D180" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E180" s="4"/>
       <c r="F180" s="4"/>
       <c r="G180" s="4"/>
@@ -6777,10 +6803,18 @@
       <c r="Z180" s="4"/>
     </row>
     <row r="181">
-      <c r="A181" s="2"/>
-      <c r="B181" s="2"/>
-      <c r="C181" s="2"/>
-      <c r="D181" s="2"/>
+      <c r="A181" s="1">
+        <v>880.0</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C181" s="3">
+        <v>225.0</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E181" s="4"/>
       <c r="F181" s="4"/>
       <c r="G181" s="4"/>
@@ -6805,10 +6839,18 @@
       <c r="Z181" s="4"/>
     </row>
     <row r="182">
-      <c r="A182" s="2"/>
-      <c r="B182" s="2"/>
-      <c r="C182" s="2"/>
-      <c r="D182" s="2"/>
+      <c r="A182" s="1">
+        <v>899.0</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C182" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E182" s="4"/>
       <c r="F182" s="4"/>
       <c r="G182" s="4"/>
@@ -6833,10 +6875,18 @@
       <c r="Z182" s="4"/>
     </row>
     <row r="183">
-      <c r="A183" s="2"/>
-      <c r="B183" s="2"/>
-      <c r="C183" s="2"/>
-      <c r="D183" s="2"/>
+      <c r="A183" s="1">
+        <v>901.0</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C183" s="3">
+        <v>275.0</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E183" s="4"/>
       <c r="F183" s="4"/>
       <c r="G183" s="4"/>
@@ -6861,10 +6911,18 @@
       <c r="Z183" s="4"/>
     </row>
     <row r="184">
-      <c r="A184" s="2"/>
-      <c r="B184" s="2"/>
-      <c r="C184" s="2"/>
-      <c r="D184" s="2"/>
+      <c r="A184" s="1">
+        <v>935.0</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C184" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D184" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E184" s="4"/>
       <c r="F184" s="4"/>
       <c r="G184" s="4"/>
@@ -6889,10 +6947,18 @@
       <c r="Z184" s="4"/>
     </row>
     <row r="185">
-      <c r="A185" s="2"/>
-      <c r="B185" s="2"/>
-      <c r="C185" s="2"/>
-      <c r="D185" s="2"/>
+      <c r="A185" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C185" s="5">
+        <v>2000.0</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E185" s="4"/>
       <c r="F185" s="4"/>
       <c r="G185" s="4"/>
@@ -30801,10 +30867,10 @@
       <c r="Z1038" s="4"/>
     </row>
     <row r="1039">
-      <c r="A1039" s="4"/>
-      <c r="B1039" s="4"/>
-      <c r="C1039" s="4"/>
-      <c r="D1039" s="4"/>
+      <c r="A1039" s="2"/>
+      <c r="B1039" s="2"/>
+      <c r="C1039" s="2"/>
+      <c r="D1039" s="2"/>
       <c r="E1039" s="4"/>
       <c r="F1039" s="4"/>
       <c r="G1039" s="4"/>
@@ -30828,6 +30894,258 @@
       <c r="Y1039" s="4"/>
       <c r="Z1039" s="4"/>
     </row>
+    <row r="1040">
+      <c r="A1040" s="2"/>
+      <c r="B1040" s="2"/>
+      <c r="C1040" s="2"/>
+      <c r="D1040" s="2"/>
+      <c r="E1040" s="4"/>
+      <c r="F1040" s="4"/>
+      <c r="G1040" s="4"/>
+      <c r="H1040" s="4"/>
+      <c r="I1040" s="4"/>
+      <c r="J1040" s="4"/>
+      <c r="K1040" s="4"/>
+      <c r="L1040" s="4"/>
+      <c r="M1040" s="4"/>
+      <c r="N1040" s="4"/>
+      <c r="O1040" s="4"/>
+      <c r="P1040" s="4"/>
+      <c r="Q1040" s="4"/>
+      <c r="R1040" s="4"/>
+      <c r="S1040" s="4"/>
+      <c r="T1040" s="4"/>
+      <c r="U1040" s="4"/>
+      <c r="V1040" s="4"/>
+      <c r="W1040" s="4"/>
+      <c r="X1040" s="4"/>
+      <c r="Y1040" s="4"/>
+      <c r="Z1040" s="4"/>
+    </row>
+    <row r="1041">
+      <c r="A1041" s="2"/>
+      <c r="B1041" s="2"/>
+      <c r="C1041" s="2"/>
+      <c r="D1041" s="2"/>
+      <c r="E1041" s="4"/>
+      <c r="F1041" s="4"/>
+      <c r="G1041" s="4"/>
+      <c r="H1041" s="4"/>
+      <c r="I1041" s="4"/>
+      <c r="J1041" s="4"/>
+      <c r="K1041" s="4"/>
+      <c r="L1041" s="4"/>
+      <c r="M1041" s="4"/>
+      <c r="N1041" s="4"/>
+      <c r="O1041" s="4"/>
+      <c r="P1041" s="4"/>
+      <c r="Q1041" s="4"/>
+      <c r="R1041" s="4"/>
+      <c r="S1041" s="4"/>
+      <c r="T1041" s="4"/>
+      <c r="U1041" s="4"/>
+      <c r="V1041" s="4"/>
+      <c r="W1041" s="4"/>
+      <c r="X1041" s="4"/>
+      <c r="Y1041" s="4"/>
+      <c r="Z1041" s="4"/>
+    </row>
+    <row r="1042">
+      <c r="A1042" s="2"/>
+      <c r="B1042" s="2"/>
+      <c r="C1042" s="2"/>
+      <c r="D1042" s="2"/>
+      <c r="E1042" s="4"/>
+      <c r="F1042" s="4"/>
+      <c r="G1042" s="4"/>
+      <c r="H1042" s="4"/>
+      <c r="I1042" s="4"/>
+      <c r="J1042" s="4"/>
+      <c r="K1042" s="4"/>
+      <c r="L1042" s="4"/>
+      <c r="M1042" s="4"/>
+      <c r="N1042" s="4"/>
+      <c r="O1042" s="4"/>
+      <c r="P1042" s="4"/>
+      <c r="Q1042" s="4"/>
+      <c r="R1042" s="4"/>
+      <c r="S1042" s="4"/>
+      <c r="T1042" s="4"/>
+      <c r="U1042" s="4"/>
+      <c r="V1042" s="4"/>
+      <c r="W1042" s="4"/>
+      <c r="X1042" s="4"/>
+      <c r="Y1042" s="4"/>
+      <c r="Z1042" s="4"/>
+    </row>
+    <row r="1043">
+      <c r="A1043" s="2"/>
+      <c r="B1043" s="2"/>
+      <c r="C1043" s="2"/>
+      <c r="D1043" s="2"/>
+      <c r="E1043" s="4"/>
+      <c r="F1043" s="4"/>
+      <c r="G1043" s="4"/>
+      <c r="H1043" s="4"/>
+      <c r="I1043" s="4"/>
+      <c r="J1043" s="4"/>
+      <c r="K1043" s="4"/>
+      <c r="L1043" s="4"/>
+      <c r="M1043" s="4"/>
+      <c r="N1043" s="4"/>
+      <c r="O1043" s="4"/>
+      <c r="P1043" s="4"/>
+      <c r="Q1043" s="4"/>
+      <c r="R1043" s="4"/>
+      <c r="S1043" s="4"/>
+      <c r="T1043" s="4"/>
+      <c r="U1043" s="4"/>
+      <c r="V1043" s="4"/>
+      <c r="W1043" s="4"/>
+      <c r="X1043" s="4"/>
+      <c r="Y1043" s="4"/>
+      <c r="Z1043" s="4"/>
+    </row>
+    <row r="1044">
+      <c r="A1044" s="2"/>
+      <c r="B1044" s="2"/>
+      <c r="C1044" s="2"/>
+      <c r="D1044" s="2"/>
+      <c r="E1044" s="4"/>
+      <c r="F1044" s="4"/>
+      <c r="G1044" s="4"/>
+      <c r="H1044" s="4"/>
+      <c r="I1044" s="4"/>
+      <c r="J1044" s="4"/>
+      <c r="K1044" s="4"/>
+      <c r="L1044" s="4"/>
+      <c r="M1044" s="4"/>
+      <c r="N1044" s="4"/>
+      <c r="O1044" s="4"/>
+      <c r="P1044" s="4"/>
+      <c r="Q1044" s="4"/>
+      <c r="R1044" s="4"/>
+      <c r="S1044" s="4"/>
+      <c r="T1044" s="4"/>
+      <c r="U1044" s="4"/>
+      <c r="V1044" s="4"/>
+      <c r="W1044" s="4"/>
+      <c r="X1044" s="4"/>
+      <c r="Y1044" s="4"/>
+      <c r="Z1044" s="4"/>
+    </row>
+    <row r="1045">
+      <c r="A1045" s="2"/>
+      <c r="B1045" s="2"/>
+      <c r="C1045" s="2"/>
+      <c r="D1045" s="2"/>
+      <c r="E1045" s="4"/>
+      <c r="F1045" s="4"/>
+      <c r="G1045" s="4"/>
+      <c r="H1045" s="4"/>
+      <c r="I1045" s="4"/>
+      <c r="J1045" s="4"/>
+      <c r="K1045" s="4"/>
+      <c r="L1045" s="4"/>
+      <c r="M1045" s="4"/>
+      <c r="N1045" s="4"/>
+      <c r="O1045" s="4"/>
+      <c r="P1045" s="4"/>
+      <c r="Q1045" s="4"/>
+      <c r="R1045" s="4"/>
+      <c r="S1045" s="4"/>
+      <c r="T1045" s="4"/>
+      <c r="U1045" s="4"/>
+      <c r="V1045" s="4"/>
+      <c r="W1045" s="4"/>
+      <c r="X1045" s="4"/>
+      <c r="Y1045" s="4"/>
+      <c r="Z1045" s="4"/>
+    </row>
+    <row r="1046">
+      <c r="A1046" s="2"/>
+      <c r="B1046" s="2"/>
+      <c r="C1046" s="2"/>
+      <c r="D1046" s="2"/>
+      <c r="E1046" s="4"/>
+      <c r="F1046" s="4"/>
+      <c r="G1046" s="4"/>
+      <c r="H1046" s="4"/>
+      <c r="I1046" s="4"/>
+      <c r="J1046" s="4"/>
+      <c r="K1046" s="4"/>
+      <c r="L1046" s="4"/>
+      <c r="M1046" s="4"/>
+      <c r="N1046" s="4"/>
+      <c r="O1046" s="4"/>
+      <c r="P1046" s="4"/>
+      <c r="Q1046" s="4"/>
+      <c r="R1046" s="4"/>
+      <c r="S1046" s="4"/>
+      <c r="T1046" s="4"/>
+      <c r="U1046" s="4"/>
+      <c r="V1046" s="4"/>
+      <c r="W1046" s="4"/>
+      <c r="X1046" s="4"/>
+      <c r="Y1046" s="4"/>
+      <c r="Z1046" s="4"/>
+    </row>
+    <row r="1047">
+      <c r="A1047" s="2"/>
+      <c r="B1047" s="2"/>
+      <c r="C1047" s="2"/>
+      <c r="D1047" s="2"/>
+      <c r="E1047" s="4"/>
+      <c r="F1047" s="4"/>
+      <c r="G1047" s="4"/>
+      <c r="H1047" s="4"/>
+      <c r="I1047" s="4"/>
+      <c r="J1047" s="4"/>
+      <c r="K1047" s="4"/>
+      <c r="L1047" s="4"/>
+      <c r="M1047" s="4"/>
+      <c r="N1047" s="4"/>
+      <c r="O1047" s="4"/>
+      <c r="P1047" s="4"/>
+      <c r="Q1047" s="4"/>
+      <c r="R1047" s="4"/>
+      <c r="S1047" s="4"/>
+      <c r="T1047" s="4"/>
+      <c r="U1047" s="4"/>
+      <c r="V1047" s="4"/>
+      <c r="W1047" s="4"/>
+      <c r="X1047" s="4"/>
+      <c r="Y1047" s="4"/>
+      <c r="Z1047" s="4"/>
+    </row>
+    <row r="1048">
+      <c r="A1048" s="4"/>
+      <c r="B1048" s="4"/>
+      <c r="C1048" s="4"/>
+      <c r="D1048" s="4"/>
+      <c r="E1048" s="4"/>
+      <c r="F1048" s="4"/>
+      <c r="G1048" s="4"/>
+      <c r="H1048" s="4"/>
+      <c r="I1048" s="4"/>
+      <c r="J1048" s="4"/>
+      <c r="K1048" s="4"/>
+      <c r="L1048" s="4"/>
+      <c r="M1048" s="4"/>
+      <c r="N1048" s="4"/>
+      <c r="O1048" s="4"/>
+      <c r="P1048" s="4"/>
+      <c r="Q1048" s="4"/>
+      <c r="R1048" s="4"/>
+      <c r="S1048" s="4"/>
+      <c r="T1048" s="4"/>
+      <c r="U1048" s="4"/>
+      <c r="V1048" s="4"/>
+      <c r="W1048" s="4"/>
+      <c r="X1048" s="4"/>
+      <c r="Y1048" s="4"/>
+      <c r="Z1048" s="4"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/hauteur site.xlsx
+++ b/hauteur site.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="6">
   <si>
     <t>code_pneu</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
 </sst>
 </file>
@@ -443,8 +440,8 @@
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>5</v>
+      <c r="C4" s="7">
+        <v>230.0</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>3</v>
@@ -479,8 +476,8 @@
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>5</v>
+      <c r="C5" s="7">
+        <v>335.0</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>3</v>
@@ -587,9 +584,7 @@
       <c r="B8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="C8" s="7"/>
       <c r="D8" s="5" t="s">
         <v>3</v>
       </c>
@@ -659,8 +654,8 @@
       <c r="B10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>5</v>
+      <c r="C10" s="7">
+        <v>315.0</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>3</v>
@@ -731,8 +726,8 @@
       <c r="B12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>5</v>
+      <c r="C12" s="7">
+        <v>315.0</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>3</v>
@@ -1019,8 +1014,8 @@
       <c r="B20" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>5</v>
+      <c r="C20" s="7">
+        <v>280.0</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>3</v>
@@ -1157,16 +1152,16 @@
       <c r="Z23" s="4"/>
     </row>
     <row r="24">
-      <c r="A24" s="1">
-        <v>131.0</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="3">
-        <v>255.0</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="A24" s="6">
+        <v>130.0</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="7">
+        <v>290.0</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E24" s="4"/>
@@ -1194,13 +1189,13 @@
     </row>
     <row r="25">
       <c r="A25" s="1">
-        <v>132.0</v>
+        <v>131.0</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C25" s="3">
-        <v>250.0</v>
+        <v>255.0</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>3</v>
@@ -1230,13 +1225,13 @@
     </row>
     <row r="26">
       <c r="A26" s="1">
-        <v>138.0</v>
+        <v>132.0</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C26" s="3">
-        <v>315.0</v>
+        <v>250.0</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>3</v>
@@ -1266,13 +1261,13 @@
     </row>
     <row r="27">
       <c r="A27" s="1">
-        <v>139.0</v>
+        <v>138.0</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="3">
-        <v>250.0</v>
+        <v>315.0</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>3</v>
@@ -1301,16 +1296,16 @@
       <c r="Z27" s="4"/>
     </row>
     <row r="28">
-      <c r="A28" s="6">
-        <v>144.0</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="5" t="s">
+      <c r="A28" s="1">
+        <v>139.0</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E28" s="4"/>
@@ -1337,16 +1332,16 @@
       <c r="Z28" s="4"/>
     </row>
     <row r="29">
-      <c r="A29" s="1">
-        <v>145.0</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="3">
-        <v>275.0</v>
-      </c>
-      <c r="D29" s="2" t="s">
+      <c r="A29" s="6">
+        <v>144.0</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="7">
+        <v>305.0</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E29" s="4"/>
@@ -1373,16 +1368,16 @@
       <c r="Z29" s="4"/>
     </row>
     <row r="30">
-      <c r="A30" s="6">
-        <v>146.0</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="7">
-        <v>300.0</v>
-      </c>
-      <c r="D30" s="5" t="s">
+      <c r="A30" s="1">
+        <v>145.0</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="3">
+        <v>275.0</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E30" s="4"/>
@@ -1409,16 +1404,16 @@
       <c r="Z30" s="4"/>
     </row>
     <row r="31">
-      <c r="A31" s="1">
-        <v>149.0</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="3">
-        <v>265.0</v>
-      </c>
-      <c r="D31" s="2" t="s">
+      <c r="A31" s="6">
+        <v>146.0</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="7">
+        <v>300.0</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E31" s="4"/>
@@ -1446,13 +1441,13 @@
     </row>
     <row r="32">
       <c r="A32" s="1">
-        <v>153.0</v>
+        <v>149.0</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C32" s="3">
-        <v>325.0</v>
+        <v>265.0</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>3</v>
@@ -1482,7 +1477,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1">
-        <v>154.0</v>
+        <v>153.0</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>3</v>
@@ -1518,13 +1513,13 @@
     </row>
     <row r="34">
       <c r="A34" s="1">
-        <v>157.0</v>
+        <v>154.0</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C34" s="3">
-        <v>270.0</v>
+        <v>325.0</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>3</v>
@@ -1554,13 +1549,13 @@
     </row>
     <row r="35">
       <c r="A35" s="1">
-        <v>167.0</v>
+        <v>157.0</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="3">
-        <v>250.0</v>
+        <v>270.0</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>3</v>
@@ -1589,16 +1584,16 @@
       <c r="Z35" s="4"/>
     </row>
     <row r="36">
-      <c r="A36" s="6">
-        <v>169.0</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="5" t="s">
+      <c r="A36" s="1">
+        <v>167.0</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E36" s="4"/>
@@ -1625,16 +1620,16 @@
       <c r="Z36" s="4"/>
     </row>
     <row r="37">
-      <c r="A37" s="1">
-        <v>175.0</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D37" s="2" t="s">
+      <c r="A37" s="6">
+        <v>169.0</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="7">
+        <v>235.0</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E37" s="4"/>
@@ -1662,13 +1657,13 @@
     </row>
     <row r="38">
       <c r="A38" s="1">
-        <v>178.0</v>
+        <v>175.0</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C38" s="3">
-        <v>265.0</v>
+        <v>250.0</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>3</v>
@@ -1698,13 +1693,13 @@
     </row>
     <row r="39">
       <c r="A39" s="1">
-        <v>182.0</v>
+        <v>178.0</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="7">
-        <v>285.0</v>
+      <c r="C39" s="3">
+        <v>265.0</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>3</v>
@@ -1734,13 +1729,13 @@
     </row>
     <row r="40">
       <c r="A40" s="1">
-        <v>183.0</v>
+        <v>182.0</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="3">
-        <v>270.0</v>
+      <c r="C40" s="7">
+        <v>285.0</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>3</v>
@@ -1770,13 +1765,13 @@
     </row>
     <row r="41">
       <c r="A41" s="1">
-        <v>190.0</v>
+        <v>183.0</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C41" s="3">
-        <v>305.0</v>
+        <v>270.0</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>3</v>
@@ -1806,13 +1801,13 @@
     </row>
     <row r="42">
       <c r="A42" s="1">
-        <v>192.0</v>
+        <v>190.0</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C42" s="3">
-        <v>285.0</v>
+        <v>305.0</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>3</v>
@@ -1842,7 +1837,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1">
-        <v>201.0</v>
+        <v>192.0</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>3</v>
@@ -1878,13 +1873,13 @@
     </row>
     <row r="44">
       <c r="A44" s="1">
-        <v>204.0</v>
+        <v>201.0</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C44" s="3">
-        <v>270.0</v>
+        <v>285.0</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>3</v>
@@ -1913,16 +1908,16 @@
       <c r="Z44" s="4"/>
     </row>
     <row r="45">
-      <c r="A45" s="6">
-        <v>207.0</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" s="7">
-        <v>325.0</v>
-      </c>
-      <c r="D45" s="5" t="s">
+      <c r="A45" s="1">
+        <v>204.0</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="3">
+        <v>270.0</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E45" s="4"/>
@@ -1950,13 +1945,13 @@
     </row>
     <row r="46">
       <c r="A46" s="6">
-        <v>209.0</v>
+        <v>207.0</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>5</v>
+      <c r="C46" s="7">
+        <v>325.0</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>3</v>
@@ -1986,7 +1981,7 @@
     </row>
     <row r="47">
       <c r="A47" s="6">
-        <v>216.0</v>
+        <v>209.0</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>3</v>
@@ -2021,16 +2016,16 @@
       <c r="Z47" s="4"/>
     </row>
     <row r="48">
-      <c r="A48" s="1">
-        <v>218.0</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" s="3">
-        <v>275.0</v>
-      </c>
-      <c r="D48" s="2" t="s">
+      <c r="A48" s="6">
+        <v>216.0</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="7">
+        <v>320.0</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E48" s="4"/>
@@ -2058,13 +2053,13 @@
     </row>
     <row r="49">
       <c r="A49" s="1">
-        <v>227.0</v>
+        <v>218.0</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C49" s="3">
-        <v>325.0</v>
+        <v>275.0</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>3</v>
@@ -2094,13 +2089,13 @@
     </row>
     <row r="50">
       <c r="A50" s="1">
-        <v>229.0</v>
+        <v>227.0</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C50" s="3">
-        <v>300.0</v>
+        <v>325.0</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>3</v>
@@ -2129,16 +2124,16 @@
       <c r="Z50" s="4"/>
     </row>
     <row r="51">
-      <c r="A51" s="6">
-        <v>232.0</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51" s="5" t="s">
+      <c r="A51" s="1">
+        <v>229.0</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="3">
+        <v>300.0</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E51" s="4"/>
@@ -2165,16 +2160,16 @@
       <c r="Z51" s="4"/>
     </row>
     <row r="52">
-      <c r="A52" s="1">
-        <v>237.0</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" s="3">
-        <v>240.0</v>
-      </c>
-      <c r="D52" s="2" t="s">
+      <c r="A52" s="6">
+        <v>232.0</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="7">
+        <v>275.0</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E52" s="4"/>
@@ -2201,16 +2196,16 @@
       <c r="Z52" s="4"/>
     </row>
     <row r="53">
-      <c r="A53" s="6">
-        <v>238.0</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="5" t="s">
+      <c r="A53" s="1">
+        <v>237.0</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="3">
+        <v>240.0</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E53" s="4"/>
@@ -2237,16 +2232,16 @@
       <c r="Z53" s="4"/>
     </row>
     <row r="54">
-      <c r="A54" s="1">
-        <v>243.0</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" s="3">
-        <v>225.0</v>
-      </c>
-      <c r="D54" s="2" t="s">
+      <c r="A54" s="6">
+        <v>238.0</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="7">
+        <v>280.0</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E54" s="4"/>
@@ -2273,16 +2268,16 @@
       <c r="Z54" s="4"/>
     </row>
     <row r="55">
-      <c r="A55" s="6">
-        <v>250.0</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D55" s="5" t="s">
+      <c r="A55" s="1">
+        <v>243.0</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="3">
+        <v>225.0</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E55" s="4"/>
@@ -2310,13 +2305,13 @@
     </row>
     <row r="56">
       <c r="A56" s="6">
-        <v>257.0</v>
+        <v>250.0</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C56" s="7" t="s">
-        <v>5</v>
+      <c r="C56" s="7">
+        <v>245.0</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>3</v>
@@ -2346,7 +2341,7 @@
     </row>
     <row r="57">
       <c r="A57" s="6">
-        <v>264.0</v>
+        <v>257.0</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>3</v>
@@ -2381,16 +2376,16 @@
       <c r="Z57" s="4"/>
     </row>
     <row r="58">
-      <c r="A58" s="1">
-        <v>265.0</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C58" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D58" s="2" t="s">
+      <c r="A58" s="6">
+        <v>264.0</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E58" s="4"/>
@@ -2417,16 +2412,16 @@
       <c r="Z58" s="4"/>
     </row>
     <row r="59">
-      <c r="A59" s="6">
-        <v>270.0</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D59" s="5" t="s">
+      <c r="A59" s="1">
+        <v>265.0</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E59" s="4"/>
@@ -2454,7 +2449,7 @@
     </row>
     <row r="60">
       <c r="A60" s="6">
-        <v>273.0</v>
+        <v>270.0</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>3</v>
@@ -2489,16 +2484,16 @@
       <c r="Z60" s="4"/>
     </row>
     <row r="61">
-      <c r="A61" s="1">
-        <v>274.0</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61" s="3">
-        <v>260.0</v>
-      </c>
-      <c r="D61" s="2" t="s">
+      <c r="A61" s="6">
+        <v>273.0</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="7">
+        <v>290.0</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E61" s="4"/>
@@ -2525,16 +2520,16 @@
       <c r="Z61" s="4"/>
     </row>
     <row r="62">
-      <c r="A62" s="6">
-        <v>275.0</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D62" s="5" t="s">
+      <c r="A62" s="1">
+        <v>274.0</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="3">
+        <v>260.0</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E62" s="4"/>
@@ -2562,13 +2557,13 @@
     </row>
     <row r="63">
       <c r="A63" s="6">
-        <v>279.0</v>
+        <v>275.0</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C63" s="7" t="s">
-        <v>5</v>
+      <c r="C63" s="7">
+        <v>290.0</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>3</v>
@@ -2597,16 +2592,16 @@
       <c r="Z63" s="4"/>
     </row>
     <row r="64">
-      <c r="A64" s="1">
-        <v>290.0</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C64" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D64" s="2" t="s">
+      <c r="A64" s="6">
+        <v>279.0</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="7">
+        <v>255.0</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E64" s="4"/>
@@ -2670,13 +2665,13 @@
     </row>
     <row r="66">
       <c r="A66" s="1">
-        <v>306.0</v>
+        <v>290.0</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C66" s="3">
-        <v>235.0</v>
+        <v>310.0</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>3</v>
@@ -2705,16 +2700,16 @@
       <c r="Z66" s="4"/>
     </row>
     <row r="67">
-      <c r="A67" s="6">
-        <v>309.0</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D67" s="5" t="s">
+      <c r="A67" s="1">
+        <v>306.0</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="3">
+        <v>235.0</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E67" s="4"/>
@@ -2742,7 +2737,7 @@
     </row>
     <row r="68">
       <c r="A68" s="6">
-        <v>323.0</v>
+        <v>309.0</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>3</v>
@@ -2777,16 +2772,16 @@
       <c r="Z68" s="4"/>
     </row>
     <row r="69">
-      <c r="A69" s="1">
-        <v>324.0</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C69" s="3">
-        <v>260.0</v>
-      </c>
-      <c r="D69" s="2" t="s">
+      <c r="A69" s="6">
+        <v>323.0</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" s="7">
+        <v>270.0</v>
+      </c>
+      <c r="D69" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E69" s="4"/>
@@ -2814,13 +2809,13 @@
     </row>
     <row r="70">
       <c r="A70" s="1">
-        <v>328.0</v>
+        <v>324.0</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C70" s="3">
-        <v>255.0</v>
+        <v>260.0</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>3</v>
@@ -2849,16 +2844,16 @@
       <c r="Z70" s="4"/>
     </row>
     <row r="71">
-      <c r="A71" s="6">
-        <v>338.0</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D71" s="5" t="s">
+      <c r="A71" s="1">
+        <v>328.0</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="3">
+        <v>255.0</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E71" s="4"/>
@@ -2885,16 +2880,16 @@
       <c r="Z71" s="4"/>
     </row>
     <row r="72">
-      <c r="A72" s="1">
-        <v>349.0</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C72" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D72" s="2" t="s">
+      <c r="A72" s="6">
+        <v>334.0</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E72" s="4"/>
@@ -2921,16 +2916,16 @@
       <c r="Z72" s="4"/>
     </row>
     <row r="73">
-      <c r="A73" s="1">
-        <v>350.0</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" s="3">
-        <v>225.0</v>
-      </c>
-      <c r="D73" s="2" t="s">
+      <c r="A73" s="6">
+        <v>338.0</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="7">
+        <v>235.0</v>
+      </c>
+      <c r="D73" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E73" s="4"/>
@@ -2958,13 +2953,13 @@
     </row>
     <row r="74">
       <c r="A74" s="1">
-        <v>361.0</v>
+        <v>349.0</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C74" s="3">
-        <v>245.0</v>
+        <v>250.0</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>3</v>
@@ -2993,16 +2988,16 @@
       <c r="Z74" s="4"/>
     </row>
     <row r="75">
-      <c r="A75" s="6">
-        <v>365.0</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C75" s="7">
-        <v>335.0</v>
-      </c>
-      <c r="D75" s="5" t="s">
+      <c r="A75" s="1">
+        <v>350.0</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="3">
+        <v>225.0</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E75" s="4"/>
@@ -3030,13 +3025,13 @@
     </row>
     <row r="76">
       <c r="A76" s="1">
-        <v>367.0</v>
+        <v>361.0</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C76" s="3">
-        <v>225.0</v>
+        <v>245.0</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>3</v>
@@ -3065,16 +3060,16 @@
       <c r="Z76" s="4"/>
     </row>
     <row r="77">
-      <c r="A77" s="1">
-        <v>369.0</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C77" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D77" s="2" t="s">
+      <c r="A77" s="6">
+        <v>365.0</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" s="7">
+        <v>335.0</v>
+      </c>
+      <c r="D77" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E77" s="4"/>
@@ -3102,13 +3097,13 @@
     </row>
     <row r="78">
       <c r="A78" s="1">
-        <v>375.0</v>
+        <v>367.0</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C78" s="3">
-        <v>245.0</v>
+        <v>225.0</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>3</v>
@@ -3138,13 +3133,13 @@
     </row>
     <row r="79">
       <c r="A79" s="1">
-        <v>377.0</v>
+        <v>369.0</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C79" s="3">
-        <v>275.0</v>
+        <v>310.0</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>3</v>
@@ -3174,13 +3169,13 @@
     </row>
     <row r="80">
       <c r="A80" s="1">
-        <v>382.0</v>
+        <v>375.0</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C80" s="3">
-        <v>295.0</v>
+        <v>245.0</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>3</v>
@@ -3210,13 +3205,13 @@
     </row>
     <row r="81">
       <c r="A81" s="1">
-        <v>389.0</v>
+        <v>377.0</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C81" s="3">
-        <v>265.0</v>
+        <v>275.0</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>3</v>
@@ -3245,16 +3240,16 @@
       <c r="Z81" s="4"/>
     </row>
     <row r="82">
-      <c r="A82" s="6">
-        <v>390.0</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D82" s="5" t="s">
+      <c r="A82" s="1">
+        <v>382.0</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E82" s="4"/>
@@ -3281,16 +3276,16 @@
       <c r="Z82" s="4"/>
     </row>
     <row r="83">
-      <c r="A83" s="6">
-        <v>398.0</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D83" s="5" t="s">
+      <c r="A83" s="1">
+        <v>389.0</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" s="3">
+        <v>265.0</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E83" s="4"/>
@@ -3317,16 +3312,16 @@
       <c r="Z83" s="4"/>
     </row>
     <row r="84">
-      <c r="A84" s="1">
-        <v>399.0</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C84" s="3">
-        <v>260.0</v>
-      </c>
-      <c r="D84" s="2" t="s">
+      <c r="A84" s="6">
+        <v>390.0</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" s="7">
+        <v>300.0</v>
+      </c>
+      <c r="D84" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E84" s="4"/>
@@ -3353,16 +3348,16 @@
       <c r="Z84" s="4"/>
     </row>
     <row r="85">
-      <c r="A85" s="1">
-        <v>404.0</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C85" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D85" s="2" t="s">
+      <c r="A85" s="6">
+        <v>398.0</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" s="7">
+        <v>260.0</v>
+      </c>
+      <c r="D85" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E85" s="4"/>
@@ -3389,16 +3384,16 @@
       <c r="Z85" s="4"/>
     </row>
     <row r="86">
-      <c r="A86" s="6">
-        <v>406.0</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D86" s="5" t="s">
+      <c r="A86" s="1">
+        <v>399.0</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" s="3">
+        <v>260.0</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E86" s="4"/>
@@ -3425,16 +3420,16 @@
       <c r="Z86" s="4"/>
     </row>
     <row r="87">
-      <c r="A87" s="6">
-        <v>413.0</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D87" s="5" t="s">
+      <c r="A87" s="1">
+        <v>404.0</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E87" s="4"/>
@@ -3461,16 +3456,16 @@
       <c r="Z87" s="4"/>
     </row>
     <row r="88">
-      <c r="A88" s="1">
-        <v>423.0</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C88" s="3">
-        <v>280.0</v>
-      </c>
-      <c r="D88" s="2" t="s">
+      <c r="A88" s="6">
+        <v>406.0</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E88" s="4"/>
@@ -3497,16 +3492,16 @@
       <c r="Z88" s="4"/>
     </row>
     <row r="89">
-      <c r="A89" s="1">
-        <v>429.0</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C89" s="3">
+      <c r="A89" s="6">
+        <v>413.0</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" s="7">
         <v>290.0</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D89" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E89" s="4"/>
@@ -3534,13 +3529,13 @@
     </row>
     <row r="90">
       <c r="A90" s="1">
-        <v>430.0</v>
+        <v>423.0</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C90" s="3">
-        <v>290.0</v>
+        <v>280.0</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>3</v>
@@ -3570,13 +3565,13 @@
     </row>
     <row r="91">
       <c r="A91" s="1">
-        <v>442.0</v>
+        <v>429.0</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C91" s="3">
-        <v>295.0</v>
+        <v>290.0</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>3</v>
@@ -3605,16 +3600,16 @@
       <c r="Z91" s="4"/>
     </row>
     <row r="92">
-      <c r="A92" s="6">
-        <v>450.0</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C92" s="7">
-        <v>260.0</v>
-      </c>
-      <c r="D92" s="5" t="s">
+      <c r="A92" s="1">
+        <v>430.0</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" s="3">
+        <v>290.0</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E92" s="4"/>
@@ -3642,13 +3637,13 @@
     </row>
     <row r="93">
       <c r="A93" s="1">
-        <v>456.0</v>
+        <v>442.0</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C93" s="3">
-        <v>235.0</v>
+        <v>295.0</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>3</v>
@@ -3677,16 +3672,16 @@
       <c r="Z93" s="4"/>
     </row>
     <row r="94">
-      <c r="A94" s="1">
-        <v>457.0</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C94" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D94" s="2" t="s">
+      <c r="A94" s="6">
+        <v>450.0</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" s="7">
+        <v>260.0</v>
+      </c>
+      <c r="D94" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E94" s="4"/>
@@ -3714,13 +3709,13 @@
     </row>
     <row r="95">
       <c r="A95" s="1">
-        <v>463.0</v>
+        <v>456.0</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C95" s="3">
-        <v>310.0</v>
+        <v>235.0</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>3</v>
@@ -3750,13 +3745,13 @@
     </row>
     <row r="96">
       <c r="A96" s="1">
-        <v>470.0</v>
+        <v>457.0</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C96" s="3">
-        <v>265.0</v>
+        <v>250.0</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>3</v>
@@ -3785,16 +3780,16 @@
       <c r="Z96" s="4"/>
     </row>
     <row r="97">
-      <c r="A97" s="6">
-        <v>480.0</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D97" s="5" t="s">
+      <c r="A97" s="1">
+        <v>463.0</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E97" s="4"/>
@@ -3822,13 +3817,13 @@
     </row>
     <row r="98">
       <c r="A98" s="1">
-        <v>485.0</v>
+        <v>470.0</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C98" s="3">
-        <v>310.0</v>
+        <v>265.0</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>3</v>
@@ -3858,12 +3853,14 @@
     </row>
     <row r="99">
       <c r="A99" s="6">
-        <v>490.0</v>
+        <v>480.0</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C99" s="3"/>
+      <c r="C99" s="7">
+        <v>285.0</v>
+      </c>
       <c r="D99" s="5" t="s">
         <v>3</v>
       </c>
@@ -3892,13 +3889,13 @@
     </row>
     <row r="100">
       <c r="A100" s="1">
-        <v>503.0</v>
+        <v>485.0</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C100" s="3">
-        <v>260.0</v>
+        <v>310.0</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>3</v>
@@ -3927,16 +3924,16 @@
       <c r="Z100" s="4"/>
     </row>
     <row r="101">
-      <c r="A101" s="1">
-        <v>510.0</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C101" s="3">
-        <v>285.0</v>
-      </c>
-      <c r="D101" s="2" t="s">
+      <c r="A101" s="6">
+        <v>490.0</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E101" s="4"/>
@@ -3963,16 +3960,16 @@
       <c r="Z101" s="4"/>
     </row>
     <row r="102">
-      <c r="A102" s="6">
-        <v>514.0</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C102" s="7">
-        <v>315.0</v>
-      </c>
-      <c r="D102" s="5" t="s">
+      <c r="A102" s="1">
+        <v>503.0</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" s="3">
+        <v>260.0</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E102" s="4"/>
@@ -4000,13 +3997,13 @@
     </row>
     <row r="103">
       <c r="A103" s="1">
-        <v>534.0</v>
+        <v>510.0</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C103" s="3">
-        <v>230.0</v>
+        <v>285.0</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>3</v>
@@ -4035,16 +4032,16 @@
       <c r="Z103" s="4"/>
     </row>
     <row r="104">
-      <c r="A104" s="1">
-        <v>535.0</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C104" s="3">
-        <v>295.0</v>
-      </c>
-      <c r="D104" s="2" t="s">
+      <c r="A104" s="6">
+        <v>514.0</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" s="7">
+        <v>315.0</v>
+      </c>
+      <c r="D104" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E104" s="4"/>
@@ -4072,13 +4069,13 @@
     </row>
     <row r="105">
       <c r="A105" s="1">
-        <v>552.0</v>
+        <v>534.0</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C105" s="3">
-        <v>280.0</v>
+        <v>230.0</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>3</v>
@@ -4108,13 +4105,13 @@
     </row>
     <row r="106">
       <c r="A106" s="1">
-        <v>561.0</v>
+        <v>535.0</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C106" s="3">
-        <v>280.0</v>
+        <v>295.0</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>3</v>
@@ -4143,16 +4140,16 @@
       <c r="Z106" s="4"/>
     </row>
     <row r="107">
-      <c r="A107" s="6">
-        <v>562.0</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D107" s="5" t="s">
+      <c r="A107" s="1">
+        <v>552.0</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" s="3">
+        <v>280.0</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E107" s="4"/>
@@ -4180,13 +4177,13 @@
     </row>
     <row r="108">
       <c r="A108" s="1">
-        <v>567.0</v>
+        <v>561.0</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C108" s="3">
-        <v>325.0</v>
+        <v>280.0</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>3</v>
@@ -4215,16 +4212,16 @@
       <c r="Z108" s="4"/>
     </row>
     <row r="109">
-      <c r="A109" s="1">
-        <v>576.0</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C109" s="3">
-        <v>260.0</v>
-      </c>
-      <c r="D109" s="2" t="s">
+      <c r="A109" s="6">
+        <v>562.0</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D109" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E109" s="4"/>
@@ -4251,16 +4248,16 @@
       <c r="Z109" s="4"/>
     </row>
     <row r="110">
-      <c r="A110" s="6">
-        <v>580.0</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C110" s="7">
-        <v>240.0</v>
-      </c>
-      <c r="D110" s="5" t="s">
+      <c r="A110" s="1">
+        <v>567.0</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C110" s="3">
+        <v>325.0</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E110" s="4"/>
@@ -4288,13 +4285,13 @@
     </row>
     <row r="111">
       <c r="A111" s="1">
-        <v>583.0</v>
+        <v>576.0</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C111" s="3">
-        <v>320.0</v>
+        <v>260.0</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>3</v>
@@ -4323,16 +4320,16 @@
       <c r="Z111" s="4"/>
     </row>
     <row r="112">
-      <c r="A112" s="1">
-        <v>584.0</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C112" s="3">
-        <v>270.0</v>
-      </c>
-      <c r="D112" s="2" t="s">
+      <c r="A112" s="6">
+        <v>580.0</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112" s="7">
+        <v>240.0</v>
+      </c>
+      <c r="D112" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E112" s="4"/>
@@ -4360,13 +4357,13 @@
     </row>
     <row r="113">
       <c r="A113" s="1">
-        <v>586.0</v>
+        <v>583.0</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C113" s="3">
-        <v>240.0</v>
+        <v>320.0</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>3</v>
@@ -4395,16 +4392,16 @@
       <c r="Z113" s="4"/>
     </row>
     <row r="114">
-      <c r="A114" s="6">
-        <v>587.0</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C114" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D114" s="5" t="s">
+      <c r="A114" s="1">
+        <v>584.0</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" s="3">
+        <v>270.0</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E114" s="4"/>
@@ -4432,13 +4429,13 @@
     </row>
     <row r="115">
       <c r="A115" s="1">
-        <v>593.0</v>
+        <v>586.0</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C115" s="3">
-        <v>250.0</v>
+        <v>240.0</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>3</v>
@@ -4468,13 +4465,13 @@
     </row>
     <row r="116">
       <c r="A116" s="6">
-        <v>599.0</v>
+        <v>587.0</v>
       </c>
       <c r="B116" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C116" s="7">
-        <v>280.0</v>
+        <v>265.0</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>3</v>
@@ -4504,13 +4501,13 @@
     </row>
     <row r="117">
       <c r="A117" s="1">
-        <v>604.0</v>
+        <v>593.0</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C117" s="3">
-        <v>295.0</v>
+        <v>250.0</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>3</v>
@@ -4539,16 +4536,16 @@
       <c r="Z117" s="4"/>
     </row>
     <row r="118">
-      <c r="A118" s="1">
-        <v>604.0</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C118" s="3">
-        <v>295.0</v>
-      </c>
-      <c r="D118" s="2" t="s">
+      <c r="A118" s="6">
+        <v>599.0</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C118" s="7">
+        <v>280.0</v>
+      </c>
+      <c r="D118" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E118" s="4"/>
@@ -4576,13 +4573,13 @@
     </row>
     <row r="119">
       <c r="A119" s="1">
-        <v>612.0</v>
+        <v>604.0</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C119" s="3">
-        <v>255.0</v>
+        <v>295.0</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>3</v>
@@ -4611,16 +4608,16 @@
       <c r="Z119" s="4"/>
     </row>
     <row r="120">
-      <c r="A120" s="6">
-        <v>615.0</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D120" s="5" t="s">
+      <c r="A120" s="1">
+        <v>604.0</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E120" s="4"/>
@@ -4648,13 +4645,13 @@
     </row>
     <row r="121">
       <c r="A121" s="1">
-        <v>617.0</v>
+        <v>612.0</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C121" s="3">
-        <v>330.0</v>
+        <v>255.0</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>3</v>
@@ -4684,13 +4681,13 @@
     </row>
     <row r="122">
       <c r="A122" s="6">
-        <v>618.0</v>
+        <v>615.0</v>
       </c>
       <c r="B122" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C122" s="7">
-        <v>330.0</v>
+      <c r="C122" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>3</v>
@@ -4720,13 +4717,13 @@
     </row>
     <row r="123">
       <c r="A123" s="1">
-        <v>623.0</v>
+        <v>617.0</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C123" s="3">
-        <v>290.0</v>
+        <v>330.0</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>3</v>
@@ -4755,16 +4752,16 @@
       <c r="Z123" s="4"/>
     </row>
     <row r="124">
-      <c r="A124" s="1">
-        <v>625.0</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C124" s="3">
-        <v>320.0</v>
-      </c>
-      <c r="D124" s="2" t="s">
+      <c r="A124" s="6">
+        <v>618.0</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124" s="7">
+        <v>330.0</v>
+      </c>
+      <c r="D124" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E124" s="4"/>
@@ -4792,13 +4789,13 @@
     </row>
     <row r="125">
       <c r="A125" s="1">
-        <v>626.0</v>
+        <v>623.0</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C125" s="3">
-        <v>305.0</v>
+        <v>290.0</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>3</v>
@@ -4828,13 +4825,13 @@
     </row>
     <row r="126">
       <c r="A126" s="1">
-        <v>635.0</v>
+        <v>625.0</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C126" s="3">
-        <v>295.0</v>
+        <v>320.0</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>3</v>
@@ -4864,13 +4861,13 @@
     </row>
     <row r="127">
       <c r="A127" s="1">
-        <v>642.0</v>
+        <v>626.0</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C127" s="3">
-        <v>270.0</v>
+        <v>305.0</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>3</v>
@@ -4900,13 +4897,13 @@
     </row>
     <row r="128">
       <c r="A128" s="1">
-        <v>643.0</v>
+        <v>635.0</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C128" s="3">
-        <v>310.0</v>
+        <v>295.0</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>3</v>
@@ -4936,15 +4933,15 @@
     </row>
     <row r="129">
       <c r="A129" s="6">
-        <v>651.0</v>
-      </c>
-      <c r="B129" s="2" t="s">
+        <v>640.0</v>
+      </c>
+      <c r="B129" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D129" s="2" t="s">
+      <c r="D129" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E129" s="4"/>
@@ -4972,13 +4969,13 @@
     </row>
     <row r="130">
       <c r="A130" s="1">
-        <v>652.0</v>
+        <v>642.0</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C130" s="3">
-        <v>330.0</v>
+        <v>270.0</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>3</v>
@@ -5008,13 +5005,13 @@
     </row>
     <row r="131">
       <c r="A131" s="1">
-        <v>663.0</v>
+        <v>643.0</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C131" s="3">
-        <v>265.0</v>
+        <v>310.0</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>3</v>
@@ -5044,15 +5041,15 @@
     </row>
     <row r="132">
       <c r="A132" s="6">
-        <v>666.0</v>
-      </c>
-      <c r="B132" s="5" t="s">
+        <v>651.0</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C132" s="7">
-        <v>300.0</v>
-      </c>
-      <c r="D132" s="5" t="s">
+        <v>230.0</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E132" s="4"/>
@@ -5080,13 +5077,13 @@
     </row>
     <row r="133">
       <c r="A133" s="1">
-        <v>668.0</v>
+        <v>652.0</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C133" s="3">
-        <v>305.0</v>
+        <v>330.0</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>3</v>
@@ -5115,14 +5112,18 @@
       <c r="Z133" s="4"/>
     </row>
     <row r="134">
-      <c r="A134" s="6">
-        <v>669.0</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C134" s="3"/>
-      <c r="D134" s="2"/>
+      <c r="A134" s="1">
+        <v>663.0</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134" s="3">
+        <v>265.0</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
       <c r="G134" s="4"/>
@@ -5147,16 +5148,16 @@
       <c r="Z134" s="4"/>
     </row>
     <row r="135">
-      <c r="A135" s="1">
-        <v>670.0</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C135" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D135" s="2" t="s">
+      <c r="A135" s="6">
+        <v>666.0</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" s="7">
+        <v>300.0</v>
+      </c>
+      <c r="D135" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E135" s="4"/>
@@ -5184,7 +5185,7 @@
     </row>
     <row r="136">
       <c r="A136" s="1">
-        <v>671.0</v>
+        <v>668.0</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>3</v>
@@ -5219,18 +5220,16 @@
       <c r="Z136" s="4"/>
     </row>
     <row r="137">
-      <c r="A137" s="1">
-        <v>672.0</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C137" s="3">
-        <v>295.0</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A137" s="6">
+        <v>669.0</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C137" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D137" s="2"/>
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
       <c r="G137" s="4"/>
@@ -5255,16 +5254,16 @@
       <c r="Z137" s="4"/>
     </row>
     <row r="138">
-      <c r="A138" s="6">
-        <v>676.0</v>
-      </c>
-      <c r="B138" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C138" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D138" s="5" t="s">
+      <c r="A138" s="1">
+        <v>670.0</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C138" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E138" s="4"/>
@@ -5292,13 +5291,13 @@
     </row>
     <row r="139">
       <c r="A139" s="1">
-        <v>680.0</v>
+        <v>671.0</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C139" s="3">
-        <v>285.0</v>
+        <v>305.0</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>3</v>
@@ -5328,13 +5327,13 @@
     </row>
     <row r="140">
       <c r="A140" s="1">
-        <v>688.0</v>
+        <v>672.0</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C140" s="3">
-        <v>310.0</v>
+        <v>295.0</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>3</v>
@@ -5363,16 +5362,16 @@
       <c r="Z140" s="4"/>
     </row>
     <row r="141">
-      <c r="A141" s="8">
-        <v>692.0</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C141" s="8">
-        <v>300.0</v>
-      </c>
-      <c r="D141" s="2" t="s">
+      <c r="A141" s="6">
+        <v>676.0</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C141" s="7">
+        <v>335.0</v>
+      </c>
+      <c r="D141" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E141" s="4"/>
@@ -5400,13 +5399,13 @@
     </row>
     <row r="142">
       <c r="A142" s="1">
-        <v>696.0</v>
+        <v>680.0</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C142" s="3">
-        <v>300.0</v>
+        <v>285.0</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>3</v>
@@ -5435,16 +5434,16 @@
       <c r="Z142" s="4"/>
     </row>
     <row r="143">
-      <c r="A143" s="6">
-        <v>712.0</v>
-      </c>
-      <c r="B143" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C143" s="7">
-        <v>295.0</v>
-      </c>
-      <c r="D143" s="5" t="s">
+      <c r="A143" s="1">
+        <v>688.0</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C143" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E143" s="4"/>
@@ -5471,16 +5470,16 @@
       <c r="Z143" s="4"/>
     </row>
     <row r="144">
-      <c r="A144" s="6">
-        <v>713.0</v>
-      </c>
-      <c r="B144" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C144" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D144" s="5" t="s">
+      <c r="A144" s="8">
+        <v>692.0</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144" s="8">
+        <v>300.0</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E144" s="4"/>
@@ -5508,13 +5507,13 @@
     </row>
     <row r="145">
       <c r="A145" s="1">
-        <v>714.0</v>
+        <v>696.0</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C145" s="3">
-        <v>275.0</v>
+        <v>300.0</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>3</v>
@@ -5543,16 +5542,16 @@
       <c r="Z145" s="4"/>
     </row>
     <row r="146">
-      <c r="A146" s="1">
-        <v>718.0</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C146" s="3">
-        <v>330.0</v>
-      </c>
-      <c r="D146" s="2" t="s">
+      <c r="A146" s="6">
+        <v>712.0</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C146" s="7">
+        <v>295.0</v>
+      </c>
+      <c r="D146" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E146" s="4"/>
@@ -5579,16 +5578,16 @@
       <c r="Z146" s="4"/>
     </row>
     <row r="147">
-      <c r="A147" s="1">
-        <v>719.0</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C147" s="3">
-        <v>280.0</v>
-      </c>
-      <c r="D147" s="2" t="s">
+      <c r="A147" s="6">
+        <v>713.0</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D147" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E147" s="4"/>
@@ -5616,13 +5615,13 @@
     </row>
     <row r="148">
       <c r="A148" s="1">
-        <v>732.0</v>
+        <v>714.0</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C148" s="3">
-        <v>280.0</v>
+        <v>275.0</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>3</v>
@@ -5652,13 +5651,13 @@
     </row>
     <row r="149">
       <c r="A149" s="1">
-        <v>733.0</v>
+        <v>718.0</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C149" s="3">
-        <v>320.0</v>
+        <v>330.0</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>3</v>
@@ -5688,13 +5687,13 @@
     </row>
     <row r="150">
       <c r="A150" s="1">
-        <v>736.0</v>
+        <v>719.0</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C150" s="3">
-        <v>250.0</v>
+        <v>280.0</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>3</v>
@@ -5724,13 +5723,13 @@
     </row>
     <row r="151">
       <c r="A151" s="1">
-        <v>744.0</v>
+        <v>732.0</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C151" s="3">
-        <v>270.0</v>
+        <v>280.0</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>3</v>
@@ -5760,13 +5759,13 @@
     </row>
     <row r="152">
       <c r="A152" s="1">
-        <v>747.0</v>
+        <v>733.0</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C152" s="3">
-        <v>250.0</v>
+        <v>320.0</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>3</v>
@@ -5796,13 +5795,13 @@
     </row>
     <row r="153">
       <c r="A153" s="1">
-        <v>749.0</v>
+        <v>736.0</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C153" s="3">
-        <v>335.0</v>
+        <v>250.0</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>3</v>
@@ -5831,16 +5830,16 @@
       <c r="Z153" s="4"/>
     </row>
     <row r="154">
-      <c r="A154" s="6">
-        <v>757.0</v>
-      </c>
-      <c r="B154" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C154" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D154" s="5" t="s">
+      <c r="A154" s="1">
+        <v>744.0</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C154" s="3">
+        <v>270.0</v>
+      </c>
+      <c r="D154" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E154" s="4"/>
@@ -5868,13 +5867,13 @@
     </row>
     <row r="155">
       <c r="A155" s="1">
-        <v>758.0</v>
+        <v>747.0</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C155" s="3">
-        <v>295.0</v>
+        <v>250.0</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>3</v>
@@ -5903,16 +5902,16 @@
       <c r="Z155" s="4"/>
     </row>
     <row r="156">
-      <c r="A156" s="1">
-        <v>767.0</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C156" s="3">
-        <v>290.0</v>
-      </c>
-      <c r="D156" s="2" t="s">
+      <c r="A156" s="6">
+        <v>748.0</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C156" s="7">
+        <v>230.0</v>
+      </c>
+      <c r="D156" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E156" s="4"/>
@@ -5939,16 +5938,16 @@
       <c r="Z156" s="4"/>
     </row>
     <row r="157">
-      <c r="A157" s="6">
-        <v>772.0</v>
-      </c>
-      <c r="B157" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C157" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D157" s="5" t="s">
+      <c r="A157" s="1">
+        <v>749.0</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C157" s="3">
+        <v>335.0</v>
+      </c>
+      <c r="D157" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E157" s="4"/>
@@ -5975,16 +5974,16 @@
       <c r="Z157" s="4"/>
     </row>
     <row r="158">
-      <c r="A158" s="1">
-        <v>775.0</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C158" s="3">
-        <v>260.0</v>
-      </c>
-      <c r="D158" s="2" t="s">
+      <c r="A158" s="6">
+        <v>757.0</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C158" s="7">
+        <v>280.0</v>
+      </c>
+      <c r="D158" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E158" s="4"/>
@@ -6012,13 +6011,13 @@
     </row>
     <row r="159">
       <c r="A159" s="1">
-        <v>777.0</v>
+        <v>758.0</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C159" s="3">
-        <v>310.0</v>
+        <v>295.0</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>3</v>
@@ -6048,13 +6047,13 @@
     </row>
     <row r="160">
       <c r="A160" s="1">
-        <v>792.0</v>
+        <v>767.0</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C160" s="3">
-        <v>320.0</v>
+        <v>290.0</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>3</v>
@@ -6083,16 +6082,16 @@
       <c r="Z160" s="4"/>
     </row>
     <row r="161">
-      <c r="A161" s="1">
-        <v>795.0</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C161" s="3">
-        <v>255.0</v>
-      </c>
-      <c r="D161" s="2" t="s">
+      <c r="A161" s="6">
+        <v>772.0</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C161" s="7">
+        <v>240.0</v>
+      </c>
+      <c r="D161" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E161" s="4"/>
@@ -6120,13 +6119,13 @@
     </row>
     <row r="162">
       <c r="A162" s="1">
-        <v>801.0</v>
+        <v>775.0</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C162" s="3">
-        <v>230.0</v>
+        <v>260.0</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>3</v>
@@ -6156,13 +6155,13 @@
     </row>
     <row r="163">
       <c r="A163" s="6">
-        <v>806.0</v>
+        <v>776.0</v>
       </c>
       <c r="B163" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C163" s="7">
-        <v>280.0</v>
+        <v>240.0</v>
       </c>
       <c r="D163" s="5" t="s">
         <v>3</v>
@@ -6192,13 +6191,13 @@
     </row>
     <row r="164">
       <c r="A164" s="1">
-        <v>809.0</v>
+        <v>777.0</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C164" s="3">
-        <v>270.0</v>
+        <v>310.0</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>3</v>
@@ -6228,13 +6227,13 @@
     </row>
     <row r="165">
       <c r="A165" s="1">
-        <v>811.0</v>
+        <v>792.0</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C165" s="3">
-        <v>260.0</v>
+        <v>320.0</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>3</v>
@@ -6264,13 +6263,13 @@
     </row>
     <row r="166">
       <c r="A166" s="1">
-        <v>819.0</v>
+        <v>795.0</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C166" s="3">
-        <v>200.0</v>
+        <v>255.0</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>3</v>
@@ -6300,13 +6299,13 @@
     </row>
     <row r="167">
       <c r="A167" s="1">
-        <v>820.0</v>
+        <v>801.0</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C167" s="3">
-        <v>245.0</v>
+        <v>230.0</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>3</v>
@@ -6335,16 +6334,16 @@
       <c r="Z167" s="4"/>
     </row>
     <row r="168">
-      <c r="A168" s="1">
-        <v>821.0</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C168" s="3">
-        <v>300.0</v>
-      </c>
-      <c r="D168" s="2" t="s">
+      <c r="A168" s="6">
+        <v>806.0</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C168" s="7">
+        <v>280.0</v>
+      </c>
+      <c r="D168" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E168" s="4"/>
@@ -6371,16 +6370,16 @@
       <c r="Z168" s="4"/>
     </row>
     <row r="169">
-      <c r="A169" s="6">
-        <v>829.0</v>
-      </c>
-      <c r="B169" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C169" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D169" s="5" t="s">
+      <c r="A169" s="1">
+        <v>809.0</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C169" s="3">
+        <v>270.0</v>
+      </c>
+      <c r="D169" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E169" s="4"/>
@@ -6407,16 +6406,16 @@
       <c r="Z169" s="4"/>
     </row>
     <row r="170">
-      <c r="A170" s="6">
-        <v>834.0</v>
-      </c>
-      <c r="B170" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C170" s="7">
-        <v>225.0</v>
-      </c>
-      <c r="D170" s="5" t="s">
+      <c r="A170" s="1">
+        <v>811.0</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C170" s="3">
+        <v>260.0</v>
+      </c>
+      <c r="D170" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E170" s="4"/>
@@ -6443,16 +6442,16 @@
       <c r="Z170" s="4"/>
     </row>
     <row r="171">
-      <c r="A171" s="6">
-        <v>837.0</v>
-      </c>
-      <c r="B171" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C171" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D171" s="5" t="s">
+      <c r="A171" s="1">
+        <v>819.0</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C171" s="3">
+        <v>200.0</v>
+      </c>
+      <c r="D171" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E171" s="4"/>
@@ -6479,16 +6478,16 @@
       <c r="Z171" s="4"/>
     </row>
     <row r="172">
-      <c r="A172" s="6">
-        <v>838.0</v>
-      </c>
-      <c r="B172" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C172" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D172" s="5" t="s">
+      <c r="A172" s="1">
+        <v>820.0</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C172" s="3">
+        <v>245.0</v>
+      </c>
+      <c r="D172" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E172" s="4"/>
@@ -6515,16 +6514,16 @@
       <c r="Z172" s="4"/>
     </row>
     <row r="173">
-      <c r="A173" s="6">
-        <v>843.0</v>
-      </c>
-      <c r="B173" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C173" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D173" s="5" t="s">
+      <c r="A173" s="1">
+        <v>821.0</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C173" s="3">
+        <v>300.0</v>
+      </c>
+      <c r="D173" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E173" s="4"/>
@@ -6551,16 +6550,16 @@
       <c r="Z173" s="4"/>
     </row>
     <row r="174">
-      <c r="A174" s="1">
-        <v>846.0</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C174" s="3">
-        <v>295.0</v>
-      </c>
-      <c r="D174" s="2" t="s">
+      <c r="A174" s="6">
+        <v>829.0</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C174" s="7">
+        <v>275.0</v>
+      </c>
+      <c r="D174" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E174" s="4"/>
@@ -6587,16 +6586,16 @@
       <c r="Z174" s="4"/>
     </row>
     <row r="175">
-      <c r="A175" s="1">
-        <v>853.0</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C175" s="3">
-        <v>290.0</v>
-      </c>
-      <c r="D175" s="2" t="s">
+      <c r="A175" s="6">
+        <v>834.0</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C175" s="7">
+        <v>225.0</v>
+      </c>
+      <c r="D175" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E175" s="4"/>
@@ -6623,16 +6622,16 @@
       <c r="Z175" s="4"/>
     </row>
     <row r="176">
-      <c r="A176" s="1">
-        <v>856.0</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C176" s="3">
-        <v>260.0</v>
-      </c>
-      <c r="D176" s="2" t="s">
+      <c r="A176" s="6">
+        <v>837.0</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C176" s="7">
+        <v>275.0</v>
+      </c>
+      <c r="D176" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E176" s="4"/>
@@ -6659,16 +6658,16 @@
       <c r="Z176" s="4"/>
     </row>
     <row r="177">
-      <c r="A177" s="1">
-        <v>861.0</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C177" s="3">
-        <v>305.0</v>
-      </c>
-      <c r="D177" s="2" t="s">
+      <c r="A177" s="6">
+        <v>838.0</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C177" s="7">
+        <v>295.0</v>
+      </c>
+      <c r="D177" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E177" s="4"/>
@@ -6695,16 +6694,16 @@
       <c r="Z177" s="4"/>
     </row>
     <row r="178">
-      <c r="A178" s="1">
-        <v>863.0</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C178" s="3">
-        <v>275.0</v>
-      </c>
-      <c r="D178" s="2" t="s">
+      <c r="A178" s="6">
+        <v>843.0</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C178" s="7">
+        <v>320.0</v>
+      </c>
+      <c r="D178" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E178" s="4"/>
@@ -6732,7 +6731,7 @@
     </row>
     <row r="179">
       <c r="A179" s="1">
-        <v>872.0</v>
+        <v>846.0</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>3</v>
@@ -6767,16 +6766,16 @@
       <c r="Z179" s="4"/>
     </row>
     <row r="180">
-      <c r="A180" s="6">
-        <v>876.0</v>
-      </c>
-      <c r="B180" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C180" s="7">
-        <v>250.0</v>
-      </c>
-      <c r="D180" s="5" t="s">
+      <c r="A180" s="1">
+        <v>853.0</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C180" s="3">
+        <v>290.0</v>
+      </c>
+      <c r="D180" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E180" s="4"/>
@@ -6804,13 +6803,13 @@
     </row>
     <row r="181">
       <c r="A181" s="1">
-        <v>880.0</v>
+        <v>856.0</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C181" s="3">
-        <v>225.0</v>
+        <v>260.0</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>3</v>
@@ -6840,13 +6839,13 @@
     </row>
     <row r="182">
       <c r="A182" s="1">
-        <v>899.0</v>
+        <v>861.0</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C182" s="3">
-        <v>310.0</v>
+        <v>305.0</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>3</v>
@@ -6876,7 +6875,7 @@
     </row>
     <row r="183">
       <c r="A183" s="1">
-        <v>901.0</v>
+        <v>863.0</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>3</v>
@@ -6912,15 +6911,15 @@
     </row>
     <row r="184">
       <c r="A184" s="1">
-        <v>935.0</v>
+        <v>872.0</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C184" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D184" s="5" t="s">
+        <v>295.0</v>
+      </c>
+      <c r="D184" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E184" s="4"/>
@@ -6947,14 +6946,14 @@
       <c r="Z184" s="4"/>
     </row>
     <row r="185">
-      <c r="A185" s="5">
-        <v>1000.0</v>
+      <c r="A185" s="6">
+        <v>876.0</v>
       </c>
       <c r="B185" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C185" s="5">
-        <v>2000.0</v>
+      <c r="C185" s="7">
+        <v>250.0</v>
       </c>
       <c r="D185" s="5" t="s">
         <v>3</v>
@@ -6983,10 +6982,18 @@
       <c r="Z185" s="4"/>
     </row>
     <row r="186">
-      <c r="A186" s="2"/>
-      <c r="B186" s="2"/>
-      <c r="C186" s="2"/>
-      <c r="D186" s="2"/>
+      <c r="A186" s="1">
+        <v>880.0</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C186" s="3">
+        <v>225.0</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E186" s="4"/>
       <c r="F186" s="4"/>
       <c r="G186" s="4"/>
@@ -7011,10 +7018,18 @@
       <c r="Z186" s="4"/>
     </row>
     <row r="187">
-      <c r="A187" s="2"/>
-      <c r="B187" s="2"/>
-      <c r="C187" s="2"/>
-      <c r="D187" s="2"/>
+      <c r="A187" s="6">
+        <v>886.0</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C187" s="7">
+        <v>230.0</v>
+      </c>
+      <c r="D187" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E187" s="4"/>
       <c r="F187" s="4"/>
       <c r="G187" s="4"/>
@@ -7039,10 +7054,18 @@
       <c r="Z187" s="4"/>
     </row>
     <row r="188">
-      <c r="A188" s="2"/>
-      <c r="B188" s="2"/>
-      <c r="C188" s="2"/>
-      <c r="D188" s="2"/>
+      <c r="A188" s="1">
+        <v>899.0</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C188" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E188" s="4"/>
       <c r="F188" s="4"/>
       <c r="G188" s="4"/>
@@ -7067,10 +7090,18 @@
       <c r="Z188" s="4"/>
     </row>
     <row r="189">
-      <c r="A189" s="2"/>
-      <c r="B189" s="2"/>
-      <c r="C189" s="2"/>
-      <c r="D189" s="2"/>
+      <c r="A189" s="1">
+        <v>901.0</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C189" s="3">
+        <v>275.0</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E189" s="4"/>
       <c r="F189" s="4"/>
       <c r="G189" s="4"/>
@@ -7095,10 +7126,18 @@
       <c r="Z189" s="4"/>
     </row>
     <row r="190">
-      <c r="A190" s="2"/>
-      <c r="B190" s="2"/>
-      <c r="C190" s="2"/>
-      <c r="D190" s="2"/>
+      <c r="A190" s="1">
+        <v>935.0</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C190" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D190" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E190" s="4"/>
       <c r="F190" s="4"/>
       <c r="G190" s="4"/>
@@ -7123,10 +7162,18 @@
       <c r="Z190" s="4"/>
     </row>
     <row r="191">
-      <c r="A191" s="2"/>
-      <c r="B191" s="2"/>
-      <c r="C191" s="2"/>
-      <c r="D191" s="2"/>
+      <c r="A191" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C191" s="5">
+        <v>2000.0</v>
+      </c>
+      <c r="D191" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E191" s="4"/>
       <c r="F191" s="4"/>
       <c r="G191" s="4"/>
@@ -31119,10 +31166,10 @@
       <c r="Z1047" s="4"/>
     </row>
     <row r="1048">
-      <c r="A1048" s="4"/>
-      <c r="B1048" s="4"/>
-      <c r="C1048" s="4"/>
-      <c r="D1048" s="4"/>
+      <c r="A1048" s="2"/>
+      <c r="B1048" s="2"/>
+      <c r="C1048" s="2"/>
+      <c r="D1048" s="2"/>
       <c r="E1048" s="4"/>
       <c r="F1048" s="4"/>
       <c r="G1048" s="4"/>
@@ -31146,6 +31193,174 @@
       <c r="Y1048" s="4"/>
       <c r="Z1048" s="4"/>
     </row>
+    <row r="1049">
+      <c r="A1049" s="2"/>
+      <c r="B1049" s="2"/>
+      <c r="C1049" s="2"/>
+      <c r="D1049" s="2"/>
+      <c r="E1049" s="4"/>
+      <c r="F1049" s="4"/>
+      <c r="G1049" s="4"/>
+      <c r="H1049" s="4"/>
+      <c r="I1049" s="4"/>
+      <c r="J1049" s="4"/>
+      <c r="K1049" s="4"/>
+      <c r="L1049" s="4"/>
+      <c r="M1049" s="4"/>
+      <c r="N1049" s="4"/>
+      <c r="O1049" s="4"/>
+      <c r="P1049" s="4"/>
+      <c r="Q1049" s="4"/>
+      <c r="R1049" s="4"/>
+      <c r="S1049" s="4"/>
+      <c r="T1049" s="4"/>
+      <c r="U1049" s="4"/>
+      <c r="V1049" s="4"/>
+      <c r="W1049" s="4"/>
+      <c r="X1049" s="4"/>
+      <c r="Y1049" s="4"/>
+      <c r="Z1049" s="4"/>
+    </row>
+    <row r="1050">
+      <c r="A1050" s="2"/>
+      <c r="B1050" s="2"/>
+      <c r="C1050" s="2"/>
+      <c r="D1050" s="2"/>
+      <c r="E1050" s="4"/>
+      <c r="F1050" s="4"/>
+      <c r="G1050" s="4"/>
+      <c r="H1050" s="4"/>
+      <c r="I1050" s="4"/>
+      <c r="J1050" s="4"/>
+      <c r="K1050" s="4"/>
+      <c r="L1050" s="4"/>
+      <c r="M1050" s="4"/>
+      <c r="N1050" s="4"/>
+      <c r="O1050" s="4"/>
+      <c r="P1050" s="4"/>
+      <c r="Q1050" s="4"/>
+      <c r="R1050" s="4"/>
+      <c r="S1050" s="4"/>
+      <c r="T1050" s="4"/>
+      <c r="U1050" s="4"/>
+      <c r="V1050" s="4"/>
+      <c r="W1050" s="4"/>
+      <c r="X1050" s="4"/>
+      <c r="Y1050" s="4"/>
+      <c r="Z1050" s="4"/>
+    </row>
+    <row r="1051">
+      <c r="A1051" s="2"/>
+      <c r="B1051" s="2"/>
+      <c r="C1051" s="2"/>
+      <c r="D1051" s="2"/>
+      <c r="E1051" s="4"/>
+      <c r="F1051" s="4"/>
+      <c r="G1051" s="4"/>
+      <c r="H1051" s="4"/>
+      <c r="I1051" s="4"/>
+      <c r="J1051" s="4"/>
+      <c r="K1051" s="4"/>
+      <c r="L1051" s="4"/>
+      <c r="M1051" s="4"/>
+      <c r="N1051" s="4"/>
+      <c r="O1051" s="4"/>
+      <c r="P1051" s="4"/>
+      <c r="Q1051" s="4"/>
+      <c r="R1051" s="4"/>
+      <c r="S1051" s="4"/>
+      <c r="T1051" s="4"/>
+      <c r="U1051" s="4"/>
+      <c r="V1051" s="4"/>
+      <c r="W1051" s="4"/>
+      <c r="X1051" s="4"/>
+      <c r="Y1051" s="4"/>
+      <c r="Z1051" s="4"/>
+    </row>
+    <row r="1052">
+      <c r="A1052" s="2"/>
+      <c r="B1052" s="2"/>
+      <c r="C1052" s="2"/>
+      <c r="D1052" s="2"/>
+      <c r="E1052" s="4"/>
+      <c r="F1052" s="4"/>
+      <c r="G1052" s="4"/>
+      <c r="H1052" s="4"/>
+      <c r="I1052" s="4"/>
+      <c r="J1052" s="4"/>
+      <c r="K1052" s="4"/>
+      <c r="L1052" s="4"/>
+      <c r="M1052" s="4"/>
+      <c r="N1052" s="4"/>
+      <c r="O1052" s="4"/>
+      <c r="P1052" s="4"/>
+      <c r="Q1052" s="4"/>
+      <c r="R1052" s="4"/>
+      <c r="S1052" s="4"/>
+      <c r="T1052" s="4"/>
+      <c r="U1052" s="4"/>
+      <c r="V1052" s="4"/>
+      <c r="W1052" s="4"/>
+      <c r="X1052" s="4"/>
+      <c r="Y1052" s="4"/>
+      <c r="Z1052" s="4"/>
+    </row>
+    <row r="1053">
+      <c r="A1053" s="2"/>
+      <c r="B1053" s="2"/>
+      <c r="C1053" s="2"/>
+      <c r="D1053" s="2"/>
+      <c r="E1053" s="4"/>
+      <c r="F1053" s="4"/>
+      <c r="G1053" s="4"/>
+      <c r="H1053" s="4"/>
+      <c r="I1053" s="4"/>
+      <c r="J1053" s="4"/>
+      <c r="K1053" s="4"/>
+      <c r="L1053" s="4"/>
+      <c r="M1053" s="4"/>
+      <c r="N1053" s="4"/>
+      <c r="O1053" s="4"/>
+      <c r="P1053" s="4"/>
+      <c r="Q1053" s="4"/>
+      <c r="R1053" s="4"/>
+      <c r="S1053" s="4"/>
+      <c r="T1053" s="4"/>
+      <c r="U1053" s="4"/>
+      <c r="V1053" s="4"/>
+      <c r="W1053" s="4"/>
+      <c r="X1053" s="4"/>
+      <c r="Y1053" s="4"/>
+      <c r="Z1053" s="4"/>
+    </row>
+    <row r="1054">
+      <c r="A1054" s="4"/>
+      <c r="B1054" s="4"/>
+      <c r="C1054" s="4"/>
+      <c r="D1054" s="4"/>
+      <c r="E1054" s="4"/>
+      <c r="F1054" s="4"/>
+      <c r="G1054" s="4"/>
+      <c r="H1054" s="4"/>
+      <c r="I1054" s="4"/>
+      <c r="J1054" s="4"/>
+      <c r="K1054" s="4"/>
+      <c r="L1054" s="4"/>
+      <c r="M1054" s="4"/>
+      <c r="N1054" s="4"/>
+      <c r="O1054" s="4"/>
+      <c r="P1054" s="4"/>
+      <c r="Q1054" s="4"/>
+      <c r="R1054" s="4"/>
+      <c r="S1054" s="4"/>
+      <c r="T1054" s="4"/>
+      <c r="U1054" s="4"/>
+      <c r="V1054" s="4"/>
+      <c r="W1054" s="4"/>
+      <c r="X1054" s="4"/>
+      <c r="Y1054" s="4"/>
+      <c r="Z1054" s="4"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/hauteur site.xlsx
+++ b/hauteur site.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="19">
   <si>
     <t>code_pneu</t>
   </si>
@@ -29,6 +29,45 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>---35/2</t>
+  </si>
+  <si>
+    <t>--15/4</t>
+  </si>
+  <si>
+    <t>voir 35/2</t>
+  </si>
+  <si>
+    <t>---28/1</t>
+  </si>
+  <si>
+    <t>---5/1</t>
+  </si>
+  <si>
+    <t>280?</t>
+  </si>
+  <si>
+    <t>265?</t>
+  </si>
+  <si>
+    <t>----29/2</t>
+  </si>
+  <si>
+    <t>---9/3</t>
+  </si>
+  <si>
+    <t>---6/8</t>
+  </si>
+  <si>
+    <t>voir 3/8</t>
+  </si>
+  <si>
+    <t>voir 21/1</t>
+  </si>
+  <si>
+    <t>---11/2</t>
   </si>
 </sst>
 </file>
@@ -757,13 +796,13 @@
     </row>
     <row r="13">
       <c r="A13" s="6">
-        <v>70.0</v>
+        <v>63.0</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>225.0</v>
+        <v>260.0</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>3</v>
@@ -792,16 +831,16 @@
       <c r="Z13" s="4"/>
     </row>
     <row r="14">
-      <c r="A14" s="1">
-        <v>74.0</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="3">
-        <v>265.0</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="A14" s="6">
+        <v>69.0</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E14" s="4"/>
@@ -828,16 +867,16 @@
       <c r="Z14" s="4"/>
     </row>
     <row r="15">
-      <c r="A15" s="1">
-        <v>77.0</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="3">
-        <v>260.0</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="A15" s="6">
+        <v>70.0</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>225.0</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E15" s="4"/>
@@ -865,13 +904,13 @@
     </row>
     <row r="16">
       <c r="A16" s="1">
-        <v>83.0</v>
+        <v>74.0</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="3">
-        <v>295.0</v>
+        <v>265.0</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>3</v>
@@ -901,13 +940,13 @@
     </row>
     <row r="17">
       <c r="A17" s="1">
-        <v>93.0</v>
+        <v>77.0</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="3">
-        <v>250.0</v>
+        <v>260.0</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>3</v>
@@ -937,13 +976,13 @@
     </row>
     <row r="18">
       <c r="A18" s="1">
-        <v>112.0</v>
+        <v>83.0</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="3">
-        <v>270.0</v>
+        <v>295.0</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>3</v>
@@ -973,13 +1012,13 @@
     </row>
     <row r="19">
       <c r="A19" s="1">
-        <v>119.0</v>
+        <v>93.0</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="3">
-        <v>310.0</v>
+        <v>250.0</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>3</v>
@@ -1009,17 +1048,15 @@
     </row>
     <row r="20">
       <c r="A20" s="6">
-        <v>123.0</v>
+        <v>98.0</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="7">
-        <v>280.0</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="C20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -1045,13 +1082,13 @@
     </row>
     <row r="21">
       <c r="A21" s="6">
-        <v>124.0</v>
+        <v>106.0</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="7">
-        <v>245.0</v>
+      <c r="C21" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>3</v>
@@ -1080,16 +1117,16 @@
       <c r="Z21" s="4"/>
     </row>
     <row r="22">
-      <c r="A22" s="1">
-        <v>125.0</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="3">
-        <v>265.0</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="A22" s="6">
+        <v>107.0</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="7">
+        <v>260.0</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E22" s="4"/>
@@ -1117,7 +1154,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1">
-        <v>129.0</v>
+        <v>112.0</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>3</v>
@@ -1152,16 +1189,16 @@
       <c r="Z23" s="4"/>
     </row>
     <row r="24">
-      <c r="A24" s="6">
-        <v>130.0</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="7">
-        <v>290.0</v>
-      </c>
-      <c r="D24" s="5" t="s">
+      <c r="A24" s="1">
+        <v>119.0</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E24" s="4"/>
@@ -1188,16 +1225,16 @@
       <c r="Z24" s="4"/>
     </row>
     <row r="25">
-      <c r="A25" s="1">
-        <v>131.0</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="3">
-        <v>255.0</v>
-      </c>
-      <c r="D25" s="2" t="s">
+      <c r="A25" s="6">
+        <v>123.0</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="7">
+        <v>280.0</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E25" s="4"/>
@@ -1224,16 +1261,16 @@
       <c r="Z25" s="4"/>
     </row>
     <row r="26">
-      <c r="A26" s="1">
-        <v>132.0</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="A26" s="6">
+        <v>124.0</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="7">
+        <v>245.0</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E26" s="4"/>
@@ -1261,13 +1298,13 @@
     </row>
     <row r="27">
       <c r="A27" s="1">
-        <v>138.0</v>
+        <v>125.0</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="3">
-        <v>315.0</v>
+        <v>265.0</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>3</v>
@@ -1297,13 +1334,13 @@
     </row>
     <row r="28">
       <c r="A28" s="1">
-        <v>139.0</v>
+        <v>129.0</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="3">
-        <v>250.0</v>
+        <v>270.0</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>3</v>
@@ -1333,13 +1370,13 @@
     </row>
     <row r="29">
       <c r="A29" s="6">
-        <v>144.0</v>
+        <v>130.0</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C29" s="7">
-        <v>305.0</v>
+        <v>290.0</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>3</v>
@@ -1369,13 +1406,13 @@
     </row>
     <row r="30">
       <c r="A30" s="1">
-        <v>145.0</v>
+        <v>131.0</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C30" s="3">
-        <v>275.0</v>
+        <v>255.0</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>3</v>
@@ -1404,16 +1441,16 @@
       <c r="Z30" s="4"/>
     </row>
     <row r="31">
-      <c r="A31" s="6">
-        <v>146.0</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="7">
-        <v>300.0</v>
-      </c>
-      <c r="D31" s="5" t="s">
+      <c r="A31" s="1">
+        <v>132.0</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E31" s="4"/>
@@ -1440,16 +1477,16 @@
       <c r="Z31" s="4"/>
     </row>
     <row r="32">
-      <c r="A32" s="1">
-        <v>149.0</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="3">
-        <v>265.0</v>
-      </c>
-      <c r="D32" s="2" t="s">
+      <c r="A32" s="6">
+        <v>133.0</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="7">
+        <v>240.0</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E32" s="4"/>
@@ -1476,16 +1513,16 @@
       <c r="Z32" s="4"/>
     </row>
     <row r="33">
-      <c r="A33" s="1">
-        <v>153.0</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="3">
-        <v>325.0</v>
-      </c>
-      <c r="D33" s="2" t="s">
+      <c r="A33" s="6">
+        <v>136.0</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E33" s="4"/>
@@ -1513,13 +1550,13 @@
     </row>
     <row r="34">
       <c r="A34" s="1">
-        <v>154.0</v>
+        <v>138.0</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C34" s="3">
-        <v>325.0</v>
+        <v>315.0</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>3</v>
@@ -1549,13 +1586,13 @@
     </row>
     <row r="35">
       <c r="A35" s="1">
-        <v>157.0</v>
+        <v>139.0</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="3">
-        <v>270.0</v>
+        <v>250.0</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>3</v>
@@ -1584,16 +1621,16 @@
       <c r="Z35" s="4"/>
     </row>
     <row r="36">
-      <c r="A36" s="1">
-        <v>167.0</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D36" s="2" t="s">
+      <c r="A36" s="6">
+        <v>144.0</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="7">
+        <v>305.0</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E36" s="4"/>
@@ -1620,16 +1657,16 @@
       <c r="Z36" s="4"/>
     </row>
     <row r="37">
-      <c r="A37" s="6">
-        <v>169.0</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="7">
-        <v>235.0</v>
-      </c>
-      <c r="D37" s="5" t="s">
+      <c r="A37" s="1">
+        <v>145.0</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="3">
+        <v>275.0</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E37" s="4"/>
@@ -1656,16 +1693,16 @@
       <c r="Z37" s="4"/>
     </row>
     <row r="38">
-      <c r="A38" s="1">
-        <v>175.0</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D38" s="2" t="s">
+      <c r="A38" s="6">
+        <v>146.0</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="7">
+        <v>300.0</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E38" s="4"/>
@@ -1693,7 +1730,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1">
-        <v>178.0</v>
+        <v>149.0</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>3</v>
@@ -1728,16 +1765,16 @@
       <c r="Z39" s="4"/>
     </row>
     <row r="40">
-      <c r="A40" s="1">
-        <v>182.0</v>
-      </c>
-      <c r="B40" s="2" t="s">
+      <c r="A40" s="6">
+        <v>152.0</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C40" s="7">
-        <v>285.0</v>
-      </c>
-      <c r="D40" s="2" t="s">
+        <v>230.0</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E40" s="4"/>
@@ -1765,13 +1802,13 @@
     </row>
     <row r="41">
       <c r="A41" s="1">
-        <v>183.0</v>
+        <v>153.0</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C41" s="3">
-        <v>270.0</v>
+        <v>325.0</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>3</v>
@@ -1801,13 +1838,13 @@
     </row>
     <row r="42">
       <c r="A42" s="1">
-        <v>190.0</v>
+        <v>154.0</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C42" s="3">
-        <v>305.0</v>
+        <v>325.0</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>3</v>
@@ -1836,16 +1873,16 @@
       <c r="Z42" s="4"/>
     </row>
     <row r="43">
-      <c r="A43" s="1">
-        <v>192.0</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" s="3">
-        <v>285.0</v>
-      </c>
-      <c r="D43" s="2" t="s">
+      <c r="A43" s="6">
+        <v>156.0</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E43" s="4"/>
@@ -1873,13 +1910,13 @@
     </row>
     <row r="44">
       <c r="A44" s="1">
-        <v>201.0</v>
+        <v>157.0</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C44" s="3">
-        <v>285.0</v>
+        <v>270.0</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>3</v>
@@ -1909,13 +1946,13 @@
     </row>
     <row r="45">
       <c r="A45" s="1">
-        <v>204.0</v>
+        <v>167.0</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C45" s="3">
-        <v>270.0</v>
+        <v>250.0</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>3</v>
@@ -1945,13 +1982,13 @@
     </row>
     <row r="46">
       <c r="A46" s="6">
-        <v>207.0</v>
+        <v>169.0</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C46" s="7">
-        <v>325.0</v>
+        <v>235.0</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>3</v>
@@ -1980,16 +2017,16 @@
       <c r="Z46" s="4"/>
     </row>
     <row r="47">
-      <c r="A47" s="6">
-        <v>209.0</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" s="5" t="s">
+      <c r="A47" s="1">
+        <v>175.0</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E47" s="4"/>
@@ -2016,16 +2053,16 @@
       <c r="Z47" s="4"/>
     </row>
     <row r="48">
-      <c r="A48" s="6">
-        <v>216.0</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" s="7">
-        <v>320.0</v>
-      </c>
-      <c r="D48" s="5" t="s">
+      <c r="A48" s="1">
+        <v>178.0</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="3">
+        <v>265.0</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E48" s="4"/>
@@ -2053,13 +2090,13 @@
     </row>
     <row r="49">
       <c r="A49" s="1">
-        <v>218.0</v>
+        <v>182.0</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="3">
-        <v>275.0</v>
+      <c r="C49" s="7">
+        <v>285.0</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>3</v>
@@ -2089,13 +2126,13 @@
     </row>
     <row r="50">
       <c r="A50" s="1">
-        <v>227.0</v>
+        <v>183.0</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C50" s="3">
-        <v>325.0</v>
+        <v>270.0</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>3</v>
@@ -2124,16 +2161,16 @@
       <c r="Z50" s="4"/>
     </row>
     <row r="51">
-      <c r="A51" s="1">
-        <v>229.0</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" s="3">
-        <v>300.0</v>
-      </c>
-      <c r="D51" s="2" t="s">
+      <c r="A51" s="6">
+        <v>189.0</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E51" s="4"/>
@@ -2160,16 +2197,16 @@
       <c r="Z51" s="4"/>
     </row>
     <row r="52">
-      <c r="A52" s="6">
-        <v>232.0</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" s="7">
-        <v>275.0</v>
-      </c>
-      <c r="D52" s="5" t="s">
+      <c r="A52" s="1">
+        <v>190.0</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="3">
+        <v>305.0</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E52" s="4"/>
@@ -2197,13 +2234,13 @@
     </row>
     <row r="53">
       <c r="A53" s="1">
-        <v>237.0</v>
+        <v>192.0</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C53" s="3">
-        <v>240.0</v>
+        <v>285.0</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>3</v>
@@ -2232,16 +2269,16 @@
       <c r="Z53" s="4"/>
     </row>
     <row r="54">
-      <c r="A54" s="6">
-        <v>238.0</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" s="7">
-        <v>280.0</v>
-      </c>
-      <c r="D54" s="5" t="s">
+      <c r="A54" s="1">
+        <v>201.0</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="3">
+        <v>285.0</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E54" s="4"/>
@@ -2269,13 +2306,13 @@
     </row>
     <row r="55">
       <c r="A55" s="1">
-        <v>243.0</v>
+        <v>204.0</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C55" s="3">
-        <v>225.0</v>
+        <v>270.0</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>3</v>
@@ -2305,13 +2342,13 @@
     </row>
     <row r="56">
       <c r="A56" s="6">
-        <v>250.0</v>
+        <v>207.0</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C56" s="7">
-        <v>245.0</v>
+        <v>325.0</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>3</v>
@@ -2341,7 +2378,7 @@
     </row>
     <row r="57">
       <c r="A57" s="6">
-        <v>257.0</v>
+        <v>209.0</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>3</v>
@@ -2377,13 +2414,13 @@
     </row>
     <row r="58">
       <c r="A58" s="6">
-        <v>264.0</v>
+        <v>216.0</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C58" s="7" t="s">
-        <v>5</v>
+      <c r="C58" s="7">
+        <v>320.0</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>3</v>
@@ -2413,13 +2450,13 @@
     </row>
     <row r="59">
       <c r="A59" s="1">
-        <v>265.0</v>
+        <v>218.0</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C59" s="3">
-        <v>250.0</v>
+        <v>275.0</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>3</v>
@@ -2448,16 +2485,16 @@
       <c r="Z59" s="4"/>
     </row>
     <row r="60">
-      <c r="A60" s="6">
-        <v>270.0</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D60" s="5" t="s">
+      <c r="A60" s="1">
+        <v>227.0</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="3">
+        <v>325.0</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E60" s="4"/>
@@ -2484,16 +2521,16 @@
       <c r="Z60" s="4"/>
     </row>
     <row r="61">
-      <c r="A61" s="6">
-        <v>273.0</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61" s="7">
-        <v>290.0</v>
-      </c>
-      <c r="D61" s="5" t="s">
+      <c r="A61" s="1">
+        <v>229.0</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="3">
+        <v>300.0</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E61" s="4"/>
@@ -2520,16 +2557,16 @@
       <c r="Z61" s="4"/>
     </row>
     <row r="62">
-      <c r="A62" s="1">
-        <v>274.0</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" s="3">
-        <v>260.0</v>
-      </c>
-      <c r="D62" s="2" t="s">
+      <c r="A62" s="6">
+        <v>232.0</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="7">
+        <v>275.0</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E62" s="4"/>
@@ -2556,16 +2593,16 @@
       <c r="Z62" s="4"/>
     </row>
     <row r="63">
-      <c r="A63" s="6">
-        <v>275.0</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C63" s="7">
-        <v>290.0</v>
-      </c>
-      <c r="D63" s="5" t="s">
+      <c r="A63" s="1">
+        <v>237.0</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="3">
+        <v>240.0</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E63" s="4"/>
@@ -2593,13 +2630,13 @@
     </row>
     <row r="64">
       <c r="A64" s="6">
-        <v>279.0</v>
+        <v>238.0</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C64" s="7">
-        <v>255.0</v>
+        <v>280.0</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>3</v>
@@ -2629,13 +2666,13 @@
     </row>
     <row r="65">
       <c r="A65" s="1">
-        <v>290.0</v>
+        <v>243.0</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C65" s="3">
-        <v>310.0</v>
+        <v>225.0</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>3</v>
@@ -2664,16 +2701,16 @@
       <c r="Z65" s="4"/>
     </row>
     <row r="66">
-      <c r="A66" s="1">
-        <v>290.0</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D66" s="2" t="s">
+      <c r="A66" s="6">
+        <v>250.0</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="7">
+        <v>245.0</v>
+      </c>
+      <c r="D66" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E66" s="4"/>
@@ -2700,16 +2737,16 @@
       <c r="Z66" s="4"/>
     </row>
     <row r="67">
-      <c r="A67" s="1">
-        <v>306.0</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C67" s="3">
-        <v>235.0</v>
-      </c>
-      <c r="D67" s="2" t="s">
+      <c r="A67" s="6">
+        <v>252.0</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E67" s="4"/>
@@ -2737,7 +2774,7 @@
     </row>
     <row r="68">
       <c r="A68" s="6">
-        <v>309.0</v>
+        <v>257.0</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>3</v>
@@ -2773,13 +2810,13 @@
     </row>
     <row r="69">
       <c r="A69" s="6">
-        <v>323.0</v>
+        <v>264.0</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C69" s="7">
-        <v>270.0</v>
+      <c r="C69" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>3</v>
@@ -2809,13 +2846,13 @@
     </row>
     <row r="70">
       <c r="A70" s="1">
-        <v>324.0</v>
+        <v>265.0</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C70" s="3">
-        <v>260.0</v>
+        <v>250.0</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>3</v>
@@ -2844,16 +2881,16 @@
       <c r="Z70" s="4"/>
     </row>
     <row r="71">
-      <c r="A71" s="1">
-        <v>328.0</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C71" s="3">
-        <v>255.0</v>
-      </c>
-      <c r="D71" s="2" t="s">
+      <c r="A71" s="6">
+        <v>270.0</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E71" s="4"/>
@@ -2881,13 +2918,13 @@
     </row>
     <row r="72">
       <c r="A72" s="6">
-        <v>334.0</v>
+        <v>273.0</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C72" s="7" t="s">
-        <v>5</v>
+      <c r="C72" s="7">
+        <v>290.0</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>3</v>
@@ -2916,16 +2953,16 @@
       <c r="Z72" s="4"/>
     </row>
     <row r="73">
-      <c r="A73" s="6">
-        <v>338.0</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" s="7">
-        <v>235.0</v>
-      </c>
-      <c r="D73" s="5" t="s">
+      <c r="A73" s="1">
+        <v>274.0</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="3">
+        <v>260.0</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E73" s="4"/>
@@ -2952,16 +2989,16 @@
       <c r="Z73" s="4"/>
     </row>
     <row r="74">
-      <c r="A74" s="1">
-        <v>349.0</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C74" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D74" s="2" t="s">
+      <c r="A74" s="6">
+        <v>275.0</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="7">
+        <v>290.0</v>
+      </c>
+      <c r="D74" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E74" s="4"/>
@@ -2988,16 +3025,16 @@
       <c r="Z74" s="4"/>
     </row>
     <row r="75">
-      <c r="A75" s="1">
-        <v>350.0</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C75" s="3">
-        <v>225.0</v>
-      </c>
-      <c r="D75" s="2" t="s">
+      <c r="A75" s="6">
+        <v>279.0</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="7">
+        <v>255.0</v>
+      </c>
+      <c r="D75" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E75" s="4"/>
@@ -3024,16 +3061,16 @@
       <c r="Z75" s="4"/>
     </row>
     <row r="76">
-      <c r="A76" s="1">
-        <v>361.0</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C76" s="3">
-        <v>245.0</v>
-      </c>
-      <c r="D76" s="2" t="s">
+      <c r="A76" s="6">
+        <v>284.0</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" s="7">
+        <v>260.0</v>
+      </c>
+      <c r="D76" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E76" s="4"/>
@@ -3061,13 +3098,13 @@
     </row>
     <row r="77">
       <c r="A77" s="6">
-        <v>365.0</v>
+        <v>289.0</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C77" s="7">
-        <v>335.0</v>
+        <v>255.0</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>3</v>
@@ -3097,13 +3134,13 @@
     </row>
     <row r="78">
       <c r="A78" s="1">
-        <v>367.0</v>
+        <v>290.0</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C78" s="3">
-        <v>225.0</v>
+        <v>310.0</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>3</v>
@@ -3132,14 +3169,14 @@
       <c r="Z78" s="4"/>
     </row>
     <row r="79">
-      <c r="A79" s="1">
-        <v>369.0</v>
+      <c r="A79" s="6">
+        <v>296.0</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C79" s="3">
-        <v>310.0</v>
+      <c r="C79" s="7">
+        <v>235.0</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>3</v>
@@ -3169,13 +3206,13 @@
     </row>
     <row r="80">
       <c r="A80" s="1">
-        <v>375.0</v>
+        <v>306.0</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C80" s="3">
-        <v>245.0</v>
+        <v>235.0</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>3</v>
@@ -3204,16 +3241,16 @@
       <c r="Z80" s="4"/>
     </row>
     <row r="81">
-      <c r="A81" s="1">
-        <v>377.0</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C81" s="3">
-        <v>275.0</v>
-      </c>
-      <c r="D81" s="2" t="s">
+      <c r="A81" s="6">
+        <v>309.0</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E81" s="4"/>
@@ -3240,16 +3277,16 @@
       <c r="Z81" s="4"/>
     </row>
     <row r="82">
-      <c r="A82" s="1">
-        <v>382.0</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C82" s="3">
-        <v>295.0</v>
-      </c>
-      <c r="D82" s="2" t="s">
+      <c r="A82" s="6">
+        <v>323.0</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" s="7">
+        <v>270.0</v>
+      </c>
+      <c r="D82" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E82" s="4"/>
@@ -3277,13 +3314,13 @@
     </row>
     <row r="83">
       <c r="A83" s="1">
-        <v>389.0</v>
+        <v>324.0</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C83" s="3">
-        <v>265.0</v>
+        <v>260.0</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>3</v>
@@ -3312,16 +3349,16 @@
       <c r="Z83" s="4"/>
     </row>
     <row r="84">
-      <c r="A84" s="6">
-        <v>390.0</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C84" s="7">
-        <v>300.0</v>
-      </c>
-      <c r="D84" s="5" t="s">
+      <c r="A84" s="1">
+        <v>328.0</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" s="3">
+        <v>255.0</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E84" s="4"/>
@@ -3349,13 +3386,13 @@
     </row>
     <row r="85">
       <c r="A85" s="6">
-        <v>398.0</v>
+        <v>334.0</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C85" s="7">
-        <v>260.0</v>
+      <c r="C85" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>3</v>
@@ -3384,16 +3421,16 @@
       <c r="Z85" s="4"/>
     </row>
     <row r="86">
-      <c r="A86" s="1">
-        <v>399.0</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C86" s="3">
-        <v>260.0</v>
-      </c>
-      <c r="D86" s="2" t="s">
+      <c r="A86" s="6">
+        <v>338.0</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" s="7">
+        <v>235.0</v>
+      </c>
+      <c r="D86" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E86" s="4"/>
@@ -3421,7 +3458,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1">
-        <v>404.0</v>
+        <v>349.0</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>3</v>
@@ -3456,16 +3493,16 @@
       <c r="Z87" s="4"/>
     </row>
     <row r="88">
-      <c r="A88" s="6">
-        <v>406.0</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D88" s="5" t="s">
+      <c r="A88" s="1">
+        <v>350.0</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" s="3">
+        <v>225.0</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E88" s="4"/>
@@ -3492,16 +3529,16 @@
       <c r="Z88" s="4"/>
     </row>
     <row r="89">
-      <c r="A89" s="6">
-        <v>413.0</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C89" s="7">
-        <v>290.0</v>
-      </c>
-      <c r="D89" s="5" t="s">
+      <c r="A89" s="1">
+        <v>361.0</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" s="3">
+        <v>245.0</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E89" s="4"/>
@@ -3528,16 +3565,16 @@
       <c r="Z89" s="4"/>
     </row>
     <row r="90">
-      <c r="A90" s="1">
-        <v>423.0</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C90" s="3">
-        <v>280.0</v>
-      </c>
-      <c r="D90" s="2" t="s">
+      <c r="A90" s="6">
+        <v>365.0</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" s="7">
+        <v>335.0</v>
+      </c>
+      <c r="D90" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E90" s="4"/>
@@ -3565,13 +3602,13 @@
     </row>
     <row r="91">
       <c r="A91" s="1">
-        <v>429.0</v>
+        <v>367.0</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C91" s="3">
-        <v>290.0</v>
+        <v>225.0</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>3</v>
@@ -3601,13 +3638,13 @@
     </row>
     <row r="92">
       <c r="A92" s="1">
-        <v>430.0</v>
+        <v>369.0</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C92" s="3">
-        <v>290.0</v>
+        <v>310.0</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>3</v>
@@ -3636,16 +3673,14 @@
       <c r="Z92" s="4"/>
     </row>
     <row r="93">
-      <c r="A93" s="1">
-        <v>442.0</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C93" s="3">
-        <v>295.0</v>
-      </c>
-      <c r="D93" s="2" t="s">
+      <c r="A93" s="6">
+        <v>370.0</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" s="3"/>
+      <c r="D93" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E93" s="4"/>
@@ -3672,16 +3707,16 @@
       <c r="Z93" s="4"/>
     </row>
     <row r="94">
-      <c r="A94" s="6">
-        <v>450.0</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C94" s="7">
-        <v>260.0</v>
-      </c>
-      <c r="D94" s="5" t="s">
+      <c r="A94" s="1">
+        <v>375.0</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" s="3">
+        <v>245.0</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E94" s="4"/>
@@ -3709,13 +3744,13 @@
     </row>
     <row r="95">
       <c r="A95" s="1">
-        <v>456.0</v>
+        <v>377.0</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C95" s="3">
-        <v>235.0</v>
+        <v>275.0</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>3</v>
@@ -3744,16 +3779,16 @@
       <c r="Z95" s="4"/>
     </row>
     <row r="96">
-      <c r="A96" s="1">
-        <v>457.0</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C96" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D96" s="2" t="s">
+      <c r="A96" s="6">
+        <v>378.0</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" s="7">
+        <v>275.0</v>
+      </c>
+      <c r="D96" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E96" s="4"/>
@@ -3781,13 +3816,13 @@
     </row>
     <row r="97">
       <c r="A97" s="1">
-        <v>463.0</v>
+        <v>382.0</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C97" s="3">
-        <v>310.0</v>
+        <v>295.0</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>3</v>
@@ -3816,16 +3851,16 @@
       <c r="Z97" s="4"/>
     </row>
     <row r="98">
-      <c r="A98" s="1">
-        <v>470.0</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C98" s="3">
-        <v>265.0</v>
-      </c>
-      <c r="D98" s="2" t="s">
+      <c r="A98" s="6">
+        <v>384.0</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E98" s="4"/>
@@ -3852,16 +3887,16 @@
       <c r="Z98" s="4"/>
     </row>
     <row r="99">
-      <c r="A99" s="6">
-        <v>480.0</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C99" s="7">
-        <v>285.0</v>
-      </c>
-      <c r="D99" s="5" t="s">
+      <c r="A99" s="1">
+        <v>389.0</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" s="3">
+        <v>265.0</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E99" s="4"/>
@@ -3888,16 +3923,16 @@
       <c r="Z99" s="4"/>
     </row>
     <row r="100">
-      <c r="A100" s="1">
-        <v>485.0</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C100" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D100" s="2" t="s">
+      <c r="A100" s="6">
+        <v>390.0</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" s="7">
+        <v>300.0</v>
+      </c>
+      <c r="D100" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E100" s="4"/>
@@ -3925,13 +3960,13 @@
     </row>
     <row r="101">
       <c r="A101" s="6">
-        <v>490.0</v>
+        <v>398.0</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C101" s="7" t="s">
-        <v>5</v>
+      <c r="C101" s="7">
+        <v>260.0</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>3</v>
@@ -3961,7 +3996,7 @@
     </row>
     <row r="102">
       <c r="A102" s="1">
-        <v>503.0</v>
+        <v>399.0</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>3</v>
@@ -3997,13 +4032,13 @@
     </row>
     <row r="103">
       <c r="A103" s="1">
-        <v>510.0</v>
+        <v>404.0</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C103" s="3">
-        <v>285.0</v>
+        <v>250.0</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>3</v>
@@ -4033,13 +4068,13 @@
     </row>
     <row r="104">
       <c r="A104" s="6">
-        <v>514.0</v>
+        <v>406.0</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C104" s="7">
-        <v>315.0</v>
+      <c r="C104" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="D104" s="5" t="s">
         <v>3</v>
@@ -4068,16 +4103,16 @@
       <c r="Z104" s="4"/>
     </row>
     <row r="105">
-      <c r="A105" s="1">
-        <v>534.0</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C105" s="3">
-        <v>230.0</v>
-      </c>
-      <c r="D105" s="2" t="s">
+      <c r="A105" s="6">
+        <v>413.0</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105" s="7">
+        <v>290.0</v>
+      </c>
+      <c r="D105" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E105" s="4"/>
@@ -4105,13 +4140,13 @@
     </row>
     <row r="106">
       <c r="A106" s="1">
-        <v>535.0</v>
+        <v>423.0</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C106" s="3">
-        <v>295.0</v>
+        <v>280.0</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>3</v>
@@ -4141,13 +4176,13 @@
     </row>
     <row r="107">
       <c r="A107" s="1">
-        <v>552.0</v>
+        <v>429.0</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C107" s="3">
-        <v>280.0</v>
+        <v>290.0</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>3</v>
@@ -4177,13 +4212,13 @@
     </row>
     <row r="108">
       <c r="A108" s="1">
-        <v>561.0</v>
+        <v>430.0</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C108" s="3">
-        <v>280.0</v>
+        <v>290.0</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>3</v>
@@ -4212,16 +4247,16 @@
       <c r="Z108" s="4"/>
     </row>
     <row r="109">
-      <c r="A109" s="6">
-        <v>562.0</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D109" s="5" t="s">
+      <c r="A109" s="1">
+        <v>442.0</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E109" s="4"/>
@@ -4248,16 +4283,16 @@
       <c r="Z109" s="4"/>
     </row>
     <row r="110">
-      <c r="A110" s="1">
-        <v>567.0</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C110" s="3">
-        <v>325.0</v>
-      </c>
-      <c r="D110" s="2" t="s">
+      <c r="A110" s="6">
+        <v>450.0</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C110" s="7">
+        <v>260.0</v>
+      </c>
+      <c r="D110" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E110" s="4"/>
@@ -4285,13 +4320,13 @@
     </row>
     <row r="111">
       <c r="A111" s="1">
-        <v>576.0</v>
+        <v>456.0</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C111" s="3">
-        <v>260.0</v>
+        <v>235.0</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>3</v>
@@ -4320,16 +4355,16 @@
       <c r="Z111" s="4"/>
     </row>
     <row r="112">
-      <c r="A112" s="6">
-        <v>580.0</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C112" s="7">
-        <v>240.0</v>
-      </c>
-      <c r="D112" s="5" t="s">
+      <c r="A112" s="1">
+        <v>457.0</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E112" s="4"/>
@@ -4356,16 +4391,16 @@
       <c r="Z112" s="4"/>
     </row>
     <row r="113">
-      <c r="A113" s="1">
-        <v>583.0</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C113" s="3">
-        <v>320.0</v>
-      </c>
-      <c r="D113" s="2" t="s">
+      <c r="A113" s="6">
+        <v>461.0</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113" s="7">
+        <v>210.0</v>
+      </c>
+      <c r="D113" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E113" s="4"/>
@@ -4393,13 +4428,13 @@
     </row>
     <row r="114">
       <c r="A114" s="1">
-        <v>584.0</v>
+        <v>463.0</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C114" s="3">
-        <v>270.0</v>
+        <v>310.0</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>3</v>
@@ -4429,13 +4464,13 @@
     </row>
     <row r="115">
       <c r="A115" s="1">
-        <v>586.0</v>
+        <v>470.0</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C115" s="3">
-        <v>240.0</v>
+        <v>265.0</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>3</v>
@@ -4465,13 +4500,13 @@
     </row>
     <row r="116">
       <c r="A116" s="6">
-        <v>587.0</v>
+        <v>480.0</v>
       </c>
       <c r="B116" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C116" s="7">
-        <v>265.0</v>
+        <v>285.0</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>3</v>
@@ -4501,13 +4536,13 @@
     </row>
     <row r="117">
       <c r="A117" s="1">
-        <v>593.0</v>
+        <v>485.0</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C117" s="3">
-        <v>250.0</v>
+        <v>310.0</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>3</v>
@@ -4537,13 +4572,13 @@
     </row>
     <row r="118">
       <c r="A118" s="6">
-        <v>599.0</v>
+        <v>490.0</v>
       </c>
       <c r="B118" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C118" s="7">
-        <v>280.0</v>
+        <v>275.0</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>3</v>
@@ -4573,13 +4608,13 @@
     </row>
     <row r="119">
       <c r="A119" s="1">
-        <v>604.0</v>
+        <v>503.0</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C119" s="3">
-        <v>295.0</v>
+        <v>260.0</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>3</v>
@@ -4609,13 +4644,13 @@
     </row>
     <row r="120">
       <c r="A120" s="1">
-        <v>604.0</v>
+        <v>510.0</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C120" s="3">
-        <v>295.0</v>
+        <v>285.0</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>3</v>
@@ -4644,16 +4679,16 @@
       <c r="Z120" s="4"/>
     </row>
     <row r="121">
-      <c r="A121" s="1">
-        <v>612.0</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C121" s="3">
-        <v>255.0</v>
-      </c>
-      <c r="D121" s="2" t="s">
+      <c r="A121" s="6">
+        <v>514.0</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121" s="7">
+        <v>315.0</v>
+      </c>
+      <c r="D121" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E121" s="4"/>
@@ -4680,16 +4715,16 @@
       <c r="Z121" s="4"/>
     </row>
     <row r="122">
-      <c r="A122" s="6">
-        <v>615.0</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D122" s="5" t="s">
+      <c r="A122" s="1">
+        <v>534.0</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C122" s="3">
+        <v>230.0</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E122" s="4"/>
@@ -4717,13 +4752,13 @@
     </row>
     <row r="123">
       <c r="A123" s="1">
-        <v>617.0</v>
+        <v>535.0</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C123" s="3">
-        <v>330.0</v>
+        <v>295.0</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>3</v>
@@ -4752,16 +4787,16 @@
       <c r="Z123" s="4"/>
     </row>
     <row r="124">
-      <c r="A124" s="6">
-        <v>618.0</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C124" s="7">
-        <v>330.0</v>
-      </c>
-      <c r="D124" s="5" t="s">
+      <c r="A124" s="1">
+        <v>552.0</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124" s="3">
+        <v>280.0</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E124" s="4"/>
@@ -4789,13 +4824,13 @@
     </row>
     <row r="125">
       <c r="A125" s="1">
-        <v>623.0</v>
+        <v>561.0</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C125" s="3">
-        <v>290.0</v>
+        <v>280.0</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>3</v>
@@ -4824,16 +4859,16 @@
       <c r="Z125" s="4"/>
     </row>
     <row r="126">
-      <c r="A126" s="1">
-        <v>625.0</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C126" s="3">
-        <v>320.0</v>
-      </c>
-      <c r="D126" s="2" t="s">
+      <c r="A126" s="6">
+        <v>562.0</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D126" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E126" s="4"/>
@@ -4860,16 +4895,16 @@
       <c r="Z126" s="4"/>
     </row>
     <row r="127">
-      <c r="A127" s="1">
-        <v>626.0</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C127" s="3">
-        <v>305.0</v>
-      </c>
-      <c r="D127" s="2" t="s">
+      <c r="A127" s="6">
+        <v>564.0</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D127" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E127" s="4"/>
@@ -4897,13 +4932,13 @@
     </row>
     <row r="128">
       <c r="A128" s="1">
-        <v>635.0</v>
+        <v>567.0</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C128" s="3">
-        <v>295.0</v>
+        <v>325.0</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>3</v>
@@ -4932,16 +4967,16 @@
       <c r="Z128" s="4"/>
     </row>
     <row r="129">
-      <c r="A129" s="6">
-        <v>640.0</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C129" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D129" s="5" t="s">
+      <c r="A129" s="1">
+        <v>576.0</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129" s="3">
+        <v>260.0</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E129" s="4"/>
@@ -4968,16 +5003,16 @@
       <c r="Z129" s="4"/>
     </row>
     <row r="130">
-      <c r="A130" s="1">
-        <v>642.0</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C130" s="3">
-        <v>270.0</v>
-      </c>
-      <c r="D130" s="2" t="s">
+      <c r="A130" s="6">
+        <v>577.0</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D130" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E130" s="4"/>
@@ -5004,16 +5039,16 @@
       <c r="Z130" s="4"/>
     </row>
     <row r="131">
-      <c r="A131" s="1">
-        <v>643.0</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C131" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D131" s="2" t="s">
+      <c r="A131" s="6">
+        <v>580.0</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131" s="7">
+        <v>240.0</v>
+      </c>
+      <c r="D131" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E131" s="4"/>
@@ -5040,14 +5075,14 @@
       <c r="Z131" s="4"/>
     </row>
     <row r="132">
-      <c r="A132" s="6">
-        <v>651.0</v>
+      <c r="A132" s="1">
+        <v>583.0</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C132" s="7">
-        <v>230.0</v>
+      <c r="C132" s="3">
+        <v>320.0</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>3</v>
@@ -5077,13 +5112,13 @@
     </row>
     <row r="133">
       <c r="A133" s="1">
-        <v>652.0</v>
+        <v>584.0</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C133" s="3">
-        <v>330.0</v>
+        <v>270.0</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>3</v>
@@ -5113,13 +5148,13 @@
     </row>
     <row r="134">
       <c r="A134" s="1">
-        <v>663.0</v>
+        <v>586.0</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C134" s="3">
-        <v>265.0</v>
+        <v>240.0</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>3</v>
@@ -5149,13 +5184,13 @@
     </row>
     <row r="135">
       <c r="A135" s="6">
-        <v>666.0</v>
+        <v>587.0</v>
       </c>
       <c r="B135" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C135" s="7">
-        <v>300.0</v>
+        <v>265.0</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>3</v>
@@ -5185,13 +5220,13 @@
     </row>
     <row r="136">
       <c r="A136" s="1">
-        <v>668.0</v>
+        <v>593.0</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C136" s="3">
-        <v>305.0</v>
+        <v>250.0</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>3</v>
@@ -5221,15 +5256,17 @@
     </row>
     <row r="137">
       <c r="A137" s="6">
-        <v>669.0</v>
+        <v>599.0</v>
       </c>
       <c r="B137" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C137" s="7">
-        <v>310.0</v>
-      </c>
-      <c r="D137" s="2"/>
+        <v>280.0</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
       <c r="G137" s="4"/>
@@ -5255,13 +5292,13 @@
     </row>
     <row r="138">
       <c r="A138" s="1">
-        <v>670.0</v>
+        <v>604.0</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C138" s="3">
-        <v>250.0</v>
+        <v>295.0</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>3</v>
@@ -5291,13 +5328,13 @@
     </row>
     <row r="139">
       <c r="A139" s="1">
-        <v>671.0</v>
+        <v>604.0</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C139" s="3">
-        <v>305.0</v>
+        <v>295.0</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>3</v>
@@ -5327,13 +5364,13 @@
     </row>
     <row r="140">
       <c r="A140" s="1">
-        <v>672.0</v>
+        <v>612.0</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C140" s="3">
-        <v>295.0</v>
+        <v>255.0</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>3</v>
@@ -5363,13 +5400,13 @@
     </row>
     <row r="141">
       <c r="A141" s="6">
-        <v>676.0</v>
+        <v>615.0</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C141" s="7">
-        <v>335.0</v>
+      <c r="C141" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="D141" s="5" t="s">
         <v>3</v>
@@ -5399,13 +5436,13 @@
     </row>
     <row r="142">
       <c r="A142" s="1">
-        <v>680.0</v>
+        <v>617.0</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C142" s="3">
-        <v>285.0</v>
+        <v>330.0</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>3</v>
@@ -5434,16 +5471,16 @@
       <c r="Z142" s="4"/>
     </row>
     <row r="143">
-      <c r="A143" s="1">
-        <v>688.0</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C143" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D143" s="2" t="s">
+      <c r="A143" s="6">
+        <v>618.0</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C143" s="7">
+        <v>330.0</v>
+      </c>
+      <c r="D143" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E143" s="4"/>
@@ -5470,14 +5507,14 @@
       <c r="Z143" s="4"/>
     </row>
     <row r="144">
-      <c r="A144" s="8">
-        <v>692.0</v>
+      <c r="A144" s="1">
+        <v>623.0</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C144" s="8">
-        <v>300.0</v>
+      <c r="C144" s="3">
+        <v>290.0</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>3</v>
@@ -5506,16 +5543,16 @@
       <c r="Z144" s="4"/>
     </row>
     <row r="145">
-      <c r="A145" s="1">
-        <v>696.0</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C145" s="3">
-        <v>300.0</v>
-      </c>
-      <c r="D145" s="2" t="s">
+      <c r="A145" s="6">
+        <v>624.0</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C145" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D145" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E145" s="4"/>
@@ -5542,16 +5579,16 @@
       <c r="Z145" s="4"/>
     </row>
     <row r="146">
-      <c r="A146" s="6">
-        <v>712.0</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C146" s="7">
-        <v>295.0</v>
-      </c>
-      <c r="D146" s="5" t="s">
+      <c r="A146" s="1">
+        <v>625.0</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C146" s="3">
+        <v>320.0</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E146" s="4"/>
@@ -5578,16 +5615,16 @@
       <c r="Z146" s="4"/>
     </row>
     <row r="147">
-      <c r="A147" s="6">
-        <v>713.0</v>
-      </c>
-      <c r="B147" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C147" s="7">
-        <v>310.0</v>
-      </c>
-      <c r="D147" s="5" t="s">
+      <c r="A147" s="1">
+        <v>626.0</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147" s="3">
+        <v>305.0</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E147" s="4"/>
@@ -5615,13 +5652,13 @@
     </row>
     <row r="148">
       <c r="A148" s="1">
-        <v>714.0</v>
+        <v>635.0</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C148" s="3">
-        <v>275.0</v>
+        <v>295.0</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>3</v>
@@ -5650,16 +5687,16 @@
       <c r="Z148" s="4"/>
     </row>
     <row r="149">
-      <c r="A149" s="1">
-        <v>718.0</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C149" s="3">
-        <v>330.0</v>
-      </c>
-      <c r="D149" s="2" t="s">
+      <c r="A149" s="6">
+        <v>640.0</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149" s="7">
+        <v>275.0</v>
+      </c>
+      <c r="D149" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E149" s="4"/>
@@ -5687,13 +5724,13 @@
     </row>
     <row r="150">
       <c r="A150" s="1">
-        <v>719.0</v>
+        <v>642.0</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C150" s="3">
-        <v>280.0</v>
+        <v>270.0</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>3</v>
@@ -5723,13 +5760,13 @@
     </row>
     <row r="151">
       <c r="A151" s="1">
-        <v>732.0</v>
+        <v>643.0</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C151" s="3">
-        <v>280.0</v>
+        <v>310.0</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>3</v>
@@ -5758,14 +5795,14 @@
       <c r="Z151" s="4"/>
     </row>
     <row r="152">
-      <c r="A152" s="1">
-        <v>733.0</v>
+      <c r="A152" s="6">
+        <v>651.0</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C152" s="3">
-        <v>320.0</v>
+      <c r="C152" s="7">
+        <v>230.0</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>3</v>
@@ -5795,13 +5832,13 @@
     </row>
     <row r="153">
       <c r="A153" s="1">
-        <v>736.0</v>
+        <v>652.0</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C153" s="3">
-        <v>250.0</v>
+        <v>330.0</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>3</v>
@@ -5831,13 +5868,13 @@
     </row>
     <row r="154">
       <c r="A154" s="1">
-        <v>744.0</v>
+        <v>663.0</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C154" s="3">
-        <v>270.0</v>
+        <v>265.0</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>3</v>
@@ -5866,16 +5903,16 @@
       <c r="Z154" s="4"/>
     </row>
     <row r="155">
-      <c r="A155" s="1">
-        <v>747.0</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C155" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D155" s="2" t="s">
+      <c r="A155" s="6">
+        <v>666.0</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C155" s="7">
+        <v>300.0</v>
+      </c>
+      <c r="D155" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E155" s="4"/>
@@ -5902,16 +5939,16 @@
       <c r="Z155" s="4"/>
     </row>
     <row r="156">
-      <c r="A156" s="6">
-        <v>748.0</v>
-      </c>
-      <c r="B156" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C156" s="7">
-        <v>230.0</v>
-      </c>
-      <c r="D156" s="5" t="s">
+      <c r="A156" s="1">
+        <v>668.0</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C156" s="3">
+        <v>305.0</v>
+      </c>
+      <c r="D156" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E156" s="4"/>
@@ -5938,18 +5975,16 @@
       <c r="Z156" s="4"/>
     </row>
     <row r="157">
-      <c r="A157" s="1">
-        <v>749.0</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C157" s="3">
-        <v>335.0</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A157" s="6">
+        <v>669.0</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C157" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D157" s="2"/>
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
       <c r="G157" s="4"/>
@@ -5974,16 +6009,16 @@
       <c r="Z157" s="4"/>
     </row>
     <row r="158">
-      <c r="A158" s="6">
-        <v>757.0</v>
-      </c>
-      <c r="B158" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C158" s="7">
-        <v>280.0</v>
-      </c>
-      <c r="D158" s="5" t="s">
+      <c r="A158" s="1">
+        <v>670.0</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C158" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D158" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E158" s="4"/>
@@ -6011,13 +6046,13 @@
     </row>
     <row r="159">
       <c r="A159" s="1">
-        <v>758.0</v>
+        <v>671.0</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C159" s="3">
-        <v>295.0</v>
+        <v>305.0</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>3</v>
@@ -6047,13 +6082,13 @@
     </row>
     <row r="160">
       <c r="A160" s="1">
-        <v>767.0</v>
+        <v>672.0</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C160" s="3">
-        <v>290.0</v>
+        <v>295.0</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>3</v>
@@ -6083,13 +6118,13 @@
     </row>
     <row r="161">
       <c r="A161" s="6">
-        <v>772.0</v>
+        <v>676.0</v>
       </c>
       <c r="B161" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C161" s="7">
-        <v>240.0</v>
+        <v>335.0</v>
       </c>
       <c r="D161" s="5" t="s">
         <v>3</v>
@@ -6119,13 +6154,13 @@
     </row>
     <row r="162">
       <c r="A162" s="1">
-        <v>775.0</v>
+        <v>680.0</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C162" s="3">
-        <v>260.0</v>
+        <v>285.0</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>3</v>
@@ -6154,16 +6189,16 @@
       <c r="Z162" s="4"/>
     </row>
     <row r="163">
-      <c r="A163" s="6">
-        <v>776.0</v>
-      </c>
-      <c r="B163" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C163" s="7">
-        <v>240.0</v>
-      </c>
-      <c r="D163" s="5" t="s">
+      <c r="A163" s="1">
+        <v>688.0</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C163" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D163" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E163" s="4"/>
@@ -6190,14 +6225,14 @@
       <c r="Z163" s="4"/>
     </row>
     <row r="164">
-      <c r="A164" s="1">
-        <v>777.0</v>
+      <c r="A164" s="8">
+        <v>692.0</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C164" s="3">
-        <v>310.0</v>
+      <c r="C164" s="8">
+        <v>300.0</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>3</v>
@@ -6227,13 +6262,13 @@
     </row>
     <row r="165">
       <c r="A165" s="1">
-        <v>792.0</v>
+        <v>696.0</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C165" s="3">
-        <v>320.0</v>
+        <v>300.0</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>3</v>
@@ -6262,16 +6297,16 @@
       <c r="Z165" s="4"/>
     </row>
     <row r="166">
-      <c r="A166" s="1">
-        <v>795.0</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C166" s="3">
-        <v>255.0</v>
-      </c>
-      <c r="D166" s="2" t="s">
+      <c r="A166" s="6">
+        <v>712.0</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C166" s="7">
+        <v>295.0</v>
+      </c>
+      <c r="D166" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E166" s="4"/>
@@ -6298,16 +6333,16 @@
       <c r="Z166" s="4"/>
     </row>
     <row r="167">
-      <c r="A167" s="1">
-        <v>801.0</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C167" s="3">
-        <v>230.0</v>
-      </c>
-      <c r="D167" s="2" t="s">
+      <c r="A167" s="6">
+        <v>713.0</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C167" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D167" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E167" s="4"/>
@@ -6334,16 +6369,16 @@
       <c r="Z167" s="4"/>
     </row>
     <row r="168">
-      <c r="A168" s="6">
-        <v>806.0</v>
-      </c>
-      <c r="B168" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C168" s="7">
-        <v>280.0</v>
-      </c>
-      <c r="D168" s="5" t="s">
+      <c r="A168" s="1">
+        <v>714.0</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C168" s="3">
+        <v>275.0</v>
+      </c>
+      <c r="D168" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E168" s="4"/>
@@ -6371,13 +6406,13 @@
     </row>
     <row r="169">
       <c r="A169" s="1">
-        <v>809.0</v>
+        <v>718.0</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C169" s="3">
-        <v>270.0</v>
+        <v>330.0</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>3</v>
@@ -6407,13 +6442,13 @@
     </row>
     <row r="170">
       <c r="A170" s="1">
-        <v>811.0</v>
+        <v>719.0</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C170" s="3">
-        <v>260.0</v>
+        <v>280.0</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>3</v>
@@ -6442,16 +6477,16 @@
       <c r="Z170" s="4"/>
     </row>
     <row r="171">
-      <c r="A171" s="1">
-        <v>819.0</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C171" s="3">
-        <v>200.0</v>
-      </c>
-      <c r="D171" s="2" t="s">
+      <c r="A171" s="6">
+        <v>725.0</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D171" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E171" s="4"/>
@@ -6479,13 +6514,13 @@
     </row>
     <row r="172">
       <c r="A172" s="1">
-        <v>820.0</v>
+        <v>732.0</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C172" s="3">
-        <v>245.0</v>
+        <v>280.0</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>3</v>
@@ -6515,13 +6550,13 @@
     </row>
     <row r="173">
       <c r="A173" s="1">
-        <v>821.0</v>
+        <v>733.0</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C173" s="3">
-        <v>300.0</v>
+        <v>320.0</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>3</v>
@@ -6550,16 +6585,16 @@
       <c r="Z173" s="4"/>
     </row>
     <row r="174">
-      <c r="A174" s="6">
-        <v>829.0</v>
-      </c>
-      <c r="B174" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C174" s="7">
-        <v>275.0</v>
-      </c>
-      <c r="D174" s="5" t="s">
+      <c r="A174" s="1">
+        <v>736.0</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C174" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D174" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E174" s="4"/>
@@ -6586,16 +6621,16 @@
       <c r="Z174" s="4"/>
     </row>
     <row r="175">
-      <c r="A175" s="6">
-        <v>834.0</v>
-      </c>
-      <c r="B175" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C175" s="7">
-        <v>225.0</v>
-      </c>
-      <c r="D175" s="5" t="s">
+      <c r="A175" s="1">
+        <v>744.0</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C175" s="3">
+        <v>270.0</v>
+      </c>
+      <c r="D175" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E175" s="4"/>
@@ -6622,16 +6657,16 @@
       <c r="Z175" s="4"/>
     </row>
     <row r="176">
-      <c r="A176" s="6">
-        <v>837.0</v>
-      </c>
-      <c r="B176" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C176" s="7">
-        <v>275.0</v>
-      </c>
-      <c r="D176" s="5" t="s">
+      <c r="A176" s="1">
+        <v>747.0</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C176" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D176" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E176" s="4"/>
@@ -6659,13 +6694,13 @@
     </row>
     <row r="177">
       <c r="A177" s="6">
-        <v>838.0</v>
+        <v>748.0</v>
       </c>
       <c r="B177" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C177" s="7">
-        <v>295.0</v>
+        <v>230.0</v>
       </c>
       <c r="D177" s="5" t="s">
         <v>3</v>
@@ -6694,16 +6729,16 @@
       <c r="Z177" s="4"/>
     </row>
     <row r="178">
-      <c r="A178" s="6">
-        <v>843.0</v>
-      </c>
-      <c r="B178" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C178" s="7">
-        <v>320.0</v>
-      </c>
-      <c r="D178" s="5" t="s">
+      <c r="A178" s="1">
+        <v>749.0</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C178" s="3">
+        <v>335.0</v>
+      </c>
+      <c r="D178" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E178" s="4"/>
@@ -6730,16 +6765,16 @@
       <c r="Z178" s="4"/>
     </row>
     <row r="179">
-      <c r="A179" s="1">
-        <v>846.0</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C179" s="3">
-        <v>295.0</v>
-      </c>
-      <c r="D179" s="2" t="s">
+      <c r="A179" s="6">
+        <v>757.0</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C179" s="7">
+        <v>280.0</v>
+      </c>
+      <c r="D179" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E179" s="4"/>
@@ -6767,13 +6802,13 @@
     </row>
     <row r="180">
       <c r="A180" s="1">
-        <v>853.0</v>
+        <v>758.0</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C180" s="3">
-        <v>290.0</v>
+        <v>295.0</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>3</v>
@@ -6803,13 +6838,13 @@
     </row>
     <row r="181">
       <c r="A181" s="1">
-        <v>856.0</v>
+        <v>767.0</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C181" s="3">
-        <v>260.0</v>
+        <v>290.0</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>3</v>
@@ -6838,16 +6873,16 @@
       <c r="Z181" s="4"/>
     </row>
     <row r="182">
-      <c r="A182" s="1">
-        <v>861.0</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C182" s="3">
-        <v>305.0</v>
-      </c>
-      <c r="D182" s="2" t="s">
+      <c r="A182" s="6">
+        <v>772.0</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C182" s="7">
+        <v>240.0</v>
+      </c>
+      <c r="D182" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E182" s="4"/>
@@ -6875,13 +6910,13 @@
     </row>
     <row r="183">
       <c r="A183" s="1">
-        <v>863.0</v>
+        <v>775.0</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C183" s="3">
-        <v>275.0</v>
+        <v>260.0</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>3</v>
@@ -6910,16 +6945,16 @@
       <c r="Z183" s="4"/>
     </row>
     <row r="184">
-      <c r="A184" s="1">
-        <v>872.0</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C184" s="3">
-        <v>295.0</v>
-      </c>
-      <c r="D184" s="2" t="s">
+      <c r="A184" s="6">
+        <v>776.0</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C184" s="7">
+        <v>240.0</v>
+      </c>
+      <c r="D184" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E184" s="4"/>
@@ -6946,16 +6981,16 @@
       <c r="Z184" s="4"/>
     </row>
     <row r="185">
-      <c r="A185" s="6">
-        <v>876.0</v>
-      </c>
-      <c r="B185" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C185" s="7">
-        <v>250.0</v>
-      </c>
-      <c r="D185" s="5" t="s">
+      <c r="A185" s="1">
+        <v>777.0</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C185" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D185" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E185" s="4"/>
@@ -6983,13 +7018,13 @@
     </row>
     <row r="186">
       <c r="A186" s="1">
-        <v>880.0</v>
+        <v>792.0</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C186" s="3">
-        <v>225.0</v>
+        <v>320.0</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>3</v>
@@ -7019,13 +7054,13 @@
     </row>
     <row r="187">
       <c r="A187" s="6">
-        <v>886.0</v>
+        <v>784.0</v>
       </c>
       <c r="B187" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C187" s="7">
-        <v>230.0</v>
+      <c r="C187" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="D187" s="5" t="s">
         <v>3</v>
@@ -7054,16 +7089,16 @@
       <c r="Z187" s="4"/>
     </row>
     <row r="188">
-      <c r="A188" s="1">
-        <v>899.0</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C188" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D188" s="2" t="s">
+      <c r="A188" s="6">
+        <v>789.0</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C188" s="7">
+        <v>265.0</v>
+      </c>
+      <c r="D188" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E188" s="4"/>
@@ -7091,13 +7126,13 @@
     </row>
     <row r="189">
       <c r="A189" s="1">
-        <v>901.0</v>
+        <v>795.0</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C189" s="3">
-        <v>275.0</v>
+        <v>255.0</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>3</v>
@@ -7127,15 +7162,15 @@
     </row>
     <row r="190">
       <c r="A190" s="1">
-        <v>935.0</v>
+        <v>801.0</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C190" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D190" s="5" t="s">
+        <v>230.0</v>
+      </c>
+      <c r="D190" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E190" s="4"/>
@@ -7162,14 +7197,14 @@
       <c r="Z190" s="4"/>
     </row>
     <row r="191">
-      <c r="A191" s="5">
-        <v>1000.0</v>
+      <c r="A191" s="6">
+        <v>806.0</v>
       </c>
       <c r="B191" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C191" s="5">
-        <v>2000.0</v>
+      <c r="C191" s="7">
+        <v>280.0</v>
       </c>
       <c r="D191" s="5" t="s">
         <v>3</v>
@@ -7198,10 +7233,18 @@
       <c r="Z191" s="4"/>
     </row>
     <row r="192">
-      <c r="A192" s="2"/>
-      <c r="B192" s="2"/>
-      <c r="C192" s="2"/>
-      <c r="D192" s="2"/>
+      <c r="A192" s="1">
+        <v>809.0</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C192" s="3">
+        <v>270.0</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E192" s="4"/>
       <c r="F192" s="4"/>
       <c r="G192" s="4"/>
@@ -7226,10 +7269,18 @@
       <c r="Z192" s="4"/>
     </row>
     <row r="193">
-      <c r="A193" s="2"/>
-      <c r="B193" s="2"/>
-      <c r="C193" s="2"/>
-      <c r="D193" s="2"/>
+      <c r="A193" s="1">
+        <v>811.0</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C193" s="3">
+        <v>260.0</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E193" s="4"/>
       <c r="F193" s="4"/>
       <c r="G193" s="4"/>
@@ -7254,10 +7305,18 @@
       <c r="Z193" s="4"/>
     </row>
     <row r="194">
-      <c r="A194" s="2"/>
-      <c r="B194" s="2"/>
-      <c r="C194" s="2"/>
-      <c r="D194" s="2"/>
+      <c r="A194" s="6">
+        <v>817.0</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C194" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D194" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E194" s="4"/>
       <c r="F194" s="4"/>
       <c r="G194" s="4"/>
@@ -7282,10 +7341,18 @@
       <c r="Z194" s="4"/>
     </row>
     <row r="195">
-      <c r="A195" s="2"/>
-      <c r="B195" s="2"/>
-      <c r="C195" s="2"/>
-      <c r="D195" s="2"/>
+      <c r="A195" s="1">
+        <v>819.0</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C195" s="3">
+        <v>200.0</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E195" s="4"/>
       <c r="F195" s="4"/>
       <c r="G195" s="4"/>
@@ -7310,10 +7377,18 @@
       <c r="Z195" s="4"/>
     </row>
     <row r="196">
-      <c r="A196" s="2"/>
-      <c r="B196" s="2"/>
-      <c r="C196" s="2"/>
-      <c r="D196" s="2"/>
+      <c r="A196" s="1">
+        <v>820.0</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C196" s="3">
+        <v>245.0</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E196" s="4"/>
       <c r="F196" s="4"/>
       <c r="G196" s="4"/>
@@ -7338,10 +7413,18 @@
       <c r="Z196" s="4"/>
     </row>
     <row r="197">
-      <c r="A197" s="2"/>
-      <c r="B197" s="2"/>
-      <c r="C197" s="2"/>
-      <c r="D197" s="2"/>
+      <c r="A197" s="1">
+        <v>821.0</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C197" s="3">
+        <v>300.0</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E197" s="4"/>
       <c r="F197" s="4"/>
       <c r="G197" s="4"/>
@@ -7366,10 +7449,18 @@
       <c r="Z197" s="4"/>
     </row>
     <row r="198">
-      <c r="A198" s="2"/>
-      <c r="B198" s="2"/>
-      <c r="C198" s="2"/>
-      <c r="D198" s="2"/>
+      <c r="A198" s="6">
+        <v>829.0</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C198" s="7">
+        <v>275.0</v>
+      </c>
+      <c r="D198" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E198" s="4"/>
       <c r="F198" s="4"/>
       <c r="G198" s="4"/>
@@ -7394,10 +7485,18 @@
       <c r="Z198" s="4"/>
     </row>
     <row r="199">
-      <c r="A199" s="2"/>
-      <c r="B199" s="2"/>
-      <c r="C199" s="2"/>
-      <c r="D199" s="2"/>
+      <c r="A199" s="6">
+        <v>833.0</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C199" s="7">
+        <v>235.0</v>
+      </c>
+      <c r="D199" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E199" s="4"/>
       <c r="F199" s="4"/>
       <c r="G199" s="4"/>
@@ -7422,10 +7521,18 @@
       <c r="Z199" s="4"/>
     </row>
     <row r="200">
-      <c r="A200" s="2"/>
-      <c r="B200" s="2"/>
-      <c r="C200" s="2"/>
-      <c r="D200" s="2"/>
+      <c r="A200" s="6">
+        <v>834.0</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C200" s="7">
+        <v>225.0</v>
+      </c>
+      <c r="D200" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E200" s="4"/>
       <c r="F200" s="4"/>
       <c r="G200" s="4"/>
@@ -7450,10 +7557,18 @@
       <c r="Z200" s="4"/>
     </row>
     <row r="201">
-      <c r="A201" s="2"/>
-      <c r="B201" s="2"/>
-      <c r="C201" s="2"/>
-      <c r="D201" s="2"/>
+      <c r="A201" s="6">
+        <v>837.0</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C201" s="7">
+        <v>275.0</v>
+      </c>
+      <c r="D201" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E201" s="4"/>
       <c r="F201" s="4"/>
       <c r="G201" s="4"/>
@@ -7478,10 +7593,18 @@
       <c r="Z201" s="4"/>
     </row>
     <row r="202">
-      <c r="A202" s="2"/>
-      <c r="B202" s="2"/>
-      <c r="C202" s="2"/>
-      <c r="D202" s="2"/>
+      <c r="A202" s="6">
+        <v>838.0</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C202" s="7">
+        <v>295.0</v>
+      </c>
+      <c r="D202" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E202" s="4"/>
       <c r="F202" s="4"/>
       <c r="G202" s="4"/>
@@ -7506,10 +7629,18 @@
       <c r="Z202" s="4"/>
     </row>
     <row r="203">
-      <c r="A203" s="2"/>
-      <c r="B203" s="2"/>
-      <c r="C203" s="2"/>
-      <c r="D203" s="2"/>
+      <c r="A203" s="6">
+        <v>843.0</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C203" s="7">
+        <v>320.0</v>
+      </c>
+      <c r="D203" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E203" s="4"/>
       <c r="F203" s="4"/>
       <c r="G203" s="4"/>
@@ -7534,10 +7665,18 @@
       <c r="Z203" s="4"/>
     </row>
     <row r="204">
-      <c r="A204" s="2"/>
-      <c r="B204" s="2"/>
-      <c r="C204" s="2"/>
-      <c r="D204" s="2"/>
+      <c r="A204" s="1">
+        <v>846.0</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C204" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E204" s="4"/>
       <c r="F204" s="4"/>
       <c r="G204" s="4"/>
@@ -7562,10 +7701,18 @@
       <c r="Z204" s="4"/>
     </row>
     <row r="205">
-      <c r="A205" s="2"/>
-      <c r="B205" s="2"/>
-      <c r="C205" s="2"/>
-      <c r="D205" s="2"/>
+      <c r="A205" s="1">
+        <v>853.0</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C205" s="3">
+        <v>290.0</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E205" s="4"/>
       <c r="F205" s="4"/>
       <c r="G205" s="4"/>
@@ -7590,10 +7737,18 @@
       <c r="Z205" s="4"/>
     </row>
     <row r="206">
-      <c r="A206" s="2"/>
-      <c r="B206" s="2"/>
-      <c r="C206" s="2"/>
-      <c r="D206" s="2"/>
+      <c r="A206" s="1">
+        <v>856.0</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C206" s="3">
+        <v>260.0</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E206" s="4"/>
       <c r="F206" s="4"/>
       <c r="G206" s="4"/>
@@ -7618,10 +7773,18 @@
       <c r="Z206" s="4"/>
     </row>
     <row r="207">
-      <c r="A207" s="2"/>
-      <c r="B207" s="2"/>
-      <c r="C207" s="2"/>
-      <c r="D207" s="2"/>
+      <c r="A207" s="1">
+        <v>861.0</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C207" s="3">
+        <v>305.0</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E207" s="4"/>
       <c r="F207" s="4"/>
       <c r="G207" s="4"/>
@@ -7646,10 +7809,18 @@
       <c r="Z207" s="4"/>
     </row>
     <row r="208">
-      <c r="A208" s="2"/>
-      <c r="B208" s="2"/>
-      <c r="C208" s="2"/>
-      <c r="D208" s="2"/>
+      <c r="A208" s="1">
+        <v>863.0</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C208" s="3">
+        <v>275.0</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E208" s="4"/>
       <c r="F208" s="4"/>
       <c r="G208" s="4"/>
@@ -7674,10 +7845,18 @@
       <c r="Z208" s="4"/>
     </row>
     <row r="209">
-      <c r="A209" s="2"/>
-      <c r="B209" s="2"/>
-      <c r="C209" s="2"/>
-      <c r="D209" s="2"/>
+      <c r="A209" s="1">
+        <v>872.0</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C209" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E209" s="4"/>
       <c r="F209" s="4"/>
       <c r="G209" s="4"/>
@@ -7702,10 +7881,18 @@
       <c r="Z209" s="4"/>
     </row>
     <row r="210">
-      <c r="A210" s="2"/>
-      <c r="B210" s="2"/>
-      <c r="C210" s="2"/>
-      <c r="D210" s="2"/>
+      <c r="A210" s="6">
+        <v>876.0</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C210" s="7">
+        <v>250.0</v>
+      </c>
+      <c r="D210" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E210" s="4"/>
       <c r="F210" s="4"/>
       <c r="G210" s="4"/>
@@ -7730,10 +7917,18 @@
       <c r="Z210" s="4"/>
     </row>
     <row r="211">
-      <c r="A211" s="2"/>
-      <c r="B211" s="2"/>
-      <c r="C211" s="2"/>
-      <c r="D211" s="2"/>
+      <c r="A211" s="1">
+        <v>880.0</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C211" s="3">
+        <v>225.0</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E211" s="4"/>
       <c r="F211" s="4"/>
       <c r="G211" s="4"/>
@@ -7758,10 +7953,18 @@
       <c r="Z211" s="4"/>
     </row>
     <row r="212">
-      <c r="A212" s="2"/>
-      <c r="B212" s="2"/>
-      <c r="C212" s="2"/>
-      <c r="D212" s="2"/>
+      <c r="A212" s="6">
+        <v>886.0</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C212" s="7">
+        <v>230.0</v>
+      </c>
+      <c r="D212" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E212" s="4"/>
       <c r="F212" s="4"/>
       <c r="G212" s="4"/>
@@ -7786,10 +7989,18 @@
       <c r="Z212" s="4"/>
     </row>
     <row r="213">
-      <c r="A213" s="2"/>
-      <c r="B213" s="2"/>
-      <c r="C213" s="2"/>
-      <c r="D213" s="2"/>
+      <c r="A213" s="1">
+        <v>899.0</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C213" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E213" s="4"/>
       <c r="F213" s="4"/>
       <c r="G213" s="4"/>
@@ -7814,10 +8025,18 @@
       <c r="Z213" s="4"/>
     </row>
     <row r="214">
-      <c r="A214" s="2"/>
-      <c r="B214" s="2"/>
-      <c r="C214" s="2"/>
-      <c r="D214" s="2"/>
+      <c r="A214" s="1">
+        <v>901.0</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C214" s="3">
+        <v>275.0</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E214" s="4"/>
       <c r="F214" s="4"/>
       <c r="G214" s="4"/>
@@ -7842,10 +8061,18 @@
       <c r="Z214" s="4"/>
     </row>
     <row r="215">
-      <c r="A215" s="2"/>
-      <c r="B215" s="2"/>
-      <c r="C215" s="2"/>
-      <c r="D215" s="2"/>
+      <c r="A215" s="6">
+        <v>910.0</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C215" s="7">
+        <v>330.0</v>
+      </c>
+      <c r="D215" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E215" s="4"/>
       <c r="F215" s="4"/>
       <c r="G215" s="4"/>
@@ -7870,10 +8097,18 @@
       <c r="Z215" s="4"/>
     </row>
     <row r="216">
-      <c r="A216" s="2"/>
-      <c r="B216" s="2"/>
-      <c r="C216" s="2"/>
-      <c r="D216" s="2"/>
+      <c r="A216" s="1">
+        <v>935.0</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C216" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D216" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E216" s="4"/>
       <c r="F216" s="4"/>
       <c r="G216" s="4"/>
@@ -7898,10 +8133,18 @@
       <c r="Z216" s="4"/>
     </row>
     <row r="217">
-      <c r="A217" s="2"/>
-      <c r="B217" s="2"/>
-      <c r="C217" s="2"/>
-      <c r="D217" s="2"/>
+      <c r="A217" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C217" s="5">
+        <v>2000.0</v>
+      </c>
+      <c r="D217" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E217" s="4"/>
       <c r="F217" s="4"/>
       <c r="G217" s="4"/>
@@ -31334,10 +31577,10 @@
       <c r="Z1053" s="4"/>
     </row>
     <row r="1054">
-      <c r="A1054" s="4"/>
-      <c r="B1054" s="4"/>
-      <c r="C1054" s="4"/>
-      <c r="D1054" s="4"/>
+      <c r="A1054" s="2"/>
+      <c r="B1054" s="2"/>
+      <c r="C1054" s="2"/>
+      <c r="D1054" s="2"/>
       <c r="E1054" s="4"/>
       <c r="F1054" s="4"/>
       <c r="G1054" s="4"/>
@@ -31361,6 +31604,734 @@
       <c r="Y1054" s="4"/>
       <c r="Z1054" s="4"/>
     </row>
+    <row r="1055">
+      <c r="A1055" s="2"/>
+      <c r="B1055" s="2"/>
+      <c r="C1055" s="2"/>
+      <c r="D1055" s="2"/>
+      <c r="E1055" s="4"/>
+      <c r="F1055" s="4"/>
+      <c r="G1055" s="4"/>
+      <c r="H1055" s="4"/>
+      <c r="I1055" s="4"/>
+      <c r="J1055" s="4"/>
+      <c r="K1055" s="4"/>
+      <c r="L1055" s="4"/>
+      <c r="M1055" s="4"/>
+      <c r="N1055" s="4"/>
+      <c r="O1055" s="4"/>
+      <c r="P1055" s="4"/>
+      <c r="Q1055" s="4"/>
+      <c r="R1055" s="4"/>
+      <c r="S1055" s="4"/>
+      <c r="T1055" s="4"/>
+      <c r="U1055" s="4"/>
+      <c r="V1055" s="4"/>
+      <c r="W1055" s="4"/>
+      <c r="X1055" s="4"/>
+      <c r="Y1055" s="4"/>
+      <c r="Z1055" s="4"/>
+    </row>
+    <row r="1056">
+      <c r="A1056" s="2"/>
+      <c r="B1056" s="2"/>
+      <c r="C1056" s="2"/>
+      <c r="D1056" s="2"/>
+      <c r="E1056" s="4"/>
+      <c r="F1056" s="4"/>
+      <c r="G1056" s="4"/>
+      <c r="H1056" s="4"/>
+      <c r="I1056" s="4"/>
+      <c r="J1056" s="4"/>
+      <c r="K1056" s="4"/>
+      <c r="L1056" s="4"/>
+      <c r="M1056" s="4"/>
+      <c r="N1056" s="4"/>
+      <c r="O1056" s="4"/>
+      <c r="P1056" s="4"/>
+      <c r="Q1056" s="4"/>
+      <c r="R1056" s="4"/>
+      <c r="S1056" s="4"/>
+      <c r="T1056" s="4"/>
+      <c r="U1056" s="4"/>
+      <c r="V1056" s="4"/>
+      <c r="W1056" s="4"/>
+      <c r="X1056" s="4"/>
+      <c r="Y1056" s="4"/>
+      <c r="Z1056" s="4"/>
+    </row>
+    <row r="1057">
+      <c r="A1057" s="2"/>
+      <c r="B1057" s="2"/>
+      <c r="C1057" s="2"/>
+      <c r="D1057" s="2"/>
+      <c r="E1057" s="4"/>
+      <c r="F1057" s="4"/>
+      <c r="G1057" s="4"/>
+      <c r="H1057" s="4"/>
+      <c r="I1057" s="4"/>
+      <c r="J1057" s="4"/>
+      <c r="K1057" s="4"/>
+      <c r="L1057" s="4"/>
+      <c r="M1057" s="4"/>
+      <c r="N1057" s="4"/>
+      <c r="O1057" s="4"/>
+      <c r="P1057" s="4"/>
+      <c r="Q1057" s="4"/>
+      <c r="R1057" s="4"/>
+      <c r="S1057" s="4"/>
+      <c r="T1057" s="4"/>
+      <c r="U1057" s="4"/>
+      <c r="V1057" s="4"/>
+      <c r="W1057" s="4"/>
+      <c r="X1057" s="4"/>
+      <c r="Y1057" s="4"/>
+      <c r="Z1057" s="4"/>
+    </row>
+    <row r="1058">
+      <c r="A1058" s="2"/>
+      <c r="B1058" s="2"/>
+      <c r="C1058" s="2"/>
+      <c r="D1058" s="2"/>
+      <c r="E1058" s="4"/>
+      <c r="F1058" s="4"/>
+      <c r="G1058" s="4"/>
+      <c r="H1058" s="4"/>
+      <c r="I1058" s="4"/>
+      <c r="J1058" s="4"/>
+      <c r="K1058" s="4"/>
+      <c r="L1058" s="4"/>
+      <c r="M1058" s="4"/>
+      <c r="N1058" s="4"/>
+      <c r="O1058" s="4"/>
+      <c r="P1058" s="4"/>
+      <c r="Q1058" s="4"/>
+      <c r="R1058" s="4"/>
+      <c r="S1058" s="4"/>
+      <c r="T1058" s="4"/>
+      <c r="U1058" s="4"/>
+      <c r="V1058" s="4"/>
+      <c r="W1058" s="4"/>
+      <c r="X1058" s="4"/>
+      <c r="Y1058" s="4"/>
+      <c r="Z1058" s="4"/>
+    </row>
+    <row r="1059">
+      <c r="A1059" s="2"/>
+      <c r="B1059" s="2"/>
+      <c r="C1059" s="2"/>
+      <c r="D1059" s="2"/>
+      <c r="E1059" s="4"/>
+      <c r="F1059" s="4"/>
+      <c r="G1059" s="4"/>
+      <c r="H1059" s="4"/>
+      <c r="I1059" s="4"/>
+      <c r="J1059" s="4"/>
+      <c r="K1059" s="4"/>
+      <c r="L1059" s="4"/>
+      <c r="M1059" s="4"/>
+      <c r="N1059" s="4"/>
+      <c r="O1059" s="4"/>
+      <c r="P1059" s="4"/>
+      <c r="Q1059" s="4"/>
+      <c r="R1059" s="4"/>
+      <c r="S1059" s="4"/>
+      <c r="T1059" s="4"/>
+      <c r="U1059" s="4"/>
+      <c r="V1059" s="4"/>
+      <c r="W1059" s="4"/>
+      <c r="X1059" s="4"/>
+      <c r="Y1059" s="4"/>
+      <c r="Z1059" s="4"/>
+    </row>
+    <row r="1060">
+      <c r="A1060" s="2"/>
+      <c r="B1060" s="2"/>
+      <c r="C1060" s="2"/>
+      <c r="D1060" s="2"/>
+      <c r="E1060" s="4"/>
+      <c r="F1060" s="4"/>
+      <c r="G1060" s="4"/>
+      <c r="H1060" s="4"/>
+      <c r="I1060" s="4"/>
+      <c r="J1060" s="4"/>
+      <c r="K1060" s="4"/>
+      <c r="L1060" s="4"/>
+      <c r="M1060" s="4"/>
+      <c r="N1060" s="4"/>
+      <c r="O1060" s="4"/>
+      <c r="P1060" s="4"/>
+      <c r="Q1060" s="4"/>
+      <c r="R1060" s="4"/>
+      <c r="S1060" s="4"/>
+      <c r="T1060" s="4"/>
+      <c r="U1060" s="4"/>
+      <c r="V1060" s="4"/>
+      <c r="W1060" s="4"/>
+      <c r="X1060" s="4"/>
+      <c r="Y1060" s="4"/>
+      <c r="Z1060" s="4"/>
+    </row>
+    <row r="1061">
+      <c r="A1061" s="2"/>
+      <c r="B1061" s="2"/>
+      <c r="C1061" s="2"/>
+      <c r="D1061" s="2"/>
+      <c r="E1061" s="4"/>
+      <c r="F1061" s="4"/>
+      <c r="G1061" s="4"/>
+      <c r="H1061" s="4"/>
+      <c r="I1061" s="4"/>
+      <c r="J1061" s="4"/>
+      <c r="K1061" s="4"/>
+      <c r="L1061" s="4"/>
+      <c r="M1061" s="4"/>
+      <c r="N1061" s="4"/>
+      <c r="O1061" s="4"/>
+      <c r="P1061" s="4"/>
+      <c r="Q1061" s="4"/>
+      <c r="R1061" s="4"/>
+      <c r="S1061" s="4"/>
+      <c r="T1061" s="4"/>
+      <c r="U1061" s="4"/>
+      <c r="V1061" s="4"/>
+      <c r="W1061" s="4"/>
+      <c r="X1061" s="4"/>
+      <c r="Y1061" s="4"/>
+      <c r="Z1061" s="4"/>
+    </row>
+    <row r="1062">
+      <c r="A1062" s="2"/>
+      <c r="B1062" s="2"/>
+      <c r="C1062" s="2"/>
+      <c r="D1062" s="2"/>
+      <c r="E1062" s="4"/>
+      <c r="F1062" s="4"/>
+      <c r="G1062" s="4"/>
+      <c r="H1062" s="4"/>
+      <c r="I1062" s="4"/>
+      <c r="J1062" s="4"/>
+      <c r="K1062" s="4"/>
+      <c r="L1062" s="4"/>
+      <c r="M1062" s="4"/>
+      <c r="N1062" s="4"/>
+      <c r="O1062" s="4"/>
+      <c r="P1062" s="4"/>
+      <c r="Q1062" s="4"/>
+      <c r="R1062" s="4"/>
+      <c r="S1062" s="4"/>
+      <c r="T1062" s="4"/>
+      <c r="U1062" s="4"/>
+      <c r="V1062" s="4"/>
+      <c r="W1062" s="4"/>
+      <c r="X1062" s="4"/>
+      <c r="Y1062" s="4"/>
+      <c r="Z1062" s="4"/>
+    </row>
+    <row r="1063">
+      <c r="A1063" s="2"/>
+      <c r="B1063" s="2"/>
+      <c r="C1063" s="2"/>
+      <c r="D1063" s="2"/>
+      <c r="E1063" s="4"/>
+      <c r="F1063" s="4"/>
+      <c r="G1063" s="4"/>
+      <c r="H1063" s="4"/>
+      <c r="I1063" s="4"/>
+      <c r="J1063" s="4"/>
+      <c r="K1063" s="4"/>
+      <c r="L1063" s="4"/>
+      <c r="M1063" s="4"/>
+      <c r="N1063" s="4"/>
+      <c r="O1063" s="4"/>
+      <c r="P1063" s="4"/>
+      <c r="Q1063" s="4"/>
+      <c r="R1063" s="4"/>
+      <c r="S1063" s="4"/>
+      <c r="T1063" s="4"/>
+      <c r="U1063" s="4"/>
+      <c r="V1063" s="4"/>
+      <c r="W1063" s="4"/>
+      <c r="X1063" s="4"/>
+      <c r="Y1063" s="4"/>
+      <c r="Z1063" s="4"/>
+    </row>
+    <row r="1064">
+      <c r="A1064" s="2"/>
+      <c r="B1064" s="2"/>
+      <c r="C1064" s="2"/>
+      <c r="D1064" s="2"/>
+      <c r="E1064" s="4"/>
+      <c r="F1064" s="4"/>
+      <c r="G1064" s="4"/>
+      <c r="H1064" s="4"/>
+      <c r="I1064" s="4"/>
+      <c r="J1064" s="4"/>
+      <c r="K1064" s="4"/>
+      <c r="L1064" s="4"/>
+      <c r="M1064" s="4"/>
+      <c r="N1064" s="4"/>
+      <c r="O1064" s="4"/>
+      <c r="P1064" s="4"/>
+      <c r="Q1064" s="4"/>
+      <c r="R1064" s="4"/>
+      <c r="S1064" s="4"/>
+      <c r="T1064" s="4"/>
+      <c r="U1064" s="4"/>
+      <c r="V1064" s="4"/>
+      <c r="W1064" s="4"/>
+      <c r="X1064" s="4"/>
+      <c r="Y1064" s="4"/>
+      <c r="Z1064" s="4"/>
+    </row>
+    <row r="1065">
+      <c r="A1065" s="2"/>
+      <c r="B1065" s="2"/>
+      <c r="C1065" s="2"/>
+      <c r="D1065" s="2"/>
+      <c r="E1065" s="4"/>
+      <c r="F1065" s="4"/>
+      <c r="G1065" s="4"/>
+      <c r="H1065" s="4"/>
+      <c r="I1065" s="4"/>
+      <c r="J1065" s="4"/>
+      <c r="K1065" s="4"/>
+      <c r="L1065" s="4"/>
+      <c r="M1065" s="4"/>
+      <c r="N1065" s="4"/>
+      <c r="O1065" s="4"/>
+      <c r="P1065" s="4"/>
+      <c r="Q1065" s="4"/>
+      <c r="R1065" s="4"/>
+      <c r="S1065" s="4"/>
+      <c r="T1065" s="4"/>
+      <c r="U1065" s="4"/>
+      <c r="V1065" s="4"/>
+      <c r="W1065" s="4"/>
+      <c r="X1065" s="4"/>
+      <c r="Y1065" s="4"/>
+      <c r="Z1065" s="4"/>
+    </row>
+    <row r="1066">
+      <c r="A1066" s="2"/>
+      <c r="B1066" s="2"/>
+      <c r="C1066" s="2"/>
+      <c r="D1066" s="2"/>
+      <c r="E1066" s="4"/>
+      <c r="F1066" s="4"/>
+      <c r="G1066" s="4"/>
+      <c r="H1066" s="4"/>
+      <c r="I1066" s="4"/>
+      <c r="J1066" s="4"/>
+      <c r="K1066" s="4"/>
+      <c r="L1066" s="4"/>
+      <c r="M1066" s="4"/>
+      <c r="N1066" s="4"/>
+      <c r="O1066" s="4"/>
+      <c r="P1066" s="4"/>
+      <c r="Q1066" s="4"/>
+      <c r="R1066" s="4"/>
+      <c r="S1066" s="4"/>
+      <c r="T1066" s="4"/>
+      <c r="U1066" s="4"/>
+      <c r="V1066" s="4"/>
+      <c r="W1066" s="4"/>
+      <c r="X1066" s="4"/>
+      <c r="Y1066" s="4"/>
+      <c r="Z1066" s="4"/>
+    </row>
+    <row r="1067">
+      <c r="A1067" s="2"/>
+      <c r="B1067" s="2"/>
+      <c r="C1067" s="2"/>
+      <c r="D1067" s="2"/>
+      <c r="E1067" s="4"/>
+      <c r="F1067" s="4"/>
+      <c r="G1067" s="4"/>
+      <c r="H1067" s="4"/>
+      <c r="I1067" s="4"/>
+      <c r="J1067" s="4"/>
+      <c r="K1067" s="4"/>
+      <c r="L1067" s="4"/>
+      <c r="M1067" s="4"/>
+      <c r="N1067" s="4"/>
+      <c r="O1067" s="4"/>
+      <c r="P1067" s="4"/>
+      <c r="Q1067" s="4"/>
+      <c r="R1067" s="4"/>
+      <c r="S1067" s="4"/>
+      <c r="T1067" s="4"/>
+      <c r="U1067" s="4"/>
+      <c r="V1067" s="4"/>
+      <c r="W1067" s="4"/>
+      <c r="X1067" s="4"/>
+      <c r="Y1067" s="4"/>
+      <c r="Z1067" s="4"/>
+    </row>
+    <row r="1068">
+      <c r="A1068" s="2"/>
+      <c r="B1068" s="2"/>
+      <c r="C1068" s="2"/>
+      <c r="D1068" s="2"/>
+      <c r="E1068" s="4"/>
+      <c r="F1068" s="4"/>
+      <c r="G1068" s="4"/>
+      <c r="H1068" s="4"/>
+      <c r="I1068" s="4"/>
+      <c r="J1068" s="4"/>
+      <c r="K1068" s="4"/>
+      <c r="L1068" s="4"/>
+      <c r="M1068" s="4"/>
+      <c r="N1068" s="4"/>
+      <c r="O1068" s="4"/>
+      <c r="P1068" s="4"/>
+      <c r="Q1068" s="4"/>
+      <c r="R1068" s="4"/>
+      <c r="S1068" s="4"/>
+      <c r="T1068" s="4"/>
+      <c r="U1068" s="4"/>
+      <c r="V1068" s="4"/>
+      <c r="W1068" s="4"/>
+      <c r="X1068" s="4"/>
+      <c r="Y1068" s="4"/>
+      <c r="Z1068" s="4"/>
+    </row>
+    <row r="1069">
+      <c r="A1069" s="2"/>
+      <c r="B1069" s="2"/>
+      <c r="C1069" s="2"/>
+      <c r="D1069" s="2"/>
+      <c r="E1069" s="4"/>
+      <c r="F1069" s="4"/>
+      <c r="G1069" s="4"/>
+      <c r="H1069" s="4"/>
+      <c r="I1069" s="4"/>
+      <c r="J1069" s="4"/>
+      <c r="K1069" s="4"/>
+      <c r="L1069" s="4"/>
+      <c r="M1069" s="4"/>
+      <c r="N1069" s="4"/>
+      <c r="O1069" s="4"/>
+      <c r="P1069" s="4"/>
+      <c r="Q1069" s="4"/>
+      <c r="R1069" s="4"/>
+      <c r="S1069" s="4"/>
+      <c r="T1069" s="4"/>
+      <c r="U1069" s="4"/>
+      <c r="V1069" s="4"/>
+      <c r="W1069" s="4"/>
+      <c r="X1069" s="4"/>
+      <c r="Y1069" s="4"/>
+      <c r="Z1069" s="4"/>
+    </row>
+    <row r="1070">
+      <c r="A1070" s="2"/>
+      <c r="B1070" s="2"/>
+      <c r="C1070" s="2"/>
+      <c r="D1070" s="2"/>
+      <c r="E1070" s="4"/>
+      <c r="F1070" s="4"/>
+      <c r="G1070" s="4"/>
+      <c r="H1070" s="4"/>
+      <c r="I1070" s="4"/>
+      <c r="J1070" s="4"/>
+      <c r="K1070" s="4"/>
+      <c r="L1070" s="4"/>
+      <c r="M1070" s="4"/>
+      <c r="N1070" s="4"/>
+      <c r="O1070" s="4"/>
+      <c r="P1070" s="4"/>
+      <c r="Q1070" s="4"/>
+      <c r="R1070" s="4"/>
+      <c r="S1070" s="4"/>
+      <c r="T1070" s="4"/>
+      <c r="U1070" s="4"/>
+      <c r="V1070" s="4"/>
+      <c r="W1070" s="4"/>
+      <c r="X1070" s="4"/>
+      <c r="Y1070" s="4"/>
+      <c r="Z1070" s="4"/>
+    </row>
+    <row r="1071">
+      <c r="A1071" s="2"/>
+      <c r="B1071" s="2"/>
+      <c r="C1071" s="2"/>
+      <c r="D1071" s="2"/>
+      <c r="E1071" s="4"/>
+      <c r="F1071" s="4"/>
+      <c r="G1071" s="4"/>
+      <c r="H1071" s="4"/>
+      <c r="I1071" s="4"/>
+      <c r="J1071" s="4"/>
+      <c r="K1071" s="4"/>
+      <c r="L1071" s="4"/>
+      <c r="M1071" s="4"/>
+      <c r="N1071" s="4"/>
+      <c r="O1071" s="4"/>
+      <c r="P1071" s="4"/>
+      <c r="Q1071" s="4"/>
+      <c r="R1071" s="4"/>
+      <c r="S1071" s="4"/>
+      <c r="T1071" s="4"/>
+      <c r="U1071" s="4"/>
+      <c r="V1071" s="4"/>
+      <c r="W1071" s="4"/>
+      <c r="X1071" s="4"/>
+      <c r="Y1071" s="4"/>
+      <c r="Z1071" s="4"/>
+    </row>
+    <row r="1072">
+      <c r="A1072" s="2"/>
+      <c r="B1072" s="2"/>
+      <c r="C1072" s="2"/>
+      <c r="D1072" s="2"/>
+      <c r="E1072" s="4"/>
+      <c r="F1072" s="4"/>
+      <c r="G1072" s="4"/>
+      <c r="H1072" s="4"/>
+      <c r="I1072" s="4"/>
+      <c r="J1072" s="4"/>
+      <c r="K1072" s="4"/>
+      <c r="L1072" s="4"/>
+      <c r="M1072" s="4"/>
+      <c r="N1072" s="4"/>
+      <c r="O1072" s="4"/>
+      <c r="P1072" s="4"/>
+      <c r="Q1072" s="4"/>
+      <c r="R1072" s="4"/>
+      <c r="S1072" s="4"/>
+      <c r="T1072" s="4"/>
+      <c r="U1072" s="4"/>
+      <c r="V1072" s="4"/>
+      <c r="W1072" s="4"/>
+      <c r="X1072" s="4"/>
+      <c r="Y1072" s="4"/>
+      <c r="Z1072" s="4"/>
+    </row>
+    <row r="1073">
+      <c r="A1073" s="2"/>
+      <c r="B1073" s="2"/>
+      <c r="C1073" s="2"/>
+      <c r="D1073" s="2"/>
+      <c r="E1073" s="4"/>
+      <c r="F1073" s="4"/>
+      <c r="G1073" s="4"/>
+      <c r="H1073" s="4"/>
+      <c r="I1073" s="4"/>
+      <c r="J1073" s="4"/>
+      <c r="K1073" s="4"/>
+      <c r="L1073" s="4"/>
+      <c r="M1073" s="4"/>
+      <c r="N1073" s="4"/>
+      <c r="O1073" s="4"/>
+      <c r="P1073" s="4"/>
+      <c r="Q1073" s="4"/>
+      <c r="R1073" s="4"/>
+      <c r="S1073" s="4"/>
+      <c r="T1073" s="4"/>
+      <c r="U1073" s="4"/>
+      <c r="V1073" s="4"/>
+      <c r="W1073" s="4"/>
+      <c r="X1073" s="4"/>
+      <c r="Y1073" s="4"/>
+      <c r="Z1073" s="4"/>
+    </row>
+    <row r="1074">
+      <c r="A1074" s="2"/>
+      <c r="B1074" s="2"/>
+      <c r="C1074" s="2"/>
+      <c r="D1074" s="2"/>
+      <c r="E1074" s="4"/>
+      <c r="F1074" s="4"/>
+      <c r="G1074" s="4"/>
+      <c r="H1074" s="4"/>
+      <c r="I1074" s="4"/>
+      <c r="J1074" s="4"/>
+      <c r="K1074" s="4"/>
+      <c r="L1074" s="4"/>
+      <c r="M1074" s="4"/>
+      <c r="N1074" s="4"/>
+      <c r="O1074" s="4"/>
+      <c r="P1074" s="4"/>
+      <c r="Q1074" s="4"/>
+      <c r="R1074" s="4"/>
+      <c r="S1074" s="4"/>
+      <c r="T1074" s="4"/>
+      <c r="U1074" s="4"/>
+      <c r="V1074" s="4"/>
+      <c r="W1074" s="4"/>
+      <c r="X1074" s="4"/>
+      <c r="Y1074" s="4"/>
+      <c r="Z1074" s="4"/>
+    </row>
+    <row r="1075">
+      <c r="A1075" s="2"/>
+      <c r="B1075" s="2"/>
+      <c r="C1075" s="2"/>
+      <c r="D1075" s="2"/>
+      <c r="E1075" s="4"/>
+      <c r="F1075" s="4"/>
+      <c r="G1075" s="4"/>
+      <c r="H1075" s="4"/>
+      <c r="I1075" s="4"/>
+      <c r="J1075" s="4"/>
+      <c r="K1075" s="4"/>
+      <c r="L1075" s="4"/>
+      <c r="M1075" s="4"/>
+      <c r="N1075" s="4"/>
+      <c r="O1075" s="4"/>
+      <c r="P1075" s="4"/>
+      <c r="Q1075" s="4"/>
+      <c r="R1075" s="4"/>
+      <c r="S1075" s="4"/>
+      <c r="T1075" s="4"/>
+      <c r="U1075" s="4"/>
+      <c r="V1075" s="4"/>
+      <c r="W1075" s="4"/>
+      <c r="X1075" s="4"/>
+      <c r="Y1075" s="4"/>
+      <c r="Z1075" s="4"/>
+    </row>
+    <row r="1076">
+      <c r="A1076" s="2"/>
+      <c r="B1076" s="2"/>
+      <c r="C1076" s="2"/>
+      <c r="D1076" s="2"/>
+      <c r="E1076" s="4"/>
+      <c r="F1076" s="4"/>
+      <c r="G1076" s="4"/>
+      <c r="H1076" s="4"/>
+      <c r="I1076" s="4"/>
+      <c r="J1076" s="4"/>
+      <c r="K1076" s="4"/>
+      <c r="L1076" s="4"/>
+      <c r="M1076" s="4"/>
+      <c r="N1076" s="4"/>
+      <c r="O1076" s="4"/>
+      <c r="P1076" s="4"/>
+      <c r="Q1076" s="4"/>
+      <c r="R1076" s="4"/>
+      <c r="S1076" s="4"/>
+      <c r="T1076" s="4"/>
+      <c r="U1076" s="4"/>
+      <c r="V1076" s="4"/>
+      <c r="W1076" s="4"/>
+      <c r="X1076" s="4"/>
+      <c r="Y1076" s="4"/>
+      <c r="Z1076" s="4"/>
+    </row>
+    <row r="1077">
+      <c r="A1077" s="2"/>
+      <c r="B1077" s="2"/>
+      <c r="C1077" s="2"/>
+      <c r="D1077" s="2"/>
+      <c r="E1077" s="4"/>
+      <c r="F1077" s="4"/>
+      <c r="G1077" s="4"/>
+      <c r="H1077" s="4"/>
+      <c r="I1077" s="4"/>
+      <c r="J1077" s="4"/>
+      <c r="K1077" s="4"/>
+      <c r="L1077" s="4"/>
+      <c r="M1077" s="4"/>
+      <c r="N1077" s="4"/>
+      <c r="O1077" s="4"/>
+      <c r="P1077" s="4"/>
+      <c r="Q1077" s="4"/>
+      <c r="R1077" s="4"/>
+      <c r="S1077" s="4"/>
+      <c r="T1077" s="4"/>
+      <c r="U1077" s="4"/>
+      <c r="V1077" s="4"/>
+      <c r="W1077" s="4"/>
+      <c r="X1077" s="4"/>
+      <c r="Y1077" s="4"/>
+      <c r="Z1077" s="4"/>
+    </row>
+    <row r="1078">
+      <c r="A1078" s="2"/>
+      <c r="B1078" s="2"/>
+      <c r="C1078" s="2"/>
+      <c r="D1078" s="2"/>
+      <c r="E1078" s="4"/>
+      <c r="F1078" s="4"/>
+      <c r="G1078" s="4"/>
+      <c r="H1078" s="4"/>
+      <c r="I1078" s="4"/>
+      <c r="J1078" s="4"/>
+      <c r="K1078" s="4"/>
+      <c r="L1078" s="4"/>
+      <c r="M1078" s="4"/>
+      <c r="N1078" s="4"/>
+      <c r="O1078" s="4"/>
+      <c r="P1078" s="4"/>
+      <c r="Q1078" s="4"/>
+      <c r="R1078" s="4"/>
+      <c r="S1078" s="4"/>
+      <c r="T1078" s="4"/>
+      <c r="U1078" s="4"/>
+      <c r="V1078" s="4"/>
+      <c r="W1078" s="4"/>
+      <c r="X1078" s="4"/>
+      <c r="Y1078" s="4"/>
+      <c r="Z1078" s="4"/>
+    </row>
+    <row r="1079">
+      <c r="A1079" s="2"/>
+      <c r="B1079" s="2"/>
+      <c r="C1079" s="2"/>
+      <c r="D1079" s="2"/>
+      <c r="E1079" s="4"/>
+      <c r="F1079" s="4"/>
+      <c r="G1079" s="4"/>
+      <c r="H1079" s="4"/>
+      <c r="I1079" s="4"/>
+      <c r="J1079" s="4"/>
+      <c r="K1079" s="4"/>
+      <c r="L1079" s="4"/>
+      <c r="M1079" s="4"/>
+      <c r="N1079" s="4"/>
+      <c r="O1079" s="4"/>
+      <c r="P1079" s="4"/>
+      <c r="Q1079" s="4"/>
+      <c r="R1079" s="4"/>
+      <c r="S1079" s="4"/>
+      <c r="T1079" s="4"/>
+      <c r="U1079" s="4"/>
+      <c r="V1079" s="4"/>
+      <c r="W1079" s="4"/>
+      <c r="X1079" s="4"/>
+      <c r="Y1079" s="4"/>
+      <c r="Z1079" s="4"/>
+    </row>
+    <row r="1080">
+      <c r="A1080" s="4"/>
+      <c r="B1080" s="4"/>
+      <c r="C1080" s="4"/>
+      <c r="D1080" s="4"/>
+      <c r="E1080" s="4"/>
+      <c r="F1080" s="4"/>
+      <c r="G1080" s="4"/>
+      <c r="H1080" s="4"/>
+      <c r="I1080" s="4"/>
+      <c r="J1080" s="4"/>
+      <c r="K1080" s="4"/>
+      <c r="L1080" s="4"/>
+      <c r="M1080" s="4"/>
+      <c r="N1080" s="4"/>
+      <c r="O1080" s="4"/>
+      <c r="P1080" s="4"/>
+      <c r="Q1080" s="4"/>
+      <c r="R1080" s="4"/>
+      <c r="S1080" s="4"/>
+      <c r="T1080" s="4"/>
+      <c r="U1080" s="4"/>
+      <c r="V1080" s="4"/>
+      <c r="W1080" s="4"/>
+      <c r="X1080" s="4"/>
+      <c r="Y1080" s="4"/>
+      <c r="Z1080" s="4"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/hauteur site.xlsx
+++ b/hauteur site.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="14">
   <si>
     <t>code_pneu</t>
   </si>
@@ -40,34 +40,19 @@
     <t>voir 35/2</t>
   </si>
   <si>
-    <t>---28/1</t>
-  </si>
-  <si>
-    <t>---5/1</t>
-  </si>
-  <si>
     <t>280?</t>
   </si>
   <si>
     <t>265?</t>
   </si>
   <si>
-    <t>----29/2</t>
+    <t>---35/4</t>
   </si>
   <si>
-    <t>---9/3</t>
+    <t>---6/7</t>
   </si>
   <si>
-    <t>---6/8</t>
-  </si>
-  <si>
-    <t>voir 3/8</t>
-  </si>
-  <si>
-    <t>voir 21/1</t>
-  </si>
-  <si>
-    <t>---11/2</t>
+    <t>---15/2</t>
   </si>
 </sst>
 </file>
@@ -474,13 +459,13 @@
     </row>
     <row r="4">
       <c r="A4" s="6">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="7">
-        <v>230.0</v>
+        <v>330.0</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>3</v>
@@ -510,13 +495,13 @@
     </row>
     <row r="5">
       <c r="A5" s="6">
-        <v>23.0</v>
+        <v>19.0</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="7">
-        <v>335.0</v>
+        <v>230.0</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>3</v>
@@ -545,16 +530,16 @@
       <c r="Z5" s="4"/>
     </row>
     <row r="6">
-      <c r="A6" s="1">
-        <v>44.0</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3">
-        <v>295.0</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="A6" s="6">
+        <v>22.0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>320.0</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="4"/>
@@ -582,13 +567,13 @@
     </row>
     <row r="7">
       <c r="A7" s="6">
-        <v>45.0</v>
+        <v>23.0</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>5</v>
+      <c r="C7" s="7">
+        <v>335.0</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>3</v>
@@ -617,14 +602,16 @@
       <c r="Z7" s="4"/>
     </row>
     <row r="8">
-      <c r="A8" s="6">
-        <v>47.0</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="5" t="s">
+      <c r="A8" s="1">
+        <v>44.0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="4"/>
@@ -651,16 +638,16 @@
       <c r="Z8" s="4"/>
     </row>
     <row r="9">
-      <c r="A9" s="1">
-        <v>49.0</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="3">
-        <v>275.0</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="A9" s="6">
+        <v>45.0</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="4"/>
@@ -688,14 +675,12 @@
     </row>
     <row r="10">
       <c r="A10" s="6">
-        <v>52.0</v>
+        <v>47.0</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="7">
-        <v>315.0</v>
-      </c>
+      <c r="C10" s="7"/>
       <c r="D10" s="5" t="s">
         <v>3</v>
       </c>
@@ -724,13 +709,13 @@
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>57.0</v>
+        <v>49.0</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="3">
-        <v>260.0</v>
+        <v>275.0</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>3</v>
@@ -760,7 +745,7 @@
     </row>
     <row r="12">
       <c r="A12" s="6">
-        <v>61.0</v>
+        <v>52.0</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>3</v>
@@ -795,16 +780,16 @@
       <c r="Z12" s="4"/>
     </row>
     <row r="13">
-      <c r="A13" s="6">
-        <v>63.0</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="7">
+      <c r="A13" s="1">
+        <v>57.0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="3">
         <v>260.0</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="4"/>
@@ -832,13 +817,13 @@
     </row>
     <row r="14">
       <c r="A14" s="6">
-        <v>69.0</v>
+        <v>61.0</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>6</v>
+      <c r="C14" s="7">
+        <v>315.0</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>3</v>
@@ -868,13 +853,13 @@
     </row>
     <row r="15">
       <c r="A15" s="6">
-        <v>70.0</v>
+        <v>63.0</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>225.0</v>
+        <v>260.0</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>3</v>
@@ -903,16 +888,16 @@
       <c r="Z15" s="4"/>
     </row>
     <row r="16">
-      <c r="A16" s="1">
-        <v>74.0</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="3">
-        <v>265.0</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="A16" s="6">
+        <v>69.0</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="4"/>
@@ -939,16 +924,16 @@
       <c r="Z16" s="4"/>
     </row>
     <row r="17">
-      <c r="A17" s="1">
-        <v>77.0</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="3">
-        <v>260.0</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="A17" s="6">
+        <v>70.0</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="7">
+        <v>225.0</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E17" s="4"/>
@@ -976,13 +961,13 @@
     </row>
     <row r="18">
       <c r="A18" s="1">
-        <v>83.0</v>
+        <v>74.0</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="3">
-        <v>295.0</v>
+        <v>265.0</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>3</v>
@@ -1012,13 +997,13 @@
     </row>
     <row r="19">
       <c r="A19" s="1">
-        <v>93.0</v>
+        <v>77.0</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="3">
-        <v>250.0</v>
+        <v>260.0</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>3</v>
@@ -1048,15 +1033,17 @@
     </row>
     <row r="20">
       <c r="A20" s="6">
-        <v>98.0</v>
+        <v>79.0</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="5"/>
+      <c r="C20" s="7">
+        <v>300.0</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -1081,16 +1068,16 @@
       <c r="Z20" s="4"/>
     </row>
     <row r="21">
-      <c r="A21" s="6">
-        <v>106.0</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="A21" s="1">
+        <v>83.0</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E21" s="4"/>
@@ -1117,16 +1104,16 @@
       <c r="Z21" s="4"/>
     </row>
     <row r="22">
-      <c r="A22" s="6">
-        <v>107.0</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="7">
-        <v>260.0</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="A22" s="1">
+        <v>93.0</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E22" s="4"/>
@@ -1153,18 +1140,16 @@
       <c r="Z22" s="4"/>
     </row>
     <row r="23">
-      <c r="A23" s="1">
-        <v>112.0</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="3">
-        <v>270.0</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A23" s="6">
+        <v>98.0</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="5"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -1189,16 +1174,16 @@
       <c r="Z23" s="4"/>
     </row>
     <row r="24">
-      <c r="A24" s="1">
-        <v>119.0</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="A24" s="6">
+        <v>106.0</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E24" s="4"/>
@@ -1226,13 +1211,13 @@
     </row>
     <row r="25">
       <c r="A25" s="6">
-        <v>123.0</v>
+        <v>107.0</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C25" s="7">
-        <v>280.0</v>
+        <v>260.0</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>3</v>
@@ -1262,13 +1247,13 @@
     </row>
     <row r="26">
       <c r="A26" s="6">
-        <v>124.0</v>
+        <v>111.0</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C26" s="7">
-        <v>245.0</v>
+        <v>255.0</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>3</v>
@@ -1298,13 +1283,13 @@
     </row>
     <row r="27">
       <c r="A27" s="1">
-        <v>125.0</v>
+        <v>112.0</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="3">
-        <v>265.0</v>
+        <v>270.0</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>3</v>
@@ -1334,13 +1319,13 @@
     </row>
     <row r="28">
       <c r="A28" s="1">
-        <v>129.0</v>
+        <v>119.0</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="3">
-        <v>270.0</v>
+        <v>310.0</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>3</v>
@@ -1370,13 +1355,13 @@
     </row>
     <row r="29">
       <c r="A29" s="6">
-        <v>130.0</v>
+        <v>123.0</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C29" s="7">
-        <v>290.0</v>
+        <v>280.0</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>3</v>
@@ -1405,16 +1390,16 @@
       <c r="Z29" s="4"/>
     </row>
     <row r="30">
-      <c r="A30" s="1">
-        <v>131.0</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="3">
-        <v>255.0</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="A30" s="6">
+        <v>124.0</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="7">
+        <v>245.0</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E30" s="4"/>
@@ -1442,13 +1427,13 @@
     </row>
     <row r="31">
       <c r="A31" s="1">
-        <v>132.0</v>
+        <v>125.0</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="3">
-        <v>250.0</v>
+        <v>265.0</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>3</v>
@@ -1477,16 +1462,16 @@
       <c r="Z31" s="4"/>
     </row>
     <row r="32">
-      <c r="A32" s="6">
-        <v>133.0</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="7">
-        <v>240.0</v>
-      </c>
-      <c r="D32" s="5" t="s">
+      <c r="A32" s="1">
+        <v>129.0</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="3">
+        <v>270.0</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E32" s="4"/>
@@ -1514,13 +1499,13 @@
     </row>
     <row r="33">
       <c r="A33" s="6">
-        <v>136.0</v>
+        <v>130.0</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>9</v>
+      <c r="C33" s="7">
+        <v>290.0</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>3</v>
@@ -1550,13 +1535,13 @@
     </row>
     <row r="34">
       <c r="A34" s="1">
-        <v>138.0</v>
+        <v>131.0</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C34" s="3">
-        <v>315.0</v>
+        <v>255.0</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>3</v>
@@ -1586,7 +1571,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1">
-        <v>139.0</v>
+        <v>132.0</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>3</v>
@@ -1622,13 +1607,13 @@
     </row>
     <row r="36">
       <c r="A36" s="6">
-        <v>144.0</v>
+        <v>133.0</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C36" s="7">
-        <v>305.0</v>
+        <v>240.0</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>3</v>
@@ -1657,16 +1642,16 @@
       <c r="Z36" s="4"/>
     </row>
     <row r="37">
-      <c r="A37" s="1">
-        <v>145.0</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="3">
-        <v>275.0</v>
-      </c>
-      <c r="D37" s="2" t="s">
+      <c r="A37" s="6">
+        <v>135.0</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E37" s="4"/>
@@ -1694,13 +1679,13 @@
     </row>
     <row r="38">
       <c r="A38" s="6">
-        <v>146.0</v>
+        <v>136.0</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C38" s="7">
-        <v>300.0</v>
+        <v>315.0</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>3</v>
@@ -1730,13 +1715,13 @@
     </row>
     <row r="39">
       <c r="A39" s="1">
-        <v>149.0</v>
+        <v>138.0</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C39" s="3">
-        <v>265.0</v>
+        <v>315.0</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>3</v>
@@ -1765,16 +1750,16 @@
       <c r="Z39" s="4"/>
     </row>
     <row r="40">
-      <c r="A40" s="6">
-        <v>152.0</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="7">
-        <v>230.0</v>
-      </c>
-      <c r="D40" s="5" t="s">
+      <c r="A40" s="1">
+        <v>139.0</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E40" s="4"/>
@@ -1801,16 +1786,16 @@
       <c r="Z40" s="4"/>
     </row>
     <row r="41">
-      <c r="A41" s="1">
-        <v>153.0</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="3">
-        <v>325.0</v>
-      </c>
-      <c r="D41" s="2" t="s">
+      <c r="A41" s="6">
+        <v>144.0</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="7">
+        <v>305.0</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E41" s="4"/>
@@ -1838,13 +1823,13 @@
     </row>
     <row r="42">
       <c r="A42" s="1">
-        <v>154.0</v>
+        <v>145.0</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C42" s="3">
-        <v>325.0</v>
+        <v>275.0</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>3</v>
@@ -1874,13 +1859,13 @@
     </row>
     <row r="43">
       <c r="A43" s="6">
-        <v>156.0</v>
+        <v>146.0</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C43" s="7">
-        <v>310.0</v>
+        <v>300.0</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>3</v>
@@ -1910,13 +1895,13 @@
     </row>
     <row r="44">
       <c r="A44" s="1">
-        <v>157.0</v>
+        <v>149.0</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C44" s="3">
-        <v>270.0</v>
+        <v>265.0</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>3</v>
@@ -1945,16 +1930,16 @@
       <c r="Z44" s="4"/>
     </row>
     <row r="45">
-      <c r="A45" s="1">
-        <v>167.0</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D45" s="2" t="s">
+      <c r="A45" s="6">
+        <v>152.0</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="7">
+        <v>230.0</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E45" s="4"/>
@@ -1981,16 +1966,16 @@
       <c r="Z45" s="4"/>
     </row>
     <row r="46">
-      <c r="A46" s="6">
-        <v>169.0</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" s="7">
-        <v>235.0</v>
-      </c>
-      <c r="D46" s="5" t="s">
+      <c r="A46" s="1">
+        <v>153.0</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="3">
+        <v>325.0</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E46" s="4"/>
@@ -2018,13 +2003,13 @@
     </row>
     <row r="47">
       <c r="A47" s="1">
-        <v>175.0</v>
+        <v>154.0</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C47" s="3">
-        <v>250.0</v>
+        <v>325.0</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>3</v>
@@ -2053,16 +2038,16 @@
       <c r="Z47" s="4"/>
     </row>
     <row r="48">
-      <c r="A48" s="1">
-        <v>178.0</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" s="3">
-        <v>265.0</v>
-      </c>
-      <c r="D48" s="2" t="s">
+      <c r="A48" s="6">
+        <v>156.0</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E48" s="4"/>
@@ -2090,13 +2075,13 @@
     </row>
     <row r="49">
       <c r="A49" s="1">
-        <v>182.0</v>
+        <v>157.0</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="7">
-        <v>285.0</v>
+      <c r="C49" s="3">
+        <v>270.0</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>3</v>
@@ -2125,16 +2110,16 @@
       <c r="Z49" s="4"/>
     </row>
     <row r="50">
-      <c r="A50" s="1">
-        <v>183.0</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" s="3">
-        <v>270.0</v>
-      </c>
-      <c r="D50" s="2" t="s">
+      <c r="A50" s="6">
+        <v>164.0</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="7">
+        <v>250.0</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E50" s="4"/>
@@ -2161,16 +2146,16 @@
       <c r="Z50" s="4"/>
     </row>
     <row r="51">
-      <c r="A51" s="6">
-        <v>189.0</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51" s="5" t="s">
+      <c r="A51" s="1">
+        <v>167.0</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E51" s="4"/>
@@ -2197,16 +2182,16 @@
       <c r="Z51" s="4"/>
     </row>
     <row r="52">
-      <c r="A52" s="1">
-        <v>190.0</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" s="3">
-        <v>305.0</v>
-      </c>
-      <c r="D52" s="2" t="s">
+      <c r="A52" s="6">
+        <v>169.0</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="7">
+        <v>235.0</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E52" s="4"/>
@@ -2234,13 +2219,13 @@
     </row>
     <row r="53">
       <c r="A53" s="1">
-        <v>192.0</v>
+        <v>175.0</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C53" s="3">
-        <v>285.0</v>
+        <v>250.0</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>3</v>
@@ -2269,16 +2254,16 @@
       <c r="Z53" s="4"/>
     </row>
     <row r="54">
-      <c r="A54" s="1">
-        <v>201.0</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" s="3">
-        <v>285.0</v>
-      </c>
-      <c r="D54" s="2" t="s">
+      <c r="A54" s="6">
+        <v>176.0</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E54" s="4"/>
@@ -2306,13 +2291,13 @@
     </row>
     <row r="55">
       <c r="A55" s="1">
-        <v>204.0</v>
+        <v>178.0</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C55" s="3">
-        <v>270.0</v>
+        <v>265.0</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>3</v>
@@ -2341,16 +2326,16 @@
       <c r="Z55" s="4"/>
     </row>
     <row r="56">
-      <c r="A56" s="6">
-        <v>207.0</v>
-      </c>
-      <c r="B56" s="5" t="s">
+      <c r="A56" s="1">
+        <v>182.0</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C56" s="7">
-        <v>325.0</v>
-      </c>
-      <c r="D56" s="5" t="s">
+        <v>285.0</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E56" s="4"/>
@@ -2377,16 +2362,16 @@
       <c r="Z56" s="4"/>
     </row>
     <row r="57">
-      <c r="A57" s="6">
-        <v>209.0</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57" s="5" t="s">
+      <c r="A57" s="1">
+        <v>183.0</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="3">
+        <v>270.0</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E57" s="4"/>
@@ -2414,13 +2399,13 @@
     </row>
     <row r="58">
       <c r="A58" s="6">
-        <v>216.0</v>
+        <v>189.0</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C58" s="7">
-        <v>320.0</v>
+        <v>235.0</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>3</v>
@@ -2450,13 +2435,13 @@
     </row>
     <row r="59">
       <c r="A59" s="1">
-        <v>218.0</v>
+        <v>190.0</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C59" s="3">
-        <v>275.0</v>
+        <v>305.0</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>3</v>
@@ -2486,13 +2471,13 @@
     </row>
     <row r="60">
       <c r="A60" s="1">
-        <v>227.0</v>
+        <v>192.0</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C60" s="3">
-        <v>325.0</v>
+        <v>285.0</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>3</v>
@@ -2522,13 +2507,13 @@
     </row>
     <row r="61">
       <c r="A61" s="1">
-        <v>229.0</v>
+        <v>201.0</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C61" s="3">
-        <v>300.0</v>
+        <v>285.0</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>3</v>
@@ -2557,16 +2542,16 @@
       <c r="Z61" s="4"/>
     </row>
     <row r="62">
-      <c r="A62" s="6">
-        <v>232.0</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" s="7">
-        <v>275.0</v>
-      </c>
-      <c r="D62" s="5" t="s">
+      <c r="A62" s="1">
+        <v>204.0</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="3">
+        <v>270.0</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E62" s="4"/>
@@ -2593,16 +2578,16 @@
       <c r="Z62" s="4"/>
     </row>
     <row r="63">
-      <c r="A63" s="1">
-        <v>237.0</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C63" s="3">
-        <v>240.0</v>
-      </c>
-      <c r="D63" s="2" t="s">
+      <c r="A63" s="6">
+        <v>207.0</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="7">
+        <v>325.0</v>
+      </c>
+      <c r="D63" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E63" s="4"/>
@@ -2630,13 +2615,13 @@
     </row>
     <row r="64">
       <c r="A64" s="6">
-        <v>238.0</v>
+        <v>209.0</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="7">
-        <v>280.0</v>
+      <c r="C64" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>3</v>
@@ -2665,16 +2650,16 @@
       <c r="Z64" s="4"/>
     </row>
     <row r="65">
-      <c r="A65" s="1">
-        <v>243.0</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C65" s="3">
-        <v>225.0</v>
-      </c>
-      <c r="D65" s="2" t="s">
+      <c r="A65" s="6">
+        <v>216.0</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" s="7">
+        <v>320.0</v>
+      </c>
+      <c r="D65" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E65" s="4"/>
@@ -2701,16 +2686,16 @@
       <c r="Z65" s="4"/>
     </row>
     <row r="66">
-      <c r="A66" s="6">
-        <v>250.0</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66" s="7">
-        <v>245.0</v>
-      </c>
-      <c r="D66" s="5" t="s">
+      <c r="A66" s="1">
+        <v>218.0</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="3">
+        <v>275.0</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E66" s="4"/>
@@ -2737,16 +2722,16 @@
       <c r="Z66" s="4"/>
     </row>
     <row r="67">
-      <c r="A67" s="6">
-        <v>252.0</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D67" s="5" t="s">
+      <c r="A67" s="1">
+        <v>227.0</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="3">
+        <v>325.0</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E67" s="4"/>
@@ -2773,16 +2758,16 @@
       <c r="Z67" s="4"/>
     </row>
     <row r="68">
-      <c r="A68" s="6">
-        <v>257.0</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D68" s="5" t="s">
+      <c r="A68" s="1">
+        <v>229.0</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="3">
+        <v>300.0</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E68" s="4"/>
@@ -2810,13 +2795,13 @@
     </row>
     <row r="69">
       <c r="A69" s="6">
-        <v>264.0</v>
+        <v>232.0</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C69" s="7" t="s">
-        <v>5</v>
+      <c r="C69" s="7">
+        <v>275.0</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>3</v>
@@ -2846,13 +2831,13 @@
     </row>
     <row r="70">
       <c r="A70" s="1">
-        <v>265.0</v>
+        <v>237.0</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C70" s="3">
-        <v>250.0</v>
+        <v>240.0</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>3</v>
@@ -2882,13 +2867,13 @@
     </row>
     <row r="71">
       <c r="A71" s="6">
-        <v>270.0</v>
+        <v>238.0</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C71" s="7" t="s">
-        <v>6</v>
+      <c r="C71" s="7">
+        <v>280.0</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>3</v>
@@ -2917,16 +2902,16 @@
       <c r="Z71" s="4"/>
     </row>
     <row r="72">
-      <c r="A72" s="6">
-        <v>273.0</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C72" s="7">
-        <v>290.0</v>
-      </c>
-      <c r="D72" s="5" t="s">
+      <c r="A72" s="1">
+        <v>243.0</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" s="3">
+        <v>225.0</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E72" s="4"/>
@@ -2953,16 +2938,16 @@
       <c r="Z72" s="4"/>
     </row>
     <row r="73">
-      <c r="A73" s="1">
-        <v>274.0</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" s="3">
-        <v>260.0</v>
-      </c>
-      <c r="D73" s="2" t="s">
+      <c r="A73" s="6">
+        <v>250.0</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="7">
+        <v>245.0</v>
+      </c>
+      <c r="D73" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E73" s="4"/>
@@ -2990,13 +2975,13 @@
     </row>
     <row r="74">
       <c r="A74" s="6">
-        <v>275.0</v>
+        <v>252.0</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C74" s="7">
-        <v>290.0</v>
+      <c r="C74" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>3</v>
@@ -3026,13 +3011,13 @@
     </row>
     <row r="75">
       <c r="A75" s="6">
-        <v>279.0</v>
+        <v>257.0</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C75" s="7">
-        <v>255.0</v>
+      <c r="C75" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>3</v>
@@ -3062,13 +3047,13 @@
     </row>
     <row r="76">
       <c r="A76" s="6">
-        <v>284.0</v>
+        <v>264.0</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C76" s="7">
-        <v>260.0</v>
+      <c r="C76" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>3</v>
@@ -3097,16 +3082,16 @@
       <c r="Z76" s="4"/>
     </row>
     <row r="77">
-      <c r="A77" s="6">
-        <v>289.0</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C77" s="7">
-        <v>255.0</v>
-      </c>
-      <c r="D77" s="5" t="s">
+      <c r="A77" s="1">
+        <v>265.0</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E77" s="4"/>
@@ -3133,16 +3118,16 @@
       <c r="Z77" s="4"/>
     </row>
     <row r="78">
-      <c r="A78" s="1">
-        <v>290.0</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C78" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D78" s="2" t="s">
+      <c r="A78" s="6">
+        <v>270.0</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" s="7">
+        <v>265.0</v>
+      </c>
+      <c r="D78" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E78" s="4"/>
@@ -3170,15 +3155,15 @@
     </row>
     <row r="79">
       <c r="A79" s="6">
-        <v>296.0</v>
-      </c>
-      <c r="B79" s="2" t="s">
+        <v>273.0</v>
+      </c>
+      <c r="B79" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C79" s="7">
-        <v>235.0</v>
-      </c>
-      <c r="D79" s="2" t="s">
+        <v>290.0</v>
+      </c>
+      <c r="D79" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E79" s="4"/>
@@ -3206,13 +3191,13 @@
     </row>
     <row r="80">
       <c r="A80" s="1">
-        <v>306.0</v>
+        <v>274.0</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C80" s="3">
-        <v>235.0</v>
+        <v>260.0</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>3</v>
@@ -3242,13 +3227,13 @@
     </row>
     <row r="81">
       <c r="A81" s="6">
-        <v>309.0</v>
+        <v>275.0</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C81" s="7" t="s">
-        <v>5</v>
+      <c r="C81" s="7">
+        <v>290.0</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>3</v>
@@ -3278,13 +3263,13 @@
     </row>
     <row r="82">
       <c r="A82" s="6">
-        <v>323.0</v>
+        <v>279.0</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C82" s="7">
-        <v>270.0</v>
+        <v>255.0</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>3</v>
@@ -3313,16 +3298,16 @@
       <c r="Z82" s="4"/>
     </row>
     <row r="83">
-      <c r="A83" s="1">
-        <v>324.0</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C83" s="3">
+      <c r="A83" s="6">
+        <v>284.0</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" s="7">
         <v>260.0</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D83" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E83" s="4"/>
@@ -3349,16 +3334,16 @@
       <c r="Z83" s="4"/>
     </row>
     <row r="84">
-      <c r="A84" s="1">
-        <v>328.0</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C84" s="3">
+      <c r="A84" s="6">
+        <v>289.0</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" s="7">
         <v>255.0</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D84" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E84" s="4"/>
@@ -3385,16 +3370,16 @@
       <c r="Z84" s="4"/>
     </row>
     <row r="85">
-      <c r="A85" s="6">
-        <v>334.0</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85" s="5" t="s">
+      <c r="A85" s="1">
+        <v>290.0</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E85" s="4"/>
@@ -3422,15 +3407,15 @@
     </row>
     <row r="86">
       <c r="A86" s="6">
-        <v>338.0</v>
-      </c>
-      <c r="B86" s="5" t="s">
+        <v>296.0</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C86" s="7">
         <v>235.0</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="D86" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E86" s="4"/>
@@ -3458,13 +3443,13 @@
     </row>
     <row r="87">
       <c r="A87" s="1">
-        <v>349.0</v>
+        <v>306.0</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C87" s="3">
-        <v>250.0</v>
+        <v>235.0</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>3</v>
@@ -3493,16 +3478,16 @@
       <c r="Z87" s="4"/>
     </row>
     <row r="88">
-      <c r="A88" s="1">
-        <v>350.0</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C88" s="3">
-        <v>225.0</v>
-      </c>
-      <c r="D88" s="2" t="s">
+      <c r="A88" s="6">
+        <v>309.0</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" s="7">
+        <v>260.0</v>
+      </c>
+      <c r="D88" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E88" s="4"/>
@@ -3529,16 +3514,16 @@
       <c r="Z88" s="4"/>
     </row>
     <row r="89">
-      <c r="A89" s="1">
-        <v>361.0</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C89" s="3">
-        <v>245.0</v>
-      </c>
-      <c r="D89" s="2" t="s">
+      <c r="A89" s="6">
+        <v>323.0</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" s="7">
+        <v>270.0</v>
+      </c>
+      <c r="D89" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E89" s="4"/>
@@ -3565,16 +3550,16 @@
       <c r="Z89" s="4"/>
     </row>
     <row r="90">
-      <c r="A90" s="6">
-        <v>365.0</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C90" s="7">
-        <v>335.0</v>
-      </c>
-      <c r="D90" s="5" t="s">
+      <c r="A90" s="1">
+        <v>324.0</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" s="3">
+        <v>260.0</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E90" s="4"/>
@@ -3602,13 +3587,13 @@
     </row>
     <row r="91">
       <c r="A91" s="1">
-        <v>367.0</v>
+        <v>328.0</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C91" s="3">
-        <v>225.0</v>
+        <v>255.0</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>3</v>
@@ -3637,16 +3622,16 @@
       <c r="Z91" s="4"/>
     </row>
     <row r="92">
-      <c r="A92" s="1">
-        <v>369.0</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C92" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D92" s="2" t="s">
+      <c r="A92" s="6">
+        <v>334.0</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E92" s="4"/>
@@ -3674,12 +3659,14 @@
     </row>
     <row r="93">
       <c r="A93" s="6">
-        <v>370.0</v>
+        <v>338.0</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C93" s="3"/>
+      <c r="C93" s="7">
+        <v>235.0</v>
+      </c>
       <c r="D93" s="5" t="s">
         <v>3</v>
       </c>
@@ -3708,13 +3695,13 @@
     </row>
     <row r="94">
       <c r="A94" s="1">
-        <v>375.0</v>
+        <v>349.0</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C94" s="3">
-        <v>245.0</v>
+        <v>250.0</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>3</v>
@@ -3744,13 +3731,13 @@
     </row>
     <row r="95">
       <c r="A95" s="1">
-        <v>377.0</v>
+        <v>350.0</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C95" s="3">
-        <v>275.0</v>
+        <v>225.0</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>3</v>
@@ -3779,16 +3766,16 @@
       <c r="Z95" s="4"/>
     </row>
     <row r="96">
-      <c r="A96" s="6">
-        <v>378.0</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C96" s="7">
-        <v>275.0</v>
-      </c>
-      <c r="D96" s="5" t="s">
+      <c r="A96" s="1">
+        <v>361.0</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" s="3">
+        <v>245.0</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E96" s="4"/>
@@ -3815,16 +3802,16 @@
       <c r="Z96" s="4"/>
     </row>
     <row r="97">
-      <c r="A97" s="1">
-        <v>382.0</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C97" s="3">
-        <v>295.0</v>
-      </c>
-      <c r="D97" s="2" t="s">
+      <c r="A97" s="6">
+        <v>365.0</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" s="7">
+        <v>335.0</v>
+      </c>
+      <c r="D97" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E97" s="4"/>
@@ -3851,16 +3838,16 @@
       <c r="Z97" s="4"/>
     </row>
     <row r="98">
-      <c r="A98" s="6">
-        <v>384.0</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D98" s="5" t="s">
+      <c r="A98" s="1">
+        <v>367.0</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" s="3">
+        <v>225.0</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E98" s="4"/>
@@ -3888,13 +3875,13 @@
     </row>
     <row r="99">
       <c r="A99" s="1">
-        <v>389.0</v>
+        <v>369.0</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C99" s="3">
-        <v>265.0</v>
+        <v>310.0</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>3</v>
@@ -3924,14 +3911,12 @@
     </row>
     <row r="100">
       <c r="A100" s="6">
-        <v>390.0</v>
+        <v>370.0</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C100" s="7">
-        <v>300.0</v>
-      </c>
+      <c r="C100" s="3"/>
       <c r="D100" s="5" t="s">
         <v>3</v>
       </c>
@@ -3959,16 +3944,16 @@
       <c r="Z100" s="4"/>
     </row>
     <row r="101">
-      <c r="A101" s="6">
-        <v>398.0</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C101" s="7">
-        <v>260.0</v>
-      </c>
-      <c r="D101" s="5" t="s">
+      <c r="A101" s="1">
+        <v>375.0</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" s="3">
+        <v>245.0</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E101" s="4"/>
@@ -3996,13 +3981,13 @@
     </row>
     <row r="102">
       <c r="A102" s="1">
-        <v>399.0</v>
+        <v>377.0</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C102" s="3">
-        <v>260.0</v>
+        <v>275.0</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>3</v>
@@ -4031,16 +4016,16 @@
       <c r="Z102" s="4"/>
     </row>
     <row r="103">
-      <c r="A103" s="1">
-        <v>404.0</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C103" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D103" s="2" t="s">
+      <c r="A103" s="6">
+        <v>378.0</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103" s="7">
+        <v>275.0</v>
+      </c>
+      <c r="D103" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E103" s="4"/>
@@ -4067,16 +4052,16 @@
       <c r="Z103" s="4"/>
     </row>
     <row r="104">
-      <c r="A104" s="6">
-        <v>406.0</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D104" s="5" t="s">
+      <c r="A104" s="1">
+        <v>382.0</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E104" s="4"/>
@@ -4104,13 +4089,13 @@
     </row>
     <row r="105">
       <c r="A105" s="6">
-        <v>413.0</v>
+        <v>384.0</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C105" s="7">
-        <v>290.0</v>
+        <v>310.0</v>
       </c>
       <c r="D105" s="5" t="s">
         <v>3</v>
@@ -4140,13 +4125,13 @@
     </row>
     <row r="106">
       <c r="A106" s="1">
-        <v>423.0</v>
+        <v>389.0</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C106" s="3">
-        <v>280.0</v>
+        <v>265.0</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>3</v>
@@ -4175,16 +4160,16 @@
       <c r="Z106" s="4"/>
     </row>
     <row r="107">
-      <c r="A107" s="1">
-        <v>429.0</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C107" s="3">
-        <v>290.0</v>
-      </c>
-      <c r="D107" s="2" t="s">
+      <c r="A107" s="6">
+        <v>390.0</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" s="7">
+        <v>300.0</v>
+      </c>
+      <c r="D107" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E107" s="4"/>
@@ -4211,16 +4196,16 @@
       <c r="Z107" s="4"/>
     </row>
     <row r="108">
-      <c r="A108" s="1">
-        <v>430.0</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C108" s="3">
-        <v>290.0</v>
-      </c>
-      <c r="D108" s="2" t="s">
+      <c r="A108" s="6">
+        <v>398.0</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108" s="7">
+        <v>260.0</v>
+      </c>
+      <c r="D108" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E108" s="4"/>
@@ -4248,13 +4233,13 @@
     </row>
     <row r="109">
       <c r="A109" s="1">
-        <v>442.0</v>
+        <v>399.0</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C109" s="3">
-        <v>295.0</v>
+        <v>260.0</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>3</v>
@@ -4283,16 +4268,16 @@
       <c r="Z109" s="4"/>
     </row>
     <row r="110">
-      <c r="A110" s="6">
-        <v>450.0</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C110" s="7">
-        <v>260.0</v>
-      </c>
-      <c r="D110" s="5" t="s">
+      <c r="A110" s="1">
+        <v>404.0</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C110" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E110" s="4"/>
@@ -4319,16 +4304,16 @@
       <c r="Z110" s="4"/>
     </row>
     <row r="111">
-      <c r="A111" s="1">
-        <v>456.0</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C111" s="3">
-        <v>235.0</v>
-      </c>
-      <c r="D111" s="2" t="s">
+      <c r="A111" s="6">
+        <v>406.0</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D111" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E111" s="4"/>
@@ -4355,16 +4340,16 @@
       <c r="Z111" s="4"/>
     </row>
     <row r="112">
-      <c r="A112" s="1">
-        <v>457.0</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C112" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D112" s="2" t="s">
+      <c r="A112" s="6">
+        <v>413.0</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112" s="7">
+        <v>290.0</v>
+      </c>
+      <c r="D112" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E112" s="4"/>
@@ -4391,16 +4376,16 @@
       <c r="Z112" s="4"/>
     </row>
     <row r="113">
-      <c r="A113" s="6">
-        <v>461.0</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C113" s="7">
-        <v>210.0</v>
-      </c>
-      <c r="D113" s="5" t="s">
+      <c r="A113" s="1">
+        <v>423.0</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113" s="3">
+        <v>280.0</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E113" s="4"/>
@@ -4428,13 +4413,13 @@
     </row>
     <row r="114">
       <c r="A114" s="1">
-        <v>463.0</v>
+        <v>429.0</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C114" s="3">
-        <v>310.0</v>
+        <v>290.0</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>3</v>
@@ -4464,13 +4449,13 @@
     </row>
     <row r="115">
       <c r="A115" s="1">
-        <v>470.0</v>
+        <v>430.0</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C115" s="3">
-        <v>265.0</v>
+        <v>290.0</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>3</v>
@@ -4499,16 +4484,16 @@
       <c r="Z115" s="4"/>
     </row>
     <row r="116">
-      <c r="A116" s="6">
-        <v>480.0</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C116" s="7">
-        <v>285.0</v>
-      </c>
-      <c r="D116" s="5" t="s">
+      <c r="A116" s="1">
+        <v>442.0</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E116" s="4"/>
@@ -4535,16 +4520,16 @@
       <c r="Z116" s="4"/>
     </row>
     <row r="117">
-      <c r="A117" s="1">
-        <v>485.0</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C117" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D117" s="2" t="s">
+      <c r="A117" s="6">
+        <v>443.0</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117" s="7">
+        <v>305.0</v>
+      </c>
+      <c r="D117" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E117" s="4"/>
@@ -4572,13 +4557,13 @@
     </row>
     <row r="118">
       <c r="A118" s="6">
-        <v>490.0</v>
+        <v>450.0</v>
       </c>
       <c r="B118" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C118" s="7">
-        <v>275.0</v>
+        <v>260.0</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>3</v>
@@ -4608,13 +4593,13 @@
     </row>
     <row r="119">
       <c r="A119" s="1">
-        <v>503.0</v>
+        <v>456.0</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C119" s="3">
-        <v>260.0</v>
+        <v>235.0</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>3</v>
@@ -4644,13 +4629,13 @@
     </row>
     <row r="120">
       <c r="A120" s="1">
-        <v>510.0</v>
+        <v>457.0</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C120" s="3">
-        <v>285.0</v>
+        <v>250.0</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>3</v>
@@ -4680,13 +4665,13 @@
     </row>
     <row r="121">
       <c r="A121" s="6">
-        <v>514.0</v>
+        <v>461.0</v>
       </c>
       <c r="B121" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C121" s="7">
-        <v>315.0</v>
+        <v>210.0</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>3</v>
@@ -4716,13 +4701,13 @@
     </row>
     <row r="122">
       <c r="A122" s="1">
-        <v>534.0</v>
+        <v>463.0</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C122" s="3">
-        <v>230.0</v>
+        <v>310.0</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>3</v>
@@ -4752,13 +4737,13 @@
     </row>
     <row r="123">
       <c r="A123" s="1">
-        <v>535.0</v>
+        <v>470.0</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C123" s="3">
-        <v>295.0</v>
+        <v>265.0</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>3</v>
@@ -4787,16 +4772,16 @@
       <c r="Z123" s="4"/>
     </row>
     <row r="124">
-      <c r="A124" s="1">
-        <v>552.0</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C124" s="3">
-        <v>280.0</v>
-      </c>
-      <c r="D124" s="2" t="s">
+      <c r="A124" s="6">
+        <v>480.0</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124" s="7">
+        <v>285.0</v>
+      </c>
+      <c r="D124" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E124" s="4"/>
@@ -4824,13 +4809,13 @@
     </row>
     <row r="125">
       <c r="A125" s="1">
-        <v>561.0</v>
+        <v>485.0</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C125" s="3">
-        <v>280.0</v>
+        <v>310.0</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>3</v>
@@ -4860,13 +4845,13 @@
     </row>
     <row r="126">
       <c r="A126" s="6">
-        <v>562.0</v>
+        <v>490.0</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C126" s="7" t="s">
-        <v>5</v>
+      <c r="C126" s="7">
+        <v>275.0</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>3</v>
@@ -4895,16 +4880,16 @@
       <c r="Z126" s="4"/>
     </row>
     <row r="127">
-      <c r="A127" s="6">
-        <v>564.0</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C127" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D127" s="5" t="s">
+      <c r="A127" s="1">
+        <v>503.0</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127" s="3">
+        <v>260.0</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E127" s="4"/>
@@ -4932,13 +4917,13 @@
     </row>
     <row r="128">
       <c r="A128" s="1">
-        <v>567.0</v>
+        <v>510.0</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C128" s="3">
-        <v>325.0</v>
+        <v>285.0</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>3</v>
@@ -4967,16 +4952,16 @@
       <c r="Z128" s="4"/>
     </row>
     <row r="129">
-      <c r="A129" s="1">
-        <v>576.0</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C129" s="3">
-        <v>260.0</v>
-      </c>
-      <c r="D129" s="2" t="s">
+      <c r="A129" s="6">
+        <v>514.0</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129" s="7">
+        <v>315.0</v>
+      </c>
+      <c r="D129" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E129" s="4"/>
@@ -5003,16 +4988,16 @@
       <c r="Z129" s="4"/>
     </row>
     <row r="130">
-      <c r="A130" s="6">
-        <v>577.0</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C130" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D130" s="5" t="s">
+      <c r="A130" s="1">
+        <v>534.0</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130" s="3">
+        <v>230.0</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E130" s="4"/>
@@ -5039,16 +5024,16 @@
       <c r="Z130" s="4"/>
     </row>
     <row r="131">
-      <c r="A131" s="6">
-        <v>580.0</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C131" s="7">
-        <v>240.0</v>
-      </c>
-      <c r="D131" s="5" t="s">
+      <c r="A131" s="1">
+        <v>535.0</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E131" s="4"/>
@@ -5076,13 +5061,13 @@
     </row>
     <row r="132">
       <c r="A132" s="1">
-        <v>583.0</v>
+        <v>552.0</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C132" s="3">
-        <v>320.0</v>
+        <v>280.0</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>3</v>
@@ -5111,16 +5096,16 @@
       <c r="Z132" s="4"/>
     </row>
     <row r="133">
-      <c r="A133" s="1">
-        <v>584.0</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C133" s="3">
-        <v>270.0</v>
-      </c>
-      <c r="D133" s="2" t="s">
+      <c r="A133" s="6">
+        <v>560.0</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D133" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E133" s="4"/>
@@ -5148,13 +5133,13 @@
     </row>
     <row r="134">
       <c r="A134" s="1">
-        <v>586.0</v>
+        <v>561.0</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C134" s="3">
-        <v>240.0</v>
+        <v>280.0</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>3</v>
@@ -5184,13 +5169,13 @@
     </row>
     <row r="135">
       <c r="A135" s="6">
-        <v>587.0</v>
+        <v>562.0</v>
       </c>
       <c r="B135" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C135" s="7">
-        <v>265.0</v>
+      <c r="C135" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>3</v>
@@ -5219,16 +5204,16 @@
       <c r="Z135" s="4"/>
     </row>
     <row r="136">
-      <c r="A136" s="1">
-        <v>593.0</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C136" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D136" s="2" t="s">
+      <c r="A136" s="6">
+        <v>564.0</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C136" s="7">
+        <v>260.0</v>
+      </c>
+      <c r="D136" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E136" s="4"/>
@@ -5255,16 +5240,16 @@
       <c r="Z136" s="4"/>
     </row>
     <row r="137">
-      <c r="A137" s="6">
-        <v>599.0</v>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C137" s="7">
-        <v>280.0</v>
-      </c>
-      <c r="D137" s="5" t="s">
+      <c r="A137" s="1">
+        <v>567.0</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C137" s="3">
+        <v>325.0</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E137" s="4"/>
@@ -5292,13 +5277,13 @@
     </row>
     <row r="138">
       <c r="A138" s="1">
-        <v>604.0</v>
+        <v>576.0</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C138" s="3">
-        <v>295.0</v>
+        <v>260.0</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>3</v>
@@ -5327,16 +5312,16 @@
       <c r="Z138" s="4"/>
     </row>
     <row r="139">
-      <c r="A139" s="1">
-        <v>604.0</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C139" s="3">
-        <v>295.0</v>
-      </c>
-      <c r="D139" s="2" t="s">
+      <c r="A139" s="6">
+        <v>577.0</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C139" s="7">
+        <v>230.0</v>
+      </c>
+      <c r="D139" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E139" s="4"/>
@@ -5363,16 +5348,16 @@
       <c r="Z139" s="4"/>
     </row>
     <row r="140">
-      <c r="A140" s="1">
-        <v>612.0</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C140" s="3">
-        <v>255.0</v>
-      </c>
-      <c r="D140" s="2" t="s">
+      <c r="A140" s="6">
+        <v>580.0</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C140" s="7">
+        <v>240.0</v>
+      </c>
+      <c r="D140" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E140" s="4"/>
@@ -5399,16 +5384,16 @@
       <c r="Z140" s="4"/>
     </row>
     <row r="141">
-      <c r="A141" s="6">
-        <v>615.0</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C141" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D141" s="5" t="s">
+      <c r="A141" s="1">
+        <v>583.0</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C141" s="3">
+        <v>320.0</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E141" s="4"/>
@@ -5436,13 +5421,13 @@
     </row>
     <row r="142">
       <c r="A142" s="1">
-        <v>617.0</v>
+        <v>584.0</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C142" s="3">
-        <v>330.0</v>
+        <v>270.0</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>3</v>
@@ -5471,16 +5456,16 @@
       <c r="Z142" s="4"/>
     </row>
     <row r="143">
-      <c r="A143" s="6">
-        <v>618.0</v>
-      </c>
-      <c r="B143" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C143" s="7">
-        <v>330.0</v>
-      </c>
-      <c r="D143" s="5" t="s">
+      <c r="A143" s="1">
+        <v>586.0</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C143" s="3">
+        <v>240.0</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E143" s="4"/>
@@ -5507,16 +5492,16 @@
       <c r="Z143" s="4"/>
     </row>
     <row r="144">
-      <c r="A144" s="1">
-        <v>623.0</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C144" s="3">
-        <v>290.0</v>
-      </c>
-      <c r="D144" s="2" t="s">
+      <c r="A144" s="6">
+        <v>587.0</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144" s="7">
+        <v>265.0</v>
+      </c>
+      <c r="D144" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E144" s="4"/>
@@ -5543,16 +5528,16 @@
       <c r="Z144" s="4"/>
     </row>
     <row r="145">
-      <c r="A145" s="6">
-        <v>624.0</v>
-      </c>
-      <c r="B145" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C145" s="7">
-        <v>310.0</v>
-      </c>
-      <c r="D145" s="5" t="s">
+      <c r="A145" s="1">
+        <v>593.0</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C145" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D145" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E145" s="4"/>
@@ -5579,16 +5564,16 @@
       <c r="Z145" s="4"/>
     </row>
     <row r="146">
-      <c r="A146" s="1">
-        <v>625.0</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C146" s="3">
-        <v>320.0</v>
-      </c>
-      <c r="D146" s="2" t="s">
+      <c r="A146" s="6">
+        <v>599.0</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C146" s="7">
+        <v>280.0</v>
+      </c>
+      <c r="D146" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E146" s="4"/>
@@ -5616,13 +5601,13 @@
     </row>
     <row r="147">
       <c r="A147" s="1">
-        <v>626.0</v>
+        <v>604.0</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C147" s="3">
-        <v>305.0</v>
+        <v>295.0</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>3</v>
@@ -5652,7 +5637,7 @@
     </row>
     <row r="148">
       <c r="A148" s="1">
-        <v>635.0</v>
+        <v>604.0</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>3</v>
@@ -5688,13 +5673,13 @@
     </row>
     <row r="149">
       <c r="A149" s="6">
-        <v>640.0</v>
+        <v>610.0</v>
       </c>
       <c r="B149" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C149" s="7">
-        <v>275.0</v>
+      <c r="C149" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="D149" s="5" t="s">
         <v>3</v>
@@ -5724,13 +5709,13 @@
     </row>
     <row r="150">
       <c r="A150" s="1">
-        <v>642.0</v>
+        <v>612.0</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C150" s="3">
-        <v>270.0</v>
+        <v>255.0</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>3</v>
@@ -5759,16 +5744,16 @@
       <c r="Z150" s="4"/>
     </row>
     <row r="151">
-      <c r="A151" s="1">
-        <v>643.0</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C151" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D151" s="2" t="s">
+      <c r="A151" s="6">
+        <v>615.0</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D151" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E151" s="4"/>
@@ -5795,14 +5780,14 @@
       <c r="Z151" s="4"/>
     </row>
     <row r="152">
-      <c r="A152" s="6">
-        <v>651.0</v>
+      <c r="A152" s="1">
+        <v>617.0</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C152" s="7">
-        <v>230.0</v>
+      <c r="C152" s="3">
+        <v>330.0</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>3</v>
@@ -5831,16 +5816,16 @@
       <c r="Z152" s="4"/>
     </row>
     <row r="153">
-      <c r="A153" s="1">
-        <v>652.0</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C153" s="3">
+      <c r="A153" s="6">
+        <v>618.0</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C153" s="7">
         <v>330.0</v>
       </c>
-      <c r="D153" s="2" t="s">
+      <c r="D153" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E153" s="4"/>
@@ -5868,13 +5853,13 @@
     </row>
     <row r="154">
       <c r="A154" s="1">
-        <v>663.0</v>
+        <v>623.0</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C154" s="3">
-        <v>265.0</v>
+        <v>290.0</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>3</v>
@@ -5904,13 +5889,13 @@
     </row>
     <row r="155">
       <c r="A155" s="6">
-        <v>666.0</v>
+        <v>624.0</v>
       </c>
       <c r="B155" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C155" s="7">
-        <v>300.0</v>
+        <v>310.0</v>
       </c>
       <c r="D155" s="5" t="s">
         <v>3</v>
@@ -5940,13 +5925,13 @@
     </row>
     <row r="156">
       <c r="A156" s="1">
-        <v>668.0</v>
+        <v>625.0</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C156" s="3">
-        <v>305.0</v>
+        <v>320.0</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>3</v>
@@ -5975,16 +5960,18 @@
       <c r="Z156" s="4"/>
     </row>
     <row r="157">
-      <c r="A157" s="6">
-        <v>669.0</v>
-      </c>
-      <c r="B157" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C157" s="7">
-        <v>310.0</v>
-      </c>
-      <c r="D157" s="2"/>
+      <c r="A157" s="1">
+        <v>626.0</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C157" s="3">
+        <v>305.0</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
       <c r="G157" s="4"/>
@@ -6010,13 +5997,13 @@
     </row>
     <row r="158">
       <c r="A158" s="1">
-        <v>670.0</v>
+        <v>635.0</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C158" s="3">
-        <v>250.0</v>
+        <v>295.0</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>3</v>
@@ -6045,16 +6032,16 @@
       <c r="Z158" s="4"/>
     </row>
     <row r="159">
-      <c r="A159" s="1">
-        <v>671.0</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C159" s="3">
-        <v>305.0</v>
-      </c>
-      <c r="D159" s="2" t="s">
+      <c r="A159" s="6">
+        <v>640.0</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C159" s="7">
+        <v>275.0</v>
+      </c>
+      <c r="D159" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E159" s="4"/>
@@ -6082,13 +6069,13 @@
     </row>
     <row r="160">
       <c r="A160" s="1">
-        <v>672.0</v>
+        <v>642.0</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C160" s="3">
-        <v>295.0</v>
+        <v>270.0</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>3</v>
@@ -6117,16 +6104,16 @@
       <c r="Z160" s="4"/>
     </row>
     <row r="161">
-      <c r="A161" s="6">
-        <v>676.0</v>
-      </c>
-      <c r="B161" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C161" s="7">
-        <v>335.0</v>
-      </c>
-      <c r="D161" s="5" t="s">
+      <c r="A161" s="1">
+        <v>643.0</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C161" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D161" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E161" s="4"/>
@@ -6153,14 +6140,14 @@
       <c r="Z161" s="4"/>
     </row>
     <row r="162">
-      <c r="A162" s="1">
-        <v>680.0</v>
+      <c r="A162" s="6">
+        <v>651.0</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C162" s="3">
-        <v>285.0</v>
+      <c r="C162" s="7">
+        <v>230.0</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>3</v>
@@ -6190,13 +6177,13 @@
     </row>
     <row r="163">
       <c r="A163" s="1">
-        <v>688.0</v>
+        <v>652.0</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C163" s="3">
-        <v>310.0</v>
+        <v>330.0</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>3</v>
@@ -6225,14 +6212,14 @@
       <c r="Z163" s="4"/>
     </row>
     <row r="164">
-      <c r="A164" s="8">
-        <v>692.0</v>
+      <c r="A164" s="1">
+        <v>663.0</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C164" s="8">
-        <v>300.0</v>
+      <c r="C164" s="3">
+        <v>265.0</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>3</v>
@@ -6261,16 +6248,16 @@
       <c r="Z164" s="4"/>
     </row>
     <row r="165">
-      <c r="A165" s="1">
-        <v>696.0</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C165" s="3">
+      <c r="A165" s="6">
+        <v>666.0</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C165" s="7">
         <v>300.0</v>
       </c>
-      <c r="D165" s="2" t="s">
+      <c r="D165" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E165" s="4"/>
@@ -6297,16 +6284,16 @@
       <c r="Z165" s="4"/>
     </row>
     <row r="166">
-      <c r="A166" s="6">
-        <v>712.0</v>
-      </c>
-      <c r="B166" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C166" s="7">
-        <v>295.0</v>
-      </c>
-      <c r="D166" s="5" t="s">
+      <c r="A166" s="1">
+        <v>668.0</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C166" s="3">
+        <v>305.0</v>
+      </c>
+      <c r="D166" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E166" s="4"/>
@@ -6334,7 +6321,7 @@
     </row>
     <row r="167">
       <c r="A167" s="6">
-        <v>713.0</v>
+        <v>669.0</v>
       </c>
       <c r="B167" s="5" t="s">
         <v>3</v>
@@ -6342,9 +6329,7 @@
       <c r="C167" s="7">
         <v>310.0</v>
       </c>
-      <c r="D167" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="D167" s="2"/>
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
       <c r="G167" s="4"/>
@@ -6370,13 +6355,13 @@
     </row>
     <row r="168">
       <c r="A168" s="1">
-        <v>714.0</v>
+        <v>670.0</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C168" s="3">
-        <v>275.0</v>
+        <v>250.0</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>3</v>
@@ -6406,13 +6391,13 @@
     </row>
     <row r="169">
       <c r="A169" s="1">
-        <v>718.0</v>
+        <v>671.0</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C169" s="3">
-        <v>330.0</v>
+        <v>305.0</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>3</v>
@@ -6442,13 +6427,13 @@
     </row>
     <row r="170">
       <c r="A170" s="1">
-        <v>719.0</v>
+        <v>672.0</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C170" s="3">
-        <v>280.0</v>
+        <v>295.0</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>3</v>
@@ -6478,13 +6463,13 @@
     </row>
     <row r="171">
       <c r="A171" s="6">
-        <v>725.0</v>
+        <v>676.0</v>
       </c>
       <c r="B171" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C171" s="7" t="s">
-        <v>16</v>
+      <c r="C171" s="7">
+        <v>335.0</v>
       </c>
       <c r="D171" s="5" t="s">
         <v>3</v>
@@ -6514,13 +6499,13 @@
     </row>
     <row r="172">
       <c r="A172" s="1">
-        <v>732.0</v>
+        <v>680.0</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C172" s="3">
-        <v>280.0</v>
+        <v>285.0</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>3</v>
@@ -6550,13 +6535,13 @@
     </row>
     <row r="173">
       <c r="A173" s="1">
-        <v>733.0</v>
+        <v>688.0</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C173" s="3">
-        <v>320.0</v>
+        <v>310.0</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>3</v>
@@ -6585,14 +6570,14 @@
       <c r="Z173" s="4"/>
     </row>
     <row r="174">
-      <c r="A174" s="1">
-        <v>736.0</v>
+      <c r="A174" s="8">
+        <v>692.0</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C174" s="3">
-        <v>250.0</v>
+      <c r="C174" s="8">
+        <v>300.0</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>3</v>
@@ -6622,13 +6607,13 @@
     </row>
     <row r="175">
       <c r="A175" s="1">
-        <v>744.0</v>
+        <v>696.0</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C175" s="3">
-        <v>270.0</v>
+        <v>300.0</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>3</v>
@@ -6657,16 +6642,16 @@
       <c r="Z175" s="4"/>
     </row>
     <row r="176">
-      <c r="A176" s="1">
-        <v>747.0</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C176" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D176" s="2" t="s">
+      <c r="A176" s="6">
+        <v>712.0</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C176" s="7">
+        <v>295.0</v>
+      </c>
+      <c r="D176" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E176" s="4"/>
@@ -6694,13 +6679,13 @@
     </row>
     <row r="177">
       <c r="A177" s="6">
-        <v>748.0</v>
+        <v>713.0</v>
       </c>
       <c r="B177" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C177" s="7">
-        <v>230.0</v>
+        <v>310.0</v>
       </c>
       <c r="D177" s="5" t="s">
         <v>3</v>
@@ -6730,13 +6715,13 @@
     </row>
     <row r="178">
       <c r="A178" s="1">
-        <v>749.0</v>
+        <v>714.0</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C178" s="3">
-        <v>335.0</v>
+        <v>275.0</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>3</v>
@@ -6765,16 +6750,16 @@
       <c r="Z178" s="4"/>
     </row>
     <row r="179">
-      <c r="A179" s="6">
-        <v>757.0</v>
-      </c>
-      <c r="B179" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C179" s="7">
-        <v>280.0</v>
-      </c>
-      <c r="D179" s="5" t="s">
+      <c r="A179" s="1">
+        <v>718.0</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C179" s="3">
+        <v>330.0</v>
+      </c>
+      <c r="D179" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E179" s="4"/>
@@ -6802,13 +6787,13 @@
     </row>
     <row r="180">
       <c r="A180" s="1">
-        <v>758.0</v>
+        <v>719.0</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C180" s="3">
-        <v>295.0</v>
+        <v>280.0</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>3</v>
@@ -6837,16 +6822,16 @@
       <c r="Z180" s="4"/>
     </row>
     <row r="181">
-      <c r="A181" s="1">
-        <v>767.0</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C181" s="3">
-        <v>290.0</v>
-      </c>
-      <c r="D181" s="2" t="s">
+      <c r="A181" s="6">
+        <v>725.0</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C181" s="7">
+        <v>245.0</v>
+      </c>
+      <c r="D181" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E181" s="4"/>
@@ -6873,16 +6858,16 @@
       <c r="Z181" s="4"/>
     </row>
     <row r="182">
-      <c r="A182" s="6">
-        <v>772.0</v>
-      </c>
-      <c r="B182" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C182" s="7">
-        <v>240.0</v>
-      </c>
-      <c r="D182" s="5" t="s">
+      <c r="A182" s="1">
+        <v>732.0</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C182" s="3">
+        <v>280.0</v>
+      </c>
+      <c r="D182" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E182" s="4"/>
@@ -6910,13 +6895,13 @@
     </row>
     <row r="183">
       <c r="A183" s="1">
-        <v>775.0</v>
+        <v>733.0</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C183" s="3">
-        <v>260.0</v>
+        <v>320.0</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>3</v>
@@ -6945,16 +6930,16 @@
       <c r="Z183" s="4"/>
     </row>
     <row r="184">
-      <c r="A184" s="6">
-        <v>776.0</v>
-      </c>
-      <c r="B184" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C184" s="7">
-        <v>240.0</v>
-      </c>
-      <c r="D184" s="5" t="s">
+      <c r="A184" s="1">
+        <v>736.0</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C184" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D184" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E184" s="4"/>
@@ -6982,13 +6967,13 @@
     </row>
     <row r="185">
       <c r="A185" s="1">
-        <v>777.0</v>
+        <v>744.0</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C185" s="3">
-        <v>310.0</v>
+        <v>270.0</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>3</v>
@@ -7018,13 +7003,13 @@
     </row>
     <row r="186">
       <c r="A186" s="1">
-        <v>792.0</v>
+        <v>747.0</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C186" s="3">
-        <v>320.0</v>
+        <v>250.0</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>3</v>
@@ -7054,13 +7039,13 @@
     </row>
     <row r="187">
       <c r="A187" s="6">
-        <v>784.0</v>
+        <v>748.0</v>
       </c>
       <c r="B187" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C187" s="7" t="s">
-        <v>17</v>
+      <c r="C187" s="7">
+        <v>230.0</v>
       </c>
       <c r="D187" s="5" t="s">
         <v>3</v>
@@ -7089,16 +7074,16 @@
       <c r="Z187" s="4"/>
     </row>
     <row r="188">
-      <c r="A188" s="6">
-        <v>789.0</v>
-      </c>
-      <c r="B188" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C188" s="7">
-        <v>265.0</v>
-      </c>
-      <c r="D188" s="5" t="s">
+      <c r="A188" s="1">
+        <v>749.0</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C188" s="3">
+        <v>335.0</v>
+      </c>
+      <c r="D188" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E188" s="4"/>
@@ -7125,16 +7110,16 @@
       <c r="Z188" s="4"/>
     </row>
     <row r="189">
-      <c r="A189" s="1">
-        <v>795.0</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C189" s="3">
-        <v>255.0</v>
-      </c>
-      <c r="D189" s="2" t="s">
+      <c r="A189" s="6">
+        <v>757.0</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C189" s="7">
+        <v>280.0</v>
+      </c>
+      <c r="D189" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E189" s="4"/>
@@ -7162,13 +7147,13 @@
     </row>
     <row r="190">
       <c r="A190" s="1">
-        <v>801.0</v>
+        <v>758.0</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C190" s="3">
-        <v>230.0</v>
+        <v>295.0</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>3</v>
@@ -7197,16 +7182,16 @@
       <c r="Z190" s="4"/>
     </row>
     <row r="191">
-      <c r="A191" s="6">
-        <v>806.0</v>
-      </c>
-      <c r="B191" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C191" s="7">
-        <v>280.0</v>
-      </c>
-      <c r="D191" s="5" t="s">
+      <c r="A191" s="1">
+        <v>767.0</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C191" s="3">
+        <v>290.0</v>
+      </c>
+      <c r="D191" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E191" s="4"/>
@@ -7233,16 +7218,16 @@
       <c r="Z191" s="4"/>
     </row>
     <row r="192">
-      <c r="A192" s="1">
-        <v>809.0</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C192" s="3">
-        <v>270.0</v>
-      </c>
-      <c r="D192" s="2" t="s">
+      <c r="A192" s="6">
+        <v>772.0</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C192" s="7">
+        <v>240.0</v>
+      </c>
+      <c r="D192" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E192" s="4"/>
@@ -7270,7 +7255,7 @@
     </row>
     <row r="193">
       <c r="A193" s="1">
-        <v>811.0</v>
+        <v>775.0</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>3</v>
@@ -7306,13 +7291,13 @@
     </row>
     <row r="194">
       <c r="A194" s="6">
-        <v>817.0</v>
+        <v>776.0</v>
       </c>
       <c r="B194" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C194" s="7" t="s">
-        <v>18</v>
+      <c r="C194" s="7">
+        <v>240.0</v>
       </c>
       <c r="D194" s="5" t="s">
         <v>3</v>
@@ -7342,13 +7327,13 @@
     </row>
     <row r="195">
       <c r="A195" s="1">
-        <v>819.0</v>
+        <v>777.0</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C195" s="3">
-        <v>200.0</v>
+        <v>310.0</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>3</v>
@@ -7378,13 +7363,13 @@
     </row>
     <row r="196">
       <c r="A196" s="1">
-        <v>820.0</v>
+        <v>792.0</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C196" s="3">
-        <v>245.0</v>
+        <v>320.0</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>3</v>
@@ -7413,16 +7398,16 @@
       <c r="Z196" s="4"/>
     </row>
     <row r="197">
-      <c r="A197" s="1">
-        <v>821.0</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C197" s="3">
-        <v>300.0</v>
-      </c>
-      <c r="D197" s="2" t="s">
+      <c r="A197" s="6">
+        <v>784.0</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C197" s="7">
+        <v>270.0</v>
+      </c>
+      <c r="D197" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E197" s="4"/>
@@ -7450,13 +7435,13 @@
     </row>
     <row r="198">
       <c r="A198" s="6">
-        <v>829.0</v>
+        <v>789.0</v>
       </c>
       <c r="B198" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C198" s="7">
-        <v>275.0</v>
+        <v>265.0</v>
       </c>
       <c r="D198" s="5" t="s">
         <v>3</v>
@@ -7485,16 +7470,16 @@
       <c r="Z198" s="4"/>
     </row>
     <row r="199">
-      <c r="A199" s="6">
-        <v>833.0</v>
-      </c>
-      <c r="B199" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C199" s="7">
-        <v>235.0</v>
-      </c>
-      <c r="D199" s="5" t="s">
+      <c r="A199" s="1">
+        <v>795.0</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C199" s="3">
+        <v>255.0</v>
+      </c>
+      <c r="D199" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E199" s="4"/>
@@ -7522,13 +7507,13 @@
     </row>
     <row r="200">
       <c r="A200" s="6">
-        <v>834.0</v>
+        <v>797.0</v>
       </c>
       <c r="B200" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C200" s="7">
-        <v>225.0</v>
+        <v>325.0</v>
       </c>
       <c r="D200" s="5" t="s">
         <v>3</v>
@@ -7557,16 +7542,16 @@
       <c r="Z200" s="4"/>
     </row>
     <row r="201">
-      <c r="A201" s="6">
-        <v>837.0</v>
-      </c>
-      <c r="B201" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C201" s="7">
-        <v>275.0</v>
-      </c>
-      <c r="D201" s="5" t="s">
+      <c r="A201" s="1">
+        <v>801.0</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C201" s="3">
+        <v>230.0</v>
+      </c>
+      <c r="D201" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E201" s="4"/>
@@ -7594,13 +7579,13 @@
     </row>
     <row r="202">
       <c r="A202" s="6">
-        <v>838.0</v>
+        <v>806.0</v>
       </c>
       <c r="B202" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C202" s="7">
-        <v>295.0</v>
+        <v>280.0</v>
       </c>
       <c r="D202" s="5" t="s">
         <v>3</v>
@@ -7629,16 +7614,16 @@
       <c r="Z202" s="4"/>
     </row>
     <row r="203">
-      <c r="A203" s="6">
-        <v>843.0</v>
-      </c>
-      <c r="B203" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C203" s="7">
-        <v>320.0</v>
-      </c>
-      <c r="D203" s="5" t="s">
+      <c r="A203" s="1">
+        <v>809.0</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C203" s="3">
+        <v>270.0</v>
+      </c>
+      <c r="D203" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E203" s="4"/>
@@ -7666,13 +7651,13 @@
     </row>
     <row r="204">
       <c r="A204" s="1">
-        <v>846.0</v>
+        <v>811.0</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C204" s="3">
-        <v>295.0</v>
+        <v>260.0</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>3</v>
@@ -7701,16 +7686,16 @@
       <c r="Z204" s="4"/>
     </row>
     <row r="205">
-      <c r="A205" s="1">
-        <v>853.0</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C205" s="3">
-        <v>290.0</v>
-      </c>
-      <c r="D205" s="2" t="s">
+      <c r="A205" s="6">
+        <v>813.0</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C205" s="7">
+        <v>275.0</v>
+      </c>
+      <c r="D205" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E205" s="4"/>
@@ -7737,16 +7722,16 @@
       <c r="Z205" s="4"/>
     </row>
     <row r="206">
-      <c r="A206" s="1">
-        <v>856.0</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C206" s="3">
-        <v>260.0</v>
-      </c>
-      <c r="D206" s="2" t="s">
+      <c r="A206" s="6">
+        <v>817.0</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C206" s="7">
+        <v>330.0</v>
+      </c>
+      <c r="D206" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E206" s="4"/>
@@ -7774,13 +7759,13 @@
     </row>
     <row r="207">
       <c r="A207" s="1">
-        <v>861.0</v>
+        <v>819.0</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C207" s="3">
-        <v>305.0</v>
+        <v>200.0</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>3</v>
@@ -7810,13 +7795,13 @@
     </row>
     <row r="208">
       <c r="A208" s="1">
-        <v>863.0</v>
+        <v>820.0</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C208" s="3">
-        <v>275.0</v>
+        <v>245.0</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>3</v>
@@ -7846,13 +7831,13 @@
     </row>
     <row r="209">
       <c r="A209" s="1">
-        <v>872.0</v>
+        <v>821.0</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C209" s="3">
-        <v>295.0</v>
+        <v>300.0</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>3</v>
@@ -7882,13 +7867,13 @@
     </row>
     <row r="210">
       <c r="A210" s="6">
-        <v>876.0</v>
+        <v>827.0</v>
       </c>
       <c r="B210" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C210" s="7">
-        <v>250.0</v>
+      <c r="C210" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="D210" s="5" t="s">
         <v>3</v>
@@ -7917,16 +7902,16 @@
       <c r="Z210" s="4"/>
     </row>
     <row r="211">
-      <c r="A211" s="1">
-        <v>880.0</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C211" s="3">
-        <v>225.0</v>
-      </c>
-      <c r="D211" s="2" t="s">
+      <c r="A211" s="6">
+        <v>829.0</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C211" s="7">
+        <v>275.0</v>
+      </c>
+      <c r="D211" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E211" s="4"/>
@@ -7954,13 +7939,13 @@
     </row>
     <row r="212">
       <c r="A212" s="6">
-        <v>886.0</v>
+        <v>833.0</v>
       </c>
       <c r="B212" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C212" s="7">
-        <v>230.0</v>
+        <v>235.0</v>
       </c>
       <c r="D212" s="5" t="s">
         <v>3</v>
@@ -7989,16 +7974,16 @@
       <c r="Z212" s="4"/>
     </row>
     <row r="213">
-      <c r="A213" s="1">
-        <v>899.0</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C213" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D213" s="2" t="s">
+      <c r="A213" s="6">
+        <v>834.0</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C213" s="7">
+        <v>225.0</v>
+      </c>
+      <c r="D213" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E213" s="4"/>
@@ -8025,16 +8010,16 @@
       <c r="Z213" s="4"/>
     </row>
     <row r="214">
-      <c r="A214" s="1">
-        <v>901.0</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C214" s="3">
+      <c r="A214" s="6">
+        <v>837.0</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C214" s="7">
         <v>275.0</v>
       </c>
-      <c r="D214" s="2" t="s">
+      <c r="D214" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E214" s="4"/>
@@ -8062,13 +8047,13 @@
     </row>
     <row r="215">
       <c r="A215" s="6">
-        <v>910.0</v>
+        <v>838.0</v>
       </c>
       <c r="B215" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C215" s="7">
-        <v>330.0</v>
+        <v>295.0</v>
       </c>
       <c r="D215" s="5" t="s">
         <v>3</v>
@@ -8097,14 +8082,14 @@
       <c r="Z215" s="4"/>
     </row>
     <row r="216">
-      <c r="A216" s="1">
-        <v>935.0</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C216" s="3">
-        <v>310.0</v>
+      <c r="A216" s="6">
+        <v>843.0</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C216" s="7">
+        <v>320.0</v>
       </c>
       <c r="D216" s="5" t="s">
         <v>3</v>
@@ -8133,16 +8118,16 @@
       <c r="Z216" s="4"/>
     </row>
     <row r="217">
-      <c r="A217" s="5">
-        <v>1000.0</v>
-      </c>
-      <c r="B217" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C217" s="5">
-        <v>2000.0</v>
-      </c>
-      <c r="D217" s="5" t="s">
+      <c r="A217" s="1">
+        <v>846.0</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C217" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D217" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E217" s="4"/>
@@ -8169,10 +8154,18 @@
       <c r="Z217" s="4"/>
     </row>
     <row r="218">
-      <c r="A218" s="2"/>
-      <c r="B218" s="2"/>
-      <c r="C218" s="2"/>
-      <c r="D218" s="2"/>
+      <c r="A218" s="1">
+        <v>853.0</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C218" s="3">
+        <v>290.0</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E218" s="4"/>
       <c r="F218" s="4"/>
       <c r="G218" s="4"/>
@@ -8197,10 +8190,18 @@
       <c r="Z218" s="4"/>
     </row>
     <row r="219">
-      <c r="A219" s="2"/>
-      <c r="B219" s="2"/>
-      <c r="C219" s="2"/>
-      <c r="D219" s="2"/>
+      <c r="A219" s="1">
+        <v>856.0</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C219" s="3">
+        <v>260.0</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E219" s="4"/>
       <c r="F219" s="4"/>
       <c r="G219" s="4"/>
@@ -8225,10 +8226,18 @@
       <c r="Z219" s="4"/>
     </row>
     <row r="220">
-      <c r="A220" s="2"/>
-      <c r="B220" s="2"/>
-      <c r="C220" s="2"/>
-      <c r="D220" s="2"/>
+      <c r="A220" s="1">
+        <v>861.0</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C220" s="3">
+        <v>305.0</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E220" s="4"/>
       <c r="F220" s="4"/>
       <c r="G220" s="4"/>
@@ -8253,10 +8262,18 @@
       <c r="Z220" s="4"/>
     </row>
     <row r="221">
-      <c r="A221" s="2"/>
-      <c r="B221" s="2"/>
-      <c r="C221" s="2"/>
-      <c r="D221" s="2"/>
+      <c r="A221" s="1">
+        <v>863.0</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C221" s="3">
+        <v>275.0</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E221" s="4"/>
       <c r="F221" s="4"/>
       <c r="G221" s="4"/>
@@ -8281,10 +8298,18 @@
       <c r="Z221" s="4"/>
     </row>
     <row r="222">
-      <c r="A222" s="2"/>
-      <c r="B222" s="2"/>
-      <c r="C222" s="2"/>
-      <c r="D222" s="2"/>
+      <c r="A222" s="1">
+        <v>872.0</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C222" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E222" s="4"/>
       <c r="F222" s="4"/>
       <c r="G222" s="4"/>
@@ -8309,10 +8334,18 @@
       <c r="Z222" s="4"/>
     </row>
     <row r="223">
-      <c r="A223" s="2"/>
-      <c r="B223" s="2"/>
-      <c r="C223" s="2"/>
-      <c r="D223" s="2"/>
+      <c r="A223" s="6">
+        <v>876.0</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C223" s="7">
+        <v>250.0</v>
+      </c>
+      <c r="D223" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E223" s="4"/>
       <c r="F223" s="4"/>
       <c r="G223" s="4"/>
@@ -8337,10 +8370,18 @@
       <c r="Z223" s="4"/>
     </row>
     <row r="224">
-      <c r="A224" s="2"/>
-      <c r="B224" s="2"/>
-      <c r="C224" s="2"/>
-      <c r="D224" s="2"/>
+      <c r="A224" s="1">
+        <v>880.0</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C224" s="3">
+        <v>225.0</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E224" s="4"/>
       <c r="F224" s="4"/>
       <c r="G224" s="4"/>
@@ -8365,10 +8406,18 @@
       <c r="Z224" s="4"/>
     </row>
     <row r="225">
-      <c r="A225" s="2"/>
-      <c r="B225" s="2"/>
-      <c r="C225" s="2"/>
-      <c r="D225" s="2"/>
+      <c r="A225" s="6">
+        <v>886.0</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C225" s="7">
+        <v>230.0</v>
+      </c>
+      <c r="D225" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E225" s="4"/>
       <c r="F225" s="4"/>
       <c r="G225" s="4"/>
@@ -8393,10 +8442,18 @@
       <c r="Z225" s="4"/>
     </row>
     <row r="226">
-      <c r="A226" s="2"/>
-      <c r="B226" s="2"/>
-      <c r="C226" s="2"/>
-      <c r="D226" s="2"/>
+      <c r="A226" s="1">
+        <v>899.0</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C226" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E226" s="4"/>
       <c r="F226" s="4"/>
       <c r="G226" s="4"/>
@@ -8421,10 +8478,18 @@
       <c r="Z226" s="4"/>
     </row>
     <row r="227">
-      <c r="A227" s="2"/>
-      <c r="B227" s="2"/>
-      <c r="C227" s="2"/>
-      <c r="D227" s="2"/>
+      <c r="A227" s="1">
+        <v>901.0</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C227" s="3">
+        <v>275.0</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E227" s="4"/>
       <c r="F227" s="4"/>
       <c r="G227" s="4"/>
@@ -8449,10 +8514,18 @@
       <c r="Z227" s="4"/>
     </row>
     <row r="228">
-      <c r="A228" s="2"/>
-      <c r="B228" s="2"/>
-      <c r="C228" s="2"/>
-      <c r="D228" s="2"/>
+      <c r="A228" s="6">
+        <v>910.0</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C228" s="7">
+        <v>330.0</v>
+      </c>
+      <c r="D228" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E228" s="4"/>
       <c r="F228" s="4"/>
       <c r="G228" s="4"/>
@@ -8477,10 +8550,18 @@
       <c r="Z228" s="4"/>
     </row>
     <row r="229">
-      <c r="A229" s="2"/>
-      <c r="B229" s="2"/>
-      <c r="C229" s="2"/>
-      <c r="D229" s="2"/>
+      <c r="A229" s="1">
+        <v>935.0</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C229" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D229" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E229" s="4"/>
       <c r="F229" s="4"/>
       <c r="G229" s="4"/>
@@ -8505,10 +8586,18 @@
       <c r="Z229" s="4"/>
     </row>
     <row r="230">
-      <c r="A230" s="2"/>
-      <c r="B230" s="2"/>
-      <c r="C230" s="2"/>
-      <c r="D230" s="2"/>
+      <c r="A230" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C230" s="5">
+        <v>2000.0</v>
+      </c>
+      <c r="D230" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E230" s="4"/>
       <c r="F230" s="4"/>
       <c r="G230" s="4"/>
@@ -32305,10 +32394,10 @@
       <c r="Z1079" s="4"/>
     </row>
     <row r="1080">
-      <c r="A1080" s="4"/>
-      <c r="B1080" s="4"/>
-      <c r="C1080" s="4"/>
-      <c r="D1080" s="4"/>
+      <c r="A1080" s="2"/>
+      <c r="B1080" s="2"/>
+      <c r="C1080" s="2"/>
+      <c r="D1080" s="2"/>
       <c r="E1080" s="4"/>
       <c r="F1080" s="4"/>
       <c r="G1080" s="4"/>
@@ -32332,6 +32421,370 @@
       <c r="Y1080" s="4"/>
       <c r="Z1080" s="4"/>
     </row>
+    <row r="1081">
+      <c r="A1081" s="2"/>
+      <c r="B1081" s="2"/>
+      <c r="C1081" s="2"/>
+      <c r="D1081" s="2"/>
+      <c r="E1081" s="4"/>
+      <c r="F1081" s="4"/>
+      <c r="G1081" s="4"/>
+      <c r="H1081" s="4"/>
+      <c r="I1081" s="4"/>
+      <c r="J1081" s="4"/>
+      <c r="K1081" s="4"/>
+      <c r="L1081" s="4"/>
+      <c r="M1081" s="4"/>
+      <c r="N1081" s="4"/>
+      <c r="O1081" s="4"/>
+      <c r="P1081" s="4"/>
+      <c r="Q1081" s="4"/>
+      <c r="R1081" s="4"/>
+      <c r="S1081" s="4"/>
+      <c r="T1081" s="4"/>
+      <c r="U1081" s="4"/>
+      <c r="V1081" s="4"/>
+      <c r="W1081" s="4"/>
+      <c r="X1081" s="4"/>
+      <c r="Y1081" s="4"/>
+      <c r="Z1081" s="4"/>
+    </row>
+    <row r="1082">
+      <c r="A1082" s="2"/>
+      <c r="B1082" s="2"/>
+      <c r="C1082" s="2"/>
+      <c r="D1082" s="2"/>
+      <c r="E1082" s="4"/>
+      <c r="F1082" s="4"/>
+      <c r="G1082" s="4"/>
+      <c r="H1082" s="4"/>
+      <c r="I1082" s="4"/>
+      <c r="J1082" s="4"/>
+      <c r="K1082" s="4"/>
+      <c r="L1082" s="4"/>
+      <c r="M1082" s="4"/>
+      <c r="N1082" s="4"/>
+      <c r="O1082" s="4"/>
+      <c r="P1082" s="4"/>
+      <c r="Q1082" s="4"/>
+      <c r="R1082" s="4"/>
+      <c r="S1082" s="4"/>
+      <c r="T1082" s="4"/>
+      <c r="U1082" s="4"/>
+      <c r="V1082" s="4"/>
+      <c r="W1082" s="4"/>
+      <c r="X1082" s="4"/>
+      <c r="Y1082" s="4"/>
+      <c r="Z1082" s="4"/>
+    </row>
+    <row r="1083">
+      <c r="A1083" s="2"/>
+      <c r="B1083" s="2"/>
+      <c r="C1083" s="2"/>
+      <c r="D1083" s="2"/>
+      <c r="E1083" s="4"/>
+      <c r="F1083" s="4"/>
+      <c r="G1083" s="4"/>
+      <c r="H1083" s="4"/>
+      <c r="I1083" s="4"/>
+      <c r="J1083" s="4"/>
+      <c r="K1083" s="4"/>
+      <c r="L1083" s="4"/>
+      <c r="M1083" s="4"/>
+      <c r="N1083" s="4"/>
+      <c r="O1083" s="4"/>
+      <c r="P1083" s="4"/>
+      <c r="Q1083" s="4"/>
+      <c r="R1083" s="4"/>
+      <c r="S1083" s="4"/>
+      <c r="T1083" s="4"/>
+      <c r="U1083" s="4"/>
+      <c r="V1083" s="4"/>
+      <c r="W1083" s="4"/>
+      <c r="X1083" s="4"/>
+      <c r="Y1083" s="4"/>
+      <c r="Z1083" s="4"/>
+    </row>
+    <row r="1084">
+      <c r="A1084" s="2"/>
+      <c r="B1084" s="2"/>
+      <c r="C1084" s="2"/>
+      <c r="D1084" s="2"/>
+      <c r="E1084" s="4"/>
+      <c r="F1084" s="4"/>
+      <c r="G1084" s="4"/>
+      <c r="H1084" s="4"/>
+      <c r="I1084" s="4"/>
+      <c r="J1084" s="4"/>
+      <c r="K1084" s="4"/>
+      <c r="L1084" s="4"/>
+      <c r="M1084" s="4"/>
+      <c r="N1084" s="4"/>
+      <c r="O1084" s="4"/>
+      <c r="P1084" s="4"/>
+      <c r="Q1084" s="4"/>
+      <c r="R1084" s="4"/>
+      <c r="S1084" s="4"/>
+      <c r="T1084" s="4"/>
+      <c r="U1084" s="4"/>
+      <c r="V1084" s="4"/>
+      <c r="W1084" s="4"/>
+      <c r="X1084" s="4"/>
+      <c r="Y1084" s="4"/>
+      <c r="Z1084" s="4"/>
+    </row>
+    <row r="1085">
+      <c r="A1085" s="2"/>
+      <c r="B1085" s="2"/>
+      <c r="C1085" s="2"/>
+      <c r="D1085" s="2"/>
+      <c r="E1085" s="4"/>
+      <c r="F1085" s="4"/>
+      <c r="G1085" s="4"/>
+      <c r="H1085" s="4"/>
+      <c r="I1085" s="4"/>
+      <c r="J1085" s="4"/>
+      <c r="K1085" s="4"/>
+      <c r="L1085" s="4"/>
+      <c r="M1085" s="4"/>
+      <c r="N1085" s="4"/>
+      <c r="O1085" s="4"/>
+      <c r="P1085" s="4"/>
+      <c r="Q1085" s="4"/>
+      <c r="R1085" s="4"/>
+      <c r="S1085" s="4"/>
+      <c r="T1085" s="4"/>
+      <c r="U1085" s="4"/>
+      <c r="V1085" s="4"/>
+      <c r="W1085" s="4"/>
+      <c r="X1085" s="4"/>
+      <c r="Y1085" s="4"/>
+      <c r="Z1085" s="4"/>
+    </row>
+    <row r="1086">
+      <c r="A1086" s="2"/>
+      <c r="B1086" s="2"/>
+      <c r="C1086" s="2"/>
+      <c r="D1086" s="2"/>
+      <c r="E1086" s="4"/>
+      <c r="F1086" s="4"/>
+      <c r="G1086" s="4"/>
+      <c r="H1086" s="4"/>
+      <c r="I1086" s="4"/>
+      <c r="J1086" s="4"/>
+      <c r="K1086" s="4"/>
+      <c r="L1086" s="4"/>
+      <c r="M1086" s="4"/>
+      <c r="N1086" s="4"/>
+      <c r="O1086" s="4"/>
+      <c r="P1086" s="4"/>
+      <c r="Q1086" s="4"/>
+      <c r="R1086" s="4"/>
+      <c r="S1086" s="4"/>
+      <c r="T1086" s="4"/>
+      <c r="U1086" s="4"/>
+      <c r="V1086" s="4"/>
+      <c r="W1086" s="4"/>
+      <c r="X1086" s="4"/>
+      <c r="Y1086" s="4"/>
+      <c r="Z1086" s="4"/>
+    </row>
+    <row r="1087">
+      <c r="A1087" s="2"/>
+      <c r="B1087" s="2"/>
+      <c r="C1087" s="2"/>
+      <c r="D1087" s="2"/>
+      <c r="E1087" s="4"/>
+      <c r="F1087" s="4"/>
+      <c r="G1087" s="4"/>
+      <c r="H1087" s="4"/>
+      <c r="I1087" s="4"/>
+      <c r="J1087" s="4"/>
+      <c r="K1087" s="4"/>
+      <c r="L1087" s="4"/>
+      <c r="M1087" s="4"/>
+      <c r="N1087" s="4"/>
+      <c r="O1087" s="4"/>
+      <c r="P1087" s="4"/>
+      <c r="Q1087" s="4"/>
+      <c r="R1087" s="4"/>
+      <c r="S1087" s="4"/>
+      <c r="T1087" s="4"/>
+      <c r="U1087" s="4"/>
+      <c r="V1087" s="4"/>
+      <c r="W1087" s="4"/>
+      <c r="X1087" s="4"/>
+      <c r="Y1087" s="4"/>
+      <c r="Z1087" s="4"/>
+    </row>
+    <row r="1088">
+      <c r="A1088" s="2"/>
+      <c r="B1088" s="2"/>
+      <c r="C1088" s="2"/>
+      <c r="D1088" s="2"/>
+      <c r="E1088" s="4"/>
+      <c r="F1088" s="4"/>
+      <c r="G1088" s="4"/>
+      <c r="H1088" s="4"/>
+      <c r="I1088" s="4"/>
+      <c r="J1088" s="4"/>
+      <c r="K1088" s="4"/>
+      <c r="L1088" s="4"/>
+      <c r="M1088" s="4"/>
+      <c r="N1088" s="4"/>
+      <c r="O1088" s="4"/>
+      <c r="P1088" s="4"/>
+      <c r="Q1088" s="4"/>
+      <c r="R1088" s="4"/>
+      <c r="S1088" s="4"/>
+      <c r="T1088" s="4"/>
+      <c r="U1088" s="4"/>
+      <c r="V1088" s="4"/>
+      <c r="W1088" s="4"/>
+      <c r="X1088" s="4"/>
+      <c r="Y1088" s="4"/>
+      <c r="Z1088" s="4"/>
+    </row>
+    <row r="1089">
+      <c r="A1089" s="2"/>
+      <c r="B1089" s="2"/>
+      <c r="C1089" s="2"/>
+      <c r="D1089" s="2"/>
+      <c r="E1089" s="4"/>
+      <c r="F1089" s="4"/>
+      <c r="G1089" s="4"/>
+      <c r="H1089" s="4"/>
+      <c r="I1089" s="4"/>
+      <c r="J1089" s="4"/>
+      <c r="K1089" s="4"/>
+      <c r="L1089" s="4"/>
+      <c r="M1089" s="4"/>
+      <c r="N1089" s="4"/>
+      <c r="O1089" s="4"/>
+      <c r="P1089" s="4"/>
+      <c r="Q1089" s="4"/>
+      <c r="R1089" s="4"/>
+      <c r="S1089" s="4"/>
+      <c r="T1089" s="4"/>
+      <c r="U1089" s="4"/>
+      <c r="V1089" s="4"/>
+      <c r="W1089" s="4"/>
+      <c r="X1089" s="4"/>
+      <c r="Y1089" s="4"/>
+      <c r="Z1089" s="4"/>
+    </row>
+    <row r="1090">
+      <c r="A1090" s="2"/>
+      <c r="B1090" s="2"/>
+      <c r="C1090" s="2"/>
+      <c r="D1090" s="2"/>
+      <c r="E1090" s="4"/>
+      <c r="F1090" s="4"/>
+      <c r="G1090" s="4"/>
+      <c r="H1090" s="4"/>
+      <c r="I1090" s="4"/>
+      <c r="J1090" s="4"/>
+      <c r="K1090" s="4"/>
+      <c r="L1090" s="4"/>
+      <c r="M1090" s="4"/>
+      <c r="N1090" s="4"/>
+      <c r="O1090" s="4"/>
+      <c r="P1090" s="4"/>
+      <c r="Q1090" s="4"/>
+      <c r="R1090" s="4"/>
+      <c r="S1090" s="4"/>
+      <c r="T1090" s="4"/>
+      <c r="U1090" s="4"/>
+      <c r="V1090" s="4"/>
+      <c r="W1090" s="4"/>
+      <c r="X1090" s="4"/>
+      <c r="Y1090" s="4"/>
+      <c r="Z1090" s="4"/>
+    </row>
+    <row r="1091">
+      <c r="A1091" s="2"/>
+      <c r="B1091" s="2"/>
+      <c r="C1091" s="2"/>
+      <c r="D1091" s="2"/>
+      <c r="E1091" s="4"/>
+      <c r="F1091" s="4"/>
+      <c r="G1091" s="4"/>
+      <c r="H1091" s="4"/>
+      <c r="I1091" s="4"/>
+      <c r="J1091" s="4"/>
+      <c r="K1091" s="4"/>
+      <c r="L1091" s="4"/>
+      <c r="M1091" s="4"/>
+      <c r="N1091" s="4"/>
+      <c r="O1091" s="4"/>
+      <c r="P1091" s="4"/>
+      <c r="Q1091" s="4"/>
+      <c r="R1091" s="4"/>
+      <c r="S1091" s="4"/>
+      <c r="T1091" s="4"/>
+      <c r="U1091" s="4"/>
+      <c r="V1091" s="4"/>
+      <c r="W1091" s="4"/>
+      <c r="X1091" s="4"/>
+      <c r="Y1091" s="4"/>
+      <c r="Z1091" s="4"/>
+    </row>
+    <row r="1092">
+      <c r="A1092" s="2"/>
+      <c r="B1092" s="2"/>
+      <c r="C1092" s="2"/>
+      <c r="D1092" s="2"/>
+      <c r="E1092" s="4"/>
+      <c r="F1092" s="4"/>
+      <c r="G1092" s="4"/>
+      <c r="H1092" s="4"/>
+      <c r="I1092" s="4"/>
+      <c r="J1092" s="4"/>
+      <c r="K1092" s="4"/>
+      <c r="L1092" s="4"/>
+      <c r="M1092" s="4"/>
+      <c r="N1092" s="4"/>
+      <c r="O1092" s="4"/>
+      <c r="P1092" s="4"/>
+      <c r="Q1092" s="4"/>
+      <c r="R1092" s="4"/>
+      <c r="S1092" s="4"/>
+      <c r="T1092" s="4"/>
+      <c r="U1092" s="4"/>
+      <c r="V1092" s="4"/>
+      <c r="W1092" s="4"/>
+      <c r="X1092" s="4"/>
+      <c r="Y1092" s="4"/>
+      <c r="Z1092" s="4"/>
+    </row>
+    <row r="1093">
+      <c r="A1093" s="4"/>
+      <c r="B1093" s="4"/>
+      <c r="C1093" s="4"/>
+      <c r="D1093" s="4"/>
+      <c r="E1093" s="4"/>
+      <c r="F1093" s="4"/>
+      <c r="G1093" s="4"/>
+      <c r="H1093" s="4"/>
+      <c r="I1093" s="4"/>
+      <c r="J1093" s="4"/>
+      <c r="K1093" s="4"/>
+      <c r="L1093" s="4"/>
+      <c r="M1093" s="4"/>
+      <c r="N1093" s="4"/>
+      <c r="O1093" s="4"/>
+      <c r="P1093" s="4"/>
+      <c r="Q1093" s="4"/>
+      <c r="R1093" s="4"/>
+      <c r="S1093" s="4"/>
+      <c r="T1093" s="4"/>
+      <c r="U1093" s="4"/>
+      <c r="V1093" s="4"/>
+      <c r="W1093" s="4"/>
+      <c r="X1093" s="4"/>
+      <c r="Y1093" s="4"/>
+      <c r="Z1093" s="4"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/hauteur site.xlsx
+++ b/hauteur site.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="15">
   <si>
     <t>code_pneu</t>
   </si>
@@ -43,23 +43,26 @@
     <t>280?</t>
   </si>
   <si>
+    <t>-4/6</t>
+  </si>
+  <si>
     <t>265?</t>
   </si>
   <si>
-    <t>---35/4</t>
+    <t>-01/08</t>
   </si>
   <si>
-    <t>---6/7</t>
+    <t>-18/5</t>
   </si>
   <si>
-    <t>---15/2</t>
+    <t>-1/7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -85,6 +88,16 @@
     </font>
     <font>
       <b/>
+      <color rgb="FFFF6D01"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF4A86E8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
       <color rgb="FF00FFFF"/>
       <name val="Arial"/>
     </font>
@@ -103,7 +116,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -129,6 +142,15 @@
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1104,16 +1126,16 @@
       <c r="Z21" s="4"/>
     </row>
     <row r="22">
-      <c r="A22" s="1">
-        <v>93.0</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="A22" s="6">
+        <v>90.0</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="7">
+        <v>305.0</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E22" s="4"/>
@@ -1140,16 +1162,18 @@
       <c r="Z22" s="4"/>
     </row>
     <row r="23">
-      <c r="A23" s="6">
-        <v>98.0</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="5"/>
+      <c r="A23" s="1">
+        <v>93.0</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -1175,13 +1199,13 @@
     </row>
     <row r="24">
       <c r="A24" s="6">
-        <v>106.0</v>
+        <v>98.0</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>3</v>
@@ -1211,7 +1235,7 @@
     </row>
     <row r="25">
       <c r="A25" s="6">
-        <v>107.0</v>
+        <v>105.0</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>3</v>
@@ -1247,13 +1271,13 @@
     </row>
     <row r="26">
       <c r="A26" s="6">
-        <v>111.0</v>
+        <v>106.0</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="7">
-        <v>255.0</v>
+      <c r="C26" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>3</v>
@@ -1282,16 +1306,16 @@
       <c r="Z26" s="4"/>
     </row>
     <row r="27">
-      <c r="A27" s="1">
-        <v>112.0</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="3">
-        <v>270.0</v>
-      </c>
-      <c r="D27" s="2" t="s">
+      <c r="A27" s="6">
+        <v>107.0</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>260.0</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E27" s="4"/>
@@ -1318,16 +1342,16 @@
       <c r="Z27" s="4"/>
     </row>
     <row r="28">
-      <c r="A28" s="1">
-        <v>119.0</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="A28" s="6">
+        <v>111.0</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="7">
+        <v>255.0</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E28" s="4"/>
@@ -1354,16 +1378,16 @@
       <c r="Z28" s="4"/>
     </row>
     <row r="29">
-      <c r="A29" s="6">
-        <v>123.0</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="7">
-        <v>280.0</v>
-      </c>
-      <c r="D29" s="5" t="s">
+      <c r="A29" s="1">
+        <v>112.0</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="3">
+        <v>270.0</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E29" s="4"/>
@@ -1390,16 +1414,16 @@
       <c r="Z29" s="4"/>
     </row>
     <row r="30">
-      <c r="A30" s="6">
-        <v>124.0</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="7">
-        <v>245.0</v>
-      </c>
-      <c r="D30" s="5" t="s">
+      <c r="A30" s="1">
+        <v>119.0</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E30" s="4"/>
@@ -1426,16 +1450,16 @@
       <c r="Z30" s="4"/>
     </row>
     <row r="31">
-      <c r="A31" s="1">
-        <v>125.0</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="3">
-        <v>265.0</v>
-      </c>
-      <c r="D31" s="2" t="s">
+      <c r="A31" s="6">
+        <v>123.0</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="7">
+        <v>280.0</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E31" s="4"/>
@@ -1462,16 +1486,16 @@
       <c r="Z31" s="4"/>
     </row>
     <row r="32">
-      <c r="A32" s="1">
-        <v>129.0</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="3">
-        <v>270.0</v>
-      </c>
-      <c r="D32" s="2" t="s">
+      <c r="A32" s="6">
+        <v>124.0</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="7">
+        <v>245.0</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E32" s="4"/>
@@ -1498,16 +1522,16 @@
       <c r="Z32" s="4"/>
     </row>
     <row r="33">
-      <c r="A33" s="6">
-        <v>130.0</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>290.0</v>
-      </c>
-      <c r="D33" s="5" t="s">
+      <c r="A33" s="1">
+        <v>125.0</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="3">
+        <v>265.0</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E33" s="4"/>
@@ -1535,13 +1559,13 @@
     </row>
     <row r="34">
       <c r="A34" s="1">
-        <v>131.0</v>
+        <v>129.0</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C34" s="3">
-        <v>255.0</v>
+        <v>270.0</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>3</v>
@@ -1570,16 +1594,16 @@
       <c r="Z34" s="4"/>
     </row>
     <row r="35">
-      <c r="A35" s="1">
-        <v>132.0</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D35" s="2" t="s">
+      <c r="A35" s="6">
+        <v>130.0</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
+        <v>290.0</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E35" s="4"/>
@@ -1606,16 +1630,16 @@
       <c r="Z35" s="4"/>
     </row>
     <row r="36">
-      <c r="A36" s="6">
-        <v>133.0</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="7">
-        <v>240.0</v>
-      </c>
-      <c r="D36" s="5" t="s">
+      <c r="A36" s="1">
+        <v>131.0</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="3">
+        <v>255.0</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E36" s="4"/>
@@ -1642,16 +1666,16 @@
       <c r="Z36" s="4"/>
     </row>
     <row r="37">
-      <c r="A37" s="6">
-        <v>135.0</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="7">
-        <v>310.0</v>
-      </c>
-      <c r="D37" s="5" t="s">
+      <c r="A37" s="1">
+        <v>132.0</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E37" s="4"/>
@@ -1679,13 +1703,13 @@
     </row>
     <row r="38">
       <c r="A38" s="6">
-        <v>136.0</v>
+        <v>133.0</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C38" s="7">
-        <v>315.0</v>
+        <v>240.0</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>3</v>
@@ -1714,16 +1738,16 @@
       <c r="Z38" s="4"/>
     </row>
     <row r="39">
-      <c r="A39" s="1">
-        <v>138.0</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="3">
-        <v>315.0</v>
-      </c>
-      <c r="D39" s="2" t="s">
+      <c r="A39" s="6">
+        <v>135.0</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E39" s="4"/>
@@ -1750,16 +1774,16 @@
       <c r="Z39" s="4"/>
     </row>
     <row r="40">
-      <c r="A40" s="1">
-        <v>139.0</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D40" s="2" t="s">
+      <c r="A40" s="6">
+        <v>136.0</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="7">
+        <v>315.0</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E40" s="4"/>
@@ -1786,16 +1810,16 @@
       <c r="Z40" s="4"/>
     </row>
     <row r="41">
-      <c r="A41" s="6">
-        <v>144.0</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="7">
-        <v>305.0</v>
-      </c>
-      <c r="D41" s="5" t="s">
+      <c r="A41" s="1">
+        <v>138.0</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="3">
+        <v>315.0</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E41" s="4"/>
@@ -1823,13 +1847,13 @@
     </row>
     <row r="42">
       <c r="A42" s="1">
-        <v>145.0</v>
+        <v>139.0</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C42" s="3">
-        <v>275.0</v>
+        <v>250.0</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>3</v>
@@ -1859,13 +1883,13 @@
     </row>
     <row r="43">
       <c r="A43" s="6">
-        <v>146.0</v>
+        <v>144.0</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C43" s="7">
-        <v>300.0</v>
+        <v>305.0</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>3</v>
@@ -1895,13 +1919,13 @@
     </row>
     <row r="44">
       <c r="A44" s="1">
-        <v>149.0</v>
+        <v>145.0</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C44" s="3">
-        <v>265.0</v>
+        <v>275.0</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>3</v>
@@ -1931,13 +1955,13 @@
     </row>
     <row r="45">
       <c r="A45" s="6">
-        <v>152.0</v>
+        <v>146.0</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C45" s="7">
-        <v>230.0</v>
+        <v>300.0</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>3</v>
@@ -1967,13 +1991,13 @@
     </row>
     <row r="46">
       <c r="A46" s="1">
-        <v>153.0</v>
+        <v>149.0</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C46" s="3">
-        <v>325.0</v>
+        <v>265.0</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>3</v>
@@ -2002,16 +2026,16 @@
       <c r="Z46" s="4"/>
     </row>
     <row r="47">
-      <c r="A47" s="1">
-        <v>154.0</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" s="3">
-        <v>325.0</v>
-      </c>
-      <c r="D47" s="2" t="s">
+      <c r="A47" s="6">
+        <v>152.0</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="7">
+        <v>230.0</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E47" s="4"/>
@@ -2038,16 +2062,16 @@
       <c r="Z47" s="4"/>
     </row>
     <row r="48">
-      <c r="A48" s="6">
-        <v>156.0</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" s="7">
-        <v>310.0</v>
-      </c>
-      <c r="D48" s="5" t="s">
+      <c r="A48" s="1">
+        <v>153.0</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="3">
+        <v>325.0</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E48" s="4"/>
@@ -2075,13 +2099,13 @@
     </row>
     <row r="49">
       <c r="A49" s="1">
-        <v>157.0</v>
+        <v>154.0</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C49" s="3">
-        <v>270.0</v>
+        <v>325.0</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>3</v>
@@ -2111,13 +2135,13 @@
     </row>
     <row r="50">
       <c r="A50" s="6">
-        <v>164.0</v>
+        <v>156.0</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C50" s="7">
-        <v>250.0</v>
+      <c r="C50" s="8">
+        <v>310.0</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>3</v>
@@ -2147,13 +2171,13 @@
     </row>
     <row r="51">
       <c r="A51" s="1">
-        <v>167.0</v>
+        <v>157.0</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C51" s="3">
-        <v>250.0</v>
+      <c r="C51" s="9">
+        <v>270.0</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>3</v>
@@ -2183,13 +2207,13 @@
     </row>
     <row r="52">
       <c r="A52" s="6">
-        <v>169.0</v>
+        <v>164.0</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C52" s="7">
-        <v>235.0</v>
+        <v>250.0</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>3</v>
@@ -2219,7 +2243,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1">
-        <v>175.0</v>
+        <v>167.0</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>3</v>
@@ -2255,13 +2279,13 @@
     </row>
     <row r="54">
       <c r="A54" s="6">
-        <v>176.0</v>
+        <v>169.0</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C54" s="7" t="s">
-        <v>6</v>
+      <c r="C54" s="7">
+        <v>235.0</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>3</v>
@@ -2290,16 +2314,16 @@
       <c r="Z54" s="4"/>
     </row>
     <row r="55">
-      <c r="A55" s="1">
-        <v>178.0</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55" s="3">
-        <v>265.0</v>
-      </c>
-      <c r="D55" s="2" t="s">
+      <c r="A55" s="6">
+        <v>171.0</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="7">
+        <v>325.0</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E55" s="4"/>
@@ -2326,16 +2350,16 @@
       <c r="Z55" s="4"/>
     </row>
     <row r="56">
-      <c r="A56" s="1">
-        <v>182.0</v>
-      </c>
-      <c r="B56" s="2" t="s">
+      <c r="A56" s="6">
+        <v>172.0</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C56" s="7">
-        <v>285.0</v>
-      </c>
-      <c r="D56" s="2" t="s">
+        <v>260.0</v>
+      </c>
+      <c r="D56" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E56" s="4"/>
@@ -2363,13 +2387,13 @@
     </row>
     <row r="57">
       <c r="A57" s="1">
-        <v>183.0</v>
+        <v>175.0</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C57" s="3">
-        <v>270.0</v>
+        <v>250.0</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>3</v>
@@ -2399,13 +2423,13 @@
     </row>
     <row r="58">
       <c r="A58" s="6">
-        <v>189.0</v>
+        <v>176.0</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C58" s="7">
-        <v>235.0</v>
+      <c r="C58" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>3</v>
@@ -2435,13 +2459,13 @@
     </row>
     <row r="59">
       <c r="A59" s="1">
-        <v>190.0</v>
+        <v>178.0</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C59" s="3">
-        <v>305.0</v>
+        <v>265.0</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>3</v>
@@ -2471,12 +2495,12 @@
     </row>
     <row r="60">
       <c r="A60" s="1">
-        <v>192.0</v>
+        <v>182.0</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="7">
         <v>285.0</v>
       </c>
       <c r="D60" s="2" t="s">
@@ -2507,13 +2531,13 @@
     </row>
     <row r="61">
       <c r="A61" s="1">
-        <v>201.0</v>
+        <v>183.0</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C61" s="3">
-        <v>285.0</v>
+        <v>270.0</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>3</v>
@@ -2542,16 +2566,16 @@
       <c r="Z61" s="4"/>
     </row>
     <row r="62">
-      <c r="A62" s="1">
-        <v>204.0</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" s="3">
-        <v>270.0</v>
-      </c>
-      <c r="D62" s="2" t="s">
+      <c r="A62" s="6">
+        <v>189.0</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="7">
+        <v>235.0</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E62" s="4"/>
@@ -2578,16 +2602,16 @@
       <c r="Z62" s="4"/>
     </row>
     <row r="63">
-      <c r="A63" s="6">
-        <v>207.0</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C63" s="7">
-        <v>325.0</v>
-      </c>
-      <c r="D63" s="5" t="s">
+      <c r="A63" s="1">
+        <v>190.0</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="3">
+        <v>305.0</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E63" s="4"/>
@@ -2614,16 +2638,16 @@
       <c r="Z63" s="4"/>
     </row>
     <row r="64">
-      <c r="A64" s="6">
-        <v>209.0</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D64" s="5" t="s">
+      <c r="A64" s="1">
+        <v>192.0</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="3">
+        <v>285.0</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E64" s="4"/>
@@ -2650,16 +2674,16 @@
       <c r="Z64" s="4"/>
     </row>
     <row r="65">
-      <c r="A65" s="6">
-        <v>216.0</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C65" s="7">
-        <v>320.0</v>
-      </c>
-      <c r="D65" s="5" t="s">
+      <c r="A65" s="1">
+        <v>201.0</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" s="3">
+        <v>285.0</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E65" s="4"/>
@@ -2686,16 +2710,14 @@
       <c r="Z65" s="4"/>
     </row>
     <row r="66">
-      <c r="A66" s="1">
-        <v>218.0</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66" s="3">
-        <v>275.0</v>
-      </c>
-      <c r="D66" s="2" t="s">
+      <c r="A66" s="6">
+        <v>203.0</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="3"/>
+      <c r="D66" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E66" s="4"/>
@@ -2723,13 +2745,13 @@
     </row>
     <row r="67">
       <c r="A67" s="1">
-        <v>227.0</v>
+        <v>204.0</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C67" s="3">
-        <v>325.0</v>
+        <v>270.0</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>3</v>
@@ -2758,16 +2780,14 @@
       <c r="Z67" s="4"/>
     </row>
     <row r="68">
-      <c r="A68" s="1">
-        <v>229.0</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" s="3">
-        <v>300.0</v>
-      </c>
-      <c r="D68" s="2" t="s">
+      <c r="A68" s="6">
+        <v>205.0</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="7"/>
+      <c r="D68" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E68" s="4"/>
@@ -2795,13 +2815,13 @@
     </row>
     <row r="69">
       <c r="A69" s="6">
-        <v>232.0</v>
+        <v>207.0</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C69" s="7">
-        <v>275.0</v>
+        <v>325.0</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>3</v>
@@ -2830,16 +2850,16 @@
       <c r="Z69" s="4"/>
     </row>
     <row r="70">
-      <c r="A70" s="1">
-        <v>237.0</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C70" s="3">
-        <v>240.0</v>
-      </c>
-      <c r="D70" s="2" t="s">
+      <c r="A70" s="6">
+        <v>209.0</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E70" s="4"/>
@@ -2867,13 +2887,13 @@
     </row>
     <row r="71">
       <c r="A71" s="6">
-        <v>238.0</v>
+        <v>215.0</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C71" s="7">
-        <v>280.0</v>
+        <v>310.0</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>3</v>
@@ -2902,16 +2922,16 @@
       <c r="Z71" s="4"/>
     </row>
     <row r="72">
-      <c r="A72" s="1">
-        <v>243.0</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C72" s="3">
-        <v>225.0</v>
-      </c>
-      <c r="D72" s="2" t="s">
+      <c r="A72" s="6">
+        <v>216.0</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" s="7">
+        <v>320.0</v>
+      </c>
+      <c r="D72" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E72" s="4"/>
@@ -2938,16 +2958,16 @@
       <c r="Z72" s="4"/>
     </row>
     <row r="73">
-      <c r="A73" s="6">
-        <v>250.0</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" s="7">
-        <v>245.0</v>
-      </c>
-      <c r="D73" s="5" t="s">
+      <c r="A73" s="1">
+        <v>218.0</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="3">
+        <v>275.0</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E73" s="4"/>
@@ -2974,16 +2994,16 @@
       <c r="Z73" s="4"/>
     </row>
     <row r="74">
-      <c r="A74" s="6">
-        <v>252.0</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="5" t="s">
+      <c r="A74" s="1">
+        <v>227.0</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="3">
+        <v>325.0</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E74" s="4"/>
@@ -3010,16 +3030,16 @@
       <c r="Z74" s="4"/>
     </row>
     <row r="75">
-      <c r="A75" s="6">
-        <v>257.0</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D75" s="5" t="s">
+      <c r="A75" s="1">
+        <v>229.0</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="3">
+        <v>300.0</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E75" s="4"/>
@@ -3047,13 +3067,13 @@
     </row>
     <row r="76">
       <c r="A76" s="6">
-        <v>264.0</v>
+        <v>232.0</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C76" s="7" t="s">
-        <v>5</v>
+      <c r="C76" s="7">
+        <v>275.0</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>3</v>
@@ -3083,13 +3103,13 @@
     </row>
     <row r="77">
       <c r="A77" s="1">
-        <v>265.0</v>
+        <v>237.0</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C77" s="3">
-        <v>250.0</v>
+        <v>240.0</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>3</v>
@@ -3119,13 +3139,13 @@
     </row>
     <row r="78">
       <c r="A78" s="6">
-        <v>270.0</v>
+        <v>238.0</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C78" s="7">
-        <v>265.0</v>
+        <v>280.0</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>3</v>
@@ -3154,16 +3174,16 @@
       <c r="Z78" s="4"/>
     </row>
     <row r="79">
-      <c r="A79" s="6">
-        <v>273.0</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C79" s="7">
-        <v>290.0</v>
-      </c>
-      <c r="D79" s="5" t="s">
+      <c r="A79" s="1">
+        <v>243.0</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" s="3">
+        <v>225.0</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E79" s="4"/>
@@ -3190,16 +3210,16 @@
       <c r="Z79" s="4"/>
     </row>
     <row r="80">
-      <c r="A80" s="1">
-        <v>274.0</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C80" s="3">
-        <v>260.0</v>
-      </c>
-      <c r="D80" s="2" t="s">
+      <c r="A80" s="6">
+        <v>250.0</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" s="7">
+        <v>245.0</v>
+      </c>
+      <c r="D80" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E80" s="4"/>
@@ -3227,13 +3247,13 @@
     </row>
     <row r="81">
       <c r="A81" s="6">
-        <v>275.0</v>
+        <v>252.0</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C81" s="7">
-        <v>290.0</v>
+      <c r="C81" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>3</v>
@@ -3263,13 +3283,13 @@
     </row>
     <row r="82">
       <c r="A82" s="6">
-        <v>279.0</v>
+        <v>257.0</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C82" s="7">
-        <v>255.0</v>
+      <c r="C82" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>3</v>
@@ -3299,7 +3319,7 @@
     </row>
     <row r="83">
       <c r="A83" s="6">
-        <v>284.0</v>
+        <v>260.0</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>3</v>
@@ -3335,13 +3355,13 @@
     </row>
     <row r="84">
       <c r="A84" s="6">
-        <v>289.0</v>
+        <v>261.0</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C84" s="7">
-        <v>255.0</v>
+        <v>240.0</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>3</v>
@@ -3370,16 +3390,16 @@
       <c r="Z84" s="4"/>
     </row>
     <row r="85">
-      <c r="A85" s="1">
-        <v>290.0</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C85" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D85" s="2" t="s">
+      <c r="A85" s="6">
+        <v>262.0</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" s="7">
+        <v>250.0</v>
+      </c>
+      <c r="D85" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E85" s="4"/>
@@ -3407,15 +3427,15 @@
     </row>
     <row r="86">
       <c r="A86" s="6">
-        <v>296.0</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C86" s="7">
-        <v>235.0</v>
-      </c>
-      <c r="D86" s="2" t="s">
+        <v>264.0</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E86" s="4"/>
@@ -3443,13 +3463,13 @@
     </row>
     <row r="87">
       <c r="A87" s="1">
-        <v>306.0</v>
+        <v>265.0</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C87" s="3">
-        <v>235.0</v>
+        <v>250.0</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>3</v>
@@ -3479,13 +3499,13 @@
     </row>
     <row r="88">
       <c r="A88" s="6">
-        <v>309.0</v>
+        <v>270.0</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C88" s="7">
-        <v>260.0</v>
+        <v>265.0</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>3</v>
@@ -3515,13 +3535,13 @@
     </row>
     <row r="89">
       <c r="A89" s="6">
-        <v>323.0</v>
+        <v>273.0</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C89" s="7">
-        <v>270.0</v>
+        <v>290.0</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>3</v>
@@ -3551,7 +3571,7 @@
     </row>
     <row r="90">
       <c r="A90" s="1">
-        <v>324.0</v>
+        <v>274.0</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>3</v>
@@ -3586,16 +3606,16 @@
       <c r="Z90" s="4"/>
     </row>
     <row r="91">
-      <c r="A91" s="1">
-        <v>328.0</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C91" s="3">
-        <v>255.0</v>
-      </c>
-      <c r="D91" s="2" t="s">
+      <c r="A91" s="6">
+        <v>275.0</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" s="7">
+        <v>290.0</v>
+      </c>
+      <c r="D91" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E91" s="4"/>
@@ -3623,13 +3643,13 @@
     </row>
     <row r="92">
       <c r="A92" s="6">
-        <v>334.0</v>
+        <v>279.0</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C92" s="7" t="s">
-        <v>10</v>
+      <c r="C92" s="7">
+        <v>255.0</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>3</v>
@@ -3659,13 +3679,13 @@
     </row>
     <row r="93">
       <c r="A93" s="6">
-        <v>338.0</v>
+        <v>284.0</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C93" s="7">
-        <v>235.0</v>
+        <v>260.0</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>3</v>
@@ -3694,16 +3714,16 @@
       <c r="Z93" s="4"/>
     </row>
     <row r="94">
-      <c r="A94" s="1">
-        <v>349.0</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C94" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D94" s="2" t="s">
+      <c r="A94" s="6">
+        <v>289.0</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" s="7">
+        <v>255.0</v>
+      </c>
+      <c r="D94" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E94" s="4"/>
@@ -3731,13 +3751,13 @@
     </row>
     <row r="95">
       <c r="A95" s="1">
-        <v>350.0</v>
+        <v>290.0</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C95" s="3">
-        <v>225.0</v>
+        <v>310.0</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>3</v>
@@ -3766,14 +3786,14 @@
       <c r="Z95" s="4"/>
     </row>
     <row r="96">
-      <c r="A96" s="1">
-        <v>361.0</v>
+      <c r="A96" s="6">
+        <v>296.0</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C96" s="3">
-        <v>245.0</v>
+      <c r="C96" s="7">
+        <v>235.0</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>3</v>
@@ -3802,16 +3822,16 @@
       <c r="Z96" s="4"/>
     </row>
     <row r="97">
-      <c r="A97" s="6">
-        <v>365.0</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C97" s="7">
-        <v>335.0</v>
-      </c>
-      <c r="D97" s="5" t="s">
+      <c r="A97" s="1">
+        <v>306.0</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" s="3">
+        <v>235.0</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E97" s="4"/>
@@ -3838,16 +3858,16 @@
       <c r="Z97" s="4"/>
     </row>
     <row r="98">
-      <c r="A98" s="1">
-        <v>367.0</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C98" s="3">
-        <v>225.0</v>
-      </c>
-      <c r="D98" s="2" t="s">
+      <c r="A98" s="6">
+        <v>309.0</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" s="7">
+        <v>260.0</v>
+      </c>
+      <c r="D98" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E98" s="4"/>
@@ -3874,16 +3894,16 @@
       <c r="Z98" s="4"/>
     </row>
     <row r="99">
-      <c r="A99" s="1">
-        <v>369.0</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C99" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D99" s="2" t="s">
+      <c r="A99" s="6">
+        <v>323.0</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" s="7">
+        <v>270.0</v>
+      </c>
+      <c r="D99" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E99" s="4"/>
@@ -3910,14 +3930,16 @@
       <c r="Z99" s="4"/>
     </row>
     <row r="100">
-      <c r="A100" s="6">
-        <v>370.0</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C100" s="3"/>
-      <c r="D100" s="5" t="s">
+      <c r="A100" s="1">
+        <v>324.0</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" s="3">
+        <v>260.0</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E100" s="4"/>
@@ -3945,13 +3967,13 @@
     </row>
     <row r="101">
       <c r="A101" s="1">
-        <v>375.0</v>
+        <v>328.0</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C101" s="3">
-        <v>245.0</v>
+        <v>255.0</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>3</v>
@@ -3980,16 +4002,16 @@
       <c r="Z101" s="4"/>
     </row>
     <row r="102">
-      <c r="A102" s="1">
-        <v>377.0</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C102" s="3">
-        <v>275.0</v>
-      </c>
-      <c r="D102" s="2" t="s">
+      <c r="A102" s="6">
+        <v>334.0</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E102" s="4"/>
@@ -4017,13 +4039,13 @@
     </row>
     <row r="103">
       <c r="A103" s="6">
-        <v>378.0</v>
+        <v>338.0</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C103" s="7">
-        <v>275.0</v>
+        <v>235.0</v>
       </c>
       <c r="D103" s="5" t="s">
         <v>3</v>
@@ -4053,13 +4075,13 @@
     </row>
     <row r="104">
       <c r="A104" s="1">
-        <v>382.0</v>
+        <v>349.0</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C104" s="3">
-        <v>295.0</v>
+        <v>250.0</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>3</v>
@@ -4088,16 +4110,16 @@
       <c r="Z104" s="4"/>
     </row>
     <row r="105">
-      <c r="A105" s="6">
-        <v>384.0</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C105" s="7">
-        <v>310.0</v>
-      </c>
-      <c r="D105" s="5" t="s">
+      <c r="A105" s="1">
+        <v>350.0</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105" s="3">
+        <v>225.0</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E105" s="4"/>
@@ -4124,16 +4146,16 @@
       <c r="Z105" s="4"/>
     </row>
     <row r="106">
-      <c r="A106" s="1">
-        <v>389.0</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C106" s="3">
-        <v>265.0</v>
-      </c>
-      <c r="D106" s="2" t="s">
+      <c r="A106" s="6">
+        <v>356.0</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106" s="7">
+        <v>260.0</v>
+      </c>
+      <c r="D106" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E106" s="4"/>
@@ -4160,16 +4182,16 @@
       <c r="Z106" s="4"/>
     </row>
     <row r="107">
-      <c r="A107" s="6">
-        <v>390.0</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C107" s="7">
-        <v>300.0</v>
-      </c>
-      <c r="D107" s="5" t="s">
+      <c r="A107" s="1">
+        <v>361.0</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" s="3">
+        <v>245.0</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E107" s="4"/>
@@ -4197,13 +4219,13 @@
     </row>
     <row r="108">
       <c r="A108" s="6">
-        <v>398.0</v>
+        <v>365.0</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C108" s="7">
-        <v>260.0</v>
+        <v>335.0</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>3</v>
@@ -4232,16 +4254,16 @@
       <c r="Z108" s="4"/>
     </row>
     <row r="109">
-      <c r="A109" s="1">
-        <v>399.0</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C109" s="3">
+      <c r="A109" s="6">
+        <v>366.0</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109" s="7">
         <v>260.0</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="D109" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E109" s="4"/>
@@ -4269,13 +4291,13 @@
     </row>
     <row r="110">
       <c r="A110" s="1">
-        <v>404.0</v>
+        <v>367.0</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C110" s="3">
-        <v>250.0</v>
+        <v>225.0</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>3</v>
@@ -4304,16 +4326,16 @@
       <c r="Z110" s="4"/>
     </row>
     <row r="111">
-      <c r="A111" s="6">
-        <v>406.0</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C111" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D111" s="5" t="s">
+      <c r="A111" s="1">
+        <v>369.0</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E111" s="4"/>
@@ -4341,14 +4363,12 @@
     </row>
     <row r="112">
       <c r="A112" s="6">
-        <v>413.0</v>
+        <v>370.0</v>
       </c>
       <c r="B112" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C112" s="7">
-        <v>290.0</v>
-      </c>
+      <c r="C112" s="3"/>
       <c r="D112" s="5" t="s">
         <v>3</v>
       </c>
@@ -4377,13 +4397,13 @@
     </row>
     <row r="113">
       <c r="A113" s="1">
-        <v>423.0</v>
+        <v>375.0</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C113" s="3">
-        <v>280.0</v>
+        <v>245.0</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>3</v>
@@ -4413,13 +4433,13 @@
     </row>
     <row r="114">
       <c r="A114" s="1">
-        <v>429.0</v>
+        <v>377.0</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C114" s="3">
-        <v>290.0</v>
+        <v>275.0</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>3</v>
@@ -4448,16 +4468,16 @@
       <c r="Z114" s="4"/>
     </row>
     <row r="115">
-      <c r="A115" s="1">
-        <v>430.0</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C115" s="3">
-        <v>290.0</v>
-      </c>
-      <c r="D115" s="2" t="s">
+      <c r="A115" s="6">
+        <v>378.0</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115" s="7">
+        <v>275.0</v>
+      </c>
+      <c r="D115" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E115" s="4"/>
@@ -4485,7 +4505,7 @@
     </row>
     <row r="116">
       <c r="A116" s="1">
-        <v>442.0</v>
+        <v>382.0</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>3</v>
@@ -4521,13 +4541,13 @@
     </row>
     <row r="117">
       <c r="A117" s="6">
-        <v>443.0</v>
+        <v>384.0</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C117" s="7">
-        <v>305.0</v>
+        <v>310.0</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>3</v>
@@ -4557,13 +4577,13 @@
     </row>
     <row r="118">
       <c r="A118" s="6">
-        <v>450.0</v>
+        <v>388.0</v>
       </c>
       <c r="B118" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C118" s="7">
-        <v>260.0</v>
+        <v>290.0</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>3</v>
@@ -4593,13 +4613,13 @@
     </row>
     <row r="119">
       <c r="A119" s="1">
-        <v>456.0</v>
+        <v>389.0</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C119" s="3">
-        <v>235.0</v>
+        <v>265.0</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>3</v>
@@ -4628,16 +4648,16 @@
       <c r="Z119" s="4"/>
     </row>
     <row r="120">
-      <c r="A120" s="1">
-        <v>457.0</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C120" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D120" s="2" t="s">
+      <c r="A120" s="6">
+        <v>390.0</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120" s="7">
+        <v>300.0</v>
+      </c>
+      <c r="D120" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E120" s="4"/>
@@ -4665,13 +4685,13 @@
     </row>
     <row r="121">
       <c r="A121" s="6">
-        <v>461.0</v>
+        <v>398.0</v>
       </c>
       <c r="B121" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C121" s="7">
-        <v>210.0</v>
+        <v>260.0</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>3</v>
@@ -4701,13 +4721,13 @@
     </row>
     <row r="122">
       <c r="A122" s="1">
-        <v>463.0</v>
+        <v>399.0</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C122" s="3">
-        <v>310.0</v>
+        <v>260.0</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>3</v>
@@ -4737,13 +4757,13 @@
     </row>
     <row r="123">
       <c r="A123" s="1">
-        <v>470.0</v>
+        <v>404.0</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C123" s="3">
-        <v>265.0</v>
+        <v>250.0</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>3</v>
@@ -4773,13 +4793,13 @@
     </row>
     <row r="124">
       <c r="A124" s="6">
-        <v>480.0</v>
+        <v>406.0</v>
       </c>
       <c r="B124" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C124" s="7">
-        <v>285.0</v>
+      <c r="C124" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>3</v>
@@ -4808,16 +4828,16 @@
       <c r="Z124" s="4"/>
     </row>
     <row r="125">
-      <c r="A125" s="1">
-        <v>485.0</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C125" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D125" s="2" t="s">
+      <c r="A125" s="6">
+        <v>413.0</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125" s="7">
+        <v>290.0</v>
+      </c>
+      <c r="D125" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E125" s="4"/>
@@ -4844,16 +4864,16 @@
       <c r="Z125" s="4"/>
     </row>
     <row r="126">
-      <c r="A126" s="6">
-        <v>490.0</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C126" s="7">
-        <v>275.0</v>
-      </c>
-      <c r="D126" s="5" t="s">
+      <c r="A126" s="1">
+        <v>423.0</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126" s="3">
+        <v>280.0</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E126" s="4"/>
@@ -4881,13 +4901,13 @@
     </row>
     <row r="127">
       <c r="A127" s="1">
-        <v>503.0</v>
+        <v>429.0</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C127" s="3">
-        <v>260.0</v>
+        <v>290.0</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>3</v>
@@ -4917,13 +4937,13 @@
     </row>
     <row r="128">
       <c r="A128" s="1">
-        <v>510.0</v>
+        <v>430.0</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C128" s="3">
-        <v>285.0</v>
+        <v>290.0</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>3</v>
@@ -4952,16 +4972,16 @@
       <c r="Z128" s="4"/>
     </row>
     <row r="129">
-      <c r="A129" s="6">
-        <v>514.0</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C129" s="7">
-        <v>315.0</v>
-      </c>
-      <c r="D129" s="5" t="s">
+      <c r="A129" s="1">
+        <v>442.0</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E129" s="4"/>
@@ -4988,16 +5008,16 @@
       <c r="Z129" s="4"/>
     </row>
     <row r="130">
-      <c r="A130" s="1">
-        <v>534.0</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C130" s="3">
-        <v>230.0</v>
-      </c>
-      <c r="D130" s="2" t="s">
+      <c r="A130" s="6">
+        <v>443.0</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130" s="7">
+        <v>305.0</v>
+      </c>
+      <c r="D130" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E130" s="4"/>
@@ -5024,16 +5044,16 @@
       <c r="Z130" s="4"/>
     </row>
     <row r="131">
-      <c r="A131" s="1">
-        <v>535.0</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C131" s="3">
-        <v>295.0</v>
-      </c>
-      <c r="D131" s="2" t="s">
+      <c r="A131" s="6">
+        <v>450.0</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131" s="7">
+        <v>260.0</v>
+      </c>
+      <c r="D131" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E131" s="4"/>
@@ -5061,13 +5081,13 @@
     </row>
     <row r="132">
       <c r="A132" s="1">
-        <v>552.0</v>
+        <v>456.0</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C132" s="3">
-        <v>280.0</v>
+        <v>235.0</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>3</v>
@@ -5096,16 +5116,16 @@
       <c r="Z132" s="4"/>
     </row>
     <row r="133">
-      <c r="A133" s="6">
-        <v>560.0</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C133" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D133" s="5" t="s">
+      <c r="A133" s="1">
+        <v>457.0</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C133" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E133" s="4"/>
@@ -5132,16 +5152,16 @@
       <c r="Z133" s="4"/>
     </row>
     <row r="134">
-      <c r="A134" s="1">
-        <v>561.0</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C134" s="3">
-        <v>280.0</v>
-      </c>
-      <c r="D134" s="2" t="s">
+      <c r="A134" s="6">
+        <v>461.0</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134" s="7">
+        <v>210.0</v>
+      </c>
+      <c r="D134" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E134" s="4"/>
@@ -5168,16 +5188,16 @@
       <c r="Z134" s="4"/>
     </row>
     <row r="135">
-      <c r="A135" s="6">
-        <v>562.0</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C135" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D135" s="5" t="s">
+      <c r="A135" s="1">
+        <v>463.0</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E135" s="4"/>
@@ -5204,16 +5224,16 @@
       <c r="Z135" s="4"/>
     </row>
     <row r="136">
-      <c r="A136" s="6">
-        <v>564.0</v>
-      </c>
-      <c r="B136" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C136" s="7">
-        <v>260.0</v>
-      </c>
-      <c r="D136" s="5" t="s">
+      <c r="A136" s="1">
+        <v>470.0</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C136" s="3">
+        <v>265.0</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E136" s="4"/>
@@ -5240,16 +5260,16 @@
       <c r="Z136" s="4"/>
     </row>
     <row r="137">
-      <c r="A137" s="1">
-        <v>567.0</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C137" s="3">
-        <v>325.0</v>
-      </c>
-      <c r="D137" s="2" t="s">
+      <c r="A137" s="6">
+        <v>478.0</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C137" s="7">
+        <v>275.0</v>
+      </c>
+      <c r="D137" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E137" s="4"/>
@@ -5276,16 +5296,16 @@
       <c r="Z137" s="4"/>
     </row>
     <row r="138">
-      <c r="A138" s="1">
-        <v>576.0</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C138" s="3">
-        <v>260.0</v>
-      </c>
-      <c r="D138" s="2" t="s">
+      <c r="A138" s="6">
+        <v>480.0</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C138" s="7">
+        <v>285.0</v>
+      </c>
+      <c r="D138" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E138" s="4"/>
@@ -5312,16 +5332,16 @@
       <c r="Z138" s="4"/>
     </row>
     <row r="139">
-      <c r="A139" s="6">
-        <v>577.0</v>
-      </c>
-      <c r="B139" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C139" s="7">
-        <v>230.0</v>
-      </c>
-      <c r="D139" s="5" t="s">
+      <c r="A139" s="1">
+        <v>485.0</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C139" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E139" s="4"/>
@@ -5349,13 +5369,13 @@
     </row>
     <row r="140">
       <c r="A140" s="6">
-        <v>580.0</v>
+        <v>490.0</v>
       </c>
       <c r="B140" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C140" s="7">
-        <v>240.0</v>
+        <v>275.0</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>3</v>
@@ -5385,13 +5405,13 @@
     </row>
     <row r="141">
       <c r="A141" s="1">
-        <v>583.0</v>
+        <v>503.0</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C141" s="3">
-        <v>320.0</v>
+        <v>260.0</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>3</v>
@@ -5421,13 +5441,13 @@
     </row>
     <row r="142">
       <c r="A142" s="1">
-        <v>584.0</v>
+        <v>510.0</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C142" s="3">
-        <v>270.0</v>
+        <v>285.0</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>3</v>
@@ -5456,16 +5476,16 @@
       <c r="Z142" s="4"/>
     </row>
     <row r="143">
-      <c r="A143" s="1">
-        <v>586.0</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C143" s="3">
-        <v>240.0</v>
-      </c>
-      <c r="D143" s="2" t="s">
+      <c r="A143" s="6">
+        <v>514.0</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C143" s="7">
+        <v>315.0</v>
+      </c>
+      <c r="D143" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E143" s="4"/>
@@ -5492,16 +5512,16 @@
       <c r="Z143" s="4"/>
     </row>
     <row r="144">
-      <c r="A144" s="6">
-        <v>587.0</v>
-      </c>
-      <c r="B144" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C144" s="7">
-        <v>265.0</v>
-      </c>
-      <c r="D144" s="5" t="s">
+      <c r="A144" s="1">
+        <v>534.0</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144" s="3">
+        <v>230.0</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E144" s="4"/>
@@ -5529,13 +5549,13 @@
     </row>
     <row r="145">
       <c r="A145" s="1">
-        <v>593.0</v>
+        <v>535.0</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C145" s="3">
-        <v>250.0</v>
+        <v>295.0</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>3</v>
@@ -5565,13 +5585,13 @@
     </row>
     <row r="146">
       <c r="A146" s="6">
-        <v>599.0</v>
+        <v>543.0</v>
       </c>
       <c r="B146" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C146" s="7">
-        <v>280.0</v>
+        <v>288.0</v>
       </c>
       <c r="D146" s="5" t="s">
         <v>3</v>
@@ -5600,16 +5620,16 @@
       <c r="Z146" s="4"/>
     </row>
     <row r="147">
-      <c r="A147" s="1">
-        <v>604.0</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C147" s="3">
-        <v>295.0</v>
-      </c>
-      <c r="D147" s="2" t="s">
+      <c r="A147" s="6">
+        <v>546.0</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147" s="7">
+        <v>265.0</v>
+      </c>
+      <c r="D147" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E147" s="4"/>
@@ -5636,16 +5656,16 @@
       <c r="Z147" s="4"/>
     </row>
     <row r="148">
-      <c r="A148" s="1">
-        <v>604.0</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C148" s="3">
-        <v>295.0</v>
-      </c>
-      <c r="D148" s="2" t="s">
+      <c r="A148" s="6">
+        <v>551.0</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D148" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E148" s="4"/>
@@ -5672,16 +5692,16 @@
       <c r="Z148" s="4"/>
     </row>
     <row r="149">
-      <c r="A149" s="6">
-        <v>610.0</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C149" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D149" s="5" t="s">
+      <c r="A149" s="1">
+        <v>552.0</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149" s="3">
+        <v>280.0</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E149" s="4"/>
@@ -5708,16 +5728,16 @@
       <c r="Z149" s="4"/>
     </row>
     <row r="150">
-      <c r="A150" s="1">
-        <v>612.0</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C150" s="3">
-        <v>255.0</v>
-      </c>
-      <c r="D150" s="2" t="s">
+      <c r="A150" s="6">
+        <v>560.0</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C150" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D150" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E150" s="4"/>
@@ -5744,16 +5764,16 @@
       <c r="Z150" s="4"/>
     </row>
     <row r="151">
-      <c r="A151" s="6">
-        <v>615.0</v>
-      </c>
-      <c r="B151" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C151" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D151" s="5" t="s">
+      <c r="A151" s="1">
+        <v>561.0</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C151" s="3">
+        <v>280.0</v>
+      </c>
+      <c r="D151" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E151" s="4"/>
@@ -5780,16 +5800,16 @@
       <c r="Z151" s="4"/>
     </row>
     <row r="152">
-      <c r="A152" s="1">
-        <v>617.0</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C152" s="3">
-        <v>330.0</v>
-      </c>
-      <c r="D152" s="2" t="s">
+      <c r="A152" s="6">
+        <v>562.0</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D152" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E152" s="4"/>
@@ -5817,13 +5837,13 @@
     </row>
     <row r="153">
       <c r="A153" s="6">
-        <v>618.0</v>
+        <v>564.0</v>
       </c>
       <c r="B153" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C153" s="7">
-        <v>330.0</v>
+        <v>260.0</v>
       </c>
       <c r="D153" s="5" t="s">
         <v>3</v>
@@ -5853,13 +5873,13 @@
     </row>
     <row r="154">
       <c r="A154" s="1">
-        <v>623.0</v>
+        <v>567.0</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C154" s="3">
-        <v>290.0</v>
+        <v>325.0</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>3</v>
@@ -5888,16 +5908,16 @@
       <c r="Z154" s="4"/>
     </row>
     <row r="155">
-      <c r="A155" s="6">
-        <v>624.0</v>
-      </c>
-      <c r="B155" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C155" s="7">
-        <v>310.0</v>
-      </c>
-      <c r="D155" s="5" t="s">
+      <c r="A155" s="1">
+        <v>576.0</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C155" s="3">
+        <v>260.0</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E155" s="4"/>
@@ -5924,16 +5944,16 @@
       <c r="Z155" s="4"/>
     </row>
     <row r="156">
-      <c r="A156" s="1">
-        <v>625.0</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C156" s="3">
-        <v>320.0</v>
-      </c>
-      <c r="D156" s="2" t="s">
+      <c r="A156" s="6">
+        <v>577.0</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C156" s="7">
+        <v>230.0</v>
+      </c>
+      <c r="D156" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E156" s="4"/>
@@ -5960,16 +5980,16 @@
       <c r="Z156" s="4"/>
     </row>
     <row r="157">
-      <c r="A157" s="1">
-        <v>626.0</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C157" s="3">
-        <v>305.0</v>
-      </c>
-      <c r="D157" s="2" t="s">
+      <c r="A157" s="10">
+        <v>580.0</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C157" s="7">
+        <v>240.0</v>
+      </c>
+      <c r="D157" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E157" s="4"/>
@@ -5997,13 +6017,13 @@
     </row>
     <row r="158">
       <c r="A158" s="1">
-        <v>635.0</v>
+        <v>583.0</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C158" s="3">
-        <v>295.0</v>
+        <v>320.0</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>3</v>
@@ -6032,16 +6052,16 @@
       <c r="Z158" s="4"/>
     </row>
     <row r="159">
-      <c r="A159" s="6">
-        <v>640.0</v>
-      </c>
-      <c r="B159" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C159" s="7">
-        <v>275.0</v>
-      </c>
-      <c r="D159" s="5" t="s">
+      <c r="A159" s="1">
+        <v>584.0</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C159" s="3">
+        <v>270.0</v>
+      </c>
+      <c r="D159" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E159" s="4"/>
@@ -6069,13 +6089,13 @@
     </row>
     <row r="160">
       <c r="A160" s="1">
-        <v>642.0</v>
+        <v>586.0</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C160" s="3">
-        <v>270.0</v>
+        <v>240.0</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>3</v>
@@ -6104,16 +6124,16 @@
       <c r="Z160" s="4"/>
     </row>
     <row r="161">
-      <c r="A161" s="1">
-        <v>643.0</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C161" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D161" s="2" t="s">
+      <c r="A161" s="6">
+        <v>587.0</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C161" s="7">
+        <v>265.0</v>
+      </c>
+      <c r="D161" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E161" s="4"/>
@@ -6140,14 +6160,14 @@
       <c r="Z161" s="4"/>
     </row>
     <row r="162">
-      <c r="A162" s="6">
-        <v>651.0</v>
+      <c r="A162" s="1">
+        <v>593.0</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C162" s="7">
-        <v>230.0</v>
+      <c r="C162" s="3">
+        <v>250.0</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>3</v>
@@ -6176,16 +6196,16 @@
       <c r="Z162" s="4"/>
     </row>
     <row r="163">
-      <c r="A163" s="1">
-        <v>652.0</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C163" s="3">
-        <v>330.0</v>
-      </c>
-      <c r="D163" s="2" t="s">
+      <c r="A163" s="6">
+        <v>599.0</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C163" s="7">
+        <v>280.0</v>
+      </c>
+      <c r="D163" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E163" s="4"/>
@@ -6213,13 +6233,13 @@
     </row>
     <row r="164">
       <c r="A164" s="1">
-        <v>663.0</v>
+        <v>604.0</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C164" s="3">
-        <v>265.0</v>
+        <v>295.0</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>3</v>
@@ -6248,16 +6268,16 @@
       <c r="Z164" s="4"/>
     </row>
     <row r="165">
-      <c r="A165" s="6">
-        <v>666.0</v>
-      </c>
-      <c r="B165" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C165" s="7">
-        <v>300.0</v>
-      </c>
-      <c r="D165" s="5" t="s">
+      <c r="A165" s="1">
+        <v>604.0</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C165" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D165" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E165" s="4"/>
@@ -6284,16 +6304,16 @@
       <c r="Z165" s="4"/>
     </row>
     <row r="166">
-      <c r="A166" s="1">
-        <v>668.0</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C166" s="3">
-        <v>305.0</v>
-      </c>
-      <c r="D166" s="2" t="s">
+      <c r="A166" s="6">
+        <v>610.0</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C166" s="7">
+        <v>260.0</v>
+      </c>
+      <c r="D166" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E166" s="4"/>
@@ -6320,16 +6340,18 @@
       <c r="Z166" s="4"/>
     </row>
     <row r="167">
-      <c r="A167" s="6">
-        <v>669.0</v>
-      </c>
-      <c r="B167" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C167" s="7">
-        <v>310.0</v>
-      </c>
-      <c r="D167" s="2"/>
+      <c r="A167" s="1">
+        <v>612.0</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C167" s="3">
+        <v>255.0</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
       <c r="G167" s="4"/>
@@ -6354,16 +6376,16 @@
       <c r="Z167" s="4"/>
     </row>
     <row r="168">
-      <c r="A168" s="1">
-        <v>670.0</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C168" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D168" s="2" t="s">
+      <c r="A168" s="6">
+        <v>615.0</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D168" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E168" s="4"/>
@@ -6391,13 +6413,13 @@
     </row>
     <row r="169">
       <c r="A169" s="1">
-        <v>671.0</v>
+        <v>617.0</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C169" s="3">
-        <v>305.0</v>
+        <v>330.0</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>3</v>
@@ -6426,16 +6448,16 @@
       <c r="Z169" s="4"/>
     </row>
     <row r="170">
-      <c r="A170" s="1">
-        <v>672.0</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C170" s="3">
-        <v>295.0</v>
-      </c>
-      <c r="D170" s="2" t="s">
+      <c r="A170" s="6">
+        <v>618.0</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C170" s="7">
+        <v>330.0</v>
+      </c>
+      <c r="D170" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E170" s="4"/>
@@ -6462,16 +6484,16 @@
       <c r="Z170" s="4"/>
     </row>
     <row r="171">
-      <c r="A171" s="6">
-        <v>676.0</v>
-      </c>
-      <c r="B171" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C171" s="7">
-        <v>335.0</v>
-      </c>
-      <c r="D171" s="5" t="s">
+      <c r="A171" s="1">
+        <v>623.0</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C171" s="3">
+        <v>290.0</v>
+      </c>
+      <c r="D171" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E171" s="4"/>
@@ -6498,16 +6520,16 @@
       <c r="Z171" s="4"/>
     </row>
     <row r="172">
-      <c r="A172" s="1">
-        <v>680.0</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C172" s="3">
-        <v>285.0</v>
-      </c>
-      <c r="D172" s="2" t="s">
+      <c r="A172" s="6">
+        <v>624.0</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C172" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D172" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E172" s="4"/>
@@ -6535,13 +6557,13 @@
     </row>
     <row r="173">
       <c r="A173" s="1">
-        <v>688.0</v>
+        <v>625.0</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C173" s="3">
-        <v>310.0</v>
+        <v>320.0</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>3</v>
@@ -6570,14 +6592,14 @@
       <c r="Z173" s="4"/>
     </row>
     <row r="174">
-      <c r="A174" s="8">
-        <v>692.0</v>
+      <c r="A174" s="1">
+        <v>626.0</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C174" s="8">
-        <v>300.0</v>
+      <c r="C174" s="3">
+        <v>305.0</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>3</v>
@@ -6606,16 +6628,16 @@
       <c r="Z174" s="4"/>
     </row>
     <row r="175">
-      <c r="A175" s="1">
-        <v>696.0</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C175" s="3">
-        <v>300.0</v>
-      </c>
-      <c r="D175" s="2" t="s">
+      <c r="A175" s="6">
+        <v>628.0</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C175" s="7">
+        <v>305.0</v>
+      </c>
+      <c r="D175" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E175" s="4"/>
@@ -6642,16 +6664,16 @@
       <c r="Z175" s="4"/>
     </row>
     <row r="176">
-      <c r="A176" s="6">
-        <v>712.0</v>
-      </c>
-      <c r="B176" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C176" s="7">
+      <c r="A176" s="1">
+        <v>635.0</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C176" s="3">
         <v>295.0</v>
       </c>
-      <c r="D176" s="5" t="s">
+      <c r="D176" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E176" s="4"/>
@@ -6679,13 +6701,13 @@
     </row>
     <row r="177">
       <c r="A177" s="6">
-        <v>713.0</v>
+        <v>640.0</v>
       </c>
       <c r="B177" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C177" s="7">
-        <v>310.0</v>
+        <v>275.0</v>
       </c>
       <c r="D177" s="5" t="s">
         <v>3</v>
@@ -6715,13 +6737,13 @@
     </row>
     <row r="178">
       <c r="A178" s="1">
-        <v>714.0</v>
+        <v>642.0</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C178" s="3">
-        <v>275.0</v>
+        <v>270.0</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>3</v>
@@ -6751,13 +6773,13 @@
     </row>
     <row r="179">
       <c r="A179" s="1">
-        <v>718.0</v>
+        <v>643.0</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C179" s="3">
-        <v>330.0</v>
+        <v>310.0</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>3</v>
@@ -6786,14 +6808,14 @@
       <c r="Z179" s="4"/>
     </row>
     <row r="180">
-      <c r="A180" s="1">
-        <v>719.0</v>
+      <c r="A180" s="6">
+        <v>651.0</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C180" s="3">
-        <v>280.0</v>
+      <c r="C180" s="7">
+        <v>230.0</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>3</v>
@@ -6822,16 +6844,16 @@
       <c r="Z180" s="4"/>
     </row>
     <row r="181">
-      <c r="A181" s="6">
-        <v>725.0</v>
-      </c>
-      <c r="B181" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C181" s="7">
-        <v>245.0</v>
-      </c>
-      <c r="D181" s="5" t="s">
+      <c r="A181" s="1">
+        <v>652.0</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C181" s="3">
+        <v>330.0</v>
+      </c>
+      <c r="D181" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E181" s="4"/>
@@ -6859,13 +6881,13 @@
     </row>
     <row r="182">
       <c r="A182" s="1">
-        <v>732.0</v>
+        <v>663.0</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C182" s="3">
-        <v>280.0</v>
+        <v>265.0</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>3</v>
@@ -6894,16 +6916,16 @@
       <c r="Z182" s="4"/>
     </row>
     <row r="183">
-      <c r="A183" s="1">
-        <v>733.0</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C183" s="3">
-        <v>320.0</v>
-      </c>
-      <c r="D183" s="2" t="s">
+      <c r="A183" s="6">
+        <v>666.0</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C183" s="7">
+        <v>300.0</v>
+      </c>
+      <c r="D183" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E183" s="4"/>
@@ -6931,13 +6953,13 @@
     </row>
     <row r="184">
       <c r="A184" s="1">
-        <v>736.0</v>
+        <v>668.0</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C184" s="3">
-        <v>250.0</v>
+        <v>305.0</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>3</v>
@@ -6966,18 +6988,16 @@
       <c r="Z184" s="4"/>
     </row>
     <row r="185">
-      <c r="A185" s="1">
-        <v>744.0</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C185" s="3">
-        <v>270.0</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A185" s="6">
+        <v>669.0</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C185" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D185" s="2"/>
       <c r="E185" s="4"/>
       <c r="F185" s="4"/>
       <c r="G185" s="4"/>
@@ -7003,7 +7023,7 @@
     </row>
     <row r="186">
       <c r="A186" s="1">
-        <v>747.0</v>
+        <v>670.0</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>3</v>
@@ -7038,16 +7058,16 @@
       <c r="Z186" s="4"/>
     </row>
     <row r="187">
-      <c r="A187" s="6">
-        <v>748.0</v>
-      </c>
-      <c r="B187" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C187" s="7">
-        <v>230.0</v>
-      </c>
-      <c r="D187" s="5" t="s">
+      <c r="A187" s="1">
+        <v>671.0</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C187" s="3">
+        <v>305.0</v>
+      </c>
+      <c r="D187" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E187" s="4"/>
@@ -7075,13 +7095,13 @@
     </row>
     <row r="188">
       <c r="A188" s="1">
-        <v>749.0</v>
+        <v>672.0</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C188" s="3">
-        <v>335.0</v>
+        <v>295.0</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>3</v>
@@ -7111,13 +7131,13 @@
     </row>
     <row r="189">
       <c r="A189" s="6">
-        <v>757.0</v>
+        <v>676.0</v>
       </c>
       <c r="B189" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C189" s="7">
-        <v>280.0</v>
+        <v>335.0</v>
       </c>
       <c r="D189" s="5" t="s">
         <v>3</v>
@@ -7147,13 +7167,13 @@
     </row>
     <row r="190">
       <c r="A190" s="1">
-        <v>758.0</v>
+        <v>680.0</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C190" s="3">
-        <v>295.0</v>
+        <v>285.0</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>3</v>
@@ -7183,13 +7203,13 @@
     </row>
     <row r="191">
       <c r="A191" s="1">
-        <v>767.0</v>
+        <v>688.0</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C191" s="3">
-        <v>290.0</v>
+        <v>310.0</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>3</v>
@@ -7218,16 +7238,16 @@
       <c r="Z191" s="4"/>
     </row>
     <row r="192">
-      <c r="A192" s="6">
-        <v>772.0</v>
-      </c>
-      <c r="B192" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C192" s="7">
-        <v>240.0</v>
-      </c>
-      <c r="D192" s="5" t="s">
+      <c r="A192" s="11">
+        <v>692.0</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C192" s="11">
+        <v>300.0</v>
+      </c>
+      <c r="D192" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E192" s="4"/>
@@ -7255,13 +7275,13 @@
     </row>
     <row r="193">
       <c r="A193" s="1">
-        <v>775.0</v>
+        <v>696.0</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C193" s="3">
-        <v>260.0</v>
+        <v>300.0</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>3</v>
@@ -7291,13 +7311,13 @@
     </row>
     <row r="194">
       <c r="A194" s="6">
-        <v>776.0</v>
+        <v>697.0</v>
       </c>
       <c r="B194" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C194" s="7">
-        <v>240.0</v>
+      <c r="C194" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="D194" s="5" t="s">
         <v>3</v>
@@ -7326,16 +7346,16 @@
       <c r="Z194" s="4"/>
     </row>
     <row r="195">
-      <c r="A195" s="1">
-        <v>777.0</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C195" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D195" s="2" t="s">
+      <c r="A195" s="6">
+        <v>712.0</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C195" s="7">
+        <v>295.0</v>
+      </c>
+      <c r="D195" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E195" s="4"/>
@@ -7362,16 +7382,16 @@
       <c r="Z195" s="4"/>
     </row>
     <row r="196">
-      <c r="A196" s="1">
-        <v>792.0</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C196" s="3">
-        <v>320.0</v>
-      </c>
-      <c r="D196" s="2" t="s">
+      <c r="A196" s="6">
+        <v>713.0</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C196" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D196" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E196" s="4"/>
@@ -7398,16 +7418,16 @@
       <c r="Z196" s="4"/>
     </row>
     <row r="197">
-      <c r="A197" s="6">
-        <v>784.0</v>
-      </c>
-      <c r="B197" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C197" s="7">
-        <v>270.0</v>
-      </c>
-      <c r="D197" s="5" t="s">
+      <c r="A197" s="1">
+        <v>714.0</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C197" s="3">
+        <v>275.0</v>
+      </c>
+      <c r="D197" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E197" s="4"/>
@@ -7435,14 +7455,12 @@
     </row>
     <row r="198">
       <c r="A198" s="6">
-        <v>789.0</v>
+        <v>715.0</v>
       </c>
       <c r="B198" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C198" s="7">
-        <v>265.0</v>
-      </c>
+      <c r="C198" s="3"/>
       <c r="D198" s="5" t="s">
         <v>3</v>
       </c>
@@ -7471,13 +7489,13 @@
     </row>
     <row r="199">
       <c r="A199" s="1">
-        <v>795.0</v>
+        <v>718.0</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C199" s="3">
-        <v>255.0</v>
+        <v>330.0</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>3</v>
@@ -7506,16 +7524,16 @@
       <c r="Z199" s="4"/>
     </row>
     <row r="200">
-      <c r="A200" s="6">
-        <v>797.0</v>
-      </c>
-      <c r="B200" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C200" s="7">
-        <v>325.0</v>
-      </c>
-      <c r="D200" s="5" t="s">
+      <c r="A200" s="1">
+        <v>719.0</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C200" s="3">
+        <v>280.0</v>
+      </c>
+      <c r="D200" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E200" s="4"/>
@@ -7542,16 +7560,16 @@
       <c r="Z200" s="4"/>
     </row>
     <row r="201">
-      <c r="A201" s="1">
-        <v>801.0</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C201" s="3">
-        <v>230.0</v>
-      </c>
-      <c r="D201" s="2" t="s">
+      <c r="A201" s="6">
+        <v>725.0</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C201" s="7">
+        <v>245.0</v>
+      </c>
+      <c r="D201" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E201" s="4"/>
@@ -7579,13 +7597,13 @@
     </row>
     <row r="202">
       <c r="A202" s="6">
-        <v>806.0</v>
+        <v>730.0</v>
       </c>
       <c r="B202" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C202" s="7">
-        <v>280.0</v>
+        <v>315.0</v>
       </c>
       <c r="D202" s="5" t="s">
         <v>3</v>
@@ -7614,16 +7632,16 @@
       <c r="Z202" s="4"/>
     </row>
     <row r="203">
-      <c r="A203" s="1">
-        <v>809.0</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C203" s="3">
-        <v>270.0</v>
-      </c>
-      <c r="D203" s="2" t="s">
+      <c r="A203" s="6">
+        <v>731.0</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D203" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E203" s="4"/>
@@ -7651,13 +7669,13 @@
     </row>
     <row r="204">
       <c r="A204" s="1">
-        <v>811.0</v>
+        <v>732.0</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C204" s="3">
-        <v>260.0</v>
+        <v>280.0</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>3</v>
@@ -7686,16 +7704,16 @@
       <c r="Z204" s="4"/>
     </row>
     <row r="205">
-      <c r="A205" s="6">
-        <v>813.0</v>
-      </c>
-      <c r="B205" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C205" s="7">
-        <v>275.0</v>
-      </c>
-      <c r="D205" s="5" t="s">
+      <c r="A205" s="1">
+        <v>733.0</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C205" s="3">
+        <v>320.0</v>
+      </c>
+      <c r="D205" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E205" s="4"/>
@@ -7722,16 +7740,16 @@
       <c r="Z205" s="4"/>
     </row>
     <row r="206">
-      <c r="A206" s="6">
-        <v>817.0</v>
-      </c>
-      <c r="B206" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C206" s="7">
-        <v>330.0</v>
-      </c>
-      <c r="D206" s="5" t="s">
+      <c r="A206" s="1">
+        <v>736.0</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C206" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D206" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E206" s="4"/>
@@ -7758,16 +7776,16 @@
       <c r="Z206" s="4"/>
     </row>
     <row r="207">
-      <c r="A207" s="1">
-        <v>819.0</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C207" s="3">
-        <v>200.0</v>
-      </c>
-      <c r="D207" s="2" t="s">
+      <c r="A207" s="6">
+        <v>742.0</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C207" s="7">
+        <v>240.0</v>
+      </c>
+      <c r="D207" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E207" s="4"/>
@@ -7795,13 +7813,13 @@
     </row>
     <row r="208">
       <c r="A208" s="1">
-        <v>820.0</v>
+        <v>744.0</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C208" s="3">
-        <v>245.0</v>
+        <v>270.0</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>3</v>
@@ -7831,13 +7849,13 @@
     </row>
     <row r="209">
       <c r="A209" s="1">
-        <v>821.0</v>
+        <v>747.0</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C209" s="3">
-        <v>300.0</v>
+        <v>250.0</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>3</v>
@@ -7867,13 +7885,13 @@
     </row>
     <row r="210">
       <c r="A210" s="6">
-        <v>827.0</v>
+        <v>748.0</v>
       </c>
       <c r="B210" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C210" s="7" t="s">
-        <v>13</v>
+      <c r="C210" s="7">
+        <v>230.0</v>
       </c>
       <c r="D210" s="5" t="s">
         <v>3</v>
@@ -7902,16 +7920,16 @@
       <c r="Z210" s="4"/>
     </row>
     <row r="211">
-      <c r="A211" s="6">
-        <v>829.0</v>
-      </c>
-      <c r="B211" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C211" s="7">
-        <v>275.0</v>
-      </c>
-      <c r="D211" s="5" t="s">
+      <c r="A211" s="1">
+        <v>749.0</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C211" s="3">
+        <v>335.0</v>
+      </c>
+      <c r="D211" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E211" s="4"/>
@@ -7939,13 +7957,13 @@
     </row>
     <row r="212">
       <c r="A212" s="6">
-        <v>833.0</v>
+        <v>757.0</v>
       </c>
       <c r="B212" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C212" s="7">
-        <v>235.0</v>
+        <v>280.0</v>
       </c>
       <c r="D212" s="5" t="s">
         <v>3</v>
@@ -7974,16 +7992,16 @@
       <c r="Z212" s="4"/>
     </row>
     <row r="213">
-      <c r="A213" s="6">
-        <v>834.0</v>
-      </c>
-      <c r="B213" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C213" s="7">
-        <v>225.0</v>
-      </c>
-      <c r="D213" s="5" t="s">
+      <c r="A213" s="1">
+        <v>758.0</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C213" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D213" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E213" s="4"/>
@@ -8011,13 +8029,13 @@
     </row>
     <row r="214">
       <c r="A214" s="6">
-        <v>837.0</v>
+        <v>761.0</v>
       </c>
       <c r="B214" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C214" s="7">
-        <v>275.0</v>
+        <v>260.0</v>
       </c>
       <c r="D214" s="5" t="s">
         <v>3</v>
@@ -8046,16 +8064,16 @@
       <c r="Z214" s="4"/>
     </row>
     <row r="215">
-      <c r="A215" s="6">
-        <v>838.0</v>
-      </c>
-      <c r="B215" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C215" s="7">
-        <v>295.0</v>
-      </c>
-      <c r="D215" s="5" t="s">
+      <c r="A215" s="1">
+        <v>767.0</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C215" s="3">
+        <v>290.0</v>
+      </c>
+      <c r="D215" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E215" s="4"/>
@@ -8083,13 +8101,13 @@
     </row>
     <row r="216">
       <c r="A216" s="6">
-        <v>843.0</v>
+        <v>772.0</v>
       </c>
       <c r="B216" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C216" s="7">
-        <v>320.0</v>
+        <v>240.0</v>
       </c>
       <c r="D216" s="5" t="s">
         <v>3</v>
@@ -8119,13 +8137,13 @@
     </row>
     <row r="217">
       <c r="A217" s="1">
-        <v>846.0</v>
+        <v>775.0</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C217" s="3">
-        <v>295.0</v>
+        <v>260.0</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>3</v>
@@ -8154,16 +8172,16 @@
       <c r="Z217" s="4"/>
     </row>
     <row r="218">
-      <c r="A218" s="1">
-        <v>853.0</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C218" s="3">
-        <v>290.0</v>
-      </c>
-      <c r="D218" s="2" t="s">
+      <c r="A218" s="6">
+        <v>776.0</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C218" s="7">
+        <v>240.0</v>
+      </c>
+      <c r="D218" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E218" s="4"/>
@@ -8191,13 +8209,13 @@
     </row>
     <row r="219">
       <c r="A219" s="1">
-        <v>856.0</v>
+        <v>777.0</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C219" s="3">
-        <v>260.0</v>
+        <v>310.0</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>3</v>
@@ -8227,13 +8245,13 @@
     </row>
     <row r="220">
       <c r="A220" s="1">
-        <v>861.0</v>
+        <v>792.0</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C220" s="3">
-        <v>305.0</v>
+        <v>320.0</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>3</v>
@@ -8262,16 +8280,16 @@
       <c r="Z220" s="4"/>
     </row>
     <row r="221">
-      <c r="A221" s="1">
-        <v>863.0</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C221" s="3">
-        <v>275.0</v>
-      </c>
-      <c r="D221" s="2" t="s">
+      <c r="A221" s="6">
+        <v>784.0</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C221" s="7">
+        <v>270.0</v>
+      </c>
+      <c r="D221" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E221" s="4"/>
@@ -8298,16 +8316,16 @@
       <c r="Z221" s="4"/>
     </row>
     <row r="222">
-      <c r="A222" s="1">
-        <v>872.0</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C222" s="3">
-        <v>295.0</v>
-      </c>
-      <c r="D222" s="2" t="s">
+      <c r="A222" s="6">
+        <v>786.0</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C222" s="7">
+        <v>275.0</v>
+      </c>
+      <c r="D222" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E222" s="4"/>
@@ -8335,13 +8353,13 @@
     </row>
     <row r="223">
       <c r="A223" s="6">
-        <v>876.0</v>
+        <v>789.0</v>
       </c>
       <c r="B223" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C223" s="7">
-        <v>250.0</v>
+        <v>265.0</v>
       </c>
       <c r="D223" s="5" t="s">
         <v>3</v>
@@ -8371,13 +8389,13 @@
     </row>
     <row r="224">
       <c r="A224" s="1">
-        <v>880.0</v>
+        <v>795.0</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C224" s="3">
-        <v>225.0</v>
+        <v>255.0</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>3</v>
@@ -8407,13 +8425,13 @@
     </row>
     <row r="225">
       <c r="A225" s="6">
-        <v>886.0</v>
+        <v>797.0</v>
       </c>
       <c r="B225" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C225" s="7">
-        <v>230.0</v>
+        <v>325.0</v>
       </c>
       <c r="D225" s="5" t="s">
         <v>3</v>
@@ -8442,16 +8460,16 @@
       <c r="Z225" s="4"/>
     </row>
     <row r="226">
-      <c r="A226" s="1">
-        <v>899.0</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C226" s="3">
+      <c r="A226" s="6">
+        <v>799.0</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C226" s="7">
         <v>310.0</v>
       </c>
-      <c r="D226" s="2" t="s">
+      <c r="D226" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E226" s="4"/>
@@ -8479,13 +8497,13 @@
     </row>
     <row r="227">
       <c r="A227" s="1">
-        <v>901.0</v>
+        <v>801.0</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C227" s="3">
-        <v>275.0</v>
+        <v>230.0</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>3</v>
@@ -8515,13 +8533,13 @@
     </row>
     <row r="228">
       <c r="A228" s="6">
-        <v>910.0</v>
+        <v>806.0</v>
       </c>
       <c r="B228" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C228" s="7">
-        <v>330.0</v>
+        <v>280.0</v>
       </c>
       <c r="D228" s="5" t="s">
         <v>3</v>
@@ -8551,15 +8569,15 @@
     </row>
     <row r="229">
       <c r="A229" s="1">
-        <v>935.0</v>
+        <v>809.0</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C229" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D229" s="5" t="s">
+        <v>270.0</v>
+      </c>
+      <c r="D229" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E229" s="4"/>
@@ -8586,16 +8604,16 @@
       <c r="Z229" s="4"/>
     </row>
     <row r="230">
-      <c r="A230" s="5">
-        <v>1000.0</v>
-      </c>
-      <c r="B230" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C230" s="5">
-        <v>2000.0</v>
-      </c>
-      <c r="D230" s="5" t="s">
+      <c r="A230" s="1">
+        <v>811.0</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C230" s="3">
+        <v>260.0</v>
+      </c>
+      <c r="D230" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E230" s="4"/>
@@ -8622,10 +8640,18 @@
       <c r="Z230" s="4"/>
     </row>
     <row r="231">
-      <c r="A231" s="2"/>
-      <c r="B231" s="2"/>
-      <c r="C231" s="2"/>
-      <c r="D231" s="2"/>
+      <c r="A231" s="6">
+        <v>813.0</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C231" s="7">
+        <v>275.0</v>
+      </c>
+      <c r="D231" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E231" s="4"/>
       <c r="F231" s="4"/>
       <c r="G231" s="4"/>
@@ -8650,10 +8676,18 @@
       <c r="Z231" s="4"/>
     </row>
     <row r="232">
-      <c r="A232" s="2"/>
-      <c r="B232" s="2"/>
-      <c r="C232" s="2"/>
-      <c r="D232" s="2"/>
+      <c r="A232" s="6">
+        <v>817.0</v>
+      </c>
+      <c r="B232" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C232" s="7">
+        <v>330.0</v>
+      </c>
+      <c r="D232" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E232" s="4"/>
       <c r="F232" s="4"/>
       <c r="G232" s="4"/>
@@ -8678,10 +8712,18 @@
       <c r="Z232" s="4"/>
     </row>
     <row r="233">
-      <c r="A233" s="2"/>
-      <c r="B233" s="2"/>
-      <c r="C233" s="2"/>
-      <c r="D233" s="2"/>
+      <c r="A233" s="1">
+        <v>819.0</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C233" s="3">
+        <v>200.0</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E233" s="4"/>
       <c r="F233" s="4"/>
       <c r="G233" s="4"/>
@@ -8706,10 +8748,18 @@
       <c r="Z233" s="4"/>
     </row>
     <row r="234">
-      <c r="A234" s="2"/>
-      <c r="B234" s="2"/>
-      <c r="C234" s="2"/>
-      <c r="D234" s="2"/>
+      <c r="A234" s="1">
+        <v>820.0</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C234" s="3">
+        <v>245.0</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E234" s="4"/>
       <c r="F234" s="4"/>
       <c r="G234" s="4"/>
@@ -8734,10 +8784,18 @@
       <c r="Z234" s="4"/>
     </row>
     <row r="235">
-      <c r="A235" s="2"/>
-      <c r="B235" s="2"/>
-      <c r="C235" s="2"/>
-      <c r="D235" s="2"/>
+      <c r="A235" s="1">
+        <v>821.0</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C235" s="3">
+        <v>300.0</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E235" s="4"/>
       <c r="F235" s="4"/>
       <c r="G235" s="4"/>
@@ -8762,10 +8820,18 @@
       <c r="Z235" s="4"/>
     </row>
     <row r="236">
-      <c r="A236" s="2"/>
-      <c r="B236" s="2"/>
-      <c r="C236" s="2"/>
-      <c r="D236" s="2"/>
+      <c r="A236" s="6">
+        <v>824.0</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C236" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D236" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E236" s="4"/>
       <c r="F236" s="4"/>
       <c r="G236" s="4"/>
@@ -8790,10 +8856,18 @@
       <c r="Z236" s="4"/>
     </row>
     <row r="237">
-      <c r="A237" s="2"/>
-      <c r="B237" s="2"/>
-      <c r="C237" s="2"/>
-      <c r="D237" s="2"/>
+      <c r="A237" s="6">
+        <v>827.0</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C237" s="7">
+        <v>290.0</v>
+      </c>
+      <c r="D237" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E237" s="4"/>
       <c r="F237" s="4"/>
       <c r="G237" s="4"/>
@@ -8818,10 +8892,18 @@
       <c r="Z237" s="4"/>
     </row>
     <row r="238">
-      <c r="A238" s="2"/>
-      <c r="B238" s="2"/>
-      <c r="C238" s="2"/>
-      <c r="D238" s="2"/>
+      <c r="A238" s="6">
+        <v>829.0</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C238" s="7">
+        <v>275.0</v>
+      </c>
+      <c r="D238" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E238" s="4"/>
       <c r="F238" s="4"/>
       <c r="G238" s="4"/>
@@ -8846,10 +8928,18 @@
       <c r="Z238" s="4"/>
     </row>
     <row r="239">
-      <c r="A239" s="2"/>
-      <c r="B239" s="2"/>
-      <c r="C239" s="2"/>
-      <c r="D239" s="2"/>
+      <c r="A239" s="6">
+        <v>833.0</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C239" s="7">
+        <v>235.0</v>
+      </c>
+      <c r="D239" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E239" s="4"/>
       <c r="F239" s="4"/>
       <c r="G239" s="4"/>
@@ -8874,10 +8964,18 @@
       <c r="Z239" s="4"/>
     </row>
     <row r="240">
-      <c r="A240" s="2"/>
-      <c r="B240" s="2"/>
-      <c r="C240" s="2"/>
-      <c r="D240" s="2"/>
+      <c r="A240" s="6">
+        <v>834.0</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C240" s="7">
+        <v>225.0</v>
+      </c>
+      <c r="D240" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E240" s="4"/>
       <c r="F240" s="4"/>
       <c r="G240" s="4"/>
@@ -8902,10 +9000,18 @@
       <c r="Z240" s="4"/>
     </row>
     <row r="241">
-      <c r="A241" s="2"/>
-      <c r="B241" s="2"/>
-      <c r="C241" s="2"/>
-      <c r="D241" s="2"/>
+      <c r="A241" s="6">
+        <v>837.0</v>
+      </c>
+      <c r="B241" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C241" s="7">
+        <v>275.0</v>
+      </c>
+      <c r="D241" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E241" s="4"/>
       <c r="F241" s="4"/>
       <c r="G241" s="4"/>
@@ -8930,10 +9036,18 @@
       <c r="Z241" s="4"/>
     </row>
     <row r="242">
-      <c r="A242" s="2"/>
-      <c r="B242" s="2"/>
-      <c r="C242" s="2"/>
-      <c r="D242" s="2"/>
+      <c r="A242" s="6">
+        <v>838.0</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C242" s="7">
+        <v>295.0</v>
+      </c>
+      <c r="D242" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E242" s="4"/>
       <c r="F242" s="4"/>
       <c r="G242" s="4"/>
@@ -8958,10 +9072,18 @@
       <c r="Z242" s="4"/>
     </row>
     <row r="243">
-      <c r="A243" s="2"/>
-      <c r="B243" s="2"/>
-      <c r="C243" s="2"/>
-      <c r="D243" s="2"/>
+      <c r="A243" s="6">
+        <v>843.0</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C243" s="7">
+        <v>320.0</v>
+      </c>
+      <c r="D243" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E243" s="4"/>
       <c r="F243" s="4"/>
       <c r="G243" s="4"/>
@@ -8986,10 +9108,18 @@
       <c r="Z243" s="4"/>
     </row>
     <row r="244">
-      <c r="A244" s="2"/>
-      <c r="B244" s="2"/>
-      <c r="C244" s="2"/>
-      <c r="D244" s="2"/>
+      <c r="A244" s="6">
+        <v>845.0</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C244" s="7">
+        <v>235.0</v>
+      </c>
+      <c r="D244" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E244" s="4"/>
       <c r="F244" s="4"/>
       <c r="G244" s="4"/>
@@ -9014,10 +9144,18 @@
       <c r="Z244" s="4"/>
     </row>
     <row r="245">
-      <c r="A245" s="2"/>
-      <c r="B245" s="2"/>
-      <c r="C245" s="2"/>
-      <c r="D245" s="2"/>
+      <c r="A245" s="1">
+        <v>846.0</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C245" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E245" s="4"/>
       <c r="F245" s="4"/>
       <c r="G245" s="4"/>
@@ -9042,10 +9180,18 @@
       <c r="Z245" s="4"/>
     </row>
     <row r="246">
-      <c r="A246" s="2"/>
-      <c r="B246" s="2"/>
-      <c r="C246" s="2"/>
-      <c r="D246" s="2"/>
+      <c r="A246" s="1">
+        <v>853.0</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C246" s="3">
+        <v>290.0</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E246" s="4"/>
       <c r="F246" s="4"/>
       <c r="G246" s="4"/>
@@ -9070,10 +9216,18 @@
       <c r="Z246" s="4"/>
     </row>
     <row r="247">
-      <c r="A247" s="2"/>
-      <c r="B247" s="2"/>
-      <c r="C247" s="2"/>
-      <c r="D247" s="2"/>
+      <c r="A247" s="1">
+        <v>856.0</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C247" s="3">
+        <v>260.0</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E247" s="4"/>
       <c r="F247" s="4"/>
       <c r="G247" s="4"/>
@@ -9098,10 +9252,18 @@
       <c r="Z247" s="4"/>
     </row>
     <row r="248">
-      <c r="A248" s="2"/>
-      <c r="B248" s="2"/>
-      <c r="C248" s="2"/>
-      <c r="D248" s="2"/>
+      <c r="A248" s="1">
+        <v>861.0</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C248" s="3">
+        <v>305.0</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E248" s="4"/>
       <c r="F248" s="4"/>
       <c r="G248" s="4"/>
@@ -9126,10 +9288,18 @@
       <c r="Z248" s="4"/>
     </row>
     <row r="249">
-      <c r="A249" s="2"/>
-      <c r="B249" s="2"/>
-      <c r="C249" s="2"/>
-      <c r="D249" s="2"/>
+      <c r="A249" s="1">
+        <v>863.0</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C249" s="3">
+        <v>275.0</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E249" s="4"/>
       <c r="F249" s="4"/>
       <c r="G249" s="4"/>
@@ -9154,10 +9324,18 @@
       <c r="Z249" s="4"/>
     </row>
     <row r="250">
-      <c r="A250" s="2"/>
-      <c r="B250" s="2"/>
-      <c r="C250" s="2"/>
-      <c r="D250" s="2"/>
+      <c r="A250" s="6">
+        <v>865.0</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C250" s="7">
+        <v>270.0</v>
+      </c>
+      <c r="D250" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E250" s="4"/>
       <c r="F250" s="4"/>
       <c r="G250" s="4"/>
@@ -9182,10 +9360,18 @@
       <c r="Z250" s="4"/>
     </row>
     <row r="251">
-      <c r="A251" s="2"/>
-      <c r="B251" s="2"/>
-      <c r="C251" s="2"/>
-      <c r="D251" s="2"/>
+      <c r="A251" s="1">
+        <v>872.0</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C251" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E251" s="4"/>
       <c r="F251" s="4"/>
       <c r="G251" s="4"/>
@@ -9210,10 +9396,18 @@
       <c r="Z251" s="4"/>
     </row>
     <row r="252">
-      <c r="A252" s="2"/>
-      <c r="B252" s="2"/>
-      <c r="C252" s="2"/>
-      <c r="D252" s="2"/>
+      <c r="A252" s="6">
+        <v>876.0</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C252" s="7">
+        <v>250.0</v>
+      </c>
+      <c r="D252" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E252" s="4"/>
       <c r="F252" s="4"/>
       <c r="G252" s="4"/>
@@ -9238,10 +9432,18 @@
       <c r="Z252" s="4"/>
     </row>
     <row r="253">
-      <c r="A253" s="2"/>
-      <c r="B253" s="2"/>
-      <c r="C253" s="2"/>
-      <c r="D253" s="2"/>
+      <c r="A253" s="1">
+        <v>880.0</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C253" s="3">
+        <v>225.0</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E253" s="4"/>
       <c r="F253" s="4"/>
       <c r="G253" s="4"/>
@@ -9266,10 +9468,18 @@
       <c r="Z253" s="4"/>
     </row>
     <row r="254">
-      <c r="A254" s="2"/>
-      <c r="B254" s="2"/>
-      <c r="C254" s="2"/>
-      <c r="D254" s="2"/>
+      <c r="A254" s="6">
+        <v>886.0</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C254" s="7">
+        <v>230.0</v>
+      </c>
+      <c r="D254" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E254" s="4"/>
       <c r="F254" s="4"/>
       <c r="G254" s="4"/>
@@ -9294,10 +9504,18 @@
       <c r="Z254" s="4"/>
     </row>
     <row r="255">
-      <c r="A255" s="2"/>
-      <c r="B255" s="2"/>
-      <c r="C255" s="2"/>
-      <c r="D255" s="2"/>
+      <c r="A255" s="6">
+        <v>897.0</v>
+      </c>
+      <c r="B255" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C255" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D255" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E255" s="4"/>
       <c r="F255" s="4"/>
       <c r="G255" s="4"/>
@@ -9322,10 +9540,18 @@
       <c r="Z255" s="4"/>
     </row>
     <row r="256">
-      <c r="A256" s="2"/>
-      <c r="B256" s="2"/>
-      <c r="C256" s="2"/>
-      <c r="D256" s="2"/>
+      <c r="A256" s="1">
+        <v>899.0</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C256" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E256" s="4"/>
       <c r="F256" s="4"/>
       <c r="G256" s="4"/>
@@ -9350,10 +9576,18 @@
       <c r="Z256" s="4"/>
     </row>
     <row r="257">
-      <c r="A257" s="2"/>
-      <c r="B257" s="2"/>
-      <c r="C257" s="2"/>
-      <c r="D257" s="2"/>
+      <c r="A257" s="1">
+        <v>901.0</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C257" s="3">
+        <v>275.0</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E257" s="4"/>
       <c r="F257" s="4"/>
       <c r="G257" s="4"/>
@@ -9378,10 +9612,18 @@
       <c r="Z257" s="4"/>
     </row>
     <row r="258">
-      <c r="A258" s="2"/>
-      <c r="B258" s="2"/>
-      <c r="C258" s="2"/>
-      <c r="D258" s="2"/>
+      <c r="A258" s="6">
+        <v>910.0</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C258" s="7">
+        <v>330.0</v>
+      </c>
+      <c r="D258" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E258" s="4"/>
       <c r="F258" s="4"/>
       <c r="G258" s="4"/>
@@ -9406,10 +9648,18 @@
       <c r="Z258" s="4"/>
     </row>
     <row r="259">
-      <c r="A259" s="2"/>
-      <c r="B259" s="2"/>
-      <c r="C259" s="2"/>
-      <c r="D259" s="2"/>
+      <c r="A259" s="1">
+        <v>935.0</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C259" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D259" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E259" s="4"/>
       <c r="F259" s="4"/>
       <c r="G259" s="4"/>
@@ -9434,10 +9684,18 @@
       <c r="Z259" s="4"/>
     </row>
     <row r="260">
-      <c r="A260" s="2"/>
-      <c r="B260" s="2"/>
-      <c r="C260" s="2"/>
-      <c r="D260" s="2"/>
+      <c r="A260" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C260" s="5">
+        <v>2000.0</v>
+      </c>
+      <c r="D260" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E260" s="4"/>
       <c r="F260" s="4"/>
       <c r="G260" s="4"/>
@@ -32758,10 +33016,10 @@
       <c r="Z1092" s="4"/>
     </row>
     <row r="1093">
-      <c r="A1093" s="4"/>
-      <c r="B1093" s="4"/>
-      <c r="C1093" s="4"/>
-      <c r="D1093" s="4"/>
+      <c r="A1093" s="2"/>
+      <c r="B1093" s="2"/>
+      <c r="C1093" s="2"/>
+      <c r="D1093" s="2"/>
       <c r="E1093" s="4"/>
       <c r="F1093" s="4"/>
       <c r="G1093" s="4"/>
@@ -32785,6 +33043,846 @@
       <c r="Y1093" s="4"/>
       <c r="Z1093" s="4"/>
     </row>
+    <row r="1094">
+      <c r="A1094" s="2"/>
+      <c r="B1094" s="2"/>
+      <c r="C1094" s="2"/>
+      <c r="D1094" s="2"/>
+      <c r="E1094" s="4"/>
+      <c r="F1094" s="4"/>
+      <c r="G1094" s="4"/>
+      <c r="H1094" s="4"/>
+      <c r="I1094" s="4"/>
+      <c r="J1094" s="4"/>
+      <c r="K1094" s="4"/>
+      <c r="L1094" s="4"/>
+      <c r="M1094" s="4"/>
+      <c r="N1094" s="4"/>
+      <c r="O1094" s="4"/>
+      <c r="P1094" s="4"/>
+      <c r="Q1094" s="4"/>
+      <c r="R1094" s="4"/>
+      <c r="S1094" s="4"/>
+      <c r="T1094" s="4"/>
+      <c r="U1094" s="4"/>
+      <c r="V1094" s="4"/>
+      <c r="W1094" s="4"/>
+      <c r="X1094" s="4"/>
+      <c r="Y1094" s="4"/>
+      <c r="Z1094" s="4"/>
+    </row>
+    <row r="1095">
+      <c r="A1095" s="2"/>
+      <c r="B1095" s="2"/>
+      <c r="C1095" s="2"/>
+      <c r="D1095" s="2"/>
+      <c r="E1095" s="4"/>
+      <c r="F1095" s="4"/>
+      <c r="G1095" s="4"/>
+      <c r="H1095" s="4"/>
+      <c r="I1095" s="4"/>
+      <c r="J1095" s="4"/>
+      <c r="K1095" s="4"/>
+      <c r="L1095" s="4"/>
+      <c r="M1095" s="4"/>
+      <c r="N1095" s="4"/>
+      <c r="O1095" s="4"/>
+      <c r="P1095" s="4"/>
+      <c r="Q1095" s="4"/>
+      <c r="R1095" s="4"/>
+      <c r="S1095" s="4"/>
+      <c r="T1095" s="4"/>
+      <c r="U1095" s="4"/>
+      <c r="V1095" s="4"/>
+      <c r="W1095" s="4"/>
+      <c r="X1095" s="4"/>
+      <c r="Y1095" s="4"/>
+      <c r="Z1095" s="4"/>
+    </row>
+    <row r="1096">
+      <c r="A1096" s="2"/>
+      <c r="B1096" s="2"/>
+      <c r="C1096" s="2"/>
+      <c r="D1096" s="2"/>
+      <c r="E1096" s="4"/>
+      <c r="F1096" s="4"/>
+      <c r="G1096" s="4"/>
+      <c r="H1096" s="4"/>
+      <c r="I1096" s="4"/>
+      <c r="J1096" s="4"/>
+      <c r="K1096" s="4"/>
+      <c r="L1096" s="4"/>
+      <c r="M1096" s="4"/>
+      <c r="N1096" s="4"/>
+      <c r="O1096" s="4"/>
+      <c r="P1096" s="4"/>
+      <c r="Q1096" s="4"/>
+      <c r="R1096" s="4"/>
+      <c r="S1096" s="4"/>
+      <c r="T1096" s="4"/>
+      <c r="U1096" s="4"/>
+      <c r="V1096" s="4"/>
+      <c r="W1096" s="4"/>
+      <c r="X1096" s="4"/>
+      <c r="Y1096" s="4"/>
+      <c r="Z1096" s="4"/>
+    </row>
+    <row r="1097">
+      <c r="A1097" s="2"/>
+      <c r="B1097" s="2"/>
+      <c r="C1097" s="2"/>
+      <c r="D1097" s="2"/>
+      <c r="E1097" s="4"/>
+      <c r="F1097" s="4"/>
+      <c r="G1097" s="4"/>
+      <c r="H1097" s="4"/>
+      <c r="I1097" s="4"/>
+      <c r="J1097" s="4"/>
+      <c r="K1097" s="4"/>
+      <c r="L1097" s="4"/>
+      <c r="M1097" s="4"/>
+      <c r="N1097" s="4"/>
+      <c r="O1097" s="4"/>
+      <c r="P1097" s="4"/>
+      <c r="Q1097" s="4"/>
+      <c r="R1097" s="4"/>
+      <c r="S1097" s="4"/>
+      <c r="T1097" s="4"/>
+      <c r="U1097" s="4"/>
+      <c r="V1097" s="4"/>
+      <c r="W1097" s="4"/>
+      <c r="X1097" s="4"/>
+      <c r="Y1097" s="4"/>
+      <c r="Z1097" s="4"/>
+    </row>
+    <row r="1098">
+      <c r="A1098" s="2"/>
+      <c r="B1098" s="2"/>
+      <c r="C1098" s="2"/>
+      <c r="D1098" s="2"/>
+      <c r="E1098" s="4"/>
+      <c r="F1098" s="4"/>
+      <c r="G1098" s="4"/>
+      <c r="H1098" s="4"/>
+      <c r="I1098" s="4"/>
+      <c r="J1098" s="4"/>
+      <c r="K1098" s="4"/>
+      <c r="L1098" s="4"/>
+      <c r="M1098" s="4"/>
+      <c r="N1098" s="4"/>
+      <c r="O1098" s="4"/>
+      <c r="P1098" s="4"/>
+      <c r="Q1098" s="4"/>
+      <c r="R1098" s="4"/>
+      <c r="S1098" s="4"/>
+      <c r="T1098" s="4"/>
+      <c r="U1098" s="4"/>
+      <c r="V1098" s="4"/>
+      <c r="W1098" s="4"/>
+      <c r="X1098" s="4"/>
+      <c r="Y1098" s="4"/>
+      <c r="Z1098" s="4"/>
+    </row>
+    <row r="1099">
+      <c r="A1099" s="2"/>
+      <c r="B1099" s="2"/>
+      <c r="C1099" s="2"/>
+      <c r="D1099" s="2"/>
+      <c r="E1099" s="4"/>
+      <c r="F1099" s="4"/>
+      <c r="G1099" s="4"/>
+      <c r="H1099" s="4"/>
+      <c r="I1099" s="4"/>
+      <c r="J1099" s="4"/>
+      <c r="K1099" s="4"/>
+      <c r="L1099" s="4"/>
+      <c r="M1099" s="4"/>
+      <c r="N1099" s="4"/>
+      <c r="O1099" s="4"/>
+      <c r="P1099" s="4"/>
+      <c r="Q1099" s="4"/>
+      <c r="R1099" s="4"/>
+      <c r="S1099" s="4"/>
+      <c r="T1099" s="4"/>
+      <c r="U1099" s="4"/>
+      <c r="V1099" s="4"/>
+      <c r="W1099" s="4"/>
+      <c r="X1099" s="4"/>
+      <c r="Y1099" s="4"/>
+      <c r="Z1099" s="4"/>
+    </row>
+    <row r="1100">
+      <c r="A1100" s="2"/>
+      <c r="B1100" s="2"/>
+      <c r="C1100" s="2"/>
+      <c r="D1100" s="2"/>
+      <c r="E1100" s="4"/>
+      <c r="F1100" s="4"/>
+      <c r="G1100" s="4"/>
+      <c r="H1100" s="4"/>
+      <c r="I1100" s="4"/>
+      <c r="J1100" s="4"/>
+      <c r="K1100" s="4"/>
+      <c r="L1100" s="4"/>
+      <c r="M1100" s="4"/>
+      <c r="N1100" s="4"/>
+      <c r="O1100" s="4"/>
+      <c r="P1100" s="4"/>
+      <c r="Q1100" s="4"/>
+      <c r="R1100" s="4"/>
+      <c r="S1100" s="4"/>
+      <c r="T1100" s="4"/>
+      <c r="U1100" s="4"/>
+      <c r="V1100" s="4"/>
+      <c r="W1100" s="4"/>
+      <c r="X1100" s="4"/>
+      <c r="Y1100" s="4"/>
+      <c r="Z1100" s="4"/>
+    </row>
+    <row r="1101">
+      <c r="A1101" s="2"/>
+      <c r="B1101" s="2"/>
+      <c r="C1101" s="2"/>
+      <c r="D1101" s="2"/>
+      <c r="E1101" s="4"/>
+      <c r="F1101" s="4"/>
+      <c r="G1101" s="4"/>
+      <c r="H1101" s="4"/>
+      <c r="I1101" s="4"/>
+      <c r="J1101" s="4"/>
+      <c r="K1101" s="4"/>
+      <c r="L1101" s="4"/>
+      <c r="M1101" s="4"/>
+      <c r="N1101" s="4"/>
+      <c r="O1101" s="4"/>
+      <c r="P1101" s="4"/>
+      <c r="Q1101" s="4"/>
+      <c r="R1101" s="4"/>
+      <c r="S1101" s="4"/>
+      <c r="T1101" s="4"/>
+      <c r="U1101" s="4"/>
+      <c r="V1101" s="4"/>
+      <c r="W1101" s="4"/>
+      <c r="X1101" s="4"/>
+      <c r="Y1101" s="4"/>
+      <c r="Z1101" s="4"/>
+    </row>
+    <row r="1102">
+      <c r="A1102" s="2"/>
+      <c r="B1102" s="2"/>
+      <c r="C1102" s="2"/>
+      <c r="D1102" s="2"/>
+      <c r="E1102" s="4"/>
+      <c r="F1102" s="4"/>
+      <c r="G1102" s="4"/>
+      <c r="H1102" s="4"/>
+      <c r="I1102" s="4"/>
+      <c r="J1102" s="4"/>
+      <c r="K1102" s="4"/>
+      <c r="L1102" s="4"/>
+      <c r="M1102" s="4"/>
+      <c r="N1102" s="4"/>
+      <c r="O1102" s="4"/>
+      <c r="P1102" s="4"/>
+      <c r="Q1102" s="4"/>
+      <c r="R1102" s="4"/>
+      <c r="S1102" s="4"/>
+      <c r="T1102" s="4"/>
+      <c r="U1102" s="4"/>
+      <c r="V1102" s="4"/>
+      <c r="W1102" s="4"/>
+      <c r="X1102" s="4"/>
+      <c r="Y1102" s="4"/>
+      <c r="Z1102" s="4"/>
+    </row>
+    <row r="1103">
+      <c r="A1103" s="2"/>
+      <c r="B1103" s="2"/>
+      <c r="C1103" s="2"/>
+      <c r="D1103" s="2"/>
+      <c r="E1103" s="4"/>
+      <c r="F1103" s="4"/>
+      <c r="G1103" s="4"/>
+      <c r="H1103" s="4"/>
+      <c r="I1103" s="4"/>
+      <c r="J1103" s="4"/>
+      <c r="K1103" s="4"/>
+      <c r="L1103" s="4"/>
+      <c r="M1103" s="4"/>
+      <c r="N1103" s="4"/>
+      <c r="O1103" s="4"/>
+      <c r="P1103" s="4"/>
+      <c r="Q1103" s="4"/>
+      <c r="R1103" s="4"/>
+      <c r="S1103" s="4"/>
+      <c r="T1103" s="4"/>
+      <c r="U1103" s="4"/>
+      <c r="V1103" s="4"/>
+      <c r="W1103" s="4"/>
+      <c r="X1103" s="4"/>
+      <c r="Y1103" s="4"/>
+      <c r="Z1103" s="4"/>
+    </row>
+    <row r="1104">
+      <c r="A1104" s="2"/>
+      <c r="B1104" s="2"/>
+      <c r="C1104" s="2"/>
+      <c r="D1104" s="2"/>
+      <c r="E1104" s="4"/>
+      <c r="F1104" s="4"/>
+      <c r="G1104" s="4"/>
+      <c r="H1104" s="4"/>
+      <c r="I1104" s="4"/>
+      <c r="J1104" s="4"/>
+      <c r="K1104" s="4"/>
+      <c r="L1104" s="4"/>
+      <c r="M1104" s="4"/>
+      <c r="N1104" s="4"/>
+      <c r="O1104" s="4"/>
+      <c r="P1104" s="4"/>
+      <c r="Q1104" s="4"/>
+      <c r="R1104" s="4"/>
+      <c r="S1104" s="4"/>
+      <c r="T1104" s="4"/>
+      <c r="U1104" s="4"/>
+      <c r="V1104" s="4"/>
+      <c r="W1104" s="4"/>
+      <c r="X1104" s="4"/>
+      <c r="Y1104" s="4"/>
+      <c r="Z1104" s="4"/>
+    </row>
+    <row r="1105">
+      <c r="A1105" s="2"/>
+      <c r="B1105" s="2"/>
+      <c r="C1105" s="2"/>
+      <c r="D1105" s="2"/>
+      <c r="E1105" s="4"/>
+      <c r="F1105" s="4"/>
+      <c r="G1105" s="4"/>
+      <c r="H1105" s="4"/>
+      <c r="I1105" s="4"/>
+      <c r="J1105" s="4"/>
+      <c r="K1105" s="4"/>
+      <c r="L1105" s="4"/>
+      <c r="M1105" s="4"/>
+      <c r="N1105" s="4"/>
+      <c r="O1105" s="4"/>
+      <c r="P1105" s="4"/>
+      <c r="Q1105" s="4"/>
+      <c r="R1105" s="4"/>
+      <c r="S1105" s="4"/>
+      <c r="T1105" s="4"/>
+      <c r="U1105" s="4"/>
+      <c r="V1105" s="4"/>
+      <c r="W1105" s="4"/>
+      <c r="X1105" s="4"/>
+      <c r="Y1105" s="4"/>
+      <c r="Z1105" s="4"/>
+    </row>
+    <row r="1106">
+      <c r="A1106" s="2"/>
+      <c r="B1106" s="2"/>
+      <c r="C1106" s="2"/>
+      <c r="D1106" s="2"/>
+      <c r="E1106" s="4"/>
+      <c r="F1106" s="4"/>
+      <c r="G1106" s="4"/>
+      <c r="H1106" s="4"/>
+      <c r="I1106" s="4"/>
+      <c r="J1106" s="4"/>
+      <c r="K1106" s="4"/>
+      <c r="L1106" s="4"/>
+      <c r="M1106" s="4"/>
+      <c r="N1106" s="4"/>
+      <c r="O1106" s="4"/>
+      <c r="P1106" s="4"/>
+      <c r="Q1106" s="4"/>
+      <c r="R1106" s="4"/>
+      <c r="S1106" s="4"/>
+      <c r="T1106" s="4"/>
+      <c r="U1106" s="4"/>
+      <c r="V1106" s="4"/>
+      <c r="W1106" s="4"/>
+      <c r="X1106" s="4"/>
+      <c r="Y1106" s="4"/>
+      <c r="Z1106" s="4"/>
+    </row>
+    <row r="1107">
+      <c r="A1107" s="2"/>
+      <c r="B1107" s="2"/>
+      <c r="C1107" s="2"/>
+      <c r="D1107" s="2"/>
+      <c r="E1107" s="4"/>
+      <c r="F1107" s="4"/>
+      <c r="G1107" s="4"/>
+      <c r="H1107" s="4"/>
+      <c r="I1107" s="4"/>
+      <c r="J1107" s="4"/>
+      <c r="K1107" s="4"/>
+      <c r="L1107" s="4"/>
+      <c r="M1107" s="4"/>
+      <c r="N1107" s="4"/>
+      <c r="O1107" s="4"/>
+      <c r="P1107" s="4"/>
+      <c r="Q1107" s="4"/>
+      <c r="R1107" s="4"/>
+      <c r="S1107" s="4"/>
+      <c r="T1107" s="4"/>
+      <c r="U1107" s="4"/>
+      <c r="V1107" s="4"/>
+      <c r="W1107" s="4"/>
+      <c r="X1107" s="4"/>
+      <c r="Y1107" s="4"/>
+      <c r="Z1107" s="4"/>
+    </row>
+    <row r="1108">
+      <c r="A1108" s="2"/>
+      <c r="B1108" s="2"/>
+      <c r="C1108" s="2"/>
+      <c r="D1108" s="2"/>
+      <c r="E1108" s="4"/>
+      <c r="F1108" s="4"/>
+      <c r="G1108" s="4"/>
+      <c r="H1108" s="4"/>
+      <c r="I1108" s="4"/>
+      <c r="J1108" s="4"/>
+      <c r="K1108" s="4"/>
+      <c r="L1108" s="4"/>
+      <c r="M1108" s="4"/>
+      <c r="N1108" s="4"/>
+      <c r="O1108" s="4"/>
+      <c r="P1108" s="4"/>
+      <c r="Q1108" s="4"/>
+      <c r="R1108" s="4"/>
+      <c r="S1108" s="4"/>
+      <c r="T1108" s="4"/>
+      <c r="U1108" s="4"/>
+      <c r="V1108" s="4"/>
+      <c r="W1108" s="4"/>
+      <c r="X1108" s="4"/>
+      <c r="Y1108" s="4"/>
+      <c r="Z1108" s="4"/>
+    </row>
+    <row r="1109">
+      <c r="A1109" s="2"/>
+      <c r="B1109" s="2"/>
+      <c r="C1109" s="2"/>
+      <c r="D1109" s="2"/>
+      <c r="E1109" s="4"/>
+      <c r="F1109" s="4"/>
+      <c r="G1109" s="4"/>
+      <c r="H1109" s="4"/>
+      <c r="I1109" s="4"/>
+      <c r="J1109" s="4"/>
+      <c r="K1109" s="4"/>
+      <c r="L1109" s="4"/>
+      <c r="M1109" s="4"/>
+      <c r="N1109" s="4"/>
+      <c r="O1109" s="4"/>
+      <c r="P1109" s="4"/>
+      <c r="Q1109" s="4"/>
+      <c r="R1109" s="4"/>
+      <c r="S1109" s="4"/>
+      <c r="T1109" s="4"/>
+      <c r="U1109" s="4"/>
+      <c r="V1109" s="4"/>
+      <c r="W1109" s="4"/>
+      <c r="X1109" s="4"/>
+      <c r="Y1109" s="4"/>
+      <c r="Z1109" s="4"/>
+    </row>
+    <row r="1110">
+      <c r="A1110" s="2"/>
+      <c r="B1110" s="2"/>
+      <c r="C1110" s="2"/>
+      <c r="D1110" s="2"/>
+      <c r="E1110" s="4"/>
+      <c r="F1110" s="4"/>
+      <c r="G1110" s="4"/>
+      <c r="H1110" s="4"/>
+      <c r="I1110" s="4"/>
+      <c r="J1110" s="4"/>
+      <c r="K1110" s="4"/>
+      <c r="L1110" s="4"/>
+      <c r="M1110" s="4"/>
+      <c r="N1110" s="4"/>
+      <c r="O1110" s="4"/>
+      <c r="P1110" s="4"/>
+      <c r="Q1110" s="4"/>
+      <c r="R1110" s="4"/>
+      <c r="S1110" s="4"/>
+      <c r="T1110" s="4"/>
+      <c r="U1110" s="4"/>
+      <c r="V1110" s="4"/>
+      <c r="W1110" s="4"/>
+      <c r="X1110" s="4"/>
+      <c r="Y1110" s="4"/>
+      <c r="Z1110" s="4"/>
+    </row>
+    <row r="1111">
+      <c r="A1111" s="2"/>
+      <c r="B1111" s="2"/>
+      <c r="C1111" s="2"/>
+      <c r="D1111" s="2"/>
+      <c r="E1111" s="4"/>
+      <c r="F1111" s="4"/>
+      <c r="G1111" s="4"/>
+      <c r="H1111" s="4"/>
+      <c r="I1111" s="4"/>
+      <c r="J1111" s="4"/>
+      <c r="K1111" s="4"/>
+      <c r="L1111" s="4"/>
+      <c r="M1111" s="4"/>
+      <c r="N1111" s="4"/>
+      <c r="O1111" s="4"/>
+      <c r="P1111" s="4"/>
+      <c r="Q1111" s="4"/>
+      <c r="R1111" s="4"/>
+      <c r="S1111" s="4"/>
+      <c r="T1111" s="4"/>
+      <c r="U1111" s="4"/>
+      <c r="V1111" s="4"/>
+      <c r="W1111" s="4"/>
+      <c r="X1111" s="4"/>
+      <c r="Y1111" s="4"/>
+      <c r="Z1111" s="4"/>
+    </row>
+    <row r="1112">
+      <c r="A1112" s="2"/>
+      <c r="B1112" s="2"/>
+      <c r="C1112" s="2"/>
+      <c r="D1112" s="2"/>
+      <c r="E1112" s="4"/>
+      <c r="F1112" s="4"/>
+      <c r="G1112" s="4"/>
+      <c r="H1112" s="4"/>
+      <c r="I1112" s="4"/>
+      <c r="J1112" s="4"/>
+      <c r="K1112" s="4"/>
+      <c r="L1112" s="4"/>
+      <c r="M1112" s="4"/>
+      <c r="N1112" s="4"/>
+      <c r="O1112" s="4"/>
+      <c r="P1112" s="4"/>
+      <c r="Q1112" s="4"/>
+      <c r="R1112" s="4"/>
+      <c r="S1112" s="4"/>
+      <c r="T1112" s="4"/>
+      <c r="U1112" s="4"/>
+      <c r="V1112" s="4"/>
+      <c r="W1112" s="4"/>
+      <c r="X1112" s="4"/>
+      <c r="Y1112" s="4"/>
+      <c r="Z1112" s="4"/>
+    </row>
+    <row r="1113">
+      <c r="A1113" s="2"/>
+      <c r="B1113" s="2"/>
+      <c r="C1113" s="2"/>
+      <c r="D1113" s="2"/>
+      <c r="E1113" s="4"/>
+      <c r="F1113" s="4"/>
+      <c r="G1113" s="4"/>
+      <c r="H1113" s="4"/>
+      <c r="I1113" s="4"/>
+      <c r="J1113" s="4"/>
+      <c r="K1113" s="4"/>
+      <c r="L1113" s="4"/>
+      <c r="M1113" s="4"/>
+      <c r="N1113" s="4"/>
+      <c r="O1113" s="4"/>
+      <c r="P1113" s="4"/>
+      <c r="Q1113" s="4"/>
+      <c r="R1113" s="4"/>
+      <c r="S1113" s="4"/>
+      <c r="T1113" s="4"/>
+      <c r="U1113" s="4"/>
+      <c r="V1113" s="4"/>
+      <c r="W1113" s="4"/>
+      <c r="X1113" s="4"/>
+      <c r="Y1113" s="4"/>
+      <c r="Z1113" s="4"/>
+    </row>
+    <row r="1114">
+      <c r="A1114" s="2"/>
+      <c r="B1114" s="2"/>
+      <c r="C1114" s="2"/>
+      <c r="D1114" s="2"/>
+      <c r="E1114" s="4"/>
+      <c r="F1114" s="4"/>
+      <c r="G1114" s="4"/>
+      <c r="H1114" s="4"/>
+      <c r="I1114" s="4"/>
+      <c r="J1114" s="4"/>
+      <c r="K1114" s="4"/>
+      <c r="L1114" s="4"/>
+      <c r="M1114" s="4"/>
+      <c r="N1114" s="4"/>
+      <c r="O1114" s="4"/>
+      <c r="P1114" s="4"/>
+      <c r="Q1114" s="4"/>
+      <c r="R1114" s="4"/>
+      <c r="S1114" s="4"/>
+      <c r="T1114" s="4"/>
+      <c r="U1114" s="4"/>
+      <c r="V1114" s="4"/>
+      <c r="W1114" s="4"/>
+      <c r="X1114" s="4"/>
+      <c r="Y1114" s="4"/>
+      <c r="Z1114" s="4"/>
+    </row>
+    <row r="1115">
+      <c r="A1115" s="2"/>
+      <c r="B1115" s="2"/>
+      <c r="C1115" s="2"/>
+      <c r="D1115" s="2"/>
+      <c r="E1115" s="4"/>
+      <c r="F1115" s="4"/>
+      <c r="G1115" s="4"/>
+      <c r="H1115" s="4"/>
+      <c r="I1115" s="4"/>
+      <c r="J1115" s="4"/>
+      <c r="K1115" s="4"/>
+      <c r="L1115" s="4"/>
+      <c r="M1115" s="4"/>
+      <c r="N1115" s="4"/>
+      <c r="O1115" s="4"/>
+      <c r="P1115" s="4"/>
+      <c r="Q1115" s="4"/>
+      <c r="R1115" s="4"/>
+      <c r="S1115" s="4"/>
+      <c r="T1115" s="4"/>
+      <c r="U1115" s="4"/>
+      <c r="V1115" s="4"/>
+      <c r="W1115" s="4"/>
+      <c r="X1115" s="4"/>
+      <c r="Y1115" s="4"/>
+      <c r="Z1115" s="4"/>
+    </row>
+    <row r="1116">
+      <c r="A1116" s="2"/>
+      <c r="B1116" s="2"/>
+      <c r="C1116" s="2"/>
+      <c r="D1116" s="2"/>
+      <c r="E1116" s="4"/>
+      <c r="F1116" s="4"/>
+      <c r="G1116" s="4"/>
+      <c r="H1116" s="4"/>
+      <c r="I1116" s="4"/>
+      <c r="J1116" s="4"/>
+      <c r="K1116" s="4"/>
+      <c r="L1116" s="4"/>
+      <c r="M1116" s="4"/>
+      <c r="N1116" s="4"/>
+      <c r="O1116" s="4"/>
+      <c r="P1116" s="4"/>
+      <c r="Q1116" s="4"/>
+      <c r="R1116" s="4"/>
+      <c r="S1116" s="4"/>
+      <c r="T1116" s="4"/>
+      <c r="U1116" s="4"/>
+      <c r="V1116" s="4"/>
+      <c r="W1116" s="4"/>
+      <c r="X1116" s="4"/>
+      <c r="Y1116" s="4"/>
+      <c r="Z1116" s="4"/>
+    </row>
+    <row r="1117">
+      <c r="A1117" s="2"/>
+      <c r="B1117" s="2"/>
+      <c r="C1117" s="2"/>
+      <c r="D1117" s="2"/>
+      <c r="E1117" s="4"/>
+      <c r="F1117" s="4"/>
+      <c r="G1117" s="4"/>
+      <c r="H1117" s="4"/>
+      <c r="I1117" s="4"/>
+      <c r="J1117" s="4"/>
+      <c r="K1117" s="4"/>
+      <c r="L1117" s="4"/>
+      <c r="M1117" s="4"/>
+      <c r="N1117" s="4"/>
+      <c r="O1117" s="4"/>
+      <c r="P1117" s="4"/>
+      <c r="Q1117" s="4"/>
+      <c r="R1117" s="4"/>
+      <c r="S1117" s="4"/>
+      <c r="T1117" s="4"/>
+      <c r="U1117" s="4"/>
+      <c r="V1117" s="4"/>
+      <c r="W1117" s="4"/>
+      <c r="X1117" s="4"/>
+      <c r="Y1117" s="4"/>
+      <c r="Z1117" s="4"/>
+    </row>
+    <row r="1118">
+      <c r="A1118" s="2"/>
+      <c r="B1118" s="2"/>
+      <c r="C1118" s="2"/>
+      <c r="D1118" s="2"/>
+      <c r="E1118" s="4"/>
+      <c r="F1118" s="4"/>
+      <c r="G1118" s="4"/>
+      <c r="H1118" s="4"/>
+      <c r="I1118" s="4"/>
+      <c r="J1118" s="4"/>
+      <c r="K1118" s="4"/>
+      <c r="L1118" s="4"/>
+      <c r="M1118" s="4"/>
+      <c r="N1118" s="4"/>
+      <c r="O1118" s="4"/>
+      <c r="P1118" s="4"/>
+      <c r="Q1118" s="4"/>
+      <c r="R1118" s="4"/>
+      <c r="S1118" s="4"/>
+      <c r="T1118" s="4"/>
+      <c r="U1118" s="4"/>
+      <c r="V1118" s="4"/>
+      <c r="W1118" s="4"/>
+      <c r="X1118" s="4"/>
+      <c r="Y1118" s="4"/>
+      <c r="Z1118" s="4"/>
+    </row>
+    <row r="1119">
+      <c r="A1119" s="2"/>
+      <c r="B1119" s="2"/>
+      <c r="C1119" s="2"/>
+      <c r="D1119" s="2"/>
+      <c r="E1119" s="4"/>
+      <c r="F1119" s="4"/>
+      <c r="G1119" s="4"/>
+      <c r="H1119" s="4"/>
+      <c r="I1119" s="4"/>
+      <c r="J1119" s="4"/>
+      <c r="K1119" s="4"/>
+      <c r="L1119" s="4"/>
+      <c r="M1119" s="4"/>
+      <c r="N1119" s="4"/>
+      <c r="O1119" s="4"/>
+      <c r="P1119" s="4"/>
+      <c r="Q1119" s="4"/>
+      <c r="R1119" s="4"/>
+      <c r="S1119" s="4"/>
+      <c r="T1119" s="4"/>
+      <c r="U1119" s="4"/>
+      <c r="V1119" s="4"/>
+      <c r="W1119" s="4"/>
+      <c r="X1119" s="4"/>
+      <c r="Y1119" s="4"/>
+      <c r="Z1119" s="4"/>
+    </row>
+    <row r="1120">
+      <c r="A1120" s="2"/>
+      <c r="B1120" s="2"/>
+      <c r="C1120" s="2"/>
+      <c r="D1120" s="2"/>
+      <c r="E1120" s="4"/>
+      <c r="F1120" s="4"/>
+      <c r="G1120" s="4"/>
+      <c r="H1120" s="4"/>
+      <c r="I1120" s="4"/>
+      <c r="J1120" s="4"/>
+      <c r="K1120" s="4"/>
+      <c r="L1120" s="4"/>
+      <c r="M1120" s="4"/>
+      <c r="N1120" s="4"/>
+      <c r="O1120" s="4"/>
+      <c r="P1120" s="4"/>
+      <c r="Q1120" s="4"/>
+      <c r="R1120" s="4"/>
+      <c r="S1120" s="4"/>
+      <c r="T1120" s="4"/>
+      <c r="U1120" s="4"/>
+      <c r="V1120" s="4"/>
+      <c r="W1120" s="4"/>
+      <c r="X1120" s="4"/>
+      <c r="Y1120" s="4"/>
+      <c r="Z1120" s="4"/>
+    </row>
+    <row r="1121">
+      <c r="A1121" s="2"/>
+      <c r="B1121" s="2"/>
+      <c r="C1121" s="2"/>
+      <c r="D1121" s="2"/>
+      <c r="E1121" s="4"/>
+      <c r="F1121" s="4"/>
+      <c r="G1121" s="4"/>
+      <c r="H1121" s="4"/>
+      <c r="I1121" s="4"/>
+      <c r="J1121" s="4"/>
+      <c r="K1121" s="4"/>
+      <c r="L1121" s="4"/>
+      <c r="M1121" s="4"/>
+      <c r="N1121" s="4"/>
+      <c r="O1121" s="4"/>
+      <c r="P1121" s="4"/>
+      <c r="Q1121" s="4"/>
+      <c r="R1121" s="4"/>
+      <c r="S1121" s="4"/>
+      <c r="T1121" s="4"/>
+      <c r="U1121" s="4"/>
+      <c r="V1121" s="4"/>
+      <c r="W1121" s="4"/>
+      <c r="X1121" s="4"/>
+      <c r="Y1121" s="4"/>
+      <c r="Z1121" s="4"/>
+    </row>
+    <row r="1122">
+      <c r="A1122" s="2"/>
+      <c r="B1122" s="2"/>
+      <c r="C1122" s="2"/>
+      <c r="D1122" s="2"/>
+      <c r="E1122" s="4"/>
+      <c r="F1122" s="4"/>
+      <c r="G1122" s="4"/>
+      <c r="H1122" s="4"/>
+      <c r="I1122" s="4"/>
+      <c r="J1122" s="4"/>
+      <c r="K1122" s="4"/>
+      <c r="L1122" s="4"/>
+      <c r="M1122" s="4"/>
+      <c r="N1122" s="4"/>
+      <c r="O1122" s="4"/>
+      <c r="P1122" s="4"/>
+      <c r="Q1122" s="4"/>
+      <c r="R1122" s="4"/>
+      <c r="S1122" s="4"/>
+      <c r="T1122" s="4"/>
+      <c r="U1122" s="4"/>
+      <c r="V1122" s="4"/>
+      <c r="W1122" s="4"/>
+      <c r="X1122" s="4"/>
+      <c r="Y1122" s="4"/>
+      <c r="Z1122" s="4"/>
+    </row>
+    <row r="1123">
+      <c r="A1123" s="4"/>
+      <c r="B1123" s="4"/>
+      <c r="C1123" s="4"/>
+      <c r="D1123" s="4"/>
+      <c r="E1123" s="4"/>
+      <c r="F1123" s="4"/>
+      <c r="G1123" s="4"/>
+      <c r="H1123" s="4"/>
+      <c r="I1123" s="4"/>
+      <c r="J1123" s="4"/>
+      <c r="K1123" s="4"/>
+      <c r="L1123" s="4"/>
+      <c r="M1123" s="4"/>
+      <c r="N1123" s="4"/>
+      <c r="O1123" s="4"/>
+      <c r="P1123" s="4"/>
+      <c r="Q1123" s="4"/>
+      <c r="R1123" s="4"/>
+      <c r="S1123" s="4"/>
+      <c r="T1123" s="4"/>
+      <c r="U1123" s="4"/>
+      <c r="V1123" s="4"/>
+      <c r="W1123" s="4"/>
+      <c r="X1123" s="4"/>
+      <c r="Y1123" s="4"/>
+      <c r="Z1123" s="4"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/hauteur site.xlsx
+++ b/hauteur site.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="14">
   <si>
     <t>code_pneu</t>
   </si>
@@ -40,22 +40,19 @@
     <t>voir 35/2</t>
   </si>
   <si>
-    <t>280?</t>
+    <t>295?</t>
   </si>
   <si>
-    <t>-4/6</t>
+    <t>280?</t>
   </si>
   <si>
     <t>265?</t>
   </si>
   <si>
-    <t>-01/08</t>
+    <t>270?</t>
   </si>
   <si>
-    <t>-18/5</t>
-  </si>
-  <si>
-    <t>-1/7</t>
+    <t>315?</t>
   </si>
 </sst>
 </file>
@@ -624,16 +621,16 @@
       <c r="Z7" s="4"/>
     </row>
     <row r="8">
-      <c r="A8" s="1">
-        <v>44.0</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="3">
-        <v>295.0</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="A8" s="6">
+        <v>38.0</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7">
+        <v>280.0</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="4"/>
@@ -660,16 +657,16 @@
       <c r="Z8" s="4"/>
     </row>
     <row r="9">
-      <c r="A9" s="6">
-        <v>45.0</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="A9" s="1">
+        <v>44.0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="4"/>
@@ -697,12 +694,14 @@
     </row>
     <row r="10">
       <c r="A10" s="6">
-        <v>47.0</v>
+        <v>45.0</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="7"/>
+      <c r="C10" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="D10" s="5" t="s">
         <v>3</v>
       </c>
@@ -730,16 +729,14 @@
       <c r="Z10" s="4"/>
     </row>
     <row r="11">
-      <c r="A11" s="1">
-        <v>49.0</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="3">
-        <v>275.0</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="A11" s="6">
+        <v>47.0</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="4"/>
@@ -766,16 +763,16 @@
       <c r="Z11" s="4"/>
     </row>
     <row r="12">
-      <c r="A12" s="6">
-        <v>52.0</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="7">
-        <v>315.0</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="A12" s="1">
+        <v>49.0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3">
+        <v>275.0</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E12" s="4"/>
@@ -802,16 +799,16 @@
       <c r="Z12" s="4"/>
     </row>
     <row r="13">
-      <c r="A13" s="1">
-        <v>57.0</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="3">
-        <v>260.0</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="A13" s="6">
+        <v>52.0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="7">
+        <v>315.0</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="4"/>
@@ -838,16 +835,16 @@
       <c r="Z13" s="4"/>
     </row>
     <row r="14">
-      <c r="A14" s="6">
-        <v>61.0</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="7">
-        <v>315.0</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="A14" s="1">
+        <v>57.0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="3">
+        <v>260.0</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E14" s="4"/>
@@ -875,13 +872,13 @@
     </row>
     <row r="15">
       <c r="A15" s="6">
-        <v>63.0</v>
+        <v>61.0</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>260.0</v>
+        <v>315.0</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>3</v>
@@ -911,13 +908,13 @@
     </row>
     <row r="16">
       <c r="A16" s="6">
-        <v>69.0</v>
+        <v>63.0</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>6</v>
+      <c r="C16" s="7">
+        <v>260.0</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>3</v>
@@ -947,13 +944,13 @@
     </row>
     <row r="17">
       <c r="A17" s="6">
-        <v>70.0</v>
+        <v>67.0</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="7">
-        <v>225.0</v>
+        <v>255.0</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>3</v>
@@ -982,16 +979,16 @@
       <c r="Z17" s="4"/>
     </row>
     <row r="18">
-      <c r="A18" s="1">
-        <v>74.0</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="3">
-        <v>265.0</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="A18" s="6">
+        <v>69.0</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E18" s="4"/>
@@ -1018,16 +1015,16 @@
       <c r="Z18" s="4"/>
     </row>
     <row r="19">
-      <c r="A19" s="1">
-        <v>77.0</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="3">
-        <v>260.0</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="A19" s="6">
+        <v>70.0</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7">
+        <v>225.0</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E19" s="4"/>
@@ -1054,16 +1051,16 @@
       <c r="Z19" s="4"/>
     </row>
     <row r="20">
-      <c r="A20" s="6">
-        <v>79.0</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="7">
-        <v>300.0</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="A20" s="1">
+        <v>74.0</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="3">
+        <v>265.0</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E20" s="4"/>
@@ -1091,13 +1088,13 @@
     </row>
     <row r="21">
       <c r="A21" s="1">
-        <v>83.0</v>
+        <v>77.0</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="3">
-        <v>295.0</v>
+        <v>260.0</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>3</v>
@@ -1127,13 +1124,13 @@
     </row>
     <row r="22">
       <c r="A22" s="6">
-        <v>90.0</v>
+        <v>79.0</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="7">
-        <v>305.0</v>
+        <v>300.0</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>3</v>
@@ -1163,13 +1160,13 @@
     </row>
     <row r="23">
       <c r="A23" s="1">
-        <v>93.0</v>
+        <v>83.0</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="3">
-        <v>250.0</v>
+        <v>295.0</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>3</v>
@@ -1199,13 +1196,13 @@
     </row>
     <row r="24">
       <c r="A24" s="6">
-        <v>98.0</v>
+        <v>90.0</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>7</v>
+      <c r="C24" s="7">
+        <v>305.0</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>3</v>
@@ -1234,16 +1231,16 @@
       <c r="Z24" s="4"/>
     </row>
     <row r="25">
-      <c r="A25" s="6">
-        <v>105.0</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="7">
-        <v>260.0</v>
-      </c>
-      <c r="D25" s="5" t="s">
+      <c r="A25" s="1">
+        <v>93.0</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E25" s="4"/>
@@ -1271,13 +1268,13 @@
     </row>
     <row r="26">
       <c r="A26" s="6">
-        <v>106.0</v>
+        <v>98.0</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>3</v>
@@ -1307,7 +1304,7 @@
     </row>
     <row r="27">
       <c r="A27" s="6">
-        <v>107.0</v>
+        <v>105.0</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>3</v>
@@ -1343,13 +1340,13 @@
     </row>
     <row r="28">
       <c r="A28" s="6">
-        <v>111.0</v>
+        <v>106.0</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="7">
-        <v>255.0</v>
+      <c r="C28" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>3</v>
@@ -1378,16 +1375,16 @@
       <c r="Z28" s="4"/>
     </row>
     <row r="29">
-      <c r="A29" s="1">
-        <v>112.0</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="3">
-        <v>270.0</v>
-      </c>
-      <c r="D29" s="2" t="s">
+      <c r="A29" s="6">
+        <v>107.0</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="7">
+        <v>260.0</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E29" s="4"/>
@@ -1414,16 +1411,16 @@
       <c r="Z29" s="4"/>
     </row>
     <row r="30">
-      <c r="A30" s="1">
-        <v>119.0</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="A30" s="6">
+        <v>111.0</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="7">
+        <v>255.0</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E30" s="4"/>
@@ -1450,16 +1447,16 @@
       <c r="Z30" s="4"/>
     </row>
     <row r="31">
-      <c r="A31" s="6">
-        <v>123.0</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="7">
-        <v>280.0</v>
-      </c>
-      <c r="D31" s="5" t="s">
+      <c r="A31" s="1">
+        <v>112.0</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="3">
+        <v>270.0</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E31" s="4"/>
@@ -1486,16 +1483,16 @@
       <c r="Z31" s="4"/>
     </row>
     <row r="32">
-      <c r="A32" s="6">
-        <v>124.0</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="7">
-        <v>245.0</v>
-      </c>
-      <c r="D32" s="5" t="s">
+      <c r="A32" s="1">
+        <v>119.0</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E32" s="4"/>
@@ -1522,16 +1519,16 @@
       <c r="Z32" s="4"/>
     </row>
     <row r="33">
-      <c r="A33" s="1">
-        <v>125.0</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="3">
-        <v>265.0</v>
-      </c>
-      <c r="D33" s="2" t="s">
+      <c r="A33" s="6">
+        <v>122.0</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E33" s="4"/>
@@ -1558,16 +1555,16 @@
       <c r="Z33" s="4"/>
     </row>
     <row r="34">
-      <c r="A34" s="1">
-        <v>129.0</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="3">
-        <v>270.0</v>
-      </c>
-      <c r="D34" s="2" t="s">
+      <c r="A34" s="6">
+        <v>123.0</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="7">
+        <v>280.0</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E34" s="4"/>
@@ -1595,13 +1592,13 @@
     </row>
     <row r="35">
       <c r="A35" s="6">
-        <v>130.0</v>
+        <v>124.0</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="7">
-        <v>290.0</v>
+        <v>245.0</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>3</v>
@@ -1631,13 +1628,13 @@
     </row>
     <row r="36">
       <c r="A36" s="1">
-        <v>131.0</v>
+        <v>125.0</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C36" s="3">
-        <v>255.0</v>
+        <v>265.0</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>3</v>
@@ -1667,13 +1664,13 @@
     </row>
     <row r="37">
       <c r="A37" s="1">
-        <v>132.0</v>
+        <v>129.0</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C37" s="3">
-        <v>250.0</v>
+        <v>270.0</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>3</v>
@@ -1703,13 +1700,13 @@
     </row>
     <row r="38">
       <c r="A38" s="6">
-        <v>133.0</v>
+        <v>130.0</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C38" s="7">
-        <v>240.0</v>
+        <v>290.0</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>3</v>
@@ -1738,16 +1735,16 @@
       <c r="Z38" s="4"/>
     </row>
     <row r="39">
-      <c r="A39" s="6">
-        <v>135.0</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="7">
-        <v>310.0</v>
-      </c>
-      <c r="D39" s="5" t="s">
+      <c r="A39" s="1">
+        <v>131.0</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="3">
+        <v>255.0</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E39" s="4"/>
@@ -1774,16 +1771,16 @@
       <c r="Z39" s="4"/>
     </row>
     <row r="40">
-      <c r="A40" s="6">
-        <v>136.0</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="7">
-        <v>315.0</v>
-      </c>
-      <c r="D40" s="5" t="s">
+      <c r="A40" s="1">
+        <v>132.0</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E40" s="4"/>
@@ -1810,16 +1807,16 @@
       <c r="Z40" s="4"/>
     </row>
     <row r="41">
-      <c r="A41" s="1">
-        <v>138.0</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="3">
-        <v>315.0</v>
-      </c>
-      <c r="D41" s="2" t="s">
+      <c r="A41" s="6">
+        <v>133.0</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="7">
+        <v>240.0</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E41" s="4"/>
@@ -1846,16 +1843,16 @@
       <c r="Z41" s="4"/>
     </row>
     <row r="42">
-      <c r="A42" s="1">
-        <v>139.0</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D42" s="2" t="s">
+      <c r="A42" s="6">
+        <v>135.0</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E42" s="4"/>
@@ -1883,13 +1880,13 @@
     </row>
     <row r="43">
       <c r="A43" s="6">
-        <v>144.0</v>
+        <v>136.0</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C43" s="7">
-        <v>305.0</v>
+        <v>315.0</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>3</v>
@@ -1919,13 +1916,13 @@
     </row>
     <row r="44">
       <c r="A44" s="1">
-        <v>145.0</v>
+        <v>138.0</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C44" s="3">
-        <v>275.0</v>
+        <v>315.0</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>3</v>
@@ -1954,16 +1951,16 @@
       <c r="Z44" s="4"/>
     </row>
     <row r="45">
-      <c r="A45" s="6">
-        <v>146.0</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" s="7">
-        <v>300.0</v>
-      </c>
-      <c r="D45" s="5" t="s">
+      <c r="A45" s="1">
+        <v>139.0</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E45" s="4"/>
@@ -1990,16 +1987,16 @@
       <c r="Z45" s="4"/>
     </row>
     <row r="46">
-      <c r="A46" s="1">
-        <v>149.0</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" s="3">
-        <v>265.0</v>
-      </c>
-      <c r="D46" s="2" t="s">
+      <c r="A46" s="6">
+        <v>141.0</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="7">
+        <v>305.0</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E46" s="4"/>
@@ -2027,13 +2024,13 @@
     </row>
     <row r="47">
       <c r="A47" s="6">
-        <v>152.0</v>
+        <v>144.0</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C47" s="7">
-        <v>230.0</v>
+        <v>305.0</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>3</v>
@@ -2063,13 +2060,13 @@
     </row>
     <row r="48">
       <c r="A48" s="1">
-        <v>153.0</v>
+        <v>145.0</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C48" s="3">
-        <v>325.0</v>
+        <v>275.0</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>3</v>
@@ -2098,16 +2095,16 @@
       <c r="Z48" s="4"/>
     </row>
     <row r="49">
-      <c r="A49" s="1">
-        <v>154.0</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" s="3">
-        <v>325.0</v>
-      </c>
-      <c r="D49" s="2" t="s">
+      <c r="A49" s="6">
+        <v>146.0</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="7">
+        <v>300.0</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E49" s="4"/>
@@ -2134,16 +2131,16 @@
       <c r="Z49" s="4"/>
     </row>
     <row r="50">
-      <c r="A50" s="6">
-        <v>156.0</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" s="8">
-        <v>310.0</v>
-      </c>
-      <c r="D50" s="5" t="s">
+      <c r="A50" s="1">
+        <v>149.0</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="3">
+        <v>265.0</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E50" s="4"/>
@@ -2170,16 +2167,16 @@
       <c r="Z50" s="4"/>
     </row>
     <row r="51">
-      <c r="A51" s="1">
-        <v>157.0</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" s="9">
-        <v>270.0</v>
-      </c>
-      <c r="D51" s="2" t="s">
+      <c r="A51" s="6">
+        <v>152.0</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
+        <v>230.0</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E51" s="4"/>
@@ -2206,16 +2203,16 @@
       <c r="Z51" s="4"/>
     </row>
     <row r="52">
-      <c r="A52" s="6">
-        <v>164.0</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" s="7">
-        <v>250.0</v>
-      </c>
-      <c r="D52" s="5" t="s">
+      <c r="A52" s="1">
+        <v>153.0</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="3">
+        <v>325.0</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E52" s="4"/>
@@ -2243,13 +2240,13 @@
     </row>
     <row r="53">
       <c r="A53" s="1">
-        <v>167.0</v>
+        <v>154.0</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C53" s="3">
-        <v>250.0</v>
+        <v>325.0</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>3</v>
@@ -2279,13 +2276,13 @@
     </row>
     <row r="54">
       <c r="A54" s="6">
-        <v>169.0</v>
+        <v>156.0</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C54" s="7">
-        <v>235.0</v>
+      <c r="C54" s="8">
+        <v>310.0</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>3</v>
@@ -2314,16 +2311,16 @@
       <c r="Z54" s="4"/>
     </row>
     <row r="55">
-      <c r="A55" s="6">
-        <v>171.0</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55" s="7">
-        <v>325.0</v>
-      </c>
-      <c r="D55" s="5" t="s">
+      <c r="A55" s="1">
+        <v>157.0</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="9">
+        <v>270.0</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E55" s="4"/>
@@ -2351,13 +2348,13 @@
     </row>
     <row r="56">
       <c r="A56" s="6">
-        <v>172.0</v>
+        <v>164.0</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C56" s="7">
-        <v>260.0</v>
+        <v>250.0</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>3</v>
@@ -2387,7 +2384,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1">
-        <v>175.0</v>
+        <v>167.0</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>3</v>
@@ -2423,13 +2420,13 @@
     </row>
     <row r="58">
       <c r="A58" s="6">
-        <v>176.0</v>
+        <v>169.0</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C58" s="7" t="s">
-        <v>6</v>
+      <c r="C58" s="7">
+        <v>235.0</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>3</v>
@@ -2458,16 +2455,16 @@
       <c r="Z58" s="4"/>
     </row>
     <row r="59">
-      <c r="A59" s="1">
-        <v>178.0</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C59" s="3">
-        <v>265.0</v>
-      </c>
-      <c r="D59" s="2" t="s">
+      <c r="A59" s="6">
+        <v>171.0</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="7">
+        <v>325.0</v>
+      </c>
+      <c r="D59" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E59" s="4"/>
@@ -2494,16 +2491,16 @@
       <c r="Z59" s="4"/>
     </row>
     <row r="60">
-      <c r="A60" s="1">
-        <v>182.0</v>
-      </c>
-      <c r="B60" s="2" t="s">
+      <c r="A60" s="6">
+        <v>172.0</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C60" s="7">
-        <v>285.0</v>
-      </c>
-      <c r="D60" s="2" t="s">
+        <v>265.0</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E60" s="4"/>
@@ -2531,13 +2528,13 @@
     </row>
     <row r="61">
       <c r="A61" s="1">
-        <v>183.0</v>
+        <v>175.0</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C61" s="3">
-        <v>270.0</v>
+        <v>250.0</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>3</v>
@@ -2567,13 +2564,13 @@
     </row>
     <row r="62">
       <c r="A62" s="6">
-        <v>189.0</v>
+        <v>176.0</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C62" s="7">
-        <v>235.0</v>
+      <c r="C62" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>3</v>
@@ -2603,13 +2600,13 @@
     </row>
     <row r="63">
       <c r="A63" s="1">
-        <v>190.0</v>
+        <v>178.0</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C63" s="3">
-        <v>305.0</v>
+        <v>265.0</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>3</v>
@@ -2639,12 +2636,12 @@
     </row>
     <row r="64">
       <c r="A64" s="1">
-        <v>192.0</v>
+        <v>182.0</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="7">
         <v>285.0</v>
       </c>
       <c r="D64" s="2" t="s">
@@ -2675,13 +2672,13 @@
     </row>
     <row r="65">
       <c r="A65" s="1">
-        <v>201.0</v>
+        <v>183.0</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C65" s="3">
-        <v>285.0</v>
+        <v>270.0</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>3</v>
@@ -2711,12 +2708,14 @@
     </row>
     <row r="66">
       <c r="A66" s="6">
-        <v>203.0</v>
+        <v>189.0</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C66" s="3"/>
+      <c r="C66" s="7">
+        <v>235.0</v>
+      </c>
       <c r="D66" s="5" t="s">
         <v>3</v>
       </c>
@@ -2745,13 +2744,13 @@
     </row>
     <row r="67">
       <c r="A67" s="1">
-        <v>204.0</v>
+        <v>190.0</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C67" s="3">
-        <v>270.0</v>
+        <v>305.0</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>3</v>
@@ -2780,14 +2779,16 @@
       <c r="Z67" s="4"/>
     </row>
     <row r="68">
-      <c r="A68" s="6">
-        <v>205.0</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" s="7"/>
-      <c r="D68" s="5" t="s">
+      <c r="A68" s="1">
+        <v>192.0</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="3">
+        <v>285.0</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E68" s="4"/>
@@ -2815,13 +2816,13 @@
     </row>
     <row r="69">
       <c r="A69" s="6">
-        <v>207.0</v>
+        <v>196.0</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C69" s="7">
-        <v>325.0</v>
+        <v>220.0</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>3</v>
@@ -2850,16 +2851,16 @@
       <c r="Z69" s="4"/>
     </row>
     <row r="70">
-      <c r="A70" s="6">
-        <v>209.0</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D70" s="5" t="s">
+      <c r="A70" s="1">
+        <v>201.0</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" s="3">
+        <v>285.0</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E70" s="4"/>
@@ -2887,14 +2888,12 @@
     </row>
     <row r="71">
       <c r="A71" s="6">
-        <v>215.0</v>
+        <v>203.0</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C71" s="7">
-        <v>310.0</v>
-      </c>
+      <c r="C71" s="3"/>
       <c r="D71" s="5" t="s">
         <v>3</v>
       </c>
@@ -2922,16 +2921,16 @@
       <c r="Z71" s="4"/>
     </row>
     <row r="72">
-      <c r="A72" s="6">
-        <v>216.0</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C72" s="7">
-        <v>320.0</v>
-      </c>
-      <c r="D72" s="5" t="s">
+      <c r="A72" s="1">
+        <v>204.0</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" s="3">
+        <v>270.0</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E72" s="4"/>
@@ -2958,16 +2957,14 @@
       <c r="Z72" s="4"/>
     </row>
     <row r="73">
-      <c r="A73" s="1">
-        <v>218.0</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" s="3">
-        <v>275.0</v>
-      </c>
-      <c r="D73" s="2" t="s">
+      <c r="A73" s="6">
+        <v>205.0</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="7"/>
+      <c r="D73" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E73" s="4"/>
@@ -2994,16 +2991,16 @@
       <c r="Z73" s="4"/>
     </row>
     <row r="74">
-      <c r="A74" s="1">
-        <v>227.0</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C74" s="3">
+      <c r="A74" s="6">
+        <v>207.0</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="7">
         <v>325.0</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E74" s="4"/>
@@ -3030,16 +3027,16 @@
       <c r="Z74" s="4"/>
     </row>
     <row r="75">
-      <c r="A75" s="1">
-        <v>229.0</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C75" s="3">
-        <v>300.0</v>
-      </c>
-      <c r="D75" s="2" t="s">
+      <c r="A75" s="6">
+        <v>209.0</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E75" s="4"/>
@@ -3067,13 +3064,13 @@
     </row>
     <row r="76">
       <c r="A76" s="6">
-        <v>232.0</v>
+        <v>215.0</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C76" s="7">
-        <v>275.0</v>
+        <v>310.0</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>3</v>
@@ -3102,16 +3099,16 @@
       <c r="Z76" s="4"/>
     </row>
     <row r="77">
-      <c r="A77" s="1">
-        <v>237.0</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C77" s="3">
-        <v>240.0</v>
-      </c>
-      <c r="D77" s="2" t="s">
+      <c r="A77" s="6">
+        <v>216.0</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" s="7">
+        <v>320.0</v>
+      </c>
+      <c r="D77" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E77" s="4"/>
@@ -3138,16 +3135,16 @@
       <c r="Z77" s="4"/>
     </row>
     <row r="78">
-      <c r="A78" s="6">
-        <v>238.0</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C78" s="7">
-        <v>280.0</v>
-      </c>
-      <c r="D78" s="5" t="s">
+      <c r="A78" s="1">
+        <v>218.0</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" s="3">
+        <v>275.0</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E78" s="4"/>
@@ -3174,16 +3171,16 @@
       <c r="Z78" s="4"/>
     </row>
     <row r="79">
-      <c r="A79" s="1">
-        <v>243.0</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C79" s="3">
-        <v>225.0</v>
-      </c>
-      <c r="D79" s="2" t="s">
+      <c r="A79" s="6">
+        <v>219.0</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" s="7">
+        <v>275.0</v>
+      </c>
+      <c r="D79" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E79" s="4"/>
@@ -3210,16 +3207,16 @@
       <c r="Z79" s="4"/>
     </row>
     <row r="80">
-      <c r="A80" s="6">
-        <v>250.0</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C80" s="7">
-        <v>245.0</v>
-      </c>
-      <c r="D80" s="5" t="s">
+      <c r="A80" s="1">
+        <v>227.0</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" s="3">
+        <v>325.0</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E80" s="4"/>
@@ -3246,16 +3243,16 @@
       <c r="Z80" s="4"/>
     </row>
     <row r="81">
-      <c r="A81" s="6">
-        <v>252.0</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="5" t="s">
+      <c r="A81" s="1">
+        <v>229.0</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" s="3">
+        <v>300.0</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E81" s="4"/>
@@ -3283,13 +3280,13 @@
     </row>
     <row r="82">
       <c r="A82" s="6">
-        <v>257.0</v>
+        <v>232.0</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C82" s="7" t="s">
-        <v>10</v>
+      <c r="C82" s="7">
+        <v>275.0</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>3</v>
@@ -3318,16 +3315,16 @@
       <c r="Z82" s="4"/>
     </row>
     <row r="83">
-      <c r="A83" s="6">
-        <v>260.0</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C83" s="7">
-        <v>260.0</v>
-      </c>
-      <c r="D83" s="5" t="s">
+      <c r="A83" s="1">
+        <v>237.0</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" s="3">
+        <v>240.0</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E83" s="4"/>
@@ -3355,13 +3352,13 @@
     </row>
     <row r="84">
       <c r="A84" s="6">
-        <v>261.0</v>
+        <v>238.0</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C84" s="7">
-        <v>240.0</v>
+        <v>280.0</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>3</v>
@@ -3390,16 +3387,16 @@
       <c r="Z84" s="4"/>
     </row>
     <row r="85">
-      <c r="A85" s="6">
-        <v>262.0</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C85" s="7">
-        <v>250.0</v>
-      </c>
-      <c r="D85" s="5" t="s">
+      <c r="A85" s="1">
+        <v>243.0</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" s="3">
+        <v>225.0</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E85" s="4"/>
@@ -3427,13 +3424,13 @@
     </row>
     <row r="86">
       <c r="A86" s="6">
-        <v>264.0</v>
+        <v>250.0</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C86" s="7" t="s">
-        <v>5</v>
+      <c r="C86" s="7">
+        <v>245.0</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>3</v>
@@ -3462,16 +3459,16 @@
       <c r="Z86" s="4"/>
     </row>
     <row r="87">
-      <c r="A87" s="1">
-        <v>265.0</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C87" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D87" s="2" t="s">
+      <c r="A87" s="6">
+        <v>252.0</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E87" s="4"/>
@@ -3499,13 +3496,13 @@
     </row>
     <row r="88">
       <c r="A88" s="6">
-        <v>270.0</v>
+        <v>257.0</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C88" s="7">
-        <v>265.0</v>
+        <v>260.0</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>3</v>
@@ -3535,13 +3532,13 @@
     </row>
     <row r="89">
       <c r="A89" s="6">
-        <v>273.0</v>
+        <v>260.0</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C89" s="7">
-        <v>290.0</v>
+        <v>260.0</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>3</v>
@@ -3570,16 +3567,16 @@
       <c r="Z89" s="4"/>
     </row>
     <row r="90">
-      <c r="A90" s="1">
-        <v>274.0</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C90" s="3">
-        <v>260.0</v>
-      </c>
-      <c r="D90" s="2" t="s">
+      <c r="A90" s="6">
+        <v>261.0</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" s="7">
+        <v>240.0</v>
+      </c>
+      <c r="D90" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E90" s="4"/>
@@ -3607,13 +3604,13 @@
     </row>
     <row r="91">
       <c r="A91" s="6">
-        <v>275.0</v>
+        <v>262.0</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C91" s="7">
-        <v>290.0</v>
+        <v>250.0</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>3</v>
@@ -3643,13 +3640,13 @@
     </row>
     <row r="92">
       <c r="A92" s="6">
-        <v>279.0</v>
+        <v>264.0</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C92" s="7">
-        <v>255.0</v>
+      <c r="C92" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>3</v>
@@ -3678,16 +3675,16 @@
       <c r="Z92" s="4"/>
     </row>
     <row r="93">
-      <c r="A93" s="6">
-        <v>284.0</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C93" s="7">
-        <v>260.0</v>
-      </c>
-      <c r="D93" s="5" t="s">
+      <c r="A93" s="1">
+        <v>265.0</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E93" s="4"/>
@@ -3715,13 +3712,13 @@
     </row>
     <row r="94">
       <c r="A94" s="6">
-        <v>289.0</v>
+        <v>270.0</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C94" s="7">
-        <v>255.0</v>
+        <v>265.0</v>
       </c>
       <c r="D94" s="5" t="s">
         <v>3</v>
@@ -3750,16 +3747,16 @@
       <c r="Z94" s="4"/>
     </row>
     <row r="95">
-      <c r="A95" s="1">
+      <c r="A95" s="6">
+        <v>273.0</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" s="7">
         <v>290.0</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C95" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D95" s="2" t="s">
+      <c r="D95" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E95" s="4"/>
@@ -3786,14 +3783,14 @@
       <c r="Z95" s="4"/>
     </row>
     <row r="96">
-      <c r="A96" s="6">
-        <v>296.0</v>
+      <c r="A96" s="1">
+        <v>274.0</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C96" s="7">
-        <v>235.0</v>
+      <c r="C96" s="3">
+        <v>260.0</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>3</v>
@@ -3822,16 +3819,16 @@
       <c r="Z96" s="4"/>
     </row>
     <row r="97">
-      <c r="A97" s="1">
-        <v>306.0</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C97" s="3">
-        <v>235.0</v>
-      </c>
-      <c r="D97" s="2" t="s">
+      <c r="A97" s="6">
+        <v>275.0</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" s="7">
+        <v>290.0</v>
+      </c>
+      <c r="D97" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E97" s="4"/>
@@ -3859,13 +3856,13 @@
     </row>
     <row r="98">
       <c r="A98" s="6">
-        <v>309.0</v>
+        <v>279.0</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C98" s="7">
-        <v>260.0</v>
+        <v>255.0</v>
       </c>
       <c r="D98" s="5" t="s">
         <v>3</v>
@@ -3895,13 +3892,13 @@
     </row>
     <row r="99">
       <c r="A99" s="6">
-        <v>323.0</v>
+        <v>281.0</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C99" s="7">
-        <v>270.0</v>
+        <v>295.0</v>
       </c>
       <c r="D99" s="5" t="s">
         <v>3</v>
@@ -3930,16 +3927,16 @@
       <c r="Z99" s="4"/>
     </row>
     <row r="100">
-      <c r="A100" s="1">
-        <v>324.0</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C100" s="3">
+      <c r="A100" s="6">
+        <v>284.0</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" s="7">
         <v>260.0</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D100" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E100" s="4"/>
@@ -3966,16 +3963,16 @@
       <c r="Z100" s="4"/>
     </row>
     <row r="101">
-      <c r="A101" s="1">
-        <v>328.0</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C101" s="3">
-        <v>255.0</v>
-      </c>
-      <c r="D101" s="2" t="s">
+      <c r="A101" s="6">
+        <v>286.0</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" s="7">
+        <v>270.0</v>
+      </c>
+      <c r="D101" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E101" s="4"/>
@@ -4003,13 +4000,13 @@
     </row>
     <row r="102">
       <c r="A102" s="6">
-        <v>334.0</v>
+        <v>289.0</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C102" s="7" t="s">
-        <v>11</v>
+      <c r="C102" s="7">
+        <v>255.0</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>3</v>
@@ -4038,16 +4035,16 @@
       <c r="Z102" s="4"/>
     </row>
     <row r="103">
-      <c r="A103" s="6">
-        <v>338.0</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C103" s="7">
-        <v>235.0</v>
-      </c>
-      <c r="D103" s="5" t="s">
+      <c r="A103" s="1">
+        <v>290.0</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E103" s="4"/>
@@ -4074,14 +4071,14 @@
       <c r="Z103" s="4"/>
     </row>
     <row r="104">
-      <c r="A104" s="1">
-        <v>349.0</v>
+      <c r="A104" s="6">
+        <v>296.0</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C104" s="3">
-        <v>250.0</v>
+      <c r="C104" s="7">
+        <v>235.0</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>3</v>
@@ -4111,13 +4108,13 @@
     </row>
     <row r="105">
       <c r="A105" s="1">
-        <v>350.0</v>
+        <v>306.0</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C105" s="3">
-        <v>225.0</v>
+        <v>235.0</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>3</v>
@@ -4147,7 +4144,7 @@
     </row>
     <row r="106">
       <c r="A106" s="6">
-        <v>356.0</v>
+        <v>309.0</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>3</v>
@@ -4182,16 +4179,16 @@
       <c r="Z106" s="4"/>
     </row>
     <row r="107">
-      <c r="A107" s="1">
-        <v>361.0</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C107" s="3">
-        <v>245.0</v>
-      </c>
-      <c r="D107" s="2" t="s">
+      <c r="A107" s="6">
+        <v>323.0</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" s="7">
+        <v>270.0</v>
+      </c>
+      <c r="D107" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E107" s="4"/>
@@ -4218,16 +4215,16 @@
       <c r="Z107" s="4"/>
     </row>
     <row r="108">
-      <c r="A108" s="6">
-        <v>365.0</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C108" s="7">
-        <v>335.0</v>
-      </c>
-      <c r="D108" s="5" t="s">
+      <c r="A108" s="1">
+        <v>324.0</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108" s="3">
+        <v>260.0</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E108" s="4"/>
@@ -4254,16 +4251,16 @@
       <c r="Z108" s="4"/>
     </row>
     <row r="109">
-      <c r="A109" s="6">
-        <v>366.0</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C109" s="7">
-        <v>260.0</v>
-      </c>
-      <c r="D109" s="5" t="s">
+      <c r="A109" s="1">
+        <v>328.0</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109" s="3">
+        <v>255.0</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E109" s="4"/>
@@ -4290,16 +4287,16 @@
       <c r="Z109" s="4"/>
     </row>
     <row r="110">
-      <c r="A110" s="1">
-        <v>367.0</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C110" s="3">
-        <v>225.0</v>
-      </c>
-      <c r="D110" s="2" t="s">
+      <c r="A110" s="6">
+        <v>334.0</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D110" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E110" s="4"/>
@@ -4326,16 +4323,16 @@
       <c r="Z110" s="4"/>
     </row>
     <row r="111">
-      <c r="A111" s="1">
-        <v>369.0</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C111" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D111" s="2" t="s">
+      <c r="A111" s="6">
+        <v>338.0</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111" s="7">
+        <v>235.0</v>
+      </c>
+      <c r="D111" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E111" s="4"/>
@@ -4362,14 +4359,16 @@
       <c r="Z111" s="4"/>
     </row>
     <row r="112">
-      <c r="A112" s="6">
-        <v>370.0</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C112" s="3"/>
-      <c r="D112" s="5" t="s">
+      <c r="A112" s="1">
+        <v>349.0</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E112" s="4"/>
@@ -4397,13 +4396,13 @@
     </row>
     <row r="113">
       <c r="A113" s="1">
-        <v>375.0</v>
+        <v>350.0</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C113" s="3">
-        <v>245.0</v>
+        <v>225.0</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>3</v>
@@ -4432,16 +4431,16 @@
       <c r="Z113" s="4"/>
     </row>
     <row r="114">
-      <c r="A114" s="1">
-        <v>377.0</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C114" s="3">
-        <v>275.0</v>
-      </c>
-      <c r="D114" s="2" t="s">
+      <c r="A114" s="6">
+        <v>351.0</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" s="7">
+        <v>260.0</v>
+      </c>
+      <c r="D114" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E114" s="4"/>
@@ -4469,13 +4468,13 @@
     </row>
     <row r="115">
       <c r="A115" s="6">
-        <v>378.0</v>
+        <v>356.0</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C115" s="7">
-        <v>275.0</v>
+        <v>260.0</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>3</v>
@@ -4505,13 +4504,13 @@
     </row>
     <row r="116">
       <c r="A116" s="1">
-        <v>382.0</v>
+        <v>361.0</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C116" s="3">
-        <v>295.0</v>
+        <v>245.0</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>3</v>
@@ -4541,13 +4540,13 @@
     </row>
     <row r="117">
       <c r="A117" s="6">
-        <v>384.0</v>
+        <v>365.0</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C117" s="7">
-        <v>310.0</v>
+        <v>335.0</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>3</v>
@@ -4577,13 +4576,13 @@
     </row>
     <row r="118">
       <c r="A118" s="6">
-        <v>388.0</v>
+        <v>366.0</v>
       </c>
       <c r="B118" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C118" s="7">
-        <v>290.0</v>
+        <v>260.0</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>3</v>
@@ -4613,13 +4612,13 @@
     </row>
     <row r="119">
       <c r="A119" s="1">
-        <v>389.0</v>
+        <v>367.0</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C119" s="3">
-        <v>265.0</v>
+        <v>225.0</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>3</v>
@@ -4649,13 +4648,13 @@
     </row>
     <row r="120">
       <c r="A120" s="6">
-        <v>390.0</v>
+        <v>368.0</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C120" s="7">
-        <v>300.0</v>
+        <v>260.0</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>3</v>
@@ -4684,16 +4683,16 @@
       <c r="Z120" s="4"/>
     </row>
     <row r="121">
-      <c r="A121" s="6">
-        <v>398.0</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C121" s="7">
-        <v>260.0</v>
-      </c>
-      <c r="D121" s="5" t="s">
+      <c r="A121" s="1">
+        <v>369.0</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E121" s="4"/>
@@ -4720,16 +4719,14 @@
       <c r="Z121" s="4"/>
     </row>
     <row r="122">
-      <c r="A122" s="1">
-        <v>399.0</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C122" s="3">
-        <v>260.0</v>
-      </c>
-      <c r="D122" s="2" t="s">
+      <c r="A122" s="6">
+        <v>370.0</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C122" s="3"/>
+      <c r="D122" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E122" s="4"/>
@@ -4757,13 +4754,13 @@
     </row>
     <row r="123">
       <c r="A123" s="1">
-        <v>404.0</v>
+        <v>375.0</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C123" s="3">
-        <v>250.0</v>
+        <v>245.0</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>3</v>
@@ -4792,16 +4789,16 @@
       <c r="Z123" s="4"/>
     </row>
     <row r="124">
-      <c r="A124" s="6">
-        <v>406.0</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C124" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D124" s="5" t="s">
+      <c r="A124" s="1">
+        <v>377.0</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124" s="3">
+        <v>275.0</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E124" s="4"/>
@@ -4829,13 +4826,13 @@
     </row>
     <row r="125">
       <c r="A125" s="6">
-        <v>413.0</v>
+        <v>378.0</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C125" s="7">
-        <v>290.0</v>
+        <v>275.0</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>3</v>
@@ -4865,13 +4862,13 @@
     </row>
     <row r="126">
       <c r="A126" s="1">
-        <v>423.0</v>
+        <v>382.0</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C126" s="3">
-        <v>280.0</v>
+        <v>295.0</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>3</v>
@@ -4900,16 +4897,16 @@
       <c r="Z126" s="4"/>
     </row>
     <row r="127">
-      <c r="A127" s="1">
-        <v>429.0</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C127" s="3">
-        <v>290.0</v>
-      </c>
-      <c r="D127" s="2" t="s">
+      <c r="A127" s="6">
+        <v>384.0</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D127" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E127" s="4"/>
@@ -4936,16 +4933,16 @@
       <c r="Z127" s="4"/>
     </row>
     <row r="128">
-      <c r="A128" s="1">
-        <v>430.0</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C128" s="3">
+      <c r="A128" s="6">
+        <v>388.0</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C128" s="7">
         <v>290.0</v>
       </c>
-      <c r="D128" s="2" t="s">
+      <c r="D128" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E128" s="4"/>
@@ -4973,13 +4970,13 @@
     </row>
     <row r="129">
       <c r="A129" s="1">
-        <v>442.0</v>
+        <v>389.0</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C129" s="3">
-        <v>295.0</v>
+        <v>265.0</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>3</v>
@@ -5009,13 +5006,13 @@
     </row>
     <row r="130">
       <c r="A130" s="6">
-        <v>443.0</v>
+        <v>390.0</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C130" s="7">
-        <v>305.0</v>
+        <v>300.0</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>3</v>
@@ -5045,7 +5042,7 @@
     </row>
     <row r="131">
       <c r="A131" s="6">
-        <v>450.0</v>
+        <v>398.0</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>3</v>
@@ -5081,13 +5078,13 @@
     </row>
     <row r="132">
       <c r="A132" s="1">
-        <v>456.0</v>
+        <v>399.0</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C132" s="3">
-        <v>235.0</v>
+        <v>260.0</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>3</v>
@@ -5117,7 +5114,7 @@
     </row>
     <row r="133">
       <c r="A133" s="1">
-        <v>457.0</v>
+        <v>404.0</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>3</v>
@@ -5153,13 +5150,13 @@
     </row>
     <row r="134">
       <c r="A134" s="6">
-        <v>461.0</v>
+        <v>406.0</v>
       </c>
       <c r="B134" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C134" s="7">
-        <v>210.0</v>
+      <c r="C134" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>3</v>
@@ -5188,16 +5185,16 @@
       <c r="Z134" s="4"/>
     </row>
     <row r="135">
-      <c r="A135" s="1">
-        <v>463.0</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C135" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D135" s="2" t="s">
+      <c r="A135" s="6">
+        <v>413.0</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" s="7">
+        <v>290.0</v>
+      </c>
+      <c r="D135" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E135" s="4"/>
@@ -5225,13 +5222,13 @@
     </row>
     <row r="136">
       <c r="A136" s="1">
-        <v>470.0</v>
+        <v>423.0</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C136" s="3">
-        <v>265.0</v>
+        <v>280.0</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>3</v>
@@ -5260,16 +5257,16 @@
       <c r="Z136" s="4"/>
     </row>
     <row r="137">
-      <c r="A137" s="6">
-        <v>478.0</v>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C137" s="7">
-        <v>275.0</v>
-      </c>
-      <c r="D137" s="5" t="s">
+      <c r="A137" s="1">
+        <v>429.0</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C137" s="3">
+        <v>290.0</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E137" s="4"/>
@@ -5296,16 +5293,16 @@
       <c r="Z137" s="4"/>
     </row>
     <row r="138">
-      <c r="A138" s="6">
-        <v>480.0</v>
-      </c>
-      <c r="B138" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C138" s="7">
-        <v>285.0</v>
-      </c>
-      <c r="D138" s="5" t="s">
+      <c r="A138" s="1">
+        <v>430.0</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C138" s="3">
+        <v>290.0</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E138" s="4"/>
@@ -5332,16 +5329,16 @@
       <c r="Z138" s="4"/>
     </row>
     <row r="139">
-      <c r="A139" s="1">
-        <v>485.0</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C139" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D139" s="2" t="s">
+      <c r="A139" s="6">
+        <v>438.0</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C139" s="7">
+        <v>265.0</v>
+      </c>
+      <c r="D139" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E139" s="4"/>
@@ -5369,13 +5366,13 @@
     </row>
     <row r="140">
       <c r="A140" s="6">
-        <v>490.0</v>
+        <v>441.0</v>
       </c>
       <c r="B140" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C140" s="7">
-        <v>275.0</v>
+        <v>270.0</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>3</v>
@@ -5405,13 +5402,13 @@
     </row>
     <row r="141">
       <c r="A141" s="1">
-        <v>503.0</v>
+        <v>442.0</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C141" s="3">
-        <v>260.0</v>
+        <v>295.0</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>3</v>
@@ -5440,16 +5437,16 @@
       <c r="Z141" s="4"/>
     </row>
     <row r="142">
-      <c r="A142" s="1">
-        <v>510.0</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C142" s="3">
-        <v>285.0</v>
-      </c>
-      <c r="D142" s="2" t="s">
+      <c r="A142" s="6">
+        <v>443.0</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C142" s="7">
+        <v>305.0</v>
+      </c>
+      <c r="D142" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E142" s="4"/>
@@ -5477,13 +5474,13 @@
     </row>
     <row r="143">
       <c r="A143" s="6">
-        <v>514.0</v>
+        <v>446.0</v>
       </c>
       <c r="B143" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C143" s="7">
-        <v>315.0</v>
+        <v>280.0</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>3</v>
@@ -5512,16 +5509,16 @@
       <c r="Z143" s="4"/>
     </row>
     <row r="144">
-      <c r="A144" s="1">
-        <v>534.0</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C144" s="3">
-        <v>230.0</v>
-      </c>
-      <c r="D144" s="2" t="s">
+      <c r="A144" s="6">
+        <v>450.0</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144" s="7">
+        <v>260.0</v>
+      </c>
+      <c r="D144" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E144" s="4"/>
@@ -5548,16 +5545,16 @@
       <c r="Z144" s="4"/>
     </row>
     <row r="145">
-      <c r="A145" s="1">
-        <v>535.0</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C145" s="3">
-        <v>295.0</v>
-      </c>
-      <c r="D145" s="2" t="s">
+      <c r="A145" s="6">
+        <v>451.0</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C145" s="7">
+        <v>330.0</v>
+      </c>
+      <c r="D145" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E145" s="4"/>
@@ -5584,16 +5581,16 @@
       <c r="Z145" s="4"/>
     </row>
     <row r="146">
-      <c r="A146" s="6">
-        <v>543.0</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C146" s="7">
-        <v>288.0</v>
-      </c>
-      <c r="D146" s="5" t="s">
+      <c r="A146" s="1">
+        <v>456.0</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C146" s="3">
+        <v>235.0</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E146" s="4"/>
@@ -5620,16 +5617,16 @@
       <c r="Z146" s="4"/>
     </row>
     <row r="147">
-      <c r="A147" s="6">
-        <v>546.0</v>
-      </c>
-      <c r="B147" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C147" s="7">
-        <v>265.0</v>
-      </c>
-      <c r="D147" s="5" t="s">
+      <c r="A147" s="1">
+        <v>457.0</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E147" s="4"/>
@@ -5657,13 +5654,13 @@
     </row>
     <row r="148">
       <c r="A148" s="6">
-        <v>551.0</v>
+        <v>461.0</v>
       </c>
       <c r="B148" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C148" s="7" t="s">
-        <v>12</v>
+      <c r="C148" s="7">
+        <v>210.0</v>
       </c>
       <c r="D148" s="5" t="s">
         <v>3</v>
@@ -5693,13 +5690,13 @@
     </row>
     <row r="149">
       <c r="A149" s="1">
-        <v>552.0</v>
+        <v>463.0</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C149" s="3">
-        <v>280.0</v>
+        <v>310.0</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>3</v>
@@ -5728,16 +5725,16 @@
       <c r="Z149" s="4"/>
     </row>
     <row r="150">
-      <c r="A150" s="6">
-        <v>560.0</v>
-      </c>
-      <c r="B150" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C150" s="7">
-        <v>310.0</v>
-      </c>
-      <c r="D150" s="5" t="s">
+      <c r="A150" s="1">
+        <v>470.0</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C150" s="3">
+        <v>265.0</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E150" s="4"/>
@@ -5764,16 +5761,16 @@
       <c r="Z150" s="4"/>
     </row>
     <row r="151">
-      <c r="A151" s="1">
-        <v>561.0</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C151" s="3">
-        <v>280.0</v>
-      </c>
-      <c r="D151" s="2" t="s">
+      <c r="A151" s="6">
+        <v>478.0</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C151" s="7">
+        <v>275.0</v>
+      </c>
+      <c r="D151" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E151" s="4"/>
@@ -5801,13 +5798,13 @@
     </row>
     <row r="152">
       <c r="A152" s="6">
-        <v>562.0</v>
+        <v>480.0</v>
       </c>
       <c r="B152" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C152" s="7" t="s">
-        <v>5</v>
+      <c r="C152" s="7">
+        <v>285.0</v>
       </c>
       <c r="D152" s="5" t="s">
         <v>3</v>
@@ -5836,16 +5833,16 @@
       <c r="Z152" s="4"/>
     </row>
     <row r="153">
-      <c r="A153" s="6">
-        <v>564.0</v>
-      </c>
-      <c r="B153" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C153" s="7">
-        <v>260.0</v>
-      </c>
-      <c r="D153" s="5" t="s">
+      <c r="A153" s="1">
+        <v>485.0</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C153" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E153" s="4"/>
@@ -5872,16 +5869,16 @@
       <c r="Z153" s="4"/>
     </row>
     <row r="154">
-      <c r="A154" s="1">
-        <v>567.0</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C154" s="3">
-        <v>325.0</v>
-      </c>
-      <c r="D154" s="2" t="s">
+      <c r="A154" s="6">
+        <v>490.0</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C154" s="7">
+        <v>275.0</v>
+      </c>
+      <c r="D154" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E154" s="4"/>
@@ -5908,16 +5905,16 @@
       <c r="Z154" s="4"/>
     </row>
     <row r="155">
-      <c r="A155" s="1">
-        <v>576.0</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C155" s="3">
-        <v>260.0</v>
-      </c>
-      <c r="D155" s="2" t="s">
+      <c r="A155" s="6">
+        <v>492.0</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D155" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E155" s="4"/>
@@ -5944,16 +5941,16 @@
       <c r="Z155" s="4"/>
     </row>
     <row r="156">
-      <c r="A156" s="6">
-        <v>577.0</v>
-      </c>
-      <c r="B156" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C156" s="7">
-        <v>230.0</v>
-      </c>
-      <c r="D156" s="5" t="s">
+      <c r="A156" s="1">
+        <v>503.0</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C156" s="3">
+        <v>260.0</v>
+      </c>
+      <c r="D156" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E156" s="4"/>
@@ -5980,16 +5977,16 @@
       <c r="Z156" s="4"/>
     </row>
     <row r="157">
-      <c r="A157" s="10">
-        <v>580.0</v>
-      </c>
-      <c r="B157" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C157" s="7">
-        <v>240.0</v>
-      </c>
-      <c r="D157" s="5" t="s">
+      <c r="A157" s="1">
+        <v>510.0</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C157" s="3">
+        <v>285.0</v>
+      </c>
+      <c r="D157" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E157" s="4"/>
@@ -6016,16 +6013,16 @@
       <c r="Z157" s="4"/>
     </row>
     <row r="158">
-      <c r="A158" s="1">
-        <v>583.0</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C158" s="3">
-        <v>320.0</v>
-      </c>
-      <c r="D158" s="2" t="s">
+      <c r="A158" s="6">
+        <v>514.0</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C158" s="7">
+        <v>315.0</v>
+      </c>
+      <c r="D158" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E158" s="4"/>
@@ -6052,16 +6049,16 @@
       <c r="Z158" s="4"/>
     </row>
     <row r="159">
-      <c r="A159" s="1">
-        <v>584.0</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C159" s="3">
-        <v>270.0</v>
-      </c>
-      <c r="D159" s="2" t="s">
+      <c r="A159" s="6">
+        <v>522.0</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C159" s="7">
+        <v>290.0</v>
+      </c>
+      <c r="D159" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E159" s="4"/>
@@ -6089,13 +6086,13 @@
     </row>
     <row r="160">
       <c r="A160" s="1">
-        <v>586.0</v>
+        <v>534.0</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C160" s="3">
-        <v>240.0</v>
+        <v>230.0</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>3</v>
@@ -6124,16 +6121,16 @@
       <c r="Z160" s="4"/>
     </row>
     <row r="161">
-      <c r="A161" s="6">
-        <v>587.0</v>
-      </c>
-      <c r="B161" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C161" s="7">
-        <v>265.0</v>
-      </c>
-      <c r="D161" s="5" t="s">
+      <c r="A161" s="1">
+        <v>535.0</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C161" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D161" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E161" s="4"/>
@@ -6160,16 +6157,16 @@
       <c r="Z161" s="4"/>
     </row>
     <row r="162">
-      <c r="A162" s="1">
-        <v>593.0</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C162" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D162" s="2" t="s">
+      <c r="A162" s="6">
+        <v>543.0</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C162" s="7">
+        <v>288.0</v>
+      </c>
+      <c r="D162" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E162" s="4"/>
@@ -6197,13 +6194,13 @@
     </row>
     <row r="163">
       <c r="A163" s="6">
-        <v>599.0</v>
+        <v>546.0</v>
       </c>
       <c r="B163" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C163" s="7">
-        <v>280.0</v>
+        <v>265.0</v>
       </c>
       <c r="D163" s="5" t="s">
         <v>3</v>
@@ -6232,16 +6229,16 @@
       <c r="Z163" s="4"/>
     </row>
     <row r="164">
-      <c r="A164" s="1">
-        <v>604.0</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C164" s="3">
-        <v>295.0</v>
-      </c>
-      <c r="D164" s="2" t="s">
+      <c r="A164" s="6">
+        <v>551.0</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C164" s="7">
+        <v>270.0</v>
+      </c>
+      <c r="D164" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E164" s="4"/>
@@ -6269,13 +6266,13 @@
     </row>
     <row r="165">
       <c r="A165" s="1">
-        <v>604.0</v>
+        <v>552.0</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C165" s="3">
-        <v>295.0</v>
+        <v>280.0</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>3</v>
@@ -6305,13 +6302,13 @@
     </row>
     <row r="166">
       <c r="A166" s="6">
-        <v>610.0</v>
+        <v>556.0</v>
       </c>
       <c r="B166" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C166" s="7">
-        <v>260.0</v>
+        <v>285.0</v>
       </c>
       <c r="D166" s="5" t="s">
         <v>3</v>
@@ -6340,16 +6337,16 @@
       <c r="Z166" s="4"/>
     </row>
     <row r="167">
-      <c r="A167" s="1">
-        <v>612.0</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C167" s="3">
-        <v>255.0</v>
-      </c>
-      <c r="D167" s="2" t="s">
+      <c r="A167" s="6">
+        <v>560.0</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C167" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D167" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E167" s="4"/>
@@ -6376,16 +6373,16 @@
       <c r="Z167" s="4"/>
     </row>
     <row r="168">
-      <c r="A168" s="6">
-        <v>615.0</v>
-      </c>
-      <c r="B168" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C168" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D168" s="5" t="s">
+      <c r="A168" s="1">
+        <v>561.0</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C168" s="3">
+        <v>280.0</v>
+      </c>
+      <c r="D168" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E168" s="4"/>
@@ -6412,16 +6409,16 @@
       <c r="Z168" s="4"/>
     </row>
     <row r="169">
-      <c r="A169" s="1">
-        <v>617.0</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C169" s="3">
-        <v>330.0</v>
-      </c>
-      <c r="D169" s="2" t="s">
+      <c r="A169" s="6">
+        <v>562.0</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D169" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E169" s="4"/>
@@ -6449,13 +6446,13 @@
     </row>
     <row r="170">
       <c r="A170" s="6">
-        <v>618.0</v>
+        <v>564.0</v>
       </c>
       <c r="B170" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C170" s="7">
-        <v>330.0</v>
+        <v>260.0</v>
       </c>
       <c r="D170" s="5" t="s">
         <v>3</v>
@@ -6485,13 +6482,13 @@
     </row>
     <row r="171">
       <c r="A171" s="1">
-        <v>623.0</v>
+        <v>567.0</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C171" s="3">
-        <v>290.0</v>
+        <v>325.0</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>3</v>
@@ -6520,16 +6517,16 @@
       <c r="Z171" s="4"/>
     </row>
     <row r="172">
-      <c r="A172" s="6">
-        <v>624.0</v>
-      </c>
-      <c r="B172" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C172" s="7">
-        <v>310.0</v>
-      </c>
-      <c r="D172" s="5" t="s">
+      <c r="A172" s="1">
+        <v>576.0</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C172" s="3">
+        <v>260.0</v>
+      </c>
+      <c r="D172" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E172" s="4"/>
@@ -6556,16 +6553,16 @@
       <c r="Z172" s="4"/>
     </row>
     <row r="173">
-      <c r="A173" s="1">
-        <v>625.0</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C173" s="3">
-        <v>320.0</v>
-      </c>
-      <c r="D173" s="2" t="s">
+      <c r="A173" s="6">
+        <v>577.0</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C173" s="7">
+        <v>230.0</v>
+      </c>
+      <c r="D173" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E173" s="4"/>
@@ -6592,16 +6589,16 @@
       <c r="Z173" s="4"/>
     </row>
     <row r="174">
-      <c r="A174" s="1">
-        <v>626.0</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C174" s="3">
-        <v>305.0</v>
-      </c>
-      <c r="D174" s="2" t="s">
+      <c r="A174" s="10">
+        <v>580.0</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C174" s="7">
+        <v>240.0</v>
+      </c>
+      <c r="D174" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E174" s="4"/>
@@ -6628,16 +6625,16 @@
       <c r="Z174" s="4"/>
     </row>
     <row r="175">
-      <c r="A175" s="6">
-        <v>628.0</v>
-      </c>
-      <c r="B175" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C175" s="7">
-        <v>305.0</v>
-      </c>
-      <c r="D175" s="5" t="s">
+      <c r="A175" s="1">
+        <v>583.0</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C175" s="3">
+        <v>320.0</v>
+      </c>
+      <c r="D175" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E175" s="4"/>
@@ -6665,13 +6662,13 @@
     </row>
     <row r="176">
       <c r="A176" s="1">
-        <v>635.0</v>
+        <v>584.0</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C176" s="3">
-        <v>295.0</v>
+      <c r="C176" s="7">
+        <v>275.0</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>3</v>
@@ -6700,16 +6697,16 @@
       <c r="Z176" s="4"/>
     </row>
     <row r="177">
-      <c r="A177" s="6">
-        <v>640.0</v>
-      </c>
-      <c r="B177" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C177" s="7">
-        <v>275.0</v>
-      </c>
-      <c r="D177" s="5" t="s">
+      <c r="A177" s="1">
+        <v>586.0</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C177" s="3">
+        <v>240.0</v>
+      </c>
+      <c r="D177" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E177" s="4"/>
@@ -6736,16 +6733,16 @@
       <c r="Z177" s="4"/>
     </row>
     <row r="178">
-      <c r="A178" s="1">
-        <v>642.0</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C178" s="3">
-        <v>270.0</v>
-      </c>
-      <c r="D178" s="2" t="s">
+      <c r="A178" s="6">
+        <v>587.0</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C178" s="7">
+        <v>265.0</v>
+      </c>
+      <c r="D178" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E178" s="4"/>
@@ -6772,16 +6769,16 @@
       <c r="Z178" s="4"/>
     </row>
     <row r="179">
-      <c r="A179" s="1">
-        <v>643.0</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C179" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D179" s="2" t="s">
+      <c r="A179" s="6">
+        <v>589.0</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C179" s="7">
+        <v>265.0</v>
+      </c>
+      <c r="D179" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E179" s="4"/>
@@ -6808,14 +6805,14 @@
       <c r="Z179" s="4"/>
     </row>
     <row r="180">
-      <c r="A180" s="6">
-        <v>651.0</v>
+      <c r="A180" s="1">
+        <v>593.0</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C180" s="7">
-        <v>230.0</v>
+      <c r="C180" s="3">
+        <v>250.0</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>3</v>
@@ -6844,16 +6841,16 @@
       <c r="Z180" s="4"/>
     </row>
     <row r="181">
-      <c r="A181" s="1">
-        <v>652.0</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C181" s="3">
-        <v>330.0</v>
-      </c>
-      <c r="D181" s="2" t="s">
+      <c r="A181" s="6">
+        <v>599.0</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C181" s="7">
+        <v>280.0</v>
+      </c>
+      <c r="D181" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E181" s="4"/>
@@ -6881,13 +6878,13 @@
     </row>
     <row r="182">
       <c r="A182" s="1">
-        <v>663.0</v>
+        <v>604.0</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C182" s="3">
-        <v>265.0</v>
+        <v>295.0</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>3</v>
@@ -6917,15 +6914,15 @@
     </row>
     <row r="183">
       <c r="A183" s="6">
-        <v>666.0</v>
-      </c>
-      <c r="B183" s="5" t="s">
+        <v>605.0</v>
+      </c>
+      <c r="B183" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C183" s="7">
-        <v>300.0</v>
-      </c>
-      <c r="D183" s="5" t="s">
+        <v>270.0</v>
+      </c>
+      <c r="D183" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E183" s="4"/>
@@ -6952,16 +6949,16 @@
       <c r="Z183" s="4"/>
     </row>
     <row r="184">
-      <c r="A184" s="1">
-        <v>668.0</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C184" s="3">
-        <v>305.0</v>
-      </c>
-      <c r="D184" s="2" t="s">
+      <c r="A184" s="6">
+        <v>610.0</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C184" s="7">
+        <v>260.0</v>
+      </c>
+      <c r="D184" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E184" s="4"/>
@@ -6988,16 +6985,18 @@
       <c r="Z184" s="4"/>
     </row>
     <row r="185">
-      <c r="A185" s="6">
-        <v>669.0</v>
-      </c>
-      <c r="B185" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C185" s="7">
-        <v>310.0</v>
-      </c>
-      <c r="D185" s="2"/>
+      <c r="A185" s="1">
+        <v>612.0</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C185" s="3">
+        <v>255.0</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E185" s="4"/>
       <c r="F185" s="4"/>
       <c r="G185" s="4"/>
@@ -7022,16 +7021,16 @@
       <c r="Z185" s="4"/>
     </row>
     <row r="186">
-      <c r="A186" s="1">
-        <v>670.0</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C186" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D186" s="2" t="s">
+      <c r="A186" s="6">
+        <v>615.0</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C186" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D186" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E186" s="4"/>
@@ -7059,13 +7058,13 @@
     </row>
     <row r="187">
       <c r="A187" s="1">
-        <v>671.0</v>
+        <v>617.0</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C187" s="3">
-        <v>305.0</v>
+        <v>330.0</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>3</v>
@@ -7094,16 +7093,16 @@
       <c r="Z187" s="4"/>
     </row>
     <row r="188">
-      <c r="A188" s="1">
-        <v>672.0</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C188" s="3">
-        <v>295.0</v>
-      </c>
-      <c r="D188" s="2" t="s">
+      <c r="A188" s="6">
+        <v>618.0</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C188" s="7">
+        <v>330.0</v>
+      </c>
+      <c r="D188" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E188" s="4"/>
@@ -7130,16 +7129,16 @@
       <c r="Z188" s="4"/>
     </row>
     <row r="189">
-      <c r="A189" s="6">
-        <v>676.0</v>
-      </c>
-      <c r="B189" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C189" s="7">
-        <v>335.0</v>
-      </c>
-      <c r="D189" s="5" t="s">
+      <c r="A189" s="1">
+        <v>623.0</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C189" s="3">
+        <v>290.0</v>
+      </c>
+      <c r="D189" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E189" s="4"/>
@@ -7166,16 +7165,16 @@
       <c r="Z189" s="4"/>
     </row>
     <row r="190">
-      <c r="A190" s="1">
-        <v>680.0</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C190" s="3">
-        <v>285.0</v>
-      </c>
-      <c r="D190" s="2" t="s">
+      <c r="A190" s="6">
+        <v>624.0</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C190" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D190" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E190" s="4"/>
@@ -7203,13 +7202,13 @@
     </row>
     <row r="191">
       <c r="A191" s="1">
-        <v>688.0</v>
+        <v>625.0</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C191" s="3">
-        <v>310.0</v>
+        <v>320.0</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>3</v>
@@ -7238,14 +7237,14 @@
       <c r="Z191" s="4"/>
     </row>
     <row r="192">
-      <c r="A192" s="11">
-        <v>692.0</v>
+      <c r="A192" s="1">
+        <v>626.0</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C192" s="11">
-        <v>300.0</v>
+      <c r="C192" s="3">
+        <v>305.0</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>3</v>
@@ -7274,16 +7273,16 @@
       <c r="Z192" s="4"/>
     </row>
     <row r="193">
-      <c r="A193" s="1">
-        <v>696.0</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C193" s="3">
-        <v>300.0</v>
-      </c>
-      <c r="D193" s="2" t="s">
+      <c r="A193" s="6">
+        <v>628.0</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C193" s="7">
+        <v>305.0</v>
+      </c>
+      <c r="D193" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E193" s="4"/>
@@ -7310,16 +7309,16 @@
       <c r="Z193" s="4"/>
     </row>
     <row r="194">
-      <c r="A194" s="6">
-        <v>697.0</v>
-      </c>
-      <c r="B194" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C194" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D194" s="5" t="s">
+      <c r="A194" s="1">
+        <v>635.0</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C194" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D194" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E194" s="4"/>
@@ -7347,13 +7346,13 @@
     </row>
     <row r="195">
       <c r="A195" s="6">
-        <v>712.0</v>
+        <v>640.0</v>
       </c>
       <c r="B195" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C195" s="7">
-        <v>295.0</v>
+        <v>275.0</v>
       </c>
       <c r="D195" s="5" t="s">
         <v>3</v>
@@ -7382,16 +7381,16 @@
       <c r="Z195" s="4"/>
     </row>
     <row r="196">
-      <c r="A196" s="6">
-        <v>713.0</v>
-      </c>
-      <c r="B196" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C196" s="7">
-        <v>310.0</v>
-      </c>
-      <c r="D196" s="5" t="s">
+      <c r="A196" s="1">
+        <v>642.0</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C196" s="3">
+        <v>270.0</v>
+      </c>
+      <c r="D196" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E196" s="4"/>
@@ -7419,13 +7418,13 @@
     </row>
     <row r="197">
       <c r="A197" s="1">
-        <v>714.0</v>
+        <v>643.0</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C197" s="3">
-        <v>275.0</v>
+        <v>310.0</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>3</v>
@@ -7455,13 +7454,15 @@
     </row>
     <row r="198">
       <c r="A198" s="6">
-        <v>715.0</v>
-      </c>
-      <c r="B198" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C198" s="3"/>
-      <c r="D198" s="5" t="s">
+        <v>651.0</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C198" s="7">
+        <v>230.0</v>
+      </c>
+      <c r="D198" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E198" s="4"/>
@@ -7489,7 +7490,7 @@
     </row>
     <row r="199">
       <c r="A199" s="1">
-        <v>718.0</v>
+        <v>652.0</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>3</v>
@@ -7524,16 +7525,16 @@
       <c r="Z199" s="4"/>
     </row>
     <row r="200">
-      <c r="A200" s="1">
-        <v>719.0</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C200" s="3">
-        <v>280.0</v>
-      </c>
-      <c r="D200" s="2" t="s">
+      <c r="A200" s="6">
+        <v>659.0</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C200" s="7">
+        <v>305.0</v>
+      </c>
+      <c r="D200" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E200" s="4"/>
@@ -7560,16 +7561,16 @@
       <c r="Z200" s="4"/>
     </row>
     <row r="201">
-      <c r="A201" s="6">
-        <v>725.0</v>
-      </c>
-      <c r="B201" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C201" s="7">
-        <v>245.0</v>
-      </c>
-      <c r="D201" s="5" t="s">
+      <c r="A201" s="1">
+        <v>663.0</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C201" s="3">
+        <v>265.0</v>
+      </c>
+      <c r="D201" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E201" s="4"/>
@@ -7597,13 +7598,13 @@
     </row>
     <row r="202">
       <c r="A202" s="6">
-        <v>730.0</v>
+        <v>666.0</v>
       </c>
       <c r="B202" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C202" s="7">
-        <v>315.0</v>
+        <v>300.0</v>
       </c>
       <c r="D202" s="5" t="s">
         <v>3</v>
@@ -7632,16 +7633,16 @@
       <c r="Z202" s="4"/>
     </row>
     <row r="203">
-      <c r="A203" s="6">
-        <v>731.0</v>
-      </c>
-      <c r="B203" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C203" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D203" s="5" t="s">
+      <c r="A203" s="1">
+        <v>668.0</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C203" s="3">
+        <v>305.0</v>
+      </c>
+      <c r="D203" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E203" s="4"/>
@@ -7668,18 +7669,16 @@
       <c r="Z203" s="4"/>
     </row>
     <row r="204">
-      <c r="A204" s="1">
-        <v>732.0</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C204" s="3">
-        <v>280.0</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A204" s="6">
+        <v>669.0</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C204" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D204" s="2"/>
       <c r="E204" s="4"/>
       <c r="F204" s="4"/>
       <c r="G204" s="4"/>
@@ -7705,13 +7704,13 @@
     </row>
     <row r="205">
       <c r="A205" s="1">
-        <v>733.0</v>
+        <v>670.0</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C205" s="3">
-        <v>320.0</v>
+        <v>250.0</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>3</v>
@@ -7741,13 +7740,13 @@
     </row>
     <row r="206">
       <c r="A206" s="1">
-        <v>736.0</v>
+        <v>671.0</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C206" s="3">
-        <v>250.0</v>
+        <v>305.0</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>3</v>
@@ -7776,16 +7775,16 @@
       <c r="Z206" s="4"/>
     </row>
     <row r="207">
-      <c r="A207" s="6">
-        <v>742.0</v>
-      </c>
-      <c r="B207" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C207" s="7">
-        <v>240.0</v>
-      </c>
-      <c r="D207" s="5" t="s">
+      <c r="A207" s="1">
+        <v>672.0</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C207" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D207" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E207" s="4"/>
@@ -7812,16 +7811,16 @@
       <c r="Z207" s="4"/>
     </row>
     <row r="208">
-      <c r="A208" s="1">
-        <v>744.0</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C208" s="3">
-        <v>270.0</v>
-      </c>
-      <c r="D208" s="2" t="s">
+      <c r="A208" s="6">
+        <v>676.0</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C208" s="7">
+        <v>335.0</v>
+      </c>
+      <c r="D208" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E208" s="4"/>
@@ -7849,13 +7848,13 @@
     </row>
     <row r="209">
       <c r="A209" s="1">
-        <v>747.0</v>
+        <v>680.0</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C209" s="3">
-        <v>250.0</v>
+        <v>285.0</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>3</v>
@@ -7884,16 +7883,16 @@
       <c r="Z209" s="4"/>
     </row>
     <row r="210">
-      <c r="A210" s="6">
-        <v>748.0</v>
-      </c>
-      <c r="B210" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C210" s="7">
-        <v>230.0</v>
-      </c>
-      <c r="D210" s="5" t="s">
+      <c r="A210" s="1">
+        <v>688.0</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C210" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D210" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E210" s="4"/>
@@ -7920,14 +7919,14 @@
       <c r="Z210" s="4"/>
     </row>
     <row r="211">
-      <c r="A211" s="1">
-        <v>749.0</v>
+      <c r="A211" s="11">
+        <v>692.0</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C211" s="3">
-        <v>335.0</v>
+      <c r="C211" s="11">
+        <v>300.0</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>3</v>
@@ -7956,16 +7955,16 @@
       <c r="Z211" s="4"/>
     </row>
     <row r="212">
-      <c r="A212" s="6">
-        <v>757.0</v>
-      </c>
-      <c r="B212" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C212" s="7">
-        <v>280.0</v>
-      </c>
-      <c r="D212" s="5" t="s">
+      <c r="A212" s="1">
+        <v>696.0</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C212" s="3">
+        <v>300.0</v>
+      </c>
+      <c r="D212" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E212" s="4"/>
@@ -7992,16 +7991,16 @@
       <c r="Z212" s="4"/>
     </row>
     <row r="213">
-      <c r="A213" s="1">
-        <v>758.0</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C213" s="3">
-        <v>295.0</v>
-      </c>
-      <c r="D213" s="2" t="s">
+      <c r="A213" s="6">
+        <v>697.0</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C213" s="7">
+        <v>250.0</v>
+      </c>
+      <c r="D213" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E213" s="4"/>
@@ -8029,13 +8028,13 @@
     </row>
     <row r="214">
       <c r="A214" s="6">
-        <v>761.0</v>
+        <v>705.0</v>
       </c>
       <c r="B214" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C214" s="7">
-        <v>260.0</v>
+        <v>280.0</v>
       </c>
       <c r="D214" s="5" t="s">
         <v>3</v>
@@ -8064,16 +8063,16 @@
       <c r="Z214" s="4"/>
     </row>
     <row r="215">
-      <c r="A215" s="1">
-        <v>767.0</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C215" s="3">
-        <v>290.0</v>
-      </c>
-      <c r="D215" s="2" t="s">
+      <c r="A215" s="6">
+        <v>712.0</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C215" s="7">
+        <v>295.0</v>
+      </c>
+      <c r="D215" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E215" s="4"/>
@@ -8101,13 +8100,13 @@
     </row>
     <row r="216">
       <c r="A216" s="6">
-        <v>772.0</v>
+        <v>713.0</v>
       </c>
       <c r="B216" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C216" s="7">
-        <v>240.0</v>
+        <v>310.0</v>
       </c>
       <c r="D216" s="5" t="s">
         <v>3</v>
@@ -8137,13 +8136,13 @@
     </row>
     <row r="217">
       <c r="A217" s="1">
-        <v>775.0</v>
+        <v>714.0</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C217" s="3">
-        <v>260.0</v>
+        <v>275.0</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>3</v>
@@ -8173,14 +8172,12 @@
     </row>
     <row r="218">
       <c r="A218" s="6">
-        <v>776.0</v>
+        <v>715.0</v>
       </c>
       <c r="B218" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C218" s="7">
-        <v>240.0</v>
-      </c>
+      <c r="C218" s="3"/>
       <c r="D218" s="5" t="s">
         <v>3</v>
       </c>
@@ -8209,13 +8206,13 @@
     </row>
     <row r="219">
       <c r="A219" s="1">
-        <v>777.0</v>
+        <v>718.0</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C219" s="3">
-        <v>310.0</v>
+        <v>330.0</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>3</v>
@@ -8245,13 +8242,13 @@
     </row>
     <row r="220">
       <c r="A220" s="1">
-        <v>792.0</v>
+        <v>719.0</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C220" s="3">
-        <v>320.0</v>
+        <v>280.0</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>3</v>
@@ -8281,13 +8278,13 @@
     </row>
     <row r="221">
       <c r="A221" s="6">
-        <v>784.0</v>
+        <v>725.0</v>
       </c>
       <c r="B221" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C221" s="7">
-        <v>270.0</v>
+        <v>245.0</v>
       </c>
       <c r="D221" s="5" t="s">
         <v>3</v>
@@ -8317,13 +8314,13 @@
     </row>
     <row r="222">
       <c r="A222" s="6">
-        <v>786.0</v>
+        <v>730.0</v>
       </c>
       <c r="B222" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C222" s="7">
-        <v>275.0</v>
+        <v>315.0</v>
       </c>
       <c r="D222" s="5" t="s">
         <v>3</v>
@@ -8353,13 +8350,13 @@
     </row>
     <row r="223">
       <c r="A223" s="6">
-        <v>789.0</v>
+        <v>731.0</v>
       </c>
       <c r="B223" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C223" s="7">
-        <v>265.0</v>
+        <v>260.0</v>
       </c>
       <c r="D223" s="5" t="s">
         <v>3</v>
@@ -8389,13 +8386,13 @@
     </row>
     <row r="224">
       <c r="A224" s="1">
-        <v>795.0</v>
+        <v>732.0</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C224" s="3">
-        <v>255.0</v>
+        <v>280.0</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>3</v>
@@ -8424,16 +8421,16 @@
       <c r="Z224" s="4"/>
     </row>
     <row r="225">
-      <c r="A225" s="6">
-        <v>797.0</v>
-      </c>
-      <c r="B225" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C225" s="7">
-        <v>325.0</v>
-      </c>
-      <c r="D225" s="5" t="s">
+      <c r="A225" s="1">
+        <v>733.0</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C225" s="3">
+        <v>320.0</v>
+      </c>
+      <c r="D225" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E225" s="4"/>
@@ -8460,16 +8457,16 @@
       <c r="Z225" s="4"/>
     </row>
     <row r="226">
-      <c r="A226" s="6">
-        <v>799.0</v>
-      </c>
-      <c r="B226" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C226" s="7">
-        <v>310.0</v>
-      </c>
-      <c r="D226" s="5" t="s">
+      <c r="A226" s="1">
+        <v>736.0</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C226" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D226" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E226" s="4"/>
@@ -8496,16 +8493,16 @@
       <c r="Z226" s="4"/>
     </row>
     <row r="227">
-      <c r="A227" s="1">
-        <v>801.0</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C227" s="3">
-        <v>230.0</v>
-      </c>
-      <c r="D227" s="2" t="s">
+      <c r="A227" s="6">
+        <v>742.0</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C227" s="7">
+        <v>240.0</v>
+      </c>
+      <c r="D227" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E227" s="4"/>
@@ -8532,16 +8529,16 @@
       <c r="Z227" s="4"/>
     </row>
     <row r="228">
-      <c r="A228" s="6">
-        <v>806.0</v>
-      </c>
-      <c r="B228" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C228" s="7">
-        <v>280.0</v>
-      </c>
-      <c r="D228" s="5" t="s">
+      <c r="A228" s="1">
+        <v>744.0</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C228" s="3">
+        <v>270.0</v>
+      </c>
+      <c r="D228" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E228" s="4"/>
@@ -8569,13 +8566,13 @@
     </row>
     <row r="229">
       <c r="A229" s="1">
-        <v>809.0</v>
+        <v>747.0</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C229" s="3">
-        <v>270.0</v>
+        <v>250.0</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>3</v>
@@ -8604,16 +8601,16 @@
       <c r="Z229" s="4"/>
     </row>
     <row r="230">
-      <c r="A230" s="1">
-        <v>811.0</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C230" s="3">
-        <v>260.0</v>
-      </c>
-      <c r="D230" s="2" t="s">
+      <c r="A230" s="6">
+        <v>748.0</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C230" s="7">
+        <v>230.0</v>
+      </c>
+      <c r="D230" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E230" s="4"/>
@@ -8640,16 +8637,16 @@
       <c r="Z230" s="4"/>
     </row>
     <row r="231">
-      <c r="A231" s="6">
-        <v>813.0</v>
-      </c>
-      <c r="B231" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C231" s="7">
-        <v>275.0</v>
-      </c>
-      <c r="D231" s="5" t="s">
+      <c r="A231" s="1">
+        <v>749.0</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C231" s="3">
+        <v>335.0</v>
+      </c>
+      <c r="D231" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E231" s="4"/>
@@ -8677,13 +8674,13 @@
     </row>
     <row r="232">
       <c r="A232" s="6">
-        <v>817.0</v>
+        <v>757.0</v>
       </c>
       <c r="B232" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C232" s="7">
-        <v>330.0</v>
+        <v>280.0</v>
       </c>
       <c r="D232" s="5" t="s">
         <v>3</v>
@@ -8713,13 +8710,13 @@
     </row>
     <row r="233">
       <c r="A233" s="1">
-        <v>819.0</v>
+        <v>758.0</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C233" s="3">
-        <v>200.0</v>
+        <v>295.0</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>3</v>
@@ -8748,16 +8745,16 @@
       <c r="Z233" s="4"/>
     </row>
     <row r="234">
-      <c r="A234" s="1">
-        <v>820.0</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C234" s="3">
-        <v>245.0</v>
-      </c>
-      <c r="D234" s="2" t="s">
+      <c r="A234" s="6">
+        <v>761.0</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C234" s="7">
+        <v>260.0</v>
+      </c>
+      <c r="D234" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E234" s="4"/>
@@ -8785,13 +8782,13 @@
     </row>
     <row r="235">
       <c r="A235" s="1">
-        <v>821.0</v>
+        <v>767.0</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C235" s="3">
-        <v>300.0</v>
+        <v>290.0</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>3</v>
@@ -8821,13 +8818,13 @@
     </row>
     <row r="236">
       <c r="A236" s="6">
-        <v>824.0</v>
+        <v>772.0</v>
       </c>
       <c r="B236" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C236" s="7">
-        <v>310.0</v>
+        <v>240.0</v>
       </c>
       <c r="D236" s="5" t="s">
         <v>3</v>
@@ -8856,16 +8853,16 @@
       <c r="Z236" s="4"/>
     </row>
     <row r="237">
-      <c r="A237" s="6">
-        <v>827.0</v>
-      </c>
-      <c r="B237" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C237" s="7">
-        <v>290.0</v>
-      </c>
-      <c r="D237" s="5" t="s">
+      <c r="A237" s="1">
+        <v>775.0</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C237" s="3">
+        <v>260.0</v>
+      </c>
+      <c r="D237" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E237" s="4"/>
@@ -8893,13 +8890,13 @@
     </row>
     <row r="238">
       <c r="A238" s="6">
-        <v>829.0</v>
+        <v>776.0</v>
       </c>
       <c r="B238" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C238" s="7">
-        <v>275.0</v>
+        <v>240.0</v>
       </c>
       <c r="D238" s="5" t="s">
         <v>3</v>
@@ -8928,16 +8925,16 @@
       <c r="Z238" s="4"/>
     </row>
     <row r="239">
-      <c r="A239" s="6">
-        <v>833.0</v>
-      </c>
-      <c r="B239" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C239" s="7">
-        <v>235.0</v>
-      </c>
-      <c r="D239" s="5" t="s">
+      <c r="A239" s="1">
+        <v>777.0</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C239" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D239" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E239" s="4"/>
@@ -8964,16 +8961,16 @@
       <c r="Z239" s="4"/>
     </row>
     <row r="240">
-      <c r="A240" s="6">
-        <v>834.0</v>
-      </c>
-      <c r="B240" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C240" s="7">
-        <v>225.0</v>
-      </c>
-      <c r="D240" s="5" t="s">
+      <c r="A240" s="1">
+        <v>792.0</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C240" s="3">
+        <v>320.0</v>
+      </c>
+      <c r="D240" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E240" s="4"/>
@@ -9001,13 +8998,13 @@
     </row>
     <row r="241">
       <c r="A241" s="6">
-        <v>837.0</v>
+        <v>784.0</v>
       </c>
       <c r="B241" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C241" s="7">
-        <v>275.0</v>
+        <v>270.0</v>
       </c>
       <c r="D241" s="5" t="s">
         <v>3</v>
@@ -9037,13 +9034,13 @@
     </row>
     <row r="242">
       <c r="A242" s="6">
-        <v>838.0</v>
+        <v>786.0</v>
       </c>
       <c r="B242" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C242" s="7">
-        <v>295.0</v>
+        <v>275.0</v>
       </c>
       <c r="D242" s="5" t="s">
         <v>3</v>
@@ -9073,13 +9070,13 @@
     </row>
     <row r="243">
       <c r="A243" s="6">
-        <v>843.0</v>
+        <v>787.0</v>
       </c>
       <c r="B243" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C243" s="7">
-        <v>320.0</v>
+        <v>280.0</v>
       </c>
       <c r="D243" s="5" t="s">
         <v>3</v>
@@ -9109,13 +9106,13 @@
     </row>
     <row r="244">
       <c r="A244" s="6">
-        <v>845.0</v>
+        <v>789.0</v>
       </c>
       <c r="B244" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C244" s="7">
-        <v>235.0</v>
+        <v>265.0</v>
       </c>
       <c r="D244" s="5" t="s">
         <v>3</v>
@@ -9145,13 +9142,13 @@
     </row>
     <row r="245">
       <c r="A245" s="1">
-        <v>846.0</v>
+        <v>795.0</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C245" s="3">
-        <v>295.0</v>
+        <v>255.0</v>
       </c>
       <c r="D245" s="2" t="s">
         <v>3</v>
@@ -9180,16 +9177,16 @@
       <c r="Z245" s="4"/>
     </row>
     <row r="246">
-      <c r="A246" s="1">
-        <v>853.0</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C246" s="3">
-        <v>290.0</v>
-      </c>
-      <c r="D246" s="2" t="s">
+      <c r="A246" s="6">
+        <v>797.0</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C246" s="7">
+        <v>325.0</v>
+      </c>
+      <c r="D246" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E246" s="4"/>
@@ -9216,16 +9213,16 @@
       <c r="Z246" s="4"/>
     </row>
     <row r="247">
-      <c r="A247" s="1">
-        <v>856.0</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C247" s="3">
-        <v>260.0</v>
-      </c>
-      <c r="D247" s="2" t="s">
+      <c r="A247" s="6">
+        <v>799.0</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C247" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D247" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E247" s="4"/>
@@ -9253,13 +9250,13 @@
     </row>
     <row r="248">
       <c r="A248" s="1">
-        <v>861.0</v>
+        <v>801.0</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C248" s="3">
-        <v>305.0</v>
+        <v>230.0</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>3</v>
@@ -9288,16 +9285,16 @@
       <c r="Z248" s="4"/>
     </row>
     <row r="249">
-      <c r="A249" s="1">
-        <v>863.0</v>
-      </c>
-      <c r="B249" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C249" s="3">
-        <v>275.0</v>
-      </c>
-      <c r="D249" s="2" t="s">
+      <c r="A249" s="6">
+        <v>806.0</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C249" s="7">
+        <v>280.0</v>
+      </c>
+      <c r="D249" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E249" s="4"/>
@@ -9324,16 +9321,16 @@
       <c r="Z249" s="4"/>
     </row>
     <row r="250">
-      <c r="A250" s="6">
-        <v>865.0</v>
-      </c>
-      <c r="B250" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C250" s="7">
+      <c r="A250" s="1">
+        <v>809.0</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C250" s="3">
         <v>270.0</v>
       </c>
-      <c r="D250" s="5" t="s">
+      <c r="D250" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E250" s="4"/>
@@ -9361,13 +9358,13 @@
     </row>
     <row r="251">
       <c r="A251" s="1">
-        <v>872.0</v>
+        <v>811.0</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C251" s="3">
-        <v>295.0</v>
+        <v>260.0</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>3</v>
@@ -9397,13 +9394,13 @@
     </row>
     <row r="252">
       <c r="A252" s="6">
-        <v>876.0</v>
+        <v>813.0</v>
       </c>
       <c r="B252" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C252" s="7">
-        <v>250.0</v>
+        <v>275.0</v>
       </c>
       <c r="D252" s="5" t="s">
         <v>3</v>
@@ -9432,16 +9429,16 @@
       <c r="Z252" s="4"/>
     </row>
     <row r="253">
-      <c r="A253" s="1">
-        <v>880.0</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C253" s="3">
-        <v>225.0</v>
-      </c>
-      <c r="D253" s="2" t="s">
+      <c r="A253" s="6">
+        <v>817.0</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C253" s="7">
+        <v>330.0</v>
+      </c>
+      <c r="D253" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E253" s="4"/>
@@ -9468,16 +9465,16 @@
       <c r="Z253" s="4"/>
     </row>
     <row r="254">
-      <c r="A254" s="6">
-        <v>886.0</v>
-      </c>
-      <c r="B254" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C254" s="7">
-        <v>230.0</v>
-      </c>
-      <c r="D254" s="5" t="s">
+      <c r="A254" s="1">
+        <v>819.0</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C254" s="3">
+        <v>200.0</v>
+      </c>
+      <c r="D254" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E254" s="4"/>
@@ -9504,16 +9501,16 @@
       <c r="Z254" s="4"/>
     </row>
     <row r="255">
-      <c r="A255" s="6">
-        <v>897.0</v>
-      </c>
-      <c r="B255" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C255" s="7">
-        <v>310.0</v>
-      </c>
-      <c r="D255" s="5" t="s">
+      <c r="A255" s="1">
+        <v>820.0</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C255" s="3">
+        <v>245.0</v>
+      </c>
+      <c r="D255" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E255" s="4"/>
@@ -9541,13 +9538,13 @@
     </row>
     <row r="256">
       <c r="A256" s="1">
-        <v>899.0</v>
+        <v>821.0</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C256" s="3">
-        <v>310.0</v>
+        <v>300.0</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>3</v>
@@ -9576,16 +9573,16 @@
       <c r="Z256" s="4"/>
     </row>
     <row r="257">
-      <c r="A257" s="1">
-        <v>901.0</v>
-      </c>
-      <c r="B257" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C257" s="3">
-        <v>275.0</v>
-      </c>
-      <c r="D257" s="2" t="s">
+      <c r="A257" s="6">
+        <v>824.0</v>
+      </c>
+      <c r="B257" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C257" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D257" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E257" s="4"/>
@@ -9613,13 +9610,13 @@
     </row>
     <row r="258">
       <c r="A258" s="6">
-        <v>910.0</v>
+        <v>827.0</v>
       </c>
       <c r="B258" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C258" s="7">
-        <v>330.0</v>
+        <v>290.0</v>
       </c>
       <c r="D258" s="5" t="s">
         <v>3</v>
@@ -9648,14 +9645,14 @@
       <c r="Z258" s="4"/>
     </row>
     <row r="259">
-      <c r="A259" s="1">
-        <v>935.0</v>
-      </c>
-      <c r="B259" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C259" s="3">
-        <v>310.0</v>
+      <c r="A259" s="6">
+        <v>829.0</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C259" s="7">
+        <v>275.0</v>
       </c>
       <c r="D259" s="5" t="s">
         <v>3</v>
@@ -9684,14 +9681,14 @@
       <c r="Z259" s="4"/>
     </row>
     <row r="260">
-      <c r="A260" s="5">
-        <v>1000.0</v>
+      <c r="A260" s="6">
+        <v>833.0</v>
       </c>
       <c r="B260" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C260" s="5">
-        <v>2000.0</v>
+      <c r="C260" s="7">
+        <v>235.0</v>
       </c>
       <c r="D260" s="5" t="s">
         <v>3</v>
@@ -9720,10 +9717,18 @@
       <c r="Z260" s="4"/>
     </row>
     <row r="261">
-      <c r="A261" s="2"/>
-      <c r="B261" s="2"/>
-      <c r="C261" s="2"/>
-      <c r="D261" s="2"/>
+      <c r="A261" s="6">
+        <v>834.0</v>
+      </c>
+      <c r="B261" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C261" s="7">
+        <v>225.0</v>
+      </c>
+      <c r="D261" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E261" s="4"/>
       <c r="F261" s="4"/>
       <c r="G261" s="4"/>
@@ -9748,10 +9753,18 @@
       <c r="Z261" s="4"/>
     </row>
     <row r="262">
-      <c r="A262" s="2"/>
-      <c r="B262" s="2"/>
-      <c r="C262" s="2"/>
-      <c r="D262" s="2"/>
+      <c r="A262" s="6">
+        <v>837.0</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C262" s="7">
+        <v>275.0</v>
+      </c>
+      <c r="D262" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E262" s="4"/>
       <c r="F262" s="4"/>
       <c r="G262" s="4"/>
@@ -9776,10 +9789,18 @@
       <c r="Z262" s="4"/>
     </row>
     <row r="263">
-      <c r="A263" s="2"/>
-      <c r="B263" s="2"/>
-      <c r="C263" s="2"/>
-      <c r="D263" s="2"/>
+      <c r="A263" s="6">
+        <v>838.0</v>
+      </c>
+      <c r="B263" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C263" s="7">
+        <v>295.0</v>
+      </c>
+      <c r="D263" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E263" s="4"/>
       <c r="F263" s="4"/>
       <c r="G263" s="4"/>
@@ -9804,10 +9825,18 @@
       <c r="Z263" s="4"/>
     </row>
     <row r="264">
-      <c r="A264" s="2"/>
-      <c r="B264" s="2"/>
-      <c r="C264" s="2"/>
-      <c r="D264" s="2"/>
+      <c r="A264" s="6">
+        <v>843.0</v>
+      </c>
+      <c r="B264" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C264" s="7">
+        <v>320.0</v>
+      </c>
+      <c r="D264" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E264" s="4"/>
       <c r="F264" s="4"/>
       <c r="G264" s="4"/>
@@ -9832,10 +9861,18 @@
       <c r="Z264" s="4"/>
     </row>
     <row r="265">
-      <c r="A265" s="2"/>
-      <c r="B265" s="2"/>
-      <c r="C265" s="2"/>
-      <c r="D265" s="2"/>
+      <c r="A265" s="6">
+        <v>845.0</v>
+      </c>
+      <c r="B265" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C265" s="7">
+        <v>235.0</v>
+      </c>
+      <c r="D265" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E265" s="4"/>
       <c r="F265" s="4"/>
       <c r="G265" s="4"/>
@@ -9860,10 +9897,18 @@
       <c r="Z265" s="4"/>
     </row>
     <row r="266">
-      <c r="A266" s="2"/>
-      <c r="B266" s="2"/>
-      <c r="C266" s="2"/>
-      <c r="D266" s="2"/>
+      <c r="A266" s="1">
+        <v>846.0</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C266" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E266" s="4"/>
       <c r="F266" s="4"/>
       <c r="G266" s="4"/>
@@ -9888,10 +9933,18 @@
       <c r="Z266" s="4"/>
     </row>
     <row r="267">
-      <c r="A267" s="2"/>
-      <c r="B267" s="2"/>
-      <c r="C267" s="2"/>
-      <c r="D267" s="2"/>
+      <c r="A267" s="1">
+        <v>853.0</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C267" s="3">
+        <v>290.0</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E267" s="4"/>
       <c r="F267" s="4"/>
       <c r="G267" s="4"/>
@@ -9916,10 +9969,18 @@
       <c r="Z267" s="4"/>
     </row>
     <row r="268">
-      <c r="A268" s="2"/>
-      <c r="B268" s="2"/>
-      <c r="C268" s="2"/>
-      <c r="D268" s="2"/>
+      <c r="A268" s="6">
+        <v>854.0</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C268" s="7">
+        <v>320.0</v>
+      </c>
+      <c r="D268" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E268" s="4"/>
       <c r="F268" s="4"/>
       <c r="G268" s="4"/>
@@ -9944,10 +10005,18 @@
       <c r="Z268" s="4"/>
     </row>
     <row r="269">
-      <c r="A269" s="2"/>
-      <c r="B269" s="2"/>
-      <c r="C269" s="2"/>
-      <c r="D269" s="2"/>
+      <c r="A269" s="1">
+        <v>856.0</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C269" s="3">
+        <v>260.0</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E269" s="4"/>
       <c r="F269" s="4"/>
       <c r="G269" s="4"/>
@@ -9972,10 +10041,18 @@
       <c r="Z269" s="4"/>
     </row>
     <row r="270">
-      <c r="A270" s="2"/>
-      <c r="B270" s="2"/>
-      <c r="C270" s="2"/>
-      <c r="D270" s="2"/>
+      <c r="A270" s="6">
+        <v>860.0</v>
+      </c>
+      <c r="B270" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C270" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D270" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E270" s="4"/>
       <c r="F270" s="4"/>
       <c r="G270" s="4"/>
@@ -10000,10 +10077,18 @@
       <c r="Z270" s="4"/>
     </row>
     <row r="271">
-      <c r="A271" s="2"/>
-      <c r="B271" s="2"/>
-      <c r="C271" s="2"/>
-      <c r="D271" s="2"/>
+      <c r="A271" s="1">
+        <v>861.0</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C271" s="3">
+        <v>305.0</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E271" s="4"/>
       <c r="F271" s="4"/>
       <c r="G271" s="4"/>
@@ -10028,10 +10113,18 @@
       <c r="Z271" s="4"/>
     </row>
     <row r="272">
-      <c r="A272" s="2"/>
-      <c r="B272" s="2"/>
-      <c r="C272" s="2"/>
-      <c r="D272" s="2"/>
+      <c r="A272" s="1">
+        <v>863.0</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C272" s="3">
+        <v>275.0</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E272" s="4"/>
       <c r="F272" s="4"/>
       <c r="G272" s="4"/>
@@ -10056,10 +10149,18 @@
       <c r="Z272" s="4"/>
     </row>
     <row r="273">
-      <c r="A273" s="2"/>
-      <c r="B273" s="2"/>
-      <c r="C273" s="2"/>
-      <c r="D273" s="2"/>
+      <c r="A273" s="6">
+        <v>865.0</v>
+      </c>
+      <c r="B273" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C273" s="7">
+        <v>270.0</v>
+      </c>
+      <c r="D273" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E273" s="4"/>
       <c r="F273" s="4"/>
       <c r="G273" s="4"/>
@@ -10084,10 +10185,18 @@
       <c r="Z273" s="4"/>
     </row>
     <row r="274">
-      <c r="A274" s="2"/>
-      <c r="B274" s="2"/>
-      <c r="C274" s="2"/>
-      <c r="D274" s="2"/>
+      <c r="A274" s="6">
+        <v>866.0</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C274" s="7">
+        <v>300.0</v>
+      </c>
+      <c r="D274" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E274" s="4"/>
       <c r="F274" s="4"/>
       <c r="G274" s="4"/>
@@ -10112,10 +10221,18 @@
       <c r="Z274" s="4"/>
     </row>
     <row r="275">
-      <c r="A275" s="2"/>
-      <c r="B275" s="2"/>
-      <c r="C275" s="2"/>
-      <c r="D275" s="2"/>
+      <c r="A275" s="1">
+        <v>872.0</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C275" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E275" s="4"/>
       <c r="F275" s="4"/>
       <c r="G275" s="4"/>
@@ -10140,10 +10257,18 @@
       <c r="Z275" s="4"/>
     </row>
     <row r="276">
-      <c r="A276" s="2"/>
-      <c r="B276" s="2"/>
-      <c r="C276" s="2"/>
-      <c r="D276" s="2"/>
+      <c r="A276" s="6">
+        <v>876.0</v>
+      </c>
+      <c r="B276" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C276" s="7">
+        <v>250.0</v>
+      </c>
+      <c r="D276" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E276" s="4"/>
       <c r="F276" s="4"/>
       <c r="G276" s="4"/>
@@ -10168,10 +10293,18 @@
       <c r="Z276" s="4"/>
     </row>
     <row r="277">
-      <c r="A277" s="2"/>
-      <c r="B277" s="2"/>
-      <c r="C277" s="2"/>
-      <c r="D277" s="2"/>
+      <c r="A277" s="1">
+        <v>880.0</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C277" s="3">
+        <v>225.0</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E277" s="4"/>
       <c r="F277" s="4"/>
       <c r="G277" s="4"/>
@@ -10196,10 +10329,18 @@
       <c r="Z277" s="4"/>
     </row>
     <row r="278">
-      <c r="A278" s="2"/>
-      <c r="B278" s="2"/>
-      <c r="C278" s="2"/>
-      <c r="D278" s="2"/>
+      <c r="A278" s="6">
+        <v>886.0</v>
+      </c>
+      <c r="B278" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C278" s="7">
+        <v>230.0</v>
+      </c>
+      <c r="D278" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E278" s="4"/>
       <c r="F278" s="4"/>
       <c r="G278" s="4"/>
@@ -10224,10 +10365,18 @@
       <c r="Z278" s="4"/>
     </row>
     <row r="279">
-      <c r="A279" s="2"/>
-      <c r="B279" s="2"/>
-      <c r="C279" s="2"/>
-      <c r="D279" s="2"/>
+      <c r="A279" s="6">
+        <v>887.0</v>
+      </c>
+      <c r="B279" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C279" s="7">
+        <v>265.0</v>
+      </c>
+      <c r="D279" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E279" s="4"/>
       <c r="F279" s="4"/>
       <c r="G279" s="4"/>
@@ -10252,10 +10401,18 @@
       <c r="Z279" s="4"/>
     </row>
     <row r="280">
-      <c r="A280" s="2"/>
-      <c r="B280" s="2"/>
-      <c r="C280" s="2"/>
-      <c r="D280" s="2"/>
+      <c r="A280" s="6">
+        <v>897.0</v>
+      </c>
+      <c r="B280" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C280" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D280" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E280" s="4"/>
       <c r="F280" s="4"/>
       <c r="G280" s="4"/>
@@ -10280,10 +10437,18 @@
       <c r="Z280" s="4"/>
     </row>
     <row r="281">
-      <c r="A281" s="2"/>
-      <c r="B281" s="2"/>
-      <c r="C281" s="2"/>
-      <c r="D281" s="2"/>
+      <c r="A281" s="1">
+        <v>899.0</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C281" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E281" s="4"/>
       <c r="F281" s="4"/>
       <c r="G281" s="4"/>
@@ -10308,10 +10473,18 @@
       <c r="Z281" s="4"/>
     </row>
     <row r="282">
-      <c r="A282" s="2"/>
-      <c r="B282" s="2"/>
-      <c r="C282" s="2"/>
-      <c r="D282" s="2"/>
+      <c r="A282" s="1">
+        <v>901.0</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C282" s="3">
+        <v>275.0</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E282" s="4"/>
       <c r="F282" s="4"/>
       <c r="G282" s="4"/>
@@ -10336,10 +10509,18 @@
       <c r="Z282" s="4"/>
     </row>
     <row r="283">
-      <c r="A283" s="2"/>
-      <c r="B283" s="2"/>
-      <c r="C283" s="2"/>
-      <c r="D283" s="2"/>
+      <c r="A283" s="6">
+        <v>910.0</v>
+      </c>
+      <c r="B283" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C283" s="7">
+        <v>330.0</v>
+      </c>
+      <c r="D283" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E283" s="4"/>
       <c r="F283" s="4"/>
       <c r="G283" s="4"/>
@@ -10364,10 +10545,18 @@
       <c r="Z283" s="4"/>
     </row>
     <row r="284">
-      <c r="A284" s="2"/>
-      <c r="B284" s="2"/>
-      <c r="C284" s="2"/>
-      <c r="D284" s="2"/>
+      <c r="A284" s="1">
+        <v>935.0</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C284" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D284" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E284" s="4"/>
       <c r="F284" s="4"/>
       <c r="G284" s="4"/>
@@ -10392,10 +10581,18 @@
       <c r="Z284" s="4"/>
     </row>
     <row r="285">
-      <c r="A285" s="2"/>
-      <c r="B285" s="2"/>
-      <c r="C285" s="2"/>
-      <c r="D285" s="2"/>
+      <c r="A285" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="B285" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C285" s="5">
+        <v>2000.0</v>
+      </c>
+      <c r="D285" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E285" s="4"/>
       <c r="F285" s="4"/>
       <c r="G285" s="4"/>
@@ -33856,10 +34053,10 @@
       <c r="Z1122" s="4"/>
     </row>
     <row r="1123">
-      <c r="A1123" s="4"/>
-      <c r="B1123" s="4"/>
-      <c r="C1123" s="4"/>
-      <c r="D1123" s="4"/>
+      <c r="A1123" s="2"/>
+      <c r="B1123" s="2"/>
+      <c r="C1123" s="2"/>
+      <c r="D1123" s="2"/>
       <c r="E1123" s="4"/>
       <c r="F1123" s="4"/>
       <c r="G1123" s="4"/>
@@ -33883,6 +34080,706 @@
       <c r="Y1123" s="4"/>
       <c r="Z1123" s="4"/>
     </row>
+    <row r="1124">
+      <c r="A1124" s="2"/>
+      <c r="B1124" s="2"/>
+      <c r="C1124" s="2"/>
+      <c r="D1124" s="2"/>
+      <c r="E1124" s="4"/>
+      <c r="F1124" s="4"/>
+      <c r="G1124" s="4"/>
+      <c r="H1124" s="4"/>
+      <c r="I1124" s="4"/>
+      <c r="J1124" s="4"/>
+      <c r="K1124" s="4"/>
+      <c r="L1124" s="4"/>
+      <c r="M1124" s="4"/>
+      <c r="N1124" s="4"/>
+      <c r="O1124" s="4"/>
+      <c r="P1124" s="4"/>
+      <c r="Q1124" s="4"/>
+      <c r="R1124" s="4"/>
+      <c r="S1124" s="4"/>
+      <c r="T1124" s="4"/>
+      <c r="U1124" s="4"/>
+      <c r="V1124" s="4"/>
+      <c r="W1124" s="4"/>
+      <c r="X1124" s="4"/>
+      <c r="Y1124" s="4"/>
+      <c r="Z1124" s="4"/>
+    </row>
+    <row r="1125">
+      <c r="A1125" s="2"/>
+      <c r="B1125" s="2"/>
+      <c r="C1125" s="2"/>
+      <c r="D1125" s="2"/>
+      <c r="E1125" s="4"/>
+      <c r="F1125" s="4"/>
+      <c r="G1125" s="4"/>
+      <c r="H1125" s="4"/>
+      <c r="I1125" s="4"/>
+      <c r="J1125" s="4"/>
+      <c r="K1125" s="4"/>
+      <c r="L1125" s="4"/>
+      <c r="M1125" s="4"/>
+      <c r="N1125" s="4"/>
+      <c r="O1125" s="4"/>
+      <c r="P1125" s="4"/>
+      <c r="Q1125" s="4"/>
+      <c r="R1125" s="4"/>
+      <c r="S1125" s="4"/>
+      <c r="T1125" s="4"/>
+      <c r="U1125" s="4"/>
+      <c r="V1125" s="4"/>
+      <c r="W1125" s="4"/>
+      <c r="X1125" s="4"/>
+      <c r="Y1125" s="4"/>
+      <c r="Z1125" s="4"/>
+    </row>
+    <row r="1126">
+      <c r="A1126" s="2"/>
+      <c r="B1126" s="2"/>
+      <c r="C1126" s="2"/>
+      <c r="D1126" s="2"/>
+      <c r="E1126" s="4"/>
+      <c r="F1126" s="4"/>
+      <c r="G1126" s="4"/>
+      <c r="H1126" s="4"/>
+      <c r="I1126" s="4"/>
+      <c r="J1126" s="4"/>
+      <c r="K1126" s="4"/>
+      <c r="L1126" s="4"/>
+      <c r="M1126" s="4"/>
+      <c r="N1126" s="4"/>
+      <c r="O1126" s="4"/>
+      <c r="P1126" s="4"/>
+      <c r="Q1126" s="4"/>
+      <c r="R1126" s="4"/>
+      <c r="S1126" s="4"/>
+      <c r="T1126" s="4"/>
+      <c r="U1126" s="4"/>
+      <c r="V1126" s="4"/>
+      <c r="W1126" s="4"/>
+      <c r="X1126" s="4"/>
+      <c r="Y1126" s="4"/>
+      <c r="Z1126" s="4"/>
+    </row>
+    <row r="1127">
+      <c r="A1127" s="2"/>
+      <c r="B1127" s="2"/>
+      <c r="C1127" s="2"/>
+      <c r="D1127" s="2"/>
+      <c r="E1127" s="4"/>
+      <c r="F1127" s="4"/>
+      <c r="G1127" s="4"/>
+      <c r="H1127" s="4"/>
+      <c r="I1127" s="4"/>
+      <c r="J1127" s="4"/>
+      <c r="K1127" s="4"/>
+      <c r="L1127" s="4"/>
+      <c r="M1127" s="4"/>
+      <c r="N1127" s="4"/>
+      <c r="O1127" s="4"/>
+      <c r="P1127" s="4"/>
+      <c r="Q1127" s="4"/>
+      <c r="R1127" s="4"/>
+      <c r="S1127" s="4"/>
+      <c r="T1127" s="4"/>
+      <c r="U1127" s="4"/>
+      <c r="V1127" s="4"/>
+      <c r="W1127" s="4"/>
+      <c r="X1127" s="4"/>
+      <c r="Y1127" s="4"/>
+      <c r="Z1127" s="4"/>
+    </row>
+    <row r="1128">
+      <c r="A1128" s="2"/>
+      <c r="B1128" s="2"/>
+      <c r="C1128" s="2"/>
+      <c r="D1128" s="2"/>
+      <c r="E1128" s="4"/>
+      <c r="F1128" s="4"/>
+      <c r="G1128" s="4"/>
+      <c r="H1128" s="4"/>
+      <c r="I1128" s="4"/>
+      <c r="J1128" s="4"/>
+      <c r="K1128" s="4"/>
+      <c r="L1128" s="4"/>
+      <c r="M1128" s="4"/>
+      <c r="N1128" s="4"/>
+      <c r="O1128" s="4"/>
+      <c r="P1128" s="4"/>
+      <c r="Q1128" s="4"/>
+      <c r="R1128" s="4"/>
+      <c r="S1128" s="4"/>
+      <c r="T1128" s="4"/>
+      <c r="U1128" s="4"/>
+      <c r="V1128" s="4"/>
+      <c r="W1128" s="4"/>
+      <c r="X1128" s="4"/>
+      <c r="Y1128" s="4"/>
+      <c r="Z1128" s="4"/>
+    </row>
+    <row r="1129">
+      <c r="A1129" s="2"/>
+      <c r="B1129" s="2"/>
+      <c r="C1129" s="2"/>
+      <c r="D1129" s="2"/>
+      <c r="E1129" s="4"/>
+      <c r="F1129" s="4"/>
+      <c r="G1129" s="4"/>
+      <c r="H1129" s="4"/>
+      <c r="I1129" s="4"/>
+      <c r="J1129" s="4"/>
+      <c r="K1129" s="4"/>
+      <c r="L1129" s="4"/>
+      <c r="M1129" s="4"/>
+      <c r="N1129" s="4"/>
+      <c r="O1129" s="4"/>
+      <c r="P1129" s="4"/>
+      <c r="Q1129" s="4"/>
+      <c r="R1129" s="4"/>
+      <c r="S1129" s="4"/>
+      <c r="T1129" s="4"/>
+      <c r="U1129" s="4"/>
+      <c r="V1129" s="4"/>
+      <c r="W1129" s="4"/>
+      <c r="X1129" s="4"/>
+      <c r="Y1129" s="4"/>
+      <c r="Z1129" s="4"/>
+    </row>
+    <row r="1130">
+      <c r="A1130" s="2"/>
+      <c r="B1130" s="2"/>
+      <c r="C1130" s="2"/>
+      <c r="D1130" s="2"/>
+      <c r="E1130" s="4"/>
+      <c r="F1130" s="4"/>
+      <c r="G1130" s="4"/>
+      <c r="H1130" s="4"/>
+      <c r="I1130" s="4"/>
+      <c r="J1130" s="4"/>
+      <c r="K1130" s="4"/>
+      <c r="L1130" s="4"/>
+      <c r="M1130" s="4"/>
+      <c r="N1130" s="4"/>
+      <c r="O1130" s="4"/>
+      <c r="P1130" s="4"/>
+      <c r="Q1130" s="4"/>
+      <c r="R1130" s="4"/>
+      <c r="S1130" s="4"/>
+      <c r="T1130" s="4"/>
+      <c r="U1130" s="4"/>
+      <c r="V1130" s="4"/>
+      <c r="W1130" s="4"/>
+      <c r="X1130" s="4"/>
+      <c r="Y1130" s="4"/>
+      <c r="Z1130" s="4"/>
+    </row>
+    <row r="1131">
+      <c r="A1131" s="2"/>
+      <c r="B1131" s="2"/>
+      <c r="C1131" s="2"/>
+      <c r="D1131" s="2"/>
+      <c r="E1131" s="4"/>
+      <c r="F1131" s="4"/>
+      <c r="G1131" s="4"/>
+      <c r="H1131" s="4"/>
+      <c r="I1131" s="4"/>
+      <c r="J1131" s="4"/>
+      <c r="K1131" s="4"/>
+      <c r="L1131" s="4"/>
+      <c r="M1131" s="4"/>
+      <c r="N1131" s="4"/>
+      <c r="O1131" s="4"/>
+      <c r="P1131" s="4"/>
+      <c r="Q1131" s="4"/>
+      <c r="R1131" s="4"/>
+      <c r="S1131" s="4"/>
+      <c r="T1131" s="4"/>
+      <c r="U1131" s="4"/>
+      <c r="V1131" s="4"/>
+      <c r="W1131" s="4"/>
+      <c r="X1131" s="4"/>
+      <c r="Y1131" s="4"/>
+      <c r="Z1131" s="4"/>
+    </row>
+    <row r="1132">
+      <c r="A1132" s="2"/>
+      <c r="B1132" s="2"/>
+      <c r="C1132" s="2"/>
+      <c r="D1132" s="2"/>
+      <c r="E1132" s="4"/>
+      <c r="F1132" s="4"/>
+      <c r="G1132" s="4"/>
+      <c r="H1132" s="4"/>
+      <c r="I1132" s="4"/>
+      <c r="J1132" s="4"/>
+      <c r="K1132" s="4"/>
+      <c r="L1132" s="4"/>
+      <c r="M1132" s="4"/>
+      <c r="N1132" s="4"/>
+      <c r="O1132" s="4"/>
+      <c r="P1132" s="4"/>
+      <c r="Q1132" s="4"/>
+      <c r="R1132" s="4"/>
+      <c r="S1132" s="4"/>
+      <c r="T1132" s="4"/>
+      <c r="U1132" s="4"/>
+      <c r="V1132" s="4"/>
+      <c r="W1132" s="4"/>
+      <c r="X1132" s="4"/>
+      <c r="Y1132" s="4"/>
+      <c r="Z1132" s="4"/>
+    </row>
+    <row r="1133">
+      <c r="A1133" s="2"/>
+      <c r="B1133" s="2"/>
+      <c r="C1133" s="2"/>
+      <c r="D1133" s="2"/>
+      <c r="E1133" s="4"/>
+      <c r="F1133" s="4"/>
+      <c r="G1133" s="4"/>
+      <c r="H1133" s="4"/>
+      <c r="I1133" s="4"/>
+      <c r="J1133" s="4"/>
+      <c r="K1133" s="4"/>
+      <c r="L1133" s="4"/>
+      <c r="M1133" s="4"/>
+      <c r="N1133" s="4"/>
+      <c r="O1133" s="4"/>
+      <c r="P1133" s="4"/>
+      <c r="Q1133" s="4"/>
+      <c r="R1133" s="4"/>
+      <c r="S1133" s="4"/>
+      <c r="T1133" s="4"/>
+      <c r="U1133" s="4"/>
+      <c r="V1133" s="4"/>
+      <c r="W1133" s="4"/>
+      <c r="X1133" s="4"/>
+      <c r="Y1133" s="4"/>
+      <c r="Z1133" s="4"/>
+    </row>
+    <row r="1134">
+      <c r="A1134" s="2"/>
+      <c r="B1134" s="2"/>
+      <c r="C1134" s="2"/>
+      <c r="D1134" s="2"/>
+      <c r="E1134" s="4"/>
+      <c r="F1134" s="4"/>
+      <c r="G1134" s="4"/>
+      <c r="H1134" s="4"/>
+      <c r="I1134" s="4"/>
+      <c r="J1134" s="4"/>
+      <c r="K1134" s="4"/>
+      <c r="L1134" s="4"/>
+      <c r="M1134" s="4"/>
+      <c r="N1134" s="4"/>
+      <c r="O1134" s="4"/>
+      <c r="P1134" s="4"/>
+      <c r="Q1134" s="4"/>
+      <c r="R1134" s="4"/>
+      <c r="S1134" s="4"/>
+      <c r="T1134" s="4"/>
+      <c r="U1134" s="4"/>
+      <c r="V1134" s="4"/>
+      <c r="W1134" s="4"/>
+      <c r="X1134" s="4"/>
+      <c r="Y1134" s="4"/>
+      <c r="Z1134" s="4"/>
+    </row>
+    <row r="1135">
+      <c r="A1135" s="2"/>
+      <c r="B1135" s="2"/>
+      <c r="C1135" s="2"/>
+      <c r="D1135" s="2"/>
+      <c r="E1135" s="4"/>
+      <c r="F1135" s="4"/>
+      <c r="G1135" s="4"/>
+      <c r="H1135" s="4"/>
+      <c r="I1135" s="4"/>
+      <c r="J1135" s="4"/>
+      <c r="K1135" s="4"/>
+      <c r="L1135" s="4"/>
+      <c r="M1135" s="4"/>
+      <c r="N1135" s="4"/>
+      <c r="O1135" s="4"/>
+      <c r="P1135" s="4"/>
+      <c r="Q1135" s="4"/>
+      <c r="R1135" s="4"/>
+      <c r="S1135" s="4"/>
+      <c r="T1135" s="4"/>
+      <c r="U1135" s="4"/>
+      <c r="V1135" s="4"/>
+      <c r="W1135" s="4"/>
+      <c r="X1135" s="4"/>
+      <c r="Y1135" s="4"/>
+      <c r="Z1135" s="4"/>
+    </row>
+    <row r="1136">
+      <c r="A1136" s="2"/>
+      <c r="B1136" s="2"/>
+      <c r="C1136" s="2"/>
+      <c r="D1136" s="2"/>
+      <c r="E1136" s="4"/>
+      <c r="F1136" s="4"/>
+      <c r="G1136" s="4"/>
+      <c r="H1136" s="4"/>
+      <c r="I1136" s="4"/>
+      <c r="J1136" s="4"/>
+      <c r="K1136" s="4"/>
+      <c r="L1136" s="4"/>
+      <c r="M1136" s="4"/>
+      <c r="N1136" s="4"/>
+      <c r="O1136" s="4"/>
+      <c r="P1136" s="4"/>
+      <c r="Q1136" s="4"/>
+      <c r="R1136" s="4"/>
+      <c r="S1136" s="4"/>
+      <c r="T1136" s="4"/>
+      <c r="U1136" s="4"/>
+      <c r="V1136" s="4"/>
+      <c r="W1136" s="4"/>
+      <c r="X1136" s="4"/>
+      <c r="Y1136" s="4"/>
+      <c r="Z1136" s="4"/>
+    </row>
+    <row r="1137">
+      <c r="A1137" s="2"/>
+      <c r="B1137" s="2"/>
+      <c r="C1137" s="2"/>
+      <c r="D1137" s="2"/>
+      <c r="E1137" s="4"/>
+      <c r="F1137" s="4"/>
+      <c r="G1137" s="4"/>
+      <c r="H1137" s="4"/>
+      <c r="I1137" s="4"/>
+      <c r="J1137" s="4"/>
+      <c r="K1137" s="4"/>
+      <c r="L1137" s="4"/>
+      <c r="M1137" s="4"/>
+      <c r="N1137" s="4"/>
+      <c r="O1137" s="4"/>
+      <c r="P1137" s="4"/>
+      <c r="Q1137" s="4"/>
+      <c r="R1137" s="4"/>
+      <c r="S1137" s="4"/>
+      <c r="T1137" s="4"/>
+      <c r="U1137" s="4"/>
+      <c r="V1137" s="4"/>
+      <c r="W1137" s="4"/>
+      <c r="X1137" s="4"/>
+      <c r="Y1137" s="4"/>
+      <c r="Z1137" s="4"/>
+    </row>
+    <row r="1138">
+      <c r="A1138" s="2"/>
+      <c r="B1138" s="2"/>
+      <c r="C1138" s="2"/>
+      <c r="D1138" s="2"/>
+      <c r="E1138" s="4"/>
+      <c r="F1138" s="4"/>
+      <c r="G1138" s="4"/>
+      <c r="H1138" s="4"/>
+      <c r="I1138" s="4"/>
+      <c r="J1138" s="4"/>
+      <c r="K1138" s="4"/>
+      <c r="L1138" s="4"/>
+      <c r="M1138" s="4"/>
+      <c r="N1138" s="4"/>
+      <c r="O1138" s="4"/>
+      <c r="P1138" s="4"/>
+      <c r="Q1138" s="4"/>
+      <c r="R1138" s="4"/>
+      <c r="S1138" s="4"/>
+      <c r="T1138" s="4"/>
+      <c r="U1138" s="4"/>
+      <c r="V1138" s="4"/>
+      <c r="W1138" s="4"/>
+      <c r="X1138" s="4"/>
+      <c r="Y1138" s="4"/>
+      <c r="Z1138" s="4"/>
+    </row>
+    <row r="1139">
+      <c r="A1139" s="2"/>
+      <c r="B1139" s="2"/>
+      <c r="C1139" s="2"/>
+      <c r="D1139" s="2"/>
+      <c r="E1139" s="4"/>
+      <c r="F1139" s="4"/>
+      <c r="G1139" s="4"/>
+      <c r="H1139" s="4"/>
+      <c r="I1139" s="4"/>
+      <c r="J1139" s="4"/>
+      <c r="K1139" s="4"/>
+      <c r="L1139" s="4"/>
+      <c r="M1139" s="4"/>
+      <c r="N1139" s="4"/>
+      <c r="O1139" s="4"/>
+      <c r="P1139" s="4"/>
+      <c r="Q1139" s="4"/>
+      <c r="R1139" s="4"/>
+      <c r="S1139" s="4"/>
+      <c r="T1139" s="4"/>
+      <c r="U1139" s="4"/>
+      <c r="V1139" s="4"/>
+      <c r="W1139" s="4"/>
+      <c r="X1139" s="4"/>
+      <c r="Y1139" s="4"/>
+      <c r="Z1139" s="4"/>
+    </row>
+    <row r="1140">
+      <c r="A1140" s="2"/>
+      <c r="B1140" s="2"/>
+      <c r="C1140" s="2"/>
+      <c r="D1140" s="2"/>
+      <c r="E1140" s="4"/>
+      <c r="F1140" s="4"/>
+      <c r="G1140" s="4"/>
+      <c r="H1140" s="4"/>
+      <c r="I1140" s="4"/>
+      <c r="J1140" s="4"/>
+      <c r="K1140" s="4"/>
+      <c r="L1140" s="4"/>
+      <c r="M1140" s="4"/>
+      <c r="N1140" s="4"/>
+      <c r="O1140" s="4"/>
+      <c r="P1140" s="4"/>
+      <c r="Q1140" s="4"/>
+      <c r="R1140" s="4"/>
+      <c r="S1140" s="4"/>
+      <c r="T1140" s="4"/>
+      <c r="U1140" s="4"/>
+      <c r="V1140" s="4"/>
+      <c r="W1140" s="4"/>
+      <c r="X1140" s="4"/>
+      <c r="Y1140" s="4"/>
+      <c r="Z1140" s="4"/>
+    </row>
+    <row r="1141">
+      <c r="A1141" s="2"/>
+      <c r="B1141" s="2"/>
+      <c r="C1141" s="2"/>
+      <c r="D1141" s="2"/>
+      <c r="E1141" s="4"/>
+      <c r="F1141" s="4"/>
+      <c r="G1141" s="4"/>
+      <c r="H1141" s="4"/>
+      <c r="I1141" s="4"/>
+      <c r="J1141" s="4"/>
+      <c r="K1141" s="4"/>
+      <c r="L1141" s="4"/>
+      <c r="M1141" s="4"/>
+      <c r="N1141" s="4"/>
+      <c r="O1141" s="4"/>
+      <c r="P1141" s="4"/>
+      <c r="Q1141" s="4"/>
+      <c r="R1141" s="4"/>
+      <c r="S1141" s="4"/>
+      <c r="T1141" s="4"/>
+      <c r="U1141" s="4"/>
+      <c r="V1141" s="4"/>
+      <c r="W1141" s="4"/>
+      <c r="X1141" s="4"/>
+      <c r="Y1141" s="4"/>
+      <c r="Z1141" s="4"/>
+    </row>
+    <row r="1142">
+      <c r="A1142" s="2"/>
+      <c r="B1142" s="2"/>
+      <c r="C1142" s="2"/>
+      <c r="D1142" s="2"/>
+      <c r="E1142" s="4"/>
+      <c r="F1142" s="4"/>
+      <c r="G1142" s="4"/>
+      <c r="H1142" s="4"/>
+      <c r="I1142" s="4"/>
+      <c r="J1142" s="4"/>
+      <c r="K1142" s="4"/>
+      <c r="L1142" s="4"/>
+      <c r="M1142" s="4"/>
+      <c r="N1142" s="4"/>
+      <c r="O1142" s="4"/>
+      <c r="P1142" s="4"/>
+      <c r="Q1142" s="4"/>
+      <c r="R1142" s="4"/>
+      <c r="S1142" s="4"/>
+      <c r="T1142" s="4"/>
+      <c r="U1142" s="4"/>
+      <c r="V1142" s="4"/>
+      <c r="W1142" s="4"/>
+      <c r="X1142" s="4"/>
+      <c r="Y1142" s="4"/>
+      <c r="Z1142" s="4"/>
+    </row>
+    <row r="1143">
+      <c r="A1143" s="2"/>
+      <c r="B1143" s="2"/>
+      <c r="C1143" s="2"/>
+      <c r="D1143" s="2"/>
+      <c r="E1143" s="4"/>
+      <c r="F1143" s="4"/>
+      <c r="G1143" s="4"/>
+      <c r="H1143" s="4"/>
+      <c r="I1143" s="4"/>
+      <c r="J1143" s="4"/>
+      <c r="K1143" s="4"/>
+      <c r="L1143" s="4"/>
+      <c r="M1143" s="4"/>
+      <c r="N1143" s="4"/>
+      <c r="O1143" s="4"/>
+      <c r="P1143" s="4"/>
+      <c r="Q1143" s="4"/>
+      <c r="R1143" s="4"/>
+      <c r="S1143" s="4"/>
+      <c r="T1143" s="4"/>
+      <c r="U1143" s="4"/>
+      <c r="V1143" s="4"/>
+      <c r="W1143" s="4"/>
+      <c r="X1143" s="4"/>
+      <c r="Y1143" s="4"/>
+      <c r="Z1143" s="4"/>
+    </row>
+    <row r="1144">
+      <c r="A1144" s="2"/>
+      <c r="B1144" s="2"/>
+      <c r="C1144" s="2"/>
+      <c r="D1144" s="2"/>
+      <c r="E1144" s="4"/>
+      <c r="F1144" s="4"/>
+      <c r="G1144" s="4"/>
+      <c r="H1144" s="4"/>
+      <c r="I1144" s="4"/>
+      <c r="J1144" s="4"/>
+      <c r="K1144" s="4"/>
+      <c r="L1144" s="4"/>
+      <c r="M1144" s="4"/>
+      <c r="N1144" s="4"/>
+      <c r="O1144" s="4"/>
+      <c r="P1144" s="4"/>
+      <c r="Q1144" s="4"/>
+      <c r="R1144" s="4"/>
+      <c r="S1144" s="4"/>
+      <c r="T1144" s="4"/>
+      <c r="U1144" s="4"/>
+      <c r="V1144" s="4"/>
+      <c r="W1144" s="4"/>
+      <c r="X1144" s="4"/>
+      <c r="Y1144" s="4"/>
+      <c r="Z1144" s="4"/>
+    </row>
+    <row r="1145">
+      <c r="A1145" s="2"/>
+      <c r="B1145" s="2"/>
+      <c r="C1145" s="2"/>
+      <c r="D1145" s="2"/>
+      <c r="E1145" s="4"/>
+      <c r="F1145" s="4"/>
+      <c r="G1145" s="4"/>
+      <c r="H1145" s="4"/>
+      <c r="I1145" s="4"/>
+      <c r="J1145" s="4"/>
+      <c r="K1145" s="4"/>
+      <c r="L1145" s="4"/>
+      <c r="M1145" s="4"/>
+      <c r="N1145" s="4"/>
+      <c r="O1145" s="4"/>
+      <c r="P1145" s="4"/>
+      <c r="Q1145" s="4"/>
+      <c r="R1145" s="4"/>
+      <c r="S1145" s="4"/>
+      <c r="T1145" s="4"/>
+      <c r="U1145" s="4"/>
+      <c r="V1145" s="4"/>
+      <c r="W1145" s="4"/>
+      <c r="X1145" s="4"/>
+      <c r="Y1145" s="4"/>
+      <c r="Z1145" s="4"/>
+    </row>
+    <row r="1146">
+      <c r="A1146" s="2"/>
+      <c r="B1146" s="2"/>
+      <c r="C1146" s="2"/>
+      <c r="D1146" s="2"/>
+      <c r="E1146" s="4"/>
+      <c r="F1146" s="4"/>
+      <c r="G1146" s="4"/>
+      <c r="H1146" s="4"/>
+      <c r="I1146" s="4"/>
+      <c r="J1146" s="4"/>
+      <c r="K1146" s="4"/>
+      <c r="L1146" s="4"/>
+      <c r="M1146" s="4"/>
+      <c r="N1146" s="4"/>
+      <c r="O1146" s="4"/>
+      <c r="P1146" s="4"/>
+      <c r="Q1146" s="4"/>
+      <c r="R1146" s="4"/>
+      <c r="S1146" s="4"/>
+      <c r="T1146" s="4"/>
+      <c r="U1146" s="4"/>
+      <c r="V1146" s="4"/>
+      <c r="W1146" s="4"/>
+      <c r="X1146" s="4"/>
+      <c r="Y1146" s="4"/>
+      <c r="Z1146" s="4"/>
+    </row>
+    <row r="1147">
+      <c r="A1147" s="2"/>
+      <c r="B1147" s="2"/>
+      <c r="C1147" s="2"/>
+      <c r="D1147" s="2"/>
+      <c r="E1147" s="4"/>
+      <c r="F1147" s="4"/>
+      <c r="G1147" s="4"/>
+      <c r="H1147" s="4"/>
+      <c r="I1147" s="4"/>
+      <c r="J1147" s="4"/>
+      <c r="K1147" s="4"/>
+      <c r="L1147" s="4"/>
+      <c r="M1147" s="4"/>
+      <c r="N1147" s="4"/>
+      <c r="O1147" s="4"/>
+      <c r="P1147" s="4"/>
+      <c r="Q1147" s="4"/>
+      <c r="R1147" s="4"/>
+      <c r="S1147" s="4"/>
+      <c r="T1147" s="4"/>
+      <c r="U1147" s="4"/>
+      <c r="V1147" s="4"/>
+      <c r="W1147" s="4"/>
+      <c r="X1147" s="4"/>
+      <c r="Y1147" s="4"/>
+      <c r="Z1147" s="4"/>
+    </row>
+    <row r="1148">
+      <c r="A1148" s="4"/>
+      <c r="B1148" s="4"/>
+      <c r="C1148" s="4"/>
+      <c r="D1148" s="4"/>
+      <c r="E1148" s="4"/>
+      <c r="F1148" s="4"/>
+      <c r="G1148" s="4"/>
+      <c r="H1148" s="4"/>
+      <c r="I1148" s="4"/>
+      <c r="J1148" s="4"/>
+      <c r="K1148" s="4"/>
+      <c r="L1148" s="4"/>
+      <c r="M1148" s="4"/>
+      <c r="N1148" s="4"/>
+      <c r="O1148" s="4"/>
+      <c r="P1148" s="4"/>
+      <c r="Q1148" s="4"/>
+      <c r="R1148" s="4"/>
+      <c r="S1148" s="4"/>
+      <c r="T1148" s="4"/>
+      <c r="U1148" s="4"/>
+      <c r="V1148" s="4"/>
+      <c r="W1148" s="4"/>
+      <c r="X1148" s="4"/>
+      <c r="Y1148" s="4"/>
+      <c r="Z1148" s="4"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/hauteur site.xlsx
+++ b/hauteur site.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="16">
   <si>
     <t>code_pneu</t>
   </si>
@@ -40,7 +40,7 @@
     <t>voir 35/2</t>
   </si>
   <si>
-    <t>295?</t>
+    <t>275?</t>
   </si>
   <si>
     <t>280?</t>
@@ -49,7 +49,13 @@
     <t>265?</t>
   </si>
   <si>
+    <t>280-</t>
+  </si>
+  <si>
     <t>270?</t>
+  </si>
+  <si>
+    <t>---28/3</t>
   </si>
   <si>
     <t>315?</t>
@@ -1196,13 +1202,13 @@
     </row>
     <row r="24">
       <c r="A24" s="6">
-        <v>90.0</v>
+        <v>85.0</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>305.0</v>
+        <v>275.0</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>3</v>
@@ -1231,16 +1237,16 @@
       <c r="Z24" s="4"/>
     </row>
     <row r="25">
-      <c r="A25" s="1">
-        <v>93.0</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D25" s="2" t="s">
+      <c r="A25" s="6">
+        <v>90.0</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="7">
+        <v>305.0</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E25" s="4"/>
@@ -1267,16 +1273,16 @@
       <c r="Z25" s="4"/>
     </row>
     <row r="26">
-      <c r="A26" s="6">
-        <v>98.0</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="5" t="s">
+      <c r="A26" s="1">
+        <v>93.0</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E26" s="4"/>
@@ -1304,13 +1310,13 @@
     </row>
     <row r="27">
       <c r="A27" s="6">
-        <v>105.0</v>
+        <v>98.0</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="7">
-        <v>260.0</v>
+      <c r="C27" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>3</v>
@@ -1340,13 +1346,13 @@
     </row>
     <row r="28">
       <c r="A28" s="6">
-        <v>106.0</v>
+        <v>99.0</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>8</v>
+      <c r="C28" s="7">
+        <v>275.0</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>3</v>
@@ -1376,7 +1382,7 @@
     </row>
     <row r="29">
       <c r="A29" s="6">
-        <v>107.0</v>
+        <v>105.0</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>3</v>
@@ -1412,13 +1418,13 @@
     </row>
     <row r="30">
       <c r="A30" s="6">
-        <v>111.0</v>
+        <v>106.0</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="7">
-        <v>255.0</v>
+      <c r="C30" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>3</v>
@@ -1447,16 +1453,16 @@
       <c r="Z30" s="4"/>
     </row>
     <row r="31">
-      <c r="A31" s="1">
-        <v>112.0</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="3">
-        <v>270.0</v>
-      </c>
-      <c r="D31" s="2" t="s">
+      <c r="A31" s="6">
+        <v>107.0</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="7">
+        <v>260.0</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E31" s="4"/>
@@ -1483,16 +1489,16 @@
       <c r="Z31" s="4"/>
     </row>
     <row r="32">
-      <c r="A32" s="1">
-        <v>119.0</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D32" s="2" t="s">
+      <c r="A32" s="6">
+        <v>109.0</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="7">
+        <v>315.0</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E32" s="4"/>
@@ -1520,13 +1526,13 @@
     </row>
     <row r="33">
       <c r="A33" s="6">
-        <v>122.0</v>
+        <v>111.0</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>9</v>
+      <c r="C33" s="7">
+        <v>255.0</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>3</v>
@@ -1555,16 +1561,16 @@
       <c r="Z33" s="4"/>
     </row>
     <row r="34">
-      <c r="A34" s="6">
-        <v>123.0</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="7">
-        <v>280.0</v>
-      </c>
-      <c r="D34" s="5" t="s">
+      <c r="A34" s="1">
+        <v>112.0</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="3">
+        <v>270.0</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E34" s="4"/>
@@ -1591,16 +1597,16 @@
       <c r="Z34" s="4"/>
     </row>
     <row r="35">
-      <c r="A35" s="6">
-        <v>124.0</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="7">
-        <v>245.0</v>
-      </c>
-      <c r="D35" s="5" t="s">
+      <c r="A35" s="1">
+        <v>119.0</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E35" s="4"/>
@@ -1627,16 +1633,16 @@
       <c r="Z35" s="4"/>
     </row>
     <row r="36">
-      <c r="A36" s="1">
-        <v>125.0</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="3">
-        <v>265.0</v>
-      </c>
-      <c r="D36" s="2" t="s">
+      <c r="A36" s="6">
+        <v>122.0</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="7">
+        <v>295.0</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E36" s="4"/>
@@ -1663,16 +1669,16 @@
       <c r="Z36" s="4"/>
     </row>
     <row r="37">
-      <c r="A37" s="1">
-        <v>129.0</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="3">
-        <v>270.0</v>
-      </c>
-      <c r="D37" s="2" t="s">
+      <c r="A37" s="6">
+        <v>123.0</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="7">
+        <v>280.0</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E37" s="4"/>
@@ -1700,13 +1706,13 @@
     </row>
     <row r="38">
       <c r="A38" s="6">
-        <v>130.0</v>
+        <v>124.0</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C38" s="7">
-        <v>290.0</v>
+        <v>245.0</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>3</v>
@@ -1736,13 +1742,13 @@
     </row>
     <row r="39">
       <c r="A39" s="1">
-        <v>131.0</v>
+        <v>125.0</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C39" s="3">
-        <v>255.0</v>
+        <v>265.0</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>3</v>
@@ -1771,16 +1777,16 @@
       <c r="Z39" s="4"/>
     </row>
     <row r="40">
-      <c r="A40" s="1">
-        <v>132.0</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D40" s="2" t="s">
+      <c r="A40" s="6">
+        <v>126.0</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="7">
+        <v>265.0</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E40" s="4"/>
@@ -1807,16 +1813,16 @@
       <c r="Z40" s="4"/>
     </row>
     <row r="41">
-      <c r="A41" s="6">
-        <v>133.0</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="7">
-        <v>240.0</v>
-      </c>
-      <c r="D41" s="5" t="s">
+      <c r="A41" s="1">
+        <v>129.0</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="3">
+        <v>270.0</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E41" s="4"/>
@@ -1844,13 +1850,13 @@
     </row>
     <row r="42">
       <c r="A42" s="6">
-        <v>135.0</v>
+        <v>130.0</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C42" s="7">
-        <v>310.0</v>
+        <v>290.0</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>3</v>
@@ -1879,16 +1885,16 @@
       <c r="Z42" s="4"/>
     </row>
     <row r="43">
-      <c r="A43" s="6">
-        <v>136.0</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" s="7">
-        <v>315.0</v>
-      </c>
-      <c r="D43" s="5" t="s">
+      <c r="A43" s="1">
+        <v>131.0</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="3">
+        <v>255.0</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E43" s="4"/>
@@ -1916,13 +1922,13 @@
     </row>
     <row r="44">
       <c r="A44" s="1">
-        <v>138.0</v>
+        <v>132.0</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C44" s="3">
-        <v>315.0</v>
+        <v>250.0</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>3</v>
@@ -1951,16 +1957,16 @@
       <c r="Z44" s="4"/>
     </row>
     <row r="45">
-      <c r="A45" s="1">
-        <v>139.0</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D45" s="2" t="s">
+      <c r="A45" s="6">
+        <v>133.0</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="7">
+        <v>240.0</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E45" s="4"/>
@@ -1988,13 +1994,13 @@
     </row>
     <row r="46">
       <c r="A46" s="6">
-        <v>141.0</v>
+        <v>135.0</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C46" s="7">
-        <v>305.0</v>
+        <v>310.0</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>3</v>
@@ -2024,13 +2030,13 @@
     </row>
     <row r="47">
       <c r="A47" s="6">
-        <v>144.0</v>
+        <v>136.0</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C47" s="7">
-        <v>305.0</v>
+        <v>315.0</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>3</v>
@@ -2060,13 +2066,13 @@
     </row>
     <row r="48">
       <c r="A48" s="1">
-        <v>145.0</v>
+        <v>138.0</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C48" s="3">
-        <v>275.0</v>
+        <v>315.0</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>3</v>
@@ -2095,16 +2101,16 @@
       <c r="Z48" s="4"/>
     </row>
     <row r="49">
-      <c r="A49" s="6">
-        <v>146.0</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" s="7">
-        <v>300.0</v>
-      </c>
-      <c r="D49" s="5" t="s">
+      <c r="A49" s="1">
+        <v>139.0</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E49" s="4"/>
@@ -2131,16 +2137,16 @@
       <c r="Z49" s="4"/>
     </row>
     <row r="50">
-      <c r="A50" s="1">
-        <v>149.0</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" s="3">
-        <v>265.0</v>
-      </c>
-      <c r="D50" s="2" t="s">
+      <c r="A50" s="6">
+        <v>141.0</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="7">
+        <v>305.0</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E50" s="4"/>
@@ -2168,13 +2174,13 @@
     </row>
     <row r="51">
       <c r="A51" s="6">
-        <v>152.0</v>
+        <v>144.0</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C51" s="7">
-        <v>230.0</v>
+        <v>305.0</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>3</v>
@@ -2204,13 +2210,13 @@
     </row>
     <row r="52">
       <c r="A52" s="1">
-        <v>153.0</v>
+        <v>145.0</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C52" s="3">
-        <v>325.0</v>
+        <v>275.0</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>3</v>
@@ -2239,16 +2245,16 @@
       <c r="Z52" s="4"/>
     </row>
     <row r="53">
-      <c r="A53" s="1">
-        <v>154.0</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" s="3">
-        <v>325.0</v>
-      </c>
-      <c r="D53" s="2" t="s">
+      <c r="A53" s="6">
+        <v>146.0</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="7">
+        <v>300.0</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E53" s="4"/>
@@ -2275,16 +2281,16 @@
       <c r="Z53" s="4"/>
     </row>
     <row r="54">
-      <c r="A54" s="6">
-        <v>156.0</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" s="8">
-        <v>310.0</v>
-      </c>
-      <c r="D54" s="5" t="s">
+      <c r="A54" s="1">
+        <v>149.0</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="3">
+        <v>265.0</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E54" s="4"/>
@@ -2311,16 +2317,16 @@
       <c r="Z54" s="4"/>
     </row>
     <row r="55">
-      <c r="A55" s="1">
-        <v>157.0</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55" s="9">
-        <v>270.0</v>
-      </c>
-      <c r="D55" s="2" t="s">
+      <c r="A55" s="6">
+        <v>152.0</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="7">
+        <v>230.0</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E55" s="4"/>
@@ -2347,16 +2353,16 @@
       <c r="Z55" s="4"/>
     </row>
     <row r="56">
-      <c r="A56" s="6">
-        <v>164.0</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" s="7">
-        <v>250.0</v>
-      </c>
-      <c r="D56" s="5" t="s">
+      <c r="A56" s="1">
+        <v>153.0</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="3">
+        <v>325.0</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E56" s="4"/>
@@ -2384,13 +2390,13 @@
     </row>
     <row r="57">
       <c r="A57" s="1">
-        <v>167.0</v>
+        <v>154.0</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C57" s="3">
-        <v>250.0</v>
+        <v>325.0</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>3</v>
@@ -2420,13 +2426,13 @@
     </row>
     <row r="58">
       <c r="A58" s="6">
-        <v>169.0</v>
+        <v>156.0</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C58" s="7">
-        <v>235.0</v>
+      <c r="C58" s="8">
+        <v>310.0</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>3</v>
@@ -2455,16 +2461,16 @@
       <c r="Z58" s="4"/>
     </row>
     <row r="59">
-      <c r="A59" s="6">
-        <v>171.0</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C59" s="7">
-        <v>325.0</v>
-      </c>
-      <c r="D59" s="5" t="s">
+      <c r="A59" s="1">
+        <v>157.0</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="9">
+        <v>270.0</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E59" s="4"/>
@@ -2492,7 +2498,7 @@
     </row>
     <row r="60">
       <c r="A60" s="6">
-        <v>172.0</v>
+        <v>163.0</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>3</v>
@@ -2527,16 +2533,16 @@
       <c r="Z60" s="4"/>
     </row>
     <row r="61">
-      <c r="A61" s="1">
-        <v>175.0</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61" s="3">
+      <c r="A61" s="6">
+        <v>164.0</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="7">
         <v>250.0</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E61" s="4"/>
@@ -2563,16 +2569,16 @@
       <c r="Z61" s="4"/>
     </row>
     <row r="62">
-      <c r="A62" s="6">
-        <v>176.0</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D62" s="5" t="s">
+      <c r="A62" s="1">
+        <v>167.0</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E62" s="4"/>
@@ -2599,16 +2605,16 @@
       <c r="Z62" s="4"/>
     </row>
     <row r="63">
-      <c r="A63" s="1">
-        <v>178.0</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C63" s="3">
-        <v>265.0</v>
-      </c>
-      <c r="D63" s="2" t="s">
+      <c r="A63" s="6">
+        <v>169.0</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="7">
+        <v>235.0</v>
+      </c>
+      <c r="D63" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E63" s="4"/>
@@ -2635,16 +2641,16 @@
       <c r="Z63" s="4"/>
     </row>
     <row r="64">
-      <c r="A64" s="1">
-        <v>182.0</v>
-      </c>
-      <c r="B64" s="2" t="s">
+      <c r="A64" s="6">
+        <v>171.0</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C64" s="7">
-        <v>285.0</v>
-      </c>
-      <c r="D64" s="2" t="s">
+        <v>325.0</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E64" s="4"/>
@@ -2671,16 +2677,16 @@
       <c r="Z64" s="4"/>
     </row>
     <row r="65">
-      <c r="A65" s="1">
-        <v>183.0</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C65" s="3">
-        <v>270.0</v>
-      </c>
-      <c r="D65" s="2" t="s">
+      <c r="A65" s="6">
+        <v>172.0</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" s="7">
+        <v>265.0</v>
+      </c>
+      <c r="D65" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E65" s="4"/>
@@ -2707,16 +2713,16 @@
       <c r="Z65" s="4"/>
     </row>
     <row r="66">
-      <c r="A66" s="6">
-        <v>189.0</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66" s="7">
-        <v>235.0</v>
-      </c>
-      <c r="D66" s="5" t="s">
+      <c r="A66" s="1">
+        <v>175.0</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E66" s="4"/>
@@ -2743,16 +2749,16 @@
       <c r="Z66" s="4"/>
     </row>
     <row r="67">
-      <c r="A67" s="1">
-        <v>190.0</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C67" s="3">
-        <v>305.0</v>
-      </c>
-      <c r="D67" s="2" t="s">
+      <c r="A67" s="6">
+        <v>176.0</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E67" s="4"/>
@@ -2780,13 +2786,13 @@
     </row>
     <row r="68">
       <c r="A68" s="1">
-        <v>192.0</v>
+        <v>178.0</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C68" s="3">
-        <v>285.0</v>
+        <v>265.0</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>3</v>
@@ -2815,16 +2821,16 @@
       <c r="Z68" s="4"/>
     </row>
     <row r="69">
-      <c r="A69" s="6">
-        <v>196.0</v>
-      </c>
-      <c r="B69" s="5" t="s">
+      <c r="A69" s="1">
+        <v>182.0</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C69" s="7">
-        <v>220.0</v>
-      </c>
-      <c r="D69" s="5" t="s">
+        <v>285.0</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E69" s="4"/>
@@ -2852,13 +2858,13 @@
     </row>
     <row r="70">
       <c r="A70" s="1">
-        <v>201.0</v>
+        <v>183.0</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C70" s="3">
-        <v>285.0</v>
+        <v>270.0</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>3</v>
@@ -2888,12 +2894,14 @@
     </row>
     <row r="71">
       <c r="A71" s="6">
-        <v>203.0</v>
+        <v>189.0</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C71" s="3"/>
+      <c r="C71" s="7">
+        <v>235.0</v>
+      </c>
       <c r="D71" s="5" t="s">
         <v>3</v>
       </c>
@@ -2922,13 +2930,13 @@
     </row>
     <row r="72">
       <c r="A72" s="1">
-        <v>204.0</v>
+        <v>190.0</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C72" s="3">
-        <v>270.0</v>
+        <v>305.0</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>3</v>
@@ -2957,14 +2965,16 @@
       <c r="Z72" s="4"/>
     </row>
     <row r="73">
-      <c r="A73" s="6">
-        <v>205.0</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" s="7"/>
-      <c r="D73" s="5" t="s">
+      <c r="A73" s="1">
+        <v>192.0</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="3">
+        <v>285.0</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E73" s="4"/>
@@ -2992,13 +3002,13 @@
     </row>
     <row r="74">
       <c r="A74" s="6">
-        <v>207.0</v>
+        <v>193.0</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C74" s="7">
-        <v>325.0</v>
+        <v>245.0</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>3</v>
@@ -3028,13 +3038,13 @@
     </row>
     <row r="75">
       <c r="A75" s="6">
-        <v>209.0</v>
+        <v>195.0</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C75" s="7" t="s">
-        <v>5</v>
+      <c r="C75" s="7">
+        <v>325.0</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>3</v>
@@ -3064,13 +3074,13 @@
     </row>
     <row r="76">
       <c r="A76" s="6">
-        <v>215.0</v>
+        <v>196.0</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C76" s="7">
-        <v>310.0</v>
+        <v>220.0</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>3</v>
@@ -3099,16 +3109,16 @@
       <c r="Z76" s="4"/>
     </row>
     <row r="77">
-      <c r="A77" s="6">
-        <v>216.0</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C77" s="7">
-        <v>320.0</v>
-      </c>
-      <c r="D77" s="5" t="s">
+      <c r="A77" s="1">
+        <v>201.0</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" s="3">
+        <v>285.0</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E77" s="4"/>
@@ -3135,16 +3145,14 @@
       <c r="Z77" s="4"/>
     </row>
     <row r="78">
-      <c r="A78" s="1">
-        <v>218.0</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C78" s="3">
-        <v>275.0</v>
-      </c>
-      <c r="D78" s="2" t="s">
+      <c r="A78" s="6">
+        <v>203.0</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" s="3"/>
+      <c r="D78" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E78" s="4"/>
@@ -3171,16 +3179,16 @@
       <c r="Z78" s="4"/>
     </row>
     <row r="79">
-      <c r="A79" s="6">
-        <v>219.0</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C79" s="7">
-        <v>275.0</v>
-      </c>
-      <c r="D79" s="5" t="s">
+      <c r="A79" s="1">
+        <v>204.0</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" s="3">
+        <v>270.0</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E79" s="4"/>
@@ -3207,16 +3215,16 @@
       <c r="Z79" s="4"/>
     </row>
     <row r="80">
-      <c r="A80" s="1">
-        <v>227.0</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C80" s="3">
-        <v>325.0</v>
-      </c>
-      <c r="D80" s="2" t="s">
+      <c r="A80" s="6">
+        <v>205.0</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E80" s="4"/>
@@ -3243,16 +3251,16 @@
       <c r="Z80" s="4"/>
     </row>
     <row r="81">
-      <c r="A81" s="1">
-        <v>229.0</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C81" s="3">
-        <v>300.0</v>
-      </c>
-      <c r="D81" s="2" t="s">
+      <c r="A81" s="6">
+        <v>207.0</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" s="7">
+        <v>325.0</v>
+      </c>
+      <c r="D81" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E81" s="4"/>
@@ -3280,13 +3288,13 @@
     </row>
     <row r="82">
       <c r="A82" s="6">
-        <v>232.0</v>
+        <v>209.0</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C82" s="7">
-        <v>275.0</v>
+      <c r="C82" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>3</v>
@@ -3315,16 +3323,16 @@
       <c r="Z82" s="4"/>
     </row>
     <row r="83">
-      <c r="A83" s="1">
-        <v>237.0</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C83" s="3">
-        <v>240.0</v>
-      </c>
-      <c r="D83" s="2" t="s">
+      <c r="A83" s="6">
+        <v>215.0</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D83" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E83" s="4"/>
@@ -3352,13 +3360,13 @@
     </row>
     <row r="84">
       <c r="A84" s="6">
-        <v>238.0</v>
+        <v>216.0</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C84" s="7">
-        <v>280.0</v>
+        <v>320.0</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>3</v>
@@ -3388,13 +3396,13 @@
     </row>
     <row r="85">
       <c r="A85" s="1">
-        <v>243.0</v>
+        <v>218.0</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C85" s="3">
-        <v>225.0</v>
+        <v>275.0</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>3</v>
@@ -3424,13 +3432,13 @@
     </row>
     <row r="86">
       <c r="A86" s="6">
-        <v>250.0</v>
+        <v>219.0</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C86" s="7">
-        <v>245.0</v>
+        <v>275.0</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>3</v>
@@ -3460,13 +3468,13 @@
     </row>
     <row r="87">
       <c r="A87" s="6">
-        <v>252.0</v>
+        <v>220.0</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C87" s="7" t="s">
-        <v>10</v>
+      <c r="C87" s="7">
+        <v>320.0</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>3</v>
@@ -3495,16 +3503,16 @@
       <c r="Z87" s="4"/>
     </row>
     <row r="88">
-      <c r="A88" s="6">
-        <v>257.0</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C88" s="7">
-        <v>260.0</v>
-      </c>
-      <c r="D88" s="5" t="s">
+      <c r="A88" s="1">
+        <v>227.0</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" s="3">
+        <v>325.0</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E88" s="4"/>
@@ -3531,16 +3539,16 @@
       <c r="Z88" s="4"/>
     </row>
     <row r="89">
-      <c r="A89" s="6">
-        <v>260.0</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C89" s="7">
-        <v>260.0</v>
-      </c>
-      <c r="D89" s="5" t="s">
+      <c r="A89" s="1">
+        <v>229.0</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" s="3">
+        <v>300.0</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E89" s="4"/>
@@ -3568,13 +3576,13 @@
     </row>
     <row r="90">
       <c r="A90" s="6">
-        <v>261.0</v>
+        <v>232.0</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C90" s="7">
-        <v>240.0</v>
+        <v>275.0</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>3</v>
@@ -3603,16 +3611,16 @@
       <c r="Z90" s="4"/>
     </row>
     <row r="91">
-      <c r="A91" s="6">
-        <v>262.0</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C91" s="7">
-        <v>250.0</v>
-      </c>
-      <c r="D91" s="5" t="s">
+      <c r="A91" s="1">
+        <v>237.0</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" s="3">
+        <v>240.0</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E91" s="4"/>
@@ -3640,13 +3648,13 @@
     </row>
     <row r="92">
       <c r="A92" s="6">
-        <v>264.0</v>
+        <v>238.0</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C92" s="7" t="s">
-        <v>5</v>
+      <c r="C92" s="7">
+        <v>280.0</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>3</v>
@@ -3676,13 +3684,13 @@
     </row>
     <row r="93">
       <c r="A93" s="1">
-        <v>265.0</v>
+        <v>243.0</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C93" s="3">
-        <v>250.0</v>
+        <v>225.0</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>3</v>
@@ -3712,13 +3720,13 @@
     </row>
     <row r="94">
       <c r="A94" s="6">
-        <v>270.0</v>
+        <v>250.0</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C94" s="7">
-        <v>265.0</v>
+        <v>245.0</v>
       </c>
       <c r="D94" s="5" t="s">
         <v>3</v>
@@ -3748,13 +3756,13 @@
     </row>
     <row r="95">
       <c r="A95" s="6">
-        <v>273.0</v>
+        <v>252.0</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C95" s="7">
-        <v>290.0</v>
+      <c r="C95" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="D95" s="5" t="s">
         <v>3</v>
@@ -3783,16 +3791,16 @@
       <c r="Z95" s="4"/>
     </row>
     <row r="96">
-      <c r="A96" s="1">
-        <v>274.0</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C96" s="3">
+      <c r="A96" s="6">
+        <v>257.0</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" s="7">
         <v>260.0</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D96" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E96" s="4"/>
@@ -3820,13 +3828,13 @@
     </row>
     <row r="97">
       <c r="A97" s="6">
-        <v>275.0</v>
+        <v>260.0</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C97" s="7">
-        <v>290.0</v>
+        <v>260.0</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>3</v>
@@ -3856,13 +3864,13 @@
     </row>
     <row r="98">
       <c r="A98" s="6">
-        <v>279.0</v>
+        <v>261.0</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C98" s="7">
-        <v>255.0</v>
+        <v>240.0</v>
       </c>
       <c r="D98" s="5" t="s">
         <v>3</v>
@@ -3892,13 +3900,13 @@
     </row>
     <row r="99">
       <c r="A99" s="6">
-        <v>281.0</v>
+        <v>262.0</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C99" s="7">
-        <v>295.0</v>
+        <v>250.0</v>
       </c>
       <c r="D99" s="5" t="s">
         <v>3</v>
@@ -3928,13 +3936,13 @@
     </row>
     <row r="100">
       <c r="A100" s="6">
-        <v>284.0</v>
+        <v>264.0</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C100" s="7">
-        <v>260.0</v>
+      <c r="C100" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="D100" s="5" t="s">
         <v>3</v>
@@ -3963,16 +3971,16 @@
       <c r="Z100" s="4"/>
     </row>
     <row r="101">
-      <c r="A101" s="6">
-        <v>286.0</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C101" s="7">
-        <v>270.0</v>
-      </c>
-      <c r="D101" s="5" t="s">
+      <c r="A101" s="1">
+        <v>265.0</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E101" s="4"/>
@@ -4000,13 +4008,13 @@
     </row>
     <row r="102">
       <c r="A102" s="6">
-        <v>289.0</v>
+        <v>270.0</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C102" s="7">
-        <v>255.0</v>
+        <v>265.0</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>3</v>
@@ -4035,16 +4043,16 @@
       <c r="Z102" s="4"/>
     </row>
     <row r="103">
-      <c r="A103" s="1">
+      <c r="A103" s="6">
+        <v>273.0</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103" s="7">
         <v>290.0</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C103" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D103" s="2" t="s">
+      <c r="D103" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E103" s="4"/>
@@ -4071,14 +4079,14 @@
       <c r="Z103" s="4"/>
     </row>
     <row r="104">
-      <c r="A104" s="6">
-        <v>296.0</v>
+      <c r="A104" s="1">
+        <v>274.0</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C104" s="7">
-        <v>235.0</v>
+      <c r="C104" s="3">
+        <v>260.0</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>3</v>
@@ -4107,16 +4115,16 @@
       <c r="Z104" s="4"/>
     </row>
     <row r="105">
-      <c r="A105" s="1">
-        <v>306.0</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C105" s="3">
-        <v>235.0</v>
-      </c>
-      <c r="D105" s="2" t="s">
+      <c r="A105" s="6">
+        <v>275.0</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105" s="7">
+        <v>290.0</v>
+      </c>
+      <c r="D105" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E105" s="4"/>
@@ -4144,13 +4152,13 @@
     </row>
     <row r="106">
       <c r="A106" s="6">
-        <v>309.0</v>
+        <v>279.0</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C106" s="7">
-        <v>260.0</v>
+        <v>255.0</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>3</v>
@@ -4180,13 +4188,13 @@
     </row>
     <row r="107">
       <c r="A107" s="6">
-        <v>323.0</v>
+        <v>281.0</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C107" s="7">
-        <v>270.0</v>
+        <v>295.0</v>
       </c>
       <c r="D107" s="5" t="s">
         <v>3</v>
@@ -4215,16 +4223,16 @@
       <c r="Z107" s="4"/>
     </row>
     <row r="108">
-      <c r="A108" s="1">
-        <v>324.0</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C108" s="3">
+      <c r="A108" s="6">
+        <v>284.0</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108" s="7">
         <v>260.0</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="D108" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E108" s="4"/>
@@ -4251,16 +4259,16 @@
       <c r="Z108" s="4"/>
     </row>
     <row r="109">
-      <c r="A109" s="1">
-        <v>328.0</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C109" s="3">
-        <v>255.0</v>
-      </c>
-      <c r="D109" s="2" t="s">
+      <c r="A109" s="6">
+        <v>286.0</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109" s="7">
+        <v>270.0</v>
+      </c>
+      <c r="D109" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E109" s="4"/>
@@ -4288,13 +4296,13 @@
     </row>
     <row r="110">
       <c r="A110" s="6">
-        <v>334.0</v>
+        <v>289.0</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C110" s="7" t="s">
-        <v>11</v>
+      <c r="C110" s="7">
+        <v>260.0</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>3</v>
@@ -4323,16 +4331,16 @@
       <c r="Z110" s="4"/>
     </row>
     <row r="111">
-      <c r="A111" s="6">
-        <v>338.0</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C111" s="7">
-        <v>235.0</v>
-      </c>
-      <c r="D111" s="5" t="s">
+      <c r="A111" s="1">
+        <v>290.0</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E111" s="4"/>
@@ -4359,14 +4367,14 @@
       <c r="Z111" s="4"/>
     </row>
     <row r="112">
-      <c r="A112" s="1">
-        <v>349.0</v>
+      <c r="A112" s="6">
+        <v>296.0</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C112" s="3">
-        <v>250.0</v>
+      <c r="C112" s="7">
+        <v>235.0</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>3</v>
@@ -4395,16 +4403,16 @@
       <c r="Z112" s="4"/>
     </row>
     <row r="113">
-      <c r="A113" s="1">
-        <v>350.0</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C113" s="3">
-        <v>225.0</v>
-      </c>
-      <c r="D113" s="2" t="s">
+      <c r="A113" s="6">
+        <v>299.0</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113" s="7">
+        <v>335.0</v>
+      </c>
+      <c r="D113" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E113" s="4"/>
@@ -4431,16 +4439,16 @@
       <c r="Z113" s="4"/>
     </row>
     <row r="114">
-      <c r="A114" s="6">
-        <v>351.0</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C114" s="7">
-        <v>260.0</v>
-      </c>
-      <c r="D114" s="5" t="s">
+      <c r="A114" s="1">
+        <v>306.0</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" s="3">
+        <v>235.0</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E114" s="4"/>
@@ -4468,7 +4476,7 @@
     </row>
     <row r="115">
       <c r="A115" s="6">
-        <v>356.0</v>
+        <v>309.0</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>3</v>
@@ -4503,16 +4511,16 @@
       <c r="Z115" s="4"/>
     </row>
     <row r="116">
-      <c r="A116" s="1">
-        <v>361.0</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C116" s="3">
-        <v>245.0</v>
-      </c>
-      <c r="D116" s="2" t="s">
+      <c r="A116" s="6">
+        <v>323.0</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116" s="7">
+        <v>270.0</v>
+      </c>
+      <c r="D116" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E116" s="4"/>
@@ -4539,16 +4547,16 @@
       <c r="Z116" s="4"/>
     </row>
     <row r="117">
-      <c r="A117" s="6">
-        <v>365.0</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C117" s="7">
-        <v>335.0</v>
-      </c>
-      <c r="D117" s="5" t="s">
+      <c r="A117" s="1">
+        <v>324.0</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117" s="3">
+        <v>260.0</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E117" s="4"/>
@@ -4575,16 +4583,16 @@
       <c r="Z117" s="4"/>
     </row>
     <row r="118">
-      <c r="A118" s="6">
-        <v>366.0</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C118" s="7">
-        <v>260.0</v>
-      </c>
-      <c r="D118" s="5" t="s">
+      <c r="A118" s="1">
+        <v>328.0</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C118" s="3">
+        <v>255.0</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E118" s="4"/>
@@ -4611,16 +4619,16 @@
       <c r="Z118" s="4"/>
     </row>
     <row r="119">
-      <c r="A119" s="1">
-        <v>367.0</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C119" s="3">
-        <v>225.0</v>
-      </c>
-      <c r="D119" s="2" t="s">
+      <c r="A119" s="6">
+        <v>334.0</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D119" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E119" s="4"/>
@@ -4648,13 +4656,13 @@
     </row>
     <row r="120">
       <c r="A120" s="6">
-        <v>368.0</v>
+        <v>338.0</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C120" s="7">
-        <v>260.0</v>
+        <v>235.0</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>3</v>
@@ -4683,16 +4691,16 @@
       <c r="Z120" s="4"/>
     </row>
     <row r="121">
-      <c r="A121" s="1">
-        <v>369.0</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C121" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D121" s="2" t="s">
+      <c r="A121" s="6">
+        <v>348.0</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121" s="7">
+        <v>270.0</v>
+      </c>
+      <c r="D121" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E121" s="4"/>
@@ -4719,14 +4727,16 @@
       <c r="Z121" s="4"/>
     </row>
     <row r="122">
-      <c r="A122" s="6">
-        <v>370.0</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C122" s="3"/>
-      <c r="D122" s="5" t="s">
+      <c r="A122" s="1">
+        <v>349.0</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C122" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E122" s="4"/>
@@ -4754,13 +4764,13 @@
     </row>
     <row r="123">
       <c r="A123" s="1">
-        <v>375.0</v>
+        <v>350.0</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C123" s="3">
-        <v>245.0</v>
+        <v>225.0</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>3</v>
@@ -4789,16 +4799,16 @@
       <c r="Z123" s="4"/>
     </row>
     <row r="124">
-      <c r="A124" s="1">
-        <v>377.0</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C124" s="3">
-        <v>275.0</v>
-      </c>
-      <c r="D124" s="2" t="s">
+      <c r="A124" s="6">
+        <v>351.0</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124" s="7">
+        <v>260.0</v>
+      </c>
+      <c r="D124" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E124" s="4"/>
@@ -4826,13 +4836,13 @@
     </row>
     <row r="125">
       <c r="A125" s="6">
-        <v>378.0</v>
+        <v>356.0</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C125" s="7">
-        <v>275.0</v>
+        <v>260.0</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>3</v>
@@ -4862,13 +4872,13 @@
     </row>
     <row r="126">
       <c r="A126" s="1">
-        <v>382.0</v>
+        <v>361.0</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C126" s="3">
-        <v>295.0</v>
+        <v>245.0</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>3</v>
@@ -4898,13 +4908,13 @@
     </row>
     <row r="127">
       <c r="A127" s="6">
-        <v>384.0</v>
+        <v>362.0</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C127" s="7">
-        <v>310.0</v>
+      <c r="C127" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>3</v>
@@ -4934,13 +4944,13 @@
     </row>
     <row r="128">
       <c r="A128" s="6">
-        <v>388.0</v>
+        <v>365.0</v>
       </c>
       <c r="B128" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C128" s="7">
-        <v>290.0</v>
+        <v>335.0</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>3</v>
@@ -4969,16 +4979,16 @@
       <c r="Z128" s="4"/>
     </row>
     <row r="129">
-      <c r="A129" s="1">
-        <v>389.0</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C129" s="3">
-        <v>265.0</v>
-      </c>
-      <c r="D129" s="2" t="s">
+      <c r="A129" s="6">
+        <v>366.0</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129" s="7">
+        <v>260.0</v>
+      </c>
+      <c r="D129" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E129" s="4"/>
@@ -5005,16 +5015,16 @@
       <c r="Z129" s="4"/>
     </row>
     <row r="130">
-      <c r="A130" s="6">
-        <v>390.0</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C130" s="7">
-        <v>300.0</v>
-      </c>
-      <c r="D130" s="5" t="s">
+      <c r="A130" s="1">
+        <v>367.0</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130" s="3">
+        <v>225.0</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E130" s="4"/>
@@ -5042,7 +5052,7 @@
     </row>
     <row r="131">
       <c r="A131" s="6">
-        <v>398.0</v>
+        <v>368.0</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>3</v>
@@ -5078,13 +5088,13 @@
     </row>
     <row r="132">
       <c r="A132" s="1">
-        <v>399.0</v>
+        <v>369.0</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C132" s="3">
-        <v>260.0</v>
+        <v>310.0</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>3</v>
@@ -5113,16 +5123,14 @@
       <c r="Z132" s="4"/>
     </row>
     <row r="133">
-      <c r="A133" s="1">
-        <v>404.0</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C133" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D133" s="2" t="s">
+      <c r="A133" s="6">
+        <v>370.0</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C133" s="3"/>
+      <c r="D133" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E133" s="4"/>
@@ -5149,16 +5157,16 @@
       <c r="Z133" s="4"/>
     </row>
     <row r="134">
-      <c r="A134" s="6">
-        <v>406.0</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C134" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D134" s="5" t="s">
+      <c r="A134" s="1">
+        <v>375.0</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134" s="3">
+        <v>245.0</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E134" s="4"/>
@@ -5185,16 +5193,16 @@
       <c r="Z134" s="4"/>
     </row>
     <row r="135">
-      <c r="A135" s="6">
-        <v>413.0</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C135" s="7">
-        <v>290.0</v>
-      </c>
-      <c r="D135" s="5" t="s">
+      <c r="A135" s="1">
+        <v>377.0</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" s="3">
+        <v>275.0</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E135" s="4"/>
@@ -5221,16 +5229,16 @@
       <c r="Z135" s="4"/>
     </row>
     <row r="136">
-      <c r="A136" s="1">
-        <v>423.0</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C136" s="3">
-        <v>280.0</v>
-      </c>
-      <c r="D136" s="2" t="s">
+      <c r="A136" s="6">
+        <v>378.0</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C136" s="7">
+        <v>275.0</v>
+      </c>
+      <c r="D136" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E136" s="4"/>
@@ -5258,13 +5266,13 @@
     </row>
     <row r="137">
       <c r="A137" s="1">
-        <v>429.0</v>
+        <v>382.0</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C137" s="3">
-        <v>290.0</v>
+        <v>295.0</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>3</v>
@@ -5293,16 +5301,16 @@
       <c r="Z137" s="4"/>
     </row>
     <row r="138">
-      <c r="A138" s="1">
-        <v>430.0</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C138" s="3">
-        <v>290.0</v>
-      </c>
-      <c r="D138" s="2" t="s">
+      <c r="A138" s="6">
+        <v>384.0</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C138" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D138" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E138" s="4"/>
@@ -5330,13 +5338,13 @@
     </row>
     <row r="139">
       <c r="A139" s="6">
-        <v>438.0</v>
+        <v>388.0</v>
       </c>
       <c r="B139" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C139" s="7">
-        <v>265.0</v>
+        <v>290.0</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>3</v>
@@ -5365,16 +5373,16 @@
       <c r="Z139" s="4"/>
     </row>
     <row r="140">
-      <c r="A140" s="6">
-        <v>441.0</v>
-      </c>
-      <c r="B140" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C140" s="7">
-        <v>270.0</v>
-      </c>
-      <c r="D140" s="5" t="s">
+      <c r="A140" s="1">
+        <v>389.0</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C140" s="3">
+        <v>265.0</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E140" s="4"/>
@@ -5401,16 +5409,16 @@
       <c r="Z140" s="4"/>
     </row>
     <row r="141">
-      <c r="A141" s="1">
-        <v>442.0</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C141" s="3">
-        <v>295.0</v>
-      </c>
-      <c r="D141" s="2" t="s">
+      <c r="A141" s="6">
+        <v>390.0</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C141" s="7">
+        <v>300.0</v>
+      </c>
+      <c r="D141" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E141" s="4"/>
@@ -5438,13 +5446,13 @@
     </row>
     <row r="142">
       <c r="A142" s="6">
-        <v>443.0</v>
+        <v>398.0</v>
       </c>
       <c r="B142" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C142" s="7">
-        <v>305.0</v>
+        <v>260.0</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>3</v>
@@ -5473,16 +5481,16 @@
       <c r="Z142" s="4"/>
     </row>
     <row r="143">
-      <c r="A143" s="6">
-        <v>446.0</v>
-      </c>
-      <c r="B143" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C143" s="7">
-        <v>280.0</v>
-      </c>
-      <c r="D143" s="5" t="s">
+      <c r="A143" s="1">
+        <v>399.0</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C143" s="3">
+        <v>260.0</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E143" s="4"/>
@@ -5509,16 +5517,16 @@
       <c r="Z143" s="4"/>
     </row>
     <row r="144">
-      <c r="A144" s="6">
-        <v>450.0</v>
-      </c>
-      <c r="B144" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C144" s="7">
-        <v>260.0</v>
-      </c>
-      <c r="D144" s="5" t="s">
+      <c r="A144" s="1">
+        <v>404.0</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E144" s="4"/>
@@ -5546,13 +5554,13 @@
     </row>
     <row r="145">
       <c r="A145" s="6">
-        <v>451.0</v>
+        <v>406.0</v>
       </c>
       <c r="B145" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C145" s="7">
-        <v>330.0</v>
+      <c r="C145" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="D145" s="5" t="s">
         <v>3</v>
@@ -5581,16 +5589,16 @@
       <c r="Z145" s="4"/>
     </row>
     <row r="146">
-      <c r="A146" s="1">
-        <v>456.0</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C146" s="3">
-        <v>235.0</v>
-      </c>
-      <c r="D146" s="2" t="s">
+      <c r="A146" s="6">
+        <v>413.0</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C146" s="7">
+        <v>290.0</v>
+      </c>
+      <c r="D146" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E146" s="4"/>
@@ -5618,13 +5626,13 @@
     </row>
     <row r="147">
       <c r="A147" s="1">
-        <v>457.0</v>
+        <v>423.0</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C147" s="3">
-        <v>250.0</v>
+        <v>280.0</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>3</v>
@@ -5653,16 +5661,16 @@
       <c r="Z147" s="4"/>
     </row>
     <row r="148">
-      <c r="A148" s="6">
-        <v>461.0</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C148" s="7">
-        <v>210.0</v>
-      </c>
-      <c r="D148" s="5" t="s">
+      <c r="A148" s="1">
+        <v>429.0</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C148" s="3">
+        <v>290.0</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E148" s="4"/>
@@ -5690,13 +5698,13 @@
     </row>
     <row r="149">
       <c r="A149" s="1">
-        <v>463.0</v>
+        <v>430.0</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C149" s="3">
-        <v>310.0</v>
+        <v>290.0</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>3</v>
@@ -5725,16 +5733,16 @@
       <c r="Z149" s="4"/>
     </row>
     <row r="150">
-      <c r="A150" s="1">
-        <v>470.0</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C150" s="3">
+      <c r="A150" s="6">
+        <v>438.0</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C150" s="7">
         <v>265.0</v>
       </c>
-      <c r="D150" s="2" t="s">
+      <c r="D150" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E150" s="4"/>
@@ -5762,13 +5770,13 @@
     </row>
     <row r="151">
       <c r="A151" s="6">
-        <v>478.0</v>
+        <v>441.0</v>
       </c>
       <c r="B151" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C151" s="7">
-        <v>275.0</v>
+        <v>270.0</v>
       </c>
       <c r="D151" s="5" t="s">
         <v>3</v>
@@ -5797,16 +5805,16 @@
       <c r="Z151" s="4"/>
     </row>
     <row r="152">
-      <c r="A152" s="6">
-        <v>480.0</v>
-      </c>
-      <c r="B152" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C152" s="7">
-        <v>285.0</v>
-      </c>
-      <c r="D152" s="5" t="s">
+      <c r="A152" s="1">
+        <v>442.0</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C152" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D152" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E152" s="4"/>
@@ -5833,16 +5841,16 @@
       <c r="Z152" s="4"/>
     </row>
     <row r="153">
-      <c r="A153" s="1">
-        <v>485.0</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C153" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D153" s="2" t="s">
+      <c r="A153" s="6">
+        <v>443.0</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C153" s="7">
+        <v>305.0</v>
+      </c>
+      <c r="D153" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E153" s="4"/>
@@ -5870,13 +5878,13 @@
     </row>
     <row r="154">
       <c r="A154" s="6">
-        <v>490.0</v>
+        <v>446.0</v>
       </c>
       <c r="B154" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C154" s="7">
-        <v>275.0</v>
+        <v>280.0</v>
       </c>
       <c r="D154" s="5" t="s">
         <v>3</v>
@@ -5906,13 +5914,13 @@
     </row>
     <row r="155">
       <c r="A155" s="6">
-        <v>492.0</v>
+        <v>450.0</v>
       </c>
       <c r="B155" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C155" s="7" t="s">
-        <v>12</v>
+      <c r="C155" s="7">
+        <v>260.0</v>
       </c>
       <c r="D155" s="5" t="s">
         <v>3</v>
@@ -5941,16 +5949,16 @@
       <c r="Z155" s="4"/>
     </row>
     <row r="156">
-      <c r="A156" s="1">
-        <v>503.0</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C156" s="3">
-        <v>260.0</v>
-      </c>
-      <c r="D156" s="2" t="s">
+      <c r="A156" s="6">
+        <v>451.0</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C156" s="7">
+        <v>330.0</v>
+      </c>
+      <c r="D156" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E156" s="4"/>
@@ -5978,13 +5986,13 @@
     </row>
     <row r="157">
       <c r="A157" s="1">
-        <v>510.0</v>
+        <v>456.0</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C157" s="3">
-        <v>285.0</v>
+        <v>235.0</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>3</v>
@@ -6013,16 +6021,16 @@
       <c r="Z157" s="4"/>
     </row>
     <row r="158">
-      <c r="A158" s="6">
-        <v>514.0</v>
-      </c>
-      <c r="B158" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C158" s="7">
-        <v>315.0</v>
-      </c>
-      <c r="D158" s="5" t="s">
+      <c r="A158" s="1">
+        <v>457.0</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C158" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D158" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E158" s="4"/>
@@ -6050,13 +6058,13 @@
     </row>
     <row r="159">
       <c r="A159" s="6">
-        <v>522.0</v>
+        <v>461.0</v>
       </c>
       <c r="B159" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C159" s="7">
-        <v>290.0</v>
+        <v>210.0</v>
       </c>
       <c r="D159" s="5" t="s">
         <v>3</v>
@@ -6086,13 +6094,13 @@
     </row>
     <row r="160">
       <c r="A160" s="1">
-        <v>534.0</v>
+        <v>463.0</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C160" s="3">
-        <v>230.0</v>
+        <v>310.0</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>3</v>
@@ -6122,13 +6130,13 @@
     </row>
     <row r="161">
       <c r="A161" s="1">
-        <v>535.0</v>
+        <v>470.0</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C161" s="3">
-        <v>295.0</v>
+        <v>265.0</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>3</v>
@@ -6158,13 +6166,13 @@
     </row>
     <row r="162">
       <c r="A162" s="6">
-        <v>543.0</v>
+        <v>478.0</v>
       </c>
       <c r="B162" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C162" s="7">
-        <v>288.0</v>
+        <v>275.0</v>
       </c>
       <c r="D162" s="5" t="s">
         <v>3</v>
@@ -6194,13 +6202,13 @@
     </row>
     <row r="163">
       <c r="A163" s="6">
-        <v>546.0</v>
+        <v>480.0</v>
       </c>
       <c r="B163" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C163" s="7">
-        <v>265.0</v>
+        <v>290.0</v>
       </c>
       <c r="D163" s="5" t="s">
         <v>3</v>
@@ -6229,16 +6237,16 @@
       <c r="Z163" s="4"/>
     </row>
     <row r="164">
-      <c r="A164" s="6">
-        <v>551.0</v>
-      </c>
-      <c r="B164" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C164" s="7">
-        <v>270.0</v>
-      </c>
-      <c r="D164" s="5" t="s">
+      <c r="A164" s="1">
+        <v>485.0</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C164" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D164" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E164" s="4"/>
@@ -6265,16 +6273,16 @@
       <c r="Z164" s="4"/>
     </row>
     <row r="165">
-      <c r="A165" s="1">
-        <v>552.0</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C165" s="3">
-        <v>280.0</v>
-      </c>
-      <c r="D165" s="2" t="s">
+      <c r="A165" s="6">
+        <v>488.0</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C165" s="7">
+        <v>325.0</v>
+      </c>
+      <c r="D165" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E165" s="4"/>
@@ -6302,13 +6310,13 @@
     </row>
     <row r="166">
       <c r="A166" s="6">
-        <v>556.0</v>
+        <v>490.0</v>
       </c>
       <c r="B166" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C166" s="7">
-        <v>285.0</v>
+        <v>275.0</v>
       </c>
       <c r="D166" s="5" t="s">
         <v>3</v>
@@ -6338,13 +6346,13 @@
     </row>
     <row r="167">
       <c r="A167" s="6">
-        <v>560.0</v>
+        <v>492.0</v>
       </c>
       <c r="B167" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C167" s="7">
-        <v>310.0</v>
+      <c r="C167" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="D167" s="5" t="s">
         <v>3</v>
@@ -6374,13 +6382,13 @@
     </row>
     <row r="168">
       <c r="A168" s="1">
-        <v>561.0</v>
+        <v>503.0</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C168" s="3">
-        <v>280.0</v>
+        <v>260.0</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>3</v>
@@ -6409,16 +6417,16 @@
       <c r="Z168" s="4"/>
     </row>
     <row r="169">
-      <c r="A169" s="6">
-        <v>562.0</v>
-      </c>
-      <c r="B169" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C169" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D169" s="5" t="s">
+      <c r="A169" s="1">
+        <v>510.0</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C169" s="3">
+        <v>285.0</v>
+      </c>
+      <c r="D169" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E169" s="4"/>
@@ -6446,13 +6454,13 @@
     </row>
     <row r="170">
       <c r="A170" s="6">
-        <v>564.0</v>
+        <v>514.0</v>
       </c>
       <c r="B170" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C170" s="7">
-        <v>260.0</v>
+        <v>315.0</v>
       </c>
       <c r="D170" s="5" t="s">
         <v>3</v>
@@ -6481,16 +6489,16 @@
       <c r="Z170" s="4"/>
     </row>
     <row r="171">
-      <c r="A171" s="1">
-        <v>567.0</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C171" s="3">
-        <v>325.0</v>
-      </c>
-      <c r="D171" s="2" t="s">
+      <c r="A171" s="6">
+        <v>522.0</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C171" s="7">
+        <v>290.0</v>
+      </c>
+      <c r="D171" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E171" s="4"/>
@@ -6517,16 +6525,16 @@
       <c r="Z171" s="4"/>
     </row>
     <row r="172">
-      <c r="A172" s="1">
-        <v>576.0</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C172" s="3">
-        <v>260.0</v>
-      </c>
-      <c r="D172" s="2" t="s">
+      <c r="A172" s="6">
+        <v>524.0</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C172" s="7">
+        <v>325.0</v>
+      </c>
+      <c r="D172" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E172" s="4"/>
@@ -6553,16 +6561,16 @@
       <c r="Z172" s="4"/>
     </row>
     <row r="173">
-      <c r="A173" s="6">
-        <v>577.0</v>
-      </c>
-      <c r="B173" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C173" s="7">
+      <c r="A173" s="1">
+        <v>534.0</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C173" s="3">
         <v>230.0</v>
       </c>
-      <c r="D173" s="5" t="s">
+      <c r="D173" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E173" s="4"/>
@@ -6589,16 +6597,16 @@
       <c r="Z173" s="4"/>
     </row>
     <row r="174">
-      <c r="A174" s="10">
-        <v>580.0</v>
-      </c>
-      <c r="B174" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C174" s="7">
-        <v>240.0</v>
-      </c>
-      <c r="D174" s="5" t="s">
+      <c r="A174" s="1">
+        <v>535.0</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C174" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D174" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E174" s="4"/>
@@ -6625,16 +6633,16 @@
       <c r="Z174" s="4"/>
     </row>
     <row r="175">
-      <c r="A175" s="1">
-        <v>583.0</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C175" s="3">
-        <v>320.0</v>
-      </c>
-      <c r="D175" s="2" t="s">
+      <c r="A175" s="6">
+        <v>543.0</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C175" s="7">
+        <v>288.0</v>
+      </c>
+      <c r="D175" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E175" s="4"/>
@@ -6661,16 +6669,16 @@
       <c r="Z175" s="4"/>
     </row>
     <row r="176">
-      <c r="A176" s="1">
-        <v>584.0</v>
-      </c>
-      <c r="B176" s="2" t="s">
+      <c r="A176" s="6">
+        <v>546.0</v>
+      </c>
+      <c r="B176" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C176" s="7">
-        <v>275.0</v>
-      </c>
-      <c r="D176" s="2" t="s">
+        <v>265.0</v>
+      </c>
+      <c r="D176" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E176" s="4"/>
@@ -6697,16 +6705,16 @@
       <c r="Z176" s="4"/>
     </row>
     <row r="177">
-      <c r="A177" s="1">
-        <v>586.0</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C177" s="3">
-        <v>240.0</v>
-      </c>
-      <c r="D177" s="2" t="s">
+      <c r="A177" s="6">
+        <v>551.0</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C177" s="7">
+        <v>270.0</v>
+      </c>
+      <c r="D177" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E177" s="4"/>
@@ -6733,16 +6741,16 @@
       <c r="Z177" s="4"/>
     </row>
     <row r="178">
-      <c r="A178" s="6">
-        <v>587.0</v>
-      </c>
-      <c r="B178" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C178" s="7">
-        <v>265.0</v>
-      </c>
-      <c r="D178" s="5" t="s">
+      <c r="A178" s="1">
+        <v>552.0</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C178" s="3">
+        <v>280.0</v>
+      </c>
+      <c r="D178" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E178" s="4"/>
@@ -6770,13 +6778,13 @@
     </row>
     <row r="179">
       <c r="A179" s="6">
-        <v>589.0</v>
+        <v>556.0</v>
       </c>
       <c r="B179" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C179" s="7">
-        <v>265.0</v>
+        <v>285.0</v>
       </c>
       <c r="D179" s="5" t="s">
         <v>3</v>
@@ -6805,16 +6813,16 @@
       <c r="Z179" s="4"/>
     </row>
     <row r="180">
-      <c r="A180" s="1">
-        <v>593.0</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C180" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D180" s="2" t="s">
+      <c r="A180" s="6">
+        <v>560.0</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C180" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D180" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E180" s="4"/>
@@ -6841,16 +6849,16 @@
       <c r="Z180" s="4"/>
     </row>
     <row r="181">
-      <c r="A181" s="6">
-        <v>599.0</v>
-      </c>
-      <c r="B181" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C181" s="7">
+      <c r="A181" s="1">
+        <v>561.0</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C181" s="3">
         <v>280.0</v>
       </c>
-      <c r="D181" s="5" t="s">
+      <c r="D181" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E181" s="4"/>
@@ -6877,16 +6885,16 @@
       <c r="Z181" s="4"/>
     </row>
     <row r="182">
-      <c r="A182" s="1">
-        <v>604.0</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C182" s="3">
-        <v>295.0</v>
-      </c>
-      <c r="D182" s="2" t="s">
+      <c r="A182" s="6">
+        <v>562.0</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D182" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E182" s="4"/>
@@ -6914,15 +6922,15 @@
     </row>
     <row r="183">
       <c r="A183" s="6">
-        <v>605.0</v>
-      </c>
-      <c r="B183" s="2" t="s">
+        <v>564.0</v>
+      </c>
+      <c r="B183" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C183" s="7">
-        <v>270.0</v>
-      </c>
-      <c r="D183" s="2" t="s">
+        <v>260.0</v>
+      </c>
+      <c r="D183" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E183" s="4"/>
@@ -6949,16 +6957,16 @@
       <c r="Z183" s="4"/>
     </row>
     <row r="184">
-      <c r="A184" s="6">
-        <v>610.0</v>
-      </c>
-      <c r="B184" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C184" s="7">
-        <v>260.0</v>
-      </c>
-      <c r="D184" s="5" t="s">
+      <c r="A184" s="1">
+        <v>567.0</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C184" s="3">
+        <v>325.0</v>
+      </c>
+      <c r="D184" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E184" s="4"/>
@@ -6986,13 +6994,13 @@
     </row>
     <row r="185">
       <c r="A185" s="1">
-        <v>612.0</v>
+        <v>576.0</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C185" s="3">
-        <v>255.0</v>
+        <v>260.0</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>3</v>
@@ -7022,13 +7030,13 @@
     </row>
     <row r="186">
       <c r="A186" s="6">
-        <v>615.0</v>
+        <v>577.0</v>
       </c>
       <c r="B186" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C186" s="7" t="s">
-        <v>5</v>
+      <c r="C186" s="7">
+        <v>230.0</v>
       </c>
       <c r="D186" s="5" t="s">
         <v>3</v>
@@ -7057,16 +7065,16 @@
       <c r="Z186" s="4"/>
     </row>
     <row r="187">
-      <c r="A187" s="1">
-        <v>617.0</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C187" s="3">
-        <v>330.0</v>
-      </c>
-      <c r="D187" s="2" t="s">
+      <c r="A187" s="10">
+        <v>580.0</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C187" s="7">
+        <v>240.0</v>
+      </c>
+      <c r="D187" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E187" s="4"/>
@@ -7093,16 +7101,16 @@
       <c r="Z187" s="4"/>
     </row>
     <row r="188">
-      <c r="A188" s="6">
-        <v>618.0</v>
-      </c>
-      <c r="B188" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C188" s="7">
-        <v>330.0</v>
-      </c>
-      <c r="D188" s="5" t="s">
+      <c r="A188" s="1">
+        <v>583.0</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C188" s="3">
+        <v>320.0</v>
+      </c>
+      <c r="D188" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E188" s="4"/>
@@ -7130,13 +7138,13 @@
     </row>
     <row r="189">
       <c r="A189" s="1">
-        <v>623.0</v>
+        <v>584.0</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C189" s="3">
-        <v>290.0</v>
+      <c r="C189" s="7">
+        <v>275.0</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>3</v>
@@ -7165,16 +7173,16 @@
       <c r="Z189" s="4"/>
     </row>
     <row r="190">
-      <c r="A190" s="6">
-        <v>624.0</v>
-      </c>
-      <c r="B190" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C190" s="7">
-        <v>310.0</v>
-      </c>
-      <c r="D190" s="5" t="s">
+      <c r="A190" s="1">
+        <v>586.0</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C190" s="3">
+        <v>240.0</v>
+      </c>
+      <c r="D190" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E190" s="4"/>
@@ -7201,16 +7209,16 @@
       <c r="Z190" s="4"/>
     </row>
     <row r="191">
-      <c r="A191" s="1">
-        <v>625.0</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C191" s="3">
-        <v>320.0</v>
-      </c>
-      <c r="D191" s="2" t="s">
+      <c r="A191" s="6">
+        <v>587.0</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C191" s="7">
+        <v>265.0</v>
+      </c>
+      <c r="D191" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E191" s="4"/>
@@ -7237,16 +7245,16 @@
       <c r="Z191" s="4"/>
     </row>
     <row r="192">
-      <c r="A192" s="1">
-        <v>626.0</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C192" s="3">
-        <v>305.0</v>
-      </c>
-      <c r="D192" s="2" t="s">
+      <c r="A192" s="6">
+        <v>589.0</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C192" s="7">
+        <v>265.0</v>
+      </c>
+      <c r="D192" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E192" s="4"/>
@@ -7274,13 +7282,13 @@
     </row>
     <row r="193">
       <c r="A193" s="6">
-        <v>628.0</v>
+        <v>591.0</v>
       </c>
       <c r="B193" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C193" s="7">
-        <v>305.0</v>
+      <c r="C193" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="D193" s="5" t="s">
         <v>3</v>
@@ -7310,13 +7318,13 @@
     </row>
     <row r="194">
       <c r="A194" s="1">
-        <v>635.0</v>
+        <v>593.0</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C194" s="3">
-        <v>295.0</v>
+        <v>250.0</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>3</v>
@@ -7346,13 +7354,13 @@
     </row>
     <row r="195">
       <c r="A195" s="6">
-        <v>640.0</v>
+        <v>599.0</v>
       </c>
       <c r="B195" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C195" s="7">
-        <v>275.0</v>
+        <v>280.0</v>
       </c>
       <c r="D195" s="5" t="s">
         <v>3</v>
@@ -7381,16 +7389,16 @@
       <c r="Z195" s="4"/>
     </row>
     <row r="196">
-      <c r="A196" s="1">
-        <v>642.0</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C196" s="3">
-        <v>270.0</v>
-      </c>
-      <c r="D196" s="2" t="s">
+      <c r="A196" s="6">
+        <v>601.0</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C196" s="7">
+        <v>305.0</v>
+      </c>
+      <c r="D196" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E196" s="4"/>
@@ -7418,13 +7426,13 @@
     </row>
     <row r="197">
       <c r="A197" s="1">
-        <v>643.0</v>
+        <v>604.0</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C197" s="3">
-        <v>310.0</v>
+        <v>295.0</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>3</v>
@@ -7454,13 +7462,13 @@
     </row>
     <row r="198">
       <c r="A198" s="6">
-        <v>651.0</v>
+        <v>605.0</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C198" s="7">
-        <v>230.0</v>
+        <v>270.0</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>3</v>
@@ -7489,16 +7497,16 @@
       <c r="Z198" s="4"/>
     </row>
     <row r="199">
-      <c r="A199" s="1">
-        <v>652.0</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C199" s="3">
-        <v>330.0</v>
-      </c>
-      <c r="D199" s="2" t="s">
+      <c r="A199" s="6">
+        <v>610.0</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C199" s="7">
+        <v>260.0</v>
+      </c>
+      <c r="D199" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E199" s="4"/>
@@ -7525,16 +7533,16 @@
       <c r="Z199" s="4"/>
     </row>
     <row r="200">
-      <c r="A200" s="6">
-        <v>659.0</v>
-      </c>
-      <c r="B200" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C200" s="7">
-        <v>305.0</v>
-      </c>
-      <c r="D200" s="5" t="s">
+      <c r="A200" s="1">
+        <v>612.0</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C200" s="3">
+        <v>255.0</v>
+      </c>
+      <c r="D200" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E200" s="4"/>
@@ -7561,16 +7569,16 @@
       <c r="Z200" s="4"/>
     </row>
     <row r="201">
-      <c r="A201" s="1">
-        <v>663.0</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C201" s="3">
-        <v>265.0</v>
-      </c>
-      <c r="D201" s="2" t="s">
+      <c r="A201" s="6">
+        <v>615.0</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D201" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E201" s="4"/>
@@ -7597,16 +7605,16 @@
       <c r="Z201" s="4"/>
     </row>
     <row r="202">
-      <c r="A202" s="6">
-        <v>666.0</v>
-      </c>
-      <c r="B202" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C202" s="7">
-        <v>300.0</v>
-      </c>
-      <c r="D202" s="5" t="s">
+      <c r="A202" s="1">
+        <v>617.0</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C202" s="3">
+        <v>330.0</v>
+      </c>
+      <c r="D202" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E202" s="4"/>
@@ -7633,16 +7641,16 @@
       <c r="Z202" s="4"/>
     </row>
     <row r="203">
-      <c r="A203" s="1">
-        <v>668.0</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C203" s="3">
-        <v>305.0</v>
-      </c>
-      <c r="D203" s="2" t="s">
+      <c r="A203" s="6">
+        <v>618.0</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C203" s="7">
+        <v>330.0</v>
+      </c>
+      <c r="D203" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E203" s="4"/>
@@ -7669,16 +7677,18 @@
       <c r="Z203" s="4"/>
     </row>
     <row r="204">
-      <c r="A204" s="6">
-        <v>669.0</v>
-      </c>
-      <c r="B204" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C204" s="7">
-        <v>310.0</v>
-      </c>
-      <c r="D204" s="2"/>
+      <c r="A204" s="1">
+        <v>623.0</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C204" s="3">
+        <v>290.0</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E204" s="4"/>
       <c r="F204" s="4"/>
       <c r="G204" s="4"/>
@@ -7703,16 +7713,16 @@
       <c r="Z204" s="4"/>
     </row>
     <row r="205">
-      <c r="A205" s="1">
-        <v>670.0</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C205" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D205" s="2" t="s">
+      <c r="A205" s="6">
+        <v>624.0</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C205" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D205" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E205" s="4"/>
@@ -7740,13 +7750,13 @@
     </row>
     <row r="206">
       <c r="A206" s="1">
-        <v>671.0</v>
+        <v>625.0</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C206" s="3">
-        <v>305.0</v>
+        <v>320.0</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>3</v>
@@ -7776,13 +7786,13 @@
     </row>
     <row r="207">
       <c r="A207" s="1">
-        <v>672.0</v>
+        <v>626.0</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C207" s="3">
-        <v>295.0</v>
+        <v>305.0</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>3</v>
@@ -7812,13 +7822,13 @@
     </row>
     <row r="208">
       <c r="A208" s="6">
-        <v>676.0</v>
+        <v>628.0</v>
       </c>
       <c r="B208" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C208" s="7">
-        <v>335.0</v>
+        <v>305.0</v>
       </c>
       <c r="D208" s="5" t="s">
         <v>3</v>
@@ -7848,13 +7858,13 @@
     </row>
     <row r="209">
       <c r="A209" s="1">
-        <v>680.0</v>
+        <v>635.0</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C209" s="3">
-        <v>285.0</v>
+        <v>295.0</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>3</v>
@@ -7883,16 +7893,16 @@
       <c r="Z209" s="4"/>
     </row>
     <row r="210">
-      <c r="A210" s="1">
-        <v>688.0</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C210" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D210" s="2" t="s">
+      <c r="A210" s="6">
+        <v>640.0</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C210" s="7">
+        <v>275.0</v>
+      </c>
+      <c r="D210" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E210" s="4"/>
@@ -7919,14 +7929,14 @@
       <c r="Z210" s="4"/>
     </row>
     <row r="211">
-      <c r="A211" s="11">
-        <v>692.0</v>
+      <c r="A211" s="1">
+        <v>642.0</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C211" s="11">
-        <v>300.0</v>
+      <c r="C211" s="3">
+        <v>270.0</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>3</v>
@@ -7956,13 +7966,13 @@
     </row>
     <row r="212">
       <c r="A212" s="1">
-        <v>696.0</v>
+        <v>643.0</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C212" s="3">
-        <v>300.0</v>
+        <v>310.0</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>3</v>
@@ -7992,15 +8002,15 @@
     </row>
     <row r="213">
       <c r="A213" s="6">
-        <v>697.0</v>
-      </c>
-      <c r="B213" s="5" t="s">
+        <v>651.0</v>
+      </c>
+      <c r="B213" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C213" s="7">
-        <v>250.0</v>
-      </c>
-      <c r="D213" s="5" t="s">
+        <v>230.0</v>
+      </c>
+      <c r="D213" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E213" s="4"/>
@@ -8027,16 +8037,16 @@
       <c r="Z213" s="4"/>
     </row>
     <row r="214">
-      <c r="A214" s="6">
-        <v>705.0</v>
-      </c>
-      <c r="B214" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C214" s="7">
-        <v>280.0</v>
-      </c>
-      <c r="D214" s="5" t="s">
+      <c r="A214" s="1">
+        <v>652.0</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C214" s="3">
+        <v>330.0</v>
+      </c>
+      <c r="D214" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E214" s="4"/>
@@ -8064,13 +8074,13 @@
     </row>
     <row r="215">
       <c r="A215" s="6">
-        <v>712.0</v>
+        <v>659.0</v>
       </c>
       <c r="B215" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C215" s="7">
-        <v>295.0</v>
+        <v>305.0</v>
       </c>
       <c r="D215" s="5" t="s">
         <v>3</v>
@@ -8099,16 +8109,16 @@
       <c r="Z215" s="4"/>
     </row>
     <row r="216">
-      <c r="A216" s="6">
-        <v>713.0</v>
-      </c>
-      <c r="B216" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C216" s="7">
-        <v>310.0</v>
-      </c>
-      <c r="D216" s="5" t="s">
+      <c r="A216" s="1">
+        <v>663.0</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C216" s="3">
+        <v>265.0</v>
+      </c>
+      <c r="D216" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E216" s="4"/>
@@ -8135,16 +8145,16 @@
       <c r="Z216" s="4"/>
     </row>
     <row r="217">
-      <c r="A217" s="1">
-        <v>714.0</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C217" s="3">
-        <v>275.0</v>
-      </c>
-      <c r="D217" s="2" t="s">
+      <c r="A217" s="6">
+        <v>666.0</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C217" s="7">
+        <v>300.0</v>
+      </c>
+      <c r="D217" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E217" s="4"/>
@@ -8171,14 +8181,16 @@
       <c r="Z217" s="4"/>
     </row>
     <row r="218">
-      <c r="A218" s="6">
-        <v>715.0</v>
-      </c>
-      <c r="B218" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C218" s="3"/>
-      <c r="D218" s="5" t="s">
+      <c r="A218" s="1">
+        <v>668.0</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C218" s="3">
+        <v>305.0</v>
+      </c>
+      <c r="D218" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E218" s="4"/>
@@ -8205,18 +8217,16 @@
       <c r="Z218" s="4"/>
     </row>
     <row r="219">
-      <c r="A219" s="1">
-        <v>718.0</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C219" s="3">
-        <v>330.0</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A219" s="6">
+        <v>669.0</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C219" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D219" s="2"/>
       <c r="E219" s="4"/>
       <c r="F219" s="4"/>
       <c r="G219" s="4"/>
@@ -8242,13 +8252,13 @@
     </row>
     <row r="220">
       <c r="A220" s="1">
-        <v>719.0</v>
+        <v>670.0</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C220" s="3">
-        <v>280.0</v>
+        <v>250.0</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>3</v>
@@ -8277,16 +8287,16 @@
       <c r="Z220" s="4"/>
     </row>
     <row r="221">
-      <c r="A221" s="6">
-        <v>725.0</v>
-      </c>
-      <c r="B221" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C221" s="7">
-        <v>245.0</v>
-      </c>
-      <c r="D221" s="5" t="s">
+      <c r="A221" s="1">
+        <v>671.0</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C221" s="3">
+        <v>305.0</v>
+      </c>
+      <c r="D221" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E221" s="4"/>
@@ -8313,16 +8323,16 @@
       <c r="Z221" s="4"/>
     </row>
     <row r="222">
-      <c r="A222" s="6">
-        <v>730.0</v>
-      </c>
-      <c r="B222" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C222" s="7">
-        <v>315.0</v>
-      </c>
-      <c r="D222" s="5" t="s">
+      <c r="A222" s="1">
+        <v>672.0</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C222" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D222" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E222" s="4"/>
@@ -8350,13 +8360,13 @@
     </row>
     <row r="223">
       <c r="A223" s="6">
-        <v>731.0</v>
+        <v>676.0</v>
       </c>
       <c r="B223" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C223" s="7">
-        <v>260.0</v>
+        <v>335.0</v>
       </c>
       <c r="D223" s="5" t="s">
         <v>3</v>
@@ -8386,13 +8396,13 @@
     </row>
     <row r="224">
       <c r="A224" s="1">
-        <v>732.0</v>
+        <v>680.0</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C224" s="3">
-        <v>280.0</v>
+        <v>285.0</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>3</v>
@@ -8422,13 +8432,13 @@
     </row>
     <row r="225">
       <c r="A225" s="1">
-        <v>733.0</v>
+        <v>688.0</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C225" s="3">
-        <v>320.0</v>
+        <v>310.0</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>3</v>
@@ -8457,14 +8467,14 @@
       <c r="Z225" s="4"/>
     </row>
     <row r="226">
-      <c r="A226" s="1">
-        <v>736.0</v>
+      <c r="A226" s="11">
+        <v>692.0</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C226" s="3">
-        <v>250.0</v>
+      <c r="C226" s="11">
+        <v>300.0</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>3</v>
@@ -8493,16 +8503,16 @@
       <c r="Z226" s="4"/>
     </row>
     <row r="227">
-      <c r="A227" s="6">
-        <v>742.0</v>
-      </c>
-      <c r="B227" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C227" s="7">
-        <v>240.0</v>
-      </c>
-      <c r="D227" s="5" t="s">
+      <c r="A227" s="1">
+        <v>696.0</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C227" s="3">
+        <v>300.0</v>
+      </c>
+      <c r="D227" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E227" s="4"/>
@@ -8529,16 +8539,16 @@
       <c r="Z227" s="4"/>
     </row>
     <row r="228">
-      <c r="A228" s="1">
-        <v>744.0</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C228" s="3">
-        <v>270.0</v>
-      </c>
-      <c r="D228" s="2" t="s">
+      <c r="A228" s="6">
+        <v>697.0</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C228" s="7">
+        <v>250.0</v>
+      </c>
+      <c r="D228" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E228" s="4"/>
@@ -8565,16 +8575,16 @@
       <c r="Z228" s="4"/>
     </row>
     <row r="229">
-      <c r="A229" s="1">
-        <v>747.0</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C229" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D229" s="2" t="s">
+      <c r="A229" s="6">
+        <v>705.0</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C229" s="7">
+        <v>280.0</v>
+      </c>
+      <c r="D229" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E229" s="4"/>
@@ -8602,13 +8612,13 @@
     </row>
     <row r="230">
       <c r="A230" s="6">
-        <v>748.0</v>
+        <v>706.0</v>
       </c>
       <c r="B230" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C230" s="7">
-        <v>230.0</v>
+        <v>320.0</v>
       </c>
       <c r="D230" s="5" t="s">
         <v>3</v>
@@ -8637,16 +8647,16 @@
       <c r="Z230" s="4"/>
     </row>
     <row r="231">
-      <c r="A231" s="1">
-        <v>749.0</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C231" s="3">
-        <v>335.0</v>
-      </c>
-      <c r="D231" s="2" t="s">
+      <c r="A231" s="6">
+        <v>709.0</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C231" s="7">
+        <v>320.0</v>
+      </c>
+      <c r="D231" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E231" s="4"/>
@@ -8674,13 +8684,13 @@
     </row>
     <row r="232">
       <c r="A232" s="6">
-        <v>757.0</v>
+        <v>712.0</v>
       </c>
       <c r="B232" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C232" s="7">
-        <v>280.0</v>
+        <v>295.0</v>
       </c>
       <c r="D232" s="5" t="s">
         <v>3</v>
@@ -8709,16 +8719,16 @@
       <c r="Z232" s="4"/>
     </row>
     <row r="233">
-      <c r="A233" s="1">
-        <v>758.0</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C233" s="3">
-        <v>295.0</v>
-      </c>
-      <c r="D233" s="2" t="s">
+      <c r="A233" s="6">
+        <v>713.0</v>
+      </c>
+      <c r="B233" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C233" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D233" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E233" s="4"/>
@@ -8745,16 +8755,16 @@
       <c r="Z233" s="4"/>
     </row>
     <row r="234">
-      <c r="A234" s="6">
-        <v>761.0</v>
-      </c>
-      <c r="B234" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C234" s="7">
-        <v>260.0</v>
-      </c>
-      <c r="D234" s="5" t="s">
+      <c r="A234" s="1">
+        <v>714.0</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C234" s="3">
+        <v>275.0</v>
+      </c>
+      <c r="D234" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E234" s="4"/>
@@ -8781,16 +8791,14 @@
       <c r="Z234" s="4"/>
     </row>
     <row r="235">
-      <c r="A235" s="1">
-        <v>767.0</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C235" s="3">
-        <v>290.0</v>
-      </c>
-      <c r="D235" s="2" t="s">
+      <c r="A235" s="6">
+        <v>715.0</v>
+      </c>
+      <c r="B235" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C235" s="3"/>
+      <c r="D235" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E235" s="4"/>
@@ -8817,16 +8825,16 @@
       <c r="Z235" s="4"/>
     </row>
     <row r="236">
-      <c r="A236" s="6">
-        <v>772.0</v>
-      </c>
-      <c r="B236" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C236" s="7">
-        <v>240.0</v>
-      </c>
-      <c r="D236" s="5" t="s">
+      <c r="A236" s="1">
+        <v>718.0</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C236" s="3">
+        <v>330.0</v>
+      </c>
+      <c r="D236" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E236" s="4"/>
@@ -8854,13 +8862,13 @@
     </row>
     <row r="237">
       <c r="A237" s="1">
-        <v>775.0</v>
+        <v>719.0</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C237" s="3">
-        <v>260.0</v>
+        <v>280.0</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>3</v>
@@ -8890,13 +8898,13 @@
     </row>
     <row r="238">
       <c r="A238" s="6">
-        <v>776.0</v>
+        <v>725.0</v>
       </c>
       <c r="B238" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C238" s="7">
-        <v>240.0</v>
+        <v>245.0</v>
       </c>
       <c r="D238" s="5" t="s">
         <v>3</v>
@@ -8925,16 +8933,16 @@
       <c r="Z238" s="4"/>
     </row>
     <row r="239">
-      <c r="A239" s="1">
-        <v>777.0</v>
-      </c>
-      <c r="B239" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C239" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D239" s="2" t="s">
+      <c r="A239" s="6">
+        <v>730.0</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C239" s="7">
+        <v>315.0</v>
+      </c>
+      <c r="D239" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E239" s="4"/>
@@ -8961,16 +8969,16 @@
       <c r="Z239" s="4"/>
     </row>
     <row r="240">
-      <c r="A240" s="1">
-        <v>792.0</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C240" s="3">
-        <v>320.0</v>
-      </c>
-      <c r="D240" s="2" t="s">
+      <c r="A240" s="6">
+        <v>731.0</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C240" s="7">
+        <v>260.0</v>
+      </c>
+      <c r="D240" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E240" s="4"/>
@@ -8997,16 +9005,16 @@
       <c r="Z240" s="4"/>
     </row>
     <row r="241">
-      <c r="A241" s="6">
-        <v>784.0</v>
-      </c>
-      <c r="B241" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C241" s="7">
-        <v>270.0</v>
-      </c>
-      <c r="D241" s="5" t="s">
+      <c r="A241" s="1">
+        <v>732.0</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C241" s="3">
+        <v>280.0</v>
+      </c>
+      <c r="D241" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E241" s="4"/>
@@ -9033,16 +9041,16 @@
       <c r="Z241" s="4"/>
     </row>
     <row r="242">
-      <c r="A242" s="6">
-        <v>786.0</v>
-      </c>
-      <c r="B242" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C242" s="7">
-        <v>275.0</v>
-      </c>
-      <c r="D242" s="5" t="s">
+      <c r="A242" s="1">
+        <v>733.0</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C242" s="3">
+        <v>320.0</v>
+      </c>
+      <c r="D242" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E242" s="4"/>
@@ -9069,16 +9077,16 @@
       <c r="Z242" s="4"/>
     </row>
     <row r="243">
-      <c r="A243" s="6">
-        <v>787.0</v>
-      </c>
-      <c r="B243" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C243" s="7">
-        <v>280.0</v>
-      </c>
-      <c r="D243" s="5" t="s">
+      <c r="A243" s="1">
+        <v>736.0</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C243" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D243" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E243" s="4"/>
@@ -9106,13 +9114,13 @@
     </row>
     <row r="244">
       <c r="A244" s="6">
-        <v>789.0</v>
+        <v>741.0</v>
       </c>
       <c r="B244" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C244" s="7">
-        <v>265.0</v>
+      <c r="C244" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="D244" s="5" t="s">
         <v>3</v>
@@ -9141,16 +9149,16 @@
       <c r="Z244" s="4"/>
     </row>
     <row r="245">
-      <c r="A245" s="1">
-        <v>795.0</v>
-      </c>
-      <c r="B245" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C245" s="3">
-        <v>255.0</v>
-      </c>
-      <c r="D245" s="2" t="s">
+      <c r="A245" s="6">
+        <v>742.0</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C245" s="7">
+        <v>240.0</v>
+      </c>
+      <c r="D245" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E245" s="4"/>
@@ -9177,16 +9185,16 @@
       <c r="Z245" s="4"/>
     </row>
     <row r="246">
-      <c r="A246" s="6">
-        <v>797.0</v>
-      </c>
-      <c r="B246" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C246" s="7">
-        <v>325.0</v>
-      </c>
-      <c r="D246" s="5" t="s">
+      <c r="A246" s="1">
+        <v>744.0</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C246" s="3">
+        <v>270.0</v>
+      </c>
+      <c r="D246" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E246" s="4"/>
@@ -9213,16 +9221,16 @@
       <c r="Z246" s="4"/>
     </row>
     <row r="247">
-      <c r="A247" s="6">
-        <v>799.0</v>
-      </c>
-      <c r="B247" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C247" s="7">
-        <v>310.0</v>
-      </c>
-      <c r="D247" s="5" t="s">
+      <c r="A247" s="1">
+        <v>747.0</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C247" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D247" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E247" s="4"/>
@@ -9249,16 +9257,16 @@
       <c r="Z247" s="4"/>
     </row>
     <row r="248">
-      <c r="A248" s="1">
-        <v>801.0</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C248" s="3">
+      <c r="A248" s="6">
+        <v>748.0</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C248" s="7">
         <v>230.0</v>
       </c>
-      <c r="D248" s="2" t="s">
+      <c r="D248" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E248" s="4"/>
@@ -9285,16 +9293,16 @@
       <c r="Z248" s="4"/>
     </row>
     <row r="249">
-      <c r="A249" s="6">
-        <v>806.0</v>
-      </c>
-      <c r="B249" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C249" s="7">
-        <v>280.0</v>
-      </c>
-      <c r="D249" s="5" t="s">
+      <c r="A249" s="1">
+        <v>749.0</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C249" s="3">
+        <v>335.0</v>
+      </c>
+      <c r="D249" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E249" s="4"/>
@@ -9321,16 +9329,16 @@
       <c r="Z249" s="4"/>
     </row>
     <row r="250">
-      <c r="A250" s="1">
-        <v>809.0</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C250" s="3">
-        <v>270.0</v>
-      </c>
-      <c r="D250" s="2" t="s">
+      <c r="A250" s="6">
+        <v>757.0</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C250" s="7">
+        <v>280.0</v>
+      </c>
+      <c r="D250" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E250" s="4"/>
@@ -9358,13 +9366,13 @@
     </row>
     <row r="251">
       <c r="A251" s="1">
-        <v>811.0</v>
+        <v>758.0</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C251" s="3">
-        <v>260.0</v>
+        <v>295.0</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>3</v>
@@ -9394,13 +9402,13 @@
     </row>
     <row r="252">
       <c r="A252" s="6">
-        <v>813.0</v>
+        <v>761.0</v>
       </c>
       <c r="B252" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C252" s="7">
-        <v>275.0</v>
+        <v>260.0</v>
       </c>
       <c r="D252" s="5" t="s">
         <v>3</v>
@@ -9430,13 +9438,13 @@
     </row>
     <row r="253">
       <c r="A253" s="6">
-        <v>817.0</v>
+        <v>764.0</v>
       </c>
       <c r="B253" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C253" s="7">
-        <v>330.0</v>
+        <v>260.0</v>
       </c>
       <c r="D253" s="5" t="s">
         <v>3</v>
@@ -9466,13 +9474,13 @@
     </row>
     <row r="254">
       <c r="A254" s="1">
-        <v>819.0</v>
+        <v>767.0</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C254" s="3">
-        <v>200.0</v>
+        <v>290.0</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>3</v>
@@ -9501,16 +9509,16 @@
       <c r="Z254" s="4"/>
     </row>
     <row r="255">
-      <c r="A255" s="1">
-        <v>820.0</v>
-      </c>
-      <c r="B255" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C255" s="3">
-        <v>245.0</v>
-      </c>
-      <c r="D255" s="2" t="s">
+      <c r="A255" s="6">
+        <v>772.0</v>
+      </c>
+      <c r="B255" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C255" s="7">
+        <v>240.0</v>
+      </c>
+      <c r="D255" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E255" s="4"/>
@@ -9538,13 +9546,13 @@
     </row>
     <row r="256">
       <c r="A256" s="1">
-        <v>821.0</v>
+        <v>775.0</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C256" s="3">
-        <v>300.0</v>
+        <v>260.0</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>3</v>
@@ -9574,13 +9582,13 @@
     </row>
     <row r="257">
       <c r="A257" s="6">
-        <v>824.0</v>
+        <v>776.0</v>
       </c>
       <c r="B257" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C257" s="7">
-        <v>310.0</v>
+        <v>240.0</v>
       </c>
       <c r="D257" s="5" t="s">
         <v>3</v>
@@ -9609,16 +9617,16 @@
       <c r="Z257" s="4"/>
     </row>
     <row r="258">
-      <c r="A258" s="6">
-        <v>827.0</v>
-      </c>
-      <c r="B258" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C258" s="7">
-        <v>290.0</v>
-      </c>
-      <c r="D258" s="5" t="s">
+      <c r="A258" s="1">
+        <v>777.0</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C258" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D258" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E258" s="4"/>
@@ -9645,16 +9653,16 @@
       <c r="Z258" s="4"/>
     </row>
     <row r="259">
-      <c r="A259" s="6">
-        <v>829.0</v>
-      </c>
-      <c r="B259" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C259" s="7">
-        <v>275.0</v>
-      </c>
-      <c r="D259" s="5" t="s">
+      <c r="A259" s="1">
+        <v>792.0</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C259" s="3">
+        <v>320.0</v>
+      </c>
+      <c r="D259" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E259" s="4"/>
@@ -9682,13 +9690,13 @@
     </row>
     <row r="260">
       <c r="A260" s="6">
-        <v>833.0</v>
+        <v>784.0</v>
       </c>
       <c r="B260" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C260" s="7">
-        <v>235.0</v>
+        <v>270.0</v>
       </c>
       <c r="D260" s="5" t="s">
         <v>3</v>
@@ -9718,13 +9726,13 @@
     </row>
     <row r="261">
       <c r="A261" s="6">
-        <v>834.0</v>
+        <v>786.0</v>
       </c>
       <c r="B261" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C261" s="7">
-        <v>225.0</v>
+        <v>275.0</v>
       </c>
       <c r="D261" s="5" t="s">
         <v>3</v>
@@ -9754,13 +9762,13 @@
     </row>
     <row r="262">
       <c r="A262" s="6">
-        <v>837.0</v>
+        <v>787.0</v>
       </c>
       <c r="B262" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C262" s="7">
-        <v>275.0</v>
+        <v>280.0</v>
       </c>
       <c r="D262" s="5" t="s">
         <v>3</v>
@@ -9790,13 +9798,13 @@
     </row>
     <row r="263">
       <c r="A263" s="6">
-        <v>838.0</v>
+        <v>789.0</v>
       </c>
       <c r="B263" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C263" s="7">
-        <v>295.0</v>
+        <v>265.0</v>
       </c>
       <c r="D263" s="5" t="s">
         <v>3</v>
@@ -9825,16 +9833,16 @@
       <c r="Z263" s="4"/>
     </row>
     <row r="264">
-      <c r="A264" s="6">
-        <v>843.0</v>
-      </c>
-      <c r="B264" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C264" s="7">
-        <v>320.0</v>
-      </c>
-      <c r="D264" s="5" t="s">
+      <c r="A264" s="1">
+        <v>795.0</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C264" s="3">
+        <v>255.0</v>
+      </c>
+      <c r="D264" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E264" s="4"/>
@@ -9862,13 +9870,13 @@
     </row>
     <row r="265">
       <c r="A265" s="6">
-        <v>845.0</v>
+        <v>797.0</v>
       </c>
       <c r="B265" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C265" s="7">
-        <v>235.0</v>
+        <v>325.0</v>
       </c>
       <c r="D265" s="5" t="s">
         <v>3</v>
@@ -9897,16 +9905,16 @@
       <c r="Z265" s="4"/>
     </row>
     <row r="266">
-      <c r="A266" s="1">
-        <v>846.0</v>
-      </c>
-      <c r="B266" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C266" s="3">
-        <v>295.0</v>
-      </c>
-      <c r="D266" s="2" t="s">
+      <c r="A266" s="6">
+        <v>799.0</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C266" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D266" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E266" s="4"/>
@@ -9934,13 +9942,13 @@
     </row>
     <row r="267">
       <c r="A267" s="1">
-        <v>853.0</v>
+        <v>801.0</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C267" s="3">
-        <v>290.0</v>
+        <v>230.0</v>
       </c>
       <c r="D267" s="2" t="s">
         <v>3</v>
@@ -9970,13 +9978,13 @@
     </row>
     <row r="268">
       <c r="A268" s="6">
-        <v>854.0</v>
+        <v>806.0</v>
       </c>
       <c r="B268" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C268" s="7">
-        <v>320.0</v>
+        <v>280.0</v>
       </c>
       <c r="D268" s="5" t="s">
         <v>3</v>
@@ -10006,13 +10014,13 @@
     </row>
     <row r="269">
       <c r="A269" s="1">
-        <v>856.0</v>
+        <v>809.0</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C269" s="3">
-        <v>260.0</v>
+        <v>270.0</v>
       </c>
       <c r="D269" s="2" t="s">
         <v>3</v>
@@ -10041,16 +10049,16 @@
       <c r="Z269" s="4"/>
     </row>
     <row r="270">
-      <c r="A270" s="6">
-        <v>860.0</v>
-      </c>
-      <c r="B270" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C270" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D270" s="5" t="s">
+      <c r="A270" s="1">
+        <v>811.0</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C270" s="3">
+        <v>260.0</v>
+      </c>
+      <c r="D270" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E270" s="4"/>
@@ -10077,16 +10085,16 @@
       <c r="Z270" s="4"/>
     </row>
     <row r="271">
-      <c r="A271" s="1">
-        <v>861.0</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C271" s="3">
-        <v>305.0</v>
-      </c>
-      <c r="D271" s="2" t="s">
+      <c r="A271" s="6">
+        <v>813.0</v>
+      </c>
+      <c r="B271" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C271" s="7">
+        <v>275.0</v>
+      </c>
+      <c r="D271" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E271" s="4"/>
@@ -10113,16 +10121,16 @@
       <c r="Z271" s="4"/>
     </row>
     <row r="272">
-      <c r="A272" s="1">
-        <v>863.0</v>
-      </c>
-      <c r="B272" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C272" s="3">
-        <v>275.0</v>
-      </c>
-      <c r="D272" s="2" t="s">
+      <c r="A272" s="6">
+        <v>817.0</v>
+      </c>
+      <c r="B272" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C272" s="7">
+        <v>330.0</v>
+      </c>
+      <c r="D272" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E272" s="4"/>
@@ -10149,16 +10157,16 @@
       <c r="Z272" s="4"/>
     </row>
     <row r="273">
-      <c r="A273" s="6">
-        <v>865.0</v>
-      </c>
-      <c r="B273" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C273" s="7">
-        <v>270.0</v>
-      </c>
-      <c r="D273" s="5" t="s">
+      <c r="A273" s="1">
+        <v>819.0</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C273" s="3">
+        <v>200.0</v>
+      </c>
+      <c r="D273" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E273" s="4"/>
@@ -10185,16 +10193,16 @@
       <c r="Z273" s="4"/>
     </row>
     <row r="274">
-      <c r="A274" s="6">
-        <v>866.0</v>
-      </c>
-      <c r="B274" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C274" s="7">
-        <v>300.0</v>
-      </c>
-      <c r="D274" s="5" t="s">
+      <c r="A274" s="1">
+        <v>820.0</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C274" s="3">
+        <v>245.0</v>
+      </c>
+      <c r="D274" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E274" s="4"/>
@@ -10222,13 +10230,13 @@
     </row>
     <row r="275">
       <c r="A275" s="1">
-        <v>872.0</v>
+        <v>821.0</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C275" s="3">
-        <v>295.0</v>
+        <v>300.0</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>3</v>
@@ -10258,13 +10266,13 @@
     </row>
     <row r="276">
       <c r="A276" s="6">
-        <v>876.0</v>
+        <v>824.0</v>
       </c>
       <c r="B276" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C276" s="7">
-        <v>250.0</v>
+        <v>310.0</v>
       </c>
       <c r="D276" s="5" t="s">
         <v>3</v>
@@ -10293,16 +10301,16 @@
       <c r="Z276" s="4"/>
     </row>
     <row r="277">
-      <c r="A277" s="1">
-        <v>880.0</v>
-      </c>
-      <c r="B277" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C277" s="3">
-        <v>225.0</v>
-      </c>
-      <c r="D277" s="2" t="s">
+      <c r="A277" s="6">
+        <v>827.0</v>
+      </c>
+      <c r="B277" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C277" s="7">
+        <v>290.0</v>
+      </c>
+      <c r="D277" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E277" s="4"/>
@@ -10330,13 +10338,13 @@
     </row>
     <row r="278">
       <c r="A278" s="6">
-        <v>886.0</v>
+        <v>829.0</v>
       </c>
       <c r="B278" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C278" s="7">
-        <v>230.0</v>
+        <v>275.0</v>
       </c>
       <c r="D278" s="5" t="s">
         <v>3</v>
@@ -10366,13 +10374,13 @@
     </row>
     <row r="279">
       <c r="A279" s="6">
-        <v>887.0</v>
+        <v>833.0</v>
       </c>
       <c r="B279" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C279" s="7">
-        <v>265.0</v>
+        <v>235.0</v>
       </c>
       <c r="D279" s="5" t="s">
         <v>3</v>
@@ -10402,13 +10410,13 @@
     </row>
     <row r="280">
       <c r="A280" s="6">
-        <v>897.0</v>
+        <v>834.0</v>
       </c>
       <c r="B280" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C280" s="7">
-        <v>310.0</v>
+        <v>225.0</v>
       </c>
       <c r="D280" s="5" t="s">
         <v>3</v>
@@ -10437,16 +10445,16 @@
       <c r="Z280" s="4"/>
     </row>
     <row r="281">
-      <c r="A281" s="1">
-        <v>899.0</v>
-      </c>
-      <c r="B281" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C281" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D281" s="2" t="s">
+      <c r="A281" s="6">
+        <v>837.0</v>
+      </c>
+      <c r="B281" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C281" s="7">
+        <v>275.0</v>
+      </c>
+      <c r="D281" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E281" s="4"/>
@@ -10473,16 +10481,16 @@
       <c r="Z281" s="4"/>
     </row>
     <row r="282">
-      <c r="A282" s="1">
-        <v>901.0</v>
-      </c>
-      <c r="B282" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C282" s="3">
-        <v>275.0</v>
-      </c>
-      <c r="D282" s="2" t="s">
+      <c r="A282" s="6">
+        <v>838.0</v>
+      </c>
+      <c r="B282" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C282" s="7">
+        <v>295.0</v>
+      </c>
+      <c r="D282" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E282" s="4"/>
@@ -10510,13 +10518,13 @@
     </row>
     <row r="283">
       <c r="A283" s="6">
-        <v>910.0</v>
+        <v>843.0</v>
       </c>
       <c r="B283" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C283" s="7">
-        <v>330.0</v>
+        <v>320.0</v>
       </c>
       <c r="D283" s="5" t="s">
         <v>3</v>
@@ -10545,14 +10553,14 @@
       <c r="Z283" s="4"/>
     </row>
     <row r="284">
-      <c r="A284" s="1">
-        <v>935.0</v>
-      </c>
-      <c r="B284" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C284" s="3">
-        <v>310.0</v>
+      <c r="A284" s="6">
+        <v>845.0</v>
+      </c>
+      <c r="B284" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C284" s="7">
+        <v>235.0</v>
       </c>
       <c r="D284" s="5" t="s">
         <v>3</v>
@@ -10581,16 +10589,16 @@
       <c r="Z284" s="4"/>
     </row>
     <row r="285">
-      <c r="A285" s="5">
-        <v>1000.0</v>
-      </c>
-      <c r="B285" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C285" s="5">
-        <v>2000.0</v>
-      </c>
-      <c r="D285" s="5" t="s">
+      <c r="A285" s="1">
+        <v>846.0</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C285" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D285" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E285" s="4"/>
@@ -10617,10 +10625,18 @@
       <c r="Z285" s="4"/>
     </row>
     <row r="286">
-      <c r="A286" s="2"/>
-      <c r="B286" s="2"/>
-      <c r="C286" s="2"/>
-      <c r="D286" s="2"/>
+      <c r="A286" s="1">
+        <v>853.0</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C286" s="3">
+        <v>290.0</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E286" s="4"/>
       <c r="F286" s="4"/>
       <c r="G286" s="4"/>
@@ -10645,10 +10661,18 @@
       <c r="Z286" s="4"/>
     </row>
     <row r="287">
-      <c r="A287" s="2"/>
-      <c r="B287" s="2"/>
-      <c r="C287" s="2"/>
-      <c r="D287" s="2"/>
+      <c r="A287" s="6">
+        <v>854.0</v>
+      </c>
+      <c r="B287" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C287" s="7">
+        <v>320.0</v>
+      </c>
+      <c r="D287" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E287" s="4"/>
       <c r="F287" s="4"/>
       <c r="G287" s="4"/>
@@ -10673,10 +10697,18 @@
       <c r="Z287" s="4"/>
     </row>
     <row r="288">
-      <c r="A288" s="2"/>
-      <c r="B288" s="2"/>
-      <c r="C288" s="2"/>
-      <c r="D288" s="2"/>
+      <c r="A288" s="1">
+        <v>856.0</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C288" s="3">
+        <v>260.0</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E288" s="4"/>
       <c r="F288" s="4"/>
       <c r="G288" s="4"/>
@@ -10701,10 +10733,18 @@
       <c r="Z288" s="4"/>
     </row>
     <row r="289">
-      <c r="A289" s="2"/>
-      <c r="B289" s="2"/>
-      <c r="C289" s="2"/>
-      <c r="D289" s="2"/>
+      <c r="A289" s="6">
+        <v>860.0</v>
+      </c>
+      <c r="B289" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C289" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D289" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E289" s="4"/>
       <c r="F289" s="4"/>
       <c r="G289" s="4"/>
@@ -10729,10 +10769,18 @@
       <c r="Z289" s="4"/>
     </row>
     <row r="290">
-      <c r="A290" s="2"/>
-      <c r="B290" s="2"/>
-      <c r="C290" s="2"/>
-      <c r="D290" s="2"/>
+      <c r="A290" s="1">
+        <v>861.0</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C290" s="3">
+        <v>305.0</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E290" s="4"/>
       <c r="F290" s="4"/>
       <c r="G290" s="4"/>
@@ -10757,10 +10805,18 @@
       <c r="Z290" s="4"/>
     </row>
     <row r="291">
-      <c r="A291" s="2"/>
-      <c r="B291" s="2"/>
-      <c r="C291" s="2"/>
-      <c r="D291" s="2"/>
+      <c r="A291" s="1">
+        <v>863.0</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C291" s="3">
+        <v>275.0</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E291" s="4"/>
       <c r="F291" s="4"/>
       <c r="G291" s="4"/>
@@ -10785,10 +10841,18 @@
       <c r="Z291" s="4"/>
     </row>
     <row r="292">
-      <c r="A292" s="2"/>
-      <c r="B292" s="2"/>
-      <c r="C292" s="2"/>
-      <c r="D292" s="2"/>
+      <c r="A292" s="6">
+        <v>865.0</v>
+      </c>
+      <c r="B292" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C292" s="7">
+        <v>270.0</v>
+      </c>
+      <c r="D292" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E292" s="4"/>
       <c r="F292" s="4"/>
       <c r="G292" s="4"/>
@@ -10813,10 +10877,18 @@
       <c r="Z292" s="4"/>
     </row>
     <row r="293">
-      <c r="A293" s="2"/>
-      <c r="B293" s="2"/>
-      <c r="C293" s="2"/>
-      <c r="D293" s="2"/>
+      <c r="A293" s="6">
+        <v>866.0</v>
+      </c>
+      <c r="B293" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C293" s="7">
+        <v>300.0</v>
+      </c>
+      <c r="D293" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E293" s="4"/>
       <c r="F293" s="4"/>
       <c r="G293" s="4"/>
@@ -10841,10 +10913,18 @@
       <c r="Z293" s="4"/>
     </row>
     <row r="294">
-      <c r="A294" s="2"/>
-      <c r="B294" s="2"/>
-      <c r="C294" s="2"/>
-      <c r="D294" s="2"/>
+      <c r="A294" s="1">
+        <v>872.0</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C294" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E294" s="4"/>
       <c r="F294" s="4"/>
       <c r="G294" s="4"/>
@@ -10869,10 +10949,18 @@
       <c r="Z294" s="4"/>
     </row>
     <row r="295">
-      <c r="A295" s="2"/>
-      <c r="B295" s="2"/>
-      <c r="C295" s="2"/>
-      <c r="D295" s="2"/>
+      <c r="A295" s="6">
+        <v>876.0</v>
+      </c>
+      <c r="B295" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C295" s="7">
+        <v>250.0</v>
+      </c>
+      <c r="D295" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E295" s="4"/>
       <c r="F295" s="4"/>
       <c r="G295" s="4"/>
@@ -10897,10 +10985,18 @@
       <c r="Z295" s="4"/>
     </row>
     <row r="296">
-      <c r="A296" s="2"/>
-      <c r="B296" s="2"/>
-      <c r="C296" s="2"/>
-      <c r="D296" s="2"/>
+      <c r="A296" s="1">
+        <v>880.0</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C296" s="3">
+        <v>225.0</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E296" s="4"/>
       <c r="F296" s="4"/>
       <c r="G296" s="4"/>
@@ -10925,10 +11021,18 @@
       <c r="Z296" s="4"/>
     </row>
     <row r="297">
-      <c r="A297" s="2"/>
-      <c r="B297" s="2"/>
-      <c r="C297" s="2"/>
-      <c r="D297" s="2"/>
+      <c r="A297" s="6">
+        <v>882.0</v>
+      </c>
+      <c r="B297" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C297" s="7">
+        <v>240.0</v>
+      </c>
+      <c r="D297" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E297" s="4"/>
       <c r="F297" s="4"/>
       <c r="G297" s="4"/>
@@ -10953,10 +11057,18 @@
       <c r="Z297" s="4"/>
     </row>
     <row r="298">
-      <c r="A298" s="2"/>
-      <c r="B298" s="2"/>
-      <c r="C298" s="2"/>
-      <c r="D298" s="2"/>
+      <c r="A298" s="6">
+        <v>886.0</v>
+      </c>
+      <c r="B298" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C298" s="7">
+        <v>230.0</v>
+      </c>
+      <c r="D298" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E298" s="4"/>
       <c r="F298" s="4"/>
       <c r="G298" s="4"/>
@@ -10981,10 +11093,18 @@
       <c r="Z298" s="4"/>
     </row>
     <row r="299">
-      <c r="A299" s="2"/>
-      <c r="B299" s="2"/>
-      <c r="C299" s="2"/>
-      <c r="D299" s="2"/>
+      <c r="A299" s="6">
+        <v>887.0</v>
+      </c>
+      <c r="B299" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C299" s="7">
+        <v>265.0</v>
+      </c>
+      <c r="D299" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E299" s="4"/>
       <c r="F299" s="4"/>
       <c r="G299" s="4"/>
@@ -11009,10 +11129,18 @@
       <c r="Z299" s="4"/>
     </row>
     <row r="300">
-      <c r="A300" s="2"/>
-      <c r="B300" s="2"/>
-      <c r="C300" s="2"/>
-      <c r="D300" s="2"/>
+      <c r="A300" s="6">
+        <v>897.0</v>
+      </c>
+      <c r="B300" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C300" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D300" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E300" s="4"/>
       <c r="F300" s="4"/>
       <c r="G300" s="4"/>
@@ -11037,10 +11165,18 @@
       <c r="Z300" s="4"/>
     </row>
     <row r="301">
-      <c r="A301" s="2"/>
-      <c r="B301" s="2"/>
-      <c r="C301" s="2"/>
-      <c r="D301" s="2"/>
+      <c r="A301" s="1">
+        <v>899.0</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C301" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E301" s="4"/>
       <c r="F301" s="4"/>
       <c r="G301" s="4"/>
@@ -11065,10 +11201,18 @@
       <c r="Z301" s="4"/>
     </row>
     <row r="302">
-      <c r="A302" s="2"/>
-      <c r="B302" s="2"/>
-      <c r="C302" s="2"/>
-      <c r="D302" s="2"/>
+      <c r="A302" s="1">
+        <v>901.0</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C302" s="3">
+        <v>275.0</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E302" s="4"/>
       <c r="F302" s="4"/>
       <c r="G302" s="4"/>
@@ -11093,10 +11237,18 @@
       <c r="Z302" s="4"/>
     </row>
     <row r="303">
-      <c r="A303" s="2"/>
-      <c r="B303" s="2"/>
-      <c r="C303" s="2"/>
-      <c r="D303" s="2"/>
+      <c r="A303" s="6">
+        <v>910.0</v>
+      </c>
+      <c r="B303" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C303" s="7">
+        <v>330.0</v>
+      </c>
+      <c r="D303" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E303" s="4"/>
       <c r="F303" s="4"/>
       <c r="G303" s="4"/>
@@ -11121,10 +11273,18 @@
       <c r="Z303" s="4"/>
     </row>
     <row r="304">
-      <c r="A304" s="2"/>
-      <c r="B304" s="2"/>
-      <c r="C304" s="2"/>
-      <c r="D304" s="2"/>
+      <c r="A304" s="1">
+        <v>935.0</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C304" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D304" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E304" s="4"/>
       <c r="F304" s="4"/>
       <c r="G304" s="4"/>
@@ -11149,10 +11309,18 @@
       <c r="Z304" s="4"/>
     </row>
     <row r="305">
-      <c r="A305" s="2"/>
-      <c r="B305" s="2"/>
-      <c r="C305" s="2"/>
-      <c r="D305" s="2"/>
+      <c r="A305" s="6">
+        <v>948.0</v>
+      </c>
+      <c r="B305" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C305" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D305" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E305" s="4"/>
       <c r="F305" s="4"/>
       <c r="G305" s="4"/>
@@ -11177,10 +11345,18 @@
       <c r="Z305" s="4"/>
     </row>
     <row r="306">
-      <c r="A306" s="2"/>
-      <c r="B306" s="2"/>
-      <c r="C306" s="2"/>
-      <c r="D306" s="2"/>
+      <c r="A306" s="6">
+        <v>949.0</v>
+      </c>
+      <c r="B306" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C306" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D306" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E306" s="4"/>
       <c r="F306" s="4"/>
       <c r="G306" s="4"/>
@@ -11205,10 +11381,18 @@
       <c r="Z306" s="4"/>
     </row>
     <row r="307">
-      <c r="A307" s="2"/>
-      <c r="B307" s="2"/>
-      <c r="C307" s="2"/>
-      <c r="D307" s="2"/>
+      <c r="A307" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="B307" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C307" s="5">
+        <v>2000.0</v>
+      </c>
+      <c r="D307" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E307" s="4"/>
       <c r="F307" s="4"/>
       <c r="G307" s="4"/>
@@ -34753,10 +34937,10 @@
       <c r="Z1147" s="4"/>
     </row>
     <row r="1148">
-      <c r="A1148" s="4"/>
-      <c r="B1148" s="4"/>
-      <c r="C1148" s="4"/>
-      <c r="D1148" s="4"/>
+      <c r="A1148" s="2"/>
+      <c r="B1148" s="2"/>
+      <c r="C1148" s="2"/>
+      <c r="D1148" s="2"/>
       <c r="E1148" s="4"/>
       <c r="F1148" s="4"/>
       <c r="G1148" s="4"/>
@@ -34780,6 +34964,622 @@
       <c r="Y1148" s="4"/>
       <c r="Z1148" s="4"/>
     </row>
+    <row r="1149">
+      <c r="A1149" s="2"/>
+      <c r="B1149" s="2"/>
+      <c r="C1149" s="2"/>
+      <c r="D1149" s="2"/>
+      <c r="E1149" s="4"/>
+      <c r="F1149" s="4"/>
+      <c r="G1149" s="4"/>
+      <c r="H1149" s="4"/>
+      <c r="I1149" s="4"/>
+      <c r="J1149" s="4"/>
+      <c r="K1149" s="4"/>
+      <c r="L1149" s="4"/>
+      <c r="M1149" s="4"/>
+      <c r="N1149" s="4"/>
+      <c r="O1149" s="4"/>
+      <c r="P1149" s="4"/>
+      <c r="Q1149" s="4"/>
+      <c r="R1149" s="4"/>
+      <c r="S1149" s="4"/>
+      <c r="T1149" s="4"/>
+      <c r="U1149" s="4"/>
+      <c r="V1149" s="4"/>
+      <c r="W1149" s="4"/>
+      <c r="X1149" s="4"/>
+      <c r="Y1149" s="4"/>
+      <c r="Z1149" s="4"/>
+    </row>
+    <row r="1150">
+      <c r="A1150" s="2"/>
+      <c r="B1150" s="2"/>
+      <c r="C1150" s="2"/>
+      <c r="D1150" s="2"/>
+      <c r="E1150" s="4"/>
+      <c r="F1150" s="4"/>
+      <c r="G1150" s="4"/>
+      <c r="H1150" s="4"/>
+      <c r="I1150" s="4"/>
+      <c r="J1150" s="4"/>
+      <c r="K1150" s="4"/>
+      <c r="L1150" s="4"/>
+      <c r="M1150" s="4"/>
+      <c r="N1150" s="4"/>
+      <c r="O1150" s="4"/>
+      <c r="P1150" s="4"/>
+      <c r="Q1150" s="4"/>
+      <c r="R1150" s="4"/>
+      <c r="S1150" s="4"/>
+      <c r="T1150" s="4"/>
+      <c r="U1150" s="4"/>
+      <c r="V1150" s="4"/>
+      <c r="W1150" s="4"/>
+      <c r="X1150" s="4"/>
+      <c r="Y1150" s="4"/>
+      <c r="Z1150" s="4"/>
+    </row>
+    <row r="1151">
+      <c r="A1151" s="2"/>
+      <c r="B1151" s="2"/>
+      <c r="C1151" s="2"/>
+      <c r="D1151" s="2"/>
+      <c r="E1151" s="4"/>
+      <c r="F1151" s="4"/>
+      <c r="G1151" s="4"/>
+      <c r="H1151" s="4"/>
+      <c r="I1151" s="4"/>
+      <c r="J1151" s="4"/>
+      <c r="K1151" s="4"/>
+      <c r="L1151" s="4"/>
+      <c r="M1151" s="4"/>
+      <c r="N1151" s="4"/>
+      <c r="O1151" s="4"/>
+      <c r="P1151" s="4"/>
+      <c r="Q1151" s="4"/>
+      <c r="R1151" s="4"/>
+      <c r="S1151" s="4"/>
+      <c r="T1151" s="4"/>
+      <c r="U1151" s="4"/>
+      <c r="V1151" s="4"/>
+      <c r="W1151" s="4"/>
+      <c r="X1151" s="4"/>
+      <c r="Y1151" s="4"/>
+      <c r="Z1151" s="4"/>
+    </row>
+    <row r="1152">
+      <c r="A1152" s="2"/>
+      <c r="B1152" s="2"/>
+      <c r="C1152" s="2"/>
+      <c r="D1152" s="2"/>
+      <c r="E1152" s="4"/>
+      <c r="F1152" s="4"/>
+      <c r="G1152" s="4"/>
+      <c r="H1152" s="4"/>
+      <c r="I1152" s="4"/>
+      <c r="J1152" s="4"/>
+      <c r="K1152" s="4"/>
+      <c r="L1152" s="4"/>
+      <c r="M1152" s="4"/>
+      <c r="N1152" s="4"/>
+      <c r="O1152" s="4"/>
+      <c r="P1152" s="4"/>
+      <c r="Q1152" s="4"/>
+      <c r="R1152" s="4"/>
+      <c r="S1152" s="4"/>
+      <c r="T1152" s="4"/>
+      <c r="U1152" s="4"/>
+      <c r="V1152" s="4"/>
+      <c r="W1152" s="4"/>
+      <c r="X1152" s="4"/>
+      <c r="Y1152" s="4"/>
+      <c r="Z1152" s="4"/>
+    </row>
+    <row r="1153">
+      <c r="A1153" s="2"/>
+      <c r="B1153" s="2"/>
+      <c r="C1153" s="2"/>
+      <c r="D1153" s="2"/>
+      <c r="E1153" s="4"/>
+      <c r="F1153" s="4"/>
+      <c r="G1153" s="4"/>
+      <c r="H1153" s="4"/>
+      <c r="I1153" s="4"/>
+      <c r="J1153" s="4"/>
+      <c r="K1153" s="4"/>
+      <c r="L1153" s="4"/>
+      <c r="M1153" s="4"/>
+      <c r="N1153" s="4"/>
+      <c r="O1153" s="4"/>
+      <c r="P1153" s="4"/>
+      <c r="Q1153" s="4"/>
+      <c r="R1153" s="4"/>
+      <c r="S1153" s="4"/>
+      <c r="T1153" s="4"/>
+      <c r="U1153" s="4"/>
+      <c r="V1153" s="4"/>
+      <c r="W1153" s="4"/>
+      <c r="X1153" s="4"/>
+      <c r="Y1153" s="4"/>
+      <c r="Z1153" s="4"/>
+    </row>
+    <row r="1154">
+      <c r="A1154" s="2"/>
+      <c r="B1154" s="2"/>
+      <c r="C1154" s="2"/>
+      <c r="D1154" s="2"/>
+      <c r="E1154" s="4"/>
+      <c r="F1154" s="4"/>
+      <c r="G1154" s="4"/>
+      <c r="H1154" s="4"/>
+      <c r="I1154" s="4"/>
+      <c r="J1154" s="4"/>
+      <c r="K1154" s="4"/>
+      <c r="L1154" s="4"/>
+      <c r="M1154" s="4"/>
+      <c r="N1154" s="4"/>
+      <c r="O1154" s="4"/>
+      <c r="P1154" s="4"/>
+      <c r="Q1154" s="4"/>
+      <c r="R1154" s="4"/>
+      <c r="S1154" s="4"/>
+      <c r="T1154" s="4"/>
+      <c r="U1154" s="4"/>
+      <c r="V1154" s="4"/>
+      <c r="W1154" s="4"/>
+      <c r="X1154" s="4"/>
+      <c r="Y1154" s="4"/>
+      <c r="Z1154" s="4"/>
+    </row>
+    <row r="1155">
+      <c r="A1155" s="2"/>
+      <c r="B1155" s="2"/>
+      <c r="C1155" s="2"/>
+      <c r="D1155" s="2"/>
+      <c r="E1155" s="4"/>
+      <c r="F1155" s="4"/>
+      <c r="G1155" s="4"/>
+      <c r="H1155" s="4"/>
+      <c r="I1155" s="4"/>
+      <c r="J1155" s="4"/>
+      <c r="K1155" s="4"/>
+      <c r="L1155" s="4"/>
+      <c r="M1155" s="4"/>
+      <c r="N1155" s="4"/>
+      <c r="O1155" s="4"/>
+      <c r="P1155" s="4"/>
+      <c r="Q1155" s="4"/>
+      <c r="R1155" s="4"/>
+      <c r="S1155" s="4"/>
+      <c r="T1155" s="4"/>
+      <c r="U1155" s="4"/>
+      <c r="V1155" s="4"/>
+      <c r="W1155" s="4"/>
+      <c r="X1155" s="4"/>
+      <c r="Y1155" s="4"/>
+      <c r="Z1155" s="4"/>
+    </row>
+    <row r="1156">
+      <c r="A1156" s="2"/>
+      <c r="B1156" s="2"/>
+      <c r="C1156" s="2"/>
+      <c r="D1156" s="2"/>
+      <c r="E1156" s="4"/>
+      <c r="F1156" s="4"/>
+      <c r="G1156" s="4"/>
+      <c r="H1156" s="4"/>
+      <c r="I1156" s="4"/>
+      <c r="J1156" s="4"/>
+      <c r="K1156" s="4"/>
+      <c r="L1156" s="4"/>
+      <c r="M1156" s="4"/>
+      <c r="N1156" s="4"/>
+      <c r="O1156" s="4"/>
+      <c r="P1156" s="4"/>
+      <c r="Q1156" s="4"/>
+      <c r="R1156" s="4"/>
+      <c r="S1156" s="4"/>
+      <c r="T1156" s="4"/>
+      <c r="U1156" s="4"/>
+      <c r="V1156" s="4"/>
+      <c r="W1156" s="4"/>
+      <c r="X1156" s="4"/>
+      <c r="Y1156" s="4"/>
+      <c r="Z1156" s="4"/>
+    </row>
+    <row r="1157">
+      <c r="A1157" s="2"/>
+      <c r="B1157" s="2"/>
+      <c r="C1157" s="2"/>
+      <c r="D1157" s="2"/>
+      <c r="E1157" s="4"/>
+      <c r="F1157" s="4"/>
+      <c r="G1157" s="4"/>
+      <c r="H1157" s="4"/>
+      <c r="I1157" s="4"/>
+      <c r="J1157" s="4"/>
+      <c r="K1157" s="4"/>
+      <c r="L1157" s="4"/>
+      <c r="M1157" s="4"/>
+      <c r="N1157" s="4"/>
+      <c r="O1157" s="4"/>
+      <c r="P1157" s="4"/>
+      <c r="Q1157" s="4"/>
+      <c r="R1157" s="4"/>
+      <c r="S1157" s="4"/>
+      <c r="T1157" s="4"/>
+      <c r="U1157" s="4"/>
+      <c r="V1157" s="4"/>
+      <c r="W1157" s="4"/>
+      <c r="X1157" s="4"/>
+      <c r="Y1157" s="4"/>
+      <c r="Z1157" s="4"/>
+    </row>
+    <row r="1158">
+      <c r="A1158" s="2"/>
+      <c r="B1158" s="2"/>
+      <c r="C1158" s="2"/>
+      <c r="D1158" s="2"/>
+      <c r="E1158" s="4"/>
+      <c r="F1158" s="4"/>
+      <c r="G1158" s="4"/>
+      <c r="H1158" s="4"/>
+      <c r="I1158" s="4"/>
+      <c r="J1158" s="4"/>
+      <c r="K1158" s="4"/>
+      <c r="L1158" s="4"/>
+      <c r="M1158" s="4"/>
+      <c r="N1158" s="4"/>
+      <c r="O1158" s="4"/>
+      <c r="P1158" s="4"/>
+      <c r="Q1158" s="4"/>
+      <c r="R1158" s="4"/>
+      <c r="S1158" s="4"/>
+      <c r="T1158" s="4"/>
+      <c r="U1158" s="4"/>
+      <c r="V1158" s="4"/>
+      <c r="W1158" s="4"/>
+      <c r="X1158" s="4"/>
+      <c r="Y1158" s="4"/>
+      <c r="Z1158" s="4"/>
+    </row>
+    <row r="1159">
+      <c r="A1159" s="2"/>
+      <c r="B1159" s="2"/>
+      <c r="C1159" s="2"/>
+      <c r="D1159" s="2"/>
+      <c r="E1159" s="4"/>
+      <c r="F1159" s="4"/>
+      <c r="G1159" s="4"/>
+      <c r="H1159" s="4"/>
+      <c r="I1159" s="4"/>
+      <c r="J1159" s="4"/>
+      <c r="K1159" s="4"/>
+      <c r="L1159" s="4"/>
+      <c r="M1159" s="4"/>
+      <c r="N1159" s="4"/>
+      <c r="O1159" s="4"/>
+      <c r="P1159" s="4"/>
+      <c r="Q1159" s="4"/>
+      <c r="R1159" s="4"/>
+      <c r="S1159" s="4"/>
+      <c r="T1159" s="4"/>
+      <c r="U1159" s="4"/>
+      <c r="V1159" s="4"/>
+      <c r="W1159" s="4"/>
+      <c r="X1159" s="4"/>
+      <c r="Y1159" s="4"/>
+      <c r="Z1159" s="4"/>
+    </row>
+    <row r="1160">
+      <c r="A1160" s="2"/>
+      <c r="B1160" s="2"/>
+      <c r="C1160" s="2"/>
+      <c r="D1160" s="2"/>
+      <c r="E1160" s="4"/>
+      <c r="F1160" s="4"/>
+      <c r="G1160" s="4"/>
+      <c r="H1160" s="4"/>
+      <c r="I1160" s="4"/>
+      <c r="J1160" s="4"/>
+      <c r="K1160" s="4"/>
+      <c r="L1160" s="4"/>
+      <c r="M1160" s="4"/>
+      <c r="N1160" s="4"/>
+      <c r="O1160" s="4"/>
+      <c r="P1160" s="4"/>
+      <c r="Q1160" s="4"/>
+      <c r="R1160" s="4"/>
+      <c r="S1160" s="4"/>
+      <c r="T1160" s="4"/>
+      <c r="U1160" s="4"/>
+      <c r="V1160" s="4"/>
+      <c r="W1160" s="4"/>
+      <c r="X1160" s="4"/>
+      <c r="Y1160" s="4"/>
+      <c r="Z1160" s="4"/>
+    </row>
+    <row r="1161">
+      <c r="A1161" s="2"/>
+      <c r="B1161" s="2"/>
+      <c r="C1161" s="2"/>
+      <c r="D1161" s="2"/>
+      <c r="E1161" s="4"/>
+      <c r="F1161" s="4"/>
+      <c r="G1161" s="4"/>
+      <c r="H1161" s="4"/>
+      <c r="I1161" s="4"/>
+      <c r="J1161" s="4"/>
+      <c r="K1161" s="4"/>
+      <c r="L1161" s="4"/>
+      <c r="M1161" s="4"/>
+      <c r="N1161" s="4"/>
+      <c r="O1161" s="4"/>
+      <c r="P1161" s="4"/>
+      <c r="Q1161" s="4"/>
+      <c r="R1161" s="4"/>
+      <c r="S1161" s="4"/>
+      <c r="T1161" s="4"/>
+      <c r="U1161" s="4"/>
+      <c r="V1161" s="4"/>
+      <c r="W1161" s="4"/>
+      <c r="X1161" s="4"/>
+      <c r="Y1161" s="4"/>
+      <c r="Z1161" s="4"/>
+    </row>
+    <row r="1162">
+      <c r="A1162" s="2"/>
+      <c r="B1162" s="2"/>
+      <c r="C1162" s="2"/>
+      <c r="D1162" s="2"/>
+      <c r="E1162" s="4"/>
+      <c r="F1162" s="4"/>
+      <c r="G1162" s="4"/>
+      <c r="H1162" s="4"/>
+      <c r="I1162" s="4"/>
+      <c r="J1162" s="4"/>
+      <c r="K1162" s="4"/>
+      <c r="L1162" s="4"/>
+      <c r="M1162" s="4"/>
+      <c r="N1162" s="4"/>
+      <c r="O1162" s="4"/>
+      <c r="P1162" s="4"/>
+      <c r="Q1162" s="4"/>
+      <c r="R1162" s="4"/>
+      <c r="S1162" s="4"/>
+      <c r="T1162" s="4"/>
+      <c r="U1162" s="4"/>
+      <c r="V1162" s="4"/>
+      <c r="W1162" s="4"/>
+      <c r="X1162" s="4"/>
+      <c r="Y1162" s="4"/>
+      <c r="Z1162" s="4"/>
+    </row>
+    <row r="1163">
+      <c r="A1163" s="2"/>
+      <c r="B1163" s="2"/>
+      <c r="C1163" s="2"/>
+      <c r="D1163" s="2"/>
+      <c r="E1163" s="4"/>
+      <c r="F1163" s="4"/>
+      <c r="G1163" s="4"/>
+      <c r="H1163" s="4"/>
+      <c r="I1163" s="4"/>
+      <c r="J1163" s="4"/>
+      <c r="K1163" s="4"/>
+      <c r="L1163" s="4"/>
+      <c r="M1163" s="4"/>
+      <c r="N1163" s="4"/>
+      <c r="O1163" s="4"/>
+      <c r="P1163" s="4"/>
+      <c r="Q1163" s="4"/>
+      <c r="R1163" s="4"/>
+      <c r="S1163" s="4"/>
+      <c r="T1163" s="4"/>
+      <c r="U1163" s="4"/>
+      <c r="V1163" s="4"/>
+      <c r="W1163" s="4"/>
+      <c r="X1163" s="4"/>
+      <c r="Y1163" s="4"/>
+      <c r="Z1163" s="4"/>
+    </row>
+    <row r="1164">
+      <c r="A1164" s="2"/>
+      <c r="B1164" s="2"/>
+      <c r="C1164" s="2"/>
+      <c r="D1164" s="2"/>
+      <c r="E1164" s="4"/>
+      <c r="F1164" s="4"/>
+      <c r="G1164" s="4"/>
+      <c r="H1164" s="4"/>
+      <c r="I1164" s="4"/>
+      <c r="J1164" s="4"/>
+      <c r="K1164" s="4"/>
+      <c r="L1164" s="4"/>
+      <c r="M1164" s="4"/>
+      <c r="N1164" s="4"/>
+      <c r="O1164" s="4"/>
+      <c r="P1164" s="4"/>
+      <c r="Q1164" s="4"/>
+      <c r="R1164" s="4"/>
+      <c r="S1164" s="4"/>
+      <c r="T1164" s="4"/>
+      <c r="U1164" s="4"/>
+      <c r="V1164" s="4"/>
+      <c r="W1164" s="4"/>
+      <c r="X1164" s="4"/>
+      <c r="Y1164" s="4"/>
+      <c r="Z1164" s="4"/>
+    </row>
+    <row r="1165">
+      <c r="A1165" s="2"/>
+      <c r="B1165" s="2"/>
+      <c r="C1165" s="2"/>
+      <c r="D1165" s="2"/>
+      <c r="E1165" s="4"/>
+      <c r="F1165" s="4"/>
+      <c r="G1165" s="4"/>
+      <c r="H1165" s="4"/>
+      <c r="I1165" s="4"/>
+      <c r="J1165" s="4"/>
+      <c r="K1165" s="4"/>
+      <c r="L1165" s="4"/>
+      <c r="M1165" s="4"/>
+      <c r="N1165" s="4"/>
+      <c r="O1165" s="4"/>
+      <c r="P1165" s="4"/>
+      <c r="Q1165" s="4"/>
+      <c r="R1165" s="4"/>
+      <c r="S1165" s="4"/>
+      <c r="T1165" s="4"/>
+      <c r="U1165" s="4"/>
+      <c r="V1165" s="4"/>
+      <c r="W1165" s="4"/>
+      <c r="X1165" s="4"/>
+      <c r="Y1165" s="4"/>
+      <c r="Z1165" s="4"/>
+    </row>
+    <row r="1166">
+      <c r="A1166" s="2"/>
+      <c r="B1166" s="2"/>
+      <c r="C1166" s="2"/>
+      <c r="D1166" s="2"/>
+      <c r="E1166" s="4"/>
+      <c r="F1166" s="4"/>
+      <c r="G1166" s="4"/>
+      <c r="H1166" s="4"/>
+      <c r="I1166" s="4"/>
+      <c r="J1166" s="4"/>
+      <c r="K1166" s="4"/>
+      <c r="L1166" s="4"/>
+      <c r="M1166" s="4"/>
+      <c r="N1166" s="4"/>
+      <c r="O1166" s="4"/>
+      <c r="P1166" s="4"/>
+      <c r="Q1166" s="4"/>
+      <c r="R1166" s="4"/>
+      <c r="S1166" s="4"/>
+      <c r="T1166" s="4"/>
+      <c r="U1166" s="4"/>
+      <c r="V1166" s="4"/>
+      <c r="W1166" s="4"/>
+      <c r="X1166" s="4"/>
+      <c r="Y1166" s="4"/>
+      <c r="Z1166" s="4"/>
+    </row>
+    <row r="1167">
+      <c r="A1167" s="2"/>
+      <c r="B1167" s="2"/>
+      <c r="C1167" s="2"/>
+      <c r="D1167" s="2"/>
+      <c r="E1167" s="4"/>
+      <c r="F1167" s="4"/>
+      <c r="G1167" s="4"/>
+      <c r="H1167" s="4"/>
+      <c r="I1167" s="4"/>
+      <c r="J1167" s="4"/>
+      <c r="K1167" s="4"/>
+      <c r="L1167" s="4"/>
+      <c r="M1167" s="4"/>
+      <c r="N1167" s="4"/>
+      <c r="O1167" s="4"/>
+      <c r="P1167" s="4"/>
+      <c r="Q1167" s="4"/>
+      <c r="R1167" s="4"/>
+      <c r="S1167" s="4"/>
+      <c r="T1167" s="4"/>
+      <c r="U1167" s="4"/>
+      <c r="V1167" s="4"/>
+      <c r="W1167" s="4"/>
+      <c r="X1167" s="4"/>
+      <c r="Y1167" s="4"/>
+      <c r="Z1167" s="4"/>
+    </row>
+    <row r="1168">
+      <c r="A1168" s="2"/>
+      <c r="B1168" s="2"/>
+      <c r="C1168" s="2"/>
+      <c r="D1168" s="2"/>
+      <c r="E1168" s="4"/>
+      <c r="F1168" s="4"/>
+      <c r="G1168" s="4"/>
+      <c r="H1168" s="4"/>
+      <c r="I1168" s="4"/>
+      <c r="J1168" s="4"/>
+      <c r="K1168" s="4"/>
+      <c r="L1168" s="4"/>
+      <c r="M1168" s="4"/>
+      <c r="N1168" s="4"/>
+      <c r="O1168" s="4"/>
+      <c r="P1168" s="4"/>
+      <c r="Q1168" s="4"/>
+      <c r="R1168" s="4"/>
+      <c r="S1168" s="4"/>
+      <c r="T1168" s="4"/>
+      <c r="U1168" s="4"/>
+      <c r="V1168" s="4"/>
+      <c r="W1168" s="4"/>
+      <c r="X1168" s="4"/>
+      <c r="Y1168" s="4"/>
+      <c r="Z1168" s="4"/>
+    </row>
+    <row r="1169">
+      <c r="A1169" s="2"/>
+      <c r="B1169" s="2"/>
+      <c r="C1169" s="2"/>
+      <c r="D1169" s="2"/>
+      <c r="E1169" s="4"/>
+      <c r="F1169" s="4"/>
+      <c r="G1169" s="4"/>
+      <c r="H1169" s="4"/>
+      <c r="I1169" s="4"/>
+      <c r="J1169" s="4"/>
+      <c r="K1169" s="4"/>
+      <c r="L1169" s="4"/>
+      <c r="M1169" s="4"/>
+      <c r="N1169" s="4"/>
+      <c r="O1169" s="4"/>
+      <c r="P1169" s="4"/>
+      <c r="Q1169" s="4"/>
+      <c r="R1169" s="4"/>
+      <c r="S1169" s="4"/>
+      <c r="T1169" s="4"/>
+      <c r="U1169" s="4"/>
+      <c r="V1169" s="4"/>
+      <c r="W1169" s="4"/>
+      <c r="X1169" s="4"/>
+      <c r="Y1169" s="4"/>
+      <c r="Z1169" s="4"/>
+    </row>
+    <row r="1170">
+      <c r="A1170" s="4"/>
+      <c r="B1170" s="4"/>
+      <c r="C1170" s="4"/>
+      <c r="D1170" s="4"/>
+      <c r="E1170" s="4"/>
+      <c r="F1170" s="4"/>
+      <c r="G1170" s="4"/>
+      <c r="H1170" s="4"/>
+      <c r="I1170" s="4"/>
+      <c r="J1170" s="4"/>
+      <c r="K1170" s="4"/>
+      <c r="L1170" s="4"/>
+      <c r="M1170" s="4"/>
+      <c r="N1170" s="4"/>
+      <c r="O1170" s="4"/>
+      <c r="P1170" s="4"/>
+      <c r="Q1170" s="4"/>
+      <c r="R1170" s="4"/>
+      <c r="S1170" s="4"/>
+      <c r="T1170" s="4"/>
+      <c r="U1170" s="4"/>
+      <c r="V1170" s="4"/>
+      <c r="W1170" s="4"/>
+      <c r="X1170" s="4"/>
+      <c r="Y1170" s="4"/>
+      <c r="Z1170" s="4"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/hauteur site.xlsx
+++ b/hauteur site.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="20">
   <si>
     <t>code_pneu</t>
   </si>
@@ -40,10 +40,19 @@
     <t>voir 35/2</t>
   </si>
   <si>
+    <t>280?</t>
+  </si>
+  <si>
+    <t>255-</t>
+  </si>
+  <si>
+    <t>270-280</t>
+  </si>
+  <si>
     <t>275?</t>
   </si>
   <si>
-    <t>280?</t>
+    <t>270?</t>
   </si>
   <si>
     <t>265?</t>
@@ -52,10 +61,13 @@
     <t>280-</t>
   </si>
   <si>
-    <t>270?</t>
+    <t>---5/5</t>
   </si>
   <si>
-    <t>---28/3</t>
+    <t>250-270</t>
+  </si>
+  <si>
+    <t>280-290</t>
   </si>
   <si>
     <t>315?</t>
@@ -119,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -146,9 +158,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
@@ -628,13 +637,13 @@
     </row>
     <row r="8">
       <c r="A8" s="6">
-        <v>38.0</v>
+        <v>32.0</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>280.0</v>
+        <v>255.0</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>3</v>
@@ -663,16 +672,16 @@
       <c r="Z8" s="4"/>
     </row>
     <row r="9">
-      <c r="A9" s="1">
-        <v>44.0</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="3">
-        <v>295.0</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="A9" s="6">
+        <v>38.0</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>280.0</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="4"/>
@@ -699,16 +708,16 @@
       <c r="Z9" s="4"/>
     </row>
     <row r="10">
-      <c r="A10" s="6">
-        <v>45.0</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="A10" s="1">
+        <v>44.0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E10" s="4"/>
@@ -736,12 +745,14 @@
     </row>
     <row r="11">
       <c r="A11" s="6">
-        <v>47.0</v>
+        <v>45.0</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="D11" s="5" t="s">
         <v>3</v>
       </c>
@@ -769,16 +780,14 @@
       <c r="Z11" s="4"/>
     </row>
     <row r="12">
-      <c r="A12" s="1">
-        <v>49.0</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="3">
-        <v>275.0</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="A12" s="6">
+        <v>47.0</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E12" s="4"/>
@@ -805,16 +814,16 @@
       <c r="Z12" s="4"/>
     </row>
     <row r="13">
-      <c r="A13" s="6">
-        <v>52.0</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="7">
-        <v>315.0</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="A13" s="1">
+        <v>49.0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="3">
+        <v>275.0</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="4"/>
@@ -841,16 +850,16 @@
       <c r="Z13" s="4"/>
     </row>
     <row r="14">
-      <c r="A14" s="1">
-        <v>57.0</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="3">
-        <v>260.0</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="A14" s="6">
+        <v>52.0</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="7">
+        <v>315.0</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E14" s="4"/>
@@ -877,16 +886,16 @@
       <c r="Z14" s="4"/>
     </row>
     <row r="15">
-      <c r="A15" s="6">
-        <v>61.0</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="7">
-        <v>315.0</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="A15" s="1">
+        <v>57.0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="3">
+        <v>260.0</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E15" s="4"/>
@@ -914,13 +923,13 @@
     </row>
     <row r="16">
       <c r="A16" s="6">
-        <v>63.0</v>
+        <v>61.0</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="7">
-        <v>260.0</v>
+        <v>315.0</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>3</v>
@@ -950,13 +959,13 @@
     </row>
     <row r="17">
       <c r="A17" s="6">
-        <v>67.0</v>
+        <v>63.0</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="7">
-        <v>255.0</v>
+        <v>260.0</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>3</v>
@@ -986,13 +995,13 @@
     </row>
     <row r="18">
       <c r="A18" s="6">
-        <v>69.0</v>
+        <v>67.0</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>6</v>
+      <c r="C18" s="7">
+        <v>255.0</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>3</v>
@@ -1022,13 +1031,13 @@
     </row>
     <row r="19">
       <c r="A19" s="6">
-        <v>70.0</v>
+        <v>69.0</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="7">
-        <v>225.0</v>
+      <c r="C19" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>3</v>
@@ -1057,16 +1066,16 @@
       <c r="Z19" s="4"/>
     </row>
     <row r="20">
-      <c r="A20" s="1">
-        <v>74.0</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="3">
-        <v>265.0</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="A20" s="6">
+        <v>70.0</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="7">
+        <v>225.0</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E20" s="4"/>
@@ -1094,13 +1103,13 @@
     </row>
     <row r="21">
       <c r="A21" s="1">
-        <v>77.0</v>
+        <v>74.0</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="3">
-        <v>260.0</v>
+        <v>265.0</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>3</v>
@@ -1129,16 +1138,16 @@
       <c r="Z21" s="4"/>
     </row>
     <row r="22">
-      <c r="A22" s="6">
-        <v>79.0</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="7">
-        <v>300.0</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="A22" s="1">
+        <v>77.0</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="3">
+        <v>260.0</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E22" s="4"/>
@@ -1165,16 +1174,16 @@
       <c r="Z22" s="4"/>
     </row>
     <row r="23">
-      <c r="A23" s="1">
-        <v>83.0</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="3">
-        <v>295.0</v>
-      </c>
-      <c r="D23" s="2" t="s">
+      <c r="A23" s="6">
+        <v>79.0</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
+        <v>300.0</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E23" s="4"/>
@@ -1201,16 +1210,16 @@
       <c r="Z23" s="4"/>
     </row>
     <row r="24">
-      <c r="A24" s="6">
-        <v>85.0</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="7">
-        <v>275.0</v>
-      </c>
-      <c r="D24" s="5" t="s">
+      <c r="A24" s="1">
+        <v>83.0</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E24" s="4"/>
@@ -1238,13 +1247,13 @@
     </row>
     <row r="25">
       <c r="A25" s="6">
-        <v>90.0</v>
+        <v>85.0</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C25" s="7">
-        <v>305.0</v>
+        <v>275.0</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>3</v>
@@ -1273,16 +1282,16 @@
       <c r="Z25" s="4"/>
     </row>
     <row r="26">
-      <c r="A26" s="1">
-        <v>93.0</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="A26" s="6">
+        <v>90.0</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="7">
+        <v>305.0</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E26" s="4"/>
@@ -1309,16 +1318,16 @@
       <c r="Z26" s="4"/>
     </row>
     <row r="27">
-      <c r="A27" s="6">
-        <v>98.0</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="5" t="s">
+      <c r="A27" s="1">
+        <v>93.0</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E27" s="4"/>
@@ -1346,13 +1355,13 @@
     </row>
     <row r="28">
       <c r="A28" s="6">
-        <v>99.0</v>
+        <v>98.0</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="7">
-        <v>275.0</v>
+      <c r="C28" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>3</v>
@@ -1382,13 +1391,13 @@
     </row>
     <row r="29">
       <c r="A29" s="6">
-        <v>105.0</v>
+        <v>99.0</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C29" s="7">
-        <v>260.0</v>
+        <v>275.0</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>3</v>
@@ -1418,13 +1427,13 @@
     </row>
     <row r="30">
       <c r="A30" s="6">
-        <v>106.0</v>
+        <v>103.0</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>8</v>
+      <c r="C30" s="7">
+        <v>230.0</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>3</v>
@@ -1454,7 +1463,7 @@
     </row>
     <row r="31">
       <c r="A31" s="6">
-        <v>107.0</v>
+        <v>105.0</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>3</v>
@@ -1490,13 +1499,13 @@
     </row>
     <row r="32">
       <c r="A32" s="6">
-        <v>109.0</v>
+        <v>106.0</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="7">
-        <v>315.0</v>
+      <c r="C32" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>3</v>
@@ -1526,13 +1535,13 @@
     </row>
     <row r="33">
       <c r="A33" s="6">
-        <v>111.0</v>
+        <v>107.0</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>255.0</v>
+        <v>260.0</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>3</v>
@@ -1561,16 +1570,16 @@
       <c r="Z33" s="4"/>
     </row>
     <row r="34">
-      <c r="A34" s="1">
-        <v>112.0</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="3">
-        <v>270.0</v>
-      </c>
-      <c r="D34" s="2" t="s">
+      <c r="A34" s="6">
+        <v>109.0</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="7">
+        <v>315.0</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E34" s="4"/>
@@ -1597,16 +1606,16 @@
       <c r="Z34" s="4"/>
     </row>
     <row r="35">
-      <c r="A35" s="1">
-        <v>119.0</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D35" s="2" t="s">
+      <c r="A35" s="6">
+        <v>111.0</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
+        <v>255.0</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E35" s="4"/>
@@ -1633,16 +1642,16 @@
       <c r="Z35" s="4"/>
     </row>
     <row r="36">
-      <c r="A36" s="6">
-        <v>122.0</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="7">
-        <v>295.0</v>
-      </c>
-      <c r="D36" s="5" t="s">
+      <c r="A36" s="1">
+        <v>112.0</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="3">
+        <v>270.0</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E36" s="4"/>
@@ -1669,16 +1678,16 @@
       <c r="Z36" s="4"/>
     </row>
     <row r="37">
-      <c r="A37" s="6">
-        <v>123.0</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="7">
-        <v>280.0</v>
-      </c>
-      <c r="D37" s="5" t="s">
+      <c r="A37" s="1">
+        <v>119.0</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E37" s="4"/>
@@ -1706,13 +1715,13 @@
     </row>
     <row r="38">
       <c r="A38" s="6">
-        <v>124.0</v>
+        <v>122.0</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C38" s="7">
-        <v>245.0</v>
+        <v>295.0</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>3</v>
@@ -1741,16 +1750,16 @@
       <c r="Z38" s="4"/>
     </row>
     <row r="39">
-      <c r="A39" s="1">
-        <v>125.0</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="3">
-        <v>265.0</v>
-      </c>
-      <c r="D39" s="2" t="s">
+      <c r="A39" s="6">
+        <v>123.0</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="7">
+        <v>280.0</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E39" s="4"/>
@@ -1778,13 +1787,13 @@
     </row>
     <row r="40">
       <c r="A40" s="6">
-        <v>126.0</v>
+        <v>124.0</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C40" s="7">
-        <v>265.0</v>
+        <v>245.0</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>3</v>
@@ -1814,13 +1823,13 @@
     </row>
     <row r="41">
       <c r="A41" s="1">
-        <v>129.0</v>
+        <v>125.0</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C41" s="3">
-        <v>270.0</v>
+        <v>265.0</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>3</v>
@@ -1850,13 +1859,13 @@
     </row>
     <row r="42">
       <c r="A42" s="6">
-        <v>130.0</v>
+        <v>126.0</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C42" s="7">
-        <v>290.0</v>
+        <v>265.0</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>3</v>
@@ -1885,16 +1894,16 @@
       <c r="Z42" s="4"/>
     </row>
     <row r="43">
-      <c r="A43" s="1">
-        <v>131.0</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" s="3">
-        <v>255.0</v>
-      </c>
-      <c r="D43" s="2" t="s">
+      <c r="A43" s="6">
+        <v>127.0</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
+        <v>290.0</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E43" s="4"/>
@@ -1921,16 +1930,16 @@
       <c r="Z43" s="4"/>
     </row>
     <row r="44">
-      <c r="A44" s="1">
-        <v>132.0</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D44" s="2" t="s">
+      <c r="A44" s="6">
+        <v>120.0</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E44" s="4"/>
@@ -1957,16 +1966,16 @@
       <c r="Z44" s="4"/>
     </row>
     <row r="45">
-      <c r="A45" s="6">
-        <v>133.0</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" s="7">
-        <v>240.0</v>
-      </c>
-      <c r="D45" s="5" t="s">
+      <c r="A45" s="1">
+        <v>129.0</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="3">
+        <v>270.0</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E45" s="4"/>
@@ -1994,13 +2003,13 @@
     </row>
     <row r="46">
       <c r="A46" s="6">
-        <v>135.0</v>
+        <v>130.0</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C46" s="7">
-        <v>310.0</v>
+        <v>290.0</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>3</v>
@@ -2029,16 +2038,16 @@
       <c r="Z46" s="4"/>
     </row>
     <row r="47">
-      <c r="A47" s="6">
-        <v>136.0</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" s="7">
-        <v>315.0</v>
-      </c>
-      <c r="D47" s="5" t="s">
+      <c r="A47" s="1">
+        <v>131.0</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="3">
+        <v>255.0</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E47" s="4"/>
@@ -2066,13 +2075,13 @@
     </row>
     <row r="48">
       <c r="A48" s="1">
-        <v>138.0</v>
+        <v>132.0</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C48" s="3">
-        <v>315.0</v>
+        <v>250.0</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>3</v>
@@ -2101,16 +2110,16 @@
       <c r="Z48" s="4"/>
     </row>
     <row r="49">
-      <c r="A49" s="1">
-        <v>139.0</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D49" s="2" t="s">
+      <c r="A49" s="6">
+        <v>133.0</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="7">
+        <v>240.0</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E49" s="4"/>
@@ -2138,13 +2147,13 @@
     </row>
     <row r="50">
       <c r="A50" s="6">
-        <v>141.0</v>
+        <v>135.0</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C50" s="7">
-        <v>305.0</v>
+        <v>310.0</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>3</v>
@@ -2174,13 +2183,13 @@
     </row>
     <row r="51">
       <c r="A51" s="6">
-        <v>144.0</v>
+        <v>136.0</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C51" s="7">
-        <v>305.0</v>
+        <v>315.0</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>3</v>
@@ -2210,13 +2219,13 @@
     </row>
     <row r="52">
       <c r="A52" s="1">
-        <v>145.0</v>
+        <v>138.0</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C52" s="3">
-        <v>275.0</v>
+        <v>315.0</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>3</v>
@@ -2245,16 +2254,16 @@
       <c r="Z52" s="4"/>
     </row>
     <row r="53">
-      <c r="A53" s="6">
-        <v>146.0</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" s="7">
-        <v>300.0</v>
-      </c>
-      <c r="D53" s="5" t="s">
+      <c r="A53" s="1">
+        <v>139.0</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E53" s="4"/>
@@ -2281,16 +2290,16 @@
       <c r="Z53" s="4"/>
     </row>
     <row r="54">
-      <c r="A54" s="1">
-        <v>149.0</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" s="3">
-        <v>265.0</v>
-      </c>
-      <c r="D54" s="2" t="s">
+      <c r="A54" s="6">
+        <v>141.0</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="7">
+        <v>305.0</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E54" s="4"/>
@@ -2318,13 +2327,13 @@
     </row>
     <row r="55">
       <c r="A55" s="6">
-        <v>152.0</v>
+        <v>144.0</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C55" s="7">
-        <v>230.0</v>
+        <v>305.0</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>3</v>
@@ -2354,13 +2363,13 @@
     </row>
     <row r="56">
       <c r="A56" s="1">
-        <v>153.0</v>
+        <v>145.0</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C56" s="3">
-        <v>325.0</v>
+        <v>275.0</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>3</v>
@@ -2389,16 +2398,16 @@
       <c r="Z56" s="4"/>
     </row>
     <row r="57">
-      <c r="A57" s="1">
-        <v>154.0</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57" s="3">
-        <v>325.0</v>
-      </c>
-      <c r="D57" s="2" t="s">
+      <c r="A57" s="6">
+        <v>146.0</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="7">
+        <v>300.0</v>
+      </c>
+      <c r="D57" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E57" s="4"/>
@@ -2426,13 +2435,13 @@
     </row>
     <row r="58">
       <c r="A58" s="6">
-        <v>156.0</v>
+        <v>148.0</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C58" s="8">
-        <v>310.0</v>
+      <c r="C58" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>3</v>
@@ -2462,13 +2471,13 @@
     </row>
     <row r="59">
       <c r="A59" s="1">
-        <v>157.0</v>
+        <v>149.0</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C59" s="9">
-        <v>270.0</v>
+      <c r="C59" s="3">
+        <v>265.0</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>3</v>
@@ -2498,13 +2507,13 @@
     </row>
     <row r="60">
       <c r="A60" s="6">
-        <v>163.0</v>
+        <v>152.0</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C60" s="7">
-        <v>265.0</v>
+        <v>230.0</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>3</v>
@@ -2533,16 +2542,16 @@
       <c r="Z60" s="4"/>
     </row>
     <row r="61">
-      <c r="A61" s="6">
-        <v>164.0</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61" s="7">
-        <v>250.0</v>
-      </c>
-      <c r="D61" s="5" t="s">
+      <c r="A61" s="1">
+        <v>153.0</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="3">
+        <v>325.0</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E61" s="4"/>
@@ -2570,13 +2579,13 @@
     </row>
     <row r="62">
       <c r="A62" s="1">
-        <v>167.0</v>
+        <v>154.0</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C62" s="3">
-        <v>250.0</v>
+        <v>325.0</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>3</v>
@@ -2606,12 +2615,12 @@
     </row>
     <row r="63">
       <c r="A63" s="6">
-        <v>169.0</v>
+        <v>155.0</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C63" s="8">
         <v>235.0</v>
       </c>
       <c r="D63" s="5" t="s">
@@ -2642,13 +2651,13 @@
     </row>
     <row r="64">
       <c r="A64" s="6">
-        <v>171.0</v>
+        <v>156.0</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="7">
-        <v>325.0</v>
+      <c r="C64" s="8">
+        <v>310.0</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>3</v>
@@ -2677,16 +2686,16 @@
       <c r="Z64" s="4"/>
     </row>
     <row r="65">
-      <c r="A65" s="6">
-        <v>172.0</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C65" s="7">
-        <v>265.0</v>
-      </c>
-      <c r="D65" s="5" t="s">
+      <c r="A65" s="1">
+        <v>157.0</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E65" s="4"/>
@@ -2713,16 +2722,16 @@
       <c r="Z65" s="4"/>
     </row>
     <row r="66">
-      <c r="A66" s="1">
-        <v>175.0</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D66" s="2" t="s">
+      <c r="A66" s="6">
+        <v>163.0</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="7">
+        <v>265.0</v>
+      </c>
+      <c r="D66" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E66" s="4"/>
@@ -2750,13 +2759,13 @@
     </row>
     <row r="67">
       <c r="A67" s="6">
-        <v>176.0</v>
+        <v>164.0</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C67" s="7" t="s">
-        <v>6</v>
+      <c r="C67" s="7">
+        <v>250.0</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>3</v>
@@ -2786,13 +2795,13 @@
     </row>
     <row r="68">
       <c r="A68" s="1">
-        <v>178.0</v>
+        <v>167.0</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C68" s="3">
-        <v>265.0</v>
+        <v>250.0</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>3</v>
@@ -2821,16 +2830,16 @@
       <c r="Z68" s="4"/>
     </row>
     <row r="69">
-      <c r="A69" s="1">
-        <v>182.0</v>
-      </c>
-      <c r="B69" s="2" t="s">
+      <c r="A69" s="6">
+        <v>169.0</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C69" s="7">
-        <v>285.0</v>
-      </c>
-      <c r="D69" s="2" t="s">
+        <v>235.0</v>
+      </c>
+      <c r="D69" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E69" s="4"/>
@@ -2857,16 +2866,16 @@
       <c r="Z69" s="4"/>
     </row>
     <row r="70">
-      <c r="A70" s="1">
-        <v>183.0</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C70" s="3">
-        <v>270.0</v>
-      </c>
-      <c r="D70" s="2" t="s">
+      <c r="A70" s="6">
+        <v>171.0</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" s="7">
+        <v>325.0</v>
+      </c>
+      <c r="D70" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E70" s="4"/>
@@ -2894,13 +2903,13 @@
     </row>
     <row r="71">
       <c r="A71" s="6">
-        <v>189.0</v>
+        <v>172.0</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C71" s="7">
-        <v>235.0</v>
+        <v>265.0</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>3</v>
@@ -2930,13 +2939,13 @@
     </row>
     <row r="72">
       <c r="A72" s="1">
-        <v>190.0</v>
+        <v>175.0</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C72" s="3">
-        <v>305.0</v>
+        <v>250.0</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>3</v>
@@ -2965,16 +2974,16 @@
       <c r="Z72" s="4"/>
     </row>
     <row r="73">
-      <c r="A73" s="1">
-        <v>192.0</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" s="3">
-        <v>285.0</v>
-      </c>
-      <c r="D73" s="2" t="s">
+      <c r="A73" s="6">
+        <v>176.0</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E73" s="4"/>
@@ -3001,16 +3010,16 @@
       <c r="Z73" s="4"/>
     </row>
     <row r="74">
-      <c r="A74" s="6">
-        <v>193.0</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C74" s="7">
-        <v>245.0</v>
-      </c>
-      <c r="D74" s="5" t="s">
+      <c r="A74" s="1">
+        <v>178.0</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="3">
+        <v>265.0</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E74" s="4"/>
@@ -3037,16 +3046,16 @@
       <c r="Z74" s="4"/>
     </row>
     <row r="75">
-      <c r="A75" s="6">
-        <v>195.0</v>
-      </c>
-      <c r="B75" s="5" t="s">
+      <c r="A75" s="1">
+        <v>182.0</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C75" s="7">
-        <v>325.0</v>
-      </c>
-      <c r="D75" s="5" t="s">
+        <v>285.0</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E75" s="4"/>
@@ -3073,16 +3082,16 @@
       <c r="Z75" s="4"/>
     </row>
     <row r="76">
-      <c r="A76" s="6">
-        <v>196.0</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C76" s="7">
-        <v>220.0</v>
-      </c>
-      <c r="D76" s="5" t="s">
+      <c r="A76" s="1">
+        <v>183.0</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" s="3">
+        <v>270.0</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E76" s="4"/>
@@ -3109,16 +3118,16 @@
       <c r="Z76" s="4"/>
     </row>
     <row r="77">
-      <c r="A77" s="1">
-        <v>201.0</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C77" s="3">
-        <v>285.0</v>
-      </c>
-      <c r="D77" s="2" t="s">
+      <c r="A77" s="6">
+        <v>189.0</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" s="7">
+        <v>235.0</v>
+      </c>
+      <c r="D77" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E77" s="4"/>
@@ -3145,14 +3154,16 @@
       <c r="Z77" s="4"/>
     </row>
     <row r="78">
-      <c r="A78" s="6">
-        <v>203.0</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C78" s="3"/>
-      <c r="D78" s="5" t="s">
+      <c r="A78" s="1">
+        <v>190.0</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" s="3">
+        <v>305.0</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E78" s="4"/>
@@ -3180,13 +3191,13 @@
     </row>
     <row r="79">
       <c r="A79" s="1">
-        <v>204.0</v>
+        <v>192.0</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C79" s="3">
-        <v>270.0</v>
+        <v>285.0</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>3</v>
@@ -3216,13 +3227,13 @@
     </row>
     <row r="80">
       <c r="A80" s="6">
-        <v>205.0</v>
+        <v>193.0</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C80" s="7" t="s">
-        <v>9</v>
+      <c r="C80" s="7">
+        <v>245.0</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>3</v>
@@ -3252,7 +3263,7 @@
     </row>
     <row r="81">
       <c r="A81" s="6">
-        <v>207.0</v>
+        <v>195.0</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>3</v>
@@ -3288,13 +3299,13 @@
     </row>
     <row r="82">
       <c r="A82" s="6">
-        <v>209.0</v>
+        <v>196.0</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C82" s="7" t="s">
-        <v>5</v>
+      <c r="C82" s="7">
+        <v>220.0</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>3</v>
@@ -3323,16 +3334,16 @@
       <c r="Z82" s="4"/>
     </row>
     <row r="83">
-      <c r="A83" s="6">
-        <v>215.0</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C83" s="7">
-        <v>310.0</v>
-      </c>
-      <c r="D83" s="5" t="s">
+      <c r="A83" s="1">
+        <v>201.0</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" s="3">
+        <v>285.0</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E83" s="4"/>
@@ -3360,14 +3371,12 @@
     </row>
     <row r="84">
       <c r="A84" s="6">
-        <v>216.0</v>
+        <v>203.0</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C84" s="7">
-        <v>320.0</v>
-      </c>
+      <c r="C84" s="3"/>
       <c r="D84" s="5" t="s">
         <v>3</v>
       </c>
@@ -3396,13 +3405,13 @@
     </row>
     <row r="85">
       <c r="A85" s="1">
-        <v>218.0</v>
+        <v>204.0</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C85" s="3">
-        <v>275.0</v>
+        <v>270.0</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>3</v>
@@ -3432,13 +3441,13 @@
     </row>
     <row r="86">
       <c r="A86" s="6">
-        <v>219.0</v>
+        <v>205.0</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C86" s="7">
-        <v>275.0</v>
+      <c r="C86" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>3</v>
@@ -3468,13 +3477,13 @@
     </row>
     <row r="87">
       <c r="A87" s="6">
-        <v>220.0</v>
+        <v>207.0</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C87" s="7">
-        <v>320.0</v>
+        <v>325.0</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>3</v>
@@ -3503,16 +3512,16 @@
       <c r="Z87" s="4"/>
     </row>
     <row r="88">
-      <c r="A88" s="1">
-        <v>227.0</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C88" s="3">
-        <v>325.0</v>
-      </c>
-      <c r="D88" s="2" t="s">
+      <c r="A88" s="6">
+        <v>209.0</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E88" s="4"/>
@@ -3539,16 +3548,16 @@
       <c r="Z88" s="4"/>
     </row>
     <row r="89">
-      <c r="A89" s="1">
-        <v>229.0</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C89" s="3">
-        <v>300.0</v>
-      </c>
-      <c r="D89" s="2" t="s">
+      <c r="A89" s="6">
+        <v>215.0</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D89" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E89" s="4"/>
@@ -3576,13 +3585,13 @@
     </row>
     <row r="90">
       <c r="A90" s="6">
-        <v>232.0</v>
+        <v>216.0</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C90" s="7">
-        <v>275.0</v>
+        <v>320.0</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>3</v>
@@ -3612,13 +3621,13 @@
     </row>
     <row r="91">
       <c r="A91" s="1">
-        <v>237.0</v>
+        <v>218.0</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C91" s="3">
-        <v>240.0</v>
+        <v>275.0</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>3</v>
@@ -3648,13 +3657,13 @@
     </row>
     <row r="92">
       <c r="A92" s="6">
-        <v>238.0</v>
+        <v>219.0</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C92" s="7">
-        <v>280.0</v>
+        <v>275.0</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>3</v>
@@ -3683,16 +3692,16 @@
       <c r="Z92" s="4"/>
     </row>
     <row r="93">
-      <c r="A93" s="1">
-        <v>243.0</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C93" s="3">
-        <v>225.0</v>
-      </c>
-      <c r="D93" s="2" t="s">
+      <c r="A93" s="6">
+        <v>220.0</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" s="7">
+        <v>320.0</v>
+      </c>
+      <c r="D93" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E93" s="4"/>
@@ -3719,16 +3728,16 @@
       <c r="Z93" s="4"/>
     </row>
     <row r="94">
-      <c r="A94" s="6">
-        <v>250.0</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C94" s="7">
-        <v>245.0</v>
-      </c>
-      <c r="D94" s="5" t="s">
+      <c r="A94" s="1">
+        <v>227.0</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" s="3">
+        <v>325.0</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E94" s="4"/>
@@ -3755,16 +3764,16 @@
       <c r="Z94" s="4"/>
     </row>
     <row r="95">
-      <c r="A95" s="6">
-        <v>252.0</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D95" s="5" t="s">
+      <c r="A95" s="1">
+        <v>229.0</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" s="3">
+        <v>300.0</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E95" s="4"/>
@@ -3792,13 +3801,13 @@
     </row>
     <row r="96">
       <c r="A96" s="6">
-        <v>257.0</v>
+        <v>232.0</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C96" s="7">
-        <v>260.0</v>
+        <v>275.0</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>3</v>
@@ -3827,16 +3836,16 @@
       <c r="Z96" s="4"/>
     </row>
     <row r="97">
-      <c r="A97" s="6">
-        <v>260.0</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C97" s="7">
-        <v>260.0</v>
-      </c>
-      <c r="D97" s="5" t="s">
+      <c r="A97" s="1">
+        <v>237.0</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" s="3">
+        <v>240.0</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E97" s="4"/>
@@ -3864,13 +3873,13 @@
     </row>
     <row r="98">
       <c r="A98" s="6">
-        <v>261.0</v>
+        <v>238.0</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C98" s="7">
-        <v>240.0</v>
+        <v>280.0</v>
       </c>
       <c r="D98" s="5" t="s">
         <v>3</v>
@@ -3900,13 +3909,13 @@
     </row>
     <row r="99">
       <c r="A99" s="6">
-        <v>262.0</v>
+        <v>240.0</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C99" s="7">
-        <v>250.0</v>
+        <v>300.0</v>
       </c>
       <c r="D99" s="5" t="s">
         <v>3</v>
@@ -3935,16 +3944,16 @@
       <c r="Z99" s="4"/>
     </row>
     <row r="100">
-      <c r="A100" s="6">
-        <v>264.0</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D100" s="5" t="s">
+      <c r="A100" s="1">
+        <v>243.0</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" s="3">
+        <v>225.0</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E100" s="4"/>
@@ -3971,16 +3980,16 @@
       <c r="Z100" s="4"/>
     </row>
     <row r="101">
-      <c r="A101" s="1">
+      <c r="A101" s="6">
+        <v>246.0</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" s="7">
         <v>265.0</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C101" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D101" s="2" t="s">
+      <c r="D101" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E101" s="4"/>
@@ -4008,13 +4017,13 @@
     </row>
     <row r="102">
       <c r="A102" s="6">
-        <v>270.0</v>
+        <v>250.0</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C102" s="7">
-        <v>265.0</v>
+        <v>245.0</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>3</v>
@@ -4044,13 +4053,13 @@
     </row>
     <row r="103">
       <c r="A103" s="6">
-        <v>273.0</v>
+        <v>252.0</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C103" s="7">
-        <v>290.0</v>
+      <c r="C103" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="D103" s="5" t="s">
         <v>3</v>
@@ -4079,16 +4088,16 @@
       <c r="Z103" s="4"/>
     </row>
     <row r="104">
-      <c r="A104" s="1">
-        <v>274.0</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C104" s="3">
+      <c r="A104" s="6">
+        <v>257.0</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" s="7">
         <v>260.0</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="D104" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E104" s="4"/>
@@ -4116,13 +4125,13 @@
     </row>
     <row r="105">
       <c r="A105" s="6">
-        <v>275.0</v>
+        <v>260.0</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C105" s="7">
-        <v>290.0</v>
+        <v>260.0</v>
       </c>
       <c r="D105" s="5" t="s">
         <v>3</v>
@@ -4152,13 +4161,13 @@
     </row>
     <row r="106">
       <c r="A106" s="6">
-        <v>279.0</v>
+        <v>261.0</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C106" s="7">
-        <v>255.0</v>
+        <v>240.0</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>3</v>
@@ -4188,13 +4197,13 @@
     </row>
     <row r="107">
       <c r="A107" s="6">
-        <v>281.0</v>
+        <v>262.0</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C107" s="7">
-        <v>295.0</v>
+        <v>250.0</v>
       </c>
       <c r="D107" s="5" t="s">
         <v>3</v>
@@ -4224,13 +4233,13 @@
     </row>
     <row r="108">
       <c r="A108" s="6">
-        <v>284.0</v>
+        <v>264.0</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C108" s="7">
-        <v>260.0</v>
+      <c r="C108" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>3</v>
@@ -4259,16 +4268,16 @@
       <c r="Z108" s="4"/>
     </row>
     <row r="109">
-      <c r="A109" s="6">
-        <v>286.0</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C109" s="7">
-        <v>270.0</v>
-      </c>
-      <c r="D109" s="5" t="s">
+      <c r="A109" s="1">
+        <v>265.0</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E109" s="4"/>
@@ -4296,13 +4305,13 @@
     </row>
     <row r="110">
       <c r="A110" s="6">
-        <v>289.0</v>
+        <v>270.0</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C110" s="7">
-        <v>260.0</v>
+        <v>265.0</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>3</v>
@@ -4331,16 +4340,16 @@
       <c r="Z110" s="4"/>
     </row>
     <row r="111">
-      <c r="A111" s="1">
+      <c r="A111" s="6">
+        <v>273.0</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111" s="7">
         <v>290.0</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C111" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D111" s="2" t="s">
+      <c r="D111" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E111" s="4"/>
@@ -4367,14 +4376,14 @@
       <c r="Z111" s="4"/>
     </row>
     <row r="112">
-      <c r="A112" s="6">
-        <v>296.0</v>
+      <c r="A112" s="1">
+        <v>274.0</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C112" s="7">
-        <v>235.0</v>
+      <c r="C112" s="3">
+        <v>260.0</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>3</v>
@@ -4404,13 +4413,13 @@
     </row>
     <row r="113">
       <c r="A113" s="6">
-        <v>299.0</v>
+        <v>275.0</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C113" s="7">
-        <v>335.0</v>
+        <v>290.0</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>3</v>
@@ -4439,16 +4448,16 @@
       <c r="Z113" s="4"/>
     </row>
     <row r="114">
-      <c r="A114" s="1">
-        <v>306.0</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C114" s="3">
-        <v>235.0</v>
-      </c>
-      <c r="D114" s="2" t="s">
+      <c r="A114" s="6">
+        <v>279.0</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" s="7">
+        <v>255.0</v>
+      </c>
+      <c r="D114" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E114" s="4"/>
@@ -4476,13 +4485,13 @@
     </row>
     <row r="115">
       <c r="A115" s="6">
-        <v>309.0</v>
+        <v>281.0</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C115" s="7">
-        <v>260.0</v>
+        <v>295.0</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>3</v>
@@ -4512,13 +4521,13 @@
     </row>
     <row r="116">
       <c r="A116" s="6">
-        <v>323.0</v>
+        <v>284.0</v>
       </c>
       <c r="B116" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C116" s="7">
-        <v>270.0</v>
+        <v>260.0</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>3</v>
@@ -4547,16 +4556,16 @@
       <c r="Z116" s="4"/>
     </row>
     <row r="117">
-      <c r="A117" s="1">
-        <v>324.0</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C117" s="3">
-        <v>260.0</v>
-      </c>
-      <c r="D117" s="2" t="s">
+      <c r="A117" s="6">
+        <v>286.0</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117" s="7">
+        <v>270.0</v>
+      </c>
+      <c r="D117" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E117" s="4"/>
@@ -4583,16 +4592,16 @@
       <c r="Z117" s="4"/>
     </row>
     <row r="118">
-      <c r="A118" s="1">
-        <v>328.0</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C118" s="3">
-        <v>255.0</v>
-      </c>
-      <c r="D118" s="2" t="s">
+      <c r="A118" s="6">
+        <v>289.0</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C118" s="7">
+        <v>260.0</v>
+      </c>
+      <c r="D118" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E118" s="4"/>
@@ -4619,16 +4628,16 @@
       <c r="Z118" s="4"/>
     </row>
     <row r="119">
-      <c r="A119" s="6">
-        <v>334.0</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C119" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D119" s="5" t="s">
+      <c r="A119" s="1">
+        <v>290.0</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E119" s="4"/>
@@ -4656,13 +4665,13 @@
     </row>
     <row r="120">
       <c r="A120" s="6">
-        <v>338.0</v>
+        <v>295.0</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C120" s="7">
-        <v>235.0</v>
+      <c r="C120" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>3</v>
@@ -4692,15 +4701,15 @@
     </row>
     <row r="121">
       <c r="A121" s="6">
-        <v>348.0</v>
-      </c>
-      <c r="B121" s="5" t="s">
+        <v>296.0</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C121" s="7">
-        <v>270.0</v>
-      </c>
-      <c r="D121" s="5" t="s">
+        <v>235.0</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E121" s="4"/>
@@ -4727,16 +4736,16 @@
       <c r="Z121" s="4"/>
     </row>
     <row r="122">
-      <c r="A122" s="1">
-        <v>349.0</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C122" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D122" s="2" t="s">
+      <c r="A122" s="6">
+        <v>298.0</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C122" s="7">
+        <v>275.0</v>
+      </c>
+      <c r="D122" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E122" s="4"/>
@@ -4763,16 +4772,16 @@
       <c r="Z122" s="4"/>
     </row>
     <row r="123">
-      <c r="A123" s="1">
-        <v>350.0</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C123" s="3">
-        <v>225.0</v>
-      </c>
-      <c r="D123" s="2" t="s">
+      <c r="A123" s="6">
+        <v>299.0</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123" s="7">
+        <v>335.0</v>
+      </c>
+      <c r="D123" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E123" s="4"/>
@@ -4800,13 +4809,13 @@
     </row>
     <row r="124">
       <c r="A124" s="6">
-        <v>351.0</v>
+        <v>302.0</v>
       </c>
       <c r="B124" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C124" s="7">
-        <v>260.0</v>
+      <c r="C124" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>3</v>
@@ -4835,16 +4844,16 @@
       <c r="Z124" s="4"/>
     </row>
     <row r="125">
-      <c r="A125" s="6">
-        <v>356.0</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C125" s="7">
-        <v>260.0</v>
-      </c>
-      <c r="D125" s="5" t="s">
+      <c r="A125" s="1">
+        <v>306.0</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125" s="3">
+        <v>235.0</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E125" s="4"/>
@@ -4871,16 +4880,16 @@
       <c r="Z125" s="4"/>
     </row>
     <row r="126">
-      <c r="A126" s="1">
-        <v>361.0</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C126" s="3">
-        <v>245.0</v>
-      </c>
-      <c r="D126" s="2" t="s">
+      <c r="A126" s="6">
+        <v>307.0</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126" s="7">
+        <v>250.0</v>
+      </c>
+      <c r="D126" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E126" s="4"/>
@@ -4908,13 +4917,13 @@
     </row>
     <row r="127">
       <c r="A127" s="6">
-        <v>362.0</v>
+        <v>309.0</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C127" s="7" t="s">
-        <v>12</v>
+      <c r="C127" s="7">
+        <v>260.0</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>3</v>
@@ -4944,13 +4953,13 @@
     </row>
     <row r="128">
       <c r="A128" s="6">
-        <v>365.0</v>
+        <v>312.0</v>
       </c>
       <c r="B128" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C128" s="7">
-        <v>335.0</v>
+        <v>325.0</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>3</v>
@@ -4980,13 +4989,13 @@
     </row>
     <row r="129">
       <c r="A129" s="6">
-        <v>366.0</v>
+        <v>323.0</v>
       </c>
       <c r="B129" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C129" s="7">
-        <v>260.0</v>
+        <v>265.0</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>3</v>
@@ -5016,13 +5025,13 @@
     </row>
     <row r="130">
       <c r="A130" s="1">
-        <v>367.0</v>
+        <v>324.0</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C130" s="3">
-        <v>225.0</v>
+        <v>260.0</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>3</v>
@@ -5051,16 +5060,16 @@
       <c r="Z130" s="4"/>
     </row>
     <row r="131">
-      <c r="A131" s="6">
-        <v>368.0</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C131" s="7">
-        <v>260.0</v>
-      </c>
-      <c r="D131" s="5" t="s">
+      <c r="A131" s="1">
+        <v>328.0</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131" s="3">
+        <v>255.0</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E131" s="4"/>
@@ -5087,16 +5096,16 @@
       <c r="Z131" s="4"/>
     </row>
     <row r="132">
-      <c r="A132" s="1">
-        <v>369.0</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C132" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D132" s="2" t="s">
+      <c r="A132" s="6">
+        <v>334.0</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D132" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E132" s="4"/>
@@ -5124,12 +5133,14 @@
     </row>
     <row r="133">
       <c r="A133" s="6">
-        <v>370.0</v>
+        <v>338.0</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C133" s="3"/>
+      <c r="C133" s="7">
+        <v>235.0</v>
+      </c>
       <c r="D133" s="5" t="s">
         <v>3</v>
       </c>
@@ -5157,16 +5168,16 @@
       <c r="Z133" s="4"/>
     </row>
     <row r="134">
-      <c r="A134" s="1">
-        <v>375.0</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C134" s="3">
-        <v>245.0</v>
-      </c>
-      <c r="D134" s="2" t="s">
+      <c r="A134" s="6">
+        <v>348.0</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134" s="7">
+        <v>270.0</v>
+      </c>
+      <c r="D134" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E134" s="4"/>
@@ -5194,13 +5205,13 @@
     </row>
     <row r="135">
       <c r="A135" s="1">
-        <v>377.0</v>
+        <v>349.0</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C135" s="3">
-        <v>275.0</v>
+        <v>250.0</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>3</v>
@@ -5229,16 +5240,16 @@
       <c r="Z135" s="4"/>
     </row>
     <row r="136">
-      <c r="A136" s="6">
-        <v>378.0</v>
-      </c>
-      <c r="B136" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C136" s="7">
-        <v>275.0</v>
-      </c>
-      <c r="D136" s="5" t="s">
+      <c r="A136" s="1">
+        <v>350.0</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C136" s="3">
+        <v>225.0</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E136" s="4"/>
@@ -5265,16 +5276,16 @@
       <c r="Z136" s="4"/>
     </row>
     <row r="137">
-      <c r="A137" s="1">
-        <v>382.0</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C137" s="3">
-        <v>295.0</v>
-      </c>
-      <c r="D137" s="2" t="s">
+      <c r="A137" s="6">
+        <v>351.0</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C137" s="7">
+        <v>260.0</v>
+      </c>
+      <c r="D137" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E137" s="4"/>
@@ -5302,13 +5313,13 @@
     </row>
     <row r="138">
       <c r="A138" s="6">
-        <v>384.0</v>
+        <v>356.0</v>
       </c>
       <c r="B138" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C138" s="7">
-        <v>310.0</v>
+        <v>260.0</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>3</v>
@@ -5338,13 +5349,13 @@
     </row>
     <row r="139">
       <c r="A139" s="6">
-        <v>388.0</v>
+        <v>357.0</v>
       </c>
       <c r="B139" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C139" s="7">
-        <v>290.0</v>
+        <v>300.0</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>3</v>
@@ -5374,13 +5385,13 @@
     </row>
     <row r="140">
       <c r="A140" s="1">
-        <v>389.0</v>
+        <v>361.0</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C140" s="3">
-        <v>265.0</v>
+        <v>245.0</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>3</v>
@@ -5410,13 +5421,13 @@
     </row>
     <row r="141">
       <c r="A141" s="6">
-        <v>390.0</v>
+        <v>362.0</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C141" s="7">
-        <v>300.0</v>
+      <c r="C141" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="D141" s="5" t="s">
         <v>3</v>
@@ -5446,13 +5457,13 @@
     </row>
     <row r="142">
       <c r="A142" s="6">
-        <v>398.0</v>
+        <v>365.0</v>
       </c>
       <c r="B142" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C142" s="7">
-        <v>260.0</v>
+        <v>335.0</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>3</v>
@@ -5481,16 +5492,16 @@
       <c r="Z142" s="4"/>
     </row>
     <row r="143">
-      <c r="A143" s="1">
-        <v>399.0</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C143" s="3">
+      <c r="A143" s="6">
+        <v>366.0</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C143" s="7">
         <v>260.0</v>
       </c>
-      <c r="D143" s="2" t="s">
+      <c r="D143" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E143" s="4"/>
@@ -5518,13 +5529,13 @@
     </row>
     <row r="144">
       <c r="A144" s="1">
-        <v>404.0</v>
+        <v>367.0</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C144" s="3">
-        <v>250.0</v>
+        <v>225.0</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>3</v>
@@ -5554,13 +5565,13 @@
     </row>
     <row r="145">
       <c r="A145" s="6">
-        <v>406.0</v>
+        <v>368.0</v>
       </c>
       <c r="B145" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C145" s="7" t="s">
-        <v>5</v>
+      <c r="C145" s="7">
+        <v>260.0</v>
       </c>
       <c r="D145" s="5" t="s">
         <v>3</v>
@@ -5589,16 +5600,16 @@
       <c r="Z145" s="4"/>
     </row>
     <row r="146">
-      <c r="A146" s="6">
-        <v>413.0</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C146" s="7">
-        <v>290.0</v>
-      </c>
-      <c r="D146" s="5" t="s">
+      <c r="A146" s="1">
+        <v>369.0</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C146" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E146" s="4"/>
@@ -5625,16 +5636,14 @@
       <c r="Z146" s="4"/>
     </row>
     <row r="147">
-      <c r="A147" s="1">
-        <v>423.0</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C147" s="3">
-        <v>280.0</v>
-      </c>
-      <c r="D147" s="2" t="s">
+      <c r="A147" s="6">
+        <v>370.0</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147" s="3"/>
+      <c r="D147" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E147" s="4"/>
@@ -5662,13 +5671,13 @@
     </row>
     <row r="148">
       <c r="A148" s="1">
-        <v>429.0</v>
+        <v>375.0</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C148" s="3">
-        <v>290.0</v>
+        <v>245.0</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>3</v>
@@ -5698,13 +5707,13 @@
     </row>
     <row r="149">
       <c r="A149" s="1">
-        <v>430.0</v>
+        <v>377.0</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C149" s="3">
-        <v>290.0</v>
+        <v>275.0</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>3</v>
@@ -5734,13 +5743,13 @@
     </row>
     <row r="150">
       <c r="A150" s="6">
-        <v>438.0</v>
+        <v>378.0</v>
       </c>
       <c r="B150" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C150" s="7">
-        <v>265.0</v>
+        <v>275.0</v>
       </c>
       <c r="D150" s="5" t="s">
         <v>3</v>
@@ -5769,16 +5778,16 @@
       <c r="Z150" s="4"/>
     </row>
     <row r="151">
-      <c r="A151" s="6">
-        <v>441.0</v>
-      </c>
-      <c r="B151" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C151" s="7">
-        <v>270.0</v>
-      </c>
-      <c r="D151" s="5" t="s">
+      <c r="A151" s="1">
+        <v>382.0</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C151" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D151" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E151" s="4"/>
@@ -5805,16 +5814,16 @@
       <c r="Z151" s="4"/>
     </row>
     <row r="152">
-      <c r="A152" s="1">
-        <v>442.0</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C152" s="3">
-        <v>295.0</v>
-      </c>
-      <c r="D152" s="2" t="s">
+      <c r="A152" s="6">
+        <v>384.0</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C152" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D152" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E152" s="4"/>
@@ -5842,13 +5851,13 @@
     </row>
     <row r="153">
       <c r="A153" s="6">
-        <v>443.0</v>
+        <v>388.0</v>
       </c>
       <c r="B153" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C153" s="7">
-        <v>305.0</v>
+        <v>290.0</v>
       </c>
       <c r="D153" s="5" t="s">
         <v>3</v>
@@ -5877,16 +5886,16 @@
       <c r="Z153" s="4"/>
     </row>
     <row r="154">
-      <c r="A154" s="6">
-        <v>446.0</v>
-      </c>
-      <c r="B154" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C154" s="7">
-        <v>280.0</v>
-      </c>
-      <c r="D154" s="5" t="s">
+      <c r="A154" s="1">
+        <v>389.0</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C154" s="3">
+        <v>265.0</v>
+      </c>
+      <c r="D154" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E154" s="4"/>
@@ -5914,13 +5923,13 @@
     </row>
     <row r="155">
       <c r="A155" s="6">
-        <v>450.0</v>
+        <v>390.0</v>
       </c>
       <c r="B155" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C155" s="7">
-        <v>260.0</v>
+        <v>300.0</v>
       </c>
       <c r="D155" s="5" t="s">
         <v>3</v>
@@ -5950,13 +5959,13 @@
     </row>
     <row r="156">
       <c r="A156" s="6">
-        <v>451.0</v>
+        <v>398.0</v>
       </c>
       <c r="B156" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C156" s="7">
-        <v>330.0</v>
+        <v>260.0</v>
       </c>
       <c r="D156" s="5" t="s">
         <v>3</v>
@@ -5986,13 +5995,13 @@
     </row>
     <row r="157">
       <c r="A157" s="1">
-        <v>456.0</v>
+        <v>399.0</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C157" s="3">
-        <v>235.0</v>
+        <v>260.0</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>3</v>
@@ -6022,7 +6031,7 @@
     </row>
     <row r="158">
       <c r="A158" s="1">
-        <v>457.0</v>
+        <v>404.0</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>3</v>
@@ -6058,13 +6067,13 @@
     </row>
     <row r="159">
       <c r="A159" s="6">
-        <v>461.0</v>
+        <v>406.0</v>
       </c>
       <c r="B159" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C159" s="7">
-        <v>210.0</v>
+      <c r="C159" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="D159" s="5" t="s">
         <v>3</v>
@@ -6093,16 +6102,16 @@
       <c r="Z159" s="4"/>
     </row>
     <row r="160">
-      <c r="A160" s="1">
-        <v>463.0</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C160" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D160" s="2" t="s">
+      <c r="A160" s="6">
+        <v>413.0</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C160" s="7">
+        <v>290.0</v>
+      </c>
+      <c r="D160" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E160" s="4"/>
@@ -6130,13 +6139,13 @@
     </row>
     <row r="161">
       <c r="A161" s="1">
-        <v>470.0</v>
+        <v>423.0</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C161" s="3">
-        <v>265.0</v>
+        <v>280.0</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>3</v>
@@ -6165,16 +6174,16 @@
       <c r="Z161" s="4"/>
     </row>
     <row r="162">
-      <c r="A162" s="6">
-        <v>478.0</v>
-      </c>
-      <c r="B162" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C162" s="7">
-        <v>275.0</v>
-      </c>
-      <c r="D162" s="5" t="s">
+      <c r="A162" s="1">
+        <v>429.0</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C162" s="3">
+        <v>290.0</v>
+      </c>
+      <c r="D162" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E162" s="4"/>
@@ -6201,16 +6210,16 @@
       <c r="Z162" s="4"/>
     </row>
     <row r="163">
-      <c r="A163" s="6">
-        <v>480.0</v>
-      </c>
-      <c r="B163" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C163" s="7">
+      <c r="A163" s="1">
+        <v>430.0</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C163" s="3">
         <v>290.0</v>
       </c>
-      <c r="D163" s="5" t="s">
+      <c r="D163" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E163" s="4"/>
@@ -6237,16 +6246,16 @@
       <c r="Z163" s="4"/>
     </row>
     <row r="164">
-      <c r="A164" s="1">
-        <v>485.0</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C164" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D164" s="2" t="s">
+      <c r="A164" s="6">
+        <v>438.0</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C164" s="7">
+        <v>265.0</v>
+      </c>
+      <c r="D164" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E164" s="4"/>
@@ -6274,13 +6283,13 @@
     </row>
     <row r="165">
       <c r="A165" s="6">
-        <v>488.0</v>
+        <v>439.0</v>
       </c>
       <c r="B165" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C165" s="7">
-        <v>325.0</v>
+        <v>280.0</v>
       </c>
       <c r="D165" s="5" t="s">
         <v>3</v>
@@ -6310,13 +6319,13 @@
     </row>
     <row r="166">
       <c r="A166" s="6">
-        <v>490.0</v>
+        <v>441.0</v>
       </c>
       <c r="B166" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C166" s="7">
-        <v>275.0</v>
+        <v>270.0</v>
       </c>
       <c r="D166" s="5" t="s">
         <v>3</v>
@@ -6345,16 +6354,16 @@
       <c r="Z166" s="4"/>
     </row>
     <row r="167">
-      <c r="A167" s="6">
-        <v>492.0</v>
-      </c>
-      <c r="B167" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C167" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D167" s="5" t="s">
+      <c r="A167" s="1">
+        <v>442.0</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C167" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D167" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E167" s="4"/>
@@ -6381,16 +6390,16 @@
       <c r="Z167" s="4"/>
     </row>
     <row r="168">
-      <c r="A168" s="1">
-        <v>503.0</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C168" s="3">
-        <v>260.0</v>
-      </c>
-      <c r="D168" s="2" t="s">
+      <c r="A168" s="6">
+        <v>443.0</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C168" s="7">
+        <v>305.0</v>
+      </c>
+      <c r="D168" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E168" s="4"/>
@@ -6417,16 +6426,16 @@
       <c r="Z168" s="4"/>
     </row>
     <row r="169">
-      <c r="A169" s="1">
-        <v>510.0</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C169" s="3">
-        <v>285.0</v>
-      </c>
-      <c r="D169" s="2" t="s">
+      <c r="A169" s="6">
+        <v>444.0</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C169" s="7">
+        <v>250.0</v>
+      </c>
+      <c r="D169" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E169" s="4"/>
@@ -6454,13 +6463,13 @@
     </row>
     <row r="170">
       <c r="A170" s="6">
-        <v>514.0</v>
+        <v>446.0</v>
       </c>
       <c r="B170" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C170" s="7">
-        <v>315.0</v>
+        <v>280.0</v>
       </c>
       <c r="D170" s="5" t="s">
         <v>3</v>
@@ -6490,13 +6499,13 @@
     </row>
     <row r="171">
       <c r="A171" s="6">
-        <v>522.0</v>
+        <v>450.0</v>
       </c>
       <c r="B171" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C171" s="7">
-        <v>290.0</v>
+        <v>260.0</v>
       </c>
       <c r="D171" s="5" t="s">
         <v>3</v>
@@ -6526,13 +6535,13 @@
     </row>
     <row r="172">
       <c r="A172" s="6">
-        <v>524.0</v>
+        <v>451.0</v>
       </c>
       <c r="B172" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C172" s="7">
-        <v>325.0</v>
+        <v>330.0</v>
       </c>
       <c r="D172" s="5" t="s">
         <v>3</v>
@@ -6562,13 +6571,13 @@
     </row>
     <row r="173">
       <c r="A173" s="1">
-        <v>534.0</v>
+        <v>456.0</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C173" s="3">
-        <v>230.0</v>
+        <v>235.0</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>3</v>
@@ -6598,13 +6607,13 @@
     </row>
     <row r="174">
       <c r="A174" s="1">
-        <v>535.0</v>
+        <v>457.0</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C174" s="3">
-        <v>295.0</v>
+        <v>250.0</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>3</v>
@@ -6634,13 +6643,13 @@
     </row>
     <row r="175">
       <c r="A175" s="6">
-        <v>543.0</v>
+        <v>461.0</v>
       </c>
       <c r="B175" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C175" s="7">
-        <v>288.0</v>
+        <v>210.0</v>
       </c>
       <c r="D175" s="5" t="s">
         <v>3</v>
@@ -6669,16 +6678,16 @@
       <c r="Z175" s="4"/>
     </row>
     <row r="176">
-      <c r="A176" s="6">
-        <v>546.0</v>
-      </c>
-      <c r="B176" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C176" s="7">
-        <v>265.0</v>
-      </c>
-      <c r="D176" s="5" t="s">
+      <c r="A176" s="1">
+        <v>463.0</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C176" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D176" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E176" s="4"/>
@@ -6705,16 +6714,16 @@
       <c r="Z176" s="4"/>
     </row>
     <row r="177">
-      <c r="A177" s="6">
-        <v>551.0</v>
-      </c>
-      <c r="B177" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C177" s="7">
-        <v>270.0</v>
-      </c>
-      <c r="D177" s="5" t="s">
+      <c r="A177" s="1">
+        <v>470.0</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C177" s="3">
+        <v>265.0</v>
+      </c>
+      <c r="D177" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E177" s="4"/>
@@ -6741,16 +6750,16 @@
       <c r="Z177" s="4"/>
     </row>
     <row r="178">
-      <c r="A178" s="1">
-        <v>552.0</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C178" s="3">
-        <v>280.0</v>
-      </c>
-      <c r="D178" s="2" t="s">
+      <c r="A178" s="6">
+        <v>474.0</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D178" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E178" s="4"/>
@@ -6778,13 +6787,13 @@
     </row>
     <row r="179">
       <c r="A179" s="6">
-        <v>556.0</v>
+        <v>478.0</v>
       </c>
       <c r="B179" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C179" s="7">
-        <v>285.0</v>
+        <v>275.0</v>
       </c>
       <c r="D179" s="5" t="s">
         <v>3</v>
@@ -6814,13 +6823,13 @@
     </row>
     <row r="180">
       <c r="A180" s="6">
-        <v>560.0</v>
+        <v>480.0</v>
       </c>
       <c r="B180" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C180" s="7">
-        <v>310.0</v>
+        <v>290.0</v>
       </c>
       <c r="D180" s="5" t="s">
         <v>3</v>
@@ -6850,13 +6859,13 @@
     </row>
     <row r="181">
       <c r="A181" s="1">
-        <v>561.0</v>
+        <v>485.0</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C181" s="3">
-        <v>280.0</v>
+        <v>310.0</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>3</v>
@@ -6886,13 +6895,13 @@
     </row>
     <row r="182">
       <c r="A182" s="6">
-        <v>562.0</v>
+        <v>488.0</v>
       </c>
       <c r="B182" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C182" s="7" t="s">
-        <v>5</v>
+      <c r="C182" s="7">
+        <v>325.0</v>
       </c>
       <c r="D182" s="5" t="s">
         <v>3</v>
@@ -6922,13 +6931,13 @@
     </row>
     <row r="183">
       <c r="A183" s="6">
-        <v>564.0</v>
+        <v>490.0</v>
       </c>
       <c r="B183" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C183" s="7">
-        <v>260.0</v>
+        <v>275.0</v>
       </c>
       <c r="D183" s="5" t="s">
         <v>3</v>
@@ -6957,16 +6966,16 @@
       <c r="Z183" s="4"/>
     </row>
     <row r="184">
-      <c r="A184" s="1">
-        <v>567.0</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C184" s="3">
-        <v>325.0</v>
-      </c>
-      <c r="D184" s="2" t="s">
+      <c r="A184" s="6">
+        <v>492.0</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D184" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E184" s="4"/>
@@ -6994,7 +7003,7 @@
     </row>
     <row r="185">
       <c r="A185" s="1">
-        <v>576.0</v>
+        <v>503.0</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>3</v>
@@ -7029,16 +7038,16 @@
       <c r="Z185" s="4"/>
     </row>
     <row r="186">
-      <c r="A186" s="6">
-        <v>577.0</v>
-      </c>
-      <c r="B186" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C186" s="7">
-        <v>230.0</v>
-      </c>
-      <c r="D186" s="5" t="s">
+      <c r="A186" s="1">
+        <v>510.0</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C186" s="3">
+        <v>285.0</v>
+      </c>
+      <c r="D186" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E186" s="4"/>
@@ -7065,14 +7074,14 @@
       <c r="Z186" s="4"/>
     </row>
     <row r="187">
-      <c r="A187" s="10">
-        <v>580.0</v>
+      <c r="A187" s="6">
+        <v>514.0</v>
       </c>
       <c r="B187" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C187" s="7">
-        <v>240.0</v>
+        <v>315.0</v>
       </c>
       <c r="D187" s="5" t="s">
         <v>3</v>
@@ -7101,16 +7110,16 @@
       <c r="Z187" s="4"/>
     </row>
     <row r="188">
-      <c r="A188" s="1">
-        <v>583.0</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C188" s="3">
-        <v>320.0</v>
-      </c>
-      <c r="D188" s="2" t="s">
+      <c r="A188" s="6">
+        <v>517.0</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C188" s="7">
+        <v>240.0</v>
+      </c>
+      <c r="D188" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E188" s="4"/>
@@ -7137,16 +7146,16 @@
       <c r="Z188" s="4"/>
     </row>
     <row r="189">
-      <c r="A189" s="1">
-        <v>584.0</v>
-      </c>
-      <c r="B189" s="2" t="s">
+      <c r="A189" s="6">
+        <v>520.0</v>
+      </c>
+      <c r="B189" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C189" s="7">
-        <v>275.0</v>
-      </c>
-      <c r="D189" s="2" t="s">
+        <v>265.0</v>
+      </c>
+      <c r="D189" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E189" s="4"/>
@@ -7173,16 +7182,16 @@
       <c r="Z189" s="4"/>
     </row>
     <row r="190">
-      <c r="A190" s="1">
-        <v>586.0</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C190" s="3">
-        <v>240.0</v>
-      </c>
-      <c r="D190" s="2" t="s">
+      <c r="A190" s="6">
+        <v>522.0</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C190" s="7">
+        <v>290.0</v>
+      </c>
+      <c r="D190" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E190" s="4"/>
@@ -7210,13 +7219,13 @@
     </row>
     <row r="191">
       <c r="A191" s="6">
-        <v>587.0</v>
+        <v>524.0</v>
       </c>
       <c r="B191" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C191" s="7">
-        <v>265.0</v>
+        <v>325.0</v>
       </c>
       <c r="D191" s="5" t="s">
         <v>3</v>
@@ -7246,13 +7255,13 @@
     </row>
     <row r="192">
       <c r="A192" s="6">
-        <v>589.0</v>
+        <v>527.0</v>
       </c>
       <c r="B192" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C192" s="7">
-        <v>265.0</v>
+        <v>230.0</v>
       </c>
       <c r="D192" s="5" t="s">
         <v>3</v>
@@ -7281,16 +7290,16 @@
       <c r="Z192" s="4"/>
     </row>
     <row r="193">
-      <c r="A193" s="6">
-        <v>591.0</v>
-      </c>
-      <c r="B193" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C193" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D193" s="5" t="s">
+      <c r="A193" s="1">
+        <v>534.0</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C193" s="3">
+        <v>230.0</v>
+      </c>
+      <c r="D193" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E193" s="4"/>
@@ -7318,13 +7327,13 @@
     </row>
     <row r="194">
       <c r="A194" s="1">
-        <v>593.0</v>
+        <v>535.0</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C194" s="3">
-        <v>250.0</v>
+        <v>295.0</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>3</v>
@@ -7354,13 +7363,13 @@
     </row>
     <row r="195">
       <c r="A195" s="6">
-        <v>599.0</v>
+        <v>543.0</v>
       </c>
       <c r="B195" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C195" s="7">
-        <v>280.0</v>
+        <v>288.0</v>
       </c>
       <c r="D195" s="5" t="s">
         <v>3</v>
@@ -7390,13 +7399,13 @@
     </row>
     <row r="196">
       <c r="A196" s="6">
-        <v>601.0</v>
+        <v>546.0</v>
       </c>
       <c r="B196" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C196" s="7">
-        <v>305.0</v>
+        <v>265.0</v>
       </c>
       <c r="D196" s="5" t="s">
         <v>3</v>
@@ -7425,16 +7434,16 @@
       <c r="Z196" s="4"/>
     </row>
     <row r="197">
-      <c r="A197" s="1">
-        <v>604.0</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C197" s="3">
-        <v>295.0</v>
-      </c>
-      <c r="D197" s="2" t="s">
+      <c r="A197" s="6">
+        <v>551.0</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C197" s="7">
+        <v>270.0</v>
+      </c>
+      <c r="D197" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E197" s="4"/>
@@ -7461,14 +7470,14 @@
       <c r="Z197" s="4"/>
     </row>
     <row r="198">
-      <c r="A198" s="6">
-        <v>605.0</v>
+      <c r="A198" s="1">
+        <v>552.0</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C198" s="7">
-        <v>270.0</v>
+      <c r="C198" s="3">
+        <v>280.0</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>3</v>
@@ -7498,13 +7507,13 @@
     </row>
     <row r="199">
       <c r="A199" s="6">
-        <v>610.0</v>
+        <v>555.0</v>
       </c>
       <c r="B199" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C199" s="7">
-        <v>260.0</v>
+        <v>345.0</v>
       </c>
       <c r="D199" s="5" t="s">
         <v>3</v>
@@ -7533,16 +7542,16 @@
       <c r="Z199" s="4"/>
     </row>
     <row r="200">
-      <c r="A200" s="1">
-        <v>612.0</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C200" s="3">
-        <v>255.0</v>
-      </c>
-      <c r="D200" s="2" t="s">
+      <c r="A200" s="6">
+        <v>556.0</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C200" s="7">
+        <v>285.0</v>
+      </c>
+      <c r="D200" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E200" s="4"/>
@@ -7570,13 +7579,13 @@
     </row>
     <row r="201">
       <c r="A201" s="6">
-        <v>615.0</v>
+        <v>560.0</v>
       </c>
       <c r="B201" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C201" s="7" t="s">
-        <v>5</v>
+      <c r="C201" s="7">
+        <v>310.0</v>
       </c>
       <c r="D201" s="5" t="s">
         <v>3</v>
@@ -7606,13 +7615,13 @@
     </row>
     <row r="202">
       <c r="A202" s="1">
-        <v>617.0</v>
+        <v>561.0</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C202" s="3">
-        <v>330.0</v>
+        <v>280.0</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>3</v>
@@ -7642,13 +7651,13 @@
     </row>
     <row r="203">
       <c r="A203" s="6">
-        <v>618.0</v>
+        <v>562.0</v>
       </c>
       <c r="B203" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C203" s="7">
-        <v>330.0</v>
+      <c r="C203" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="D203" s="5" t="s">
         <v>3</v>
@@ -7677,16 +7686,16 @@
       <c r="Z203" s="4"/>
     </row>
     <row r="204">
-      <c r="A204" s="1">
-        <v>623.0</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C204" s="3">
-        <v>290.0</v>
-      </c>
-      <c r="D204" s="2" t="s">
+      <c r="A204" s="6">
+        <v>564.0</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C204" s="7">
+        <v>260.0</v>
+      </c>
+      <c r="D204" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E204" s="4"/>
@@ -7713,16 +7722,16 @@
       <c r="Z204" s="4"/>
     </row>
     <row r="205">
-      <c r="A205" s="6">
-        <v>624.0</v>
-      </c>
-      <c r="B205" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C205" s="7">
-        <v>310.0</v>
-      </c>
-      <c r="D205" s="5" t="s">
+      <c r="A205" s="1">
+        <v>567.0</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C205" s="3">
+        <v>325.0</v>
+      </c>
+      <c r="D205" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E205" s="4"/>
@@ -7750,13 +7759,13 @@
     </row>
     <row r="206">
       <c r="A206" s="1">
-        <v>625.0</v>
+        <v>576.0</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C206" s="3">
-        <v>320.0</v>
+        <v>260.0</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>3</v>
@@ -7785,16 +7794,16 @@
       <c r="Z206" s="4"/>
     </row>
     <row r="207">
-      <c r="A207" s="1">
-        <v>626.0</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C207" s="3">
-        <v>305.0</v>
-      </c>
-      <c r="D207" s="2" t="s">
+      <c r="A207" s="6">
+        <v>577.0</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C207" s="7">
+        <v>230.0</v>
+      </c>
+      <c r="D207" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E207" s="4"/>
@@ -7821,14 +7830,14 @@
       <c r="Z207" s="4"/>
     </row>
     <row r="208">
-      <c r="A208" s="6">
-        <v>628.0</v>
+      <c r="A208" s="9">
+        <v>580.0</v>
       </c>
       <c r="B208" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C208" s="7">
-        <v>305.0</v>
+        <v>240.0</v>
       </c>
       <c r="D208" s="5" t="s">
         <v>3</v>
@@ -7858,13 +7867,13 @@
     </row>
     <row r="209">
       <c r="A209" s="1">
-        <v>635.0</v>
+        <v>583.0</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C209" s="3">
-        <v>295.0</v>
+        <v>320.0</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>3</v>
@@ -7893,16 +7902,16 @@
       <c r="Z209" s="4"/>
     </row>
     <row r="210">
-      <c r="A210" s="6">
-        <v>640.0</v>
-      </c>
-      <c r="B210" s="5" t="s">
+      <c r="A210" s="1">
+        <v>584.0</v>
+      </c>
+      <c r="B210" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C210" s="7">
         <v>275.0</v>
       </c>
-      <c r="D210" s="5" t="s">
+      <c r="D210" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E210" s="4"/>
@@ -7930,13 +7939,13 @@
     </row>
     <row r="211">
       <c r="A211" s="1">
-        <v>642.0</v>
+        <v>586.0</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C211" s="3">
-        <v>270.0</v>
+        <v>240.0</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>3</v>
@@ -7965,16 +7974,16 @@
       <c r="Z211" s="4"/>
     </row>
     <row r="212">
-      <c r="A212" s="1">
-        <v>643.0</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C212" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D212" s="2" t="s">
+      <c r="A212" s="6">
+        <v>587.0</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C212" s="7">
+        <v>265.0</v>
+      </c>
+      <c r="D212" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E212" s="4"/>
@@ -8002,15 +8011,15 @@
     </row>
     <row r="213">
       <c r="A213" s="6">
-        <v>651.0</v>
-      </c>
-      <c r="B213" s="2" t="s">
+        <v>589.0</v>
+      </c>
+      <c r="B213" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C213" s="7">
-        <v>230.0</v>
-      </c>
-      <c r="D213" s="2" t="s">
+        <v>265.0</v>
+      </c>
+      <c r="D213" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E213" s="4"/>
@@ -8037,16 +8046,16 @@
       <c r="Z213" s="4"/>
     </row>
     <row r="214">
-      <c r="A214" s="1">
-        <v>652.0</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C214" s="3">
-        <v>330.0</v>
-      </c>
-      <c r="D214" s="2" t="s">
+      <c r="A214" s="6">
+        <v>591.0</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C214" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D214" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E214" s="4"/>
@@ -8073,16 +8082,16 @@
       <c r="Z214" s="4"/>
     </row>
     <row r="215">
-      <c r="A215" s="6">
-        <v>659.0</v>
-      </c>
-      <c r="B215" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C215" s="7">
-        <v>305.0</v>
-      </c>
-      <c r="D215" s="5" t="s">
+      <c r="A215" s="1">
+        <v>593.0</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C215" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D215" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E215" s="4"/>
@@ -8109,16 +8118,16 @@
       <c r="Z215" s="4"/>
     </row>
     <row r="216">
-      <c r="A216" s="1">
-        <v>663.0</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C216" s="3">
-        <v>265.0</v>
-      </c>
-      <c r="D216" s="2" t="s">
+      <c r="A216" s="6">
+        <v>599.0</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C216" s="7">
+        <v>280.0</v>
+      </c>
+      <c r="D216" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E216" s="4"/>
@@ -8146,13 +8155,13 @@
     </row>
     <row r="217">
       <c r="A217" s="6">
-        <v>666.0</v>
+        <v>601.0</v>
       </c>
       <c r="B217" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C217" s="7">
-        <v>300.0</v>
+        <v>305.0</v>
       </c>
       <c r="D217" s="5" t="s">
         <v>3</v>
@@ -8182,13 +8191,13 @@
     </row>
     <row r="218">
       <c r="A218" s="1">
-        <v>668.0</v>
+        <v>604.0</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C218" s="3">
-        <v>305.0</v>
+        <v>295.0</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>3</v>
@@ -8218,15 +8227,17 @@
     </row>
     <row r="219">
       <c r="A219" s="6">
-        <v>669.0</v>
-      </c>
-      <c r="B219" s="5" t="s">
+        <v>605.0</v>
+      </c>
+      <c r="B219" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C219" s="7">
-        <v>310.0</v>
-      </c>
-      <c r="D219" s="2"/>
+        <v>270.0</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E219" s="4"/>
       <c r="F219" s="4"/>
       <c r="G219" s="4"/>
@@ -8251,16 +8262,16 @@
       <c r="Z219" s="4"/>
     </row>
     <row r="220">
-      <c r="A220" s="1">
-        <v>670.0</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C220" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D220" s="2" t="s">
+      <c r="A220" s="6">
+        <v>610.0</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C220" s="7">
+        <v>260.0</v>
+      </c>
+      <c r="D220" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E220" s="4"/>
@@ -8287,16 +8298,16 @@
       <c r="Z220" s="4"/>
     </row>
     <row r="221">
-      <c r="A221" s="1">
-        <v>671.0</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C221" s="3">
-        <v>305.0</v>
-      </c>
-      <c r="D221" s="2" t="s">
+      <c r="A221" s="6">
+        <v>611.0</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C221" s="7">
+        <v>260.0</v>
+      </c>
+      <c r="D221" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E221" s="4"/>
@@ -8324,13 +8335,13 @@
     </row>
     <row r="222">
       <c r="A222" s="1">
-        <v>672.0</v>
+        <v>612.0</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C222" s="3">
-        <v>295.0</v>
+        <v>255.0</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>3</v>
@@ -8360,13 +8371,13 @@
     </row>
     <row r="223">
       <c r="A223" s="6">
-        <v>676.0</v>
+        <v>615.0</v>
       </c>
       <c r="B223" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C223" s="7">
-        <v>335.0</v>
+      <c r="C223" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="D223" s="5" t="s">
         <v>3</v>
@@ -8396,13 +8407,13 @@
     </row>
     <row r="224">
       <c r="A224" s="1">
-        <v>680.0</v>
+        <v>617.0</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C224" s="3">
-        <v>285.0</v>
+        <v>330.0</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>3</v>
@@ -8431,16 +8442,16 @@
       <c r="Z224" s="4"/>
     </row>
     <row r="225">
-      <c r="A225" s="1">
-        <v>688.0</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C225" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D225" s="2" t="s">
+      <c r="A225" s="6">
+        <v>618.0</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C225" s="7">
+        <v>330.0</v>
+      </c>
+      <c r="D225" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E225" s="4"/>
@@ -8467,14 +8478,14 @@
       <c r="Z225" s="4"/>
     </row>
     <row r="226">
-      <c r="A226" s="11">
-        <v>692.0</v>
+      <c r="A226" s="1">
+        <v>623.0</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C226" s="11">
-        <v>300.0</v>
+      <c r="C226" s="3">
+        <v>290.0</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>3</v>
@@ -8503,16 +8514,16 @@
       <c r="Z226" s="4"/>
     </row>
     <row r="227">
-      <c r="A227" s="1">
-        <v>696.0</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C227" s="3">
-        <v>300.0</v>
-      </c>
-      <c r="D227" s="2" t="s">
+      <c r="A227" s="6">
+        <v>624.0</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C227" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D227" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E227" s="4"/>
@@ -8539,16 +8550,16 @@
       <c r="Z227" s="4"/>
     </row>
     <row r="228">
-      <c r="A228" s="6">
-        <v>697.0</v>
-      </c>
-      <c r="B228" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C228" s="7">
-        <v>250.0</v>
-      </c>
-      <c r="D228" s="5" t="s">
+      <c r="A228" s="1">
+        <v>625.0</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C228" s="3">
+        <v>320.0</v>
+      </c>
+      <c r="D228" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E228" s="4"/>
@@ -8575,16 +8586,16 @@
       <c r="Z228" s="4"/>
     </row>
     <row r="229">
-      <c r="A229" s="6">
-        <v>705.0</v>
-      </c>
-      <c r="B229" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C229" s="7">
-        <v>280.0</v>
-      </c>
-      <c r="D229" s="5" t="s">
+      <c r="A229" s="1">
+        <v>626.0</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C229" s="3">
+        <v>305.0</v>
+      </c>
+      <c r="D229" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E229" s="4"/>
@@ -8612,13 +8623,13 @@
     </row>
     <row r="230">
       <c r="A230" s="6">
-        <v>706.0</v>
+        <v>628.0</v>
       </c>
       <c r="B230" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C230" s="7">
-        <v>320.0</v>
+        <v>305.0</v>
       </c>
       <c r="D230" s="5" t="s">
         <v>3</v>
@@ -8647,16 +8658,16 @@
       <c r="Z230" s="4"/>
     </row>
     <row r="231">
-      <c r="A231" s="6">
-        <v>709.0</v>
-      </c>
-      <c r="B231" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C231" s="7">
-        <v>320.0</v>
-      </c>
-      <c r="D231" s="5" t="s">
+      <c r="A231" s="1">
+        <v>635.0</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C231" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D231" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E231" s="4"/>
@@ -8684,13 +8695,13 @@
     </row>
     <row r="232">
       <c r="A232" s="6">
-        <v>712.0</v>
+        <v>640.0</v>
       </c>
       <c r="B232" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C232" s="7">
-        <v>295.0</v>
+        <v>275.0</v>
       </c>
       <c r="D232" s="5" t="s">
         <v>3</v>
@@ -8719,16 +8730,16 @@
       <c r="Z232" s="4"/>
     </row>
     <row r="233">
-      <c r="A233" s="6">
-        <v>713.0</v>
-      </c>
-      <c r="B233" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C233" s="7">
-        <v>310.0</v>
-      </c>
-      <c r="D233" s="5" t="s">
+      <c r="A233" s="1">
+        <v>642.0</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C233" s="3">
+        <v>270.0</v>
+      </c>
+      <c r="D233" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E233" s="4"/>
@@ -8756,13 +8767,13 @@
     </row>
     <row r="234">
       <c r="A234" s="1">
-        <v>714.0</v>
+        <v>643.0</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C234" s="3">
-        <v>275.0</v>
+        <v>310.0</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>3</v>
@@ -8792,13 +8803,15 @@
     </row>
     <row r="235">
       <c r="A235" s="6">
-        <v>715.0</v>
-      </c>
-      <c r="B235" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C235" s="3"/>
-      <c r="D235" s="5" t="s">
+        <v>651.0</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C235" s="7">
+        <v>230.0</v>
+      </c>
+      <c r="D235" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E235" s="4"/>
@@ -8826,7 +8839,7 @@
     </row>
     <row r="236">
       <c r="A236" s="1">
-        <v>718.0</v>
+        <v>652.0</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>3</v>
@@ -8861,16 +8874,16 @@
       <c r="Z236" s="4"/>
     </row>
     <row r="237">
-      <c r="A237" s="1">
-        <v>719.0</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C237" s="3">
-        <v>280.0</v>
-      </c>
-      <c r="D237" s="2" t="s">
+      <c r="A237" s="6">
+        <v>655.0</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C237" s="7">
+        <v>295.0</v>
+      </c>
+      <c r="D237" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E237" s="4"/>
@@ -8898,13 +8911,13 @@
     </row>
     <row r="238">
       <c r="A238" s="6">
-        <v>725.0</v>
+        <v>658.0</v>
       </c>
       <c r="B238" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C238" s="7">
-        <v>245.0</v>
+        <v>255.0</v>
       </c>
       <c r="D238" s="5" t="s">
         <v>3</v>
@@ -8934,13 +8947,13 @@
     </row>
     <row r="239">
       <c r="A239" s="6">
-        <v>730.0</v>
+        <v>659.0</v>
       </c>
       <c r="B239" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C239" s="7">
-        <v>315.0</v>
+        <v>305.0</v>
       </c>
       <c r="D239" s="5" t="s">
         <v>3</v>
@@ -8969,16 +8982,16 @@
       <c r="Z239" s="4"/>
     </row>
     <row r="240">
-      <c r="A240" s="6">
-        <v>731.0</v>
-      </c>
-      <c r="B240" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C240" s="7">
-        <v>260.0</v>
-      </c>
-      <c r="D240" s="5" t="s">
+      <c r="A240" s="1">
+        <v>663.0</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C240" s="3">
+        <v>265.0</v>
+      </c>
+      <c r="D240" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E240" s="4"/>
@@ -9005,16 +9018,16 @@
       <c r="Z240" s="4"/>
     </row>
     <row r="241">
-      <c r="A241" s="1">
-        <v>732.0</v>
-      </c>
-      <c r="B241" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C241" s="3">
-        <v>280.0</v>
-      </c>
-      <c r="D241" s="2" t="s">
+      <c r="A241" s="6">
+        <v>666.0</v>
+      </c>
+      <c r="B241" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C241" s="7">
+        <v>300.0</v>
+      </c>
+      <c r="D241" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E241" s="4"/>
@@ -9042,13 +9055,13 @@
     </row>
     <row r="242">
       <c r="A242" s="1">
-        <v>733.0</v>
+        <v>668.0</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C242" s="3">
-        <v>320.0</v>
+        <v>305.0</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>3</v>
@@ -9077,16 +9090,16 @@
       <c r="Z242" s="4"/>
     </row>
     <row r="243">
-      <c r="A243" s="1">
-        <v>736.0</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C243" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D243" s="2" t="s">
+      <c r="A243" s="6">
+        <v>669.0</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C243" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D243" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E243" s="4"/>
@@ -9113,16 +9126,16 @@
       <c r="Z243" s="4"/>
     </row>
     <row r="244">
-      <c r="A244" s="6">
-        <v>741.0</v>
-      </c>
-      <c r="B244" s="5" t="s">
+      <c r="A244" s="1">
+        <v>670.0</v>
+      </c>
+      <c r="B244" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C244" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D244" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D244" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E244" s="4"/>
@@ -9149,16 +9162,16 @@
       <c r="Z244" s="4"/>
     </row>
     <row r="245">
-      <c r="A245" s="6">
-        <v>742.0</v>
-      </c>
-      <c r="B245" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C245" s="7">
-        <v>240.0</v>
-      </c>
-      <c r="D245" s="5" t="s">
+      <c r="A245" s="1">
+        <v>671.0</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C245" s="3">
+        <v>305.0</v>
+      </c>
+      <c r="D245" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E245" s="4"/>
@@ -9186,13 +9199,13 @@
     </row>
     <row r="246">
       <c r="A246" s="1">
-        <v>744.0</v>
+        <v>672.0</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C246" s="3">
-        <v>270.0</v>
+        <v>295.0</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>3</v>
@@ -9221,16 +9234,16 @@
       <c r="Z246" s="4"/>
     </row>
     <row r="247">
-      <c r="A247" s="1">
-        <v>747.0</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C247" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D247" s="2" t="s">
+      <c r="A247" s="6">
+        <v>676.0</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C247" s="7">
+        <v>335.0</v>
+      </c>
+      <c r="D247" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E247" s="4"/>
@@ -9257,16 +9270,16 @@
       <c r="Z247" s="4"/>
     </row>
     <row r="248">
-      <c r="A248" s="6">
-        <v>748.0</v>
-      </c>
-      <c r="B248" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C248" s="7">
-        <v>230.0</v>
-      </c>
-      <c r="D248" s="5" t="s">
+      <c r="A248" s="1">
+        <v>680.0</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C248" s="3">
+        <v>285.0</v>
+      </c>
+      <c r="D248" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E248" s="4"/>
@@ -9294,13 +9307,13 @@
     </row>
     <row r="249">
       <c r="A249" s="1">
-        <v>749.0</v>
+        <v>688.0</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C249" s="3">
-        <v>335.0</v>
+        <v>310.0</v>
       </c>
       <c r="D249" s="2" t="s">
         <v>3</v>
@@ -9329,16 +9342,16 @@
       <c r="Z249" s="4"/>
     </row>
     <row r="250">
-      <c r="A250" s="6">
-        <v>757.0</v>
-      </c>
-      <c r="B250" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C250" s="7">
-        <v>280.0</v>
-      </c>
-      <c r="D250" s="5" t="s">
+      <c r="A250" s="10">
+        <v>692.0</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C250" s="10">
+        <v>300.0</v>
+      </c>
+      <c r="D250" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E250" s="4"/>
@@ -9366,13 +9379,13 @@
     </row>
     <row r="251">
       <c r="A251" s="1">
-        <v>758.0</v>
+        <v>696.0</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C251" s="3">
-        <v>295.0</v>
+        <v>300.0</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>3</v>
@@ -9402,13 +9415,13 @@
     </row>
     <row r="252">
       <c r="A252" s="6">
-        <v>761.0</v>
+        <v>697.0</v>
       </c>
       <c r="B252" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C252" s="7">
-        <v>260.0</v>
+        <v>250.0</v>
       </c>
       <c r="D252" s="5" t="s">
         <v>3</v>
@@ -9438,13 +9451,13 @@
     </row>
     <row r="253">
       <c r="A253" s="6">
-        <v>764.0</v>
+        <v>705.0</v>
       </c>
       <c r="B253" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C253" s="7">
-        <v>260.0</v>
+        <v>280.0</v>
       </c>
       <c r="D253" s="5" t="s">
         <v>3</v>
@@ -9473,16 +9486,16 @@
       <c r="Z253" s="4"/>
     </row>
     <row r="254">
-      <c r="A254" s="1">
-        <v>767.0</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C254" s="3">
-        <v>290.0</v>
-      </c>
-      <c r="D254" s="2" t="s">
+      <c r="A254" s="6">
+        <v>706.0</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C254" s="7">
+        <v>320.0</v>
+      </c>
+      <c r="D254" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E254" s="4"/>
@@ -9510,13 +9523,13 @@
     </row>
     <row r="255">
       <c r="A255" s="6">
-        <v>772.0</v>
+        <v>709.0</v>
       </c>
       <c r="B255" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C255" s="7">
-        <v>240.0</v>
+        <v>320.0</v>
       </c>
       <c r="D255" s="5" t="s">
         <v>3</v>
@@ -9545,16 +9558,16 @@
       <c r="Z255" s="4"/>
     </row>
     <row r="256">
-      <c r="A256" s="1">
-        <v>775.0</v>
-      </c>
-      <c r="B256" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C256" s="3">
-        <v>260.0</v>
-      </c>
-      <c r="D256" s="2" t="s">
+      <c r="A256" s="6">
+        <v>712.0</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C256" s="7">
+        <v>295.0</v>
+      </c>
+      <c r="D256" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E256" s="4"/>
@@ -9582,13 +9595,13 @@
     </row>
     <row r="257">
       <c r="A257" s="6">
-        <v>776.0</v>
+        <v>713.0</v>
       </c>
       <c r="B257" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C257" s="7">
-        <v>240.0</v>
+        <v>310.0</v>
       </c>
       <c r="D257" s="5" t="s">
         <v>3</v>
@@ -9618,13 +9631,13 @@
     </row>
     <row r="258">
       <c r="A258" s="1">
-        <v>777.0</v>
+        <v>714.0</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C258" s="3">
-        <v>310.0</v>
+      <c r="C258" s="7">
+        <v>280.0</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>3</v>
@@ -9653,16 +9666,14 @@
       <c r="Z258" s="4"/>
     </row>
     <row r="259">
-      <c r="A259" s="1">
-        <v>792.0</v>
-      </c>
-      <c r="B259" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C259" s="3">
-        <v>320.0</v>
-      </c>
-      <c r="D259" s="2" t="s">
+      <c r="A259" s="6">
+        <v>715.0</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C259" s="3"/>
+      <c r="D259" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E259" s="4"/>
@@ -9689,16 +9700,16 @@
       <c r="Z259" s="4"/>
     </row>
     <row r="260">
-      <c r="A260" s="6">
-        <v>784.0</v>
-      </c>
-      <c r="B260" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C260" s="7">
-        <v>270.0</v>
-      </c>
-      <c r="D260" s="5" t="s">
+      <c r="A260" s="1">
+        <v>718.0</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C260" s="3">
+        <v>330.0</v>
+      </c>
+      <c r="D260" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E260" s="4"/>
@@ -9725,16 +9736,16 @@
       <c r="Z260" s="4"/>
     </row>
     <row r="261">
-      <c r="A261" s="6">
-        <v>786.0</v>
-      </c>
-      <c r="B261" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C261" s="7">
-        <v>275.0</v>
-      </c>
-      <c r="D261" s="5" t="s">
+      <c r="A261" s="1">
+        <v>719.0</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C261" s="3">
+        <v>280.0</v>
+      </c>
+      <c r="D261" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E261" s="4"/>
@@ -9762,13 +9773,13 @@
     </row>
     <row r="262">
       <c r="A262" s="6">
-        <v>787.0</v>
+        <v>725.0</v>
       </c>
       <c r="B262" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C262" s="7">
-        <v>280.0</v>
+        <v>245.0</v>
       </c>
       <c r="D262" s="5" t="s">
         <v>3</v>
@@ -9798,13 +9809,13 @@
     </row>
     <row r="263">
       <c r="A263" s="6">
-        <v>789.0</v>
+        <v>730.0</v>
       </c>
       <c r="B263" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C263" s="7">
-        <v>265.0</v>
+        <v>315.0</v>
       </c>
       <c r="D263" s="5" t="s">
         <v>3</v>
@@ -9833,16 +9844,16 @@
       <c r="Z263" s="4"/>
     </row>
     <row r="264">
-      <c r="A264" s="1">
-        <v>795.0</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C264" s="3">
-        <v>255.0</v>
-      </c>
-      <c r="D264" s="2" t="s">
+      <c r="A264" s="6">
+        <v>731.0</v>
+      </c>
+      <c r="B264" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C264" s="7">
+        <v>260.0</v>
+      </c>
+      <c r="D264" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E264" s="4"/>
@@ -9869,16 +9880,16 @@
       <c r="Z264" s="4"/>
     </row>
     <row r="265">
-      <c r="A265" s="6">
-        <v>797.0</v>
-      </c>
-      <c r="B265" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C265" s="7">
-        <v>325.0</v>
-      </c>
-      <c r="D265" s="5" t="s">
+      <c r="A265" s="1">
+        <v>732.0</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C265" s="3">
+        <v>280.0</v>
+      </c>
+      <c r="D265" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E265" s="4"/>
@@ -9905,16 +9916,16 @@
       <c r="Z265" s="4"/>
     </row>
     <row r="266">
-      <c r="A266" s="6">
-        <v>799.0</v>
-      </c>
-      <c r="B266" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C266" s="7">
-        <v>310.0</v>
-      </c>
-      <c r="D266" s="5" t="s">
+      <c r="A266" s="1">
+        <v>733.0</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C266" s="3">
+        <v>320.0</v>
+      </c>
+      <c r="D266" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E266" s="4"/>
@@ -9942,13 +9953,13 @@
     </row>
     <row r="267">
       <c r="A267" s="1">
-        <v>801.0</v>
+        <v>736.0</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C267" s="3">
-        <v>230.0</v>
+        <v>250.0</v>
       </c>
       <c r="D267" s="2" t="s">
         <v>3</v>
@@ -9978,7 +9989,7 @@
     </row>
     <row r="268">
       <c r="A268" s="6">
-        <v>806.0</v>
+        <v>741.0</v>
       </c>
       <c r="B268" s="5" t="s">
         <v>3</v>
@@ -10013,16 +10024,16 @@
       <c r="Z268" s="4"/>
     </row>
     <row r="269">
-      <c r="A269" s="1">
-        <v>809.0</v>
-      </c>
-      <c r="B269" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C269" s="3">
-        <v>270.0</v>
-      </c>
-      <c r="D269" s="2" t="s">
+      <c r="A269" s="6">
+        <v>742.0</v>
+      </c>
+      <c r="B269" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C269" s="7">
+        <v>240.0</v>
+      </c>
+      <c r="D269" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E269" s="4"/>
@@ -10050,13 +10061,13 @@
     </row>
     <row r="270">
       <c r="A270" s="1">
-        <v>811.0</v>
+        <v>744.0</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C270" s="3">
-        <v>260.0</v>
+        <v>270.0</v>
       </c>
       <c r="D270" s="2" t="s">
         <v>3</v>
@@ -10085,16 +10096,16 @@
       <c r="Z270" s="4"/>
     </row>
     <row r="271">
-      <c r="A271" s="6">
-        <v>813.0</v>
-      </c>
-      <c r="B271" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C271" s="7">
-        <v>275.0</v>
-      </c>
-      <c r="D271" s="5" t="s">
+      <c r="A271" s="1">
+        <v>747.0</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C271" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D271" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E271" s="4"/>
@@ -10122,13 +10133,13 @@
     </row>
     <row r="272">
       <c r="A272" s="6">
-        <v>817.0</v>
+        <v>748.0</v>
       </c>
       <c r="B272" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C272" s="7">
-        <v>330.0</v>
+        <v>230.0</v>
       </c>
       <c r="D272" s="5" t="s">
         <v>3</v>
@@ -10158,13 +10169,13 @@
     </row>
     <row r="273">
       <c r="A273" s="1">
-        <v>819.0</v>
+        <v>749.0</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C273" s="3">
-        <v>200.0</v>
+        <v>335.0</v>
       </c>
       <c r="D273" s="2" t="s">
         <v>3</v>
@@ -10193,16 +10204,16 @@
       <c r="Z273" s="4"/>
     </row>
     <row r="274">
-      <c r="A274" s="1">
-        <v>820.0</v>
-      </c>
-      <c r="B274" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C274" s="3">
-        <v>245.0</v>
-      </c>
-      <c r="D274" s="2" t="s">
+      <c r="A274" s="6">
+        <v>757.0</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C274" s="7">
+        <v>280.0</v>
+      </c>
+      <c r="D274" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E274" s="4"/>
@@ -10230,13 +10241,13 @@
     </row>
     <row r="275">
       <c r="A275" s="1">
-        <v>821.0</v>
+        <v>758.0</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C275" s="3">
-        <v>300.0</v>
+        <v>295.0</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>3</v>
@@ -10266,13 +10277,13 @@
     </row>
     <row r="276">
       <c r="A276" s="6">
-        <v>824.0</v>
+        <v>761.0</v>
       </c>
       <c r="B276" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C276" s="7">
-        <v>310.0</v>
+        <v>260.0</v>
       </c>
       <c r="D276" s="5" t="s">
         <v>3</v>
@@ -10302,13 +10313,13 @@
     </row>
     <row r="277">
       <c r="A277" s="6">
-        <v>827.0</v>
+        <v>764.0</v>
       </c>
       <c r="B277" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C277" s="7">
-        <v>290.0</v>
+        <v>260.0</v>
       </c>
       <c r="D277" s="5" t="s">
         <v>3</v>
@@ -10337,16 +10348,16 @@
       <c r="Z277" s="4"/>
     </row>
     <row r="278">
-      <c r="A278" s="6">
-        <v>829.0</v>
-      </c>
-      <c r="B278" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C278" s="7">
-        <v>275.0</v>
-      </c>
-      <c r="D278" s="5" t="s">
+      <c r="A278" s="1">
+        <v>767.0</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C278" s="3">
+        <v>290.0</v>
+      </c>
+      <c r="D278" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E278" s="4"/>
@@ -10374,13 +10385,13 @@
     </row>
     <row r="279">
       <c r="A279" s="6">
-        <v>833.0</v>
+        <v>772.0</v>
       </c>
       <c r="B279" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C279" s="7">
-        <v>235.0</v>
+        <v>240.0</v>
       </c>
       <c r="D279" s="5" t="s">
         <v>3</v>
@@ -10409,16 +10420,16 @@
       <c r="Z279" s="4"/>
     </row>
     <row r="280">
-      <c r="A280" s="6">
-        <v>834.0</v>
-      </c>
-      <c r="B280" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C280" s="7">
-        <v>225.0</v>
-      </c>
-      <c r="D280" s="5" t="s">
+      <c r="A280" s="1">
+        <v>775.0</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C280" s="3">
+        <v>260.0</v>
+      </c>
+      <c r="D280" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E280" s="4"/>
@@ -10446,13 +10457,13 @@
     </row>
     <row r="281">
       <c r="A281" s="6">
-        <v>837.0</v>
+        <v>776.0</v>
       </c>
       <c r="B281" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C281" s="7">
-        <v>275.0</v>
+        <v>240.0</v>
       </c>
       <c r="D281" s="5" t="s">
         <v>3</v>
@@ -10481,16 +10492,16 @@
       <c r="Z281" s="4"/>
     </row>
     <row r="282">
-      <c r="A282" s="6">
-        <v>838.0</v>
-      </c>
-      <c r="B282" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C282" s="7">
-        <v>295.0</v>
-      </c>
-      <c r="D282" s="5" t="s">
+      <c r="A282" s="1">
+        <v>777.0</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C282" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D282" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E282" s="4"/>
@@ -10517,16 +10528,16 @@
       <c r="Z282" s="4"/>
     </row>
     <row r="283">
-      <c r="A283" s="6">
-        <v>843.0</v>
-      </c>
-      <c r="B283" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C283" s="7">
+      <c r="A283" s="1">
+        <v>792.0</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C283" s="3">
         <v>320.0</v>
       </c>
-      <c r="D283" s="5" t="s">
+      <c r="D283" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E283" s="4"/>
@@ -10554,13 +10565,13 @@
     </row>
     <row r="284">
       <c r="A284" s="6">
-        <v>845.0</v>
+        <v>784.0</v>
       </c>
       <c r="B284" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C284" s="7">
-        <v>235.0</v>
+        <v>270.0</v>
       </c>
       <c r="D284" s="5" t="s">
         <v>3</v>
@@ -10589,16 +10600,16 @@
       <c r="Z284" s="4"/>
     </row>
     <row r="285">
-      <c r="A285" s="1">
-        <v>846.0</v>
-      </c>
-      <c r="B285" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C285" s="3">
-        <v>295.0</v>
-      </c>
-      <c r="D285" s="2" t="s">
+      <c r="A285" s="6">
+        <v>786.0</v>
+      </c>
+      <c r="B285" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C285" s="7">
+        <v>275.0</v>
+      </c>
+      <c r="D285" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E285" s="4"/>
@@ -10625,16 +10636,16 @@
       <c r="Z285" s="4"/>
     </row>
     <row r="286">
-      <c r="A286" s="1">
-        <v>853.0</v>
-      </c>
-      <c r="B286" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C286" s="3">
-        <v>290.0</v>
-      </c>
-      <c r="D286" s="2" t="s">
+      <c r="A286" s="6">
+        <v>787.0</v>
+      </c>
+      <c r="B286" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C286" s="7">
+        <v>280.0</v>
+      </c>
+      <c r="D286" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E286" s="4"/>
@@ -10662,13 +10673,13 @@
     </row>
     <row r="287">
       <c r="A287" s="6">
-        <v>854.0</v>
+        <v>789.0</v>
       </c>
       <c r="B287" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C287" s="7">
-        <v>320.0</v>
+        <v>265.0</v>
       </c>
       <c r="D287" s="5" t="s">
         <v>3</v>
@@ -10698,13 +10709,13 @@
     </row>
     <row r="288">
       <c r="A288" s="1">
-        <v>856.0</v>
+        <v>795.0</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C288" s="3">
-        <v>260.0</v>
+        <v>255.0</v>
       </c>
       <c r="D288" s="2" t="s">
         <v>3</v>
@@ -10734,13 +10745,13 @@
     </row>
     <row r="289">
       <c r="A289" s="6">
-        <v>860.0</v>
+        <v>797.0</v>
       </c>
       <c r="B289" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C289" s="7" t="s">
-        <v>15</v>
+      <c r="C289" s="7">
+        <v>325.0</v>
       </c>
       <c r="D289" s="5" t="s">
         <v>3</v>
@@ -10769,16 +10780,16 @@
       <c r="Z289" s="4"/>
     </row>
     <row r="290">
-      <c r="A290" s="1">
-        <v>861.0</v>
-      </c>
-      <c r="B290" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C290" s="3">
-        <v>305.0</v>
-      </c>
-      <c r="D290" s="2" t="s">
+      <c r="A290" s="6">
+        <v>799.0</v>
+      </c>
+      <c r="B290" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C290" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D290" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E290" s="4"/>
@@ -10806,13 +10817,13 @@
     </row>
     <row r="291">
       <c r="A291" s="1">
-        <v>863.0</v>
+        <v>801.0</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C291" s="3">
-        <v>275.0</v>
+        <v>230.0</v>
       </c>
       <c r="D291" s="2" t="s">
         <v>3</v>
@@ -10842,13 +10853,13 @@
     </row>
     <row r="292">
       <c r="A292" s="6">
-        <v>865.0</v>
+        <v>806.0</v>
       </c>
       <c r="B292" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C292" s="7">
-        <v>270.0</v>
+      <c r="C292" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="D292" s="5" t="s">
         <v>3</v>
@@ -10877,16 +10888,16 @@
       <c r="Z292" s="4"/>
     </row>
     <row r="293">
-      <c r="A293" s="6">
-        <v>866.0</v>
-      </c>
-      <c r="B293" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C293" s="7">
-        <v>300.0</v>
-      </c>
-      <c r="D293" s="5" t="s">
+      <c r="A293" s="1">
+        <v>809.0</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C293" s="3">
+        <v>270.0</v>
+      </c>
+      <c r="D293" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E293" s="4"/>
@@ -10914,13 +10925,13 @@
     </row>
     <row r="294">
       <c r="A294" s="1">
-        <v>872.0</v>
+        <v>811.0</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C294" s="3">
-        <v>295.0</v>
+        <v>260.0</v>
       </c>
       <c r="D294" s="2" t="s">
         <v>3</v>
@@ -10950,13 +10961,13 @@
     </row>
     <row r="295">
       <c r="A295" s="6">
-        <v>876.0</v>
+        <v>813.0</v>
       </c>
       <c r="B295" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C295" s="7">
-        <v>250.0</v>
+        <v>275.0</v>
       </c>
       <c r="D295" s="5" t="s">
         <v>3</v>
@@ -10985,16 +10996,16 @@
       <c r="Z295" s="4"/>
     </row>
     <row r="296">
-      <c r="A296" s="1">
-        <v>880.0</v>
-      </c>
-      <c r="B296" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C296" s="3">
-        <v>225.0</v>
-      </c>
-      <c r="D296" s="2" t="s">
+      <c r="A296" s="6">
+        <v>817.0</v>
+      </c>
+      <c r="B296" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C296" s="7">
+        <v>330.0</v>
+      </c>
+      <c r="D296" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E296" s="4"/>
@@ -11021,16 +11032,16 @@
       <c r="Z296" s="4"/>
     </row>
     <row r="297">
-      <c r="A297" s="6">
-        <v>882.0</v>
-      </c>
-      <c r="B297" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C297" s="7">
-        <v>240.0</v>
-      </c>
-      <c r="D297" s="5" t="s">
+      <c r="A297" s="1">
+        <v>819.0</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C297" s="3">
+        <v>200.0</v>
+      </c>
+      <c r="D297" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E297" s="4"/>
@@ -11057,16 +11068,16 @@
       <c r="Z297" s="4"/>
     </row>
     <row r="298">
-      <c r="A298" s="6">
-        <v>886.0</v>
-      </c>
-      <c r="B298" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C298" s="7">
-        <v>230.0</v>
-      </c>
-      <c r="D298" s="5" t="s">
+      <c r="A298" s="1">
+        <v>820.0</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C298" s="3">
+        <v>245.0</v>
+      </c>
+      <c r="D298" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E298" s="4"/>
@@ -11093,16 +11104,16 @@
       <c r="Z298" s="4"/>
     </row>
     <row r="299">
-      <c r="A299" s="6">
-        <v>887.0</v>
-      </c>
-      <c r="B299" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C299" s="7">
-        <v>265.0</v>
-      </c>
-      <c r="D299" s="5" t="s">
+      <c r="A299" s="1">
+        <v>821.0</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C299" s="3">
+        <v>300.0</v>
+      </c>
+      <c r="D299" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E299" s="4"/>
@@ -11130,7 +11141,7 @@
     </row>
     <row r="300">
       <c r="A300" s="6">
-        <v>897.0</v>
+        <v>824.0</v>
       </c>
       <c r="B300" s="5" t="s">
         <v>3</v>
@@ -11165,16 +11176,16 @@
       <c r="Z300" s="4"/>
     </row>
     <row r="301">
-      <c r="A301" s="1">
-        <v>899.0</v>
-      </c>
-      <c r="B301" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C301" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D301" s="2" t="s">
+      <c r="A301" s="6">
+        <v>827.0</v>
+      </c>
+      <c r="B301" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C301" s="7">
+        <v>290.0</v>
+      </c>
+      <c r="D301" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E301" s="4"/>
@@ -11201,16 +11212,16 @@
       <c r="Z301" s="4"/>
     </row>
     <row r="302">
-      <c r="A302" s="1">
-        <v>901.0</v>
-      </c>
-      <c r="B302" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C302" s="3">
+      <c r="A302" s="6">
+        <v>829.0</v>
+      </c>
+      <c r="B302" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C302" s="7">
         <v>275.0</v>
       </c>
-      <c r="D302" s="2" t="s">
+      <c r="D302" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E302" s="4"/>
@@ -11238,13 +11249,13 @@
     </row>
     <row r="303">
       <c r="A303" s="6">
-        <v>910.0</v>
+        <v>832.0</v>
       </c>
       <c r="B303" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C303" s="7">
-        <v>330.0</v>
+        <v>235.0</v>
       </c>
       <c r="D303" s="5" t="s">
         <v>3</v>
@@ -11273,14 +11284,14 @@
       <c r="Z303" s="4"/>
     </row>
     <row r="304">
-      <c r="A304" s="1">
-        <v>935.0</v>
-      </c>
-      <c r="B304" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C304" s="3">
-        <v>310.0</v>
+      <c r="A304" s="6">
+        <v>833.0</v>
+      </c>
+      <c r="B304" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C304" s="7">
+        <v>235.0</v>
       </c>
       <c r="D304" s="5" t="s">
         <v>3</v>
@@ -11310,13 +11321,13 @@
     </row>
     <row r="305">
       <c r="A305" s="6">
-        <v>948.0</v>
+        <v>834.0</v>
       </c>
       <c r="B305" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C305" s="7">
-        <v>310.0</v>
+        <v>225.0</v>
       </c>
       <c r="D305" s="5" t="s">
         <v>3</v>
@@ -11346,13 +11357,13 @@
     </row>
     <row r="306">
       <c r="A306" s="6">
-        <v>949.0</v>
+        <v>837.0</v>
       </c>
       <c r="B306" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C306" s="7">
-        <v>310.0</v>
+        <v>275.0</v>
       </c>
       <c r="D306" s="5" t="s">
         <v>3</v>
@@ -11381,14 +11392,14 @@
       <c r="Z306" s="4"/>
     </row>
     <row r="307">
-      <c r="A307" s="5">
-        <v>1000.0</v>
+      <c r="A307" s="6">
+        <v>838.0</v>
       </c>
       <c r="B307" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C307" s="5">
-        <v>2000.0</v>
+      <c r="C307" s="7">
+        <v>295.0</v>
       </c>
       <c r="D307" s="5" t="s">
         <v>3</v>
@@ -11417,10 +11428,18 @@
       <c r="Z307" s="4"/>
     </row>
     <row r="308">
-      <c r="A308" s="2"/>
-      <c r="B308" s="2"/>
-      <c r="C308" s="2"/>
-      <c r="D308" s="2"/>
+      <c r="A308" s="6">
+        <v>843.0</v>
+      </c>
+      <c r="B308" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C308" s="7">
+        <v>320.0</v>
+      </c>
+      <c r="D308" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E308" s="4"/>
       <c r="F308" s="4"/>
       <c r="G308" s="4"/>
@@ -11445,10 +11464,18 @@
       <c r="Z308" s="4"/>
     </row>
     <row r="309">
-      <c r="A309" s="2"/>
-      <c r="B309" s="2"/>
-      <c r="C309" s="2"/>
-      <c r="D309" s="2"/>
+      <c r="A309" s="6">
+        <v>845.0</v>
+      </c>
+      <c r="B309" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C309" s="7">
+        <v>235.0</v>
+      </c>
+      <c r="D309" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E309" s="4"/>
       <c r="F309" s="4"/>
       <c r="G309" s="4"/>
@@ -11473,10 +11500,18 @@
       <c r="Z309" s="4"/>
     </row>
     <row r="310">
-      <c r="A310" s="2"/>
-      <c r="B310" s="2"/>
-      <c r="C310" s="2"/>
-      <c r="D310" s="2"/>
+      <c r="A310" s="1">
+        <v>846.0</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C310" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E310" s="4"/>
       <c r="F310" s="4"/>
       <c r="G310" s="4"/>
@@ -11501,10 +11536,18 @@
       <c r="Z310" s="4"/>
     </row>
     <row r="311">
-      <c r="A311" s="2"/>
-      <c r="B311" s="2"/>
-      <c r="C311" s="2"/>
-      <c r="D311" s="2"/>
+      <c r="A311" s="1">
+        <v>853.0</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C311" s="3">
+        <v>290.0</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E311" s="4"/>
       <c r="F311" s="4"/>
       <c r="G311" s="4"/>
@@ -11529,10 +11572,18 @@
       <c r="Z311" s="4"/>
     </row>
     <row r="312">
-      <c r="A312" s="2"/>
-      <c r="B312" s="2"/>
-      <c r="C312" s="2"/>
-      <c r="D312" s="2"/>
+      <c r="A312" s="6">
+        <v>854.0</v>
+      </c>
+      <c r="B312" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C312" s="7">
+        <v>320.0</v>
+      </c>
+      <c r="D312" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E312" s="4"/>
       <c r="F312" s="4"/>
       <c r="G312" s="4"/>
@@ -11557,10 +11608,18 @@
       <c r="Z312" s="4"/>
     </row>
     <row r="313">
-      <c r="A313" s="2"/>
-      <c r="B313" s="2"/>
-      <c r="C313" s="2"/>
-      <c r="D313" s="2"/>
+      <c r="A313" s="6">
+        <v>855.0</v>
+      </c>
+      <c r="B313" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C313" s="7">
+        <v>270.0</v>
+      </c>
+      <c r="D313" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E313" s="4"/>
       <c r="F313" s="4"/>
       <c r="G313" s="4"/>
@@ -11585,10 +11644,18 @@
       <c r="Z313" s="4"/>
     </row>
     <row r="314">
-      <c r="A314" s="2"/>
-      <c r="B314" s="2"/>
-      <c r="C314" s="2"/>
-      <c r="D314" s="2"/>
+      <c r="A314" s="1">
+        <v>856.0</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C314" s="3">
+        <v>260.0</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E314" s="4"/>
       <c r="F314" s="4"/>
       <c r="G314" s="4"/>
@@ -11613,10 +11680,18 @@
       <c r="Z314" s="4"/>
     </row>
     <row r="315">
-      <c r="A315" s="2"/>
-      <c r="B315" s="2"/>
-      <c r="C315" s="2"/>
-      <c r="D315" s="2"/>
+      <c r="A315" s="6">
+        <v>860.0</v>
+      </c>
+      <c r="B315" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C315" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D315" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E315" s="4"/>
       <c r="F315" s="4"/>
       <c r="G315" s="4"/>
@@ -11641,10 +11716,18 @@
       <c r="Z315" s="4"/>
     </row>
     <row r="316">
-      <c r="A316" s="2"/>
-      <c r="B316" s="2"/>
-      <c r="C316" s="2"/>
-      <c r="D316" s="2"/>
+      <c r="A316" s="1">
+        <v>861.0</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C316" s="3">
+        <v>305.0</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E316" s="4"/>
       <c r="F316" s="4"/>
       <c r="G316" s="4"/>
@@ -11669,10 +11752,18 @@
       <c r="Z316" s="4"/>
     </row>
     <row r="317">
-      <c r="A317" s="2"/>
-      <c r="B317" s="2"/>
-      <c r="C317" s="2"/>
-      <c r="D317" s="2"/>
+      <c r="A317" s="1">
+        <v>863.0</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C317" s="3">
+        <v>275.0</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E317" s="4"/>
       <c r="F317" s="4"/>
       <c r="G317" s="4"/>
@@ -11697,10 +11788,18 @@
       <c r="Z317" s="4"/>
     </row>
     <row r="318">
-      <c r="A318" s="2"/>
-      <c r="B318" s="2"/>
-      <c r="C318" s="2"/>
-      <c r="D318" s="2"/>
+      <c r="A318" s="6">
+        <v>865.0</v>
+      </c>
+      <c r="B318" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C318" s="7">
+        <v>270.0</v>
+      </c>
+      <c r="D318" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E318" s="4"/>
       <c r="F318" s="4"/>
       <c r="G318" s="4"/>
@@ -11725,10 +11824,18 @@
       <c r="Z318" s="4"/>
     </row>
     <row r="319">
-      <c r="A319" s="2"/>
-      <c r="B319" s="2"/>
-      <c r="C319" s="2"/>
-      <c r="D319" s="2"/>
+      <c r="A319" s="6">
+        <v>866.0</v>
+      </c>
+      <c r="B319" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C319" s="7">
+        <v>300.0</v>
+      </c>
+      <c r="D319" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E319" s="4"/>
       <c r="F319" s="4"/>
       <c r="G319" s="4"/>
@@ -11753,10 +11860,18 @@
       <c r="Z319" s="4"/>
     </row>
     <row r="320">
-      <c r="A320" s="2"/>
-      <c r="B320" s="2"/>
-      <c r="C320" s="2"/>
-      <c r="D320" s="2"/>
+      <c r="A320" s="1">
+        <v>872.0</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C320" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E320" s="4"/>
       <c r="F320" s="4"/>
       <c r="G320" s="4"/>
@@ -11781,10 +11896,18 @@
       <c r="Z320" s="4"/>
     </row>
     <row r="321">
-      <c r="A321" s="2"/>
-      <c r="B321" s="2"/>
-      <c r="C321" s="2"/>
-      <c r="D321" s="2"/>
+      <c r="A321" s="6">
+        <v>875.0</v>
+      </c>
+      <c r="B321" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C321" s="7">
+        <v>305.0</v>
+      </c>
+      <c r="D321" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E321" s="4"/>
       <c r="F321" s="4"/>
       <c r="G321" s="4"/>
@@ -11809,10 +11932,18 @@
       <c r="Z321" s="4"/>
     </row>
     <row r="322">
-      <c r="A322" s="2"/>
-      <c r="B322" s="2"/>
-      <c r="C322" s="2"/>
-      <c r="D322" s="2"/>
+      <c r="A322" s="6">
+        <v>876.0</v>
+      </c>
+      <c r="B322" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C322" s="7">
+        <v>250.0</v>
+      </c>
+      <c r="D322" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E322" s="4"/>
       <c r="F322" s="4"/>
       <c r="G322" s="4"/>
@@ -11837,10 +11968,18 @@
       <c r="Z322" s="4"/>
     </row>
     <row r="323">
-      <c r="A323" s="2"/>
-      <c r="B323" s="2"/>
-      <c r="C323" s="2"/>
-      <c r="D323" s="2"/>
+      <c r="A323" s="6">
+        <v>878.0</v>
+      </c>
+      <c r="B323" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C323" s="7">
+        <v>235.0</v>
+      </c>
+      <c r="D323" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E323" s="4"/>
       <c r="F323" s="4"/>
       <c r="G323" s="4"/>
@@ -11865,10 +12004,18 @@
       <c r="Z323" s="4"/>
     </row>
     <row r="324">
-      <c r="A324" s="2"/>
-      <c r="B324" s="2"/>
-      <c r="C324" s="2"/>
-      <c r="D324" s="2"/>
+      <c r="A324" s="1">
+        <v>880.0</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C324" s="3">
+        <v>225.0</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E324" s="4"/>
       <c r="F324" s="4"/>
       <c r="G324" s="4"/>
@@ -11893,10 +12040,18 @@
       <c r="Z324" s="4"/>
     </row>
     <row r="325">
-      <c r="A325" s="2"/>
-      <c r="B325" s="2"/>
-      <c r="C325" s="2"/>
-      <c r="D325" s="2"/>
+      <c r="A325" s="6">
+        <v>882.0</v>
+      </c>
+      <c r="B325" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C325" s="7">
+        <v>240.0</v>
+      </c>
+      <c r="D325" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E325" s="4"/>
       <c r="F325" s="4"/>
       <c r="G325" s="4"/>
@@ -11921,10 +12076,18 @@
       <c r="Z325" s="4"/>
     </row>
     <row r="326">
-      <c r="A326" s="2"/>
-      <c r="B326" s="2"/>
-      <c r="C326" s="2"/>
-      <c r="D326" s="2"/>
+      <c r="A326" s="6">
+        <v>886.0</v>
+      </c>
+      <c r="B326" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C326" s="7">
+        <v>230.0</v>
+      </c>
+      <c r="D326" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E326" s="4"/>
       <c r="F326" s="4"/>
       <c r="G326" s="4"/>
@@ -11949,10 +12112,18 @@
       <c r="Z326" s="4"/>
     </row>
     <row r="327">
-      <c r="A327" s="2"/>
-      <c r="B327" s="2"/>
-      <c r="C327" s="2"/>
-      <c r="D327" s="2"/>
+      <c r="A327" s="6">
+        <v>887.0</v>
+      </c>
+      <c r="B327" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C327" s="7">
+        <v>265.0</v>
+      </c>
+      <c r="D327" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E327" s="4"/>
       <c r="F327" s="4"/>
       <c r="G327" s="4"/>
@@ -11977,10 +12148,18 @@
       <c r="Z327" s="4"/>
     </row>
     <row r="328">
-      <c r="A328" s="2"/>
-      <c r="B328" s="2"/>
-      <c r="C328" s="2"/>
-      <c r="D328" s="2"/>
+      <c r="A328" s="6">
+        <v>888.0</v>
+      </c>
+      <c r="B328" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C328" s="7">
+        <v>245.0</v>
+      </c>
+      <c r="D328" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E328" s="4"/>
       <c r="F328" s="4"/>
       <c r="G328" s="4"/>
@@ -12005,10 +12184,18 @@
       <c r="Z328" s="4"/>
     </row>
     <row r="329">
-      <c r="A329" s="2"/>
-      <c r="B329" s="2"/>
-      <c r="C329" s="2"/>
-      <c r="D329" s="2"/>
+      <c r="A329" s="6">
+        <v>897.0</v>
+      </c>
+      <c r="B329" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C329" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D329" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E329" s="4"/>
       <c r="F329" s="4"/>
       <c r="G329" s="4"/>
@@ -12033,10 +12220,18 @@
       <c r="Z329" s="4"/>
     </row>
     <row r="330">
-      <c r="A330" s="2"/>
-      <c r="B330" s="2"/>
-      <c r="C330" s="2"/>
-      <c r="D330" s="2"/>
+      <c r="A330" s="1">
+        <v>899.0</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C330" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E330" s="4"/>
       <c r="F330" s="4"/>
       <c r="G330" s="4"/>
@@ -12061,10 +12256,18 @@
       <c r="Z330" s="4"/>
     </row>
     <row r="331">
-      <c r="A331" s="2"/>
-      <c r="B331" s="2"/>
-      <c r="C331" s="2"/>
-      <c r="D331" s="2"/>
+      <c r="A331" s="1">
+        <v>901.0</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C331" s="3">
+        <v>275.0</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E331" s="4"/>
       <c r="F331" s="4"/>
       <c r="G331" s="4"/>
@@ -12089,10 +12292,18 @@
       <c r="Z331" s="4"/>
     </row>
     <row r="332">
-      <c r="A332" s="2"/>
-      <c r="B332" s="2"/>
-      <c r="C332" s="2"/>
-      <c r="D332" s="2"/>
+      <c r="A332" s="6">
+        <v>910.0</v>
+      </c>
+      <c r="B332" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C332" s="7">
+        <v>330.0</v>
+      </c>
+      <c r="D332" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E332" s="4"/>
       <c r="F332" s="4"/>
       <c r="G332" s="4"/>
@@ -12117,10 +12328,18 @@
       <c r="Z332" s="4"/>
     </row>
     <row r="333">
-      <c r="A333" s="2"/>
-      <c r="B333" s="2"/>
-      <c r="C333" s="2"/>
-      <c r="D333" s="2"/>
+      <c r="A333" s="1">
+        <v>935.0</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C333" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D333" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E333" s="4"/>
       <c r="F333" s="4"/>
       <c r="G333" s="4"/>
@@ -12145,10 +12364,18 @@
       <c r="Z333" s="4"/>
     </row>
     <row r="334">
-      <c r="A334" s="2"/>
-      <c r="B334" s="2"/>
-      <c r="C334" s="2"/>
-      <c r="D334" s="2"/>
+      <c r="A334" s="6">
+        <v>939.0</v>
+      </c>
+      <c r="B334" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C334" s="7">
+        <v>245.0</v>
+      </c>
+      <c r="D334" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E334" s="4"/>
       <c r="F334" s="4"/>
       <c r="G334" s="4"/>
@@ -12173,10 +12400,18 @@
       <c r="Z334" s="4"/>
     </row>
     <row r="335">
-      <c r="A335" s="2"/>
-      <c r="B335" s="2"/>
-      <c r="C335" s="2"/>
-      <c r="D335" s="2"/>
+      <c r="A335" s="6">
+        <v>948.0</v>
+      </c>
+      <c r="B335" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C335" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D335" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E335" s="4"/>
       <c r="F335" s="4"/>
       <c r="G335" s="4"/>
@@ -12201,10 +12436,18 @@
       <c r="Z335" s="4"/>
     </row>
     <row r="336">
-      <c r="A336" s="2"/>
-      <c r="B336" s="2"/>
-      <c r="C336" s="2"/>
-      <c r="D336" s="2"/>
+      <c r="A336" s="6">
+        <v>949.0</v>
+      </c>
+      <c r="B336" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C336" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D336" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E336" s="4"/>
       <c r="F336" s="4"/>
       <c r="G336" s="4"/>
@@ -12229,10 +12472,18 @@
       <c r="Z336" s="4"/>
     </row>
     <row r="337">
-      <c r="A337" s="2"/>
-      <c r="B337" s="2"/>
-      <c r="C337" s="2"/>
-      <c r="D337" s="2"/>
+      <c r="A337" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="B337" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C337" s="5">
+        <v>2000.0</v>
+      </c>
+      <c r="D337" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E337" s="4"/>
       <c r="F337" s="4"/>
       <c r="G337" s="4"/>
@@ -35553,10 +35804,10 @@
       <c r="Z1169" s="4"/>
     </row>
     <row r="1170">
-      <c r="A1170" s="4"/>
-      <c r="B1170" s="4"/>
-      <c r="C1170" s="4"/>
-      <c r="D1170" s="4"/>
+      <c r="A1170" s="2"/>
+      <c r="B1170" s="2"/>
+      <c r="C1170" s="2"/>
+      <c r="D1170" s="2"/>
       <c r="E1170" s="4"/>
       <c r="F1170" s="4"/>
       <c r="G1170" s="4"/>
@@ -35580,6 +35831,846 @@
       <c r="Y1170" s="4"/>
       <c r="Z1170" s="4"/>
     </row>
+    <row r="1171">
+      <c r="A1171" s="2"/>
+      <c r="B1171" s="2"/>
+      <c r="C1171" s="2"/>
+      <c r="D1171" s="2"/>
+      <c r="E1171" s="4"/>
+      <c r="F1171" s="4"/>
+      <c r="G1171" s="4"/>
+      <c r="H1171" s="4"/>
+      <c r="I1171" s="4"/>
+      <c r="J1171" s="4"/>
+      <c r="K1171" s="4"/>
+      <c r="L1171" s="4"/>
+      <c r="M1171" s="4"/>
+      <c r="N1171" s="4"/>
+      <c r="O1171" s="4"/>
+      <c r="P1171" s="4"/>
+      <c r="Q1171" s="4"/>
+      <c r="R1171" s="4"/>
+      <c r="S1171" s="4"/>
+      <c r="T1171" s="4"/>
+      <c r="U1171" s="4"/>
+      <c r="V1171" s="4"/>
+      <c r="W1171" s="4"/>
+      <c r="X1171" s="4"/>
+      <c r="Y1171" s="4"/>
+      <c r="Z1171" s="4"/>
+    </row>
+    <row r="1172">
+      <c r="A1172" s="2"/>
+      <c r="B1172" s="2"/>
+      <c r="C1172" s="2"/>
+      <c r="D1172" s="2"/>
+      <c r="E1172" s="4"/>
+      <c r="F1172" s="4"/>
+      <c r="G1172" s="4"/>
+      <c r="H1172" s="4"/>
+      <c r="I1172" s="4"/>
+      <c r="J1172" s="4"/>
+      <c r="K1172" s="4"/>
+      <c r="L1172" s="4"/>
+      <c r="M1172" s="4"/>
+      <c r="N1172" s="4"/>
+      <c r="O1172" s="4"/>
+      <c r="P1172" s="4"/>
+      <c r="Q1172" s="4"/>
+      <c r="R1172" s="4"/>
+      <c r="S1172" s="4"/>
+      <c r="T1172" s="4"/>
+      <c r="U1172" s="4"/>
+      <c r="V1172" s="4"/>
+      <c r="W1172" s="4"/>
+      <c r="X1172" s="4"/>
+      <c r="Y1172" s="4"/>
+      <c r="Z1172" s="4"/>
+    </row>
+    <row r="1173">
+      <c r="A1173" s="2"/>
+      <c r="B1173" s="2"/>
+      <c r="C1173" s="2"/>
+      <c r="D1173" s="2"/>
+      <c r="E1173" s="4"/>
+      <c r="F1173" s="4"/>
+      <c r="G1173" s="4"/>
+      <c r="H1173" s="4"/>
+      <c r="I1173" s="4"/>
+      <c r="J1173" s="4"/>
+      <c r="K1173" s="4"/>
+      <c r="L1173" s="4"/>
+      <c r="M1173" s="4"/>
+      <c r="N1173" s="4"/>
+      <c r="O1173" s="4"/>
+      <c r="P1173" s="4"/>
+      <c r="Q1173" s="4"/>
+      <c r="R1173" s="4"/>
+      <c r="S1173" s="4"/>
+      <c r="T1173" s="4"/>
+      <c r="U1173" s="4"/>
+      <c r="V1173" s="4"/>
+      <c r="W1173" s="4"/>
+      <c r="X1173" s="4"/>
+      <c r="Y1173" s="4"/>
+      <c r="Z1173" s="4"/>
+    </row>
+    <row r="1174">
+      <c r="A1174" s="2"/>
+      <c r="B1174" s="2"/>
+      <c r="C1174" s="2"/>
+      <c r="D1174" s="2"/>
+      <c r="E1174" s="4"/>
+      <c r="F1174" s="4"/>
+      <c r="G1174" s="4"/>
+      <c r="H1174" s="4"/>
+      <c r="I1174" s="4"/>
+      <c r="J1174" s="4"/>
+      <c r="K1174" s="4"/>
+      <c r="L1174" s="4"/>
+      <c r="M1174" s="4"/>
+      <c r="N1174" s="4"/>
+      <c r="O1174" s="4"/>
+      <c r="P1174" s="4"/>
+      <c r="Q1174" s="4"/>
+      <c r="R1174" s="4"/>
+      <c r="S1174" s="4"/>
+      <c r="T1174" s="4"/>
+      <c r="U1174" s="4"/>
+      <c r="V1174" s="4"/>
+      <c r="W1174" s="4"/>
+      <c r="X1174" s="4"/>
+      <c r="Y1174" s="4"/>
+      <c r="Z1174" s="4"/>
+    </row>
+    <row r="1175">
+      <c r="A1175" s="2"/>
+      <c r="B1175" s="2"/>
+      <c r="C1175" s="2"/>
+      <c r="D1175" s="2"/>
+      <c r="E1175" s="4"/>
+      <c r="F1175" s="4"/>
+      <c r="G1175" s="4"/>
+      <c r="H1175" s="4"/>
+      <c r="I1175" s="4"/>
+      <c r="J1175" s="4"/>
+      <c r="K1175" s="4"/>
+      <c r="L1175" s="4"/>
+      <c r="M1175" s="4"/>
+      <c r="N1175" s="4"/>
+      <c r="O1175" s="4"/>
+      <c r="P1175" s="4"/>
+      <c r="Q1175" s="4"/>
+      <c r="R1175" s="4"/>
+      <c r="S1175" s="4"/>
+      <c r="T1175" s="4"/>
+      <c r="U1175" s="4"/>
+      <c r="V1175" s="4"/>
+      <c r="W1175" s="4"/>
+      <c r="X1175" s="4"/>
+      <c r="Y1175" s="4"/>
+      <c r="Z1175" s="4"/>
+    </row>
+    <row r="1176">
+      <c r="A1176" s="2"/>
+      <c r="B1176" s="2"/>
+      <c r="C1176" s="2"/>
+      <c r="D1176" s="2"/>
+      <c r="E1176" s="4"/>
+      <c r="F1176" s="4"/>
+      <c r="G1176" s="4"/>
+      <c r="H1176" s="4"/>
+      <c r="I1176" s="4"/>
+      <c r="J1176" s="4"/>
+      <c r="K1176" s="4"/>
+      <c r="L1176" s="4"/>
+      <c r="M1176" s="4"/>
+      <c r="N1176" s="4"/>
+      <c r="O1176" s="4"/>
+      <c r="P1176" s="4"/>
+      <c r="Q1176" s="4"/>
+      <c r="R1176" s="4"/>
+      <c r="S1176" s="4"/>
+      <c r="T1176" s="4"/>
+      <c r="U1176" s="4"/>
+      <c r="V1176" s="4"/>
+      <c r="W1176" s="4"/>
+      <c r="X1176" s="4"/>
+      <c r="Y1176" s="4"/>
+      <c r="Z1176" s="4"/>
+    </row>
+    <row r="1177">
+      <c r="A1177" s="2"/>
+      <c r="B1177" s="2"/>
+      <c r="C1177" s="2"/>
+      <c r="D1177" s="2"/>
+      <c r="E1177" s="4"/>
+      <c r="F1177" s="4"/>
+      <c r="G1177" s="4"/>
+      <c r="H1177" s="4"/>
+      <c r="I1177" s="4"/>
+      <c r="J1177" s="4"/>
+      <c r="K1177" s="4"/>
+      <c r="L1177" s="4"/>
+      <c r="M1177" s="4"/>
+      <c r="N1177" s="4"/>
+      <c r="O1177" s="4"/>
+      <c r="P1177" s="4"/>
+      <c r="Q1177" s="4"/>
+      <c r="R1177" s="4"/>
+      <c r="S1177" s="4"/>
+      <c r="T1177" s="4"/>
+      <c r="U1177" s="4"/>
+      <c r="V1177" s="4"/>
+      <c r="W1177" s="4"/>
+      <c r="X1177" s="4"/>
+      <c r="Y1177" s="4"/>
+      <c r="Z1177" s="4"/>
+    </row>
+    <row r="1178">
+      <c r="A1178" s="2"/>
+      <c r="B1178" s="2"/>
+      <c r="C1178" s="2"/>
+      <c r="D1178" s="2"/>
+      <c r="E1178" s="4"/>
+      <c r="F1178" s="4"/>
+      <c r="G1178" s="4"/>
+      <c r="H1178" s="4"/>
+      <c r="I1178" s="4"/>
+      <c r="J1178" s="4"/>
+      <c r="K1178" s="4"/>
+      <c r="L1178" s="4"/>
+      <c r="M1178" s="4"/>
+      <c r="N1178" s="4"/>
+      <c r="O1178" s="4"/>
+      <c r="P1178" s="4"/>
+      <c r="Q1178" s="4"/>
+      <c r="R1178" s="4"/>
+      <c r="S1178" s="4"/>
+      <c r="T1178" s="4"/>
+      <c r="U1178" s="4"/>
+      <c r="V1178" s="4"/>
+      <c r="W1178" s="4"/>
+      <c r="X1178" s="4"/>
+      <c r="Y1178" s="4"/>
+      <c r="Z1178" s="4"/>
+    </row>
+    <row r="1179">
+      <c r="A1179" s="2"/>
+      <c r="B1179" s="2"/>
+      <c r="C1179" s="2"/>
+      <c r="D1179" s="2"/>
+      <c r="E1179" s="4"/>
+      <c r="F1179" s="4"/>
+      <c r="G1179" s="4"/>
+      <c r="H1179" s="4"/>
+      <c r="I1179" s="4"/>
+      <c r="J1179" s="4"/>
+      <c r="K1179" s="4"/>
+      <c r="L1179" s="4"/>
+      <c r="M1179" s="4"/>
+      <c r="N1179" s="4"/>
+      <c r="O1179" s="4"/>
+      <c r="P1179" s="4"/>
+      <c r="Q1179" s="4"/>
+      <c r="R1179" s="4"/>
+      <c r="S1179" s="4"/>
+      <c r="T1179" s="4"/>
+      <c r="U1179" s="4"/>
+      <c r="V1179" s="4"/>
+      <c r="W1179" s="4"/>
+      <c r="X1179" s="4"/>
+      <c r="Y1179" s="4"/>
+      <c r="Z1179" s="4"/>
+    </row>
+    <row r="1180">
+      <c r="A1180" s="2"/>
+      <c r="B1180" s="2"/>
+      <c r="C1180" s="2"/>
+      <c r="D1180" s="2"/>
+      <c r="E1180" s="4"/>
+      <c r="F1180" s="4"/>
+      <c r="G1180" s="4"/>
+      <c r="H1180" s="4"/>
+      <c r="I1180" s="4"/>
+      <c r="J1180" s="4"/>
+      <c r="K1180" s="4"/>
+      <c r="L1180" s="4"/>
+      <c r="M1180" s="4"/>
+      <c r="N1180" s="4"/>
+      <c r="O1180" s="4"/>
+      <c r="P1180" s="4"/>
+      <c r="Q1180" s="4"/>
+      <c r="R1180" s="4"/>
+      <c r="S1180" s="4"/>
+      <c r="T1180" s="4"/>
+      <c r="U1180" s="4"/>
+      <c r="V1180" s="4"/>
+      <c r="W1180" s="4"/>
+      <c r="X1180" s="4"/>
+      <c r="Y1180" s="4"/>
+      <c r="Z1180" s="4"/>
+    </row>
+    <row r="1181">
+      <c r="A1181" s="2"/>
+      <c r="B1181" s="2"/>
+      <c r="C1181" s="2"/>
+      <c r="D1181" s="2"/>
+      <c r="E1181" s="4"/>
+      <c r="F1181" s="4"/>
+      <c r="G1181" s="4"/>
+      <c r="H1181" s="4"/>
+      <c r="I1181" s="4"/>
+      <c r="J1181" s="4"/>
+      <c r="K1181" s="4"/>
+      <c r="L1181" s="4"/>
+      <c r="M1181" s="4"/>
+      <c r="N1181" s="4"/>
+      <c r="O1181" s="4"/>
+      <c r="P1181" s="4"/>
+      <c r="Q1181" s="4"/>
+      <c r="R1181" s="4"/>
+      <c r="S1181" s="4"/>
+      <c r="T1181" s="4"/>
+      <c r="U1181" s="4"/>
+      <c r="V1181" s="4"/>
+      <c r="W1181" s="4"/>
+      <c r="X1181" s="4"/>
+      <c r="Y1181" s="4"/>
+      <c r="Z1181" s="4"/>
+    </row>
+    <row r="1182">
+      <c r="A1182" s="2"/>
+      <c r="B1182" s="2"/>
+      <c r="C1182" s="2"/>
+      <c r="D1182" s="2"/>
+      <c r="E1182" s="4"/>
+      <c r="F1182" s="4"/>
+      <c r="G1182" s="4"/>
+      <c r="H1182" s="4"/>
+      <c r="I1182" s="4"/>
+      <c r="J1182" s="4"/>
+      <c r="K1182" s="4"/>
+      <c r="L1182" s="4"/>
+      <c r="M1182" s="4"/>
+      <c r="N1182" s="4"/>
+      <c r="O1182" s="4"/>
+      <c r="P1182" s="4"/>
+      <c r="Q1182" s="4"/>
+      <c r="R1182" s="4"/>
+      <c r="S1182" s="4"/>
+      <c r="T1182" s="4"/>
+      <c r="U1182" s="4"/>
+      <c r="V1182" s="4"/>
+      <c r="W1182" s="4"/>
+      <c r="X1182" s="4"/>
+      <c r="Y1182" s="4"/>
+      <c r="Z1182" s="4"/>
+    </row>
+    <row r="1183">
+      <c r="A1183" s="2"/>
+      <c r="B1183" s="2"/>
+      <c r="C1183" s="2"/>
+      <c r="D1183" s="2"/>
+      <c r="E1183" s="4"/>
+      <c r="F1183" s="4"/>
+      <c r="G1183" s="4"/>
+      <c r="H1183" s="4"/>
+      <c r="I1183" s="4"/>
+      <c r="J1183" s="4"/>
+      <c r="K1183" s="4"/>
+      <c r="L1183" s="4"/>
+      <c r="M1183" s="4"/>
+      <c r="N1183" s="4"/>
+      <c r="O1183" s="4"/>
+      <c r="P1183" s="4"/>
+      <c r="Q1183" s="4"/>
+      <c r="R1183" s="4"/>
+      <c r="S1183" s="4"/>
+      <c r="T1183" s="4"/>
+      <c r="U1183" s="4"/>
+      <c r="V1183" s="4"/>
+      <c r="W1183" s="4"/>
+      <c r="X1183" s="4"/>
+      <c r="Y1183" s="4"/>
+      <c r="Z1183" s="4"/>
+    </row>
+    <row r="1184">
+      <c r="A1184" s="2"/>
+      <c r="B1184" s="2"/>
+      <c r="C1184" s="2"/>
+      <c r="D1184" s="2"/>
+      <c r="E1184" s="4"/>
+      <c r="F1184" s="4"/>
+      <c r="G1184" s="4"/>
+      <c r="H1184" s="4"/>
+      <c r="I1184" s="4"/>
+      <c r="J1184" s="4"/>
+      <c r="K1184" s="4"/>
+      <c r="L1184" s="4"/>
+      <c r="M1184" s="4"/>
+      <c r="N1184" s="4"/>
+      <c r="O1184" s="4"/>
+      <c r="P1184" s="4"/>
+      <c r="Q1184" s="4"/>
+      <c r="R1184" s="4"/>
+      <c r="S1184" s="4"/>
+      <c r="T1184" s="4"/>
+      <c r="U1184" s="4"/>
+      <c r="V1184" s="4"/>
+      <c r="W1184" s="4"/>
+      <c r="X1184" s="4"/>
+      <c r="Y1184" s="4"/>
+      <c r="Z1184" s="4"/>
+    </row>
+    <row r="1185">
+      <c r="A1185" s="2"/>
+      <c r="B1185" s="2"/>
+      <c r="C1185" s="2"/>
+      <c r="D1185" s="2"/>
+      <c r="E1185" s="4"/>
+      <c r="F1185" s="4"/>
+      <c r="G1185" s="4"/>
+      <c r="H1185" s="4"/>
+      <c r="I1185" s="4"/>
+      <c r="J1185" s="4"/>
+      <c r="K1185" s="4"/>
+      <c r="L1185" s="4"/>
+      <c r="M1185" s="4"/>
+      <c r="N1185" s="4"/>
+      <c r="O1185" s="4"/>
+      <c r="P1185" s="4"/>
+      <c r="Q1185" s="4"/>
+      <c r="R1185" s="4"/>
+      <c r="S1185" s="4"/>
+      <c r="T1185" s="4"/>
+      <c r="U1185" s="4"/>
+      <c r="V1185" s="4"/>
+      <c r="W1185" s="4"/>
+      <c r="X1185" s="4"/>
+      <c r="Y1185" s="4"/>
+      <c r="Z1185" s="4"/>
+    </row>
+    <row r="1186">
+      <c r="A1186" s="2"/>
+      <c r="B1186" s="2"/>
+      <c r="C1186" s="2"/>
+      <c r="D1186" s="2"/>
+      <c r="E1186" s="4"/>
+      <c r="F1186" s="4"/>
+      <c r="G1186" s="4"/>
+      <c r="H1186" s="4"/>
+      <c r="I1186" s="4"/>
+      <c r="J1186" s="4"/>
+      <c r="K1186" s="4"/>
+      <c r="L1186" s="4"/>
+      <c r="M1186" s="4"/>
+      <c r="N1186" s="4"/>
+      <c r="O1186" s="4"/>
+      <c r="P1186" s="4"/>
+      <c r="Q1186" s="4"/>
+      <c r="R1186" s="4"/>
+      <c r="S1186" s="4"/>
+      <c r="T1186" s="4"/>
+      <c r="U1186" s="4"/>
+      <c r="V1186" s="4"/>
+      <c r="W1186" s="4"/>
+      <c r="X1186" s="4"/>
+      <c r="Y1186" s="4"/>
+      <c r="Z1186" s="4"/>
+    </row>
+    <row r="1187">
+      <c r="A1187" s="2"/>
+      <c r="B1187" s="2"/>
+      <c r="C1187" s="2"/>
+      <c r="D1187" s="2"/>
+      <c r="E1187" s="4"/>
+      <c r="F1187" s="4"/>
+      <c r="G1187" s="4"/>
+      <c r="H1187" s="4"/>
+      <c r="I1187" s="4"/>
+      <c r="J1187" s="4"/>
+      <c r="K1187" s="4"/>
+      <c r="L1187" s="4"/>
+      <c r="M1187" s="4"/>
+      <c r="N1187" s="4"/>
+      <c r="O1187" s="4"/>
+      <c r="P1187" s="4"/>
+      <c r="Q1187" s="4"/>
+      <c r="R1187" s="4"/>
+      <c r="S1187" s="4"/>
+      <c r="T1187" s="4"/>
+      <c r="U1187" s="4"/>
+      <c r="V1187" s="4"/>
+      <c r="W1187" s="4"/>
+      <c r="X1187" s="4"/>
+      <c r="Y1187" s="4"/>
+      <c r="Z1187" s="4"/>
+    </row>
+    <row r="1188">
+      <c r="A1188" s="2"/>
+      <c r="B1188" s="2"/>
+      <c r="C1188" s="2"/>
+      <c r="D1188" s="2"/>
+      <c r="E1188" s="4"/>
+      <c r="F1188" s="4"/>
+      <c r="G1188" s="4"/>
+      <c r="H1188" s="4"/>
+      <c r="I1188" s="4"/>
+      <c r="J1188" s="4"/>
+      <c r="K1188" s="4"/>
+      <c r="L1188" s="4"/>
+      <c r="M1188" s="4"/>
+      <c r="N1188" s="4"/>
+      <c r="O1188" s="4"/>
+      <c r="P1188" s="4"/>
+      <c r="Q1188" s="4"/>
+      <c r="R1188" s="4"/>
+      <c r="S1188" s="4"/>
+      <c r="T1188" s="4"/>
+      <c r="U1188" s="4"/>
+      <c r="V1188" s="4"/>
+      <c r="W1188" s="4"/>
+      <c r="X1188" s="4"/>
+      <c r="Y1188" s="4"/>
+      <c r="Z1188" s="4"/>
+    </row>
+    <row r="1189">
+      <c r="A1189" s="2"/>
+      <c r="B1189" s="2"/>
+      <c r="C1189" s="2"/>
+      <c r="D1189" s="2"/>
+      <c r="E1189" s="4"/>
+      <c r="F1189" s="4"/>
+      <c r="G1189" s="4"/>
+      <c r="H1189" s="4"/>
+      <c r="I1189" s="4"/>
+      <c r="J1189" s="4"/>
+      <c r="K1189" s="4"/>
+      <c r="L1189" s="4"/>
+      <c r="M1189" s="4"/>
+      <c r="N1189" s="4"/>
+      <c r="O1189" s="4"/>
+      <c r="P1189" s="4"/>
+      <c r="Q1189" s="4"/>
+      <c r="R1189" s="4"/>
+      <c r="S1189" s="4"/>
+      <c r="T1189" s="4"/>
+      <c r="U1189" s="4"/>
+      <c r="V1189" s="4"/>
+      <c r="W1189" s="4"/>
+      <c r="X1189" s="4"/>
+      <c r="Y1189" s="4"/>
+      <c r="Z1189" s="4"/>
+    </row>
+    <row r="1190">
+      <c r="A1190" s="2"/>
+      <c r="B1190" s="2"/>
+      <c r="C1190" s="2"/>
+      <c r="D1190" s="2"/>
+      <c r="E1190" s="4"/>
+      <c r="F1190" s="4"/>
+      <c r="G1190" s="4"/>
+      <c r="H1190" s="4"/>
+      <c r="I1190" s="4"/>
+      <c r="J1190" s="4"/>
+      <c r="K1190" s="4"/>
+      <c r="L1190" s="4"/>
+      <c r="M1190" s="4"/>
+      <c r="N1190" s="4"/>
+      <c r="O1190" s="4"/>
+      <c r="P1190" s="4"/>
+      <c r="Q1190" s="4"/>
+      <c r="R1190" s="4"/>
+      <c r="S1190" s="4"/>
+      <c r="T1190" s="4"/>
+      <c r="U1190" s="4"/>
+      <c r="V1190" s="4"/>
+      <c r="W1190" s="4"/>
+      <c r="X1190" s="4"/>
+      <c r="Y1190" s="4"/>
+      <c r="Z1190" s="4"/>
+    </row>
+    <row r="1191">
+      <c r="A1191" s="2"/>
+      <c r="B1191" s="2"/>
+      <c r="C1191" s="2"/>
+      <c r="D1191" s="2"/>
+      <c r="E1191" s="4"/>
+      <c r="F1191" s="4"/>
+      <c r="G1191" s="4"/>
+      <c r="H1191" s="4"/>
+      <c r="I1191" s="4"/>
+      <c r="J1191" s="4"/>
+      <c r="K1191" s="4"/>
+      <c r="L1191" s="4"/>
+      <c r="M1191" s="4"/>
+      <c r="N1191" s="4"/>
+      <c r="O1191" s="4"/>
+      <c r="P1191" s="4"/>
+      <c r="Q1191" s="4"/>
+      <c r="R1191" s="4"/>
+      <c r="S1191" s="4"/>
+      <c r="T1191" s="4"/>
+      <c r="U1191" s="4"/>
+      <c r="V1191" s="4"/>
+      <c r="W1191" s="4"/>
+      <c r="X1191" s="4"/>
+      <c r="Y1191" s="4"/>
+      <c r="Z1191" s="4"/>
+    </row>
+    <row r="1192">
+      <c r="A1192" s="2"/>
+      <c r="B1192" s="2"/>
+      <c r="C1192" s="2"/>
+      <c r="D1192" s="2"/>
+      <c r="E1192" s="4"/>
+      <c r="F1192" s="4"/>
+      <c r="G1192" s="4"/>
+      <c r="H1192" s="4"/>
+      <c r="I1192" s="4"/>
+      <c r="J1192" s="4"/>
+      <c r="K1192" s="4"/>
+      <c r="L1192" s="4"/>
+      <c r="M1192" s="4"/>
+      <c r="N1192" s="4"/>
+      <c r="O1192" s="4"/>
+      <c r="P1192" s="4"/>
+      <c r="Q1192" s="4"/>
+      <c r="R1192" s="4"/>
+      <c r="S1192" s="4"/>
+      <c r="T1192" s="4"/>
+      <c r="U1192" s="4"/>
+      <c r="V1192" s="4"/>
+      <c r="W1192" s="4"/>
+      <c r="X1192" s="4"/>
+      <c r="Y1192" s="4"/>
+      <c r="Z1192" s="4"/>
+    </row>
+    <row r="1193">
+      <c r="A1193" s="2"/>
+      <c r="B1193" s="2"/>
+      <c r="C1193" s="2"/>
+      <c r="D1193" s="2"/>
+      <c r="E1193" s="4"/>
+      <c r="F1193" s="4"/>
+      <c r="G1193" s="4"/>
+      <c r="H1193" s="4"/>
+      <c r="I1193" s="4"/>
+      <c r="J1193" s="4"/>
+      <c r="K1193" s="4"/>
+      <c r="L1193" s="4"/>
+      <c r="M1193" s="4"/>
+      <c r="N1193" s="4"/>
+      <c r="O1193" s="4"/>
+      <c r="P1193" s="4"/>
+      <c r="Q1193" s="4"/>
+      <c r="R1193" s="4"/>
+      <c r="S1193" s="4"/>
+      <c r="T1193" s="4"/>
+      <c r="U1193" s="4"/>
+      <c r="V1193" s="4"/>
+      <c r="W1193" s="4"/>
+      <c r="X1193" s="4"/>
+      <c r="Y1193" s="4"/>
+      <c r="Z1193" s="4"/>
+    </row>
+    <row r="1194">
+      <c r="A1194" s="2"/>
+      <c r="B1194" s="2"/>
+      <c r="C1194" s="2"/>
+      <c r="D1194" s="2"/>
+      <c r="E1194" s="4"/>
+      <c r="F1194" s="4"/>
+      <c r="G1194" s="4"/>
+      <c r="H1194" s="4"/>
+      <c r="I1194" s="4"/>
+      <c r="J1194" s="4"/>
+      <c r="K1194" s="4"/>
+      <c r="L1194" s="4"/>
+      <c r="M1194" s="4"/>
+      <c r="N1194" s="4"/>
+      <c r="O1194" s="4"/>
+      <c r="P1194" s="4"/>
+      <c r="Q1194" s="4"/>
+      <c r="R1194" s="4"/>
+      <c r="S1194" s="4"/>
+      <c r="T1194" s="4"/>
+      <c r="U1194" s="4"/>
+      <c r="V1194" s="4"/>
+      <c r="W1194" s="4"/>
+      <c r="X1194" s="4"/>
+      <c r="Y1194" s="4"/>
+      <c r="Z1194" s="4"/>
+    </row>
+    <row r="1195">
+      <c r="A1195" s="2"/>
+      <c r="B1195" s="2"/>
+      <c r="C1195" s="2"/>
+      <c r="D1195" s="2"/>
+      <c r="E1195" s="4"/>
+      <c r="F1195" s="4"/>
+      <c r="G1195" s="4"/>
+      <c r="H1195" s="4"/>
+      <c r="I1195" s="4"/>
+      <c r="J1195" s="4"/>
+      <c r="K1195" s="4"/>
+      <c r="L1195" s="4"/>
+      <c r="M1195" s="4"/>
+      <c r="N1195" s="4"/>
+      <c r="O1195" s="4"/>
+      <c r="P1195" s="4"/>
+      <c r="Q1195" s="4"/>
+      <c r="R1195" s="4"/>
+      <c r="S1195" s="4"/>
+      <c r="T1195" s="4"/>
+      <c r="U1195" s="4"/>
+      <c r="V1195" s="4"/>
+      <c r="W1195" s="4"/>
+      <c r="X1195" s="4"/>
+      <c r="Y1195" s="4"/>
+      <c r="Z1195" s="4"/>
+    </row>
+    <row r="1196">
+      <c r="A1196" s="2"/>
+      <c r="B1196" s="2"/>
+      <c r="C1196" s="2"/>
+      <c r="D1196" s="2"/>
+      <c r="E1196" s="4"/>
+      <c r="F1196" s="4"/>
+      <c r="G1196" s="4"/>
+      <c r="H1196" s="4"/>
+      <c r="I1196" s="4"/>
+      <c r="J1196" s="4"/>
+      <c r="K1196" s="4"/>
+      <c r="L1196" s="4"/>
+      <c r="M1196" s="4"/>
+      <c r="N1196" s="4"/>
+      <c r="O1196" s="4"/>
+      <c r="P1196" s="4"/>
+      <c r="Q1196" s="4"/>
+      <c r="R1196" s="4"/>
+      <c r="S1196" s="4"/>
+      <c r="T1196" s="4"/>
+      <c r="U1196" s="4"/>
+      <c r="V1196" s="4"/>
+      <c r="W1196" s="4"/>
+      <c r="X1196" s="4"/>
+      <c r="Y1196" s="4"/>
+      <c r="Z1196" s="4"/>
+    </row>
+    <row r="1197">
+      <c r="A1197" s="2"/>
+      <c r="B1197" s="2"/>
+      <c r="C1197" s="2"/>
+      <c r="D1197" s="2"/>
+      <c r="E1197" s="4"/>
+      <c r="F1197" s="4"/>
+      <c r="G1197" s="4"/>
+      <c r="H1197" s="4"/>
+      <c r="I1197" s="4"/>
+      <c r="J1197" s="4"/>
+      <c r="K1197" s="4"/>
+      <c r="L1197" s="4"/>
+      <c r="M1197" s="4"/>
+      <c r="N1197" s="4"/>
+      <c r="O1197" s="4"/>
+      <c r="P1197" s="4"/>
+      <c r="Q1197" s="4"/>
+      <c r="R1197" s="4"/>
+      <c r="S1197" s="4"/>
+      <c r="T1197" s="4"/>
+      <c r="U1197" s="4"/>
+      <c r="V1197" s="4"/>
+      <c r="W1197" s="4"/>
+      <c r="X1197" s="4"/>
+      <c r="Y1197" s="4"/>
+      <c r="Z1197" s="4"/>
+    </row>
+    <row r="1198">
+      <c r="A1198" s="2"/>
+      <c r="B1198" s="2"/>
+      <c r="C1198" s="2"/>
+      <c r="D1198" s="2"/>
+      <c r="E1198" s="4"/>
+      <c r="F1198" s="4"/>
+      <c r="G1198" s="4"/>
+      <c r="H1198" s="4"/>
+      <c r="I1198" s="4"/>
+      <c r="J1198" s="4"/>
+      <c r="K1198" s="4"/>
+      <c r="L1198" s="4"/>
+      <c r="M1198" s="4"/>
+      <c r="N1198" s="4"/>
+      <c r="O1198" s="4"/>
+      <c r="P1198" s="4"/>
+      <c r="Q1198" s="4"/>
+      <c r="R1198" s="4"/>
+      <c r="S1198" s="4"/>
+      <c r="T1198" s="4"/>
+      <c r="U1198" s="4"/>
+      <c r="V1198" s="4"/>
+      <c r="W1198" s="4"/>
+      <c r="X1198" s="4"/>
+      <c r="Y1198" s="4"/>
+      <c r="Z1198" s="4"/>
+    </row>
+    <row r="1199">
+      <c r="A1199" s="2"/>
+      <c r="B1199" s="2"/>
+      <c r="C1199" s="2"/>
+      <c r="D1199" s="2"/>
+      <c r="E1199" s="4"/>
+      <c r="F1199" s="4"/>
+      <c r="G1199" s="4"/>
+      <c r="H1199" s="4"/>
+      <c r="I1199" s="4"/>
+      <c r="J1199" s="4"/>
+      <c r="K1199" s="4"/>
+      <c r="L1199" s="4"/>
+      <c r="M1199" s="4"/>
+      <c r="N1199" s="4"/>
+      <c r="O1199" s="4"/>
+      <c r="P1199" s="4"/>
+      <c r="Q1199" s="4"/>
+      <c r="R1199" s="4"/>
+      <c r="S1199" s="4"/>
+      <c r="T1199" s="4"/>
+      <c r="U1199" s="4"/>
+      <c r="V1199" s="4"/>
+      <c r="W1199" s="4"/>
+      <c r="X1199" s="4"/>
+      <c r="Y1199" s="4"/>
+      <c r="Z1199" s="4"/>
+    </row>
+    <row r="1200">
+      <c r="A1200" s="4"/>
+      <c r="B1200" s="4"/>
+      <c r="C1200" s="4"/>
+      <c r="D1200" s="4"/>
+      <c r="E1200" s="4"/>
+      <c r="F1200" s="4"/>
+      <c r="G1200" s="4"/>
+      <c r="H1200" s="4"/>
+      <c r="I1200" s="4"/>
+      <c r="J1200" s="4"/>
+      <c r="K1200" s="4"/>
+      <c r="L1200" s="4"/>
+      <c r="M1200" s="4"/>
+      <c r="N1200" s="4"/>
+      <c r="O1200" s="4"/>
+      <c r="P1200" s="4"/>
+      <c r="Q1200" s="4"/>
+      <c r="R1200" s="4"/>
+      <c r="S1200" s="4"/>
+      <c r="T1200" s="4"/>
+      <c r="U1200" s="4"/>
+      <c r="V1200" s="4"/>
+      <c r="W1200" s="4"/>
+      <c r="X1200" s="4"/>
+      <c r="Y1200" s="4"/>
+      <c r="Z1200" s="4"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/hauteur site.xlsx
+++ b/hauteur site.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="27">
   <si>
     <t>code_pneu</t>
   </si>
@@ -34,19 +34,22 @@
     <t>---35/2</t>
   </si>
   <si>
+    <t>250+</t>
+  </si>
+  <si>
     <t>--15/4</t>
   </si>
   <si>
     <t>voir 35/2</t>
   </si>
   <si>
+    <t>270-280</t>
+  </si>
+  <si>
     <t>280?</t>
   </si>
   <si>
     <t>255-</t>
-  </si>
-  <si>
-    <t>270-280</t>
   </si>
   <si>
     <t>275?</t>
@@ -58,19 +61,37 @@
     <t>265?</t>
   </si>
   <si>
+    <t>285?</t>
+  </si>
+  <si>
     <t>280-</t>
   </si>
   <si>
-    <t>---5/5</t>
+    <t>290+</t>
+  </si>
+  <si>
+    <t>240+</t>
   </si>
   <si>
     <t>250-270</t>
   </si>
   <si>
+    <t>260-280</t>
+  </si>
+  <si>
+    <t>295+</t>
+  </si>
+  <si>
     <t>280-290</t>
   </si>
   <si>
+    <t>280-300</t>
+  </si>
+  <si>
     <t>315?</t>
+  </si>
+  <si>
+    <t>270-</t>
   </si>
 </sst>
 </file>
@@ -851,13 +872,13 @@
     </row>
     <row r="14">
       <c r="A14" s="6">
-        <v>52.0</v>
+        <v>51.0</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="7">
-        <v>315.0</v>
+        <v>260.0</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>3</v>
@@ -886,16 +907,16 @@
       <c r="Z14" s="4"/>
     </row>
     <row r="15">
-      <c r="A15" s="1">
-        <v>57.0</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="3">
-        <v>260.0</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="A15" s="6">
+        <v>52.0</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>315.0</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E15" s="4"/>
@@ -923,13 +944,13 @@
     </row>
     <row r="16">
       <c r="A16" s="6">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="7">
-        <v>315.0</v>
+        <v>310.0</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>3</v>
@@ -958,16 +979,16 @@
       <c r="Z16" s="4"/>
     </row>
     <row r="17">
-      <c r="A17" s="6">
-        <v>63.0</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="7">
+      <c r="A17" s="1">
+        <v>57.0</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="3">
         <v>260.0</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E17" s="4"/>
@@ -995,13 +1016,13 @@
     </row>
     <row r="18">
       <c r="A18" s="6">
-        <v>67.0</v>
+        <v>61.0</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>255.0</v>
+        <v>315.0</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>3</v>
@@ -1031,13 +1052,13 @@
     </row>
     <row r="19">
       <c r="A19" s="6">
-        <v>69.0</v>
+        <v>63.0</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>6</v>
+      <c r="C19" s="7">
+        <v>260.0</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>3</v>
@@ -1067,13 +1088,13 @@
     </row>
     <row r="20">
       <c r="A20" s="6">
-        <v>70.0</v>
+        <v>64.0</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="7">
-        <v>225.0</v>
+        <v>255.0</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>3</v>
@@ -1102,16 +1123,16 @@
       <c r="Z20" s="4"/>
     </row>
     <row r="21">
-      <c r="A21" s="1">
-        <v>74.0</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="3">
-        <v>265.0</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="A21" s="6">
+        <v>67.0</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7">
+        <v>255.0</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E21" s="4"/>
@@ -1138,16 +1159,16 @@
       <c r="Z21" s="4"/>
     </row>
     <row r="22">
-      <c r="A22" s="1">
-        <v>77.0</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="3">
-        <v>260.0</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="A22" s="6">
+        <v>69.0</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E22" s="4"/>
@@ -1175,13 +1196,13 @@
     </row>
     <row r="23">
       <c r="A23" s="6">
-        <v>79.0</v>
+        <v>70.0</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>300.0</v>
+        <v>225.0</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>3</v>
@@ -1211,13 +1232,13 @@
     </row>
     <row r="24">
       <c r="A24" s="1">
-        <v>83.0</v>
+        <v>74.0</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C24" s="3">
-        <v>295.0</v>
+        <v>265.0</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>3</v>
@@ -1247,13 +1268,13 @@
     </row>
     <row r="25">
       <c r="A25" s="6">
-        <v>85.0</v>
+        <v>76.0</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="7">
-        <v>275.0</v>
+      <c r="C25" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>3</v>
@@ -1282,16 +1303,16 @@
       <c r="Z25" s="4"/>
     </row>
     <row r="26">
-      <c r="A26" s="6">
-        <v>90.0</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="7">
-        <v>305.0</v>
-      </c>
-      <c r="D26" s="5" t="s">
+      <c r="A26" s="1">
+        <v>77.0</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="3">
+        <v>260.0</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E26" s="4"/>
@@ -1318,16 +1339,16 @@
       <c r="Z26" s="4"/>
     </row>
     <row r="27">
-      <c r="A27" s="1">
-        <v>93.0</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D27" s="2" t="s">
+      <c r="A27" s="6">
+        <v>79.0</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>300.0</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E27" s="4"/>
@@ -1354,16 +1375,16 @@
       <c r="Z27" s="4"/>
     </row>
     <row r="28">
-      <c r="A28" s="6">
-        <v>98.0</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="5" t="s">
+      <c r="A28" s="1">
+        <v>83.0</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E28" s="4"/>
@@ -1391,7 +1412,7 @@
     </row>
     <row r="29">
       <c r="A29" s="6">
-        <v>99.0</v>
+        <v>85.0</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>3</v>
@@ -1427,13 +1448,13 @@
     </row>
     <row r="30">
       <c r="A30" s="6">
-        <v>103.0</v>
+        <v>90.0</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C30" s="7">
-        <v>230.0</v>
+        <v>305.0</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>3</v>
@@ -1462,16 +1483,16 @@
       <c r="Z30" s="4"/>
     </row>
     <row r="31">
-      <c r="A31" s="6">
-        <v>105.0</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="7">
-        <v>260.0</v>
-      </c>
-      <c r="D31" s="5" t="s">
+      <c r="A31" s="1">
+        <v>93.0</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E31" s="4"/>
@@ -1499,7 +1520,7 @@
     </row>
     <row r="32">
       <c r="A32" s="6">
-        <v>106.0</v>
+        <v>98.0</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>3</v>
@@ -1535,13 +1556,13 @@
     </row>
     <row r="33">
       <c r="A33" s="6">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>260.0</v>
+        <v>275.0</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>3</v>
@@ -1571,13 +1592,13 @@
     </row>
     <row r="34">
       <c r="A34" s="6">
-        <v>109.0</v>
+        <v>102.0</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C34" s="7">
-        <v>315.0</v>
+        <v>245.0</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>3</v>
@@ -1607,13 +1628,13 @@
     </row>
     <row r="35">
       <c r="A35" s="6">
-        <v>111.0</v>
+        <v>103.0</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="7">
-        <v>255.0</v>
+        <v>230.0</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>3</v>
@@ -1642,16 +1663,16 @@
       <c r="Z35" s="4"/>
     </row>
     <row r="36">
-      <c r="A36" s="1">
-        <v>112.0</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="3">
-        <v>270.0</v>
-      </c>
-      <c r="D36" s="2" t="s">
+      <c r="A36" s="6">
+        <v>105.0</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="7">
+        <v>260.0</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E36" s="4"/>
@@ -1678,16 +1699,16 @@
       <c r="Z36" s="4"/>
     </row>
     <row r="37">
-      <c r="A37" s="1">
-        <v>119.0</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D37" s="2" t="s">
+      <c r="A37" s="6">
+        <v>106.0</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E37" s="4"/>
@@ -1715,13 +1736,13 @@
     </row>
     <row r="38">
       <c r="A38" s="6">
-        <v>122.0</v>
+        <v>107.0</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C38" s="7">
-        <v>295.0</v>
+        <v>260.0</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>3</v>
@@ -1751,13 +1772,13 @@
     </row>
     <row r="39">
       <c r="A39" s="6">
-        <v>123.0</v>
+        <v>109.0</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>280.0</v>
+        <v>315.0</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>3</v>
@@ -1787,13 +1808,13 @@
     </row>
     <row r="40">
       <c r="A40" s="6">
-        <v>124.0</v>
+        <v>110.0</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C40" s="7">
-        <v>245.0</v>
+        <v>275.0</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>3</v>
@@ -1822,16 +1843,16 @@
       <c r="Z40" s="4"/>
     </row>
     <row r="41">
-      <c r="A41" s="1">
-        <v>125.0</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="3">
-        <v>265.0</v>
-      </c>
-      <c r="D41" s="2" t="s">
+      <c r="A41" s="6">
+        <v>111.0</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="7">
+        <v>255.0</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E41" s="4"/>
@@ -1858,16 +1879,16 @@
       <c r="Z41" s="4"/>
     </row>
     <row r="42">
-      <c r="A42" s="6">
-        <v>126.0</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" s="7">
-        <v>265.0</v>
-      </c>
-      <c r="D42" s="5" t="s">
+      <c r="A42" s="1">
+        <v>112.0</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E42" s="4"/>
@@ -1894,16 +1915,16 @@
       <c r="Z42" s="4"/>
     </row>
     <row r="43">
-      <c r="A43" s="6">
-        <v>127.0</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" s="7">
-        <v>290.0</v>
-      </c>
-      <c r="D43" s="5" t="s">
+      <c r="A43" s="1">
+        <v>119.0</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E43" s="4"/>
@@ -1931,13 +1952,13 @@
     </row>
     <row r="44">
       <c r="A44" s="6">
-        <v>120.0</v>
+        <v>122.0</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="7" t="s">
-        <v>9</v>
+      <c r="C44" s="7">
+        <v>295.0</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>3</v>
@@ -1966,16 +1987,16 @@
       <c r="Z44" s="4"/>
     </row>
     <row r="45">
-      <c r="A45" s="1">
-        <v>129.0</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" s="3">
-        <v>270.0</v>
-      </c>
-      <c r="D45" s="2" t="s">
+      <c r="A45" s="6">
+        <v>123.0</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="7">
+        <v>280.0</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E45" s="4"/>
@@ -2003,13 +2024,13 @@
     </row>
     <row r="46">
       <c r="A46" s="6">
-        <v>130.0</v>
+        <v>124.0</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C46" s="7">
-        <v>290.0</v>
+        <v>245.0</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>3</v>
@@ -2039,13 +2060,13 @@
     </row>
     <row r="47">
       <c r="A47" s="1">
-        <v>131.0</v>
+        <v>125.0</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C47" s="3">
-        <v>255.0</v>
+        <v>265.0</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>3</v>
@@ -2074,16 +2095,16 @@
       <c r="Z47" s="4"/>
     </row>
     <row r="48">
-      <c r="A48" s="1">
-        <v>132.0</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D48" s="2" t="s">
+      <c r="A48" s="6">
+        <v>126.0</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="7">
+        <v>265.0</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E48" s="4"/>
@@ -2111,13 +2132,13 @@
     </row>
     <row r="49">
       <c r="A49" s="6">
-        <v>133.0</v>
+        <v>127.0</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C49" s="7">
-        <v>240.0</v>
+        <v>290.0</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>3</v>
@@ -2147,13 +2168,13 @@
     </row>
     <row r="50">
       <c r="A50" s="6">
-        <v>135.0</v>
+        <v>120.0</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C50" s="7">
-        <v>310.0</v>
+      <c r="C50" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>3</v>
@@ -2183,13 +2204,13 @@
     </row>
     <row r="51">
       <c r="A51" s="6">
-        <v>136.0</v>
+        <v>128.0</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C51" s="7">
-        <v>315.0</v>
+        <v>290.0</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>3</v>
@@ -2219,13 +2240,13 @@
     </row>
     <row r="52">
       <c r="A52" s="1">
-        <v>138.0</v>
+        <v>129.0</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C52" s="3">
-        <v>315.0</v>
+        <v>270.0</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>3</v>
@@ -2254,16 +2275,16 @@
       <c r="Z52" s="4"/>
     </row>
     <row r="53">
-      <c r="A53" s="1">
-        <v>139.0</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D53" s="2" t="s">
+      <c r="A53" s="6">
+        <v>130.0</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="7">
+        <v>290.0</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E53" s="4"/>
@@ -2290,16 +2311,16 @@
       <c r="Z53" s="4"/>
     </row>
     <row r="54">
-      <c r="A54" s="6">
-        <v>141.0</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" s="7">
-        <v>305.0</v>
-      </c>
-      <c r="D54" s="5" t="s">
+      <c r="A54" s="1">
+        <v>131.0</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="3">
+        <v>255.0</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E54" s="4"/>
@@ -2326,16 +2347,16 @@
       <c r="Z54" s="4"/>
     </row>
     <row r="55">
-      <c r="A55" s="6">
-        <v>144.0</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55" s="7">
-        <v>305.0</v>
-      </c>
-      <c r="D55" s="5" t="s">
+      <c r="A55" s="1">
+        <v>132.0</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E55" s="4"/>
@@ -2362,16 +2383,16 @@
       <c r="Z55" s="4"/>
     </row>
     <row r="56">
-      <c r="A56" s="1">
-        <v>145.0</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" s="3">
-        <v>275.0</v>
-      </c>
-      <c r="D56" s="2" t="s">
+      <c r="A56" s="6">
+        <v>133.0</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="7">
+        <v>240.0</v>
+      </c>
+      <c r="D56" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E56" s="4"/>
@@ -2399,13 +2420,13 @@
     </row>
     <row r="57">
       <c r="A57" s="6">
-        <v>146.0</v>
+        <v>135.0</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C57" s="7">
-        <v>300.0</v>
+        <v>310.0</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>3</v>
@@ -2435,13 +2456,13 @@
     </row>
     <row r="58">
       <c r="A58" s="6">
-        <v>148.0</v>
+        <v>136.0</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C58" s="7" t="s">
-        <v>10</v>
+      <c r="C58" s="7">
+        <v>315.0</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>3</v>
@@ -2471,13 +2492,13 @@
     </row>
     <row r="59">
       <c r="A59" s="1">
-        <v>149.0</v>
+        <v>138.0</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C59" s="3">
-        <v>265.0</v>
+        <v>315.0</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>3</v>
@@ -2506,16 +2527,16 @@
       <c r="Z59" s="4"/>
     </row>
     <row r="60">
-      <c r="A60" s="6">
-        <v>152.0</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60" s="7">
-        <v>230.0</v>
-      </c>
-      <c r="D60" s="5" t="s">
+      <c r="A60" s="1">
+        <v>139.0</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E60" s="4"/>
@@ -2542,16 +2563,16 @@
       <c r="Z60" s="4"/>
     </row>
     <row r="61">
-      <c r="A61" s="1">
-        <v>153.0</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61" s="3">
-        <v>325.0</v>
-      </c>
-      <c r="D61" s="2" t="s">
+      <c r="A61" s="6">
+        <v>141.0</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="7">
+        <v>305.0</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E61" s="4"/>
@@ -2578,16 +2599,16 @@
       <c r="Z61" s="4"/>
     </row>
     <row r="62">
-      <c r="A62" s="1">
-        <v>154.0</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" s="3">
-        <v>325.0</v>
-      </c>
-      <c r="D62" s="2" t="s">
+      <c r="A62" s="6">
+        <v>144.0</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="7">
+        <v>305.0</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E62" s="4"/>
@@ -2614,16 +2635,16 @@
       <c r="Z62" s="4"/>
     </row>
     <row r="63">
-      <c r="A63" s="6">
-        <v>155.0</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C63" s="8">
-        <v>235.0</v>
-      </c>
-      <c r="D63" s="5" t="s">
+      <c r="A63" s="1">
+        <v>145.0</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="3">
+        <v>275.0</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E63" s="4"/>
@@ -2651,13 +2672,13 @@
     </row>
     <row r="64">
       <c r="A64" s="6">
-        <v>156.0</v>
+        <v>146.0</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="8">
-        <v>310.0</v>
+      <c r="C64" s="7">
+        <v>300.0</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>3</v>
@@ -2686,16 +2707,16 @@
       <c r="Z64" s="4"/>
     </row>
     <row r="65">
-      <c r="A65" s="1">
-        <v>157.0</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65" s="2" t="s">
+      <c r="A65" s="6">
+        <v>148.0</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E65" s="4"/>
@@ -2722,16 +2743,16 @@
       <c r="Z65" s="4"/>
     </row>
     <row r="66">
-      <c r="A66" s="6">
-        <v>163.0</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66" s="7">
+      <c r="A66" s="1">
+        <v>149.0</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="3">
         <v>265.0</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E66" s="4"/>
@@ -2759,13 +2780,13 @@
     </row>
     <row r="67">
       <c r="A67" s="6">
-        <v>164.0</v>
+        <v>152.0</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C67" s="7">
-        <v>250.0</v>
+        <v>230.0</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>3</v>
@@ -2795,13 +2816,13 @@
     </row>
     <row r="68">
       <c r="A68" s="1">
-        <v>167.0</v>
+        <v>153.0</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C68" s="3">
-        <v>250.0</v>
+        <v>325.0</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>3</v>
@@ -2830,16 +2851,16 @@
       <c r="Z68" s="4"/>
     </row>
     <row r="69">
-      <c r="A69" s="6">
-        <v>169.0</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C69" s="7">
-        <v>235.0</v>
-      </c>
-      <c r="D69" s="5" t="s">
+      <c r="A69" s="1">
+        <v>154.0</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" s="3">
+        <v>325.0</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E69" s="4"/>
@@ -2867,13 +2888,13 @@
     </row>
     <row r="70">
       <c r="A70" s="6">
-        <v>171.0</v>
+        <v>155.0</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C70" s="7">
-        <v>325.0</v>
+      <c r="C70" s="8">
+        <v>235.0</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>3</v>
@@ -2903,13 +2924,13 @@
     </row>
     <row r="71">
       <c r="A71" s="6">
-        <v>172.0</v>
+        <v>156.0</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C71" s="7">
-        <v>265.0</v>
+      <c r="C71" s="8">
+        <v>310.0</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>3</v>
@@ -2939,13 +2960,13 @@
     </row>
     <row r="72">
       <c r="A72" s="1">
-        <v>175.0</v>
+        <v>157.0</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C72" s="3">
-        <v>250.0</v>
+      <c r="C72" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>3</v>
@@ -2975,13 +2996,13 @@
     </row>
     <row r="73">
       <c r="A73" s="6">
-        <v>176.0</v>
+        <v>158.0</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C73" s="7" t="s">
-        <v>6</v>
+      <c r="C73" s="7">
+        <v>275.0</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>3</v>
@@ -3010,16 +3031,16 @@
       <c r="Z73" s="4"/>
     </row>
     <row r="74">
-      <c r="A74" s="1">
-        <v>178.0</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C74" s="3">
-        <v>265.0</v>
-      </c>
-      <c r="D74" s="2" t="s">
+      <c r="A74" s="6">
+        <v>161.0</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="7">
+        <v>270.0</v>
+      </c>
+      <c r="D74" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E74" s="4"/>
@@ -3046,16 +3067,16 @@
       <c r="Z74" s="4"/>
     </row>
     <row r="75">
-      <c r="A75" s="1">
-        <v>182.0</v>
-      </c>
-      <c r="B75" s="2" t="s">
+      <c r="A75" s="6">
+        <v>163.0</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C75" s="7">
-        <v>285.0</v>
-      </c>
-      <c r="D75" s="2" t="s">
+        <v>265.0</v>
+      </c>
+      <c r="D75" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E75" s="4"/>
@@ -3082,16 +3103,16 @@
       <c r="Z75" s="4"/>
     </row>
     <row r="76">
-      <c r="A76" s="1">
-        <v>183.0</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C76" s="3">
-        <v>270.0</v>
-      </c>
-      <c r="D76" s="2" t="s">
+      <c r="A76" s="6">
+        <v>164.0</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" s="7">
+        <v>250.0</v>
+      </c>
+      <c r="D76" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E76" s="4"/>
@@ -3118,16 +3139,16 @@
       <c r="Z76" s="4"/>
     </row>
     <row r="77">
-      <c r="A77" s="6">
-        <v>189.0</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C77" s="7">
-        <v>235.0</v>
-      </c>
-      <c r="D77" s="5" t="s">
+      <c r="A77" s="1">
+        <v>167.0</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E77" s="4"/>
@@ -3154,16 +3175,16 @@
       <c r="Z77" s="4"/>
     </row>
     <row r="78">
-      <c r="A78" s="1">
-        <v>190.0</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C78" s="3">
-        <v>305.0</v>
-      </c>
-      <c r="D78" s="2" t="s">
+      <c r="A78" s="6">
+        <v>169.0</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" s="7">
+        <v>235.0</v>
+      </c>
+      <c r="D78" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E78" s="4"/>
@@ -3190,16 +3211,16 @@
       <c r="Z78" s="4"/>
     </row>
     <row r="79">
-      <c r="A79" s="1">
-        <v>192.0</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C79" s="3">
-        <v>285.0</v>
-      </c>
-      <c r="D79" s="2" t="s">
+      <c r="A79" s="6">
+        <v>171.0</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" s="7">
+        <v>325.0</v>
+      </c>
+      <c r="D79" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E79" s="4"/>
@@ -3227,13 +3248,13 @@
     </row>
     <row r="80">
       <c r="A80" s="6">
-        <v>193.0</v>
+        <v>172.0</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C80" s="7">
-        <v>245.0</v>
+        <v>265.0</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>3</v>
@@ -3262,16 +3283,16 @@
       <c r="Z80" s="4"/>
     </row>
     <row r="81">
-      <c r="A81" s="6">
-        <v>195.0</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C81" s="7">
-        <v>325.0</v>
-      </c>
-      <c r="D81" s="5" t="s">
+      <c r="A81" s="1">
+        <v>175.0</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E81" s="4"/>
@@ -3299,13 +3320,13 @@
     </row>
     <row r="82">
       <c r="A82" s="6">
-        <v>196.0</v>
+        <v>176.0</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C82" s="7">
-        <v>220.0</v>
+      <c r="C82" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>3</v>
@@ -3335,13 +3356,13 @@
     </row>
     <row r="83">
       <c r="A83" s="1">
-        <v>201.0</v>
+        <v>178.0</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C83" s="3">
-        <v>285.0</v>
+        <v>265.0</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>3</v>
@@ -3370,14 +3391,16 @@
       <c r="Z83" s="4"/>
     </row>
     <row r="84">
-      <c r="A84" s="6">
-        <v>203.0</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C84" s="3"/>
-      <c r="D84" s="5" t="s">
+      <c r="A84" s="1">
+        <v>182.0</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" s="7">
+        <v>285.0</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E84" s="4"/>
@@ -3405,7 +3428,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1">
-        <v>204.0</v>
+        <v>183.0</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>3</v>
@@ -3441,13 +3464,13 @@
     </row>
     <row r="86">
       <c r="A86" s="6">
-        <v>205.0</v>
+        <v>189.0</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C86" s="7" t="s">
-        <v>12</v>
+      <c r="C86" s="7">
+        <v>235.0</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>3</v>
@@ -3476,16 +3499,16 @@
       <c r="Z86" s="4"/>
     </row>
     <row r="87">
-      <c r="A87" s="6">
-        <v>207.0</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C87" s="7">
-        <v>325.0</v>
-      </c>
-      <c r="D87" s="5" t="s">
+      <c r="A87" s="1">
+        <v>190.0</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" s="3">
+        <v>305.0</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E87" s="4"/>
@@ -3512,16 +3535,16 @@
       <c r="Z87" s="4"/>
     </row>
     <row r="88">
-      <c r="A88" s="6">
-        <v>209.0</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D88" s="5" t="s">
+      <c r="A88" s="1">
+        <v>192.0</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" s="3">
+        <v>285.0</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E88" s="4"/>
@@ -3549,13 +3572,13 @@
     </row>
     <row r="89">
       <c r="A89" s="6">
-        <v>215.0</v>
+        <v>193.0</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C89" s="7">
-        <v>310.0</v>
+        <v>245.0</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>3</v>
@@ -3585,13 +3608,13 @@
     </row>
     <row r="90">
       <c r="A90" s="6">
-        <v>216.0</v>
+        <v>195.0</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C90" s="7">
-        <v>320.0</v>
+        <v>325.0</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>3</v>
@@ -3620,16 +3643,16 @@
       <c r="Z90" s="4"/>
     </row>
     <row r="91">
-      <c r="A91" s="1">
-        <v>218.0</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C91" s="3">
-        <v>275.0</v>
-      </c>
-      <c r="D91" s="2" t="s">
+      <c r="A91" s="6">
+        <v>196.0</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" s="7">
+        <v>220.0</v>
+      </c>
+      <c r="D91" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E91" s="4"/>
@@ -3656,16 +3679,16 @@
       <c r="Z91" s="4"/>
     </row>
     <row r="92">
-      <c r="A92" s="6">
-        <v>219.0</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C92" s="7">
-        <v>275.0</v>
-      </c>
-      <c r="D92" s="5" t="s">
+      <c r="A92" s="1">
+        <v>201.0</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" s="3">
+        <v>285.0</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E92" s="4"/>
@@ -3693,14 +3716,12 @@
     </row>
     <row r="93">
       <c r="A93" s="6">
-        <v>220.0</v>
+        <v>203.0</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C93" s="7">
-        <v>320.0</v>
-      </c>
+      <c r="C93" s="3"/>
       <c r="D93" s="5" t="s">
         <v>3</v>
       </c>
@@ -3729,13 +3750,13 @@
     </row>
     <row r="94">
       <c r="A94" s="1">
-        <v>227.0</v>
+        <v>204.0</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C94" s="3">
-        <v>325.0</v>
+        <v>270.0</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>3</v>
@@ -3764,16 +3785,16 @@
       <c r="Z94" s="4"/>
     </row>
     <row r="95">
-      <c r="A95" s="1">
-        <v>229.0</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C95" s="3">
-        <v>300.0</v>
-      </c>
-      <c r="D95" s="2" t="s">
+      <c r="A95" s="6">
+        <v>205.0</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E95" s="4"/>
@@ -3801,13 +3822,13 @@
     </row>
     <row r="96">
       <c r="A96" s="6">
-        <v>232.0</v>
+        <v>207.0</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C96" s="7">
-        <v>275.0</v>
+        <v>325.0</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>3</v>
@@ -3836,16 +3857,16 @@
       <c r="Z96" s="4"/>
     </row>
     <row r="97">
-      <c r="A97" s="1">
-        <v>237.0</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C97" s="3">
-        <v>240.0</v>
-      </c>
-      <c r="D97" s="2" t="s">
+      <c r="A97" s="6">
+        <v>209.0</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E97" s="4"/>
@@ -3873,13 +3894,13 @@
     </row>
     <row r="98">
       <c r="A98" s="6">
-        <v>238.0</v>
+        <v>215.0</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C98" s="7">
-        <v>280.0</v>
+        <v>310.0</v>
       </c>
       <c r="D98" s="5" t="s">
         <v>3</v>
@@ -3909,13 +3930,13 @@
     </row>
     <row r="99">
       <c r="A99" s="6">
-        <v>240.0</v>
+        <v>216.0</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C99" s="7">
-        <v>300.0</v>
+        <v>320.0</v>
       </c>
       <c r="D99" s="5" t="s">
         <v>3</v>
@@ -3945,13 +3966,13 @@
     </row>
     <row r="100">
       <c r="A100" s="1">
-        <v>243.0</v>
+        <v>218.0</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C100" s="3">
-        <v>225.0</v>
+        <v>275.0</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>3</v>
@@ -3981,13 +4002,13 @@
     </row>
     <row r="101">
       <c r="A101" s="6">
-        <v>246.0</v>
+        <v>219.0</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C101" s="7">
-        <v>265.0</v>
+        <v>275.0</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>3</v>
@@ -4017,13 +4038,13 @@
     </row>
     <row r="102">
       <c r="A102" s="6">
-        <v>250.0</v>
+        <v>220.0</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C102" s="7">
-        <v>245.0</v>
+        <v>320.0</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>3</v>
@@ -4053,13 +4074,13 @@
     </row>
     <row r="103">
       <c r="A103" s="6">
-        <v>252.0</v>
+        <v>221.0</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C103" s="7" t="s">
-        <v>9</v>
+      <c r="C103" s="7">
+        <v>315.0</v>
       </c>
       <c r="D103" s="5" t="s">
         <v>3</v>
@@ -4088,16 +4109,16 @@
       <c r="Z103" s="4"/>
     </row>
     <row r="104">
-      <c r="A104" s="6">
-        <v>257.0</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C104" s="7">
-        <v>260.0</v>
-      </c>
-      <c r="D104" s="5" t="s">
+      <c r="A104" s="1">
+        <v>227.0</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" s="3">
+        <v>325.0</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E104" s="4"/>
@@ -4124,16 +4145,16 @@
       <c r="Z104" s="4"/>
     </row>
     <row r="105">
-      <c r="A105" s="6">
-        <v>260.0</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C105" s="7">
-        <v>260.0</v>
-      </c>
-      <c r="D105" s="5" t="s">
+      <c r="A105" s="1">
+        <v>229.0</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105" s="3">
+        <v>300.0</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E105" s="4"/>
@@ -4161,13 +4182,13 @@
     </row>
     <row r="106">
       <c r="A106" s="6">
-        <v>261.0</v>
+        <v>232.0</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C106" s="7">
-        <v>240.0</v>
+        <v>275.0</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>3</v>
@@ -4196,16 +4217,16 @@
       <c r="Z106" s="4"/>
     </row>
     <row r="107">
-      <c r="A107" s="6">
-        <v>262.0</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C107" s="7">
-        <v>250.0</v>
-      </c>
-      <c r="D107" s="5" t="s">
+      <c r="A107" s="1">
+        <v>237.0</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" s="3">
+        <v>240.0</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E107" s="4"/>
@@ -4233,13 +4254,13 @@
     </row>
     <row r="108">
       <c r="A108" s="6">
-        <v>264.0</v>
+        <v>238.0</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C108" s="7" t="s">
-        <v>5</v>
+      <c r="C108" s="7">
+        <v>280.0</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>3</v>
@@ -4268,16 +4289,16 @@
       <c r="Z108" s="4"/>
     </row>
     <row r="109">
-      <c r="A109" s="1">
-        <v>265.0</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C109" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D109" s="2" t="s">
+      <c r="A109" s="6">
+        <v>240.0</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109" s="7">
+        <v>300.0</v>
+      </c>
+      <c r="D109" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E109" s="4"/>
@@ -4304,16 +4325,16 @@
       <c r="Z109" s="4"/>
     </row>
     <row r="110">
-      <c r="A110" s="6">
-        <v>270.0</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C110" s="7">
-        <v>265.0</v>
-      </c>
-      <c r="D110" s="5" t="s">
+      <c r="A110" s="1">
+        <v>243.0</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C110" s="3">
+        <v>225.0</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E110" s="4"/>
@@ -4341,13 +4362,13 @@
     </row>
     <row r="111">
       <c r="A111" s="6">
-        <v>273.0</v>
+        <v>245.0</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C111" s="7">
-        <v>290.0</v>
+        <v>325.0</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>3</v>
@@ -4376,16 +4397,16 @@
       <c r="Z111" s="4"/>
     </row>
     <row r="112">
-      <c r="A112" s="1">
-        <v>274.0</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C112" s="3">
-        <v>260.0</v>
-      </c>
-      <c r="D112" s="2" t="s">
+      <c r="A112" s="6">
+        <v>246.0</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112" s="7">
+        <v>265.0</v>
+      </c>
+      <c r="D112" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E112" s="4"/>
@@ -4413,13 +4434,13 @@
     </row>
     <row r="113">
       <c r="A113" s="6">
-        <v>275.0</v>
+        <v>250.0</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C113" s="7">
-        <v>290.0</v>
+        <v>245.0</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>3</v>
@@ -4449,13 +4470,13 @@
     </row>
     <row r="114">
       <c r="A114" s="6">
-        <v>279.0</v>
+        <v>252.0</v>
       </c>
       <c r="B114" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C114" s="7">
-        <v>255.0</v>
+      <c r="C114" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>3</v>
@@ -4485,14 +4506,12 @@
     </row>
     <row r="115">
       <c r="A115" s="6">
-        <v>281.0</v>
+        <v>256.0</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C115" s="7">
-        <v>295.0</v>
-      </c>
+      <c r="C115" s="7"/>
       <c r="D115" s="5" t="s">
         <v>3</v>
       </c>
@@ -4521,7 +4540,7 @@
     </row>
     <row r="116">
       <c r="A116" s="6">
-        <v>284.0</v>
+        <v>257.0</v>
       </c>
       <c r="B116" s="5" t="s">
         <v>3</v>
@@ -4557,13 +4576,13 @@
     </row>
     <row r="117">
       <c r="A117" s="6">
-        <v>286.0</v>
+        <v>260.0</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C117" s="7">
-        <v>270.0</v>
+        <v>260.0</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>3</v>
@@ -4593,13 +4612,13 @@
     </row>
     <row r="118">
       <c r="A118" s="6">
-        <v>289.0</v>
+        <v>261.0</v>
       </c>
       <c r="B118" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C118" s="7">
-        <v>260.0</v>
+        <v>240.0</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>3</v>
@@ -4628,16 +4647,16 @@
       <c r="Z118" s="4"/>
     </row>
     <row r="119">
-      <c r="A119" s="1">
-        <v>290.0</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C119" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D119" s="2" t="s">
+      <c r="A119" s="6">
+        <v>262.0</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119" s="7">
+        <v>250.0</v>
+      </c>
+      <c r="D119" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E119" s="4"/>
@@ -4665,13 +4684,13 @@
     </row>
     <row r="120">
       <c r="A120" s="6">
-        <v>295.0</v>
+        <v>264.0</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>3</v>
@@ -4700,14 +4719,14 @@
       <c r="Z120" s="4"/>
     </row>
     <row r="121">
-      <c r="A121" s="6">
-        <v>296.0</v>
+      <c r="A121" s="1">
+        <v>265.0</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C121" s="7">
-        <v>235.0</v>
+      <c r="C121" s="3">
+        <v>250.0</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>3</v>
@@ -4737,13 +4756,13 @@
     </row>
     <row r="122">
       <c r="A122" s="6">
-        <v>298.0</v>
+        <v>270.0</v>
       </c>
       <c r="B122" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C122" s="7">
-        <v>275.0</v>
+        <v>265.0</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>3</v>
@@ -4773,13 +4792,13 @@
     </row>
     <row r="123">
       <c r="A123" s="6">
-        <v>299.0</v>
+        <v>273.0</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C123" s="7">
-        <v>335.0</v>
+        <v>290.0</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>3</v>
@@ -4808,16 +4827,16 @@
       <c r="Z123" s="4"/>
     </row>
     <row r="124">
-      <c r="A124" s="6">
-        <v>302.0</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C124" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D124" s="5" t="s">
+      <c r="A124" s="1">
+        <v>274.0</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124" s="3">
+        <v>260.0</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E124" s="4"/>
@@ -4844,16 +4863,16 @@
       <c r="Z124" s="4"/>
     </row>
     <row r="125">
-      <c r="A125" s="1">
-        <v>306.0</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C125" s="3">
-        <v>235.0</v>
-      </c>
-      <c r="D125" s="2" t="s">
+      <c r="A125" s="6">
+        <v>275.0</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125" s="7">
+        <v>290.0</v>
+      </c>
+      <c r="D125" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E125" s="4"/>
@@ -4881,13 +4900,13 @@
     </row>
     <row r="126">
       <c r="A126" s="6">
-        <v>307.0</v>
+        <v>277.0</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C126" s="7">
-        <v>250.0</v>
+        <v>280.0</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>3</v>
@@ -4917,13 +4936,13 @@
     </row>
     <row r="127">
       <c r="A127" s="6">
-        <v>309.0</v>
+        <v>279.0</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C127" s="7">
-        <v>260.0</v>
+        <v>255.0</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>3</v>
@@ -4953,13 +4972,13 @@
     </row>
     <row r="128">
       <c r="A128" s="6">
-        <v>312.0</v>
+        <v>281.0</v>
       </c>
       <c r="B128" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C128" s="7">
-        <v>325.0</v>
+        <v>295.0</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>3</v>
@@ -4989,13 +5008,13 @@
     </row>
     <row r="129">
       <c r="A129" s="6">
-        <v>323.0</v>
+        <v>284.0</v>
       </c>
       <c r="B129" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C129" s="7">
-        <v>265.0</v>
+        <v>260.0</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>3</v>
@@ -5024,16 +5043,16 @@
       <c r="Z129" s="4"/>
     </row>
     <row r="130">
-      <c r="A130" s="1">
-        <v>324.0</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C130" s="3">
-        <v>260.0</v>
-      </c>
-      <c r="D130" s="2" t="s">
+      <c r="A130" s="6">
+        <v>286.0</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130" s="7">
+        <v>270.0</v>
+      </c>
+      <c r="D130" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E130" s="4"/>
@@ -5060,16 +5079,14 @@
       <c r="Z130" s="4"/>
     </row>
     <row r="131">
-      <c r="A131" s="1">
-        <v>328.0</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C131" s="3">
-        <v>255.0</v>
-      </c>
-      <c r="D131" s="2" t="s">
+      <c r="A131" s="6">
+        <v>287.0</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131" s="7"/>
+      <c r="D131" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E131" s="4"/>
@@ -5097,13 +5114,13 @@
     </row>
     <row r="132">
       <c r="A132" s="6">
-        <v>334.0</v>
+        <v>289.0</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C132" s="7" t="s">
-        <v>14</v>
+      <c r="C132" s="7">
+        <v>260.0</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>3</v>
@@ -5132,16 +5149,16 @@
       <c r="Z132" s="4"/>
     </row>
     <row r="133">
-      <c r="A133" s="6">
-        <v>338.0</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C133" s="7">
-        <v>235.0</v>
-      </c>
-      <c r="D133" s="5" t="s">
+      <c r="A133" s="1">
+        <v>290.0</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C133" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E133" s="4"/>
@@ -5169,13 +5186,13 @@
     </row>
     <row r="134">
       <c r="A134" s="6">
-        <v>348.0</v>
+        <v>295.0</v>
       </c>
       <c r="B134" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C134" s="7">
-        <v>270.0</v>
+      <c r="C134" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>3</v>
@@ -5204,14 +5221,14 @@
       <c r="Z134" s="4"/>
     </row>
     <row r="135">
-      <c r="A135" s="1">
-        <v>349.0</v>
+      <c r="A135" s="6">
+        <v>296.0</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C135" s="3">
-        <v>250.0</v>
+      <c r="C135" s="7">
+        <v>235.0</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>3</v>
@@ -5240,16 +5257,16 @@
       <c r="Z135" s="4"/>
     </row>
     <row r="136">
-      <c r="A136" s="1">
-        <v>350.0</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C136" s="3">
-        <v>225.0</v>
-      </c>
-      <c r="D136" s="2" t="s">
+      <c r="A136" s="6">
+        <v>298.0</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C136" s="7">
+        <v>275.0</v>
+      </c>
+      <c r="D136" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E136" s="4"/>
@@ -5277,13 +5294,13 @@
     </row>
     <row r="137">
       <c r="A137" s="6">
-        <v>351.0</v>
+        <v>299.0</v>
       </c>
       <c r="B137" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C137" s="7">
-        <v>260.0</v>
+        <v>335.0</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>3</v>
@@ -5313,13 +5330,13 @@
     </row>
     <row r="138">
       <c r="A138" s="6">
-        <v>356.0</v>
+        <v>302.0</v>
       </c>
       <c r="B138" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C138" s="7">
-        <v>260.0</v>
+      <c r="C138" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>3</v>
@@ -5348,16 +5365,16 @@
       <c r="Z138" s="4"/>
     </row>
     <row r="139">
-      <c r="A139" s="6">
-        <v>357.0</v>
-      </c>
-      <c r="B139" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C139" s="7">
-        <v>300.0</v>
-      </c>
-      <c r="D139" s="5" t="s">
+      <c r="A139" s="1">
+        <v>306.0</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C139" s="3">
+        <v>235.0</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E139" s="4"/>
@@ -5384,16 +5401,16 @@
       <c r="Z139" s="4"/>
     </row>
     <row r="140">
-      <c r="A140" s="1">
-        <v>361.0</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C140" s="3">
-        <v>245.0</v>
-      </c>
-      <c r="D140" s="2" t="s">
+      <c r="A140" s="6">
+        <v>307.0</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C140" s="7">
+        <v>250.0</v>
+      </c>
+      <c r="D140" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E140" s="4"/>
@@ -5421,13 +5438,13 @@
     </row>
     <row r="141">
       <c r="A141" s="6">
-        <v>362.0</v>
+        <v>309.0</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C141" s="7" t="s">
-        <v>15</v>
+      <c r="C141" s="7">
+        <v>260.0</v>
       </c>
       <c r="D141" s="5" t="s">
         <v>3</v>
@@ -5457,13 +5474,13 @@
     </row>
     <row r="142">
       <c r="A142" s="6">
-        <v>365.0</v>
+        <v>312.0</v>
       </c>
       <c r="B142" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C142" s="7">
-        <v>335.0</v>
+        <v>325.0</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>3</v>
@@ -5493,13 +5510,13 @@
     </row>
     <row r="143">
       <c r="A143" s="6">
-        <v>366.0</v>
+        <v>323.0</v>
       </c>
       <c r="B143" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C143" s="7">
-        <v>260.0</v>
+        <v>265.0</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>3</v>
@@ -5529,13 +5546,13 @@
     </row>
     <row r="144">
       <c r="A144" s="1">
-        <v>367.0</v>
+        <v>324.0</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C144" s="3">
-        <v>225.0</v>
+        <v>260.0</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>3</v>
@@ -5564,16 +5581,16 @@
       <c r="Z144" s="4"/>
     </row>
     <row r="145">
-      <c r="A145" s="6">
-        <v>368.0</v>
-      </c>
-      <c r="B145" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C145" s="7">
-        <v>260.0</v>
-      </c>
-      <c r="D145" s="5" t="s">
+      <c r="A145" s="1">
+        <v>328.0</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C145" s="3">
+        <v>255.0</v>
+      </c>
+      <c r="D145" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E145" s="4"/>
@@ -5600,16 +5617,16 @@
       <c r="Z145" s="4"/>
     </row>
     <row r="146">
-      <c r="A146" s="1">
-        <v>369.0</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C146" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D146" s="2" t="s">
+      <c r="A146" s="6">
+        <v>334.0</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D146" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E146" s="4"/>
@@ -5637,12 +5654,14 @@
     </row>
     <row r="147">
       <c r="A147" s="6">
-        <v>370.0</v>
+        <v>338.0</v>
       </c>
       <c r="B147" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C147" s="3"/>
+      <c r="C147" s="7">
+        <v>235.0</v>
+      </c>
       <c r="D147" s="5" t="s">
         <v>3</v>
       </c>
@@ -5670,16 +5689,16 @@
       <c r="Z147" s="4"/>
     </row>
     <row r="148">
-      <c r="A148" s="1">
-        <v>375.0</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C148" s="3">
-        <v>245.0</v>
-      </c>
-      <c r="D148" s="2" t="s">
+      <c r="A148" s="6">
+        <v>348.0</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C148" s="7">
+        <v>270.0</v>
+      </c>
+      <c r="D148" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E148" s="4"/>
@@ -5707,13 +5726,13 @@
     </row>
     <row r="149">
       <c r="A149" s="1">
-        <v>377.0</v>
+        <v>349.0</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C149" s="3">
-        <v>275.0</v>
+        <v>250.0</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>3</v>
@@ -5742,16 +5761,16 @@
       <c r="Z149" s="4"/>
     </row>
     <row r="150">
-      <c r="A150" s="6">
-        <v>378.0</v>
-      </c>
-      <c r="B150" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C150" s="7">
-        <v>275.0</v>
-      </c>
-      <c r="D150" s="5" t="s">
+      <c r="A150" s="1">
+        <v>350.0</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C150" s="3">
+        <v>225.0</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E150" s="4"/>
@@ -5778,16 +5797,16 @@
       <c r="Z150" s="4"/>
     </row>
     <row r="151">
-      <c r="A151" s="1">
-        <v>382.0</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C151" s="3">
-        <v>295.0</v>
-      </c>
-      <c r="D151" s="2" t="s">
+      <c r="A151" s="6">
+        <v>351.0</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C151" s="7">
+        <v>260.0</v>
+      </c>
+      <c r="D151" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E151" s="4"/>
@@ -5815,13 +5834,13 @@
     </row>
     <row r="152">
       <c r="A152" s="6">
-        <v>384.0</v>
+        <v>353.0</v>
       </c>
       <c r="B152" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C152" s="7">
-        <v>310.0</v>
+      <c r="C152" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="D152" s="5" t="s">
         <v>3</v>
@@ -5851,13 +5870,13 @@
     </row>
     <row r="153">
       <c r="A153" s="6">
-        <v>388.0</v>
+        <v>356.0</v>
       </c>
       <c r="B153" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C153" s="7">
-        <v>290.0</v>
+        <v>260.0</v>
       </c>
       <c r="D153" s="5" t="s">
         <v>3</v>
@@ -5886,16 +5905,16 @@
       <c r="Z153" s="4"/>
     </row>
     <row r="154">
-      <c r="A154" s="1">
-        <v>389.0</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C154" s="3">
-        <v>265.0</v>
-      </c>
-      <c r="D154" s="2" t="s">
+      <c r="A154" s="6">
+        <v>357.0</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C154" s="7">
+        <v>300.0</v>
+      </c>
+      <c r="D154" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E154" s="4"/>
@@ -5922,16 +5941,16 @@
       <c r="Z154" s="4"/>
     </row>
     <row r="155">
-      <c r="A155" s="6">
-        <v>390.0</v>
-      </c>
-      <c r="B155" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C155" s="7">
-        <v>300.0</v>
-      </c>
-      <c r="D155" s="5" t="s">
+      <c r="A155" s="1">
+        <v>361.0</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C155" s="3">
+        <v>245.0</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E155" s="4"/>
@@ -5959,13 +5978,13 @@
     </row>
     <row r="156">
       <c r="A156" s="6">
-        <v>398.0</v>
+        <v>362.0</v>
       </c>
       <c r="B156" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C156" s="7">
-        <v>260.0</v>
+      <c r="C156" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="D156" s="5" t="s">
         <v>3</v>
@@ -5994,16 +6013,16 @@
       <c r="Z156" s="4"/>
     </row>
     <row r="157">
-      <c r="A157" s="1">
-        <v>399.0</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C157" s="3">
-        <v>260.0</v>
-      </c>
-      <c r="D157" s="2" t="s">
+      <c r="A157" s="6">
+        <v>365.0</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C157" s="7">
+        <v>335.0</v>
+      </c>
+      <c r="D157" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E157" s="4"/>
@@ -6030,16 +6049,16 @@
       <c r="Z157" s="4"/>
     </row>
     <row r="158">
-      <c r="A158" s="1">
-        <v>404.0</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C158" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D158" s="2" t="s">
+      <c r="A158" s="6">
+        <v>366.0</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C158" s="7">
+        <v>260.0</v>
+      </c>
+      <c r="D158" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E158" s="4"/>
@@ -6066,16 +6085,16 @@
       <c r="Z158" s="4"/>
     </row>
     <row r="159">
-      <c r="A159" s="6">
-        <v>406.0</v>
-      </c>
-      <c r="B159" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C159" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D159" s="5" t="s">
+      <c r="A159" s="1">
+        <v>367.0</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C159" s="3">
+        <v>225.0</v>
+      </c>
+      <c r="D159" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E159" s="4"/>
@@ -6103,13 +6122,13 @@
     </row>
     <row r="160">
       <c r="A160" s="6">
-        <v>413.0</v>
+        <v>368.0</v>
       </c>
       <c r="B160" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C160" s="7">
-        <v>290.0</v>
+        <v>260.0</v>
       </c>
       <c r="D160" s="5" t="s">
         <v>3</v>
@@ -6139,13 +6158,13 @@
     </row>
     <row r="161">
       <c r="A161" s="1">
-        <v>423.0</v>
+        <v>369.0</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C161" s="3">
-        <v>280.0</v>
+        <v>310.0</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>3</v>
@@ -6174,16 +6193,14 @@
       <c r="Z161" s="4"/>
     </row>
     <row r="162">
-      <c r="A162" s="1">
-        <v>429.0</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C162" s="3">
-        <v>290.0</v>
-      </c>
-      <c r="D162" s="2" t="s">
+      <c r="A162" s="6">
+        <v>370.0</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C162" s="3"/>
+      <c r="D162" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E162" s="4"/>
@@ -6211,13 +6228,13 @@
     </row>
     <row r="163">
       <c r="A163" s="1">
-        <v>430.0</v>
+        <v>375.0</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C163" s="3">
-        <v>290.0</v>
+        <v>245.0</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>3</v>
@@ -6246,16 +6263,16 @@
       <c r="Z163" s="4"/>
     </row>
     <row r="164">
-      <c r="A164" s="6">
-        <v>438.0</v>
-      </c>
-      <c r="B164" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C164" s="7">
-        <v>265.0</v>
-      </c>
-      <c r="D164" s="5" t="s">
+      <c r="A164" s="1">
+        <v>377.0</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C164" s="3">
+        <v>275.0</v>
+      </c>
+      <c r="D164" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E164" s="4"/>
@@ -6283,13 +6300,13 @@
     </row>
     <row r="165">
       <c r="A165" s="6">
-        <v>439.0</v>
+        <v>378.0</v>
       </c>
       <c r="B165" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C165" s="7">
-        <v>280.0</v>
+        <v>275.0</v>
       </c>
       <c r="D165" s="5" t="s">
         <v>3</v>
@@ -6319,13 +6336,13 @@
     </row>
     <row r="166">
       <c r="A166" s="6">
-        <v>441.0</v>
+        <v>380.0</v>
       </c>
       <c r="B166" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C166" s="7">
-        <v>270.0</v>
+        <v>285.0</v>
       </c>
       <c r="D166" s="5" t="s">
         <v>3</v>
@@ -6355,7 +6372,7 @@
     </row>
     <row r="167">
       <c r="A167" s="1">
-        <v>442.0</v>
+        <v>382.0</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>3</v>
@@ -6391,13 +6408,13 @@
     </row>
     <row r="168">
       <c r="A168" s="6">
-        <v>443.0</v>
+        <v>384.0</v>
       </c>
       <c r="B168" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C168" s="7">
-        <v>305.0</v>
+        <v>310.0</v>
       </c>
       <c r="D168" s="5" t="s">
         <v>3</v>
@@ -6427,13 +6444,13 @@
     </row>
     <row r="169">
       <c r="A169" s="6">
-        <v>444.0</v>
+        <v>388.0</v>
       </c>
       <c r="B169" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C169" s="7">
-        <v>250.0</v>
+        <v>290.0</v>
       </c>
       <c r="D169" s="5" t="s">
         <v>3</v>
@@ -6462,16 +6479,16 @@
       <c r="Z169" s="4"/>
     </row>
     <row r="170">
-      <c r="A170" s="6">
-        <v>446.0</v>
-      </c>
-      <c r="B170" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C170" s="7">
-        <v>280.0</v>
-      </c>
-      <c r="D170" s="5" t="s">
+      <c r="A170" s="1">
+        <v>389.0</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C170" s="3">
+        <v>265.0</v>
+      </c>
+      <c r="D170" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E170" s="4"/>
@@ -6499,13 +6516,13 @@
     </row>
     <row r="171">
       <c r="A171" s="6">
-        <v>450.0</v>
+        <v>390.0</v>
       </c>
       <c r="B171" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C171" s="7">
-        <v>260.0</v>
+        <v>300.0</v>
       </c>
       <c r="D171" s="5" t="s">
         <v>3</v>
@@ -6535,13 +6552,13 @@
     </row>
     <row r="172">
       <c r="A172" s="6">
-        <v>451.0</v>
+        <v>398.0</v>
       </c>
       <c r="B172" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C172" s="7">
-        <v>330.0</v>
+        <v>260.0</v>
       </c>
       <c r="D172" s="5" t="s">
         <v>3</v>
@@ -6571,13 +6588,13 @@
     </row>
     <row r="173">
       <c r="A173" s="1">
-        <v>456.0</v>
+        <v>399.0</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C173" s="3">
-        <v>235.0</v>
+        <v>260.0</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>3</v>
@@ -6607,7 +6624,7 @@
     </row>
     <row r="174">
       <c r="A174" s="1">
-        <v>457.0</v>
+        <v>404.0</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>3</v>
@@ -6643,13 +6660,13 @@
     </row>
     <row r="175">
       <c r="A175" s="6">
-        <v>461.0</v>
+        <v>406.0</v>
       </c>
       <c r="B175" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C175" s="7">
-        <v>210.0</v>
+      <c r="C175" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="D175" s="5" t="s">
         <v>3</v>
@@ -6678,16 +6695,16 @@
       <c r="Z175" s="4"/>
     </row>
     <row r="176">
-      <c r="A176" s="1">
-        <v>463.0</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C176" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D176" s="2" t="s">
+      <c r="A176" s="6">
+        <v>409.0</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C176" s="7">
+        <v>265.0</v>
+      </c>
+      <c r="D176" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E176" s="4"/>
@@ -6714,16 +6731,16 @@
       <c r="Z176" s="4"/>
     </row>
     <row r="177">
-      <c r="A177" s="1">
-        <v>470.0</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C177" s="3">
-        <v>265.0</v>
-      </c>
-      <c r="D177" s="2" t="s">
+      <c r="A177" s="6">
+        <v>410.0</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C177" s="7">
+        <v>230.0</v>
+      </c>
+      <c r="D177" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E177" s="4"/>
@@ -6751,13 +6768,13 @@
     </row>
     <row r="178">
       <c r="A178" s="6">
-        <v>474.0</v>
+        <v>413.0</v>
       </c>
       <c r="B178" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C178" s="7" t="s">
-        <v>16</v>
+      <c r="C178" s="7">
+        <v>290.0</v>
       </c>
       <c r="D178" s="5" t="s">
         <v>3</v>
@@ -6787,7 +6804,7 @@
     </row>
     <row r="179">
       <c r="A179" s="6">
-        <v>478.0</v>
+        <v>418.0</v>
       </c>
       <c r="B179" s="5" t="s">
         <v>3</v>
@@ -6822,16 +6839,16 @@
       <c r="Z179" s="4"/>
     </row>
     <row r="180">
-      <c r="A180" s="6">
-        <v>480.0</v>
-      </c>
-      <c r="B180" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C180" s="7">
-        <v>290.0</v>
-      </c>
-      <c r="D180" s="5" t="s">
+      <c r="A180" s="1">
+        <v>423.0</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C180" s="3">
+        <v>280.0</v>
+      </c>
+      <c r="D180" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E180" s="4"/>
@@ -6859,13 +6876,13 @@
     </row>
     <row r="181">
       <c r="A181" s="1">
-        <v>485.0</v>
+        <v>429.0</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C181" s="3">
-        <v>310.0</v>
+        <v>290.0</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>3</v>
@@ -6894,16 +6911,16 @@
       <c r="Z181" s="4"/>
     </row>
     <row r="182">
-      <c r="A182" s="6">
-        <v>488.0</v>
-      </c>
-      <c r="B182" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C182" s="7">
-        <v>325.0</v>
-      </c>
-      <c r="D182" s="5" t="s">
+      <c r="A182" s="1">
+        <v>430.0</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C182" s="3">
+        <v>290.0</v>
+      </c>
+      <c r="D182" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E182" s="4"/>
@@ -6931,13 +6948,13 @@
     </row>
     <row r="183">
       <c r="A183" s="6">
-        <v>490.0</v>
+        <v>438.0</v>
       </c>
       <c r="B183" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C183" s="7">
-        <v>275.0</v>
+        <v>265.0</v>
       </c>
       <c r="D183" s="5" t="s">
         <v>3</v>
@@ -6967,13 +6984,13 @@
     </row>
     <row r="184">
       <c r="A184" s="6">
-        <v>492.0</v>
+        <v>439.0</v>
       </c>
       <c r="B184" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C184" s="7" t="s">
-        <v>13</v>
+      <c r="C184" s="7">
+        <v>280.0</v>
       </c>
       <c r="D184" s="5" t="s">
         <v>3</v>
@@ -7002,16 +7019,16 @@
       <c r="Z184" s="4"/>
     </row>
     <row r="185">
-      <c r="A185" s="1">
-        <v>503.0</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C185" s="3">
-        <v>260.0</v>
-      </c>
-      <c r="D185" s="2" t="s">
+      <c r="A185" s="6">
+        <v>441.0</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C185" s="7">
+        <v>270.0</v>
+      </c>
+      <c r="D185" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E185" s="4"/>
@@ -7039,13 +7056,13 @@
     </row>
     <row r="186">
       <c r="A186" s="1">
-        <v>510.0</v>
+        <v>442.0</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C186" s="3">
-        <v>285.0</v>
+        <v>295.0</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>3</v>
@@ -7075,13 +7092,13 @@
     </row>
     <row r="187">
       <c r="A187" s="6">
-        <v>514.0</v>
+        <v>443.0</v>
       </c>
       <c r="B187" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C187" s="7">
-        <v>315.0</v>
+        <v>305.0</v>
       </c>
       <c r="D187" s="5" t="s">
         <v>3</v>
@@ -7111,13 +7128,13 @@
     </row>
     <row r="188">
       <c r="A188" s="6">
-        <v>517.0</v>
+        <v>444.0</v>
       </c>
       <c r="B188" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C188" s="7">
-        <v>240.0</v>
+        <v>250.0</v>
       </c>
       <c r="D188" s="5" t="s">
         <v>3</v>
@@ -7147,13 +7164,13 @@
     </row>
     <row r="189">
       <c r="A189" s="6">
-        <v>520.0</v>
+        <v>446.0</v>
       </c>
       <c r="B189" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C189" s="7">
-        <v>265.0</v>
+        <v>280.0</v>
       </c>
       <c r="D189" s="5" t="s">
         <v>3</v>
@@ -7183,13 +7200,13 @@
     </row>
     <row r="190">
       <c r="A190" s="6">
-        <v>522.0</v>
+        <v>450.0</v>
       </c>
       <c r="B190" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C190" s="7">
-        <v>290.0</v>
+        <v>260.0</v>
       </c>
       <c r="D190" s="5" t="s">
         <v>3</v>
@@ -7219,13 +7236,13 @@
     </row>
     <row r="191">
       <c r="A191" s="6">
-        <v>524.0</v>
+        <v>451.0</v>
       </c>
       <c r="B191" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C191" s="7">
-        <v>325.0</v>
+        <v>330.0</v>
       </c>
       <c r="D191" s="5" t="s">
         <v>3</v>
@@ -7255,13 +7272,13 @@
     </row>
     <row r="192">
       <c r="A192" s="6">
-        <v>527.0</v>
+        <v>452.0</v>
       </c>
       <c r="B192" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C192" s="7">
-        <v>230.0</v>
+        <v>290.0</v>
       </c>
       <c r="D192" s="5" t="s">
         <v>3</v>
@@ -7291,13 +7308,13 @@
     </row>
     <row r="193">
       <c r="A193" s="1">
-        <v>534.0</v>
+        <v>456.0</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C193" s="3">
-        <v>230.0</v>
+        <v>235.0</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>3</v>
@@ -7327,13 +7344,13 @@
     </row>
     <row r="194">
       <c r="A194" s="1">
-        <v>535.0</v>
+        <v>457.0</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C194" s="3">
-        <v>295.0</v>
+        <v>250.0</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>3</v>
@@ -7363,13 +7380,13 @@
     </row>
     <row r="195">
       <c r="A195" s="6">
-        <v>543.0</v>
+        <v>461.0</v>
       </c>
       <c r="B195" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C195" s="7">
-        <v>288.0</v>
+        <v>210.0</v>
       </c>
       <c r="D195" s="5" t="s">
         <v>3</v>
@@ -7398,16 +7415,16 @@
       <c r="Z195" s="4"/>
     </row>
     <row r="196">
-      <c r="A196" s="6">
-        <v>546.0</v>
-      </c>
-      <c r="B196" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C196" s="7">
-        <v>265.0</v>
-      </c>
-      <c r="D196" s="5" t="s">
+      <c r="A196" s="1">
+        <v>463.0</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C196" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D196" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E196" s="4"/>
@@ -7434,16 +7451,16 @@
       <c r="Z196" s="4"/>
     </row>
     <row r="197">
-      <c r="A197" s="6">
-        <v>551.0</v>
-      </c>
-      <c r="B197" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C197" s="7">
-        <v>270.0</v>
-      </c>
-      <c r="D197" s="5" t="s">
+      <c r="A197" s="1">
+        <v>470.0</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C197" s="3">
+        <v>265.0</v>
+      </c>
+      <c r="D197" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E197" s="4"/>
@@ -7470,16 +7487,16 @@
       <c r="Z197" s="4"/>
     </row>
     <row r="198">
-      <c r="A198" s="1">
-        <v>552.0</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C198" s="3">
-        <v>280.0</v>
-      </c>
-      <c r="D198" s="2" t="s">
+      <c r="A198" s="6">
+        <v>471.0</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C198" s="7">
+        <v>250.0</v>
+      </c>
+      <c r="D198" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E198" s="4"/>
@@ -7507,13 +7524,13 @@
     </row>
     <row r="199">
       <c r="A199" s="6">
-        <v>555.0</v>
+        <v>474.0</v>
       </c>
       <c r="B199" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C199" s="7">
-        <v>345.0</v>
+        <v>260.0</v>
       </c>
       <c r="D199" s="5" t="s">
         <v>3</v>
@@ -7543,13 +7560,13 @@
     </row>
     <row r="200">
       <c r="A200" s="6">
-        <v>556.0</v>
+        <v>478.0</v>
       </c>
       <c r="B200" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C200" s="7">
-        <v>285.0</v>
+        <v>275.0</v>
       </c>
       <c r="D200" s="5" t="s">
         <v>3</v>
@@ -7579,13 +7596,13 @@
     </row>
     <row r="201">
       <c r="A201" s="6">
-        <v>560.0</v>
+        <v>480.0</v>
       </c>
       <c r="B201" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C201" s="7">
-        <v>310.0</v>
+        <v>290.0</v>
       </c>
       <c r="D201" s="5" t="s">
         <v>3</v>
@@ -7615,13 +7632,13 @@
     </row>
     <row r="202">
       <c r="A202" s="1">
-        <v>561.0</v>
+        <v>485.0</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C202" s="3">
-        <v>280.0</v>
+        <v>310.0</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>3</v>
@@ -7651,13 +7668,13 @@
     </row>
     <row r="203">
       <c r="A203" s="6">
-        <v>562.0</v>
+        <v>488.0</v>
       </c>
       <c r="B203" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C203" s="7" t="s">
-        <v>5</v>
+      <c r="C203" s="7">
+        <v>325.0</v>
       </c>
       <c r="D203" s="5" t="s">
         <v>3</v>
@@ -7687,13 +7704,13 @@
     </row>
     <row r="204">
       <c r="A204" s="6">
-        <v>564.0</v>
+        <v>490.0</v>
       </c>
       <c r="B204" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C204" s="7">
-        <v>260.0</v>
+        <v>275.0</v>
       </c>
       <c r="D204" s="5" t="s">
         <v>3</v>
@@ -7722,16 +7739,16 @@
       <c r="Z204" s="4"/>
     </row>
     <row r="205">
-      <c r="A205" s="1">
-        <v>567.0</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C205" s="3">
-        <v>325.0</v>
-      </c>
-      <c r="D205" s="2" t="s">
+      <c r="A205" s="6">
+        <v>492.0</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D205" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E205" s="4"/>
@@ -7758,16 +7775,16 @@
       <c r="Z205" s="4"/>
     </row>
     <row r="206">
-      <c r="A206" s="1">
-        <v>576.0</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C206" s="3">
-        <v>260.0</v>
-      </c>
-      <c r="D206" s="2" t="s">
+      <c r="A206" s="6">
+        <v>495.0</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D206" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E206" s="4"/>
@@ -7794,16 +7811,16 @@
       <c r="Z206" s="4"/>
     </row>
     <row r="207">
-      <c r="A207" s="6">
-        <v>577.0</v>
-      </c>
-      <c r="B207" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C207" s="7">
-        <v>230.0</v>
-      </c>
-      <c r="D207" s="5" t="s">
+      <c r="A207" s="1">
+        <v>503.0</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C207" s="3">
+        <v>260.0</v>
+      </c>
+      <c r="D207" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E207" s="4"/>
@@ -7830,16 +7847,16 @@
       <c r="Z207" s="4"/>
     </row>
     <row r="208">
-      <c r="A208" s="9">
-        <v>580.0</v>
-      </c>
-      <c r="B208" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C208" s="7">
-        <v>240.0</v>
-      </c>
-      <c r="D208" s="5" t="s">
+      <c r="A208" s="1">
+        <v>510.0</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C208" s="3">
+        <v>285.0</v>
+      </c>
+      <c r="D208" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E208" s="4"/>
@@ -7866,16 +7883,16 @@
       <c r="Z208" s="4"/>
     </row>
     <row r="209">
-      <c r="A209" s="1">
-        <v>583.0</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C209" s="3">
-        <v>320.0</v>
-      </c>
-      <c r="D209" s="2" t="s">
+      <c r="A209" s="6">
+        <v>514.0</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C209" s="7">
+        <v>315.0</v>
+      </c>
+      <c r="D209" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E209" s="4"/>
@@ -7902,16 +7919,16 @@
       <c r="Z209" s="4"/>
     </row>
     <row r="210">
-      <c r="A210" s="1">
-        <v>584.0</v>
-      </c>
-      <c r="B210" s="2" t="s">
+      <c r="A210" s="6">
+        <v>516.0</v>
+      </c>
+      <c r="B210" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C210" s="7">
-        <v>275.0</v>
-      </c>
-      <c r="D210" s="2" t="s">
+        <v>265.0</v>
+      </c>
+      <c r="D210" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E210" s="4"/>
@@ -7938,16 +7955,16 @@
       <c r="Z210" s="4"/>
     </row>
     <row r="211">
-      <c r="A211" s="1">
-        <v>586.0</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C211" s="3">
+      <c r="A211" s="6">
+        <v>517.0</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C211" s="7">
         <v>240.0</v>
       </c>
-      <c r="D211" s="2" t="s">
+      <c r="D211" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E211" s="4"/>
@@ -7975,7 +7992,7 @@
     </row>
     <row r="212">
       <c r="A212" s="6">
-        <v>587.0</v>
+        <v>520.0</v>
       </c>
       <c r="B212" s="5" t="s">
         <v>3</v>
@@ -8011,13 +8028,13 @@
     </row>
     <row r="213">
       <c r="A213" s="6">
-        <v>589.0</v>
+        <v>522.0</v>
       </c>
       <c r="B213" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C213" s="7">
-        <v>265.0</v>
+        <v>290.0</v>
       </c>
       <c r="D213" s="5" t="s">
         <v>3</v>
@@ -8047,13 +8064,13 @@
     </row>
     <row r="214">
       <c r="A214" s="6">
-        <v>591.0</v>
+        <v>524.0</v>
       </c>
       <c r="B214" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C214" s="7" t="s">
-        <v>5</v>
+      <c r="C214" s="7">
+        <v>325.0</v>
       </c>
       <c r="D214" s="5" t="s">
         <v>3</v>
@@ -8082,16 +8099,16 @@
       <c r="Z214" s="4"/>
     </row>
     <row r="215">
-      <c r="A215" s="1">
-        <v>593.0</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C215" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D215" s="2" t="s">
+      <c r="A215" s="6">
+        <v>527.0</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C215" s="7">
+        <v>230.0</v>
+      </c>
+      <c r="D215" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E215" s="4"/>
@@ -8118,16 +8135,16 @@
       <c r="Z215" s="4"/>
     </row>
     <row r="216">
-      <c r="A216" s="6">
-        <v>599.0</v>
-      </c>
-      <c r="B216" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C216" s="7">
-        <v>280.0</v>
-      </c>
-      <c r="D216" s="5" t="s">
+      <c r="A216" s="1">
+        <v>534.0</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C216" s="3">
+        <v>230.0</v>
+      </c>
+      <c r="D216" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E216" s="4"/>
@@ -8154,16 +8171,16 @@
       <c r="Z216" s="4"/>
     </row>
     <row r="217">
-      <c r="A217" s="6">
-        <v>601.0</v>
-      </c>
-      <c r="B217" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C217" s="7">
-        <v>305.0</v>
-      </c>
-      <c r="D217" s="5" t="s">
+      <c r="A217" s="1">
+        <v>535.0</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C217" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D217" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E217" s="4"/>
@@ -8190,16 +8207,16 @@
       <c r="Z217" s="4"/>
     </row>
     <row r="218">
-      <c r="A218" s="1">
-        <v>604.0</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C218" s="3">
-        <v>295.0</v>
-      </c>
-      <c r="D218" s="2" t="s">
+      <c r="A218" s="6">
+        <v>539.0</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D218" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E218" s="4"/>
@@ -8227,15 +8244,15 @@
     </row>
     <row r="219">
       <c r="A219" s="6">
-        <v>605.0</v>
-      </c>
-      <c r="B219" s="2" t="s">
+        <v>540.0</v>
+      </c>
+      <c r="B219" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C219" s="7">
-        <v>270.0</v>
-      </c>
-      <c r="D219" s="2" t="s">
+        <v>285.0</v>
+      </c>
+      <c r="D219" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E219" s="4"/>
@@ -8263,13 +8280,13 @@
     </row>
     <row r="220">
       <c r="A220" s="6">
-        <v>610.0</v>
+        <v>543.0</v>
       </c>
       <c r="B220" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C220" s="7">
-        <v>260.0</v>
+        <v>288.0</v>
       </c>
       <c r="D220" s="5" t="s">
         <v>3</v>
@@ -8299,13 +8316,13 @@
     </row>
     <row r="221">
       <c r="A221" s="6">
-        <v>611.0</v>
+        <v>546.0</v>
       </c>
       <c r="B221" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C221" s="7">
-        <v>260.0</v>
+        <v>265.0</v>
       </c>
       <c r="D221" s="5" t="s">
         <v>3</v>
@@ -8334,16 +8351,16 @@
       <c r="Z221" s="4"/>
     </row>
     <row r="222">
-      <c r="A222" s="1">
-        <v>612.0</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C222" s="3">
-        <v>255.0</v>
-      </c>
-      <c r="D222" s="2" t="s">
+      <c r="A222" s="6">
+        <v>547.0</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C222" s="7">
+        <v>245.0</v>
+      </c>
+      <c r="D222" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E222" s="4"/>
@@ -8371,13 +8388,13 @@
     </row>
     <row r="223">
       <c r="A223" s="6">
-        <v>615.0</v>
+        <v>551.0</v>
       </c>
       <c r="B223" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C223" s="7" t="s">
-        <v>5</v>
+      <c r="C223" s="7">
+        <v>270.0</v>
       </c>
       <c r="D223" s="5" t="s">
         <v>3</v>
@@ -8407,13 +8424,13 @@
     </row>
     <row r="224">
       <c r="A224" s="1">
-        <v>617.0</v>
+        <v>552.0</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C224" s="3">
-        <v>330.0</v>
+        <v>280.0</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>3</v>
@@ -8443,13 +8460,13 @@
     </row>
     <row r="225">
       <c r="A225" s="6">
-        <v>618.0</v>
+        <v>555.0</v>
       </c>
       <c r="B225" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C225" s="7">
-        <v>330.0</v>
+        <v>345.0</v>
       </c>
       <c r="D225" s="5" t="s">
         <v>3</v>
@@ -8478,16 +8495,16 @@
       <c r="Z225" s="4"/>
     </row>
     <row r="226">
-      <c r="A226" s="1">
-        <v>623.0</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C226" s="3">
-        <v>290.0</v>
-      </c>
-      <c r="D226" s="2" t="s">
+      <c r="A226" s="6">
+        <v>556.0</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C226" s="7">
+        <v>280.0</v>
+      </c>
+      <c r="D226" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E226" s="4"/>
@@ -8515,7 +8532,7 @@
     </row>
     <row r="227">
       <c r="A227" s="6">
-        <v>624.0</v>
+        <v>560.0</v>
       </c>
       <c r="B227" s="5" t="s">
         <v>3</v>
@@ -8551,13 +8568,13 @@
     </row>
     <row r="228">
       <c r="A228" s="1">
-        <v>625.0</v>
+        <v>561.0</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C228" s="3">
-        <v>320.0</v>
+        <v>280.0</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>3</v>
@@ -8586,16 +8603,16 @@
       <c r="Z228" s="4"/>
     </row>
     <row r="229">
-      <c r="A229" s="1">
-        <v>626.0</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C229" s="3">
-        <v>305.0</v>
-      </c>
-      <c r="D229" s="2" t="s">
+      <c r="A229" s="6">
+        <v>562.0</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C229" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D229" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E229" s="4"/>
@@ -8623,13 +8640,13 @@
     </row>
     <row r="230">
       <c r="A230" s="6">
-        <v>628.0</v>
+        <v>564.0</v>
       </c>
       <c r="B230" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C230" s="7">
-        <v>305.0</v>
+        <v>260.0</v>
       </c>
       <c r="D230" s="5" t="s">
         <v>3</v>
@@ -8659,13 +8676,13 @@
     </row>
     <row r="231">
       <c r="A231" s="1">
-        <v>635.0</v>
+        <v>567.0</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C231" s="3">
-        <v>295.0</v>
+        <v>325.0</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>3</v>
@@ -8694,16 +8711,16 @@
       <c r="Z231" s="4"/>
     </row>
     <row r="232">
-      <c r="A232" s="6">
-        <v>640.0</v>
-      </c>
-      <c r="B232" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C232" s="7">
-        <v>275.0</v>
-      </c>
-      <c r="D232" s="5" t="s">
+      <c r="A232" s="1">
+        <v>576.0</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C232" s="3">
+        <v>260.0</v>
+      </c>
+      <c r="D232" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E232" s="4"/>
@@ -8730,16 +8747,16 @@
       <c r="Z232" s="4"/>
     </row>
     <row r="233">
-      <c r="A233" s="1">
-        <v>642.0</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C233" s="3">
-        <v>270.0</v>
-      </c>
-      <c r="D233" s="2" t="s">
+      <c r="A233" s="6">
+        <v>577.0</v>
+      </c>
+      <c r="B233" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C233" s="7">
+        <v>230.0</v>
+      </c>
+      <c r="D233" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E233" s="4"/>
@@ -8766,16 +8783,16 @@
       <c r="Z233" s="4"/>
     </row>
     <row r="234">
-      <c r="A234" s="1">
-        <v>643.0</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C234" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D234" s="2" t="s">
+      <c r="A234" s="9">
+        <v>578.0</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C234" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D234" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E234" s="4"/>
@@ -8802,16 +8819,16 @@
       <c r="Z234" s="4"/>
     </row>
     <row r="235">
-      <c r="A235" s="6">
-        <v>651.0</v>
-      </c>
-      <c r="B235" s="2" t="s">
+      <c r="A235" s="9">
+        <v>579.0</v>
+      </c>
+      <c r="B235" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C235" s="7">
-        <v>230.0</v>
-      </c>
-      <c r="D235" s="2" t="s">
+        <v>235.0</v>
+      </c>
+      <c r="D235" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E235" s="4"/>
@@ -8838,16 +8855,16 @@
       <c r="Z235" s="4"/>
     </row>
     <row r="236">
-      <c r="A236" s="1">
-        <v>652.0</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C236" s="3">
-        <v>330.0</v>
-      </c>
-      <c r="D236" s="2" t="s">
+      <c r="A236" s="9">
+        <v>580.0</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C236" s="7">
+        <v>240.0</v>
+      </c>
+      <c r="D236" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E236" s="4"/>
@@ -8874,16 +8891,16 @@
       <c r="Z236" s="4"/>
     </row>
     <row r="237">
-      <c r="A237" s="6">
-        <v>655.0</v>
-      </c>
-      <c r="B237" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C237" s="7">
-        <v>295.0</v>
-      </c>
-      <c r="D237" s="5" t="s">
+      <c r="A237" s="1">
+        <v>583.0</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C237" s="3">
+        <v>320.0</v>
+      </c>
+      <c r="D237" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E237" s="4"/>
@@ -8910,16 +8927,16 @@
       <c r="Z237" s="4"/>
     </row>
     <row r="238">
-      <c r="A238" s="6">
-        <v>658.0</v>
-      </c>
-      <c r="B238" s="5" t="s">
+      <c r="A238" s="1">
+        <v>584.0</v>
+      </c>
+      <c r="B238" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C238" s="7">
-        <v>255.0</v>
-      </c>
-      <c r="D238" s="5" t="s">
+        <v>275.0</v>
+      </c>
+      <c r="D238" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E238" s="4"/>
@@ -8947,13 +8964,13 @@
     </row>
     <row r="239">
       <c r="A239" s="6">
-        <v>659.0</v>
+        <v>585.0</v>
       </c>
       <c r="B239" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C239" s="7">
-        <v>305.0</v>
+        <v>235.0</v>
       </c>
       <c r="D239" s="5" t="s">
         <v>3</v>
@@ -8983,13 +9000,13 @@
     </row>
     <row r="240">
       <c r="A240" s="1">
-        <v>663.0</v>
+        <v>586.0</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C240" s="3">
-        <v>265.0</v>
+        <v>240.0</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>3</v>
@@ -9019,13 +9036,13 @@
     </row>
     <row r="241">
       <c r="A241" s="6">
-        <v>666.0</v>
+        <v>587.0</v>
       </c>
       <c r="B241" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C241" s="7">
-        <v>300.0</v>
+        <v>265.0</v>
       </c>
       <c r="D241" s="5" t="s">
         <v>3</v>
@@ -9054,16 +9071,16 @@
       <c r="Z241" s="4"/>
     </row>
     <row r="242">
-      <c r="A242" s="1">
-        <v>668.0</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C242" s="3">
-        <v>305.0</v>
-      </c>
-      <c r="D242" s="2" t="s">
+      <c r="A242" s="6">
+        <v>589.0</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C242" s="7">
+        <v>265.0</v>
+      </c>
+      <c r="D242" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E242" s="4"/>
@@ -9091,13 +9108,13 @@
     </row>
     <row r="243">
       <c r="A243" s="6">
-        <v>669.0</v>
+        <v>591.0</v>
       </c>
       <c r="B243" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C243" s="7">
-        <v>310.0</v>
+      <c r="C243" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="D243" s="5" t="s">
         <v>3</v>
@@ -9127,13 +9144,13 @@
     </row>
     <row r="244">
       <c r="A244" s="1">
-        <v>670.0</v>
+        <v>593.0</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C244" s="7" t="s">
-        <v>17</v>
+      <c r="C244" s="3">
+        <v>250.0</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>3</v>
@@ -9162,16 +9179,16 @@
       <c r="Z244" s="4"/>
     </row>
     <row r="245">
-      <c r="A245" s="1">
-        <v>671.0</v>
-      </c>
-      <c r="B245" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C245" s="3">
-        <v>305.0</v>
-      </c>
-      <c r="D245" s="2" t="s">
+      <c r="A245" s="6">
+        <v>599.0</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C245" s="7">
+        <v>280.0</v>
+      </c>
+      <c r="D245" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E245" s="4"/>
@@ -9198,16 +9215,16 @@
       <c r="Z245" s="4"/>
     </row>
     <row r="246">
-      <c r="A246" s="1">
-        <v>672.0</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C246" s="3">
-        <v>295.0</v>
-      </c>
-      <c r="D246" s="2" t="s">
+      <c r="A246" s="6">
+        <v>601.0</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C246" s="7">
+        <v>305.0</v>
+      </c>
+      <c r="D246" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E246" s="4"/>
@@ -9234,16 +9251,16 @@
       <c r="Z246" s="4"/>
     </row>
     <row r="247">
-      <c r="A247" s="6">
-        <v>676.0</v>
-      </c>
-      <c r="B247" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C247" s="7">
-        <v>335.0</v>
-      </c>
-      <c r="D247" s="5" t="s">
+      <c r="A247" s="1">
+        <v>604.0</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C247" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D247" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E247" s="4"/>
@@ -9270,14 +9287,14 @@
       <c r="Z247" s="4"/>
     </row>
     <row r="248">
-      <c r="A248" s="1">
-        <v>680.0</v>
+      <c r="A248" s="6">
+        <v>605.0</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C248" s="3">
-        <v>285.0</v>
+      <c r="C248" s="7">
+        <v>270.0</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>3</v>
@@ -9306,16 +9323,16 @@
       <c r="Z248" s="4"/>
     </row>
     <row r="249">
-      <c r="A249" s="1">
-        <v>688.0</v>
-      </c>
-      <c r="B249" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C249" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D249" s="2" t="s">
+      <c r="A249" s="6">
+        <v>610.0</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C249" s="7">
+        <v>260.0</v>
+      </c>
+      <c r="D249" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E249" s="4"/>
@@ -9342,16 +9359,16 @@
       <c r="Z249" s="4"/>
     </row>
     <row r="250">
-      <c r="A250" s="10">
-        <v>692.0</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C250" s="10">
-        <v>300.0</v>
-      </c>
-      <c r="D250" s="2" t="s">
+      <c r="A250" s="6">
+        <v>611.0</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C250" s="7">
+        <v>260.0</v>
+      </c>
+      <c r="D250" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E250" s="4"/>
@@ -9379,13 +9396,13 @@
     </row>
     <row r="251">
       <c r="A251" s="1">
-        <v>696.0</v>
+        <v>612.0</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C251" s="3">
-        <v>300.0</v>
+        <v>255.0</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>3</v>
@@ -9415,13 +9432,13 @@
     </row>
     <row r="252">
       <c r="A252" s="6">
-        <v>697.0</v>
+        <v>615.0</v>
       </c>
       <c r="B252" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C252" s="7">
-        <v>250.0</v>
+      <c r="C252" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="D252" s="5" t="s">
         <v>3</v>
@@ -9450,16 +9467,16 @@
       <c r="Z252" s="4"/>
     </row>
     <row r="253">
-      <c r="A253" s="6">
-        <v>705.0</v>
-      </c>
-      <c r="B253" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C253" s="7">
-        <v>280.0</v>
-      </c>
-      <c r="D253" s="5" t="s">
+      <c r="A253" s="1">
+        <v>617.0</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C253" s="3">
+        <v>330.0</v>
+      </c>
+      <c r="D253" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E253" s="4"/>
@@ -9487,13 +9504,13 @@
     </row>
     <row r="254">
       <c r="A254" s="6">
-        <v>706.0</v>
+        <v>618.0</v>
       </c>
       <c r="B254" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C254" s="7">
-        <v>320.0</v>
+        <v>330.0</v>
       </c>
       <c r="D254" s="5" t="s">
         <v>3</v>
@@ -9522,16 +9539,16 @@
       <c r="Z254" s="4"/>
     </row>
     <row r="255">
-      <c r="A255" s="6">
-        <v>709.0</v>
-      </c>
-      <c r="B255" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C255" s="7">
-        <v>320.0</v>
-      </c>
-      <c r="D255" s="5" t="s">
+      <c r="A255" s="1">
+        <v>623.0</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C255" s="3">
+        <v>290.0</v>
+      </c>
+      <c r="D255" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E255" s="4"/>
@@ -9559,13 +9576,13 @@
     </row>
     <row r="256">
       <c r="A256" s="6">
-        <v>712.0</v>
+        <v>624.0</v>
       </c>
       <c r="B256" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C256" s="7">
-        <v>295.0</v>
+        <v>310.0</v>
       </c>
       <c r="D256" s="5" t="s">
         <v>3</v>
@@ -9594,16 +9611,16 @@
       <c r="Z256" s="4"/>
     </row>
     <row r="257">
-      <c r="A257" s="6">
-        <v>713.0</v>
-      </c>
-      <c r="B257" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C257" s="7">
-        <v>310.0</v>
-      </c>
-      <c r="D257" s="5" t="s">
+      <c r="A257" s="1">
+        <v>625.0</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C257" s="3">
+        <v>320.0</v>
+      </c>
+      <c r="D257" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E257" s="4"/>
@@ -9631,13 +9648,13 @@
     </row>
     <row r="258">
       <c r="A258" s="1">
-        <v>714.0</v>
+        <v>626.0</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C258" s="7">
-        <v>280.0</v>
+      <c r="C258" s="3">
+        <v>305.0</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>3</v>
@@ -9667,12 +9684,14 @@
     </row>
     <row r="259">
       <c r="A259" s="6">
-        <v>715.0</v>
+        <v>628.0</v>
       </c>
       <c r="B259" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C259" s="3"/>
+      <c r="C259" s="7">
+        <v>305.0</v>
+      </c>
       <c r="D259" s="5" t="s">
         <v>3</v>
       </c>
@@ -9701,13 +9720,13 @@
     </row>
     <row r="260">
       <c r="A260" s="1">
-        <v>718.0</v>
+        <v>635.0</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C260" s="3">
-        <v>330.0</v>
+        <v>295.0</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>3</v>
@@ -9736,16 +9755,16 @@
       <c r="Z260" s="4"/>
     </row>
     <row r="261">
-      <c r="A261" s="1">
-        <v>719.0</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C261" s="3">
-        <v>280.0</v>
-      </c>
-      <c r="D261" s="2" t="s">
+      <c r="A261" s="6">
+        <v>636.0</v>
+      </c>
+      <c r="B261" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C261" s="7">
+        <v>315.0</v>
+      </c>
+      <c r="D261" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E261" s="4"/>
@@ -9773,13 +9792,13 @@
     </row>
     <row r="262">
       <c r="A262" s="6">
-        <v>725.0</v>
+        <v>640.0</v>
       </c>
       <c r="B262" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C262" s="7">
-        <v>245.0</v>
+        <v>275.0</v>
       </c>
       <c r="D262" s="5" t="s">
         <v>3</v>
@@ -9808,16 +9827,16 @@
       <c r="Z262" s="4"/>
     </row>
     <row r="263">
-      <c r="A263" s="6">
-        <v>730.0</v>
-      </c>
-      <c r="B263" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C263" s="7">
-        <v>315.0</v>
-      </c>
-      <c r="D263" s="5" t="s">
+      <c r="A263" s="1">
+        <v>642.0</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C263" s="3">
+        <v>270.0</v>
+      </c>
+      <c r="D263" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E263" s="4"/>
@@ -9844,16 +9863,16 @@
       <c r="Z263" s="4"/>
     </row>
     <row r="264">
-      <c r="A264" s="6">
-        <v>731.0</v>
-      </c>
-      <c r="B264" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C264" s="7">
-        <v>260.0</v>
-      </c>
-      <c r="D264" s="5" t="s">
+      <c r="A264" s="1">
+        <v>643.0</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C264" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D264" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E264" s="4"/>
@@ -9880,14 +9899,14 @@
       <c r="Z264" s="4"/>
     </row>
     <row r="265">
-      <c r="A265" s="1">
-        <v>732.0</v>
+      <c r="A265" s="6">
+        <v>651.0</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C265" s="3">
-        <v>280.0</v>
+      <c r="C265" s="7">
+        <v>230.0</v>
       </c>
       <c r="D265" s="2" t="s">
         <v>3</v>
@@ -9917,13 +9936,13 @@
     </row>
     <row r="266">
       <c r="A266" s="1">
-        <v>733.0</v>
+        <v>652.0</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C266" s="3">
-        <v>320.0</v>
+        <v>330.0</v>
       </c>
       <c r="D266" s="2" t="s">
         <v>3</v>
@@ -9952,16 +9971,16 @@
       <c r="Z266" s="4"/>
     </row>
     <row r="267">
-      <c r="A267" s="1">
-        <v>736.0</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C267" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D267" s="2" t="s">
+      <c r="A267" s="6">
+        <v>655.0</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C267" s="7">
+        <v>295.0</v>
+      </c>
+      <c r="D267" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E267" s="4"/>
@@ -9989,13 +10008,13 @@
     </row>
     <row r="268">
       <c r="A268" s="6">
-        <v>741.0</v>
+        <v>658.0</v>
       </c>
       <c r="B268" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C268" s="7">
-        <v>280.0</v>
+        <v>255.0</v>
       </c>
       <c r="D268" s="5" t="s">
         <v>3</v>
@@ -10025,13 +10044,13 @@
     </row>
     <row r="269">
       <c r="A269" s="6">
-        <v>742.0</v>
+        <v>659.0</v>
       </c>
       <c r="B269" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C269" s="7">
-        <v>240.0</v>
+        <v>305.0</v>
       </c>
       <c r="D269" s="5" t="s">
         <v>3</v>
@@ -10061,13 +10080,13 @@
     </row>
     <row r="270">
       <c r="A270" s="1">
-        <v>744.0</v>
+        <v>663.0</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C270" s="3">
-        <v>270.0</v>
+        <v>265.0</v>
       </c>
       <c r="D270" s="2" t="s">
         <v>3</v>
@@ -10096,16 +10115,16 @@
       <c r="Z270" s="4"/>
     </row>
     <row r="271">
-      <c r="A271" s="1">
-        <v>747.0</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C271" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D271" s="2" t="s">
+      <c r="A271" s="6">
+        <v>666.0</v>
+      </c>
+      <c r="B271" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C271" s="7">
+        <v>300.0</v>
+      </c>
+      <c r="D271" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E271" s="4"/>
@@ -10132,16 +10151,16 @@
       <c r="Z271" s="4"/>
     </row>
     <row r="272">
-      <c r="A272" s="6">
-        <v>748.0</v>
-      </c>
-      <c r="B272" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C272" s="7">
-        <v>230.0</v>
-      </c>
-      <c r="D272" s="5" t="s">
+      <c r="A272" s="1">
+        <v>668.0</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C272" s="3">
+        <v>305.0</v>
+      </c>
+      <c r="D272" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E272" s="4"/>
@@ -10168,16 +10187,16 @@
       <c r="Z272" s="4"/>
     </row>
     <row r="273">
-      <c r="A273" s="1">
-        <v>749.0</v>
-      </c>
-      <c r="B273" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C273" s="3">
-        <v>335.0</v>
-      </c>
-      <c r="D273" s="2" t="s">
+      <c r="A273" s="6">
+        <v>669.0</v>
+      </c>
+      <c r="B273" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C273" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D273" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E273" s="4"/>
@@ -10204,16 +10223,16 @@
       <c r="Z273" s="4"/>
     </row>
     <row r="274">
-      <c r="A274" s="6">
-        <v>757.0</v>
-      </c>
-      <c r="B274" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C274" s="7">
-        <v>280.0</v>
-      </c>
-      <c r="D274" s="5" t="s">
+      <c r="A274" s="1">
+        <v>670.0</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C274" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D274" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E274" s="4"/>
@@ -10241,13 +10260,13 @@
     </row>
     <row r="275">
       <c r="A275" s="1">
-        <v>758.0</v>
+        <v>671.0</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C275" s="3">
-        <v>295.0</v>
+        <v>305.0</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>3</v>
@@ -10276,16 +10295,16 @@
       <c r="Z275" s="4"/>
     </row>
     <row r="276">
-      <c r="A276" s="6">
-        <v>761.0</v>
-      </c>
-      <c r="B276" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C276" s="7">
-        <v>260.0</v>
-      </c>
-      <c r="D276" s="5" t="s">
+      <c r="A276" s="1">
+        <v>672.0</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C276" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D276" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E276" s="4"/>
@@ -10313,13 +10332,13 @@
     </row>
     <row r="277">
       <c r="A277" s="6">
-        <v>764.0</v>
+        <v>676.0</v>
       </c>
       <c r="B277" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C277" s="7">
-        <v>260.0</v>
+        <v>335.0</v>
       </c>
       <c r="D277" s="5" t="s">
         <v>3</v>
@@ -10349,13 +10368,13 @@
     </row>
     <row r="278">
       <c r="A278" s="1">
-        <v>767.0</v>
+        <v>680.0</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C278" s="3">
-        <v>290.0</v>
+        <v>285.0</v>
       </c>
       <c r="D278" s="2" t="s">
         <v>3</v>
@@ -10384,16 +10403,16 @@
       <c r="Z278" s="4"/>
     </row>
     <row r="279">
-      <c r="A279" s="6">
-        <v>772.0</v>
-      </c>
-      <c r="B279" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C279" s="7">
-        <v>240.0</v>
-      </c>
-      <c r="D279" s="5" t="s">
+      <c r="A279" s="1">
+        <v>688.0</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C279" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D279" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E279" s="4"/>
@@ -10420,14 +10439,14 @@
       <c r="Z279" s="4"/>
     </row>
     <row r="280">
-      <c r="A280" s="1">
-        <v>775.0</v>
+      <c r="A280" s="10">
+        <v>692.0</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C280" s="3">
-        <v>260.0</v>
+      <c r="C280" s="10">
+        <v>300.0</v>
       </c>
       <c r="D280" s="2" t="s">
         <v>3</v>
@@ -10457,13 +10476,13 @@
     </row>
     <row r="281">
       <c r="A281" s="6">
-        <v>776.0</v>
+        <v>694.0</v>
       </c>
       <c r="B281" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C281" s="7">
-        <v>240.0</v>
+      <c r="C281" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="D281" s="5" t="s">
         <v>3</v>
@@ -10493,13 +10512,13 @@
     </row>
     <row r="282">
       <c r="A282" s="1">
-        <v>777.0</v>
+        <v>696.0</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C282" s="3">
-        <v>310.0</v>
+        <v>300.0</v>
       </c>
       <c r="D282" s="2" t="s">
         <v>3</v>
@@ -10528,16 +10547,16 @@
       <c r="Z282" s="4"/>
     </row>
     <row r="283">
-      <c r="A283" s="1">
-        <v>792.0</v>
-      </c>
-      <c r="B283" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C283" s="3">
-        <v>320.0</v>
-      </c>
-      <c r="D283" s="2" t="s">
+      <c r="A283" s="6">
+        <v>697.0</v>
+      </c>
+      <c r="B283" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C283" s="7">
+        <v>250.0</v>
+      </c>
+      <c r="D283" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E283" s="4"/>
@@ -10565,13 +10584,13 @@
     </row>
     <row r="284">
       <c r="A284" s="6">
-        <v>784.0</v>
+        <v>705.0</v>
       </c>
       <c r="B284" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C284" s="7">
-        <v>270.0</v>
+        <v>280.0</v>
       </c>
       <c r="D284" s="5" t="s">
         <v>3</v>
@@ -10601,13 +10620,13 @@
     </row>
     <row r="285">
       <c r="A285" s="6">
-        <v>786.0</v>
+        <v>706.0</v>
       </c>
       <c r="B285" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C285" s="7">
-        <v>275.0</v>
+        <v>320.0</v>
       </c>
       <c r="D285" s="5" t="s">
         <v>3</v>
@@ -10637,13 +10656,13 @@
     </row>
     <row r="286">
       <c r="A286" s="6">
-        <v>787.0</v>
+        <v>709.0</v>
       </c>
       <c r="B286" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C286" s="7">
-        <v>280.0</v>
+        <v>320.0</v>
       </c>
       <c r="D286" s="5" t="s">
         <v>3</v>
@@ -10673,13 +10692,13 @@
     </row>
     <row r="287">
       <c r="A287" s="6">
-        <v>789.0</v>
+        <v>712.0</v>
       </c>
       <c r="B287" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C287" s="7">
-        <v>265.0</v>
+        <v>295.0</v>
       </c>
       <c r="D287" s="5" t="s">
         <v>3</v>
@@ -10708,16 +10727,16 @@
       <c r="Z287" s="4"/>
     </row>
     <row r="288">
-      <c r="A288" s="1">
-        <v>795.0</v>
-      </c>
-      <c r="B288" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C288" s="3">
-        <v>255.0</v>
-      </c>
-      <c r="D288" s="2" t="s">
+      <c r="A288" s="6">
+        <v>713.0</v>
+      </c>
+      <c r="B288" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C288" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D288" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E288" s="4"/>
@@ -10744,16 +10763,16 @@
       <c r="Z288" s="4"/>
     </row>
     <row r="289">
-      <c r="A289" s="6">
-        <v>797.0</v>
-      </c>
-      <c r="B289" s="5" t="s">
+      <c r="A289" s="1">
+        <v>714.0</v>
+      </c>
+      <c r="B289" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C289" s="7">
-        <v>325.0</v>
-      </c>
-      <c r="D289" s="5" t="s">
+        <v>280.0</v>
+      </c>
+      <c r="D289" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E289" s="4"/>
@@ -10781,14 +10800,12 @@
     </row>
     <row r="290">
       <c r="A290" s="6">
-        <v>799.0</v>
+        <v>715.0</v>
       </c>
       <c r="B290" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C290" s="7">
-        <v>310.0</v>
-      </c>
+      <c r="C290" s="3"/>
       <c r="D290" s="5" t="s">
         <v>3</v>
       </c>
@@ -10817,13 +10834,13 @@
     </row>
     <row r="291">
       <c r="A291" s="1">
-        <v>801.0</v>
+        <v>718.0</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C291" s="3">
-        <v>230.0</v>
+        <v>330.0</v>
       </c>
       <c r="D291" s="2" t="s">
         <v>3</v>
@@ -10852,16 +10869,16 @@
       <c r="Z291" s="4"/>
     </row>
     <row r="292">
-      <c r="A292" s="6">
-        <v>806.0</v>
-      </c>
-      <c r="B292" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C292" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D292" s="5" t="s">
+      <c r="A292" s="1">
+        <v>719.0</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C292" s="3">
+        <v>280.0</v>
+      </c>
+      <c r="D292" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E292" s="4"/>
@@ -10888,16 +10905,16 @@
       <c r="Z292" s="4"/>
     </row>
     <row r="293">
-      <c r="A293" s="1">
-        <v>809.0</v>
-      </c>
-      <c r="B293" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C293" s="3">
-        <v>270.0</v>
-      </c>
-      <c r="D293" s="2" t="s">
+      <c r="A293" s="6">
+        <v>725.0</v>
+      </c>
+      <c r="B293" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C293" s="7">
+        <v>245.0</v>
+      </c>
+      <c r="D293" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E293" s="4"/>
@@ -10924,16 +10941,16 @@
       <c r="Z293" s="4"/>
     </row>
     <row r="294">
-      <c r="A294" s="1">
-        <v>811.0</v>
-      </c>
-      <c r="B294" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C294" s="3">
-        <v>260.0</v>
-      </c>
-      <c r="D294" s="2" t="s">
+      <c r="A294" s="6">
+        <v>730.0</v>
+      </c>
+      <c r="B294" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C294" s="7">
+        <v>315.0</v>
+      </c>
+      <c r="D294" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E294" s="4"/>
@@ -10961,13 +10978,13 @@
     </row>
     <row r="295">
       <c r="A295" s="6">
-        <v>813.0</v>
+        <v>731.0</v>
       </c>
       <c r="B295" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C295" s="7">
-        <v>275.0</v>
+        <v>260.0</v>
       </c>
       <c r="D295" s="5" t="s">
         <v>3</v>
@@ -10996,16 +11013,16 @@
       <c r="Z295" s="4"/>
     </row>
     <row r="296">
-      <c r="A296" s="6">
-        <v>817.0</v>
-      </c>
-      <c r="B296" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C296" s="7">
-        <v>330.0</v>
-      </c>
-      <c r="D296" s="5" t="s">
+      <c r="A296" s="1">
+        <v>732.0</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C296" s="3">
+        <v>280.0</v>
+      </c>
+      <c r="D296" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E296" s="4"/>
@@ -11033,13 +11050,13 @@
     </row>
     <row r="297">
       <c r="A297" s="1">
-        <v>819.0</v>
+        <v>733.0</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C297" s="3">
-        <v>200.0</v>
+        <v>320.0</v>
       </c>
       <c r="D297" s="2" t="s">
         <v>3</v>
@@ -11069,13 +11086,13 @@
     </row>
     <row r="298">
       <c r="A298" s="1">
-        <v>820.0</v>
+        <v>736.0</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C298" s="3">
-        <v>245.0</v>
+        <v>250.0</v>
       </c>
       <c r="D298" s="2" t="s">
         <v>3</v>
@@ -11104,16 +11121,16 @@
       <c r="Z298" s="4"/>
     </row>
     <row r="299">
-      <c r="A299" s="1">
-        <v>821.0</v>
-      </c>
-      <c r="B299" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C299" s="3">
-        <v>300.0</v>
-      </c>
-      <c r="D299" s="2" t="s">
+      <c r="A299" s="6">
+        <v>741.0</v>
+      </c>
+      <c r="B299" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C299" s="7">
+        <v>280.0</v>
+      </c>
+      <c r="D299" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E299" s="4"/>
@@ -11141,13 +11158,13 @@
     </row>
     <row r="300">
       <c r="A300" s="6">
-        <v>824.0</v>
+        <v>742.0</v>
       </c>
       <c r="B300" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C300" s="7">
-        <v>310.0</v>
+        <v>240.0</v>
       </c>
       <c r="D300" s="5" t="s">
         <v>3</v>
@@ -11176,16 +11193,16 @@
       <c r="Z300" s="4"/>
     </row>
     <row r="301">
-      <c r="A301" s="6">
-        <v>827.0</v>
-      </c>
-      <c r="B301" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C301" s="7">
-        <v>290.0</v>
-      </c>
-      <c r="D301" s="5" t="s">
+      <c r="A301" s="1">
+        <v>744.0</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C301" s="3">
+        <v>270.0</v>
+      </c>
+      <c r="D301" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E301" s="4"/>
@@ -11212,16 +11229,16 @@
       <c r="Z301" s="4"/>
     </row>
     <row r="302">
-      <c r="A302" s="6">
-        <v>829.0</v>
-      </c>
-      <c r="B302" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C302" s="7">
-        <v>275.0</v>
-      </c>
-      <c r="D302" s="5" t="s">
+      <c r="A302" s="1">
+        <v>747.0</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C302" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D302" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E302" s="4"/>
@@ -11249,13 +11266,13 @@
     </row>
     <row r="303">
       <c r="A303" s="6">
-        <v>832.0</v>
+        <v>748.0</v>
       </c>
       <c r="B303" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C303" s="7">
-        <v>235.0</v>
+        <v>230.0</v>
       </c>
       <c r="D303" s="5" t="s">
         <v>3</v>
@@ -11284,16 +11301,16 @@
       <c r="Z303" s="4"/>
     </row>
     <row r="304">
-      <c r="A304" s="6">
-        <v>833.0</v>
-      </c>
-      <c r="B304" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C304" s="7">
-        <v>235.0</v>
-      </c>
-      <c r="D304" s="5" t="s">
+      <c r="A304" s="1">
+        <v>749.0</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C304" s="3">
+        <v>335.0</v>
+      </c>
+      <c r="D304" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E304" s="4"/>
@@ -11321,13 +11338,13 @@
     </row>
     <row r="305">
       <c r="A305" s="6">
-        <v>834.0</v>
+        <v>757.0</v>
       </c>
       <c r="B305" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C305" s="7">
-        <v>225.0</v>
+        <v>280.0</v>
       </c>
       <c r="D305" s="5" t="s">
         <v>3</v>
@@ -11356,16 +11373,16 @@
       <c r="Z305" s="4"/>
     </row>
     <row r="306">
-      <c r="A306" s="6">
-        <v>837.0</v>
-      </c>
-      <c r="B306" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C306" s="7">
-        <v>275.0</v>
-      </c>
-      <c r="D306" s="5" t="s">
+      <c r="A306" s="1">
+        <v>758.0</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C306" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D306" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E306" s="4"/>
@@ -11393,13 +11410,13 @@
     </row>
     <row r="307">
       <c r="A307" s="6">
-        <v>838.0</v>
+        <v>759.0</v>
       </c>
       <c r="B307" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C307" s="7">
-        <v>295.0</v>
+        <v>275.0</v>
       </c>
       <c r="D307" s="5" t="s">
         <v>3</v>
@@ -11429,13 +11446,13 @@
     </row>
     <row r="308">
       <c r="A308" s="6">
-        <v>843.0</v>
+        <v>761.0</v>
       </c>
       <c r="B308" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C308" s="7">
-        <v>320.0</v>
+        <v>260.0</v>
       </c>
       <c r="D308" s="5" t="s">
         <v>3</v>
@@ -11465,13 +11482,13 @@
     </row>
     <row r="309">
       <c r="A309" s="6">
-        <v>845.0</v>
+        <v>764.0</v>
       </c>
       <c r="B309" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C309" s="7">
-        <v>235.0</v>
+        <v>260.0</v>
       </c>
       <c r="D309" s="5" t="s">
         <v>3</v>
@@ -11501,13 +11518,13 @@
     </row>
     <row r="310">
       <c r="A310" s="1">
-        <v>846.0</v>
+        <v>767.0</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C310" s="3">
-        <v>295.0</v>
+        <v>290.0</v>
       </c>
       <c r="D310" s="2" t="s">
         <v>3</v>
@@ -11536,16 +11553,16 @@
       <c r="Z310" s="4"/>
     </row>
     <row r="311">
-      <c r="A311" s="1">
-        <v>853.0</v>
-      </c>
-      <c r="B311" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C311" s="3">
-        <v>290.0</v>
-      </c>
-      <c r="D311" s="2" t="s">
+      <c r="A311" s="6">
+        <v>772.0</v>
+      </c>
+      <c r="B311" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C311" s="7">
+        <v>240.0</v>
+      </c>
+      <c r="D311" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E311" s="4"/>
@@ -11572,16 +11589,16 @@
       <c r="Z311" s="4"/>
     </row>
     <row r="312">
-      <c r="A312" s="6">
-        <v>854.0</v>
-      </c>
-      <c r="B312" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C312" s="7">
-        <v>320.0</v>
-      </c>
-      <c r="D312" s="5" t="s">
+      <c r="A312" s="1">
+        <v>775.0</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C312" s="3">
+        <v>260.0</v>
+      </c>
+      <c r="D312" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E312" s="4"/>
@@ -11609,13 +11626,13 @@
     </row>
     <row r="313">
       <c r="A313" s="6">
-        <v>855.0</v>
+        <v>776.0</v>
       </c>
       <c r="B313" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C313" s="7">
-        <v>270.0</v>
+        <v>240.0</v>
       </c>
       <c r="D313" s="5" t="s">
         <v>3</v>
@@ -11645,13 +11662,13 @@
     </row>
     <row r="314">
       <c r="A314" s="1">
-        <v>856.0</v>
+        <v>777.0</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C314" s="3">
-        <v>260.0</v>
+        <v>310.0</v>
       </c>
       <c r="D314" s="2" t="s">
         <v>3</v>
@@ -11681,13 +11698,13 @@
     </row>
     <row r="315">
       <c r="A315" s="6">
-        <v>860.0</v>
+        <v>778.0</v>
       </c>
       <c r="B315" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C315" s="7" t="s">
-        <v>19</v>
+      <c r="C315" s="7">
+        <v>310.0</v>
       </c>
       <c r="D315" s="5" t="s">
         <v>3</v>
@@ -11717,13 +11734,13 @@
     </row>
     <row r="316">
       <c r="A316" s="1">
-        <v>861.0</v>
+        <v>792.0</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C316" s="3">
-        <v>305.0</v>
+        <v>320.0</v>
       </c>
       <c r="D316" s="2" t="s">
         <v>3</v>
@@ -11752,16 +11769,16 @@
       <c r="Z316" s="4"/>
     </row>
     <row r="317">
-      <c r="A317" s="1">
-        <v>863.0</v>
-      </c>
-      <c r="B317" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C317" s="3">
-        <v>275.0</v>
-      </c>
-      <c r="D317" s="2" t="s">
+      <c r="A317" s="6">
+        <v>784.0</v>
+      </c>
+      <c r="B317" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C317" s="7">
+        <v>270.0</v>
+      </c>
+      <c r="D317" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E317" s="4"/>
@@ -11789,13 +11806,13 @@
     </row>
     <row r="318">
       <c r="A318" s="6">
-        <v>865.0</v>
+        <v>786.0</v>
       </c>
       <c r="B318" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C318" s="7">
-        <v>270.0</v>
+        <v>275.0</v>
       </c>
       <c r="D318" s="5" t="s">
         <v>3</v>
@@ -11825,13 +11842,13 @@
     </row>
     <row r="319">
       <c r="A319" s="6">
-        <v>866.0</v>
+        <v>787.0</v>
       </c>
       <c r="B319" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C319" s="7">
-        <v>300.0</v>
+        <v>280.0</v>
       </c>
       <c r="D319" s="5" t="s">
         <v>3</v>
@@ -11860,16 +11877,16 @@
       <c r="Z319" s="4"/>
     </row>
     <row r="320">
-      <c r="A320" s="1">
-        <v>872.0</v>
-      </c>
-      <c r="B320" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C320" s="3">
-        <v>295.0</v>
-      </c>
-      <c r="D320" s="2" t="s">
+      <c r="A320" s="6">
+        <v>789.0</v>
+      </c>
+      <c r="B320" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C320" s="7">
+        <v>265.0</v>
+      </c>
+      <c r="D320" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E320" s="4"/>
@@ -11896,16 +11913,16 @@
       <c r="Z320" s="4"/>
     </row>
     <row r="321">
-      <c r="A321" s="6">
-        <v>875.0</v>
-      </c>
-      <c r="B321" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C321" s="7">
-        <v>305.0</v>
-      </c>
-      <c r="D321" s="5" t="s">
+      <c r="A321" s="1">
+        <v>795.0</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C321" s="3">
+        <v>255.0</v>
+      </c>
+      <c r="D321" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E321" s="4"/>
@@ -11933,13 +11950,13 @@
     </row>
     <row r="322">
       <c r="A322" s="6">
-        <v>876.0</v>
+        <v>797.0</v>
       </c>
       <c r="B322" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C322" s="7">
-        <v>250.0</v>
+        <v>325.0</v>
       </c>
       <c r="D322" s="5" t="s">
         <v>3</v>
@@ -11969,13 +11986,13 @@
     </row>
     <row r="323">
       <c r="A323" s="6">
-        <v>878.0</v>
+        <v>799.0</v>
       </c>
       <c r="B323" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C323" s="7">
-        <v>235.0</v>
+        <v>310.0</v>
       </c>
       <c r="D323" s="5" t="s">
         <v>3</v>
@@ -12004,16 +12021,16 @@
       <c r="Z323" s="4"/>
     </row>
     <row r="324">
-      <c r="A324" s="1">
-        <v>880.0</v>
-      </c>
-      <c r="B324" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C324" s="3">
-        <v>225.0</v>
-      </c>
-      <c r="D324" s="2" t="s">
+      <c r="A324" s="6">
+        <v>800.0</v>
+      </c>
+      <c r="B324" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C324" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D324" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E324" s="4"/>
@@ -12040,16 +12057,16 @@
       <c r="Z324" s="4"/>
     </row>
     <row r="325">
-      <c r="A325" s="6">
-        <v>882.0</v>
-      </c>
-      <c r="B325" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C325" s="7">
-        <v>240.0</v>
-      </c>
-      <c r="D325" s="5" t="s">
+      <c r="A325" s="1">
+        <v>801.0</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C325" s="3">
+        <v>230.0</v>
+      </c>
+      <c r="D325" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E325" s="4"/>
@@ -12077,13 +12094,13 @@
     </row>
     <row r="326">
       <c r="A326" s="6">
-        <v>886.0</v>
+        <v>806.0</v>
       </c>
       <c r="B326" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C326" s="7">
-        <v>230.0</v>
+      <c r="C326" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="D326" s="5" t="s">
         <v>3</v>
@@ -12112,16 +12129,16 @@
       <c r="Z326" s="4"/>
     </row>
     <row r="327">
-      <c r="A327" s="6">
-        <v>887.0</v>
-      </c>
-      <c r="B327" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C327" s="7">
-        <v>265.0</v>
-      </c>
-      <c r="D327" s="5" t="s">
+      <c r="A327" s="1">
+        <v>809.0</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C327" s="3">
+        <v>270.0</v>
+      </c>
+      <c r="D327" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E327" s="4"/>
@@ -12148,16 +12165,16 @@
       <c r="Z327" s="4"/>
     </row>
     <row r="328">
-      <c r="A328" s="6">
-        <v>888.0</v>
-      </c>
-      <c r="B328" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C328" s="7">
-        <v>245.0</v>
-      </c>
-      <c r="D328" s="5" t="s">
+      <c r="A328" s="1">
+        <v>811.0</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C328" s="3">
+        <v>260.0</v>
+      </c>
+      <c r="D328" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E328" s="4"/>
@@ -12185,13 +12202,13 @@
     </row>
     <row r="329">
       <c r="A329" s="6">
-        <v>897.0</v>
+        <v>813.0</v>
       </c>
       <c r="B329" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C329" s="7">
-        <v>310.0</v>
+        <v>275.0</v>
       </c>
       <c r="D329" s="5" t="s">
         <v>3</v>
@@ -12220,16 +12237,16 @@
       <c r="Z329" s="4"/>
     </row>
     <row r="330">
-      <c r="A330" s="1">
-        <v>899.0</v>
-      </c>
-      <c r="B330" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C330" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D330" s="2" t="s">
+      <c r="A330" s="6">
+        <v>817.0</v>
+      </c>
+      <c r="B330" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C330" s="7">
+        <v>330.0</v>
+      </c>
+      <c r="D330" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E330" s="4"/>
@@ -12257,13 +12274,13 @@
     </row>
     <row r="331">
       <c r="A331" s="1">
-        <v>901.0</v>
+        <v>819.0</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C331" s="3">
-        <v>275.0</v>
+        <v>200.0</v>
       </c>
       <c r="D331" s="2" t="s">
         <v>3</v>
@@ -12292,16 +12309,16 @@
       <c r="Z331" s="4"/>
     </row>
     <row r="332">
-      <c r="A332" s="6">
-        <v>910.0</v>
-      </c>
-      <c r="B332" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C332" s="7">
-        <v>330.0</v>
-      </c>
-      <c r="D332" s="5" t="s">
+      <c r="A332" s="1">
+        <v>820.0</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C332" s="3">
+        <v>245.0</v>
+      </c>
+      <c r="D332" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E332" s="4"/>
@@ -12329,15 +12346,15 @@
     </row>
     <row r="333">
       <c r="A333" s="1">
-        <v>935.0</v>
+        <v>821.0</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C333" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D333" s="5" t="s">
+      <c r="C333" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D333" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E333" s="4"/>
@@ -12365,13 +12382,13 @@
     </row>
     <row r="334">
       <c r="A334" s="6">
-        <v>939.0</v>
+        <v>824.0</v>
       </c>
       <c r="B334" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C334" s="7">
-        <v>245.0</v>
+        <v>310.0</v>
       </c>
       <c r="D334" s="5" t="s">
         <v>3</v>
@@ -12401,13 +12418,13 @@
     </row>
     <row r="335">
       <c r="A335" s="6">
-        <v>948.0</v>
+        <v>827.0</v>
       </c>
       <c r="B335" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C335" s="7">
-        <v>310.0</v>
+        <v>290.0</v>
       </c>
       <c r="D335" s="5" t="s">
         <v>3</v>
@@ -12437,13 +12454,13 @@
     </row>
     <row r="336">
       <c r="A336" s="6">
-        <v>949.0</v>
+        <v>829.0</v>
       </c>
       <c r="B336" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C336" s="7">
-        <v>310.0</v>
+        <v>275.0</v>
       </c>
       <c r="D336" s="5" t="s">
         <v>3</v>
@@ -12472,14 +12489,14 @@
       <c r="Z336" s="4"/>
     </row>
     <row r="337">
-      <c r="A337" s="5">
-        <v>1000.0</v>
+      <c r="A337" s="6">
+        <v>832.0</v>
       </c>
       <c r="B337" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C337" s="5">
-        <v>2000.0</v>
+      <c r="C337" s="7">
+        <v>235.0</v>
       </c>
       <c r="D337" s="5" t="s">
         <v>3</v>
@@ -12508,10 +12525,18 @@
       <c r="Z337" s="4"/>
     </row>
     <row r="338">
-      <c r="A338" s="2"/>
-      <c r="B338" s="2"/>
-      <c r="C338" s="2"/>
-      <c r="D338" s="2"/>
+      <c r="A338" s="6">
+        <v>833.0</v>
+      </c>
+      <c r="B338" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C338" s="7">
+        <v>235.0</v>
+      </c>
+      <c r="D338" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E338" s="4"/>
       <c r="F338" s="4"/>
       <c r="G338" s="4"/>
@@ -12536,10 +12561,18 @@
       <c r="Z338" s="4"/>
     </row>
     <row r="339">
-      <c r="A339" s="2"/>
-      <c r="B339" s="2"/>
-      <c r="C339" s="2"/>
-      <c r="D339" s="2"/>
+      <c r="A339" s="6">
+        <v>834.0</v>
+      </c>
+      <c r="B339" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C339" s="7">
+        <v>225.0</v>
+      </c>
+      <c r="D339" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E339" s="4"/>
       <c r="F339" s="4"/>
       <c r="G339" s="4"/>
@@ -12564,10 +12597,18 @@
       <c r="Z339" s="4"/>
     </row>
     <row r="340">
-      <c r="A340" s="2"/>
-      <c r="B340" s="2"/>
-      <c r="C340" s="2"/>
-      <c r="D340" s="2"/>
+      <c r="A340" s="6">
+        <v>837.0</v>
+      </c>
+      <c r="B340" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C340" s="7">
+        <v>275.0</v>
+      </c>
+      <c r="D340" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E340" s="4"/>
       <c r="F340" s="4"/>
       <c r="G340" s="4"/>
@@ -12592,10 +12633,18 @@
       <c r="Z340" s="4"/>
     </row>
     <row r="341">
-      <c r="A341" s="2"/>
-      <c r="B341" s="2"/>
-      <c r="C341" s="2"/>
-      <c r="D341" s="2"/>
+      <c r="A341" s="6">
+        <v>838.0</v>
+      </c>
+      <c r="B341" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C341" s="7">
+        <v>295.0</v>
+      </c>
+      <c r="D341" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E341" s="4"/>
       <c r="F341" s="4"/>
       <c r="G341" s="4"/>
@@ -12620,10 +12669,18 @@
       <c r="Z341" s="4"/>
     </row>
     <row r="342">
-      <c r="A342" s="2"/>
-      <c r="B342" s="2"/>
-      <c r="C342" s="2"/>
-      <c r="D342" s="2"/>
+      <c r="A342" s="6">
+        <v>843.0</v>
+      </c>
+      <c r="B342" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C342" s="7">
+        <v>320.0</v>
+      </c>
+      <c r="D342" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E342" s="4"/>
       <c r="F342" s="4"/>
       <c r="G342" s="4"/>
@@ -12648,10 +12705,18 @@
       <c r="Z342" s="4"/>
     </row>
     <row r="343">
-      <c r="A343" s="2"/>
-      <c r="B343" s="2"/>
-      <c r="C343" s="2"/>
-      <c r="D343" s="2"/>
+      <c r="A343" s="6">
+        <v>845.0</v>
+      </c>
+      <c r="B343" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C343" s="7">
+        <v>235.0</v>
+      </c>
+      <c r="D343" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E343" s="4"/>
       <c r="F343" s="4"/>
       <c r="G343" s="4"/>
@@ -12676,10 +12741,18 @@
       <c r="Z343" s="4"/>
     </row>
     <row r="344">
-      <c r="A344" s="2"/>
-      <c r="B344" s="2"/>
-      <c r="C344" s="2"/>
-      <c r="D344" s="2"/>
+      <c r="A344" s="1">
+        <v>846.0</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C344" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D344" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E344" s="4"/>
       <c r="F344" s="4"/>
       <c r="G344" s="4"/>
@@ -12704,10 +12777,18 @@
       <c r="Z344" s="4"/>
     </row>
     <row r="345">
-      <c r="A345" s="2"/>
-      <c r="B345" s="2"/>
-      <c r="C345" s="2"/>
-      <c r="D345" s="2"/>
+      <c r="A345" s="1">
+        <v>853.0</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C345" s="3">
+        <v>290.0</v>
+      </c>
+      <c r="D345" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E345" s="4"/>
       <c r="F345" s="4"/>
       <c r="G345" s="4"/>
@@ -12732,10 +12813,18 @@
       <c r="Z345" s="4"/>
     </row>
     <row r="346">
-      <c r="A346" s="2"/>
-      <c r="B346" s="2"/>
-      <c r="C346" s="2"/>
-      <c r="D346" s="2"/>
+      <c r="A346" s="6">
+        <v>854.0</v>
+      </c>
+      <c r="B346" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C346" s="7">
+        <v>320.0</v>
+      </c>
+      <c r="D346" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E346" s="4"/>
       <c r="F346" s="4"/>
       <c r="G346" s="4"/>
@@ -12760,10 +12849,18 @@
       <c r="Z346" s="4"/>
     </row>
     <row r="347">
-      <c r="A347" s="2"/>
-      <c r="B347" s="2"/>
-      <c r="C347" s="2"/>
-      <c r="D347" s="2"/>
+      <c r="A347" s="6">
+        <v>855.0</v>
+      </c>
+      <c r="B347" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C347" s="7">
+        <v>270.0</v>
+      </c>
+      <c r="D347" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E347" s="4"/>
       <c r="F347" s="4"/>
       <c r="G347" s="4"/>
@@ -12788,10 +12885,18 @@
       <c r="Z347" s="4"/>
     </row>
     <row r="348">
-      <c r="A348" s="2"/>
-      <c r="B348" s="2"/>
-      <c r="C348" s="2"/>
-      <c r="D348" s="2"/>
+      <c r="A348" s="1">
+        <v>856.0</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C348" s="3">
+        <v>260.0</v>
+      </c>
+      <c r="D348" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E348" s="4"/>
       <c r="F348" s="4"/>
       <c r="G348" s="4"/>
@@ -12816,10 +12921,18 @@
       <c r="Z348" s="4"/>
     </row>
     <row r="349">
-      <c r="A349" s="2"/>
-      <c r="B349" s="2"/>
-      <c r="C349" s="2"/>
-      <c r="D349" s="2"/>
+      <c r="A349" s="6">
+        <v>860.0</v>
+      </c>
+      <c r="B349" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C349" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D349" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E349" s="4"/>
       <c r="F349" s="4"/>
       <c r="G349" s="4"/>
@@ -12844,10 +12957,18 @@
       <c r="Z349" s="4"/>
     </row>
     <row r="350">
-      <c r="A350" s="2"/>
-      <c r="B350" s="2"/>
-      <c r="C350" s="2"/>
-      <c r="D350" s="2"/>
+      <c r="A350" s="1">
+        <v>861.0</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C350" s="3">
+        <v>305.0</v>
+      </c>
+      <c r="D350" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E350" s="4"/>
       <c r="F350" s="4"/>
       <c r="G350" s="4"/>
@@ -12872,10 +12993,18 @@
       <c r="Z350" s="4"/>
     </row>
     <row r="351">
-      <c r="A351" s="2"/>
-      <c r="B351" s="2"/>
-      <c r="C351" s="2"/>
-      <c r="D351" s="2"/>
+      <c r="A351" s="6">
+        <v>862.0</v>
+      </c>
+      <c r="B351" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C351" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D351" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E351" s="4"/>
       <c r="F351" s="4"/>
       <c r="G351" s="4"/>
@@ -12900,10 +13029,18 @@
       <c r="Z351" s="4"/>
     </row>
     <row r="352">
-      <c r="A352" s="2"/>
-      <c r="B352" s="2"/>
-      <c r="C352" s="2"/>
-      <c r="D352" s="2"/>
+      <c r="A352" s="1">
+        <v>863.0</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C352" s="3">
+        <v>275.0</v>
+      </c>
+      <c r="D352" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E352" s="4"/>
       <c r="F352" s="4"/>
       <c r="G352" s="4"/>
@@ -12928,10 +13065,18 @@
       <c r="Z352" s="4"/>
     </row>
     <row r="353">
-      <c r="A353" s="2"/>
-      <c r="B353" s="2"/>
-      <c r="C353" s="2"/>
-      <c r="D353" s="2"/>
+      <c r="A353" s="6">
+        <v>865.0</v>
+      </c>
+      <c r="B353" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C353" s="7">
+        <v>270.0</v>
+      </c>
+      <c r="D353" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E353" s="4"/>
       <c r="F353" s="4"/>
       <c r="G353" s="4"/>
@@ -12956,10 +13101,18 @@
       <c r="Z353" s="4"/>
     </row>
     <row r="354">
-      <c r="A354" s="2"/>
-      <c r="B354" s="2"/>
-      <c r="C354" s="2"/>
-      <c r="D354" s="2"/>
+      <c r="A354" s="6">
+        <v>866.0</v>
+      </c>
+      <c r="B354" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C354" s="7">
+        <v>300.0</v>
+      </c>
+      <c r="D354" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E354" s="4"/>
       <c r="F354" s="4"/>
       <c r="G354" s="4"/>
@@ -12984,10 +13137,18 @@
       <c r="Z354" s="4"/>
     </row>
     <row r="355">
-      <c r="A355" s="2"/>
-      <c r="B355" s="2"/>
-      <c r="C355" s="2"/>
-      <c r="D355" s="2"/>
+      <c r="A355" s="1">
+        <v>872.0</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C355" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D355" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E355" s="4"/>
       <c r="F355" s="4"/>
       <c r="G355" s="4"/>
@@ -13012,10 +13173,18 @@
       <c r="Z355" s="4"/>
     </row>
     <row r="356">
-      <c r="A356" s="2"/>
-      <c r="B356" s="2"/>
-      <c r="C356" s="2"/>
-      <c r="D356" s="2"/>
+      <c r="A356" s="6">
+        <v>875.0</v>
+      </c>
+      <c r="B356" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C356" s="7">
+        <v>305.0</v>
+      </c>
+      <c r="D356" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E356" s="4"/>
       <c r="F356" s="4"/>
       <c r="G356" s="4"/>
@@ -13040,10 +13209,18 @@
       <c r="Z356" s="4"/>
     </row>
     <row r="357">
-      <c r="A357" s="2"/>
-      <c r="B357" s="2"/>
-      <c r="C357" s="2"/>
-      <c r="D357" s="2"/>
+      <c r="A357" s="6">
+        <v>876.0</v>
+      </c>
+      <c r="B357" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C357" s="7">
+        <v>250.0</v>
+      </c>
+      <c r="D357" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E357" s="4"/>
       <c r="F357" s="4"/>
       <c r="G357" s="4"/>
@@ -13068,10 +13245,18 @@
       <c r="Z357" s="4"/>
     </row>
     <row r="358">
-      <c r="A358" s="2"/>
-      <c r="B358" s="2"/>
-      <c r="C358" s="2"/>
-      <c r="D358" s="2"/>
+      <c r="A358" s="6">
+        <v>878.0</v>
+      </c>
+      <c r="B358" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C358" s="7">
+        <v>235.0</v>
+      </c>
+      <c r="D358" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E358" s="4"/>
       <c r="F358" s="4"/>
       <c r="G358" s="4"/>
@@ -13096,10 +13281,18 @@
       <c r="Z358" s="4"/>
     </row>
     <row r="359">
-      <c r="A359" s="2"/>
-      <c r="B359" s="2"/>
-      <c r="C359" s="2"/>
-      <c r="D359" s="2"/>
+      <c r="A359" s="6">
+        <v>879.0</v>
+      </c>
+      <c r="B359" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C359" s="7">
+        <v>305.0</v>
+      </c>
+      <c r="D359" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E359" s="4"/>
       <c r="F359" s="4"/>
       <c r="G359" s="4"/>
@@ -13124,10 +13317,18 @@
       <c r="Z359" s="4"/>
     </row>
     <row r="360">
-      <c r="A360" s="2"/>
-      <c r="B360" s="2"/>
-      <c r="C360" s="2"/>
-      <c r="D360" s="2"/>
+      <c r="A360" s="1">
+        <v>880.0</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C360" s="3">
+        <v>225.0</v>
+      </c>
+      <c r="D360" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E360" s="4"/>
       <c r="F360" s="4"/>
       <c r="G360" s="4"/>
@@ -13152,10 +13353,18 @@
       <c r="Z360" s="4"/>
     </row>
     <row r="361">
-      <c r="A361" s="2"/>
-      <c r="B361" s="2"/>
-      <c r="C361" s="2"/>
-      <c r="D361" s="2"/>
+      <c r="A361" s="6">
+        <v>882.0</v>
+      </c>
+      <c r="B361" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C361" s="7">
+        <v>240.0</v>
+      </c>
+      <c r="D361" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E361" s="4"/>
       <c r="F361" s="4"/>
       <c r="G361" s="4"/>
@@ -13180,10 +13389,18 @@
       <c r="Z361" s="4"/>
     </row>
     <row r="362">
-      <c r="A362" s="2"/>
-      <c r="B362" s="2"/>
-      <c r="C362" s="2"/>
-      <c r="D362" s="2"/>
+      <c r="A362" s="6">
+        <v>886.0</v>
+      </c>
+      <c r="B362" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C362" s="7">
+        <v>230.0</v>
+      </c>
+      <c r="D362" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E362" s="4"/>
       <c r="F362" s="4"/>
       <c r="G362" s="4"/>
@@ -13208,10 +13425,18 @@
       <c r="Z362" s="4"/>
     </row>
     <row r="363">
-      <c r="A363" s="2"/>
-      <c r="B363" s="2"/>
-      <c r="C363" s="2"/>
-      <c r="D363" s="2"/>
+      <c r="A363" s="6">
+        <v>887.0</v>
+      </c>
+      <c r="B363" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C363" s="7">
+        <v>265.0</v>
+      </c>
+      <c r="D363" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E363" s="4"/>
       <c r="F363" s="4"/>
       <c r="G363" s="4"/>
@@ -13236,10 +13461,18 @@
       <c r="Z363" s="4"/>
     </row>
     <row r="364">
-      <c r="A364" s="2"/>
-      <c r="B364" s="2"/>
-      <c r="C364" s="2"/>
-      <c r="D364" s="2"/>
+      <c r="A364" s="6">
+        <v>888.0</v>
+      </c>
+      <c r="B364" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C364" s="7">
+        <v>245.0</v>
+      </c>
+      <c r="D364" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E364" s="4"/>
       <c r="F364" s="4"/>
       <c r="G364" s="4"/>
@@ -13264,10 +13497,18 @@
       <c r="Z364" s="4"/>
     </row>
     <row r="365">
-      <c r="A365" s="2"/>
-      <c r="B365" s="2"/>
-      <c r="C365" s="2"/>
-      <c r="D365" s="2"/>
+      <c r="A365" s="6">
+        <v>897.0</v>
+      </c>
+      <c r="B365" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C365" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D365" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E365" s="4"/>
       <c r="F365" s="4"/>
       <c r="G365" s="4"/>
@@ -13292,10 +13533,18 @@
       <c r="Z365" s="4"/>
     </row>
     <row r="366">
-      <c r="A366" s="2"/>
-      <c r="B366" s="2"/>
-      <c r="C366" s="2"/>
-      <c r="D366" s="2"/>
+      <c r="A366" s="1">
+        <v>899.0</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C366" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D366" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E366" s="4"/>
       <c r="F366" s="4"/>
       <c r="G366" s="4"/>
@@ -13320,10 +13569,18 @@
       <c r="Z366" s="4"/>
     </row>
     <row r="367">
-      <c r="A367" s="2"/>
-      <c r="B367" s="2"/>
-      <c r="C367" s="2"/>
-      <c r="D367" s="2"/>
+      <c r="A367" s="6">
+        <v>900.0</v>
+      </c>
+      <c r="B367" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C367" s="7">
+        <v>335.0</v>
+      </c>
+      <c r="D367" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E367" s="4"/>
       <c r="F367" s="4"/>
       <c r="G367" s="4"/>
@@ -13348,10 +13605,18 @@
       <c r="Z367" s="4"/>
     </row>
     <row r="368">
-      <c r="A368" s="2"/>
-      <c r="B368" s="2"/>
-      <c r="C368" s="2"/>
-      <c r="D368" s="2"/>
+      <c r="A368" s="1">
+        <v>901.0</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C368" s="3">
+        <v>275.0</v>
+      </c>
+      <c r="D368" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E368" s="4"/>
       <c r="F368" s="4"/>
       <c r="G368" s="4"/>
@@ -13376,10 +13641,18 @@
       <c r="Z368" s="4"/>
     </row>
     <row r="369">
-      <c r="A369" s="2"/>
-      <c r="B369" s="2"/>
-      <c r="C369" s="2"/>
-      <c r="D369" s="2"/>
+      <c r="A369" s="6">
+        <v>910.0</v>
+      </c>
+      <c r="B369" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C369" s="7">
+        <v>330.0</v>
+      </c>
+      <c r="D369" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E369" s="4"/>
       <c r="F369" s="4"/>
       <c r="G369" s="4"/>
@@ -13404,10 +13677,18 @@
       <c r="Z369" s="4"/>
     </row>
     <row r="370">
-      <c r="A370" s="2"/>
-      <c r="B370" s="2"/>
-      <c r="C370" s="2"/>
-      <c r="D370" s="2"/>
+      <c r="A370" s="1">
+        <v>935.0</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C370" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D370" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E370" s="4"/>
       <c r="F370" s="4"/>
       <c r="G370" s="4"/>
@@ -13432,10 +13713,18 @@
       <c r="Z370" s="4"/>
     </row>
     <row r="371">
-      <c r="A371" s="2"/>
-      <c r="B371" s="2"/>
-      <c r="C371" s="2"/>
-      <c r="D371" s="2"/>
+      <c r="A371" s="6">
+        <v>939.0</v>
+      </c>
+      <c r="B371" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C371" s="7">
+        <v>245.0</v>
+      </c>
+      <c r="D371" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E371" s="4"/>
       <c r="F371" s="4"/>
       <c r="G371" s="4"/>
@@ -13460,10 +13749,18 @@
       <c r="Z371" s="4"/>
     </row>
     <row r="372">
-      <c r="A372" s="2"/>
-      <c r="B372" s="2"/>
-      <c r="C372" s="2"/>
-      <c r="D372" s="2"/>
+      <c r="A372" s="6">
+        <v>948.0</v>
+      </c>
+      <c r="B372" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C372" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D372" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E372" s="4"/>
       <c r="F372" s="4"/>
       <c r="G372" s="4"/>
@@ -13488,10 +13785,18 @@
       <c r="Z372" s="4"/>
     </row>
     <row r="373">
-      <c r="A373" s="2"/>
-      <c r="B373" s="2"/>
-      <c r="C373" s="2"/>
-      <c r="D373" s="2"/>
+      <c r="A373" s="6">
+        <v>949.0</v>
+      </c>
+      <c r="B373" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C373" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D373" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E373" s="4"/>
       <c r="F373" s="4"/>
       <c r="G373" s="4"/>
@@ -13516,10 +13821,18 @@
       <c r="Z373" s="4"/>
     </row>
     <row r="374">
-      <c r="A374" s="2"/>
-      <c r="B374" s="2"/>
-      <c r="C374" s="2"/>
-      <c r="D374" s="2"/>
+      <c r="A374" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="B374" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C374" s="5">
+        <v>2000.0</v>
+      </c>
+      <c r="D374" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E374" s="4"/>
       <c r="F374" s="4"/>
       <c r="G374" s="4"/>
@@ -36644,10 +36957,10 @@
       <c r="Z1199" s="4"/>
     </row>
     <row r="1200">
-      <c r="A1200" s="4"/>
-      <c r="B1200" s="4"/>
-      <c r="C1200" s="4"/>
-      <c r="D1200" s="4"/>
+      <c r="A1200" s="2"/>
+      <c r="B1200" s="2"/>
+      <c r="C1200" s="2"/>
+      <c r="D1200" s="2"/>
       <c r="E1200" s="4"/>
       <c r="F1200" s="4"/>
       <c r="G1200" s="4"/>
@@ -36671,6 +36984,1042 @@
       <c r="Y1200" s="4"/>
       <c r="Z1200" s="4"/>
     </row>
+    <row r="1201">
+      <c r="A1201" s="2"/>
+      <c r="B1201" s="2"/>
+      <c r="C1201" s="2"/>
+      <c r="D1201" s="2"/>
+      <c r="E1201" s="4"/>
+      <c r="F1201" s="4"/>
+      <c r="G1201" s="4"/>
+      <c r="H1201" s="4"/>
+      <c r="I1201" s="4"/>
+      <c r="J1201" s="4"/>
+      <c r="K1201" s="4"/>
+      <c r="L1201" s="4"/>
+      <c r="M1201" s="4"/>
+      <c r="N1201" s="4"/>
+      <c r="O1201" s="4"/>
+      <c r="P1201" s="4"/>
+      <c r="Q1201" s="4"/>
+      <c r="R1201" s="4"/>
+      <c r="S1201" s="4"/>
+      <c r="T1201" s="4"/>
+      <c r="U1201" s="4"/>
+      <c r="V1201" s="4"/>
+      <c r="W1201" s="4"/>
+      <c r="X1201" s="4"/>
+      <c r="Y1201" s="4"/>
+      <c r="Z1201" s="4"/>
+    </row>
+    <row r="1202">
+      <c r="A1202" s="2"/>
+      <c r="B1202" s="2"/>
+      <c r="C1202" s="2"/>
+      <c r="D1202" s="2"/>
+      <c r="E1202" s="4"/>
+      <c r="F1202" s="4"/>
+      <c r="G1202" s="4"/>
+      <c r="H1202" s="4"/>
+      <c r="I1202" s="4"/>
+      <c r="J1202" s="4"/>
+      <c r="K1202" s="4"/>
+      <c r="L1202" s="4"/>
+      <c r="M1202" s="4"/>
+      <c r="N1202" s="4"/>
+      <c r="O1202" s="4"/>
+      <c r="P1202" s="4"/>
+      <c r="Q1202" s="4"/>
+      <c r="R1202" s="4"/>
+      <c r="S1202" s="4"/>
+      <c r="T1202" s="4"/>
+      <c r="U1202" s="4"/>
+      <c r="V1202" s="4"/>
+      <c r="W1202" s="4"/>
+      <c r="X1202" s="4"/>
+      <c r="Y1202" s="4"/>
+      <c r="Z1202" s="4"/>
+    </row>
+    <row r="1203">
+      <c r="A1203" s="2"/>
+      <c r="B1203" s="2"/>
+      <c r="C1203" s="2"/>
+      <c r="D1203" s="2"/>
+      <c r="E1203" s="4"/>
+      <c r="F1203" s="4"/>
+      <c r="G1203" s="4"/>
+      <c r="H1203" s="4"/>
+      <c r="I1203" s="4"/>
+      <c r="J1203" s="4"/>
+      <c r="K1203" s="4"/>
+      <c r="L1203" s="4"/>
+      <c r="M1203" s="4"/>
+      <c r="N1203" s="4"/>
+      <c r="O1203" s="4"/>
+      <c r="P1203" s="4"/>
+      <c r="Q1203" s="4"/>
+      <c r="R1203" s="4"/>
+      <c r="S1203" s="4"/>
+      <c r="T1203" s="4"/>
+      <c r="U1203" s="4"/>
+      <c r="V1203" s="4"/>
+      <c r="W1203" s="4"/>
+      <c r="X1203" s="4"/>
+      <c r="Y1203" s="4"/>
+      <c r="Z1203" s="4"/>
+    </row>
+    <row r="1204">
+      <c r="A1204" s="2"/>
+      <c r="B1204" s="2"/>
+      <c r="C1204" s="2"/>
+      <c r="D1204" s="2"/>
+      <c r="E1204" s="4"/>
+      <c r="F1204" s="4"/>
+      <c r="G1204" s="4"/>
+      <c r="H1204" s="4"/>
+      <c r="I1204" s="4"/>
+      <c r="J1204" s="4"/>
+      <c r="K1204" s="4"/>
+      <c r="L1204" s="4"/>
+      <c r="M1204" s="4"/>
+      <c r="N1204" s="4"/>
+      <c r="O1204" s="4"/>
+      <c r="P1204" s="4"/>
+      <c r="Q1204" s="4"/>
+      <c r="R1204" s="4"/>
+      <c r="S1204" s="4"/>
+      <c r="T1204" s="4"/>
+      <c r="U1204" s="4"/>
+      <c r="V1204" s="4"/>
+      <c r="W1204" s="4"/>
+      <c r="X1204" s="4"/>
+      <c r="Y1204" s="4"/>
+      <c r="Z1204" s="4"/>
+    </row>
+    <row r="1205">
+      <c r="A1205" s="2"/>
+      <c r="B1205" s="2"/>
+      <c r="C1205" s="2"/>
+      <c r="D1205" s="2"/>
+      <c r="E1205" s="4"/>
+      <c r="F1205" s="4"/>
+      <c r="G1205" s="4"/>
+      <c r="H1205" s="4"/>
+      <c r="I1205" s="4"/>
+      <c r="J1205" s="4"/>
+      <c r="K1205" s="4"/>
+      <c r="L1205" s="4"/>
+      <c r="M1205" s="4"/>
+      <c r="N1205" s="4"/>
+      <c r="O1205" s="4"/>
+      <c r="P1205" s="4"/>
+      <c r="Q1205" s="4"/>
+      <c r="R1205" s="4"/>
+      <c r="S1205" s="4"/>
+      <c r="T1205" s="4"/>
+      <c r="U1205" s="4"/>
+      <c r="V1205" s="4"/>
+      <c r="W1205" s="4"/>
+      <c r="X1205" s="4"/>
+      <c r="Y1205" s="4"/>
+      <c r="Z1205" s="4"/>
+    </row>
+    <row r="1206">
+      <c r="A1206" s="2"/>
+      <c r="B1206" s="2"/>
+      <c r="C1206" s="2"/>
+      <c r="D1206" s="2"/>
+      <c r="E1206" s="4"/>
+      <c r="F1206" s="4"/>
+      <c r="G1206" s="4"/>
+      <c r="H1206" s="4"/>
+      <c r="I1206" s="4"/>
+      <c r="J1206" s="4"/>
+      <c r="K1206" s="4"/>
+      <c r="L1206" s="4"/>
+      <c r="M1206" s="4"/>
+      <c r="N1206" s="4"/>
+      <c r="O1206" s="4"/>
+      <c r="P1206" s="4"/>
+      <c r="Q1206" s="4"/>
+      <c r="R1206" s="4"/>
+      <c r="S1206" s="4"/>
+      <c r="T1206" s="4"/>
+      <c r="U1206" s="4"/>
+      <c r="V1206" s="4"/>
+      <c r="W1206" s="4"/>
+      <c r="X1206" s="4"/>
+      <c r="Y1206" s="4"/>
+      <c r="Z1206" s="4"/>
+    </row>
+    <row r="1207">
+      <c r="A1207" s="2"/>
+      <c r="B1207" s="2"/>
+      <c r="C1207" s="2"/>
+      <c r="D1207" s="2"/>
+      <c r="E1207" s="4"/>
+      <c r="F1207" s="4"/>
+      <c r="G1207" s="4"/>
+      <c r="H1207" s="4"/>
+      <c r="I1207" s="4"/>
+      <c r="J1207" s="4"/>
+      <c r="K1207" s="4"/>
+      <c r="L1207" s="4"/>
+      <c r="M1207" s="4"/>
+      <c r="N1207" s="4"/>
+      <c r="O1207" s="4"/>
+      <c r="P1207" s="4"/>
+      <c r="Q1207" s="4"/>
+      <c r="R1207" s="4"/>
+      <c r="S1207" s="4"/>
+      <c r="T1207" s="4"/>
+      <c r="U1207" s="4"/>
+      <c r="V1207" s="4"/>
+      <c r="W1207" s="4"/>
+      <c r="X1207" s="4"/>
+      <c r="Y1207" s="4"/>
+      <c r="Z1207" s="4"/>
+    </row>
+    <row r="1208">
+      <c r="A1208" s="2"/>
+      <c r="B1208" s="2"/>
+      <c r="C1208" s="2"/>
+      <c r="D1208" s="2"/>
+      <c r="E1208" s="4"/>
+      <c r="F1208" s="4"/>
+      <c r="G1208" s="4"/>
+      <c r="H1208" s="4"/>
+      <c r="I1208" s="4"/>
+      <c r="J1208" s="4"/>
+      <c r="K1208" s="4"/>
+      <c r="L1208" s="4"/>
+      <c r="M1208" s="4"/>
+      <c r="N1208" s="4"/>
+      <c r="O1208" s="4"/>
+      <c r="P1208" s="4"/>
+      <c r="Q1208" s="4"/>
+      <c r="R1208" s="4"/>
+      <c r="S1208" s="4"/>
+      <c r="T1208" s="4"/>
+      <c r="U1208" s="4"/>
+      <c r="V1208" s="4"/>
+      <c r="W1208" s="4"/>
+      <c r="X1208" s="4"/>
+      <c r="Y1208" s="4"/>
+      <c r="Z1208" s="4"/>
+    </row>
+    <row r="1209">
+      <c r="A1209" s="2"/>
+      <c r="B1209" s="2"/>
+      <c r="C1209" s="2"/>
+      <c r="D1209" s="2"/>
+      <c r="E1209" s="4"/>
+      <c r="F1209" s="4"/>
+      <c r="G1209" s="4"/>
+      <c r="H1209" s="4"/>
+      <c r="I1209" s="4"/>
+      <c r="J1209" s="4"/>
+      <c r="K1209" s="4"/>
+      <c r="L1209" s="4"/>
+      <c r="M1209" s="4"/>
+      <c r="N1209" s="4"/>
+      <c r="O1209" s="4"/>
+      <c r="P1209" s="4"/>
+      <c r="Q1209" s="4"/>
+      <c r="R1209" s="4"/>
+      <c r="S1209" s="4"/>
+      <c r="T1209" s="4"/>
+      <c r="U1209" s="4"/>
+      <c r="V1209" s="4"/>
+      <c r="W1209" s="4"/>
+      <c r="X1209" s="4"/>
+      <c r="Y1209" s="4"/>
+      <c r="Z1209" s="4"/>
+    </row>
+    <row r="1210">
+      <c r="A1210" s="2"/>
+      <c r="B1210" s="2"/>
+      <c r="C1210" s="2"/>
+      <c r="D1210" s="2"/>
+      <c r="E1210" s="4"/>
+      <c r="F1210" s="4"/>
+      <c r="G1210" s="4"/>
+      <c r="H1210" s="4"/>
+      <c r="I1210" s="4"/>
+      <c r="J1210" s="4"/>
+      <c r="K1210" s="4"/>
+      <c r="L1210" s="4"/>
+      <c r="M1210" s="4"/>
+      <c r="N1210" s="4"/>
+      <c r="O1210" s="4"/>
+      <c r="P1210" s="4"/>
+      <c r="Q1210" s="4"/>
+      <c r="R1210" s="4"/>
+      <c r="S1210" s="4"/>
+      <c r="T1210" s="4"/>
+      <c r="U1210" s="4"/>
+      <c r="V1210" s="4"/>
+      <c r="W1210" s="4"/>
+      <c r="X1210" s="4"/>
+      <c r="Y1210" s="4"/>
+      <c r="Z1210" s="4"/>
+    </row>
+    <row r="1211">
+      <c r="A1211" s="2"/>
+      <c r="B1211" s="2"/>
+      <c r="C1211" s="2"/>
+      <c r="D1211" s="2"/>
+      <c r="E1211" s="4"/>
+      <c r="F1211" s="4"/>
+      <c r="G1211" s="4"/>
+      <c r="H1211" s="4"/>
+      <c r="I1211" s="4"/>
+      <c r="J1211" s="4"/>
+      <c r="K1211" s="4"/>
+      <c r="L1211" s="4"/>
+      <c r="M1211" s="4"/>
+      <c r="N1211" s="4"/>
+      <c r="O1211" s="4"/>
+      <c r="P1211" s="4"/>
+      <c r="Q1211" s="4"/>
+      <c r="R1211" s="4"/>
+      <c r="S1211" s="4"/>
+      <c r="T1211" s="4"/>
+      <c r="U1211" s="4"/>
+      <c r="V1211" s="4"/>
+      <c r="W1211" s="4"/>
+      <c r="X1211" s="4"/>
+      <c r="Y1211" s="4"/>
+      <c r="Z1211" s="4"/>
+    </row>
+    <row r="1212">
+      <c r="A1212" s="2"/>
+      <c r="B1212" s="2"/>
+      <c r="C1212" s="2"/>
+      <c r="D1212" s="2"/>
+      <c r="E1212" s="4"/>
+      <c r="F1212" s="4"/>
+      <c r="G1212" s="4"/>
+      <c r="H1212" s="4"/>
+      <c r="I1212" s="4"/>
+      <c r="J1212" s="4"/>
+      <c r="K1212" s="4"/>
+      <c r="L1212" s="4"/>
+      <c r="M1212" s="4"/>
+      <c r="N1212" s="4"/>
+      <c r="O1212" s="4"/>
+      <c r="P1212" s="4"/>
+      <c r="Q1212" s="4"/>
+      <c r="R1212" s="4"/>
+      <c r="S1212" s="4"/>
+      <c r="T1212" s="4"/>
+      <c r="U1212" s="4"/>
+      <c r="V1212" s="4"/>
+      <c r="W1212" s="4"/>
+      <c r="X1212" s="4"/>
+      <c r="Y1212" s="4"/>
+      <c r="Z1212" s="4"/>
+    </row>
+    <row r="1213">
+      <c r="A1213" s="2"/>
+      <c r="B1213" s="2"/>
+      <c r="C1213" s="2"/>
+      <c r="D1213" s="2"/>
+      <c r="E1213" s="4"/>
+      <c r="F1213" s="4"/>
+      <c r="G1213" s="4"/>
+      <c r="H1213" s="4"/>
+      <c r="I1213" s="4"/>
+      <c r="J1213" s="4"/>
+      <c r="K1213" s="4"/>
+      <c r="L1213" s="4"/>
+      <c r="M1213" s="4"/>
+      <c r="N1213" s="4"/>
+      <c r="O1213" s="4"/>
+      <c r="P1213" s="4"/>
+      <c r="Q1213" s="4"/>
+      <c r="R1213" s="4"/>
+      <c r="S1213" s="4"/>
+      <c r="T1213" s="4"/>
+      <c r="U1213" s="4"/>
+      <c r="V1213" s="4"/>
+      <c r="W1213" s="4"/>
+      <c r="X1213" s="4"/>
+      <c r="Y1213" s="4"/>
+      <c r="Z1213" s="4"/>
+    </row>
+    <row r="1214">
+      <c r="A1214" s="2"/>
+      <c r="B1214" s="2"/>
+      <c r="C1214" s="2"/>
+      <c r="D1214" s="2"/>
+      <c r="E1214" s="4"/>
+      <c r="F1214" s="4"/>
+      <c r="G1214" s="4"/>
+      <c r="H1214" s="4"/>
+      <c r="I1214" s="4"/>
+      <c r="J1214" s="4"/>
+      <c r="K1214" s="4"/>
+      <c r="L1214" s="4"/>
+      <c r="M1214" s="4"/>
+      <c r="N1214" s="4"/>
+      <c r="O1214" s="4"/>
+      <c r="P1214" s="4"/>
+      <c r="Q1214" s="4"/>
+      <c r="R1214" s="4"/>
+      <c r="S1214" s="4"/>
+      <c r="T1214" s="4"/>
+      <c r="U1214" s="4"/>
+      <c r="V1214" s="4"/>
+      <c r="W1214" s="4"/>
+      <c r="X1214" s="4"/>
+      <c r="Y1214" s="4"/>
+      <c r="Z1214" s="4"/>
+    </row>
+    <row r="1215">
+      <c r="A1215" s="2"/>
+      <c r="B1215" s="2"/>
+      <c r="C1215" s="2"/>
+      <c r="D1215" s="2"/>
+      <c r="E1215" s="4"/>
+      <c r="F1215" s="4"/>
+      <c r="G1215" s="4"/>
+      <c r="H1215" s="4"/>
+      <c r="I1215" s="4"/>
+      <c r="J1215" s="4"/>
+      <c r="K1215" s="4"/>
+      <c r="L1215" s="4"/>
+      <c r="M1215" s="4"/>
+      <c r="N1215" s="4"/>
+      <c r="O1215" s="4"/>
+      <c r="P1215" s="4"/>
+      <c r="Q1215" s="4"/>
+      <c r="R1215" s="4"/>
+      <c r="S1215" s="4"/>
+      <c r="T1215" s="4"/>
+      <c r="U1215" s="4"/>
+      <c r="V1215" s="4"/>
+      <c r="W1215" s="4"/>
+      <c r="X1215" s="4"/>
+      <c r="Y1215" s="4"/>
+      <c r="Z1215" s="4"/>
+    </row>
+    <row r="1216">
+      <c r="A1216" s="2"/>
+      <c r="B1216" s="2"/>
+      <c r="C1216" s="2"/>
+      <c r="D1216" s="2"/>
+      <c r="E1216" s="4"/>
+      <c r="F1216" s="4"/>
+      <c r="G1216" s="4"/>
+      <c r="H1216" s="4"/>
+      <c r="I1216" s="4"/>
+      <c r="J1216" s="4"/>
+      <c r="K1216" s="4"/>
+      <c r="L1216" s="4"/>
+      <c r="M1216" s="4"/>
+      <c r="N1216" s="4"/>
+      <c r="O1216" s="4"/>
+      <c r="P1216" s="4"/>
+      <c r="Q1216" s="4"/>
+      <c r="R1216" s="4"/>
+      <c r="S1216" s="4"/>
+      <c r="T1216" s="4"/>
+      <c r="U1216" s="4"/>
+      <c r="V1216" s="4"/>
+      <c r="W1216" s="4"/>
+      <c r="X1216" s="4"/>
+      <c r="Y1216" s="4"/>
+      <c r="Z1216" s="4"/>
+    </row>
+    <row r="1217">
+      <c r="A1217" s="2"/>
+      <c r="B1217" s="2"/>
+      <c r="C1217" s="2"/>
+      <c r="D1217" s="2"/>
+      <c r="E1217" s="4"/>
+      <c r="F1217" s="4"/>
+      <c r="G1217" s="4"/>
+      <c r="H1217" s="4"/>
+      <c r="I1217" s="4"/>
+      <c r="J1217" s="4"/>
+      <c r="K1217" s="4"/>
+      <c r="L1217" s="4"/>
+      <c r="M1217" s="4"/>
+      <c r="N1217" s="4"/>
+      <c r="O1217" s="4"/>
+      <c r="P1217" s="4"/>
+      <c r="Q1217" s="4"/>
+      <c r="R1217" s="4"/>
+      <c r="S1217" s="4"/>
+      <c r="T1217" s="4"/>
+      <c r="U1217" s="4"/>
+      <c r="V1217" s="4"/>
+      <c r="W1217" s="4"/>
+      <c r="X1217" s="4"/>
+      <c r="Y1217" s="4"/>
+      <c r="Z1217" s="4"/>
+    </row>
+    <row r="1218">
+      <c r="A1218" s="2"/>
+      <c r="B1218" s="2"/>
+      <c r="C1218" s="2"/>
+      <c r="D1218" s="2"/>
+      <c r="E1218" s="4"/>
+      <c r="F1218" s="4"/>
+      <c r="G1218" s="4"/>
+      <c r="H1218" s="4"/>
+      <c r="I1218" s="4"/>
+      <c r="J1218" s="4"/>
+      <c r="K1218" s="4"/>
+      <c r="L1218" s="4"/>
+      <c r="M1218" s="4"/>
+      <c r="N1218" s="4"/>
+      <c r="O1218" s="4"/>
+      <c r="P1218" s="4"/>
+      <c r="Q1218" s="4"/>
+      <c r="R1218" s="4"/>
+      <c r="S1218" s="4"/>
+      <c r="T1218" s="4"/>
+      <c r="U1218" s="4"/>
+      <c r="V1218" s="4"/>
+      <c r="W1218" s="4"/>
+      <c r="X1218" s="4"/>
+      <c r="Y1218" s="4"/>
+      <c r="Z1218" s="4"/>
+    </row>
+    <row r="1219">
+      <c r="A1219" s="2"/>
+      <c r="B1219" s="2"/>
+      <c r="C1219" s="2"/>
+      <c r="D1219" s="2"/>
+      <c r="E1219" s="4"/>
+      <c r="F1219" s="4"/>
+      <c r="G1219" s="4"/>
+      <c r="H1219" s="4"/>
+      <c r="I1219" s="4"/>
+      <c r="J1219" s="4"/>
+      <c r="K1219" s="4"/>
+      <c r="L1219" s="4"/>
+      <c r="M1219" s="4"/>
+      <c r="N1219" s="4"/>
+      <c r="O1219" s="4"/>
+      <c r="P1219" s="4"/>
+      <c r="Q1219" s="4"/>
+      <c r="R1219" s="4"/>
+      <c r="S1219" s="4"/>
+      <c r="T1219" s="4"/>
+      <c r="U1219" s="4"/>
+      <c r="V1219" s="4"/>
+      <c r="W1219" s="4"/>
+      <c r="X1219" s="4"/>
+      <c r="Y1219" s="4"/>
+      <c r="Z1219" s="4"/>
+    </row>
+    <row r="1220">
+      <c r="A1220" s="2"/>
+      <c r="B1220" s="2"/>
+      <c r="C1220" s="2"/>
+      <c r="D1220" s="2"/>
+      <c r="E1220" s="4"/>
+      <c r="F1220" s="4"/>
+      <c r="G1220" s="4"/>
+      <c r="H1220" s="4"/>
+      <c r="I1220" s="4"/>
+      <c r="J1220" s="4"/>
+      <c r="K1220" s="4"/>
+      <c r="L1220" s="4"/>
+      <c r="M1220" s="4"/>
+      <c r="N1220" s="4"/>
+      <c r="O1220" s="4"/>
+      <c r="P1220" s="4"/>
+      <c r="Q1220" s="4"/>
+      <c r="R1220" s="4"/>
+      <c r="S1220" s="4"/>
+      <c r="T1220" s="4"/>
+      <c r="U1220" s="4"/>
+      <c r="V1220" s="4"/>
+      <c r="W1220" s="4"/>
+      <c r="X1220" s="4"/>
+      <c r="Y1220" s="4"/>
+      <c r="Z1220" s="4"/>
+    </row>
+    <row r="1221">
+      <c r="A1221" s="2"/>
+      <c r="B1221" s="2"/>
+      <c r="C1221" s="2"/>
+      <c r="D1221" s="2"/>
+      <c r="E1221" s="4"/>
+      <c r="F1221" s="4"/>
+      <c r="G1221" s="4"/>
+      <c r="H1221" s="4"/>
+      <c r="I1221" s="4"/>
+      <c r="J1221" s="4"/>
+      <c r="K1221" s="4"/>
+      <c r="L1221" s="4"/>
+      <c r="M1221" s="4"/>
+      <c r="N1221" s="4"/>
+      <c r="O1221" s="4"/>
+      <c r="P1221" s="4"/>
+      <c r="Q1221" s="4"/>
+      <c r="R1221" s="4"/>
+      <c r="S1221" s="4"/>
+      <c r="T1221" s="4"/>
+      <c r="U1221" s="4"/>
+      <c r="V1221" s="4"/>
+      <c r="W1221" s="4"/>
+      <c r="X1221" s="4"/>
+      <c r="Y1221" s="4"/>
+      <c r="Z1221" s="4"/>
+    </row>
+    <row r="1222">
+      <c r="A1222" s="2"/>
+      <c r="B1222" s="2"/>
+      <c r="C1222" s="2"/>
+      <c r="D1222" s="2"/>
+      <c r="E1222" s="4"/>
+      <c r="F1222" s="4"/>
+      <c r="G1222" s="4"/>
+      <c r="H1222" s="4"/>
+      <c r="I1222" s="4"/>
+      <c r="J1222" s="4"/>
+      <c r="K1222" s="4"/>
+      <c r="L1222" s="4"/>
+      <c r="M1222" s="4"/>
+      <c r="N1222" s="4"/>
+      <c r="O1222" s="4"/>
+      <c r="P1222" s="4"/>
+      <c r="Q1222" s="4"/>
+      <c r="R1222" s="4"/>
+      <c r="S1222" s="4"/>
+      <c r="T1222" s="4"/>
+      <c r="U1222" s="4"/>
+      <c r="V1222" s="4"/>
+      <c r="W1222" s="4"/>
+      <c r="X1222" s="4"/>
+      <c r="Y1222" s="4"/>
+      <c r="Z1222" s="4"/>
+    </row>
+    <row r="1223">
+      <c r="A1223" s="2"/>
+      <c r="B1223" s="2"/>
+      <c r="C1223" s="2"/>
+      <c r="D1223" s="2"/>
+      <c r="E1223" s="4"/>
+      <c r="F1223" s="4"/>
+      <c r="G1223" s="4"/>
+      <c r="H1223" s="4"/>
+      <c r="I1223" s="4"/>
+      <c r="J1223" s="4"/>
+      <c r="K1223" s="4"/>
+      <c r="L1223" s="4"/>
+      <c r="M1223" s="4"/>
+      <c r="N1223" s="4"/>
+      <c r="O1223" s="4"/>
+      <c r="P1223" s="4"/>
+      <c r="Q1223" s="4"/>
+      <c r="R1223" s="4"/>
+      <c r="S1223" s="4"/>
+      <c r="T1223" s="4"/>
+      <c r="U1223" s="4"/>
+      <c r="V1223" s="4"/>
+      <c r="W1223" s="4"/>
+      <c r="X1223" s="4"/>
+      <c r="Y1223" s="4"/>
+      <c r="Z1223" s="4"/>
+    </row>
+    <row r="1224">
+      <c r="A1224" s="2"/>
+      <c r="B1224" s="2"/>
+      <c r="C1224" s="2"/>
+      <c r="D1224" s="2"/>
+      <c r="E1224" s="4"/>
+      <c r="F1224" s="4"/>
+      <c r="G1224" s="4"/>
+      <c r="H1224" s="4"/>
+      <c r="I1224" s="4"/>
+      <c r="J1224" s="4"/>
+      <c r="K1224" s="4"/>
+      <c r="L1224" s="4"/>
+      <c r="M1224" s="4"/>
+      <c r="N1224" s="4"/>
+      <c r="O1224" s="4"/>
+      <c r="P1224" s="4"/>
+      <c r="Q1224" s="4"/>
+      <c r="R1224" s="4"/>
+      <c r="S1224" s="4"/>
+      <c r="T1224" s="4"/>
+      <c r="U1224" s="4"/>
+      <c r="V1224" s="4"/>
+      <c r="W1224" s="4"/>
+      <c r="X1224" s="4"/>
+      <c r="Y1224" s="4"/>
+      <c r="Z1224" s="4"/>
+    </row>
+    <row r="1225">
+      <c r="A1225" s="2"/>
+      <c r="B1225" s="2"/>
+      <c r="C1225" s="2"/>
+      <c r="D1225" s="2"/>
+      <c r="E1225" s="4"/>
+      <c r="F1225" s="4"/>
+      <c r="G1225" s="4"/>
+      <c r="H1225" s="4"/>
+      <c r="I1225" s="4"/>
+      <c r="J1225" s="4"/>
+      <c r="K1225" s="4"/>
+      <c r="L1225" s="4"/>
+      <c r="M1225" s="4"/>
+      <c r="N1225" s="4"/>
+      <c r="O1225" s="4"/>
+      <c r="P1225" s="4"/>
+      <c r="Q1225" s="4"/>
+      <c r="R1225" s="4"/>
+      <c r="S1225" s="4"/>
+      <c r="T1225" s="4"/>
+      <c r="U1225" s="4"/>
+      <c r="V1225" s="4"/>
+      <c r="W1225" s="4"/>
+      <c r="X1225" s="4"/>
+      <c r="Y1225" s="4"/>
+      <c r="Z1225" s="4"/>
+    </row>
+    <row r="1226">
+      <c r="A1226" s="2"/>
+      <c r="B1226" s="2"/>
+      <c r="C1226" s="2"/>
+      <c r="D1226" s="2"/>
+      <c r="E1226" s="4"/>
+      <c r="F1226" s="4"/>
+      <c r="G1226" s="4"/>
+      <c r="H1226" s="4"/>
+      <c r="I1226" s="4"/>
+      <c r="J1226" s="4"/>
+      <c r="K1226" s="4"/>
+      <c r="L1226" s="4"/>
+      <c r="M1226" s="4"/>
+      <c r="N1226" s="4"/>
+      <c r="O1226" s="4"/>
+      <c r="P1226" s="4"/>
+      <c r="Q1226" s="4"/>
+      <c r="R1226" s="4"/>
+      <c r="S1226" s="4"/>
+      <c r="T1226" s="4"/>
+      <c r="U1226" s="4"/>
+      <c r="V1226" s="4"/>
+      <c r="W1226" s="4"/>
+      <c r="X1226" s="4"/>
+      <c r="Y1226" s="4"/>
+      <c r="Z1226" s="4"/>
+    </row>
+    <row r="1227">
+      <c r="A1227" s="2"/>
+      <c r="B1227" s="2"/>
+      <c r="C1227" s="2"/>
+      <c r="D1227" s="2"/>
+      <c r="E1227" s="4"/>
+      <c r="F1227" s="4"/>
+      <c r="G1227" s="4"/>
+      <c r="H1227" s="4"/>
+      <c r="I1227" s="4"/>
+      <c r="J1227" s="4"/>
+      <c r="K1227" s="4"/>
+      <c r="L1227" s="4"/>
+      <c r="M1227" s="4"/>
+      <c r="N1227" s="4"/>
+      <c r="O1227" s="4"/>
+      <c r="P1227" s="4"/>
+      <c r="Q1227" s="4"/>
+      <c r="R1227" s="4"/>
+      <c r="S1227" s="4"/>
+      <c r="T1227" s="4"/>
+      <c r="U1227" s="4"/>
+      <c r="V1227" s="4"/>
+      <c r="W1227" s="4"/>
+      <c r="X1227" s="4"/>
+      <c r="Y1227" s="4"/>
+      <c r="Z1227" s="4"/>
+    </row>
+    <row r="1228">
+      <c r="A1228" s="2"/>
+      <c r="B1228" s="2"/>
+      <c r="C1228" s="2"/>
+      <c r="D1228" s="2"/>
+      <c r="E1228" s="4"/>
+      <c r="F1228" s="4"/>
+      <c r="G1228" s="4"/>
+      <c r="H1228" s="4"/>
+      <c r="I1228" s="4"/>
+      <c r="J1228" s="4"/>
+      <c r="K1228" s="4"/>
+      <c r="L1228" s="4"/>
+      <c r="M1228" s="4"/>
+      <c r="N1228" s="4"/>
+      <c r="O1228" s="4"/>
+      <c r="P1228" s="4"/>
+      <c r="Q1228" s="4"/>
+      <c r="R1228" s="4"/>
+      <c r="S1228" s="4"/>
+      <c r="T1228" s="4"/>
+      <c r="U1228" s="4"/>
+      <c r="V1228" s="4"/>
+      <c r="W1228" s="4"/>
+      <c r="X1228" s="4"/>
+      <c r="Y1228" s="4"/>
+      <c r="Z1228" s="4"/>
+    </row>
+    <row r="1229">
+      <c r="A1229" s="2"/>
+      <c r="B1229" s="2"/>
+      <c r="C1229" s="2"/>
+      <c r="D1229" s="2"/>
+      <c r="E1229" s="4"/>
+      <c r="F1229" s="4"/>
+      <c r="G1229" s="4"/>
+      <c r="H1229" s="4"/>
+      <c r="I1229" s="4"/>
+      <c r="J1229" s="4"/>
+      <c r="K1229" s="4"/>
+      <c r="L1229" s="4"/>
+      <c r="M1229" s="4"/>
+      <c r="N1229" s="4"/>
+      <c r="O1229" s="4"/>
+      <c r="P1229" s="4"/>
+      <c r="Q1229" s="4"/>
+      <c r="R1229" s="4"/>
+      <c r="S1229" s="4"/>
+      <c r="T1229" s="4"/>
+      <c r="U1229" s="4"/>
+      <c r="V1229" s="4"/>
+      <c r="W1229" s="4"/>
+      <c r="X1229" s="4"/>
+      <c r="Y1229" s="4"/>
+      <c r="Z1229" s="4"/>
+    </row>
+    <row r="1230">
+      <c r="A1230" s="2"/>
+      <c r="B1230" s="2"/>
+      <c r="C1230" s="2"/>
+      <c r="D1230" s="2"/>
+      <c r="E1230" s="4"/>
+      <c r="F1230" s="4"/>
+      <c r="G1230" s="4"/>
+      <c r="H1230" s="4"/>
+      <c r="I1230" s="4"/>
+      <c r="J1230" s="4"/>
+      <c r="K1230" s="4"/>
+      <c r="L1230" s="4"/>
+      <c r="M1230" s="4"/>
+      <c r="N1230" s="4"/>
+      <c r="O1230" s="4"/>
+      <c r="P1230" s="4"/>
+      <c r="Q1230" s="4"/>
+      <c r="R1230" s="4"/>
+      <c r="S1230" s="4"/>
+      <c r="T1230" s="4"/>
+      <c r="U1230" s="4"/>
+      <c r="V1230" s="4"/>
+      <c r="W1230" s="4"/>
+      <c r="X1230" s="4"/>
+      <c r="Y1230" s="4"/>
+      <c r="Z1230" s="4"/>
+    </row>
+    <row r="1231">
+      <c r="A1231" s="2"/>
+      <c r="B1231" s="2"/>
+      <c r="C1231" s="2"/>
+      <c r="D1231" s="2"/>
+      <c r="E1231" s="4"/>
+      <c r="F1231" s="4"/>
+      <c r="G1231" s="4"/>
+      <c r="H1231" s="4"/>
+      <c r="I1231" s="4"/>
+      <c r="J1231" s="4"/>
+      <c r="K1231" s="4"/>
+      <c r="L1231" s="4"/>
+      <c r="M1231" s="4"/>
+      <c r="N1231" s="4"/>
+      <c r="O1231" s="4"/>
+      <c r="P1231" s="4"/>
+      <c r="Q1231" s="4"/>
+      <c r="R1231" s="4"/>
+      <c r="S1231" s="4"/>
+      <c r="T1231" s="4"/>
+      <c r="U1231" s="4"/>
+      <c r="V1231" s="4"/>
+      <c r="W1231" s="4"/>
+      <c r="X1231" s="4"/>
+      <c r="Y1231" s="4"/>
+      <c r="Z1231" s="4"/>
+    </row>
+    <row r="1232">
+      <c r="A1232" s="2"/>
+      <c r="B1232" s="2"/>
+      <c r="C1232" s="2"/>
+      <c r="D1232" s="2"/>
+      <c r="E1232" s="4"/>
+      <c r="F1232" s="4"/>
+      <c r="G1232" s="4"/>
+      <c r="H1232" s="4"/>
+      <c r="I1232" s="4"/>
+      <c r="J1232" s="4"/>
+      <c r="K1232" s="4"/>
+      <c r="L1232" s="4"/>
+      <c r="M1232" s="4"/>
+      <c r="N1232" s="4"/>
+      <c r="O1232" s="4"/>
+      <c r="P1232" s="4"/>
+      <c r="Q1232" s="4"/>
+      <c r="R1232" s="4"/>
+      <c r="S1232" s="4"/>
+      <c r="T1232" s="4"/>
+      <c r="U1232" s="4"/>
+      <c r="V1232" s="4"/>
+      <c r="W1232" s="4"/>
+      <c r="X1232" s="4"/>
+      <c r="Y1232" s="4"/>
+      <c r="Z1232" s="4"/>
+    </row>
+    <row r="1233">
+      <c r="A1233" s="2"/>
+      <c r="B1233" s="2"/>
+      <c r="C1233" s="2"/>
+      <c r="D1233" s="2"/>
+      <c r="E1233" s="4"/>
+      <c r="F1233" s="4"/>
+      <c r="G1233" s="4"/>
+      <c r="H1233" s="4"/>
+      <c r="I1233" s="4"/>
+      <c r="J1233" s="4"/>
+      <c r="K1233" s="4"/>
+      <c r="L1233" s="4"/>
+      <c r="M1233" s="4"/>
+      <c r="N1233" s="4"/>
+      <c r="O1233" s="4"/>
+      <c r="P1233" s="4"/>
+      <c r="Q1233" s="4"/>
+      <c r="R1233" s="4"/>
+      <c r="S1233" s="4"/>
+      <c r="T1233" s="4"/>
+      <c r="U1233" s="4"/>
+      <c r="V1233" s="4"/>
+      <c r="W1233" s="4"/>
+      <c r="X1233" s="4"/>
+      <c r="Y1233" s="4"/>
+      <c r="Z1233" s="4"/>
+    </row>
+    <row r="1234">
+      <c r="A1234" s="2"/>
+      <c r="B1234" s="2"/>
+      <c r="C1234" s="2"/>
+      <c r="D1234" s="2"/>
+      <c r="E1234" s="4"/>
+      <c r="F1234" s="4"/>
+      <c r="G1234" s="4"/>
+      <c r="H1234" s="4"/>
+      <c r="I1234" s="4"/>
+      <c r="J1234" s="4"/>
+      <c r="K1234" s="4"/>
+      <c r="L1234" s="4"/>
+      <c r="M1234" s="4"/>
+      <c r="N1234" s="4"/>
+      <c r="O1234" s="4"/>
+      <c r="P1234" s="4"/>
+      <c r="Q1234" s="4"/>
+      <c r="R1234" s="4"/>
+      <c r="S1234" s="4"/>
+      <c r="T1234" s="4"/>
+      <c r="U1234" s="4"/>
+      <c r="V1234" s="4"/>
+      <c r="W1234" s="4"/>
+      <c r="X1234" s="4"/>
+      <c r="Y1234" s="4"/>
+      <c r="Z1234" s="4"/>
+    </row>
+    <row r="1235">
+      <c r="A1235" s="2"/>
+      <c r="B1235" s="2"/>
+      <c r="C1235" s="2"/>
+      <c r="D1235" s="2"/>
+      <c r="E1235" s="4"/>
+      <c r="F1235" s="4"/>
+      <c r="G1235" s="4"/>
+      <c r="H1235" s="4"/>
+      <c r="I1235" s="4"/>
+      <c r="J1235" s="4"/>
+      <c r="K1235" s="4"/>
+      <c r="L1235" s="4"/>
+      <c r="M1235" s="4"/>
+      <c r="N1235" s="4"/>
+      <c r="O1235" s="4"/>
+      <c r="P1235" s="4"/>
+      <c r="Q1235" s="4"/>
+      <c r="R1235" s="4"/>
+      <c r="S1235" s="4"/>
+      <c r="T1235" s="4"/>
+      <c r="U1235" s="4"/>
+      <c r="V1235" s="4"/>
+      <c r="W1235" s="4"/>
+      <c r="X1235" s="4"/>
+      <c r="Y1235" s="4"/>
+      <c r="Z1235" s="4"/>
+    </row>
+    <row r="1236">
+      <c r="A1236" s="2"/>
+      <c r="B1236" s="2"/>
+      <c r="C1236" s="2"/>
+      <c r="D1236" s="2"/>
+      <c r="E1236" s="4"/>
+      <c r="F1236" s="4"/>
+      <c r="G1236" s="4"/>
+      <c r="H1236" s="4"/>
+      <c r="I1236" s="4"/>
+      <c r="J1236" s="4"/>
+      <c r="K1236" s="4"/>
+      <c r="L1236" s="4"/>
+      <c r="M1236" s="4"/>
+      <c r="N1236" s="4"/>
+      <c r="O1236" s="4"/>
+      <c r="P1236" s="4"/>
+      <c r="Q1236" s="4"/>
+      <c r="R1236" s="4"/>
+      <c r="S1236" s="4"/>
+      <c r="T1236" s="4"/>
+      <c r="U1236" s="4"/>
+      <c r="V1236" s="4"/>
+      <c r="W1236" s="4"/>
+      <c r="X1236" s="4"/>
+      <c r="Y1236" s="4"/>
+      <c r="Z1236" s="4"/>
+    </row>
+    <row r="1237">
+      <c r="A1237" s="4"/>
+      <c r="B1237" s="4"/>
+      <c r="C1237" s="4"/>
+      <c r="D1237" s="4"/>
+      <c r="E1237" s="4"/>
+      <c r="F1237" s="4"/>
+      <c r="G1237" s="4"/>
+      <c r="H1237" s="4"/>
+      <c r="I1237" s="4"/>
+      <c r="J1237" s="4"/>
+      <c r="K1237" s="4"/>
+      <c r="L1237" s="4"/>
+      <c r="M1237" s="4"/>
+      <c r="N1237" s="4"/>
+      <c r="O1237" s="4"/>
+      <c r="P1237" s="4"/>
+      <c r="Q1237" s="4"/>
+      <c r="R1237" s="4"/>
+      <c r="S1237" s="4"/>
+      <c r="T1237" s="4"/>
+      <c r="U1237" s="4"/>
+      <c r="V1237" s="4"/>
+      <c r="W1237" s="4"/>
+      <c r="X1237" s="4"/>
+      <c r="Y1237" s="4"/>
+      <c r="Z1237" s="4"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/hauteur site.xlsx
+++ b/hauteur site.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="41">
   <si>
     <t>code_pneu</t>
   </si>
@@ -46,6 +46,9 @@
     <t>280?</t>
   </si>
   <si>
+    <t>235+</t>
+  </si>
+  <si>
     <t>305+</t>
   </si>
   <si>
@@ -67,6 +70,9 @@
     <t>230*</t>
   </si>
   <si>
+    <t>295-305</t>
+  </si>
+  <si>
     <t>255-275</t>
   </si>
   <si>
@@ -86,9 +92,6 @@
   </si>
   <si>
     <t>290+</t>
-  </si>
-  <si>
-    <t>---17/3</t>
   </si>
   <si>
     <t>230-240</t>
@@ -2738,8 +2741,8 @@
       <c r="B65" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C65" s="7">
-        <v>235.0</v>
+      <c r="C65" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>3</v>
@@ -2847,7 +2850,7 @@
         <v>3</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>3</v>
@@ -2991,7 +2994,7 @@
         <v>3</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>3</v>
@@ -4067,7 +4070,7 @@
         <v>3</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>3</v>
@@ -4751,7 +4754,7 @@
         <v>3</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>3</v>
@@ -4857,7 +4860,7 @@
         <v>3</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>3</v>
@@ -5575,7 +5578,7 @@
         <v>3</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D144" s="5" t="s">
         <v>3</v>
@@ -5719,7 +5722,7 @@
         <v>3</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D148" s="5" t="s">
         <v>3</v>
@@ -5899,7 +5902,7 @@
         <v>3</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D153" s="5" t="s">
         <v>3</v>
@@ -5934,8 +5937,8 @@
       <c r="B154" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C154" s="7">
-        <v>305.0</v>
+      <c r="C154" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="D154" s="5" t="s">
         <v>3</v>
@@ -6151,7 +6154,7 @@
         <v>3</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>3</v>
@@ -6187,7 +6190,7 @@
         <v>3</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D161" s="5" t="s">
         <v>3</v>
@@ -6259,7 +6262,7 @@
         <v>3</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D163" s="5" t="s">
         <v>3</v>
@@ -6475,7 +6478,7 @@
         <v>3</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D169" s="5" t="s">
         <v>3</v>
@@ -6619,7 +6622,7 @@
         <v>3</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D173" s="5" t="s">
         <v>3</v>
@@ -7189,13 +7192,13 @@
     </row>
     <row r="189">
       <c r="A189" s="6">
-        <v>398.0</v>
+        <v>395.0</v>
       </c>
       <c r="B189" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C189" s="7">
-        <v>260.0</v>
+      <c r="C189" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="D189" s="5" t="s">
         <v>3</v>
@@ -7224,16 +7227,16 @@
       <c r="Z189" s="4"/>
     </row>
     <row r="190">
-      <c r="A190" s="1">
-        <v>399.0</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C190" s="3">
+      <c r="A190" s="6">
+        <v>398.0</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C190" s="7">
         <v>260.0</v>
       </c>
-      <c r="D190" s="2" t="s">
+      <c r="D190" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E190" s="4"/>
@@ -7261,13 +7264,13 @@
     </row>
     <row r="191">
       <c r="A191" s="1">
-        <v>404.0</v>
+        <v>399.0</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C191" s="3">
-        <v>250.0</v>
+        <v>260.0</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>3</v>
@@ -7296,16 +7299,16 @@
       <c r="Z191" s="4"/>
     </row>
     <row r="192">
-      <c r="A192" s="6">
-        <v>406.0</v>
-      </c>
-      <c r="B192" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C192" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D192" s="5" t="s">
+      <c r="A192" s="1">
+        <v>404.0</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C192" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D192" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E192" s="4"/>
@@ -7333,13 +7336,13 @@
     </row>
     <row r="193">
       <c r="A193" s="6">
-        <v>409.0</v>
+        <v>406.0</v>
       </c>
       <c r="B193" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C193" s="7">
-        <v>265.0</v>
+      <c r="C193" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="D193" s="5" t="s">
         <v>3</v>
@@ -7369,13 +7372,13 @@
     </row>
     <row r="194">
       <c r="A194" s="6">
-        <v>410.0</v>
+        <v>409.0</v>
       </c>
       <c r="B194" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C194" s="7">
-        <v>230.0</v>
+        <v>265.0</v>
       </c>
       <c r="D194" s="5" t="s">
         <v>3</v>
@@ -7405,13 +7408,13 @@
     </row>
     <row r="195">
       <c r="A195" s="6">
-        <v>413.0</v>
+        <v>410.0</v>
       </c>
       <c r="B195" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C195" s="7">
-        <v>290.0</v>
+        <v>230.0</v>
       </c>
       <c r="D195" s="5" t="s">
         <v>3</v>
@@ -7441,13 +7444,13 @@
     </row>
     <row r="196">
       <c r="A196" s="6">
-        <v>418.0</v>
+        <v>413.0</v>
       </c>
       <c r="B196" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C196" s="7">
-        <v>275.0</v>
+        <v>290.0</v>
       </c>
       <c r="D196" s="5" t="s">
         <v>3</v>
@@ -7476,16 +7479,16 @@
       <c r="Z196" s="4"/>
     </row>
     <row r="197">
-      <c r="A197" s="1">
-        <v>423.0</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C197" s="3">
-        <v>280.0</v>
-      </c>
-      <c r="D197" s="2" t="s">
+      <c r="A197" s="6">
+        <v>418.0</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C197" s="7">
+        <v>275.0</v>
+      </c>
+      <c r="D197" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E197" s="4"/>
@@ -7513,13 +7516,13 @@
     </row>
     <row r="198">
       <c r="A198" s="1">
-        <v>429.0</v>
+        <v>423.0</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C198" s="3">
-        <v>290.0</v>
+        <v>280.0</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>3</v>
@@ -7549,7 +7552,7 @@
     </row>
     <row r="199">
       <c r="A199" s="1">
-        <v>430.0</v>
+        <v>429.0</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>3</v>
@@ -7584,16 +7587,16 @@
       <c r="Z199" s="4"/>
     </row>
     <row r="200">
-      <c r="A200" s="6">
-        <v>436.0</v>
-      </c>
-      <c r="B200" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C200" s="7">
-        <v>260.0</v>
-      </c>
-      <c r="D200" s="5" t="s">
+      <c r="A200" s="1">
+        <v>430.0</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C200" s="3">
+        <v>290.0</v>
+      </c>
+      <c r="D200" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E200" s="4"/>
@@ -7621,13 +7624,13 @@
     </row>
     <row r="201">
       <c r="A201" s="6">
-        <v>438.0</v>
+        <v>436.0</v>
       </c>
       <c r="B201" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C201" s="7">
-        <v>265.0</v>
+        <v>260.0</v>
       </c>
       <c r="D201" s="5" t="s">
         <v>3</v>
@@ -7657,13 +7660,13 @@
     </row>
     <row r="202">
       <c r="A202" s="6">
-        <v>439.0</v>
+        <v>438.0</v>
       </c>
       <c r="B202" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C202" s="7">
-        <v>280.0</v>
+        <v>265.0</v>
       </c>
       <c r="D202" s="5" t="s">
         <v>3</v>
@@ -7693,13 +7696,13 @@
     </row>
     <row r="203">
       <c r="A203" s="6">
-        <v>441.0</v>
+        <v>439.0</v>
       </c>
       <c r="B203" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C203" s="7">
-        <v>270.0</v>
+        <v>280.0</v>
       </c>
       <c r="D203" s="5" t="s">
         <v>3</v>
@@ -7728,16 +7731,16 @@
       <c r="Z203" s="4"/>
     </row>
     <row r="204">
-      <c r="A204" s="1">
-        <v>442.0</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C204" s="3">
-        <v>295.0</v>
-      </c>
-      <c r="D204" s="2" t="s">
+      <c r="A204" s="6">
+        <v>441.0</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C204" s="7">
+        <v>270.0</v>
+      </c>
+      <c r="D204" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E204" s="4"/>
@@ -7764,16 +7767,16 @@
       <c r="Z204" s="4"/>
     </row>
     <row r="205">
-      <c r="A205" s="6">
-        <v>443.0</v>
-      </c>
-      <c r="B205" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C205" s="7">
-        <v>305.0</v>
-      </c>
-      <c r="D205" s="5" t="s">
+      <c r="A205" s="1">
+        <v>442.0</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C205" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D205" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E205" s="4"/>
@@ -7801,13 +7804,13 @@
     </row>
     <row r="206">
       <c r="A206" s="6">
-        <v>444.0</v>
+        <v>443.0</v>
       </c>
       <c r="B206" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C206" s="7">
-        <v>250.0</v>
+        <v>305.0</v>
       </c>
       <c r="D206" s="5" t="s">
         <v>3</v>
@@ -7837,13 +7840,13 @@
     </row>
     <row r="207">
       <c r="A207" s="6">
-        <v>446.0</v>
+        <v>444.0</v>
       </c>
       <c r="B207" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C207" s="7">
-        <v>280.0</v>
+        <v>250.0</v>
       </c>
       <c r="D207" s="5" t="s">
         <v>3</v>
@@ -7873,13 +7876,13 @@
     </row>
     <row r="208">
       <c r="A208" s="6">
-        <v>450.0</v>
+        <v>446.0</v>
       </c>
       <c r="B208" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C208" s="7">
-        <v>260.0</v>
+        <v>280.0</v>
       </c>
       <c r="D208" s="5" t="s">
         <v>3</v>
@@ -7909,13 +7912,13 @@
     </row>
     <row r="209">
       <c r="A209" s="6">
-        <v>451.0</v>
+        <v>450.0</v>
       </c>
       <c r="B209" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C209" s="7">
-        <v>330.0</v>
+        <v>260.0</v>
       </c>
       <c r="D209" s="5" t="s">
         <v>3</v>
@@ -7945,13 +7948,13 @@
     </row>
     <row r="210">
       <c r="A210" s="6">
-        <v>452.0</v>
+        <v>451.0</v>
       </c>
       <c r="B210" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C210" s="7">
-        <v>290.0</v>
+        <v>330.0</v>
       </c>
       <c r="D210" s="5" t="s">
         <v>3</v>
@@ -7980,16 +7983,16 @@
       <c r="Z210" s="4"/>
     </row>
     <row r="211">
-      <c r="A211" s="1">
-        <v>456.0</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C211" s="3">
-        <v>235.0</v>
-      </c>
-      <c r="D211" s="2" t="s">
+      <c r="A211" s="6">
+        <v>452.0</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C211" s="7">
+        <v>290.0</v>
+      </c>
+      <c r="D211" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E211" s="4"/>
@@ -8017,13 +8020,13 @@
     </row>
     <row r="212">
       <c r="A212" s="1">
-        <v>457.0</v>
+        <v>456.0</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C212" s="3">
-        <v>250.0</v>
+        <v>235.0</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>3</v>
@@ -8052,16 +8055,16 @@
       <c r="Z212" s="4"/>
     </row>
     <row r="213">
-      <c r="A213" s="6">
-        <v>461.0</v>
-      </c>
-      <c r="B213" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C213" s="7">
-        <v>210.0</v>
-      </c>
-      <c r="D213" s="5" t="s">
+      <c r="A213" s="1">
+        <v>457.0</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C213" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D213" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E213" s="4"/>
@@ -8088,16 +8091,16 @@
       <c r="Z213" s="4"/>
     </row>
     <row r="214">
-      <c r="A214" s="1">
-        <v>463.0</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C214" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D214" s="2" t="s">
+      <c r="A214" s="6">
+        <v>461.0</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C214" s="7">
+        <v>210.0</v>
+      </c>
+      <c r="D214" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E214" s="4"/>
@@ -8125,13 +8128,13 @@
     </row>
     <row r="215">
       <c r="A215" s="1">
-        <v>470.0</v>
+        <v>463.0</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C215" s="3">
-        <v>265.0</v>
+        <v>310.0</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>3</v>
@@ -8160,16 +8163,16 @@
       <c r="Z215" s="4"/>
     </row>
     <row r="216">
-      <c r="A216" s="6">
-        <v>471.0</v>
-      </c>
-      <c r="B216" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C216" s="7">
-        <v>250.0</v>
-      </c>
-      <c r="D216" s="5" t="s">
+      <c r="A216" s="1">
+        <v>470.0</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C216" s="3">
+        <v>265.0</v>
+      </c>
+      <c r="D216" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E216" s="4"/>
@@ -8197,13 +8200,13 @@
     </row>
     <row r="217">
       <c r="A217" s="6">
-        <v>474.0</v>
+        <v>471.0</v>
       </c>
       <c r="B217" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C217" s="7">
-        <v>260.0</v>
+        <v>250.0</v>
       </c>
       <c r="D217" s="5" t="s">
         <v>3</v>
@@ -8233,13 +8236,13 @@
     </row>
     <row r="218">
       <c r="A218" s="6">
-        <v>476.0</v>
+        <v>474.0</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C218" s="7">
-        <v>255.0</v>
+        <v>260.0</v>
       </c>
       <c r="D218" s="5" t="s">
         <v>3</v>
@@ -8269,13 +8272,13 @@
     </row>
     <row r="219">
       <c r="A219" s="6">
-        <v>478.0</v>
+        <v>476.0</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C219" s="7">
-        <v>275.0</v>
+        <v>255.0</v>
       </c>
       <c r="D219" s="5" t="s">
         <v>3</v>
@@ -8305,13 +8308,13 @@
     </row>
     <row r="220">
       <c r="A220" s="6">
-        <v>480.0</v>
+        <v>478.0</v>
       </c>
       <c r="B220" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C220" s="7">
-        <v>290.0</v>
+        <v>275.0</v>
       </c>
       <c r="D220" s="5" t="s">
         <v>3</v>
@@ -8340,16 +8343,16 @@
       <c r="Z220" s="4"/>
     </row>
     <row r="221">
-      <c r="A221" s="1">
-        <v>485.0</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C221" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D221" s="2" t="s">
+      <c r="A221" s="6">
+        <v>480.0</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C221" s="7">
+        <v>290.0</v>
+      </c>
+      <c r="D221" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E221" s="4"/>
@@ -8376,16 +8379,16 @@
       <c r="Z221" s="4"/>
     </row>
     <row r="222">
-      <c r="A222" s="6">
-        <v>488.0</v>
-      </c>
-      <c r="B222" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C222" s="7">
-        <v>325.0</v>
-      </c>
-      <c r="D222" s="5" t="s">
+      <c r="A222" s="1">
+        <v>485.0</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C222" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D222" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E222" s="4"/>
@@ -8413,13 +8416,13 @@
     </row>
     <row r="223">
       <c r="A223" s="6">
-        <v>490.0</v>
+        <v>488.0</v>
       </c>
       <c r="B223" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C223" s="7">
-        <v>275.0</v>
+        <v>325.0</v>
       </c>
       <c r="D223" s="5" t="s">
         <v>3</v>
@@ -8449,13 +8452,13 @@
     </row>
     <row r="224">
       <c r="A224" s="6">
-        <v>492.0</v>
+        <v>490.0</v>
       </c>
       <c r="B224" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C224" s="7" t="s">
-        <v>16</v>
+      <c r="C224" s="7">
+        <v>275.0</v>
       </c>
       <c r="D224" s="5" t="s">
         <v>3</v>
@@ -8485,13 +8488,13 @@
     </row>
     <row r="225">
       <c r="A225" s="6">
-        <v>495.0</v>
+        <v>492.0</v>
       </c>
       <c r="B225" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D225" s="5" t="s">
         <v>3</v>
@@ -8520,16 +8523,16 @@
       <c r="Z225" s="4"/>
     </row>
     <row r="226">
-      <c r="A226" s="1">
-        <v>503.0</v>
-      </c>
-      <c r="B226" s="2" t="s">
+      <c r="A226" s="6">
+        <v>495.0</v>
+      </c>
+      <c r="B226" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D226" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D226" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E226" s="4"/>
@@ -8557,13 +8560,13 @@
     </row>
     <row r="227">
       <c r="A227" s="1">
-        <v>510.0</v>
+        <v>503.0</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C227" s="3">
-        <v>285.0</v>
+      <c r="C227" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>3</v>
@@ -8592,16 +8595,16 @@
       <c r="Z227" s="4"/>
     </row>
     <row r="228">
-      <c r="A228" s="6">
-        <v>514.0</v>
-      </c>
-      <c r="B228" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C228" s="7">
-        <v>315.0</v>
-      </c>
-      <c r="D228" s="5" t="s">
+      <c r="A228" s="1">
+        <v>510.0</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C228" s="3">
+        <v>285.0</v>
+      </c>
+      <c r="D228" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E228" s="4"/>
@@ -8629,13 +8632,13 @@
     </row>
     <row r="229">
       <c r="A229" s="6">
-        <v>516.0</v>
+        <v>514.0</v>
       </c>
       <c r="B229" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C229" s="7">
-        <v>265.0</v>
+        <v>315.0</v>
       </c>
       <c r="D229" s="5" t="s">
         <v>3</v>
@@ -8665,13 +8668,13 @@
     </row>
     <row r="230">
       <c r="A230" s="6">
-        <v>517.0</v>
+        <v>516.0</v>
       </c>
       <c r="B230" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C230" s="7">
-        <v>240.0</v>
+        <v>265.0</v>
       </c>
       <c r="D230" s="5" t="s">
         <v>3</v>
@@ -8701,13 +8704,13 @@
     </row>
     <row r="231">
       <c r="A231" s="6">
-        <v>518.0</v>
+        <v>517.0</v>
       </c>
       <c r="B231" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C231" s="7">
-        <v>270.0</v>
+        <v>240.0</v>
       </c>
       <c r="D231" s="5" t="s">
         <v>3</v>
@@ -8737,13 +8740,13 @@
     </row>
     <row r="232">
       <c r="A232" s="6">
-        <v>520.0</v>
+        <v>518.0</v>
       </c>
       <c r="B232" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C232" s="7">
-        <v>265.0</v>
+        <v>270.0</v>
       </c>
       <c r="D232" s="5" t="s">
         <v>3</v>
@@ -8773,13 +8776,13 @@
     </row>
     <row r="233">
       <c r="A233" s="6">
-        <v>522.0</v>
+        <v>520.0</v>
       </c>
       <c r="B233" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C233" s="7">
-        <v>290.0</v>
+        <v>265.0</v>
       </c>
       <c r="D233" s="5" t="s">
         <v>3</v>
@@ -8809,13 +8812,13 @@
     </row>
     <row r="234">
       <c r="A234" s="6">
-        <v>524.0</v>
+        <v>522.0</v>
       </c>
       <c r="B234" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C234" s="7">
-        <v>325.0</v>
+        <v>290.0</v>
       </c>
       <c r="D234" s="5" t="s">
         <v>3</v>
@@ -8845,13 +8848,13 @@
     </row>
     <row r="235">
       <c r="A235" s="6">
-        <v>527.0</v>
+        <v>524.0</v>
       </c>
       <c r="B235" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C235" s="7">
-        <v>230.0</v>
+        <v>325.0</v>
       </c>
       <c r="D235" s="5" t="s">
         <v>3</v>
@@ -8881,13 +8884,13 @@
     </row>
     <row r="236">
       <c r="A236" s="6">
-        <v>530.0</v>
+        <v>527.0</v>
       </c>
       <c r="B236" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C236" s="7">
-        <v>210.0</v>
+        <v>230.0</v>
       </c>
       <c r="D236" s="5" t="s">
         <v>3</v>
@@ -8917,13 +8920,13 @@
     </row>
     <row r="237">
       <c r="A237" s="6">
-        <v>532.0</v>
+        <v>530.0</v>
       </c>
       <c r="B237" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C237" s="7">
-        <v>290.0</v>
+        <v>210.0</v>
       </c>
       <c r="D237" s="5" t="s">
         <v>3</v>
@@ -8952,16 +8955,16 @@
       <c r="Z237" s="4"/>
     </row>
     <row r="238">
-      <c r="A238" s="1">
-        <v>534.0</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C238" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D238" s="2" t="s">
+      <c r="A238" s="6">
+        <v>532.0</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C238" s="7">
+        <v>290.0</v>
+      </c>
+      <c r="D238" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E238" s="4"/>
@@ -8989,13 +8992,13 @@
     </row>
     <row r="239">
       <c r="A239" s="1">
-        <v>535.0</v>
+        <v>534.0</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C239" s="3">
-        <v>295.0</v>
+      <c r="C239" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>3</v>
@@ -9024,16 +9027,16 @@
       <c r="Z239" s="4"/>
     </row>
     <row r="240">
-      <c r="A240" s="6">
-        <v>539.0</v>
-      </c>
-      <c r="B240" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C240" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D240" s="5" t="s">
+      <c r="A240" s="1">
+        <v>535.0</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C240" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D240" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E240" s="4"/>
@@ -9061,13 +9064,13 @@
     </row>
     <row r="241">
       <c r="A241" s="6">
-        <v>540.0</v>
+        <v>539.0</v>
       </c>
       <c r="B241" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C241" s="7">
-        <v>285.0</v>
+      <c r="C241" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="D241" s="5" t="s">
         <v>3</v>
@@ -9097,13 +9100,13 @@
     </row>
     <row r="242">
       <c r="A242" s="6">
-        <v>543.0</v>
+        <v>540.0</v>
       </c>
       <c r="B242" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C242" s="7">
-        <v>288.0</v>
+        <v>285.0</v>
       </c>
       <c r="D242" s="5" t="s">
         <v>3</v>
@@ -9133,13 +9136,13 @@
     </row>
     <row r="243">
       <c r="A243" s="6">
-        <v>546.0</v>
+        <v>543.0</v>
       </c>
       <c r="B243" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C243" s="7">
-        <v>265.0</v>
+        <v>288.0</v>
       </c>
       <c r="D243" s="5" t="s">
         <v>3</v>
@@ -9169,13 +9172,13 @@
     </row>
     <row r="244">
       <c r="A244" s="6">
-        <v>547.0</v>
+        <v>546.0</v>
       </c>
       <c r="B244" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C244" s="7">
-        <v>245.0</v>
+        <v>265.0</v>
       </c>
       <c r="D244" s="5" t="s">
         <v>3</v>
@@ -9205,13 +9208,13 @@
     </row>
     <row r="245">
       <c r="A245" s="6">
-        <v>549.0</v>
+        <v>547.0</v>
       </c>
       <c r="B245" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C245" s="7" t="s">
-        <v>25</v>
+      <c r="C245" s="7">
+        <v>245.0</v>
       </c>
       <c r="D245" s="5" t="s">
         <v>3</v>
@@ -9241,14 +9244,12 @@
     </row>
     <row r="246">
       <c r="A246" s="6">
-        <v>550.0</v>
+        <v>549.0</v>
       </c>
       <c r="B246" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C246" s="7">
-        <v>290.0</v>
-      </c>
+      <c r="C246" s="7"/>
       <c r="D246" s="5" t="s">
         <v>3</v>
       </c>
@@ -9277,13 +9278,13 @@
     </row>
     <row r="247">
       <c r="A247" s="6">
-        <v>551.0</v>
+        <v>550.0</v>
       </c>
       <c r="B247" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C247" s="7">
-        <v>270.0</v>
+        <v>290.0</v>
       </c>
       <c r="D247" s="5" t="s">
         <v>3</v>
@@ -9312,16 +9313,16 @@
       <c r="Z247" s="4"/>
     </row>
     <row r="248">
-      <c r="A248" s="1">
-        <v>552.0</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C248" s="3">
-        <v>280.0</v>
-      </c>
-      <c r="D248" s="2" t="s">
+      <c r="A248" s="6">
+        <v>551.0</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C248" s="7">
+        <v>270.0</v>
+      </c>
+      <c r="D248" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E248" s="4"/>
@@ -9348,16 +9349,16 @@
       <c r="Z248" s="4"/>
     </row>
     <row r="249">
-      <c r="A249" s="6">
-        <v>553.0</v>
-      </c>
-      <c r="B249" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C249" s="7">
-        <v>310.0</v>
-      </c>
-      <c r="D249" s="5" t="s">
+      <c r="A249" s="1">
+        <v>552.0</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C249" s="3">
+        <v>280.0</v>
+      </c>
+      <c r="D249" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E249" s="4"/>
@@ -9385,13 +9386,13 @@
     </row>
     <row r="250">
       <c r="A250" s="6">
-        <v>555.0</v>
+        <v>553.0</v>
       </c>
       <c r="B250" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C250" s="7">
-        <v>345.0</v>
+        <v>310.0</v>
       </c>
       <c r="D250" s="5" t="s">
         <v>3</v>
@@ -9421,13 +9422,13 @@
     </row>
     <row r="251">
       <c r="A251" s="6">
-        <v>556.0</v>
+        <v>555.0</v>
       </c>
       <c r="B251" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C251" s="7">
-        <v>280.0</v>
+        <v>345.0</v>
       </c>
       <c r="D251" s="5" t="s">
         <v>3</v>
@@ -9457,13 +9458,13 @@
     </row>
     <row r="252">
       <c r="A252" s="6">
-        <v>560.0</v>
+        <v>556.0</v>
       </c>
       <c r="B252" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C252" s="7">
-        <v>310.0</v>
+        <v>280.0</v>
       </c>
       <c r="D252" s="5" t="s">
         <v>3</v>
@@ -9492,16 +9493,16 @@
       <c r="Z252" s="4"/>
     </row>
     <row r="253">
-      <c r="A253" s="1">
-        <v>561.0</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C253" s="3">
-        <v>280.0</v>
-      </c>
-      <c r="D253" s="2" t="s">
+      <c r="A253" s="6">
+        <v>560.0</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C253" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D253" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E253" s="4"/>
@@ -9528,16 +9529,16 @@
       <c r="Z253" s="4"/>
     </row>
     <row r="254">
-      <c r="A254" s="6">
-        <v>562.0</v>
-      </c>
-      <c r="B254" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C254" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D254" s="5" t="s">
+      <c r="A254" s="1">
+        <v>561.0</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C254" s="3">
+        <v>280.0</v>
+      </c>
+      <c r="D254" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E254" s="4"/>
@@ -9565,13 +9566,13 @@
     </row>
     <row r="255">
       <c r="A255" s="6">
-        <v>564.0</v>
+        <v>562.0</v>
       </c>
       <c r="B255" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C255" s="7">
-        <v>260.0</v>
+      <c r="C255" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="D255" s="5" t="s">
         <v>3</v>
@@ -9600,16 +9601,16 @@
       <c r="Z255" s="4"/>
     </row>
     <row r="256">
-      <c r="A256" s="1">
-        <v>567.0</v>
-      </c>
-      <c r="B256" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C256" s="3">
-        <v>325.0</v>
-      </c>
-      <c r="D256" s="2" t="s">
+      <c r="A256" s="6">
+        <v>564.0</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C256" s="7">
+        <v>260.0</v>
+      </c>
+      <c r="D256" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E256" s="4"/>
@@ -9637,13 +9638,13 @@
     </row>
     <row r="257">
       <c r="A257" s="1">
-        <v>576.0</v>
+        <v>567.0</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C257" s="3">
-        <v>260.0</v>
+        <v>325.0</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>3</v>
@@ -9672,16 +9673,16 @@
       <c r="Z257" s="4"/>
     </row>
     <row r="258">
-      <c r="A258" s="6">
-        <v>577.0</v>
-      </c>
-      <c r="B258" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C258" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D258" s="5" t="s">
+      <c r="A258" s="1">
+        <v>576.0</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C258" s="3">
+        <v>260.0</v>
+      </c>
+      <c r="D258" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E258" s="4"/>
@@ -9708,14 +9709,14 @@
       <c r="Z258" s="4"/>
     </row>
     <row r="259">
-      <c r="A259" s="8">
-        <v>578.0</v>
+      <c r="A259" s="6">
+        <v>577.0</v>
       </c>
       <c r="B259" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C259" s="7" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D259" s="5" t="s">
         <v>3</v>
@@ -9745,13 +9746,13 @@
     </row>
     <row r="260">
       <c r="A260" s="8">
-        <v>579.0</v>
+        <v>578.0</v>
       </c>
       <c r="B260" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C260" s="7">
-        <v>235.0</v>
+      <c r="C260" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="D260" s="5" t="s">
         <v>3</v>
@@ -9781,13 +9782,13 @@
     </row>
     <row r="261">
       <c r="A261" s="8">
-        <v>580.0</v>
+        <v>579.0</v>
       </c>
       <c r="B261" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C261" s="7">
-        <v>240.0</v>
+        <v>235.0</v>
       </c>
       <c r="D261" s="5" t="s">
         <v>3</v>
@@ -9816,16 +9817,16 @@
       <c r="Z261" s="4"/>
     </row>
     <row r="262">
-      <c r="A262" s="1">
-        <v>583.0</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C262" s="3">
-        <v>320.0</v>
-      </c>
-      <c r="D262" s="2" t="s">
+      <c r="A262" s="8">
+        <v>580.0</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C262" s="7">
+        <v>240.0</v>
+      </c>
+      <c r="D262" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E262" s="4"/>
@@ -9853,13 +9854,13 @@
     </row>
     <row r="263">
       <c r="A263" s="1">
-        <v>584.0</v>
+        <v>583.0</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C263" s="7">
-        <v>275.0</v>
+      <c r="C263" s="3">
+        <v>320.0</v>
       </c>
       <c r="D263" s="2" t="s">
         <v>3</v>
@@ -9888,16 +9889,16 @@
       <c r="Z263" s="4"/>
     </row>
     <row r="264">
-      <c r="A264" s="6">
-        <v>585.0</v>
-      </c>
-      <c r="B264" s="5" t="s">
+      <c r="A264" s="1">
+        <v>584.0</v>
+      </c>
+      <c r="B264" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C264" s="7">
-        <v>235.0</v>
-      </c>
-      <c r="D264" s="5" t="s">
+        <v>275.0</v>
+      </c>
+      <c r="D264" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E264" s="4"/>
@@ -9924,16 +9925,16 @@
       <c r="Z264" s="4"/>
     </row>
     <row r="265">
-      <c r="A265" s="1">
-        <v>586.0</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C265" s="3">
-        <v>240.0</v>
-      </c>
-      <c r="D265" s="2" t="s">
+      <c r="A265" s="6">
+        <v>585.0</v>
+      </c>
+      <c r="B265" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C265" s="7">
+        <v>235.0</v>
+      </c>
+      <c r="D265" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E265" s="4"/>
@@ -9960,16 +9961,16 @@
       <c r="Z265" s="4"/>
     </row>
     <row r="266">
-      <c r="A266" s="6">
-        <v>587.0</v>
-      </c>
-      <c r="B266" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C266" s="7">
-        <v>265.0</v>
-      </c>
-      <c r="D266" s="5" t="s">
+      <c r="A266" s="1">
+        <v>586.0</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C266" s="3">
+        <v>240.0</v>
+      </c>
+      <c r="D266" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E266" s="4"/>
@@ -9997,7 +9998,7 @@
     </row>
     <row r="267">
       <c r="A267" s="6">
-        <v>589.0</v>
+        <v>587.0</v>
       </c>
       <c r="B267" s="5" t="s">
         <v>3</v>
@@ -10033,13 +10034,13 @@
     </row>
     <row r="268">
       <c r="A268" s="6">
-        <v>590.0</v>
+        <v>589.0</v>
       </c>
       <c r="B268" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C268" s="7" t="s">
-        <v>27</v>
+      <c r="C268" s="7">
+        <v>265.0</v>
       </c>
       <c r="D268" s="5" t="s">
         <v>3</v>
@@ -10069,13 +10070,13 @@
     </row>
     <row r="269">
       <c r="A269" s="6">
-        <v>591.0</v>
+        <v>590.0</v>
       </c>
       <c r="B269" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C269" s="7" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D269" s="5" t="s">
         <v>3</v>
@@ -10104,16 +10105,16 @@
       <c r="Z269" s="4"/>
     </row>
     <row r="270">
-      <c r="A270" s="1">
-        <v>593.0</v>
-      </c>
-      <c r="B270" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C270" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D270" s="2" t="s">
+      <c r="A270" s="6">
+        <v>591.0</v>
+      </c>
+      <c r="B270" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C270" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D270" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E270" s="4"/>
@@ -10140,16 +10141,16 @@
       <c r="Z270" s="4"/>
     </row>
     <row r="271">
-      <c r="A271" s="6">
-        <v>596.0</v>
-      </c>
-      <c r="B271" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C271" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D271" s="5" t="s">
+      <c r="A271" s="1">
+        <v>593.0</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C271" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D271" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E271" s="4"/>
@@ -10177,13 +10178,13 @@
     </row>
     <row r="272">
       <c r="A272" s="6">
-        <v>597.0</v>
+        <v>595.0</v>
       </c>
       <c r="B272" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C272" s="7">
-        <v>320.0</v>
+        <v>280.0</v>
       </c>
       <c r="D272" s="5" t="s">
         <v>3</v>
@@ -10213,13 +10214,13 @@
     </row>
     <row r="273">
       <c r="A273" s="6">
-        <v>599.0</v>
+        <v>596.0</v>
       </c>
       <c r="B273" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C273" s="7">
-        <v>280.0</v>
+      <c r="C273" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="D273" s="5" t="s">
         <v>3</v>
@@ -10249,13 +10250,13 @@
     </row>
     <row r="274">
       <c r="A274" s="6">
-        <v>601.0</v>
+        <v>597.0</v>
       </c>
       <c r="B274" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C274" s="7">
-        <v>305.0</v>
+        <v>320.0</v>
       </c>
       <c r="D274" s="5" t="s">
         <v>3</v>
@@ -10284,16 +10285,16 @@
       <c r="Z274" s="4"/>
     </row>
     <row r="275">
-      <c r="A275" s="1">
-        <v>604.0</v>
-      </c>
-      <c r="B275" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C275" s="3">
-        <v>295.0</v>
-      </c>
-      <c r="D275" s="2" t="s">
+      <c r="A275" s="6">
+        <v>599.0</v>
+      </c>
+      <c r="B275" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C275" s="7">
+        <v>280.0</v>
+      </c>
+      <c r="D275" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E275" s="4"/>
@@ -10321,15 +10322,15 @@
     </row>
     <row r="276">
       <c r="A276" s="6">
-        <v>605.0</v>
-      </c>
-      <c r="B276" s="2" t="s">
+        <v>601.0</v>
+      </c>
+      <c r="B276" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C276" s="7">
-        <v>270.0</v>
-      </c>
-      <c r="D276" s="2" t="s">
+        <v>305.0</v>
+      </c>
+      <c r="D276" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E276" s="4"/>
@@ -10356,16 +10357,16 @@
       <c r="Z276" s="4"/>
     </row>
     <row r="277">
-      <c r="A277" s="6">
-        <v>610.0</v>
-      </c>
-      <c r="B277" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C277" s="7">
-        <v>260.0</v>
-      </c>
-      <c r="D277" s="5" t="s">
+      <c r="A277" s="1">
+        <v>604.0</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C277" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D277" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E277" s="4"/>
@@ -10393,15 +10394,15 @@
     </row>
     <row r="278">
       <c r="A278" s="6">
-        <v>611.0</v>
-      </c>
-      <c r="B278" s="5" t="s">
+        <v>605.0</v>
+      </c>
+      <c r="B278" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C278" s="7">
-        <v>260.0</v>
-      </c>
-      <c r="D278" s="5" t="s">
+        <v>270.0</v>
+      </c>
+      <c r="D278" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E278" s="4"/>
@@ -10428,16 +10429,16 @@
       <c r="Z278" s="4"/>
     </row>
     <row r="279">
-      <c r="A279" s="1">
-        <v>612.0</v>
-      </c>
-      <c r="B279" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C279" s="3">
-        <v>255.0</v>
-      </c>
-      <c r="D279" s="2" t="s">
+      <c r="A279" s="6">
+        <v>610.0</v>
+      </c>
+      <c r="B279" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C279" s="7">
+        <v>260.0</v>
+      </c>
+      <c r="D279" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E279" s="4"/>
@@ -10465,13 +10466,13 @@
     </row>
     <row r="280">
       <c r="A280" s="6">
-        <v>615.0</v>
+        <v>611.0</v>
       </c>
       <c r="B280" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C280" s="7" t="s">
-        <v>5</v>
+      <c r="C280" s="7">
+        <v>260.0</v>
       </c>
       <c r="D280" s="5" t="s">
         <v>3</v>
@@ -10501,13 +10502,13 @@
     </row>
     <row r="281">
       <c r="A281" s="1">
-        <v>617.0</v>
+        <v>612.0</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C281" s="3">
-        <v>330.0</v>
+        <v>255.0</v>
       </c>
       <c r="D281" s="2" t="s">
         <v>3</v>
@@ -10537,13 +10538,13 @@
     </row>
     <row r="282">
       <c r="A282" s="6">
-        <v>618.0</v>
+        <v>615.0</v>
       </c>
       <c r="B282" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C282" s="7">
-        <v>330.0</v>
+      <c r="C282" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="D282" s="5" t="s">
         <v>3</v>
@@ -10572,16 +10573,16 @@
       <c r="Z282" s="4"/>
     </row>
     <row r="283">
-      <c r="A283" s="6">
-        <v>621.0</v>
-      </c>
-      <c r="B283" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C283" s="7">
-        <v>325.0</v>
-      </c>
-      <c r="D283" s="5" t="s">
+      <c r="A283" s="1">
+        <v>617.0</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C283" s="3">
+        <v>330.0</v>
+      </c>
+      <c r="D283" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E283" s="4"/>
@@ -10609,13 +10610,13 @@
     </row>
     <row r="284">
       <c r="A284" s="6">
-        <v>622.0</v>
+        <v>618.0</v>
       </c>
       <c r="B284" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C284" s="7" t="s">
-        <v>29</v>
+      <c r="C284" s="7">
+        <v>330.0</v>
       </c>
       <c r="D284" s="5" t="s">
         <v>3</v>
@@ -10644,16 +10645,16 @@
       <c r="Z284" s="4"/>
     </row>
     <row r="285">
-      <c r="A285" s="1">
-        <v>623.0</v>
-      </c>
-      <c r="B285" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C285" s="3">
-        <v>290.0</v>
-      </c>
-      <c r="D285" s="2" t="s">
+      <c r="A285" s="6">
+        <v>621.0</v>
+      </c>
+      <c r="B285" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C285" s="7">
+        <v>325.0</v>
+      </c>
+      <c r="D285" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E285" s="4"/>
@@ -10681,13 +10682,13 @@
     </row>
     <row r="286">
       <c r="A286" s="6">
-        <v>624.0</v>
+        <v>622.0</v>
       </c>
       <c r="B286" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C286" s="7">
-        <v>310.0</v>
+      <c r="C286" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="D286" s="5" t="s">
         <v>3</v>
@@ -10717,13 +10718,13 @@
     </row>
     <row r="287">
       <c r="A287" s="1">
-        <v>625.0</v>
+        <v>623.0</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C287" s="3">
-        <v>320.0</v>
+        <v>290.0</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>3</v>
@@ -10752,16 +10753,16 @@
       <c r="Z287" s="4"/>
     </row>
     <row r="288">
-      <c r="A288" s="1">
-        <v>626.0</v>
-      </c>
-      <c r="B288" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C288" s="3">
-        <v>305.0</v>
-      </c>
-      <c r="D288" s="2" t="s">
+      <c r="A288" s="6">
+        <v>624.0</v>
+      </c>
+      <c r="B288" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C288" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D288" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E288" s="4"/>
@@ -10788,16 +10789,16 @@
       <c r="Z288" s="4"/>
     </row>
     <row r="289">
-      <c r="A289" s="6">
-        <v>628.0</v>
-      </c>
-      <c r="B289" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C289" s="7">
-        <v>305.0</v>
-      </c>
-      <c r="D289" s="5" t="s">
+      <c r="A289" s="1">
+        <v>625.0</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C289" s="3">
+        <v>320.0</v>
+      </c>
+      <c r="D289" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E289" s="4"/>
@@ -10825,13 +10826,13 @@
     </row>
     <row r="290">
       <c r="A290" s="1">
-        <v>635.0</v>
+        <v>626.0</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C290" s="3">
-        <v>295.0</v>
+        <v>305.0</v>
       </c>
       <c r="D290" s="2" t="s">
         <v>3</v>
@@ -10861,13 +10862,13 @@
     </row>
     <row r="291">
       <c r="A291" s="6">
-        <v>636.0</v>
+        <v>628.0</v>
       </c>
       <c r="B291" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C291" s="7">
-        <v>315.0</v>
+        <v>305.0</v>
       </c>
       <c r="D291" s="5" t="s">
         <v>3</v>
@@ -10896,16 +10897,16 @@
       <c r="Z291" s="4"/>
     </row>
     <row r="292">
-      <c r="A292" s="6">
-        <v>640.0</v>
-      </c>
-      <c r="B292" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C292" s="7">
-        <v>275.0</v>
-      </c>
-      <c r="D292" s="5" t="s">
+      <c r="A292" s="1">
+        <v>635.0</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C292" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D292" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E292" s="4"/>
@@ -10932,16 +10933,16 @@
       <c r="Z292" s="4"/>
     </row>
     <row r="293">
-      <c r="A293" s="1">
-        <v>642.0</v>
-      </c>
-      <c r="B293" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C293" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D293" s="2" t="s">
+      <c r="A293" s="6">
+        <v>636.0</v>
+      </c>
+      <c r="B293" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C293" s="7">
+        <v>315.0</v>
+      </c>
+      <c r="D293" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E293" s="4"/>
@@ -10968,16 +10969,16 @@
       <c r="Z293" s="4"/>
     </row>
     <row r="294">
-      <c r="A294" s="1">
-        <v>643.0</v>
-      </c>
-      <c r="B294" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C294" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D294" s="2" t="s">
+      <c r="A294" s="6">
+        <v>640.0</v>
+      </c>
+      <c r="B294" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C294" s="7">
+        <v>275.0</v>
+      </c>
+      <c r="D294" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E294" s="4"/>
@@ -11004,14 +11005,14 @@
       <c r="Z294" s="4"/>
     </row>
     <row r="295">
-      <c r="A295" s="6">
-        <v>651.0</v>
+      <c r="A295" s="1">
+        <v>642.0</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C295" s="7">
-        <v>230.0</v>
+      <c r="C295" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="D295" s="2" t="s">
         <v>3</v>
@@ -11041,13 +11042,13 @@
     </row>
     <row r="296">
       <c r="A296" s="1">
-        <v>652.0</v>
+        <v>643.0</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C296" s="3">
-        <v>330.0</v>
+        <v>310.0</v>
       </c>
       <c r="D296" s="2" t="s">
         <v>3</v>
@@ -11077,15 +11078,15 @@
     </row>
     <row r="297">
       <c r="A297" s="6">
-        <v>655.0</v>
-      </c>
-      <c r="B297" s="5" t="s">
+        <v>651.0</v>
+      </c>
+      <c r="B297" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C297" s="7">
-        <v>295.0</v>
-      </c>
-      <c r="D297" s="5" t="s">
+        <v>230.0</v>
+      </c>
+      <c r="D297" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E297" s="4"/>
@@ -11112,16 +11113,16 @@
       <c r="Z297" s="4"/>
     </row>
     <row r="298">
-      <c r="A298" s="6">
-        <v>657.0</v>
-      </c>
-      <c r="B298" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C298" s="7">
-        <v>335.0</v>
-      </c>
-      <c r="D298" s="5" t="s">
+      <c r="A298" s="1">
+        <v>652.0</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C298" s="3">
+        <v>330.0</v>
+      </c>
+      <c r="D298" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E298" s="4"/>
@@ -11149,13 +11150,13 @@
     </row>
     <row r="299">
       <c r="A299" s="6">
-        <v>658.0</v>
+        <v>655.0</v>
       </c>
       <c r="B299" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C299" s="7">
-        <v>255.0</v>
+        <v>295.0</v>
       </c>
       <c r="D299" s="5" t="s">
         <v>3</v>
@@ -11185,13 +11186,13 @@
     </row>
     <row r="300">
       <c r="A300" s="6">
-        <v>659.0</v>
+        <v>657.0</v>
       </c>
       <c r="B300" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C300" s="7">
-        <v>305.0</v>
+        <v>335.0</v>
       </c>
       <c r="D300" s="5" t="s">
         <v>3</v>
@@ -11220,16 +11221,16 @@
       <c r="Z300" s="4"/>
     </row>
     <row r="301">
-      <c r="A301" s="1">
-        <v>663.0</v>
-      </c>
-      <c r="B301" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C301" s="3">
-        <v>265.0</v>
-      </c>
-      <c r="D301" s="2" t="s">
+      <c r="A301" s="6">
+        <v>658.0</v>
+      </c>
+      <c r="B301" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C301" s="7">
+        <v>255.0</v>
+      </c>
+      <c r="D301" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E301" s="4"/>
@@ -11257,13 +11258,13 @@
     </row>
     <row r="302">
       <c r="A302" s="6">
-        <v>666.0</v>
+        <v>659.0</v>
       </c>
       <c r="B302" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C302" s="7">
-        <v>300.0</v>
+        <v>305.0</v>
       </c>
       <c r="D302" s="5" t="s">
         <v>3</v>
@@ -11293,13 +11294,13 @@
     </row>
     <row r="303">
       <c r="A303" s="1">
-        <v>668.0</v>
+        <v>663.0</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C303" s="3">
-        <v>305.0</v>
+        <v>265.0</v>
       </c>
       <c r="D303" s="2" t="s">
         <v>3</v>
@@ -11329,13 +11330,13 @@
     </row>
     <row r="304">
       <c r="A304" s="6">
-        <v>669.0</v>
+        <v>666.0</v>
       </c>
       <c r="B304" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C304" s="7">
-        <v>310.0</v>
+        <v>300.0</v>
       </c>
       <c r="D304" s="5" t="s">
         <v>3</v>
@@ -11365,13 +11366,13 @@
     </row>
     <row r="305">
       <c r="A305" s="1">
-        <v>670.0</v>
+        <v>668.0</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C305" s="7" t="s">
-        <v>30</v>
+      <c r="C305" s="3">
+        <v>305.0</v>
       </c>
       <c r="D305" s="2" t="s">
         <v>3</v>
@@ -11400,16 +11401,16 @@
       <c r="Z305" s="4"/>
     </row>
     <row r="306">
-      <c r="A306" s="1">
-        <v>671.0</v>
-      </c>
-      <c r="B306" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C306" s="3">
-        <v>305.0</v>
-      </c>
-      <c r="D306" s="2" t="s">
+      <c r="A306" s="6">
+        <v>669.0</v>
+      </c>
+      <c r="B306" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C306" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D306" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E306" s="4"/>
@@ -11437,13 +11438,13 @@
     </row>
     <row r="307">
       <c r="A307" s="1">
-        <v>672.0</v>
+        <v>670.0</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C307" s="3">
-        <v>295.0</v>
+      <c r="C307" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="D307" s="2" t="s">
         <v>3</v>
@@ -11472,16 +11473,16 @@
       <c r="Z307" s="4"/>
     </row>
     <row r="308">
-      <c r="A308" s="6">
-        <v>674.0</v>
-      </c>
-      <c r="B308" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C308" s="7">
-        <v>320.0</v>
-      </c>
-      <c r="D308" s="5" t="s">
+      <c r="A308" s="1">
+        <v>671.0</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C308" s="3">
+        <v>305.0</v>
+      </c>
+      <c r="D308" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E308" s="4"/>
@@ -11508,16 +11509,16 @@
       <c r="Z308" s="4"/>
     </row>
     <row r="309">
-      <c r="A309" s="6">
-        <v>676.0</v>
-      </c>
-      <c r="B309" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C309" s="7">
-        <v>335.0</v>
-      </c>
-      <c r="D309" s="5" t="s">
+      <c r="A309" s="1">
+        <v>672.0</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C309" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D309" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E309" s="4"/>
@@ -11544,16 +11545,16 @@
       <c r="Z309" s="4"/>
     </row>
     <row r="310">
-      <c r="A310" s="1">
-        <v>680.0</v>
-      </c>
-      <c r="B310" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C310" s="3">
-        <v>285.0</v>
-      </c>
-      <c r="D310" s="2" t="s">
+      <c r="A310" s="6">
+        <v>674.0</v>
+      </c>
+      <c r="B310" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C310" s="7">
+        <v>320.0</v>
+      </c>
+      <c r="D310" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E310" s="4"/>
@@ -11580,16 +11581,16 @@
       <c r="Z310" s="4"/>
     </row>
     <row r="311">
-      <c r="A311" s="1">
-        <v>688.0</v>
-      </c>
-      <c r="B311" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C311" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D311" s="2" t="s">
+      <c r="A311" s="6">
+        <v>676.0</v>
+      </c>
+      <c r="B311" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C311" s="7">
+        <v>335.0</v>
+      </c>
+      <c r="D311" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E311" s="4"/>
@@ -11616,14 +11617,14 @@
       <c r="Z311" s="4"/>
     </row>
     <row r="312">
-      <c r="A312" s="9">
-        <v>692.0</v>
+      <c r="A312" s="1">
+        <v>680.0</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C312" s="9">
-        <v>300.0</v>
+      <c r="C312" s="3">
+        <v>285.0</v>
       </c>
       <c r="D312" s="2" t="s">
         <v>3</v>
@@ -11652,16 +11653,16 @@
       <c r="Z312" s="4"/>
     </row>
     <row r="313">
-      <c r="A313" s="6">
-        <v>694.0</v>
-      </c>
-      <c r="B313" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C313" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D313" s="5" t="s">
+      <c r="A313" s="1">
+        <v>688.0</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C313" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D313" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E313" s="4"/>
@@ -11688,13 +11689,13 @@
       <c r="Z313" s="4"/>
     </row>
     <row r="314">
-      <c r="A314" s="1">
-        <v>696.0</v>
+      <c r="A314" s="9">
+        <v>692.0</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C314" s="3">
+      <c r="C314" s="9">
         <v>300.0</v>
       </c>
       <c r="D314" s="2" t="s">
@@ -11725,13 +11726,13 @@
     </row>
     <row r="315">
       <c r="A315" s="6">
-        <v>697.0</v>
+        <v>694.0</v>
       </c>
       <c r="B315" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C315" s="7">
-        <v>250.0</v>
+      <c r="C315" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="D315" s="5" t="s">
         <v>3</v>
@@ -11760,16 +11761,16 @@
       <c r="Z315" s="4"/>
     </row>
     <row r="316">
-      <c r="A316" s="6">
-        <v>705.0</v>
-      </c>
-      <c r="B316" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C316" s="7">
-        <v>280.0</v>
-      </c>
-      <c r="D316" s="5" t="s">
+      <c r="A316" s="1">
+        <v>696.0</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C316" s="3">
+        <v>300.0</v>
+      </c>
+      <c r="D316" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E316" s="4"/>
@@ -11797,13 +11798,13 @@
     </row>
     <row r="317">
       <c r="A317" s="6">
-        <v>706.0</v>
+        <v>697.0</v>
       </c>
       <c r="B317" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C317" s="7">
-        <v>320.0</v>
+        <v>250.0</v>
       </c>
       <c r="D317" s="5" t="s">
         <v>3</v>
@@ -11833,13 +11834,13 @@
     </row>
     <row r="318">
       <c r="A318" s="6">
-        <v>709.0</v>
+        <v>705.0</v>
       </c>
       <c r="B318" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C318" s="7">
-        <v>320.0</v>
+        <v>280.0</v>
       </c>
       <c r="D318" s="5" t="s">
         <v>3</v>
@@ -11869,13 +11870,13 @@
     </row>
     <row r="319">
       <c r="A319" s="6">
-        <v>710.0</v>
+        <v>706.0</v>
       </c>
       <c r="B319" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C319" s="7" t="s">
-        <v>32</v>
+      <c r="C319" s="7">
+        <v>320.0</v>
       </c>
       <c r="D319" s="5" t="s">
         <v>3</v>
@@ -11905,13 +11906,13 @@
     </row>
     <row r="320">
       <c r="A320" s="6">
-        <v>712.0</v>
+        <v>709.0</v>
       </c>
       <c r="B320" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C320" s="7">
-        <v>295.0</v>
+        <v>320.0</v>
       </c>
       <c r="D320" s="5" t="s">
         <v>3</v>
@@ -11941,7 +11942,7 @@
     </row>
     <row r="321">
       <c r="A321" s="6">
-        <v>713.0</v>
+        <v>710.0</v>
       </c>
       <c r="B321" s="5" t="s">
         <v>3</v>
@@ -11976,16 +11977,16 @@
       <c r="Z321" s="4"/>
     </row>
     <row r="322">
-      <c r="A322" s="1">
-        <v>714.0</v>
-      </c>
-      <c r="B322" s="2" t="s">
+      <c r="A322" s="6">
+        <v>712.0</v>
+      </c>
+      <c r="B322" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C322" s="7">
-        <v>280.0</v>
-      </c>
-      <c r="D322" s="2" t="s">
+        <v>295.0</v>
+      </c>
+      <c r="D322" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E322" s="4"/>
@@ -12013,13 +12014,13 @@
     </row>
     <row r="323">
       <c r="A323" s="6">
-        <v>715.0</v>
+        <v>713.0</v>
       </c>
       <c r="B323" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C323" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D323" s="5" t="s">
         <v>3</v>
@@ -12049,13 +12050,13 @@
     </row>
     <row r="324">
       <c r="A324" s="1">
-        <v>718.0</v>
+        <v>714.0</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C324" s="3">
-        <v>330.0</v>
+      <c r="C324" s="7">
+        <v>280.0</v>
       </c>
       <c r="D324" s="2" t="s">
         <v>3</v>
@@ -12084,16 +12085,16 @@
       <c r="Z324" s="4"/>
     </row>
     <row r="325">
-      <c r="A325" s="1">
-        <v>719.0</v>
-      </c>
-      <c r="B325" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C325" s="3">
-        <v>280.0</v>
-      </c>
-      <c r="D325" s="2" t="s">
+      <c r="A325" s="6">
+        <v>715.0</v>
+      </c>
+      <c r="B325" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C325" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D325" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E325" s="4"/>
@@ -12120,16 +12121,16 @@
       <c r="Z325" s="4"/>
     </row>
     <row r="326">
-      <c r="A326" s="6">
-        <v>724.0</v>
-      </c>
-      <c r="B326" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C326" s="7">
+      <c r="A326" s="1">
+        <v>718.0</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C326" s="3">
         <v>330.0</v>
       </c>
-      <c r="D326" s="5" t="s">
+      <c r="D326" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E326" s="4"/>
@@ -12156,16 +12157,16 @@
       <c r="Z326" s="4"/>
     </row>
     <row r="327">
-      <c r="A327" s="6">
-        <v>725.0</v>
-      </c>
-      <c r="B327" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C327" s="7">
-        <v>245.0</v>
-      </c>
-      <c r="D327" s="5" t="s">
+      <c r="A327" s="1">
+        <v>719.0</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C327" s="3">
+        <v>280.0</v>
+      </c>
+      <c r="D327" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E327" s="4"/>
@@ -12193,13 +12194,13 @@
     </row>
     <row r="328">
       <c r="A328" s="6">
-        <v>729.0</v>
+        <v>724.0</v>
       </c>
       <c r="B328" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C328" s="7">
-        <v>275.0</v>
+        <v>330.0</v>
       </c>
       <c r="D328" s="5" t="s">
         <v>3</v>
@@ -12229,13 +12230,13 @@
     </row>
     <row r="329">
       <c r="A329" s="6">
-        <v>730.0</v>
+        <v>725.0</v>
       </c>
       <c r="B329" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C329" s="7">
-        <v>315.0</v>
+        <v>245.0</v>
       </c>
       <c r="D329" s="5" t="s">
         <v>3</v>
@@ -12265,13 +12266,13 @@
     </row>
     <row r="330">
       <c r="A330" s="6">
-        <v>731.0</v>
+        <v>729.0</v>
       </c>
       <c r="B330" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C330" s="7">
-        <v>260.0</v>
+        <v>275.0</v>
       </c>
       <c r="D330" s="5" t="s">
         <v>3</v>
@@ -12300,16 +12301,16 @@
       <c r="Z330" s="4"/>
     </row>
     <row r="331">
-      <c r="A331" s="1">
-        <v>732.0</v>
-      </c>
-      <c r="B331" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C331" s="3">
-        <v>280.0</v>
-      </c>
-      <c r="D331" s="2" t="s">
+      <c r="A331" s="6">
+        <v>730.0</v>
+      </c>
+      <c r="B331" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C331" s="7">
+        <v>315.0</v>
+      </c>
+      <c r="D331" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E331" s="4"/>
@@ -12336,16 +12337,16 @@
       <c r="Z331" s="4"/>
     </row>
     <row r="332">
-      <c r="A332" s="1">
-        <v>733.0</v>
-      </c>
-      <c r="B332" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C332" s="3">
-        <v>320.0</v>
-      </c>
-      <c r="D332" s="2" t="s">
+      <c r="A332" s="6">
+        <v>731.0</v>
+      </c>
+      <c r="B332" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C332" s="7">
+        <v>260.0</v>
+      </c>
+      <c r="D332" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E332" s="4"/>
@@ -12373,13 +12374,13 @@
     </row>
     <row r="333">
       <c r="A333" s="1">
-        <v>736.0</v>
+        <v>732.0</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C333" s="3">
-        <v>250.0</v>
+        <v>280.0</v>
       </c>
       <c r="D333" s="2" t="s">
         <v>3</v>
@@ -12408,16 +12409,16 @@
       <c r="Z333" s="4"/>
     </row>
     <row r="334">
-      <c r="A334" s="6">
-        <v>741.0</v>
-      </c>
-      <c r="B334" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C334" s="7">
-        <v>280.0</v>
-      </c>
-      <c r="D334" s="5" t="s">
+      <c r="A334" s="1">
+        <v>733.0</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C334" s="3">
+        <v>320.0</v>
+      </c>
+      <c r="D334" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E334" s="4"/>
@@ -12444,16 +12445,16 @@
       <c r="Z334" s="4"/>
     </row>
     <row r="335">
-      <c r="A335" s="6">
-        <v>742.0</v>
-      </c>
-      <c r="B335" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C335" s="7">
-        <v>240.0</v>
-      </c>
-      <c r="D335" s="5" t="s">
+      <c r="A335" s="1">
+        <v>736.0</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C335" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D335" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E335" s="4"/>
@@ -12480,16 +12481,16 @@
       <c r="Z335" s="4"/>
     </row>
     <row r="336">
-      <c r="A336" s="1">
-        <v>744.0</v>
-      </c>
-      <c r="B336" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C336" s="3">
-        <v>270.0</v>
-      </c>
-      <c r="D336" s="2" t="s">
+      <c r="A336" s="6">
+        <v>741.0</v>
+      </c>
+      <c r="B336" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C336" s="7">
+        <v>280.0</v>
+      </c>
+      <c r="D336" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E336" s="4"/>
@@ -12516,16 +12517,16 @@
       <c r="Z336" s="4"/>
     </row>
     <row r="337">
-      <c r="A337" s="1">
-        <v>747.0</v>
-      </c>
-      <c r="B337" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C337" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D337" s="2" t="s">
+      <c r="A337" s="6">
+        <v>742.0</v>
+      </c>
+      <c r="B337" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C337" s="7">
+        <v>240.0</v>
+      </c>
+      <c r="D337" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E337" s="4"/>
@@ -12552,16 +12553,16 @@
       <c r="Z337" s="4"/>
     </row>
     <row r="338">
-      <c r="A338" s="6">
-        <v>748.0</v>
-      </c>
-      <c r="B338" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C338" s="7">
-        <v>230.0</v>
-      </c>
-      <c r="D338" s="5" t="s">
+      <c r="A338" s="1">
+        <v>744.0</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C338" s="3">
+        <v>270.0</v>
+      </c>
+      <c r="D338" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E338" s="4"/>
@@ -12589,13 +12590,13 @@
     </row>
     <row r="339">
       <c r="A339" s="1">
-        <v>749.0</v>
+        <v>747.0</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C339" s="3">
-        <v>335.0</v>
+        <v>250.0</v>
       </c>
       <c r="D339" s="2" t="s">
         <v>3</v>
@@ -12625,13 +12626,13 @@
     </row>
     <row r="340">
       <c r="A340" s="6">
-        <v>754.0</v>
+        <v>748.0</v>
       </c>
       <c r="B340" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C340" s="7" t="s">
-        <v>17</v>
+      <c r="C340" s="7">
+        <v>230.0</v>
       </c>
       <c r="D340" s="5" t="s">
         <v>3</v>
@@ -12660,16 +12661,16 @@
       <c r="Z340" s="4"/>
     </row>
     <row r="341">
-      <c r="A341" s="6">
-        <v>755.0</v>
-      </c>
-      <c r="B341" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C341" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D341" s="5" t="s">
+      <c r="A341" s="1">
+        <v>749.0</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C341" s="3">
+        <v>335.0</v>
+      </c>
+      <c r="D341" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E341" s="4"/>
@@ -12697,13 +12698,13 @@
     </row>
     <row r="342">
       <c r="A342" s="6">
-        <v>757.0</v>
+        <v>754.0</v>
       </c>
       <c r="B342" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C342" s="7">
-        <v>280.0</v>
+      <c r="C342" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="D342" s="5" t="s">
         <v>3</v>
@@ -12732,16 +12733,16 @@
       <c r="Z342" s="4"/>
     </row>
     <row r="343">
-      <c r="A343" s="1">
-        <v>758.0</v>
-      </c>
-      <c r="B343" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C343" s="3">
-        <v>295.0</v>
-      </c>
-      <c r="D343" s="2" t="s">
+      <c r="A343" s="6">
+        <v>755.0</v>
+      </c>
+      <c r="B343" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C343" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D343" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E343" s="4"/>
@@ -12769,13 +12770,13 @@
     </row>
     <row r="344">
       <c r="A344" s="6">
-        <v>759.0</v>
+        <v>757.0</v>
       </c>
       <c r="B344" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C344" s="7">
-        <v>275.0</v>
+        <v>280.0</v>
       </c>
       <c r="D344" s="5" t="s">
         <v>3</v>
@@ -12804,16 +12805,16 @@
       <c r="Z344" s="4"/>
     </row>
     <row r="345">
-      <c r="A345" s="6">
-        <v>761.0</v>
-      </c>
-      <c r="B345" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C345" s="7">
-        <v>260.0</v>
-      </c>
-      <c r="D345" s="5" t="s">
+      <c r="A345" s="1">
+        <v>758.0</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C345" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D345" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E345" s="4"/>
@@ -12841,13 +12842,13 @@
     </row>
     <row r="346">
       <c r="A346" s="6">
-        <v>763.0</v>
+        <v>759.0</v>
       </c>
       <c r="B346" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C346" s="7">
-        <v>250.0</v>
+        <v>275.0</v>
       </c>
       <c r="D346" s="5" t="s">
         <v>3</v>
@@ -12877,7 +12878,7 @@
     </row>
     <row r="347">
       <c r="A347" s="6">
-        <v>764.0</v>
+        <v>761.0</v>
       </c>
       <c r="B347" s="5" t="s">
         <v>3</v>
@@ -12912,16 +12913,16 @@
       <c r="Z347" s="4"/>
     </row>
     <row r="348">
-      <c r="A348" s="1">
-        <v>767.0</v>
-      </c>
-      <c r="B348" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C348" s="3">
-        <v>290.0</v>
-      </c>
-      <c r="D348" s="2" t="s">
+      <c r="A348" s="6">
+        <v>763.0</v>
+      </c>
+      <c r="B348" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C348" s="7">
+        <v>250.0</v>
+      </c>
+      <c r="D348" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E348" s="4"/>
@@ -12949,13 +12950,13 @@
     </row>
     <row r="349">
       <c r="A349" s="6">
-        <v>772.0</v>
+        <v>764.0</v>
       </c>
       <c r="B349" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C349" s="7">
-        <v>240.0</v>
+        <v>260.0</v>
       </c>
       <c r="D349" s="5" t="s">
         <v>3</v>
@@ -12985,13 +12986,13 @@
     </row>
     <row r="350">
       <c r="A350" s="1">
-        <v>775.0</v>
+        <v>767.0</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C350" s="3">
-        <v>260.0</v>
+        <v>290.0</v>
       </c>
       <c r="D350" s="2" t="s">
         <v>3</v>
@@ -13021,7 +13022,7 @@
     </row>
     <row r="351">
       <c r="A351" s="6">
-        <v>776.0</v>
+        <v>772.0</v>
       </c>
       <c r="B351" s="5" t="s">
         <v>3</v>
@@ -13056,16 +13057,16 @@
       <c r="Z351" s="4"/>
     </row>
     <row r="352">
-      <c r="A352" s="1">
-        <v>777.0</v>
-      </c>
-      <c r="B352" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C352" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D352" s="2" t="s">
+      <c r="A352" s="6">
+        <v>773.0</v>
+      </c>
+      <c r="B352" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C352" s="7">
+        <v>285.0</v>
+      </c>
+      <c r="D352" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E352" s="4"/>
@@ -13092,16 +13093,16 @@
       <c r="Z352" s="4"/>
     </row>
     <row r="353">
-      <c r="A353" s="6">
-        <v>778.0</v>
-      </c>
-      <c r="B353" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C353" s="7">
-        <v>310.0</v>
-      </c>
-      <c r="D353" s="5" t="s">
+      <c r="A353" s="1">
+        <v>775.0</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C353" s="3">
+        <v>260.0</v>
+      </c>
+      <c r="D353" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E353" s="4"/>
@@ -13128,16 +13129,16 @@
       <c r="Z353" s="4"/>
     </row>
     <row r="354">
-      <c r="A354" s="1">
-        <v>792.0</v>
-      </c>
-      <c r="B354" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C354" s="3">
-        <v>320.0</v>
-      </c>
-      <c r="D354" s="2" t="s">
+      <c r="A354" s="6">
+        <v>776.0</v>
+      </c>
+      <c r="B354" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C354" s="7">
+        <v>240.0</v>
+      </c>
+      <c r="D354" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E354" s="4"/>
@@ -13164,16 +13165,16 @@
       <c r="Z354" s="4"/>
     </row>
     <row r="355">
-      <c r="A355" s="6">
-        <v>784.0</v>
-      </c>
-      <c r="B355" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C355" s="7">
-        <v>270.0</v>
-      </c>
-      <c r="D355" s="5" t="s">
+      <c r="A355" s="1">
+        <v>777.0</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C355" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D355" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E355" s="4"/>
@@ -13201,13 +13202,13 @@
     </row>
     <row r="356">
       <c r="A356" s="6">
-        <v>786.0</v>
+        <v>778.0</v>
       </c>
       <c r="B356" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C356" s="7">
-        <v>275.0</v>
+        <v>310.0</v>
       </c>
       <c r="D356" s="5" t="s">
         <v>3</v>
@@ -13236,16 +13237,16 @@
       <c r="Z356" s="4"/>
     </row>
     <row r="357">
-      <c r="A357" s="6">
-        <v>787.0</v>
-      </c>
-      <c r="B357" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C357" s="7">
-        <v>280.0</v>
-      </c>
-      <c r="D357" s="5" t="s">
+      <c r="A357" s="1">
+        <v>792.0</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C357" s="3">
+        <v>320.0</v>
+      </c>
+      <c r="D357" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E357" s="4"/>
@@ -13273,13 +13274,13 @@
     </row>
     <row r="358">
       <c r="A358" s="6">
-        <v>789.0</v>
+        <v>784.0</v>
       </c>
       <c r="B358" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C358" s="7">
-        <v>265.0</v>
+        <v>270.0</v>
       </c>
       <c r="D358" s="5" t="s">
         <v>3</v>
@@ -13309,13 +13310,13 @@
     </row>
     <row r="359">
       <c r="A359" s="6">
-        <v>790.0</v>
+        <v>786.0</v>
       </c>
       <c r="B359" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C359" s="7" t="s">
-        <v>34</v>
+      <c r="C359" s="7">
+        <v>275.0</v>
       </c>
       <c r="D359" s="5" t="s">
         <v>3</v>
@@ -13345,13 +13346,13 @@
     </row>
     <row r="360">
       <c r="A360" s="6">
-        <v>793.0</v>
+        <v>787.0</v>
       </c>
       <c r="B360" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C360" s="7">
-        <v>320.0</v>
+        <v>280.0</v>
       </c>
       <c r="D360" s="5" t="s">
         <v>3</v>
@@ -13380,16 +13381,16 @@
       <c r="Z360" s="4"/>
     </row>
     <row r="361">
-      <c r="A361" s="1">
-        <v>795.0</v>
-      </c>
-      <c r="B361" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C361" s="3">
-        <v>255.0</v>
-      </c>
-      <c r="D361" s="2" t="s">
+      <c r="A361" s="6">
+        <v>789.0</v>
+      </c>
+      <c r="B361" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C361" s="7">
+        <v>265.0</v>
+      </c>
+      <c r="D361" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E361" s="4"/>
@@ -13417,13 +13418,13 @@
     </row>
     <row r="362">
       <c r="A362" s="6">
-        <v>797.0</v>
+        <v>790.0</v>
       </c>
       <c r="B362" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C362" s="7">
-        <v>325.0</v>
+      <c r="C362" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="D362" s="5" t="s">
         <v>3</v>
@@ -13453,13 +13454,13 @@
     </row>
     <row r="363">
       <c r="A363" s="6">
-        <v>799.0</v>
+        <v>793.0</v>
       </c>
       <c r="B363" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C363" s="7">
-        <v>310.0</v>
+      <c r="C363" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="D363" s="5" t="s">
         <v>3</v>
@@ -13488,16 +13489,16 @@
       <c r="Z363" s="4"/>
     </row>
     <row r="364">
-      <c r="A364" s="6">
-        <v>800.0</v>
-      </c>
-      <c r="B364" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C364" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D364" s="5" t="s">
+      <c r="A364" s="1">
+        <v>795.0</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C364" s="3">
+        <v>255.0</v>
+      </c>
+      <c r="D364" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E364" s="4"/>
@@ -13524,16 +13525,16 @@
       <c r="Z364" s="4"/>
     </row>
     <row r="365">
-      <c r="A365" s="1">
-        <v>801.0</v>
-      </c>
-      <c r="B365" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C365" s="3">
-        <v>230.0</v>
-      </c>
-      <c r="D365" s="2" t="s">
+      <c r="A365" s="6">
+        <v>797.0</v>
+      </c>
+      <c r="B365" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C365" s="7">
+        <v>325.0</v>
+      </c>
+      <c r="D365" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E365" s="4"/>
@@ -13561,13 +13562,13 @@
     </row>
     <row r="366">
       <c r="A366" s="6">
-        <v>802.0</v>
+        <v>799.0</v>
       </c>
       <c r="B366" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C366" s="7">
-        <v>245.0</v>
+        <v>310.0</v>
       </c>
       <c r="D366" s="5" t="s">
         <v>3</v>
@@ -13597,13 +13598,13 @@
     </row>
     <row r="367">
       <c r="A367" s="6">
-        <v>806.0</v>
+        <v>800.0</v>
       </c>
       <c r="B367" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C367" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D367" s="5" t="s">
         <v>3</v>
@@ -13633,13 +13634,13 @@
     </row>
     <row r="368">
       <c r="A368" s="1">
-        <v>809.0</v>
+        <v>801.0</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C368" s="3">
-        <v>270.0</v>
+        <v>230.0</v>
       </c>
       <c r="D368" s="2" t="s">
         <v>3</v>
@@ -13669,13 +13670,13 @@
     </row>
     <row r="369">
       <c r="A369" s="6">
-        <v>810.0</v>
+        <v>802.0</v>
       </c>
       <c r="B369" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C369" s="7">
-        <v>305.0</v>
+        <v>245.0</v>
       </c>
       <c r="D369" s="5" t="s">
         <v>3</v>
@@ -13704,16 +13705,16 @@
       <c r="Z369" s="4"/>
     </row>
     <row r="370">
-      <c r="A370" s="1">
-        <v>811.0</v>
-      </c>
-      <c r="B370" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C370" s="3">
-        <v>260.0</v>
-      </c>
-      <c r="D370" s="2" t="s">
+      <c r="A370" s="6">
+        <v>806.0</v>
+      </c>
+      <c r="B370" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C370" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D370" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E370" s="4"/>
@@ -13740,16 +13741,16 @@
       <c r="Z370" s="4"/>
     </row>
     <row r="371">
-      <c r="A371" s="6">
-        <v>812.0</v>
-      </c>
-      <c r="B371" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C371" s="7">
-        <v>315.0</v>
-      </c>
-      <c r="D371" s="5" t="s">
+      <c r="A371" s="1">
+        <v>809.0</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C371" s="3">
+        <v>270.0</v>
+      </c>
+      <c r="D371" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E371" s="4"/>
@@ -13777,13 +13778,13 @@
     </row>
     <row r="372">
       <c r="A372" s="6">
-        <v>813.0</v>
+        <v>810.0</v>
       </c>
       <c r="B372" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C372" s="7">
-        <v>275.0</v>
+        <v>305.0</v>
       </c>
       <c r="D372" s="5" t="s">
         <v>3</v>
@@ -13812,16 +13813,16 @@
       <c r="Z372" s="4"/>
     </row>
     <row r="373">
-      <c r="A373" s="6">
-        <v>816.0</v>
-      </c>
-      <c r="B373" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C373" s="7">
-        <v>245.0</v>
-      </c>
-      <c r="D373" s="5" t="s">
+      <c r="A373" s="1">
+        <v>811.0</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C373" s="3">
+        <v>260.0</v>
+      </c>
+      <c r="D373" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E373" s="4"/>
@@ -13849,13 +13850,13 @@
     </row>
     <row r="374">
       <c r="A374" s="6">
-        <v>817.0</v>
+        <v>812.0</v>
       </c>
       <c r="B374" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C374" s="7">
-        <v>330.0</v>
+        <v>315.0</v>
       </c>
       <c r="D374" s="5" t="s">
         <v>3</v>
@@ -13885,13 +13886,13 @@
     </row>
     <row r="375">
       <c r="A375" s="6">
-        <v>818.0</v>
+        <v>813.0</v>
       </c>
       <c r="B375" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C375" s="7" t="s">
-        <v>36</v>
+      <c r="C375" s="7">
+        <v>275.0</v>
       </c>
       <c r="D375" s="5" t="s">
         <v>3</v>
@@ -13920,16 +13921,16 @@
       <c r="Z375" s="4"/>
     </row>
     <row r="376">
-      <c r="A376" s="1">
-        <v>819.0</v>
-      </c>
-      <c r="B376" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C376" s="3">
-        <v>200.0</v>
-      </c>
-      <c r="D376" s="2" t="s">
+      <c r="A376" s="6">
+        <v>816.0</v>
+      </c>
+      <c r="B376" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C376" s="7">
+        <v>245.0</v>
+      </c>
+      <c r="D376" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E376" s="4"/>
@@ -13956,16 +13957,16 @@
       <c r="Z376" s="4"/>
     </row>
     <row r="377">
-      <c r="A377" s="1">
-        <v>820.0</v>
-      </c>
-      <c r="B377" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C377" s="3">
-        <v>245.0</v>
-      </c>
-      <c r="D377" s="2" t="s">
+      <c r="A377" s="6">
+        <v>817.0</v>
+      </c>
+      <c r="B377" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C377" s="7">
+        <v>330.0</v>
+      </c>
+      <c r="D377" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E377" s="4"/>
@@ -13992,16 +13993,16 @@
       <c r="Z377" s="4"/>
     </row>
     <row r="378">
-      <c r="A378" s="1">
-        <v>821.0</v>
-      </c>
-      <c r="B378" s="2" t="s">
+      <c r="A378" s="6">
+        <v>818.0</v>
+      </c>
+      <c r="B378" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C378" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D378" s="2" t="s">
+      <c r="D378" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E378" s="4"/>
@@ -14028,16 +14029,16 @@
       <c r="Z378" s="4"/>
     </row>
     <row r="379">
-      <c r="A379" s="6">
-        <v>824.0</v>
-      </c>
-      <c r="B379" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C379" s="7">
-        <v>310.0</v>
-      </c>
-      <c r="D379" s="5" t="s">
+      <c r="A379" s="1">
+        <v>819.0</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C379" s="3">
+        <v>200.0</v>
+      </c>
+      <c r="D379" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E379" s="4"/>
@@ -14064,16 +14065,16 @@
       <c r="Z379" s="4"/>
     </row>
     <row r="380">
-      <c r="A380" s="6">
-        <v>827.0</v>
-      </c>
-      <c r="B380" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C380" s="7">
-        <v>290.0</v>
-      </c>
-      <c r="D380" s="5" t="s">
+      <c r="A380" s="1">
+        <v>820.0</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C380" s="3">
+        <v>245.0</v>
+      </c>
+      <c r="D380" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E380" s="4"/>
@@ -14100,16 +14101,16 @@
       <c r="Z380" s="4"/>
     </row>
     <row r="381">
-      <c r="A381" s="6">
-        <v>829.0</v>
-      </c>
-      <c r="B381" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C381" s="7">
-        <v>275.0</v>
-      </c>
-      <c r="D381" s="5" t="s">
+      <c r="A381" s="1">
+        <v>821.0</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C381" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D381" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E381" s="4"/>
@@ -14137,13 +14138,13 @@
     </row>
     <row r="382">
       <c r="A382" s="6">
-        <v>832.0</v>
+        <v>824.0</v>
       </c>
       <c r="B382" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C382" s="7">
-        <v>235.0</v>
+        <v>310.0</v>
       </c>
       <c r="D382" s="5" t="s">
         <v>3</v>
@@ -14173,13 +14174,13 @@
     </row>
     <row r="383">
       <c r="A383" s="6">
-        <v>833.0</v>
+        <v>827.0</v>
       </c>
       <c r="B383" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C383" s="7">
-        <v>235.0</v>
+        <v>290.0</v>
       </c>
       <c r="D383" s="5" t="s">
         <v>3</v>
@@ -14209,13 +14210,13 @@
     </row>
     <row r="384">
       <c r="A384" s="6">
-        <v>834.0</v>
+        <v>829.0</v>
       </c>
       <c r="B384" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C384" s="7">
-        <v>225.0</v>
+        <v>275.0</v>
       </c>
       <c r="D384" s="5" t="s">
         <v>3</v>
@@ -14245,13 +14246,13 @@
     </row>
     <row r="385">
       <c r="A385" s="6">
-        <v>837.0</v>
+        <v>832.0</v>
       </c>
       <c r="B385" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C385" s="7">
-        <v>275.0</v>
+        <v>235.0</v>
       </c>
       <c r="D385" s="5" t="s">
         <v>3</v>
@@ -14281,13 +14282,13 @@
     </row>
     <row r="386">
       <c r="A386" s="6">
-        <v>838.0</v>
+        <v>833.0</v>
       </c>
       <c r="B386" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C386" s="7">
-        <v>295.0</v>
+        <v>235.0</v>
       </c>
       <c r="D386" s="5" t="s">
         <v>3</v>
@@ -14317,13 +14318,13 @@
     </row>
     <row r="387">
       <c r="A387" s="6">
-        <v>843.0</v>
+        <v>834.0</v>
       </c>
       <c r="B387" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C387" s="7">
-        <v>320.0</v>
+        <v>225.0</v>
       </c>
       <c r="D387" s="5" t="s">
         <v>3</v>
@@ -14353,13 +14354,13 @@
     </row>
     <row r="388">
       <c r="A388" s="6">
-        <v>845.0</v>
+        <v>837.0</v>
       </c>
       <c r="B388" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C388" s="7">
-        <v>235.0</v>
+        <v>275.0</v>
       </c>
       <c r="D388" s="5" t="s">
         <v>3</v>
@@ -14388,16 +14389,16 @@
       <c r="Z388" s="4"/>
     </row>
     <row r="389">
-      <c r="A389" s="1">
-        <v>846.0</v>
-      </c>
-      <c r="B389" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C389" s="3">
+      <c r="A389" s="6">
+        <v>838.0</v>
+      </c>
+      <c r="B389" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C389" s="7">
         <v>295.0</v>
       </c>
-      <c r="D389" s="2" t="s">
+      <c r="D389" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E389" s="4"/>
@@ -14424,16 +14425,16 @@
       <c r="Z389" s="4"/>
     </row>
     <row r="390">
-      <c r="A390" s="1">
-        <v>853.0</v>
-      </c>
-      <c r="B390" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C390" s="3">
-        <v>290.0</v>
-      </c>
-      <c r="D390" s="2" t="s">
+      <c r="A390" s="6">
+        <v>843.0</v>
+      </c>
+      <c r="B390" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C390" s="7">
+        <v>320.0</v>
+      </c>
+      <c r="D390" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E390" s="4"/>
@@ -14461,13 +14462,13 @@
     </row>
     <row r="391">
       <c r="A391" s="6">
-        <v>854.0</v>
+        <v>845.0</v>
       </c>
       <c r="B391" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C391" s="7">
-        <v>320.0</v>
+        <v>235.0</v>
       </c>
       <c r="D391" s="5" t="s">
         <v>3</v>
@@ -14496,16 +14497,16 @@
       <c r="Z391" s="4"/>
     </row>
     <row r="392">
-      <c r="A392" s="6">
-        <v>855.0</v>
-      </c>
-      <c r="B392" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C392" s="7">
-        <v>270.0</v>
-      </c>
-      <c r="D392" s="5" t="s">
+      <c r="A392" s="1">
+        <v>846.0</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C392" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D392" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E392" s="4"/>
@@ -14533,13 +14534,13 @@
     </row>
     <row r="393">
       <c r="A393" s="1">
-        <v>856.0</v>
+        <v>853.0</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C393" s="3">
-        <v>260.0</v>
+        <v>290.0</v>
       </c>
       <c r="D393" s="2" t="s">
         <v>3</v>
@@ -14569,13 +14570,13 @@
     </row>
     <row r="394">
       <c r="A394" s="6">
-        <v>860.0</v>
+        <v>854.0</v>
       </c>
       <c r="B394" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C394" s="7" t="s">
-        <v>38</v>
+      <c r="C394" s="7">
+        <v>320.0</v>
       </c>
       <c r="D394" s="5" t="s">
         <v>3</v>
@@ -14604,16 +14605,16 @@
       <c r="Z394" s="4"/>
     </row>
     <row r="395">
-      <c r="A395" s="1">
-        <v>861.0</v>
-      </c>
-      <c r="B395" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C395" s="3">
-        <v>305.0</v>
-      </c>
-      <c r="D395" s="2" t="s">
+      <c r="A395" s="6">
+        <v>855.0</v>
+      </c>
+      <c r="B395" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C395" s="7">
+        <v>270.0</v>
+      </c>
+      <c r="D395" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E395" s="4"/>
@@ -14640,16 +14641,16 @@
       <c r="Z395" s="4"/>
     </row>
     <row r="396">
-      <c r="A396" s="6">
-        <v>862.0</v>
-      </c>
-      <c r="B396" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C396" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D396" s="5" t="s">
+      <c r="A396" s="1">
+        <v>856.0</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C396" s="3">
+        <v>260.0</v>
+      </c>
+      <c r="D396" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E396" s="4"/>
@@ -14676,16 +14677,16 @@
       <c r="Z396" s="4"/>
     </row>
     <row r="397">
-      <c r="A397" s="1">
-        <v>863.0</v>
-      </c>
-      <c r="B397" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C397" s="3">
-        <v>275.0</v>
-      </c>
-      <c r="D397" s="2" t="s">
+      <c r="A397" s="6">
+        <v>860.0</v>
+      </c>
+      <c r="B397" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C397" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D397" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E397" s="4"/>
@@ -14712,16 +14713,16 @@
       <c r="Z397" s="4"/>
     </row>
     <row r="398">
-      <c r="A398" s="6">
-        <v>865.0</v>
-      </c>
-      <c r="B398" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C398" s="7">
-        <v>270.0</v>
-      </c>
-      <c r="D398" s="5" t="s">
+      <c r="A398" s="1">
+        <v>861.0</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C398" s="3">
+        <v>305.0</v>
+      </c>
+      <c r="D398" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E398" s="4"/>
@@ -14749,13 +14750,13 @@
     </row>
     <row r="399">
       <c r="A399" s="6">
-        <v>866.0</v>
+        <v>862.0</v>
       </c>
       <c r="B399" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C399" s="7">
-        <v>300.0</v>
+      <c r="C399" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="D399" s="5" t="s">
         <v>3</v>
@@ -14785,13 +14786,13 @@
     </row>
     <row r="400">
       <c r="A400" s="1">
-        <v>872.0</v>
+        <v>863.0</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C400" s="3">
-        <v>295.0</v>
+        <v>275.0</v>
       </c>
       <c r="D400" s="2" t="s">
         <v>3</v>
@@ -14821,13 +14822,13 @@
     </row>
     <row r="401">
       <c r="A401" s="6">
-        <v>875.0</v>
+        <v>865.0</v>
       </c>
       <c r="B401" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C401" s="7">
-        <v>305.0</v>
+        <v>270.0</v>
       </c>
       <c r="D401" s="5" t="s">
         <v>3</v>
@@ -14857,13 +14858,13 @@
     </row>
     <row r="402">
       <c r="A402" s="6">
-        <v>876.0</v>
+        <v>866.0</v>
       </c>
       <c r="B402" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C402" s="7">
-        <v>250.0</v>
+        <v>300.0</v>
       </c>
       <c r="D402" s="5" t="s">
         <v>3</v>
@@ -14892,16 +14893,16 @@
       <c r="Z402" s="4"/>
     </row>
     <row r="403">
-      <c r="A403" s="6">
-        <v>878.0</v>
-      </c>
-      <c r="B403" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C403" s="7">
-        <v>235.0</v>
-      </c>
-      <c r="D403" s="5" t="s">
+      <c r="A403" s="1">
+        <v>872.0</v>
+      </c>
+      <c r="B403" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C403" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D403" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E403" s="4"/>
@@ -14929,7 +14930,7 @@
     </row>
     <row r="404">
       <c r="A404" s="6">
-        <v>879.0</v>
+        <v>875.0</v>
       </c>
       <c r="B404" s="5" t="s">
         <v>3</v>
@@ -14964,16 +14965,16 @@
       <c r="Z404" s="4"/>
     </row>
     <row r="405">
-      <c r="A405" s="1">
-        <v>880.0</v>
-      </c>
-      <c r="B405" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C405" s="3">
-        <v>225.0</v>
-      </c>
-      <c r="D405" s="2" t="s">
+      <c r="A405" s="6">
+        <v>876.0</v>
+      </c>
+      <c r="B405" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C405" s="7">
+        <v>250.0</v>
+      </c>
+      <c r="D405" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E405" s="4"/>
@@ -15001,13 +15002,13 @@
     </row>
     <row r="406">
       <c r="A406" s="6">
-        <v>882.0</v>
+        <v>878.0</v>
       </c>
       <c r="B406" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C406" s="7">
-        <v>240.0</v>
+        <v>235.0</v>
       </c>
       <c r="D406" s="5" t="s">
         <v>3</v>
@@ -15037,13 +15038,13 @@
     </row>
     <row r="407">
       <c r="A407" s="6">
-        <v>886.0</v>
+        <v>879.0</v>
       </c>
       <c r="B407" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C407" s="7">
-        <v>230.0</v>
+        <v>305.0</v>
       </c>
       <c r="D407" s="5" t="s">
         <v>3</v>
@@ -15072,16 +15073,16 @@
       <c r="Z407" s="4"/>
     </row>
     <row r="408">
-      <c r="A408" s="6">
-        <v>887.0</v>
-      </c>
-      <c r="B408" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C408" s="7">
-        <v>265.0</v>
-      </c>
-      <c r="D408" s="5" t="s">
+      <c r="A408" s="1">
+        <v>880.0</v>
+      </c>
+      <c r="B408" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C408" s="3">
+        <v>225.0</v>
+      </c>
+      <c r="D408" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E408" s="4"/>
@@ -15109,13 +15110,13 @@
     </row>
     <row r="409">
       <c r="A409" s="6">
-        <v>888.0</v>
+        <v>882.0</v>
       </c>
       <c r="B409" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C409" s="7">
-        <v>245.0</v>
+        <v>240.0</v>
       </c>
       <c r="D409" s="5" t="s">
         <v>3</v>
@@ -15145,13 +15146,13 @@
     </row>
     <row r="410">
       <c r="A410" s="6">
-        <v>897.0</v>
+        <v>883.0</v>
       </c>
       <c r="B410" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C410" s="7">
-        <v>310.0</v>
+        <v>315.0</v>
       </c>
       <c r="D410" s="5" t="s">
         <v>3</v>
@@ -15180,16 +15181,16 @@
       <c r="Z410" s="4"/>
     </row>
     <row r="411">
-      <c r="A411" s="1">
-        <v>899.0</v>
-      </c>
-      <c r="B411" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C411" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D411" s="2" t="s">
+      <c r="A411" s="6">
+        <v>886.0</v>
+      </c>
+      <c r="B411" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C411" s="7">
+        <v>230.0</v>
+      </c>
+      <c r="D411" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E411" s="4"/>
@@ -15217,13 +15218,13 @@
     </row>
     <row r="412">
       <c r="A412" s="6">
-        <v>900.0</v>
+        <v>887.0</v>
       </c>
       <c r="B412" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C412" s="7">
-        <v>335.0</v>
+        <v>265.0</v>
       </c>
       <c r="D412" s="5" t="s">
         <v>3</v>
@@ -15252,16 +15253,16 @@
       <c r="Z412" s="4"/>
     </row>
     <row r="413">
-      <c r="A413" s="1">
-        <v>901.0</v>
-      </c>
-      <c r="B413" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C413" s="3">
-        <v>275.0</v>
-      </c>
-      <c r="D413" s="2" t="s">
+      <c r="A413" s="6">
+        <v>888.0</v>
+      </c>
+      <c r="B413" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C413" s="7">
+        <v>245.0</v>
+      </c>
+      <c r="D413" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E413" s="4"/>
@@ -15289,13 +15290,13 @@
     </row>
     <row r="414">
       <c r="A414" s="6">
-        <v>910.0</v>
+        <v>897.0</v>
       </c>
       <c r="B414" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C414" s="7">
-        <v>330.0</v>
+        <v>310.0</v>
       </c>
       <c r="D414" s="5" t="s">
         <v>3</v>
@@ -15324,16 +15325,16 @@
       <c r="Z414" s="4"/>
     </row>
     <row r="415">
-      <c r="A415" s="6">
-        <v>911.0</v>
-      </c>
-      <c r="B415" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C415" s="7">
-        <v>330.0</v>
-      </c>
-      <c r="D415" s="5" t="s">
+      <c r="A415" s="1">
+        <v>899.0</v>
+      </c>
+      <c r="B415" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C415" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D415" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E415" s="4"/>
@@ -15360,14 +15361,14 @@
       <c r="Z415" s="4"/>
     </row>
     <row r="416">
-      <c r="A416" s="1">
-        <v>935.0</v>
-      </c>
-      <c r="B416" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C416" s="3">
-        <v>310.0</v>
+      <c r="A416" s="6">
+        <v>900.0</v>
+      </c>
+      <c r="B416" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C416" s="7">
+        <v>335.0</v>
       </c>
       <c r="D416" s="5" t="s">
         <v>3</v>
@@ -15396,16 +15397,16 @@
       <c r="Z416" s="4"/>
     </row>
     <row r="417">
-      <c r="A417" s="6">
-        <v>939.0</v>
-      </c>
-      <c r="B417" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C417" s="7">
-        <v>245.0</v>
-      </c>
-      <c r="D417" s="5" t="s">
+      <c r="A417" s="1">
+        <v>901.0</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C417" s="3">
+        <v>275.0</v>
+      </c>
+      <c r="D417" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E417" s="4"/>
@@ -15433,13 +15434,13 @@
     </row>
     <row r="418">
       <c r="A418" s="6">
-        <v>948.0</v>
+        <v>910.0</v>
       </c>
       <c r="B418" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C418" s="7">
-        <v>310.0</v>
+        <v>330.0</v>
       </c>
       <c r="D418" s="5" t="s">
         <v>3</v>
@@ -15469,13 +15470,13 @@
     </row>
     <row r="419">
       <c r="A419" s="6">
-        <v>949.0</v>
+        <v>911.0</v>
       </c>
       <c r="B419" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C419" s="7">
-        <v>310.0</v>
+        <v>330.0</v>
       </c>
       <c r="D419" s="5" t="s">
         <v>3</v>
@@ -15504,14 +15505,14 @@
       <c r="Z419" s="4"/>
     </row>
     <row r="420">
-      <c r="A420" s="5">
-        <v>1000.0</v>
-      </c>
-      <c r="B420" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C420" s="5">
-        <v>2000.0</v>
+      <c r="A420" s="1">
+        <v>935.0</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C420" s="3">
+        <v>310.0</v>
       </c>
       <c r="D420" s="5" t="s">
         <v>3</v>
@@ -15540,10 +15541,18 @@
       <c r="Z420" s="4"/>
     </row>
     <row r="421">
-      <c r="A421" s="2"/>
-      <c r="B421" s="2"/>
-      <c r="C421" s="2"/>
-      <c r="D421" s="2"/>
+      <c r="A421" s="6">
+        <v>939.0</v>
+      </c>
+      <c r="B421" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C421" s="7">
+        <v>245.0</v>
+      </c>
+      <c r="D421" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E421" s="4"/>
       <c r="F421" s="4"/>
       <c r="G421" s="4"/>
@@ -15568,10 +15577,18 @@
       <c r="Z421" s="4"/>
     </row>
     <row r="422">
-      <c r="A422" s="2"/>
-      <c r="B422" s="2"/>
-      <c r="C422" s="2"/>
-      <c r="D422" s="2"/>
+      <c r="A422" s="6">
+        <v>948.0</v>
+      </c>
+      <c r="B422" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C422" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D422" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E422" s="4"/>
       <c r="F422" s="4"/>
       <c r="G422" s="4"/>
@@ -15596,10 +15613,18 @@
       <c r="Z422" s="4"/>
     </row>
     <row r="423">
-      <c r="A423" s="2"/>
-      <c r="B423" s="2"/>
-      <c r="C423" s="2"/>
-      <c r="D423" s="2"/>
+      <c r="A423" s="6">
+        <v>949.0</v>
+      </c>
+      <c r="B423" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C423" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D423" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E423" s="4"/>
       <c r="F423" s="4"/>
       <c r="G423" s="4"/>
@@ -15624,10 +15649,18 @@
       <c r="Z423" s="4"/>
     </row>
     <row r="424">
-      <c r="A424" s="2"/>
-      <c r="B424" s="2"/>
-      <c r="C424" s="2"/>
-      <c r="D424" s="2"/>
+      <c r="A424" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="B424" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C424" s="5">
+        <v>2000.0</v>
+      </c>
+      <c r="D424" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E424" s="4"/>
       <c r="F424" s="4"/>
       <c r="G424" s="4"/>
@@ -39676,10 +39709,10 @@
       <c r="Z1282" s="4"/>
     </row>
     <row r="1283">
-      <c r="A1283" s="4"/>
-      <c r="B1283" s="4"/>
-      <c r="C1283" s="4"/>
-      <c r="D1283" s="4"/>
+      <c r="A1283" s="2"/>
+      <c r="B1283" s="2"/>
+      <c r="C1283" s="2"/>
+      <c r="D1283" s="2"/>
       <c r="E1283" s="4"/>
       <c r="F1283" s="4"/>
       <c r="G1283" s="4"/>
@@ -39703,6 +39736,118 @@
       <c r="Y1283" s="4"/>
       <c r="Z1283" s="4"/>
     </row>
+    <row r="1284">
+      <c r="A1284" s="2"/>
+      <c r="B1284" s="2"/>
+      <c r="C1284" s="2"/>
+      <c r="D1284" s="2"/>
+      <c r="E1284" s="4"/>
+      <c r="F1284" s="4"/>
+      <c r="G1284" s="4"/>
+      <c r="H1284" s="4"/>
+      <c r="I1284" s="4"/>
+      <c r="J1284" s="4"/>
+      <c r="K1284" s="4"/>
+      <c r="L1284" s="4"/>
+      <c r="M1284" s="4"/>
+      <c r="N1284" s="4"/>
+      <c r="O1284" s="4"/>
+      <c r="P1284" s="4"/>
+      <c r="Q1284" s="4"/>
+      <c r="R1284" s="4"/>
+      <c r="S1284" s="4"/>
+      <c r="T1284" s="4"/>
+      <c r="U1284" s="4"/>
+      <c r="V1284" s="4"/>
+      <c r="W1284" s="4"/>
+      <c r="X1284" s="4"/>
+      <c r="Y1284" s="4"/>
+      <c r="Z1284" s="4"/>
+    </row>
+    <row r="1285">
+      <c r="A1285" s="2"/>
+      <c r="B1285" s="2"/>
+      <c r="C1285" s="2"/>
+      <c r="D1285" s="2"/>
+      <c r="E1285" s="4"/>
+      <c r="F1285" s="4"/>
+      <c r="G1285" s="4"/>
+      <c r="H1285" s="4"/>
+      <c r="I1285" s="4"/>
+      <c r="J1285" s="4"/>
+      <c r="K1285" s="4"/>
+      <c r="L1285" s="4"/>
+      <c r="M1285" s="4"/>
+      <c r="N1285" s="4"/>
+      <c r="O1285" s="4"/>
+      <c r="P1285" s="4"/>
+      <c r="Q1285" s="4"/>
+      <c r="R1285" s="4"/>
+      <c r="S1285" s="4"/>
+      <c r="T1285" s="4"/>
+      <c r="U1285" s="4"/>
+      <c r="V1285" s="4"/>
+      <c r="W1285" s="4"/>
+      <c r="X1285" s="4"/>
+      <c r="Y1285" s="4"/>
+      <c r="Z1285" s="4"/>
+    </row>
+    <row r="1286">
+      <c r="A1286" s="2"/>
+      <c r="B1286" s="2"/>
+      <c r="C1286" s="2"/>
+      <c r="D1286" s="2"/>
+      <c r="E1286" s="4"/>
+      <c r="F1286" s="4"/>
+      <c r="G1286" s="4"/>
+      <c r="H1286" s="4"/>
+      <c r="I1286" s="4"/>
+      <c r="J1286" s="4"/>
+      <c r="K1286" s="4"/>
+      <c r="L1286" s="4"/>
+      <c r="M1286" s="4"/>
+      <c r="N1286" s="4"/>
+      <c r="O1286" s="4"/>
+      <c r="P1286" s="4"/>
+      <c r="Q1286" s="4"/>
+      <c r="R1286" s="4"/>
+      <c r="S1286" s="4"/>
+      <c r="T1286" s="4"/>
+      <c r="U1286" s="4"/>
+      <c r="V1286" s="4"/>
+      <c r="W1286" s="4"/>
+      <c r="X1286" s="4"/>
+      <c r="Y1286" s="4"/>
+      <c r="Z1286" s="4"/>
+    </row>
+    <row r="1287">
+      <c r="A1287" s="4"/>
+      <c r="B1287" s="4"/>
+      <c r="C1287" s="4"/>
+      <c r="D1287" s="4"/>
+      <c r="E1287" s="4"/>
+      <c r="F1287" s="4"/>
+      <c r="G1287" s="4"/>
+      <c r="H1287" s="4"/>
+      <c r="I1287" s="4"/>
+      <c r="J1287" s="4"/>
+      <c r="K1287" s="4"/>
+      <c r="L1287" s="4"/>
+      <c r="M1287" s="4"/>
+      <c r="N1287" s="4"/>
+      <c r="O1287" s="4"/>
+      <c r="P1287" s="4"/>
+      <c r="Q1287" s="4"/>
+      <c r="R1287" s="4"/>
+      <c r="S1287" s="4"/>
+      <c r="T1287" s="4"/>
+      <c r="U1287" s="4"/>
+      <c r="V1287" s="4"/>
+      <c r="W1287" s="4"/>
+      <c r="X1287" s="4"/>
+      <c r="Y1287" s="4"/>
+      <c r="Z1287" s="4"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/hauteur site.xlsx
+++ b/hauteur site.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="45">
   <si>
     <t>code_pneu</t>
   </si>
@@ -64,6 +64,9 @@
     <t>310*</t>
   </si>
   <si>
+    <t>295+</t>
+  </si>
+  <si>
     <t>270?</t>
   </si>
   <si>
@@ -88,10 +91,16 @@
     <t>280-</t>
   </si>
   <si>
+    <t>280+</t>
+  </si>
+  <si>
     <t>260-275</t>
   </si>
   <si>
     <t>290+</t>
+  </si>
+  <si>
+    <t>245+</t>
   </si>
   <si>
     <t>230-240</t>
@@ -112,10 +121,13 @@
     <t>260-280</t>
   </si>
   <si>
-    <t>295+</t>
+    <t>290-310</t>
   </si>
   <si>
-    <t>290-310</t>
+    <t>---28/2</t>
+  </si>
+  <si>
+    <t>315+</t>
   </si>
   <si>
     <t>320+</t>
@@ -3419,16 +3431,16 @@
       <c r="Z83" s="4"/>
     </row>
     <row r="84">
-      <c r="A84" s="1">
-        <v>167.0</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C84" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D84" s="2" t="s">
+      <c r="A84" s="6">
+        <v>166.0</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" s="7">
+        <v>300.0</v>
+      </c>
+      <c r="D84" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E84" s="4"/>
@@ -3455,16 +3467,16 @@
       <c r="Z84" s="4"/>
     </row>
     <row r="85">
-      <c r="A85" s="6">
-        <v>169.0</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C85" s="7">
-        <v>235.0</v>
-      </c>
-      <c r="D85" s="5" t="s">
+      <c r="A85" s="1">
+        <v>167.0</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E85" s="4"/>
@@ -3492,13 +3504,13 @@
     </row>
     <row r="86">
       <c r="A86" s="6">
-        <v>171.0</v>
+        <v>169.0</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C86" s="7">
-        <v>325.0</v>
+        <v>235.0</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>3</v>
@@ -3528,13 +3540,13 @@
     </row>
     <row r="87">
       <c r="A87" s="6">
-        <v>172.0</v>
+        <v>171.0</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C87" s="7">
-        <v>265.0</v>
+        <v>325.0</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>3</v>
@@ -3563,16 +3575,16 @@
       <c r="Z87" s="4"/>
     </row>
     <row r="88">
-      <c r="A88" s="1">
-        <v>175.0</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C88" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D88" s="2" t="s">
+      <c r="A88" s="6">
+        <v>172.0</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" s="7">
+        <v>265.0</v>
+      </c>
+      <c r="D88" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E88" s="4"/>
@@ -3599,14 +3611,16 @@
       <c r="Z88" s="4"/>
     </row>
     <row r="89">
-      <c r="A89" s="6">
-        <v>176.0</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C89" s="7"/>
-      <c r="D89" s="5" t="s">
+      <c r="A89" s="1">
+        <v>175.0</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E89" s="4"/>
@@ -3633,16 +3647,14 @@
       <c r="Z89" s="4"/>
     </row>
     <row r="90">
-      <c r="A90" s="1">
-        <v>178.0</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C90" s="3">
-        <v>265.0</v>
-      </c>
-      <c r="D90" s="2" t="s">
+      <c r="A90" s="6">
+        <v>176.0</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" s="7"/>
+      <c r="D90" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E90" s="4"/>
@@ -3670,13 +3682,13 @@
     </row>
     <row r="91">
       <c r="A91" s="1">
-        <v>182.0</v>
+        <v>178.0</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C91" s="7">
-        <v>285.0</v>
+      <c r="C91" s="3">
+        <v>265.0</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>3</v>
@@ -3706,13 +3718,13 @@
     </row>
     <row r="92">
       <c r="A92" s="1">
-        <v>183.0</v>
+        <v>182.0</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C92" s="3">
-        <v>270.0</v>
+      <c r="C92" s="7">
+        <v>285.0</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>3</v>
@@ -3741,16 +3753,16 @@
       <c r="Z92" s="4"/>
     </row>
     <row r="93">
-      <c r="A93" s="6">
-        <v>189.0</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C93" s="7">
-        <v>235.0</v>
-      </c>
-      <c r="D93" s="5" t="s">
+      <c r="A93" s="1">
+        <v>183.0</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" s="3">
+        <v>270.0</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E93" s="4"/>
@@ -3777,16 +3789,16 @@
       <c r="Z93" s="4"/>
     </row>
     <row r="94">
-      <c r="A94" s="1">
-        <v>190.0</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C94" s="3">
-        <v>305.0</v>
-      </c>
-      <c r="D94" s="2" t="s">
+      <c r="A94" s="6">
+        <v>189.0</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" s="7">
+        <v>235.0</v>
+      </c>
+      <c r="D94" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E94" s="4"/>
@@ -3814,13 +3826,13 @@
     </row>
     <row r="95">
       <c r="A95" s="1">
-        <v>192.0</v>
+        <v>190.0</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C95" s="3">
-        <v>285.0</v>
+        <v>305.0</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>3</v>
@@ -3849,16 +3861,16 @@
       <c r="Z95" s="4"/>
     </row>
     <row r="96">
-      <c r="A96" s="6">
-        <v>193.0</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C96" s="7">
-        <v>245.0</v>
-      </c>
-      <c r="D96" s="5" t="s">
+      <c r="A96" s="1">
+        <v>192.0</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" s="3">
+        <v>285.0</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E96" s="4"/>
@@ -3886,13 +3898,13 @@
     </row>
     <row r="97">
       <c r="A97" s="6">
-        <v>195.0</v>
+        <v>193.0</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C97" s="7">
-        <v>325.0</v>
+        <v>245.0</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>3</v>
@@ -3922,13 +3934,13 @@
     </row>
     <row r="98">
       <c r="A98" s="6">
-        <v>196.0</v>
+        <v>195.0</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C98" s="7">
-        <v>220.0</v>
+        <v>325.0</v>
       </c>
       <c r="D98" s="5" t="s">
         <v>3</v>
@@ -3957,16 +3969,16 @@
       <c r="Z98" s="4"/>
     </row>
     <row r="99">
-      <c r="A99" s="1">
-        <v>201.0</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C99" s="3">
-        <v>285.0</v>
-      </c>
-      <c r="D99" s="2" t="s">
+      <c r="A99" s="6">
+        <v>196.0</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" s="7">
+        <v>220.0</v>
+      </c>
+      <c r="D99" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E99" s="4"/>
@@ -3994,12 +4006,14 @@
     </row>
     <row r="100">
       <c r="A100" s="6">
-        <v>203.0</v>
+        <v>200.0</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C100" s="3"/>
+      <c r="C100" s="7">
+        <v>275.0</v>
+      </c>
       <c r="D100" s="5" t="s">
         <v>3</v>
       </c>
@@ -4028,13 +4042,13 @@
     </row>
     <row r="101">
       <c r="A101" s="1">
-        <v>204.0</v>
+        <v>201.0</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C101" s="3">
-        <v>270.0</v>
+        <v>285.0</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>3</v>
@@ -4064,14 +4078,12 @@
     </row>
     <row r="102">
       <c r="A102" s="6">
-        <v>205.0</v>
+        <v>203.0</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C102" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C102" s="3"/>
       <c r="D102" s="5" t="s">
         <v>3</v>
       </c>
@@ -4099,16 +4111,16 @@
       <c r="Z102" s="4"/>
     </row>
     <row r="103">
-      <c r="A103" s="6">
-        <v>207.0</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C103" s="7">
-        <v>325.0</v>
-      </c>
-      <c r="D103" s="5" t="s">
+      <c r="A103" s="1">
+        <v>204.0</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103" s="3">
+        <v>270.0</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E103" s="4"/>
@@ -4136,13 +4148,13 @@
     </row>
     <row r="104">
       <c r="A104" s="6">
-        <v>209.0</v>
+        <v>205.0</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D104" s="5" t="s">
         <v>3</v>
@@ -4172,13 +4184,13 @@
     </row>
     <row r="105">
       <c r="A105" s="6">
-        <v>215.0</v>
+        <v>207.0</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C105" s="7">
-        <v>310.0</v>
+        <v>325.0</v>
       </c>
       <c r="D105" s="5" t="s">
         <v>3</v>
@@ -4208,13 +4220,13 @@
     </row>
     <row r="106">
       <c r="A106" s="6">
-        <v>216.0</v>
+        <v>209.0</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C106" s="7">
-        <v>320.0</v>
+      <c r="C106" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>3</v>
@@ -4243,16 +4255,16 @@
       <c r="Z106" s="4"/>
     </row>
     <row r="107">
-      <c r="A107" s="1">
-        <v>218.0</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C107" s="3">
-        <v>275.0</v>
-      </c>
-      <c r="D107" s="2" t="s">
+      <c r="A107" s="6">
+        <v>215.0</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D107" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E107" s="4"/>
@@ -4280,13 +4292,13 @@
     </row>
     <row r="108">
       <c r="A108" s="6">
-        <v>219.0</v>
+        <v>216.0</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C108" s="7">
-        <v>275.0</v>
+        <v>320.0</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>3</v>
@@ -4315,16 +4327,16 @@
       <c r="Z108" s="4"/>
     </row>
     <row r="109">
-      <c r="A109" s="6">
-        <v>220.0</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C109" s="7">
-        <v>320.0</v>
-      </c>
-      <c r="D109" s="5" t="s">
+      <c r="A109" s="1">
+        <v>218.0</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109" s="3">
+        <v>275.0</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E109" s="4"/>
@@ -4352,13 +4364,13 @@
     </row>
     <row r="110">
       <c r="A110" s="6">
-        <v>221.0</v>
+        <v>219.0</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C110" s="7">
-        <v>315.0</v>
+        <v>275.0</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>3</v>
@@ -4387,16 +4399,16 @@
       <c r="Z110" s="4"/>
     </row>
     <row r="111">
-      <c r="A111" s="1">
-        <v>227.0</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C111" s="3">
-        <v>325.0</v>
-      </c>
-      <c r="D111" s="2" t="s">
+      <c r="A111" s="6">
+        <v>220.0</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111" s="7">
+        <v>320.0</v>
+      </c>
+      <c r="D111" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E111" s="4"/>
@@ -4423,16 +4435,16 @@
       <c r="Z111" s="4"/>
     </row>
     <row r="112">
-      <c r="A112" s="1">
-        <v>229.0</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C112" s="3">
-        <v>300.0</v>
-      </c>
-      <c r="D112" s="2" t="s">
+      <c r="A112" s="6">
+        <v>221.0</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112" s="7">
+        <v>315.0</v>
+      </c>
+      <c r="D112" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E112" s="4"/>
@@ -4459,16 +4471,16 @@
       <c r="Z112" s="4"/>
     </row>
     <row r="113">
-      <c r="A113" s="6">
-        <v>232.0</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C113" s="7">
-        <v>275.0</v>
-      </c>
-      <c r="D113" s="5" t="s">
+      <c r="A113" s="1">
+        <v>227.0</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113" s="3">
+        <v>325.0</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E113" s="4"/>
@@ -4496,13 +4508,13 @@
     </row>
     <row r="114">
       <c r="A114" s="1">
-        <v>237.0</v>
+        <v>229.0</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C114" s="3">
-        <v>240.0</v>
+        <v>300.0</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>3</v>
@@ -4532,13 +4544,13 @@
     </row>
     <row r="115">
       <c r="A115" s="6">
-        <v>238.0</v>
+        <v>232.0</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C115" s="7">
-        <v>280.0</v>
+        <v>275.0</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>3</v>
@@ -4567,16 +4579,16 @@
       <c r="Z115" s="4"/>
     </row>
     <row r="116">
-      <c r="A116" s="6">
+      <c r="A116" s="1">
+        <v>237.0</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116" s="3">
         <v>240.0</v>
       </c>
-      <c r="B116" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C116" s="7">
-        <v>300.0</v>
-      </c>
-      <c r="D116" s="5" t="s">
+      <c r="D116" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E116" s="4"/>
@@ -4603,16 +4615,16 @@
       <c r="Z116" s="4"/>
     </row>
     <row r="117">
-      <c r="A117" s="1">
-        <v>243.0</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C117" s="3">
-        <v>225.0</v>
-      </c>
-      <c r="D117" s="2" t="s">
+      <c r="A117" s="6">
+        <v>238.0</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117" s="7">
+        <v>280.0</v>
+      </c>
+      <c r="D117" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E117" s="4"/>
@@ -4640,13 +4652,13 @@
     </row>
     <row r="118">
       <c r="A118" s="6">
-        <v>245.0</v>
+        <v>240.0</v>
       </c>
       <c r="B118" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C118" s="7">
-        <v>325.0</v>
+        <v>300.0</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>3</v>
@@ -4675,16 +4687,16 @@
       <c r="Z118" s="4"/>
     </row>
     <row r="119">
-      <c r="A119" s="6">
-        <v>246.0</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C119" s="7">
-        <v>265.0</v>
-      </c>
-      <c r="D119" s="5" t="s">
+      <c r="A119" s="1">
+        <v>243.0</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119" s="3">
+        <v>225.0</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E119" s="4"/>
@@ -4712,13 +4724,13 @@
     </row>
     <row r="120">
       <c r="A120" s="6">
-        <v>250.0</v>
+        <v>245.0</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C120" s="7">
-        <v>245.0</v>
+        <v>325.0</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>3</v>
@@ -4748,13 +4760,13 @@
     </row>
     <row r="121">
       <c r="A121" s="6">
-        <v>252.0</v>
+        <v>246.0</v>
       </c>
       <c r="B121" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C121" s="7" t="s">
-        <v>15</v>
+      <c r="C121" s="7">
+        <v>265.0</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>3</v>
@@ -4784,12 +4796,14 @@
     </row>
     <row r="122">
       <c r="A122" s="6">
-        <v>256.0</v>
+        <v>250.0</v>
       </c>
       <c r="B122" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C122" s="7"/>
+      <c r="C122" s="7">
+        <v>245.0</v>
+      </c>
       <c r="D122" s="5" t="s">
         <v>3</v>
       </c>
@@ -4818,13 +4832,13 @@
     </row>
     <row r="123">
       <c r="A123" s="6">
-        <v>257.0</v>
+        <v>252.0</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C123" s="7">
-        <v>260.0</v>
+      <c r="C123" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>3</v>
@@ -4854,14 +4868,12 @@
     </row>
     <row r="124">
       <c r="A124" s="6">
-        <v>259.0</v>
+        <v>256.0</v>
       </c>
       <c r="B124" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C124" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="C124" s="7"/>
       <c r="D124" s="5" t="s">
         <v>3</v>
       </c>
@@ -4890,7 +4902,7 @@
     </row>
     <row r="125">
       <c r="A125" s="6">
-        <v>260.0</v>
+        <v>257.0</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>3</v>
@@ -4926,13 +4938,13 @@
     </row>
     <row r="126">
       <c r="A126" s="6">
-        <v>261.0</v>
+        <v>259.0</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C126" s="7">
-        <v>240.0</v>
+      <c r="C126" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>3</v>
@@ -4962,13 +4974,13 @@
     </row>
     <row r="127">
       <c r="A127" s="6">
-        <v>262.0</v>
+        <v>260.0</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C127" s="7">
-        <v>250.0</v>
+        <v>260.0</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>3</v>
@@ -4998,13 +5010,13 @@
     </row>
     <row r="128">
       <c r="A128" s="6">
-        <v>264.0</v>
+        <v>261.0</v>
       </c>
       <c r="B128" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C128" s="7" t="s">
-        <v>5</v>
+      <c r="C128" s="7">
+        <v>240.0</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>3</v>
@@ -5033,16 +5045,16 @@
       <c r="Z128" s="4"/>
     </row>
     <row r="129">
-      <c r="A129" s="1">
-        <v>265.0</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C129" s="3">
+      <c r="A129" s="6">
+        <v>262.0</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129" s="7">
         <v>250.0</v>
       </c>
-      <c r="D129" s="2" t="s">
+      <c r="D129" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E129" s="4"/>
@@ -5070,13 +5082,13 @@
     </row>
     <row r="130">
       <c r="A130" s="6">
-        <v>270.0</v>
+        <v>263.0</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C130" s="7">
-        <v>265.0</v>
+        <v>275.0</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>3</v>
@@ -5106,13 +5118,13 @@
     </row>
     <row r="131">
       <c r="A131" s="6">
-        <v>272.0</v>
+        <v>264.0</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C131" s="7">
-        <v>250.0</v>
+      <c r="C131" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>3</v>
@@ -5141,16 +5153,16 @@
       <c r="Z131" s="4"/>
     </row>
     <row r="132">
-      <c r="A132" s="6">
-        <v>273.0</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C132" s="7">
-        <v>290.0</v>
-      </c>
-      <c r="D132" s="5" t="s">
+      <c r="A132" s="1">
+        <v>265.0</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C132" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E132" s="4"/>
@@ -5177,16 +5189,16 @@
       <c r="Z132" s="4"/>
     </row>
     <row r="133">
-      <c r="A133" s="1">
-        <v>274.0</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C133" s="3">
-        <v>260.0</v>
-      </c>
-      <c r="D133" s="2" t="s">
+      <c r="A133" s="6">
+        <v>268.0</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D133" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E133" s="4"/>
@@ -5214,13 +5226,13 @@
     </row>
     <row r="134">
       <c r="A134" s="6">
-        <v>275.0</v>
+        <v>270.0</v>
       </c>
       <c r="B134" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C134" s="7">
-        <v>290.0</v>
+        <v>265.0</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>3</v>
@@ -5250,13 +5262,13 @@
     </row>
     <row r="135">
       <c r="A135" s="6">
-        <v>277.0</v>
+        <v>272.0</v>
       </c>
       <c r="B135" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C135" s="7">
-        <v>280.0</v>
+        <v>250.0</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>3</v>
@@ -5286,13 +5298,13 @@
     </row>
     <row r="136">
       <c r="A136" s="6">
-        <v>279.0</v>
+        <v>273.0</v>
       </c>
       <c r="B136" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C136" s="7">
-        <v>255.0</v>
+        <v>290.0</v>
       </c>
       <c r="D136" s="5" t="s">
         <v>3</v>
@@ -5321,16 +5333,16 @@
       <c r="Z136" s="4"/>
     </row>
     <row r="137">
-      <c r="A137" s="6">
-        <v>281.0</v>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C137" s="7">
-        <v>295.0</v>
-      </c>
-      <c r="D137" s="5" t="s">
+      <c r="A137" s="1">
+        <v>274.0</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C137" s="3">
+        <v>260.0</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E137" s="4"/>
@@ -5358,13 +5370,13 @@
     </row>
     <row r="138">
       <c r="A138" s="6">
-        <v>284.0</v>
+        <v>275.0</v>
       </c>
       <c r="B138" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C138" s="7">
-        <v>260.0</v>
+        <v>290.0</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>3</v>
@@ -5394,13 +5406,13 @@
     </row>
     <row r="139">
       <c r="A139" s="6">
-        <v>285.0</v>
+        <v>277.0</v>
       </c>
       <c r="B139" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C139" s="7">
-        <v>245.0</v>
+        <v>280.0</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>3</v>
@@ -5430,13 +5442,13 @@
     </row>
     <row r="140">
       <c r="A140" s="6">
-        <v>286.0</v>
+        <v>279.0</v>
       </c>
       <c r="B140" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C140" s="7">
-        <v>270.0</v>
+        <v>255.0</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>3</v>
@@ -5466,12 +5478,14 @@
     </row>
     <row r="141">
       <c r="A141" s="6">
-        <v>287.0</v>
+        <v>281.0</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C141" s="7"/>
+      <c r="C141" s="7">
+        <v>295.0</v>
+      </c>
       <c r="D141" s="5" t="s">
         <v>3</v>
       </c>
@@ -5500,7 +5514,7 @@
     </row>
     <row r="142">
       <c r="A142" s="6">
-        <v>289.0</v>
+        <v>284.0</v>
       </c>
       <c r="B142" s="5" t="s">
         <v>3</v>
@@ -5535,16 +5549,16 @@
       <c r="Z142" s="4"/>
     </row>
     <row r="143">
-      <c r="A143" s="1">
-        <v>290.0</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C143" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D143" s="2" t="s">
+      <c r="A143" s="6">
+        <v>285.0</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C143" s="7">
+        <v>245.0</v>
+      </c>
+      <c r="D143" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E143" s="4"/>
@@ -5572,13 +5586,13 @@
     </row>
     <row r="144">
       <c r="A144" s="6">
-        <v>295.0</v>
+        <v>286.0</v>
       </c>
       <c r="B144" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C144" s="7" t="s">
-        <v>14</v>
+      <c r="C144" s="7">
+        <v>270.0</v>
       </c>
       <c r="D144" s="5" t="s">
         <v>3</v>
@@ -5608,15 +5622,13 @@
     </row>
     <row r="145">
       <c r="A145" s="6">
-        <v>296.0</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C145" s="7">
-        <v>235.0</v>
-      </c>
-      <c r="D145" s="2" t="s">
+        <v>287.0</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C145" s="7"/>
+      <c r="D145" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E145" s="4"/>
@@ -5644,13 +5656,13 @@
     </row>
     <row r="146">
       <c r="A146" s="6">
-        <v>298.0</v>
+        <v>289.0</v>
       </c>
       <c r="B146" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C146" s="7">
-        <v>275.0</v>
+        <v>260.0</v>
       </c>
       <c r="D146" s="5" t="s">
         <v>3</v>
@@ -5679,16 +5691,16 @@
       <c r="Z146" s="4"/>
     </row>
     <row r="147">
-      <c r="A147" s="6">
-        <v>299.0</v>
-      </c>
-      <c r="B147" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C147" s="7">
-        <v>335.0</v>
-      </c>
-      <c r="D147" s="5" t="s">
+      <c r="A147" s="1">
+        <v>290.0</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E147" s="4"/>
@@ -5716,13 +5728,13 @@
     </row>
     <row r="148">
       <c r="A148" s="6">
-        <v>302.0</v>
+        <v>295.0</v>
       </c>
       <c r="B148" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D148" s="5" t="s">
         <v>3</v>
@@ -5751,13 +5763,13 @@
       <c r="Z148" s="4"/>
     </row>
     <row r="149">
-      <c r="A149" s="1">
-        <v>306.0</v>
+      <c r="A149" s="6">
+        <v>296.0</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C149" s="3">
+      <c r="C149" s="7">
         <v>235.0</v>
       </c>
       <c r="D149" s="2" t="s">
@@ -5788,13 +5800,13 @@
     </row>
     <row r="150">
       <c r="A150" s="6">
-        <v>307.0</v>
+        <v>298.0</v>
       </c>
       <c r="B150" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C150" s="7">
-        <v>250.0</v>
+        <v>275.0</v>
       </c>
       <c r="D150" s="5" t="s">
         <v>3</v>
@@ -5824,13 +5836,13 @@
     </row>
     <row r="151">
       <c r="A151" s="6">
-        <v>309.0</v>
+        <v>299.0</v>
       </c>
       <c r="B151" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C151" s="7">
-        <v>260.0</v>
+        <v>335.0</v>
       </c>
       <c r="D151" s="5" t="s">
         <v>3</v>
@@ -5860,13 +5872,13 @@
     </row>
     <row r="152">
       <c r="A152" s="6">
-        <v>312.0</v>
+        <v>302.0</v>
       </c>
       <c r="B152" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C152" s="7">
-        <v>325.0</v>
+      <c r="C152" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="D152" s="5" t="s">
         <v>3</v>
@@ -5895,16 +5907,16 @@
       <c r="Z152" s="4"/>
     </row>
     <row r="153">
-      <c r="A153" s="6">
-        <v>313.0</v>
-      </c>
-      <c r="B153" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C153" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D153" s="5" t="s">
+      <c r="A153" s="1">
+        <v>306.0</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C153" s="3">
+        <v>235.0</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E153" s="4"/>
@@ -5932,13 +5944,13 @@
     </row>
     <row r="154">
       <c r="A154" s="6">
-        <v>316.0</v>
+        <v>307.0</v>
       </c>
       <c r="B154" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C154" s="7" t="s">
-        <v>19</v>
+      <c r="C154" s="7">
+        <v>250.0</v>
       </c>
       <c r="D154" s="5" t="s">
         <v>3</v>
@@ -5968,13 +5980,13 @@
     </row>
     <row r="155">
       <c r="A155" s="6">
-        <v>317.0</v>
+        <v>309.0</v>
       </c>
       <c r="B155" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C155" s="7">
-        <v>265.0</v>
+        <v>260.0</v>
       </c>
       <c r="D155" s="5" t="s">
         <v>3</v>
@@ -6004,13 +6016,13 @@
     </row>
     <row r="156">
       <c r="A156" s="6">
-        <v>321.0</v>
+        <v>312.0</v>
       </c>
       <c r="B156" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C156" s="7">
-        <v>305.0</v>
+        <v>325.0</v>
       </c>
       <c r="D156" s="5" t="s">
         <v>3</v>
@@ -6040,13 +6052,13 @@
     </row>
     <row r="157">
       <c r="A157" s="6">
-        <v>323.0</v>
+        <v>313.0</v>
       </c>
       <c r="B157" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C157" s="7">
-        <v>265.0</v>
+      <c r="C157" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="D157" s="5" t="s">
         <v>3</v>
@@ -6075,16 +6087,16 @@
       <c r="Z157" s="4"/>
     </row>
     <row r="158">
-      <c r="A158" s="1">
-        <v>324.0</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C158" s="3">
-        <v>260.0</v>
-      </c>
-      <c r="D158" s="2" t="s">
+      <c r="A158" s="6">
+        <v>316.0</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D158" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E158" s="4"/>
@@ -6112,13 +6124,13 @@
     </row>
     <row r="159">
       <c r="A159" s="6">
-        <v>325.0</v>
+        <v>317.0</v>
       </c>
       <c r="B159" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C159" s="7">
-        <v>320.0</v>
+        <v>265.0</v>
       </c>
       <c r="D159" s="5" t="s">
         <v>3</v>
@@ -6147,16 +6159,16 @@
       <c r="Z159" s="4"/>
     </row>
     <row r="160">
-      <c r="A160" s="1">
-        <v>328.0</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C160" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D160" s="2" t="s">
+      <c r="A160" s="6">
+        <v>321.0</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C160" s="7">
+        <v>305.0</v>
+      </c>
+      <c r="D160" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E160" s="4"/>
@@ -6184,13 +6196,13 @@
     </row>
     <row r="161">
       <c r="A161" s="6">
-        <v>334.0</v>
+        <v>323.0</v>
       </c>
       <c r="B161" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C161" s="7" t="s">
-        <v>21</v>
+      <c r="C161" s="7">
+        <v>265.0</v>
       </c>
       <c r="D161" s="5" t="s">
         <v>3</v>
@@ -6219,16 +6231,16 @@
       <c r="Z161" s="4"/>
     </row>
     <row r="162">
-      <c r="A162" s="6">
-        <v>338.0</v>
-      </c>
-      <c r="B162" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C162" s="7">
-        <v>235.0</v>
-      </c>
-      <c r="D162" s="5" t="s">
+      <c r="A162" s="1">
+        <v>324.0</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C162" s="3">
+        <v>260.0</v>
+      </c>
+      <c r="D162" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E162" s="4"/>
@@ -6256,13 +6268,13 @@
     </row>
     <row r="163">
       <c r="A163" s="6">
-        <v>344.0</v>
+        <v>325.0</v>
       </c>
       <c r="B163" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C163" s="7" t="s">
-        <v>22</v>
+      <c r="C163" s="7">
+        <v>320.0</v>
       </c>
       <c r="D163" s="5" t="s">
         <v>3</v>
@@ -6291,16 +6303,16 @@
       <c r="Z163" s="4"/>
     </row>
     <row r="164">
-      <c r="A164" s="6">
-        <v>345.0</v>
-      </c>
-      <c r="B164" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C164" s="7">
-        <v>325.0</v>
-      </c>
-      <c r="D164" s="5" t="s">
+      <c r="A164" s="1">
+        <v>328.0</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D164" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E164" s="4"/>
@@ -6328,13 +6340,13 @@
     </row>
     <row r="165">
       <c r="A165" s="6">
-        <v>348.0</v>
+        <v>334.0</v>
       </c>
       <c r="B165" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C165" s="7">
-        <v>270.0</v>
+      <c r="C165" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D165" s="5" t="s">
         <v>3</v>
@@ -6363,16 +6375,16 @@
       <c r="Z165" s="4"/>
     </row>
     <row r="166">
-      <c r="A166" s="1">
-        <v>349.0</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C166" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D166" s="2" t="s">
+      <c r="A166" s="6">
+        <v>338.0</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C166" s="7">
+        <v>235.0</v>
+      </c>
+      <c r="D166" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E166" s="4"/>
@@ -6399,16 +6411,16 @@
       <c r="Z166" s="4"/>
     </row>
     <row r="167">
-      <c r="A167" s="1">
-        <v>350.0</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C167" s="3">
-        <v>225.0</v>
-      </c>
-      <c r="D167" s="2" t="s">
+      <c r="A167" s="6">
+        <v>344.0</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D167" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E167" s="4"/>
@@ -6436,13 +6448,13 @@
     </row>
     <row r="168">
       <c r="A168" s="6">
-        <v>351.0</v>
+        <v>345.0</v>
       </c>
       <c r="B168" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C168" s="7">
-        <v>260.0</v>
+        <v>325.0</v>
       </c>
       <c r="D168" s="5" t="s">
         <v>3</v>
@@ -6472,13 +6484,13 @@
     </row>
     <row r="169">
       <c r="A169" s="6">
-        <v>353.0</v>
+        <v>348.0</v>
       </c>
       <c r="B169" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C169" s="7" t="s">
-        <v>23</v>
+      <c r="C169" s="7">
+        <v>270.0</v>
       </c>
       <c r="D169" s="5" t="s">
         <v>3</v>
@@ -6507,16 +6519,16 @@
       <c r="Z169" s="4"/>
     </row>
     <row r="170">
-      <c r="A170" s="6">
-        <v>356.0</v>
-      </c>
-      <c r="B170" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C170" s="7">
-        <v>260.0</v>
-      </c>
-      <c r="D170" s="5" t="s">
+      <c r="A170" s="1">
+        <v>349.0</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C170" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D170" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E170" s="4"/>
@@ -6543,16 +6555,16 @@
       <c r="Z170" s="4"/>
     </row>
     <row r="171">
-      <c r="A171" s="6">
-        <v>357.0</v>
-      </c>
-      <c r="B171" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C171" s="7">
-        <v>300.0</v>
-      </c>
-      <c r="D171" s="5" t="s">
+      <c r="A171" s="1">
+        <v>350.0</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C171" s="3">
+        <v>225.0</v>
+      </c>
+      <c r="D171" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E171" s="4"/>
@@ -6579,16 +6591,16 @@
       <c r="Z171" s="4"/>
     </row>
     <row r="172">
-      <c r="A172" s="1">
-        <v>361.0</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C172" s="3">
-        <v>245.0</v>
-      </c>
-      <c r="D172" s="2" t="s">
+      <c r="A172" s="6">
+        <v>351.0</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C172" s="7">
+        <v>260.0</v>
+      </c>
+      <c r="D172" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E172" s="4"/>
@@ -6616,7 +6628,7 @@
     </row>
     <row r="173">
       <c r="A173" s="6">
-        <v>362.0</v>
+        <v>353.0</v>
       </c>
       <c r="B173" s="5" t="s">
         <v>3</v>
@@ -6652,13 +6664,13 @@
     </row>
     <row r="174">
       <c r="A174" s="6">
-        <v>365.0</v>
+        <v>356.0</v>
       </c>
       <c r="B174" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C174" s="7">
-        <v>335.0</v>
+        <v>260.0</v>
       </c>
       <c r="D174" s="5" t="s">
         <v>3</v>
@@ -6688,13 +6700,13 @@
     </row>
     <row r="175">
       <c r="A175" s="6">
-        <v>366.0</v>
+        <v>357.0</v>
       </c>
       <c r="B175" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C175" s="7">
-        <v>260.0</v>
+        <v>300.0</v>
       </c>
       <c r="D175" s="5" t="s">
         <v>3</v>
@@ -6724,13 +6736,13 @@
     </row>
     <row r="176">
       <c r="A176" s="1">
-        <v>367.0</v>
+        <v>361.0</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C176" s="3">
-        <v>225.0</v>
+        <v>245.0</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>3</v>
@@ -6760,13 +6772,13 @@
     </row>
     <row r="177">
       <c r="A177" s="6">
-        <v>368.0</v>
+        <v>362.0</v>
       </c>
       <c r="B177" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C177" s="7">
-        <v>260.0</v>
+      <c r="C177" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="D177" s="5" t="s">
         <v>3</v>
@@ -6795,16 +6807,16 @@
       <c r="Z177" s="4"/>
     </row>
     <row r="178">
-      <c r="A178" s="1">
-        <v>369.0</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C178" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D178" s="2" t="s">
+      <c r="A178" s="6">
+        <v>365.0</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C178" s="7">
+        <v>335.0</v>
+      </c>
+      <c r="D178" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E178" s="4"/>
@@ -6832,13 +6844,13 @@
     </row>
     <row r="179">
       <c r="A179" s="6">
-        <v>370.0</v>
+        <v>366.0</v>
       </c>
       <c r="B179" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C179" s="7">
-        <v>265.0</v>
+        <v>260.0</v>
       </c>
       <c r="D179" s="5" t="s">
         <v>3</v>
@@ -6868,13 +6880,13 @@
     </row>
     <row r="180">
       <c r="A180" s="1">
-        <v>375.0</v>
+        <v>367.0</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C180" s="3">
-        <v>245.0</v>
+        <v>225.0</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>3</v>
@@ -6903,16 +6915,16 @@
       <c r="Z180" s="4"/>
     </row>
     <row r="181">
-      <c r="A181" s="1">
-        <v>377.0</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C181" s="3">
-        <v>275.0</v>
-      </c>
-      <c r="D181" s="2" t="s">
+      <c r="A181" s="6">
+        <v>368.0</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C181" s="7">
+        <v>260.0</v>
+      </c>
+      <c r="D181" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E181" s="4"/>
@@ -6939,16 +6951,16 @@
       <c r="Z181" s="4"/>
     </row>
     <row r="182">
-      <c r="A182" s="6">
-        <v>378.0</v>
-      </c>
-      <c r="B182" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C182" s="7">
-        <v>275.0</v>
-      </c>
-      <c r="D182" s="5" t="s">
+      <c r="A182" s="1">
+        <v>369.0</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C182" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D182" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E182" s="4"/>
@@ -6976,13 +6988,13 @@
     </row>
     <row r="183">
       <c r="A183" s="6">
-        <v>380.0</v>
+        <v>370.0</v>
       </c>
       <c r="B183" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C183" s="7">
-        <v>285.0</v>
+        <v>265.0</v>
       </c>
       <c r="D183" s="5" t="s">
         <v>3</v>
@@ -7012,13 +7024,13 @@
     </row>
     <row r="184">
       <c r="A184" s="1">
-        <v>382.0</v>
+        <v>375.0</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C184" s="3">
-        <v>295.0</v>
+        <v>245.0</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>3</v>
@@ -7047,16 +7059,16 @@
       <c r="Z184" s="4"/>
     </row>
     <row r="185">
-      <c r="A185" s="6">
-        <v>384.0</v>
-      </c>
-      <c r="B185" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C185" s="7">
-        <v>310.0</v>
-      </c>
-      <c r="D185" s="5" t="s">
+      <c r="A185" s="1">
+        <v>377.0</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C185" s="3">
+        <v>275.0</v>
+      </c>
+      <c r="D185" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E185" s="4"/>
@@ -7084,13 +7096,13 @@
     </row>
     <row r="186">
       <c r="A186" s="6">
-        <v>388.0</v>
+        <v>378.0</v>
       </c>
       <c r="B186" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C186" s="7">
-        <v>290.0</v>
+        <v>275.0</v>
       </c>
       <c r="D186" s="5" t="s">
         <v>3</v>
@@ -7119,16 +7131,16 @@
       <c r="Z186" s="4"/>
     </row>
     <row r="187">
-      <c r="A187" s="1">
-        <v>389.0</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C187" s="3">
-        <v>265.0</v>
-      </c>
-      <c r="D187" s="2" t="s">
+      <c r="A187" s="6">
+        <v>380.0</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C187" s="7">
+        <v>285.0</v>
+      </c>
+      <c r="D187" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E187" s="4"/>
@@ -7155,16 +7167,16 @@
       <c r="Z187" s="4"/>
     </row>
     <row r="188">
-      <c r="A188" s="6">
-        <v>390.0</v>
-      </c>
-      <c r="B188" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C188" s="7">
-        <v>300.0</v>
-      </c>
-      <c r="D188" s="5" t="s">
+      <c r="A188" s="1">
+        <v>382.0</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C188" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D188" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E188" s="4"/>
@@ -7192,13 +7204,13 @@
     </row>
     <row r="189">
       <c r="A189" s="6">
-        <v>395.0</v>
+        <v>384.0</v>
       </c>
       <c r="B189" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C189" s="7" t="s">
-        <v>8</v>
+      <c r="C189" s="7">
+        <v>310.0</v>
       </c>
       <c r="D189" s="5" t="s">
         <v>3</v>
@@ -7228,13 +7240,13 @@
     </row>
     <row r="190">
       <c r="A190" s="6">
-        <v>398.0</v>
+        <v>388.0</v>
       </c>
       <c r="B190" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C190" s="7">
-        <v>260.0</v>
+        <v>290.0</v>
       </c>
       <c r="D190" s="5" t="s">
         <v>3</v>
@@ -7264,13 +7276,13 @@
     </row>
     <row r="191">
       <c r="A191" s="1">
-        <v>399.0</v>
+        <v>389.0</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C191" s="3">
-        <v>260.0</v>
+        <v>265.0</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>3</v>
@@ -7299,16 +7311,16 @@
       <c r="Z191" s="4"/>
     </row>
     <row r="192">
-      <c r="A192" s="1">
-        <v>404.0</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C192" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D192" s="2" t="s">
+      <c r="A192" s="6">
+        <v>390.0</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C192" s="7">
+        <v>300.0</v>
+      </c>
+      <c r="D192" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E192" s="4"/>
@@ -7336,13 +7348,13 @@
     </row>
     <row r="193">
       <c r="A193" s="6">
-        <v>406.0</v>
+        <v>395.0</v>
       </c>
       <c r="B193" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D193" s="5" t="s">
         <v>3</v>
@@ -7372,13 +7384,13 @@
     </row>
     <row r="194">
       <c r="A194" s="6">
-        <v>409.0</v>
+        <v>398.0</v>
       </c>
       <c r="B194" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C194" s="7">
-        <v>265.0</v>
+        <v>260.0</v>
       </c>
       <c r="D194" s="5" t="s">
         <v>3</v>
@@ -7407,16 +7419,16 @@
       <c r="Z194" s="4"/>
     </row>
     <row r="195">
-      <c r="A195" s="6">
-        <v>410.0</v>
-      </c>
-      <c r="B195" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C195" s="7">
-        <v>230.0</v>
-      </c>
-      <c r="D195" s="5" t="s">
+      <c r="A195" s="1">
+        <v>399.0</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C195" s="3">
+        <v>260.0</v>
+      </c>
+      <c r="D195" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E195" s="4"/>
@@ -7443,16 +7455,16 @@
       <c r="Z195" s="4"/>
     </row>
     <row r="196">
-      <c r="A196" s="6">
-        <v>413.0</v>
-      </c>
-      <c r="B196" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C196" s="7">
-        <v>290.0</v>
-      </c>
-      <c r="D196" s="5" t="s">
+      <c r="A196" s="1">
+        <v>404.0</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C196" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D196" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E196" s="4"/>
@@ -7480,13 +7492,13 @@
     </row>
     <row r="197">
       <c r="A197" s="6">
-        <v>418.0</v>
+        <v>406.0</v>
       </c>
       <c r="B197" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C197" s="7">
-        <v>275.0</v>
+      <c r="C197" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="D197" s="5" t="s">
         <v>3</v>
@@ -7515,16 +7527,16 @@
       <c r="Z197" s="4"/>
     </row>
     <row r="198">
-      <c r="A198" s="1">
-        <v>423.0</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C198" s="3">
-        <v>280.0</v>
-      </c>
-      <c r="D198" s="2" t="s">
+      <c r="A198" s="6">
+        <v>409.0</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C198" s="7">
+        <v>265.0</v>
+      </c>
+      <c r="D198" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E198" s="4"/>
@@ -7551,16 +7563,16 @@
       <c r="Z198" s="4"/>
     </row>
     <row r="199">
-      <c r="A199" s="1">
-        <v>429.0</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C199" s="3">
-        <v>290.0</v>
-      </c>
-      <c r="D199" s="2" t="s">
+      <c r="A199" s="6">
+        <v>410.0</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C199" s="7">
+        <v>230.0</v>
+      </c>
+      <c r="D199" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E199" s="4"/>
@@ -7587,16 +7599,16 @@
       <c r="Z199" s="4"/>
     </row>
     <row r="200">
-      <c r="A200" s="1">
-        <v>430.0</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C200" s="3">
+      <c r="A200" s="6">
+        <v>413.0</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C200" s="7">
         <v>290.0</v>
       </c>
-      <c r="D200" s="2" t="s">
+      <c r="D200" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E200" s="4"/>
@@ -7624,13 +7636,13 @@
     </row>
     <row r="201">
       <c r="A201" s="6">
-        <v>436.0</v>
+        <v>418.0</v>
       </c>
       <c r="B201" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C201" s="7">
-        <v>260.0</v>
+        <v>275.0</v>
       </c>
       <c r="D201" s="5" t="s">
         <v>3</v>
@@ -7659,16 +7671,16 @@
       <c r="Z201" s="4"/>
     </row>
     <row r="202">
-      <c r="A202" s="6">
-        <v>438.0</v>
-      </c>
-      <c r="B202" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C202" s="7">
-        <v>265.0</v>
-      </c>
-      <c r="D202" s="5" t="s">
+      <c r="A202" s="1">
+        <v>423.0</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C202" s="3">
+        <v>280.0</v>
+      </c>
+      <c r="D202" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E202" s="4"/>
@@ -7695,16 +7707,16 @@
       <c r="Z202" s="4"/>
     </row>
     <row r="203">
-      <c r="A203" s="6">
-        <v>439.0</v>
-      </c>
-      <c r="B203" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C203" s="7">
-        <v>280.0</v>
-      </c>
-      <c r="D203" s="5" t="s">
+      <c r="A203" s="1">
+        <v>429.0</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C203" s="3">
+        <v>290.0</v>
+      </c>
+      <c r="D203" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E203" s="4"/>
@@ -7731,16 +7743,16 @@
       <c r="Z203" s="4"/>
     </row>
     <row r="204">
-      <c r="A204" s="6">
-        <v>441.0</v>
-      </c>
-      <c r="B204" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C204" s="7">
-        <v>270.0</v>
-      </c>
-      <c r="D204" s="5" t="s">
+      <c r="A204" s="1">
+        <v>430.0</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C204" s="3">
+        <v>290.0</v>
+      </c>
+      <c r="D204" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E204" s="4"/>
@@ -7767,16 +7779,16 @@
       <c r="Z204" s="4"/>
     </row>
     <row r="205">
-      <c r="A205" s="1">
-        <v>442.0</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C205" s="3">
-        <v>295.0</v>
-      </c>
-      <c r="D205" s="2" t="s">
+      <c r="A205" s="6">
+        <v>436.0</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C205" s="7">
+        <v>260.0</v>
+      </c>
+      <c r="D205" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E205" s="4"/>
@@ -7804,13 +7816,13 @@
     </row>
     <row r="206">
       <c r="A206" s="6">
-        <v>443.0</v>
+        <v>438.0</v>
       </c>
       <c r="B206" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C206" s="7">
-        <v>305.0</v>
+        <v>265.0</v>
       </c>
       <c r="D206" s="5" t="s">
         <v>3</v>
@@ -7840,13 +7852,13 @@
     </row>
     <row r="207">
       <c r="A207" s="6">
-        <v>444.0</v>
+        <v>439.0</v>
       </c>
       <c r="B207" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C207" s="7">
-        <v>250.0</v>
+        <v>280.0</v>
       </c>
       <c r="D207" s="5" t="s">
         <v>3</v>
@@ -7876,13 +7888,13 @@
     </row>
     <row r="208">
       <c r="A208" s="6">
-        <v>446.0</v>
+        <v>440.0</v>
       </c>
       <c r="B208" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C208" s="7">
-        <v>280.0</v>
+      <c r="C208" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="D208" s="5" t="s">
         <v>3</v>
@@ -7912,13 +7924,13 @@
     </row>
     <row r="209">
       <c r="A209" s="6">
-        <v>450.0</v>
+        <v>441.0</v>
       </c>
       <c r="B209" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C209" s="7">
-        <v>260.0</v>
+        <v>270.0</v>
       </c>
       <c r="D209" s="5" t="s">
         <v>3</v>
@@ -7947,16 +7959,16 @@
       <c r="Z209" s="4"/>
     </row>
     <row r="210">
-      <c r="A210" s="6">
-        <v>451.0</v>
-      </c>
-      <c r="B210" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C210" s="7">
-        <v>330.0</v>
-      </c>
-      <c r="D210" s="5" t="s">
+      <c r="A210" s="1">
+        <v>442.0</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C210" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D210" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E210" s="4"/>
@@ -7984,13 +7996,13 @@
     </row>
     <row r="211">
       <c r="A211" s="6">
-        <v>452.0</v>
+        <v>443.0</v>
       </c>
       <c r="B211" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C211" s="7">
-        <v>290.0</v>
+        <v>305.0</v>
       </c>
       <c r="D211" s="5" t="s">
         <v>3</v>
@@ -8019,16 +8031,16 @@
       <c r="Z211" s="4"/>
     </row>
     <row r="212">
-      <c r="A212" s="1">
-        <v>456.0</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C212" s="3">
-        <v>235.0</v>
-      </c>
-      <c r="D212" s="2" t="s">
+      <c r="A212" s="6">
+        <v>444.0</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C212" s="7">
+        <v>250.0</v>
+      </c>
+      <c r="D212" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E212" s="4"/>
@@ -8055,16 +8067,16 @@
       <c r="Z212" s="4"/>
     </row>
     <row r="213">
-      <c r="A213" s="1">
-        <v>457.0</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C213" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D213" s="2" t="s">
+      <c r="A213" s="6">
+        <v>446.0</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C213" s="7">
+        <v>280.0</v>
+      </c>
+      <c r="D213" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E213" s="4"/>
@@ -8092,13 +8104,13 @@
     </row>
     <row r="214">
       <c r="A214" s="6">
-        <v>461.0</v>
+        <v>450.0</v>
       </c>
       <c r="B214" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C214" s="7">
-        <v>210.0</v>
+        <v>260.0</v>
       </c>
       <c r="D214" s="5" t="s">
         <v>3</v>
@@ -8127,16 +8139,16 @@
       <c r="Z214" s="4"/>
     </row>
     <row r="215">
-      <c r="A215" s="1">
-        <v>463.0</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C215" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D215" s="2" t="s">
+      <c r="A215" s="6">
+        <v>451.0</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C215" s="7">
+        <v>330.0</v>
+      </c>
+      <c r="D215" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E215" s="4"/>
@@ -8163,16 +8175,16 @@
       <c r="Z215" s="4"/>
     </row>
     <row r="216">
-      <c r="A216" s="1">
-        <v>470.0</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C216" s="3">
-        <v>265.0</v>
-      </c>
-      <c r="D216" s="2" t="s">
+      <c r="A216" s="6">
+        <v>452.0</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C216" s="7">
+        <v>290.0</v>
+      </c>
+      <c r="D216" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E216" s="4"/>
@@ -8199,16 +8211,16 @@
       <c r="Z216" s="4"/>
     </row>
     <row r="217">
-      <c r="A217" s="6">
-        <v>471.0</v>
-      </c>
-      <c r="B217" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C217" s="7">
-        <v>250.0</v>
-      </c>
-      <c r="D217" s="5" t="s">
+      <c r="A217" s="1">
+        <v>456.0</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C217" s="3">
+        <v>235.0</v>
+      </c>
+      <c r="D217" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E217" s="4"/>
@@ -8235,16 +8247,16 @@
       <c r="Z217" s="4"/>
     </row>
     <row r="218">
-      <c r="A218" s="6">
-        <v>474.0</v>
-      </c>
-      <c r="B218" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C218" s="7">
-        <v>260.0</v>
-      </c>
-      <c r="D218" s="5" t="s">
+      <c r="A218" s="1">
+        <v>457.0</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C218" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D218" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E218" s="4"/>
@@ -8272,13 +8284,13 @@
     </row>
     <row r="219">
       <c r="A219" s="6">
-        <v>476.0</v>
+        <v>461.0</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C219" s="7">
-        <v>255.0</v>
+        <v>210.0</v>
       </c>
       <c r="D219" s="5" t="s">
         <v>3</v>
@@ -8307,16 +8319,16 @@
       <c r="Z219" s="4"/>
     </row>
     <row r="220">
-      <c r="A220" s="6">
-        <v>478.0</v>
-      </c>
-      <c r="B220" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C220" s="7">
-        <v>275.0</v>
-      </c>
-      <c r="D220" s="5" t="s">
+      <c r="A220" s="1">
+        <v>463.0</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C220" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D220" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E220" s="4"/>
@@ -8343,16 +8355,16 @@
       <c r="Z220" s="4"/>
     </row>
     <row r="221">
-      <c r="A221" s="6">
-        <v>480.0</v>
-      </c>
-      <c r="B221" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C221" s="7">
-        <v>290.0</v>
-      </c>
-      <c r="D221" s="5" t="s">
+      <c r="A221" s="1">
+        <v>470.0</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C221" s="3">
+        <v>265.0</v>
+      </c>
+      <c r="D221" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E221" s="4"/>
@@ -8379,16 +8391,16 @@
       <c r="Z221" s="4"/>
     </row>
     <row r="222">
-      <c r="A222" s="1">
-        <v>485.0</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C222" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D222" s="2" t="s">
+      <c r="A222" s="6">
+        <v>471.0</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C222" s="7">
+        <v>250.0</v>
+      </c>
+      <c r="D222" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E222" s="4"/>
@@ -8416,13 +8428,13 @@
     </row>
     <row r="223">
       <c r="A223" s="6">
-        <v>488.0</v>
+        <v>474.0</v>
       </c>
       <c r="B223" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C223" s="7">
-        <v>325.0</v>
+        <v>260.0</v>
       </c>
       <c r="D223" s="5" t="s">
         <v>3</v>
@@ -8452,13 +8464,13 @@
     </row>
     <row r="224">
       <c r="A224" s="6">
-        <v>490.0</v>
+        <v>476.0</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C224" s="7">
-        <v>275.0</v>
+        <v>255.0</v>
       </c>
       <c r="D224" s="5" t="s">
         <v>3</v>
@@ -8488,13 +8500,13 @@
     </row>
     <row r="225">
       <c r="A225" s="6">
-        <v>492.0</v>
+        <v>478.0</v>
       </c>
       <c r="B225" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C225" s="7" t="s">
-        <v>17</v>
+      <c r="C225" s="7">
+        <v>275.0</v>
       </c>
       <c r="D225" s="5" t="s">
         <v>3</v>
@@ -8524,13 +8536,13 @@
     </row>
     <row r="226">
       <c r="A226" s="6">
-        <v>495.0</v>
+        <v>480.0</v>
       </c>
       <c r="B226" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C226" s="7" t="s">
-        <v>10</v>
+      <c r="C226" s="7">
+        <v>290.0</v>
       </c>
       <c r="D226" s="5" t="s">
         <v>3</v>
@@ -8559,16 +8571,16 @@
       <c r="Z226" s="4"/>
     </row>
     <row r="227">
-      <c r="A227" s="1">
-        <v>503.0</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C227" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D227" s="2" t="s">
+      <c r="A227" s="6">
+        <v>482.0</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C227" s="7">
+        <v>255.0</v>
+      </c>
+      <c r="D227" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E227" s="4"/>
@@ -8595,16 +8607,16 @@
       <c r="Z227" s="4"/>
     </row>
     <row r="228">
-      <c r="A228" s="1">
-        <v>510.0</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C228" s="3">
-        <v>285.0</v>
-      </c>
-      <c r="D228" s="2" t="s">
+      <c r="A228" s="6">
+        <v>483.0</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C228" s="7">
+        <v>270.0</v>
+      </c>
+      <c r="D228" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E228" s="4"/>
@@ -8631,16 +8643,16 @@
       <c r="Z228" s="4"/>
     </row>
     <row r="229">
-      <c r="A229" s="6">
-        <v>514.0</v>
-      </c>
-      <c r="B229" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C229" s="7">
-        <v>315.0</v>
-      </c>
-      <c r="D229" s="5" t="s">
+      <c r="A229" s="1">
+        <v>485.0</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C229" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D229" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E229" s="4"/>
@@ -8668,13 +8680,13 @@
     </row>
     <row r="230">
       <c r="A230" s="6">
-        <v>516.0</v>
+        <v>488.0</v>
       </c>
       <c r="B230" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C230" s="7">
-        <v>265.0</v>
+        <v>325.0</v>
       </c>
       <c r="D230" s="5" t="s">
         <v>3</v>
@@ -8704,13 +8716,13 @@
     </row>
     <row r="231">
       <c r="A231" s="6">
-        <v>517.0</v>
+        <v>490.0</v>
       </c>
       <c r="B231" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C231" s="7">
-        <v>240.0</v>
+        <v>275.0</v>
       </c>
       <c r="D231" s="5" t="s">
         <v>3</v>
@@ -8740,13 +8752,13 @@
     </row>
     <row r="232">
       <c r="A232" s="6">
-        <v>518.0</v>
+        <v>492.0</v>
       </c>
       <c r="B232" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C232" s="7">
-        <v>270.0</v>
+      <c r="C232" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="D232" s="5" t="s">
         <v>3</v>
@@ -8776,13 +8788,13 @@
     </row>
     <row r="233">
       <c r="A233" s="6">
-        <v>520.0</v>
+        <v>495.0</v>
       </c>
       <c r="B233" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C233" s="7">
-        <v>265.0</v>
+      <c r="C233" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="D233" s="5" t="s">
         <v>3</v>
@@ -8811,16 +8823,16 @@
       <c r="Z233" s="4"/>
     </row>
     <row r="234">
-      <c r="A234" s="6">
-        <v>522.0</v>
-      </c>
-      <c r="B234" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C234" s="7">
-        <v>290.0</v>
-      </c>
-      <c r="D234" s="5" t="s">
+      <c r="A234" s="1">
+        <v>503.0</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C234" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D234" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E234" s="4"/>
@@ -8848,13 +8860,13 @@
     </row>
     <row r="235">
       <c r="A235" s="6">
-        <v>524.0</v>
+        <v>507.0</v>
       </c>
       <c r="B235" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C235" s="7">
-        <v>325.0</v>
+      <c r="C235" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D235" s="5" t="s">
         <v>3</v>
@@ -8883,16 +8895,16 @@
       <c r="Z235" s="4"/>
     </row>
     <row r="236">
-      <c r="A236" s="6">
-        <v>527.0</v>
-      </c>
-      <c r="B236" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C236" s="7">
-        <v>230.0</v>
-      </c>
-      <c r="D236" s="5" t="s">
+      <c r="A236" s="1">
+        <v>510.0</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C236" s="3">
+        <v>285.0</v>
+      </c>
+      <c r="D236" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E236" s="4"/>
@@ -8920,13 +8932,13 @@
     </row>
     <row r="237">
       <c r="A237" s="6">
-        <v>530.0</v>
+        <v>514.0</v>
       </c>
       <c r="B237" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C237" s="7">
-        <v>210.0</v>
+        <v>315.0</v>
       </c>
       <c r="D237" s="5" t="s">
         <v>3</v>
@@ -8956,13 +8968,13 @@
     </row>
     <row r="238">
       <c r="A238" s="6">
-        <v>532.0</v>
+        <v>516.0</v>
       </c>
       <c r="B238" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C238" s="7">
-        <v>290.0</v>
+        <v>265.0</v>
       </c>
       <c r="D238" s="5" t="s">
         <v>3</v>
@@ -8991,16 +9003,16 @@
       <c r="Z238" s="4"/>
     </row>
     <row r="239">
-      <c r="A239" s="1">
-        <v>534.0</v>
-      </c>
-      <c r="B239" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C239" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D239" s="2" t="s">
+      <c r="A239" s="6">
+        <v>517.0</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C239" s="7">
+        <v>240.0</v>
+      </c>
+      <c r="D239" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E239" s="4"/>
@@ -9027,16 +9039,16 @@
       <c r="Z239" s="4"/>
     </row>
     <row r="240">
-      <c r="A240" s="1">
-        <v>535.0</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C240" s="3">
-        <v>295.0</v>
-      </c>
-      <c r="D240" s="2" t="s">
+      <c r="A240" s="6">
+        <v>518.0</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C240" s="7">
+        <v>270.0</v>
+      </c>
+      <c r="D240" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E240" s="4"/>
@@ -9064,13 +9076,13 @@
     </row>
     <row r="241">
       <c r="A241" s="6">
-        <v>539.0</v>
+        <v>520.0</v>
       </c>
       <c r="B241" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C241" s="7" t="s">
-        <v>26</v>
+      <c r="C241" s="7">
+        <v>265.0</v>
       </c>
       <c r="D241" s="5" t="s">
         <v>3</v>
@@ -9100,13 +9112,13 @@
     </row>
     <row r="242">
       <c r="A242" s="6">
-        <v>540.0</v>
+        <v>522.0</v>
       </c>
       <c r="B242" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C242" s="7">
-        <v>285.0</v>
+        <v>290.0</v>
       </c>
       <c r="D242" s="5" t="s">
         <v>3</v>
@@ -9136,13 +9148,13 @@
     </row>
     <row r="243">
       <c r="A243" s="6">
-        <v>543.0</v>
+        <v>524.0</v>
       </c>
       <c r="B243" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C243" s="7">
-        <v>288.0</v>
+        <v>325.0</v>
       </c>
       <c r="D243" s="5" t="s">
         <v>3</v>
@@ -9172,13 +9184,13 @@
     </row>
     <row r="244">
       <c r="A244" s="6">
-        <v>546.0</v>
+        <v>527.0</v>
       </c>
       <c r="B244" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C244" s="7">
-        <v>265.0</v>
+        <v>230.0</v>
       </c>
       <c r="D244" s="5" t="s">
         <v>3</v>
@@ -9208,13 +9220,13 @@
     </row>
     <row r="245">
       <c r="A245" s="6">
-        <v>547.0</v>
+        <v>528.0</v>
       </c>
       <c r="B245" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C245" s="7">
-        <v>245.0</v>
+        <v>305.0</v>
       </c>
       <c r="D245" s="5" t="s">
         <v>3</v>
@@ -9244,12 +9256,14 @@
     </row>
     <row r="246">
       <c r="A246" s="6">
-        <v>549.0</v>
+        <v>530.0</v>
       </c>
       <c r="B246" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C246" s="7"/>
+      <c r="C246" s="7">
+        <v>210.0</v>
+      </c>
       <c r="D246" s="5" t="s">
         <v>3</v>
       </c>
@@ -9278,7 +9292,7 @@
     </row>
     <row r="247">
       <c r="A247" s="6">
-        <v>550.0</v>
+        <v>532.0</v>
       </c>
       <c r="B247" s="5" t="s">
         <v>3</v>
@@ -9313,16 +9327,16 @@
       <c r="Z247" s="4"/>
     </row>
     <row r="248">
-      <c r="A248" s="6">
-        <v>551.0</v>
-      </c>
-      <c r="B248" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C248" s="7">
-        <v>270.0</v>
-      </c>
-      <c r="D248" s="5" t="s">
+      <c r="A248" s="1">
+        <v>534.0</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C248" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D248" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E248" s="4"/>
@@ -9350,13 +9364,13 @@
     </row>
     <row r="249">
       <c r="A249" s="1">
-        <v>552.0</v>
+        <v>535.0</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C249" s="3">
-        <v>280.0</v>
+        <v>295.0</v>
       </c>
       <c r="D249" s="2" t="s">
         <v>3</v>
@@ -9386,13 +9400,13 @@
     </row>
     <row r="250">
       <c r="A250" s="6">
-        <v>553.0</v>
+        <v>539.0</v>
       </c>
       <c r="B250" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C250" s="7">
-        <v>310.0</v>
+      <c r="C250" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="D250" s="5" t="s">
         <v>3</v>
@@ -9422,13 +9436,13 @@
     </row>
     <row r="251">
       <c r="A251" s="6">
-        <v>555.0</v>
+        <v>540.0</v>
       </c>
       <c r="B251" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C251" s="7">
-        <v>345.0</v>
+        <v>285.0</v>
       </c>
       <c r="D251" s="5" t="s">
         <v>3</v>
@@ -9458,7 +9472,7 @@
     </row>
     <row r="252">
       <c r="A252" s="6">
-        <v>556.0</v>
+        <v>541.0</v>
       </c>
       <c r="B252" s="5" t="s">
         <v>3</v>
@@ -9494,13 +9508,13 @@
     </row>
     <row r="253">
       <c r="A253" s="6">
-        <v>560.0</v>
+        <v>543.0</v>
       </c>
       <c r="B253" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C253" s="7">
-        <v>310.0</v>
+        <v>288.0</v>
       </c>
       <c r="D253" s="5" t="s">
         <v>3</v>
@@ -9529,16 +9543,16 @@
       <c r="Z253" s="4"/>
     </row>
     <row r="254">
-      <c r="A254" s="1">
-        <v>561.0</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C254" s="3">
-        <v>280.0</v>
-      </c>
-      <c r="D254" s="2" t="s">
+      <c r="A254" s="6">
+        <v>546.0</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C254" s="7">
+        <v>265.0</v>
+      </c>
+      <c r="D254" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E254" s="4"/>
@@ -9566,13 +9580,13 @@
     </row>
     <row r="255">
       <c r="A255" s="6">
-        <v>562.0</v>
+        <v>547.0</v>
       </c>
       <c r="B255" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C255" s="7" t="s">
-        <v>5</v>
+      <c r="C255" s="7">
+        <v>245.0</v>
       </c>
       <c r="D255" s="5" t="s">
         <v>3</v>
@@ -9602,13 +9616,13 @@
     </row>
     <row r="256">
       <c r="A256" s="6">
-        <v>564.0</v>
+        <v>549.0</v>
       </c>
       <c r="B256" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C256" s="7">
-        <v>260.0</v>
+      <c r="C256" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="D256" s="5" t="s">
         <v>3</v>
@@ -9637,16 +9651,16 @@
       <c r="Z256" s="4"/>
     </row>
     <row r="257">
-      <c r="A257" s="1">
-        <v>567.0</v>
-      </c>
-      <c r="B257" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C257" s="3">
-        <v>325.0</v>
-      </c>
-      <c r="D257" s="2" t="s">
+      <c r="A257" s="6">
+        <v>550.0</v>
+      </c>
+      <c r="B257" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C257" s="7">
+        <v>290.0</v>
+      </c>
+      <c r="D257" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E257" s="4"/>
@@ -9673,16 +9687,16 @@
       <c r="Z257" s="4"/>
     </row>
     <row r="258">
-      <c r="A258" s="1">
-        <v>576.0</v>
-      </c>
-      <c r="B258" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C258" s="3">
-        <v>260.0</v>
-      </c>
-      <c r="D258" s="2" t="s">
+      <c r="A258" s="6">
+        <v>551.0</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C258" s="7">
+        <v>270.0</v>
+      </c>
+      <c r="D258" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E258" s="4"/>
@@ -9709,16 +9723,16 @@
       <c r="Z258" s="4"/>
     </row>
     <row r="259">
-      <c r="A259" s="6">
-        <v>577.0</v>
-      </c>
-      <c r="B259" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C259" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D259" s="5" t="s">
+      <c r="A259" s="1">
+        <v>552.0</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C259" s="3">
+        <v>280.0</v>
+      </c>
+      <c r="D259" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E259" s="4"/>
@@ -9745,14 +9759,14 @@
       <c r="Z259" s="4"/>
     </row>
     <row r="260">
-      <c r="A260" s="8">
-        <v>578.0</v>
+      <c r="A260" s="6">
+        <v>553.0</v>
       </c>
       <c r="B260" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C260" s="7" t="s">
-        <v>7</v>
+      <c r="C260" s="7">
+        <v>310.0</v>
       </c>
       <c r="D260" s="5" t="s">
         <v>3</v>
@@ -9781,14 +9795,14 @@
       <c r="Z260" s="4"/>
     </row>
     <row r="261">
-      <c r="A261" s="8">
-        <v>579.0</v>
+      <c r="A261" s="6">
+        <v>555.0</v>
       </c>
       <c r="B261" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C261" s="7">
-        <v>235.0</v>
+        <v>345.0</v>
       </c>
       <c r="D261" s="5" t="s">
         <v>3</v>
@@ -9817,14 +9831,14 @@
       <c r="Z261" s="4"/>
     </row>
     <row r="262">
-      <c r="A262" s="8">
-        <v>580.0</v>
+      <c r="A262" s="6">
+        <v>556.0</v>
       </c>
       <c r="B262" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C262" s="7">
-        <v>240.0</v>
+        <v>280.0</v>
       </c>
       <c r="D262" s="5" t="s">
         <v>3</v>
@@ -9853,16 +9867,16 @@
       <c r="Z262" s="4"/>
     </row>
     <row r="263">
-      <c r="A263" s="1">
-        <v>583.0</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C263" s="3">
-        <v>320.0</v>
-      </c>
-      <c r="D263" s="2" t="s">
+      <c r="A263" s="6">
+        <v>560.0</v>
+      </c>
+      <c r="B263" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C263" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D263" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E263" s="4"/>
@@ -9890,13 +9904,13 @@
     </row>
     <row r="264">
       <c r="A264" s="1">
-        <v>584.0</v>
+        <v>561.0</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C264" s="7">
-        <v>275.0</v>
+      <c r="C264" s="3">
+        <v>280.0</v>
       </c>
       <c r="D264" s="2" t="s">
         <v>3</v>
@@ -9926,13 +9940,13 @@
     </row>
     <row r="265">
       <c r="A265" s="6">
-        <v>585.0</v>
+        <v>562.0</v>
       </c>
       <c r="B265" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C265" s="7">
-        <v>235.0</v>
+      <c r="C265" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="D265" s="5" t="s">
         <v>3</v>
@@ -9961,16 +9975,16 @@
       <c r="Z265" s="4"/>
     </row>
     <row r="266">
-      <c r="A266" s="1">
-        <v>586.0</v>
-      </c>
-      <c r="B266" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C266" s="3">
-        <v>240.0</v>
-      </c>
-      <c r="D266" s="2" t="s">
+      <c r="A266" s="6">
+        <v>564.0</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C266" s="7">
+        <v>260.0</v>
+      </c>
+      <c r="D266" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E266" s="4"/>
@@ -9997,16 +10011,16 @@
       <c r="Z266" s="4"/>
     </row>
     <row r="267">
-      <c r="A267" s="6">
-        <v>587.0</v>
-      </c>
-      <c r="B267" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C267" s="7">
-        <v>265.0</v>
-      </c>
-      <c r="D267" s="5" t="s">
+      <c r="A267" s="1">
+        <v>567.0</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C267" s="3">
+        <v>325.0</v>
+      </c>
+      <c r="D267" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E267" s="4"/>
@@ -10033,16 +10047,16 @@
       <c r="Z267" s="4"/>
     </row>
     <row r="268">
-      <c r="A268" s="6">
-        <v>589.0</v>
-      </c>
-      <c r="B268" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C268" s="7">
-        <v>265.0</v>
-      </c>
-      <c r="D268" s="5" t="s">
+      <c r="A268" s="1">
+        <v>576.0</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C268" s="3">
+        <v>260.0</v>
+      </c>
+      <c r="D268" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E268" s="4"/>
@@ -10070,13 +10084,13 @@
     </row>
     <row r="269">
       <c r="A269" s="6">
-        <v>590.0</v>
+        <v>577.0</v>
       </c>
       <c r="B269" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C269" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D269" s="5" t="s">
         <v>3</v>
@@ -10105,14 +10119,14 @@
       <c r="Z269" s="4"/>
     </row>
     <row r="270">
-      <c r="A270" s="6">
-        <v>591.0</v>
+      <c r="A270" s="8">
+        <v>578.0</v>
       </c>
       <c r="B270" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C270" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D270" s="5" t="s">
         <v>3</v>
@@ -10141,16 +10155,16 @@
       <c r="Z270" s="4"/>
     </row>
     <row r="271">
-      <c r="A271" s="1">
-        <v>593.0</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C271" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D271" s="2" t="s">
+      <c r="A271" s="8">
+        <v>579.0</v>
+      </c>
+      <c r="B271" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C271" s="7">
+        <v>235.0</v>
+      </c>
+      <c r="D271" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E271" s="4"/>
@@ -10177,14 +10191,14 @@
       <c r="Z271" s="4"/>
     </row>
     <row r="272">
-      <c r="A272" s="6">
-        <v>595.0</v>
+      <c r="A272" s="8">
+        <v>580.0</v>
       </c>
       <c r="B272" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C272" s="7">
-        <v>280.0</v>
+        <v>240.0</v>
       </c>
       <c r="D272" s="5" t="s">
         <v>3</v>
@@ -10214,13 +10228,13 @@
     </row>
     <row r="273">
       <c r="A273" s="6">
-        <v>596.0</v>
+        <v>581.0</v>
       </c>
       <c r="B273" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C273" s="7" t="s">
-        <v>29</v>
+      <c r="C273" s="7">
+        <v>335.0</v>
       </c>
       <c r="D273" s="5" t="s">
         <v>3</v>
@@ -10249,16 +10263,16 @@
       <c r="Z273" s="4"/>
     </row>
     <row r="274">
-      <c r="A274" s="6">
-        <v>597.0</v>
-      </c>
-      <c r="B274" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C274" s="7">
+      <c r="A274" s="1">
+        <v>583.0</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C274" s="3">
         <v>320.0</v>
       </c>
-      <c r="D274" s="5" t="s">
+      <c r="D274" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E274" s="4"/>
@@ -10285,16 +10299,16 @@
       <c r="Z274" s="4"/>
     </row>
     <row r="275">
-      <c r="A275" s="6">
-        <v>599.0</v>
-      </c>
-      <c r="B275" s="5" t="s">
+      <c r="A275" s="1">
+        <v>584.0</v>
+      </c>
+      <c r="B275" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C275" s="7">
-        <v>280.0</v>
-      </c>
-      <c r="D275" s="5" t="s">
+        <v>275.0</v>
+      </c>
+      <c r="D275" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E275" s="4"/>
@@ -10322,13 +10336,13 @@
     </row>
     <row r="276">
       <c r="A276" s="6">
-        <v>601.0</v>
+        <v>585.0</v>
       </c>
       <c r="B276" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C276" s="7">
-        <v>305.0</v>
+        <v>235.0</v>
       </c>
       <c r="D276" s="5" t="s">
         <v>3</v>
@@ -10358,13 +10372,13 @@
     </row>
     <row r="277">
       <c r="A277" s="1">
-        <v>604.0</v>
+        <v>586.0</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C277" s="3">
-        <v>295.0</v>
+        <v>240.0</v>
       </c>
       <c r="D277" s="2" t="s">
         <v>3</v>
@@ -10394,15 +10408,15 @@
     </row>
     <row r="278">
       <c r="A278" s="6">
-        <v>605.0</v>
-      </c>
-      <c r="B278" s="2" t="s">
+        <v>587.0</v>
+      </c>
+      <c r="B278" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C278" s="7">
-        <v>270.0</v>
-      </c>
-      <c r="D278" s="2" t="s">
+        <v>265.0</v>
+      </c>
+      <c r="D278" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E278" s="4"/>
@@ -10430,13 +10444,13 @@
     </row>
     <row r="279">
       <c r="A279" s="6">
-        <v>610.0</v>
+        <v>589.0</v>
       </c>
       <c r="B279" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C279" s="7">
-        <v>260.0</v>
+        <v>265.0</v>
       </c>
       <c r="D279" s="5" t="s">
         <v>3</v>
@@ -10466,13 +10480,13 @@
     </row>
     <row r="280">
       <c r="A280" s="6">
-        <v>611.0</v>
+        <v>590.0</v>
       </c>
       <c r="B280" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C280" s="7">
-        <v>260.0</v>
+      <c r="C280" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="D280" s="5" t="s">
         <v>3</v>
@@ -10501,16 +10515,16 @@
       <c r="Z280" s="4"/>
     </row>
     <row r="281">
-      <c r="A281" s="1">
-        <v>612.0</v>
-      </c>
-      <c r="B281" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C281" s="3">
-        <v>255.0</v>
-      </c>
-      <c r="D281" s="2" t="s">
+      <c r="A281" s="6">
+        <v>591.0</v>
+      </c>
+      <c r="B281" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C281" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D281" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E281" s="4"/>
@@ -10537,16 +10551,16 @@
       <c r="Z281" s="4"/>
     </row>
     <row r="282">
-      <c r="A282" s="6">
-        <v>615.0</v>
-      </c>
-      <c r="B282" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C282" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D282" s="5" t="s">
+      <c r="A282" s="1">
+        <v>593.0</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C282" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D282" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E282" s="4"/>
@@ -10573,16 +10587,16 @@
       <c r="Z282" s="4"/>
     </row>
     <row r="283">
-      <c r="A283" s="1">
-        <v>617.0</v>
-      </c>
-      <c r="B283" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C283" s="3">
-        <v>330.0</v>
-      </c>
-      <c r="D283" s="2" t="s">
+      <c r="A283" s="6">
+        <v>595.0</v>
+      </c>
+      <c r="B283" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C283" s="7">
+        <v>280.0</v>
+      </c>
+      <c r="D283" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E283" s="4"/>
@@ -10610,13 +10624,13 @@
     </row>
     <row r="284">
       <c r="A284" s="6">
-        <v>618.0</v>
+        <v>596.0</v>
       </c>
       <c r="B284" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C284" s="7">
-        <v>330.0</v>
+      <c r="C284" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="D284" s="5" t="s">
         <v>3</v>
@@ -10646,13 +10660,13 @@
     </row>
     <row r="285">
       <c r="A285" s="6">
-        <v>621.0</v>
+        <v>597.0</v>
       </c>
       <c r="B285" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C285" s="7">
-        <v>325.0</v>
+        <v>320.0</v>
       </c>
       <c r="D285" s="5" t="s">
         <v>3</v>
@@ -10682,13 +10696,13 @@
     </row>
     <row r="286">
       <c r="A286" s="6">
-        <v>622.0</v>
+        <v>599.0</v>
       </c>
       <c r="B286" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C286" s="7" t="s">
-        <v>30</v>
+      <c r="C286" s="7">
+        <v>280.0</v>
       </c>
       <c r="D286" s="5" t="s">
         <v>3</v>
@@ -10717,16 +10731,16 @@
       <c r="Z286" s="4"/>
     </row>
     <row r="287">
-      <c r="A287" s="1">
-        <v>623.0</v>
-      </c>
-      <c r="B287" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C287" s="3">
-        <v>290.0</v>
-      </c>
-      <c r="D287" s="2" t="s">
+      <c r="A287" s="6">
+        <v>601.0</v>
+      </c>
+      <c r="B287" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C287" s="7">
+        <v>305.0</v>
+      </c>
+      <c r="D287" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E287" s="4"/>
@@ -10754,13 +10768,13 @@
     </row>
     <row r="288">
       <c r="A288" s="6">
-        <v>624.0</v>
+        <v>603.0</v>
       </c>
       <c r="B288" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C288" s="7">
-        <v>310.0</v>
+        <v>280.0</v>
       </c>
       <c r="D288" s="5" t="s">
         <v>3</v>
@@ -10790,13 +10804,13 @@
     </row>
     <row r="289">
       <c r="A289" s="1">
-        <v>625.0</v>
+        <v>604.0</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C289" s="3">
-        <v>320.0</v>
+        <v>295.0</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>3</v>
@@ -10825,14 +10839,14 @@
       <c r="Z289" s="4"/>
     </row>
     <row r="290">
-      <c r="A290" s="1">
-        <v>626.0</v>
+      <c r="A290" s="6">
+        <v>605.0</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C290" s="3">
-        <v>305.0</v>
+      <c r="C290" s="7">
+        <v>270.0</v>
       </c>
       <c r="D290" s="2" t="s">
         <v>3</v>
@@ -10862,13 +10876,13 @@
     </row>
     <row r="291">
       <c r="A291" s="6">
-        <v>628.0</v>
+        <v>610.0</v>
       </c>
       <c r="B291" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C291" s="7">
-        <v>305.0</v>
+        <v>260.0</v>
       </c>
       <c r="D291" s="5" t="s">
         <v>3</v>
@@ -10897,16 +10911,16 @@
       <c r="Z291" s="4"/>
     </row>
     <row r="292">
-      <c r="A292" s="1">
-        <v>635.0</v>
-      </c>
-      <c r="B292" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C292" s="3">
-        <v>295.0</v>
-      </c>
-      <c r="D292" s="2" t="s">
+      <c r="A292" s="6">
+        <v>611.0</v>
+      </c>
+      <c r="B292" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C292" s="7">
+        <v>260.0</v>
+      </c>
+      <c r="D292" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E292" s="4"/>
@@ -10933,16 +10947,16 @@
       <c r="Z292" s="4"/>
     </row>
     <row r="293">
-      <c r="A293" s="6">
-        <v>636.0</v>
-      </c>
-      <c r="B293" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C293" s="7">
-        <v>315.0</v>
-      </c>
-      <c r="D293" s="5" t="s">
+      <c r="A293" s="1">
+        <v>612.0</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C293" s="3">
+        <v>255.0</v>
+      </c>
+      <c r="D293" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E293" s="4"/>
@@ -10970,13 +10984,13 @@
     </row>
     <row r="294">
       <c r="A294" s="6">
-        <v>640.0</v>
+        <v>615.0</v>
       </c>
       <c r="B294" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C294" s="7">
-        <v>275.0</v>
+      <c r="C294" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="D294" s="5" t="s">
         <v>3</v>
@@ -11006,13 +11020,13 @@
     </row>
     <row r="295">
       <c r="A295" s="1">
-        <v>642.0</v>
+        <v>617.0</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C295" s="7" t="s">
-        <v>9</v>
+      <c r="C295" s="3">
+        <v>330.0</v>
       </c>
       <c r="D295" s="2" t="s">
         <v>3</v>
@@ -11041,16 +11055,16 @@
       <c r="Z295" s="4"/>
     </row>
     <row r="296">
-      <c r="A296" s="1">
-        <v>643.0</v>
-      </c>
-      <c r="B296" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C296" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D296" s="2" t="s">
+      <c r="A296" s="6">
+        <v>618.0</v>
+      </c>
+      <c r="B296" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C296" s="7">
+        <v>330.0</v>
+      </c>
+      <c r="D296" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E296" s="4"/>
@@ -11078,15 +11092,15 @@
     </row>
     <row r="297">
       <c r="A297" s="6">
-        <v>651.0</v>
-      </c>
-      <c r="B297" s="2" t="s">
+        <v>621.0</v>
+      </c>
+      <c r="B297" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C297" s="7">
-        <v>230.0</v>
-      </c>
-      <c r="D297" s="2" t="s">
+        <v>325.0</v>
+      </c>
+      <c r="D297" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E297" s="4"/>
@@ -11113,16 +11127,16 @@
       <c r="Z297" s="4"/>
     </row>
     <row r="298">
-      <c r="A298" s="1">
-        <v>652.0</v>
-      </c>
-      <c r="B298" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C298" s="3">
-        <v>330.0</v>
-      </c>
-      <c r="D298" s="2" t="s">
+      <c r="A298" s="6">
+        <v>622.0</v>
+      </c>
+      <c r="B298" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C298" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D298" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E298" s="4"/>
@@ -11149,16 +11163,16 @@
       <c r="Z298" s="4"/>
     </row>
     <row r="299">
-      <c r="A299" s="6">
-        <v>655.0</v>
-      </c>
-      <c r="B299" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C299" s="7">
-        <v>295.0</v>
-      </c>
-      <c r="D299" s="5" t="s">
+      <c r="A299" s="1">
+        <v>623.0</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C299" s="3">
+        <v>290.0</v>
+      </c>
+      <c r="D299" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E299" s="4"/>
@@ -11186,13 +11200,13 @@
     </row>
     <row r="300">
       <c r="A300" s="6">
-        <v>657.0</v>
+        <v>624.0</v>
       </c>
       <c r="B300" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C300" s="7">
-        <v>335.0</v>
+        <v>310.0</v>
       </c>
       <c r="D300" s="5" t="s">
         <v>3</v>
@@ -11221,16 +11235,16 @@
       <c r="Z300" s="4"/>
     </row>
     <row r="301">
-      <c r="A301" s="6">
-        <v>658.0</v>
-      </c>
-      <c r="B301" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C301" s="7">
-        <v>255.0</v>
-      </c>
-      <c r="D301" s="5" t="s">
+      <c r="A301" s="1">
+        <v>625.0</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C301" s="3">
+        <v>320.0</v>
+      </c>
+      <c r="D301" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E301" s="4"/>
@@ -11257,16 +11271,16 @@
       <c r="Z301" s="4"/>
     </row>
     <row r="302">
-      <c r="A302" s="6">
-        <v>659.0</v>
-      </c>
-      <c r="B302" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C302" s="7">
+      <c r="A302" s="1">
+        <v>626.0</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C302" s="3">
         <v>305.0</v>
       </c>
-      <c r="D302" s="5" t="s">
+      <c r="D302" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E302" s="4"/>
@@ -11293,16 +11307,16 @@
       <c r="Z302" s="4"/>
     </row>
     <row r="303">
-      <c r="A303" s="1">
-        <v>663.0</v>
-      </c>
-      <c r="B303" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C303" s="3">
-        <v>265.0</v>
-      </c>
-      <c r="D303" s="2" t="s">
+      <c r="A303" s="6">
+        <v>628.0</v>
+      </c>
+      <c r="B303" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C303" s="7">
+        <v>305.0</v>
+      </c>
+      <c r="D303" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E303" s="4"/>
@@ -11329,16 +11343,16 @@
       <c r="Z303" s="4"/>
     </row>
     <row r="304">
-      <c r="A304" s="6">
-        <v>666.0</v>
-      </c>
-      <c r="B304" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C304" s="7">
-        <v>300.0</v>
-      </c>
-      <c r="D304" s="5" t="s">
+      <c r="A304" s="1">
+        <v>635.0</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C304" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D304" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E304" s="4"/>
@@ -11365,16 +11379,16 @@
       <c r="Z304" s="4"/>
     </row>
     <row r="305">
-      <c r="A305" s="1">
-        <v>668.0</v>
-      </c>
-      <c r="B305" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C305" s="3">
-        <v>305.0</v>
-      </c>
-      <c r="D305" s="2" t="s">
+      <c r="A305" s="6">
+        <v>636.0</v>
+      </c>
+      <c r="B305" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C305" s="7">
+        <v>315.0</v>
+      </c>
+      <c r="D305" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E305" s="4"/>
@@ -11402,13 +11416,13 @@
     </row>
     <row r="306">
       <c r="A306" s="6">
-        <v>669.0</v>
+        <v>640.0</v>
       </c>
       <c r="B306" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C306" s="7">
-        <v>310.0</v>
+        <v>275.0</v>
       </c>
       <c r="D306" s="5" t="s">
         <v>3</v>
@@ -11438,13 +11452,13 @@
     </row>
     <row r="307">
       <c r="A307" s="1">
-        <v>670.0</v>
+        <v>642.0</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C307" s="7" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D307" s="2" t="s">
         <v>3</v>
@@ -11474,13 +11488,13 @@
     </row>
     <row r="308">
       <c r="A308" s="1">
-        <v>671.0</v>
+        <v>643.0</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C308" s="3">
-        <v>305.0</v>
+        <v>310.0</v>
       </c>
       <c r="D308" s="2" t="s">
         <v>3</v>
@@ -11509,16 +11523,16 @@
       <c r="Z308" s="4"/>
     </row>
     <row r="309">
-      <c r="A309" s="1">
-        <v>672.0</v>
-      </c>
-      <c r="B309" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C309" s="3">
-        <v>295.0</v>
-      </c>
-      <c r="D309" s="2" t="s">
+      <c r="A309" s="6">
+        <v>647.0</v>
+      </c>
+      <c r="B309" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C309" s="7">
+        <v>285.0</v>
+      </c>
+      <c r="D309" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E309" s="4"/>
@@ -11546,13 +11560,13 @@
     </row>
     <row r="310">
       <c r="A310" s="6">
-        <v>674.0</v>
+        <v>648.0</v>
       </c>
       <c r="B310" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C310" s="7">
-        <v>320.0</v>
+      <c r="C310" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="D310" s="5" t="s">
         <v>3</v>
@@ -11582,15 +11596,15 @@
     </row>
     <row r="311">
       <c r="A311" s="6">
-        <v>676.0</v>
-      </c>
-      <c r="B311" s="5" t="s">
+        <v>651.0</v>
+      </c>
+      <c r="B311" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C311" s="7">
-        <v>335.0</v>
-      </c>
-      <c r="D311" s="5" t="s">
+        <v>230.0</v>
+      </c>
+      <c r="D311" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E311" s="4"/>
@@ -11618,13 +11632,13 @@
     </row>
     <row r="312">
       <c r="A312" s="1">
-        <v>680.0</v>
+        <v>652.0</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C312" s="3">
-        <v>285.0</v>
+        <v>330.0</v>
       </c>
       <c r="D312" s="2" t="s">
         <v>3</v>
@@ -11653,16 +11667,16 @@
       <c r="Z312" s="4"/>
     </row>
     <row r="313">
-      <c r="A313" s="1">
-        <v>688.0</v>
-      </c>
-      <c r="B313" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C313" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D313" s="2" t="s">
+      <c r="A313" s="6">
+        <v>655.0</v>
+      </c>
+      <c r="B313" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C313" s="7">
+        <v>295.0</v>
+      </c>
+      <c r="D313" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E313" s="4"/>
@@ -11689,16 +11703,16 @@
       <c r="Z313" s="4"/>
     </row>
     <row r="314">
-      <c r="A314" s="9">
-        <v>692.0</v>
-      </c>
-      <c r="B314" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C314" s="9">
-        <v>300.0</v>
-      </c>
-      <c r="D314" s="2" t="s">
+      <c r="A314" s="6">
+        <v>657.0</v>
+      </c>
+      <c r="B314" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C314" s="7">
+        <v>335.0</v>
+      </c>
+      <c r="D314" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E314" s="4"/>
@@ -11726,13 +11740,13 @@
     </row>
     <row r="315">
       <c r="A315" s="6">
-        <v>694.0</v>
+        <v>658.0</v>
       </c>
       <c r="B315" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C315" s="7" t="s">
-        <v>32</v>
+      <c r="C315" s="7">
+        <v>255.0</v>
       </c>
       <c r="D315" s="5" t="s">
         <v>3</v>
@@ -11761,16 +11775,16 @@
       <c r="Z315" s="4"/>
     </row>
     <row r="316">
-      <c r="A316" s="1">
-        <v>696.0</v>
-      </c>
-      <c r="B316" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C316" s="3">
-        <v>300.0</v>
-      </c>
-      <c r="D316" s="2" t="s">
+      <c r="A316" s="6">
+        <v>659.0</v>
+      </c>
+      <c r="B316" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C316" s="7">
+        <v>305.0</v>
+      </c>
+      <c r="D316" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E316" s="4"/>
@@ -11797,16 +11811,16 @@
       <c r="Z316" s="4"/>
     </row>
     <row r="317">
-      <c r="A317" s="6">
-        <v>697.0</v>
-      </c>
-      <c r="B317" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C317" s="7">
-        <v>250.0</v>
-      </c>
-      <c r="D317" s="5" t="s">
+      <c r="A317" s="1">
+        <v>663.0</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C317" s="3">
+        <v>265.0</v>
+      </c>
+      <c r="D317" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E317" s="4"/>
@@ -11834,13 +11848,13 @@
     </row>
     <row r="318">
       <c r="A318" s="6">
-        <v>705.0</v>
+        <v>666.0</v>
       </c>
       <c r="B318" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C318" s="7">
-        <v>280.0</v>
+        <v>300.0</v>
       </c>
       <c r="D318" s="5" t="s">
         <v>3</v>
@@ -11869,16 +11883,16 @@
       <c r="Z318" s="4"/>
     </row>
     <row r="319">
-      <c r="A319" s="6">
-        <v>706.0</v>
-      </c>
-      <c r="B319" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C319" s="7">
-        <v>320.0</v>
-      </c>
-      <c r="D319" s="5" t="s">
+      <c r="A319" s="1">
+        <v>668.0</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C319" s="3">
+        <v>305.0</v>
+      </c>
+      <c r="D319" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E319" s="4"/>
@@ -11906,13 +11920,13 @@
     </row>
     <row r="320">
       <c r="A320" s="6">
-        <v>709.0</v>
+        <v>669.0</v>
       </c>
       <c r="B320" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C320" s="7">
-        <v>320.0</v>
+        <v>310.0</v>
       </c>
       <c r="D320" s="5" t="s">
         <v>3</v>
@@ -11941,16 +11955,16 @@
       <c r="Z320" s="4"/>
     </row>
     <row r="321">
-      <c r="A321" s="6">
-        <v>710.0</v>
-      </c>
-      <c r="B321" s="5" t="s">
+      <c r="A321" s="1">
+        <v>670.0</v>
+      </c>
+      <c r="B321" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C321" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D321" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D321" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E321" s="4"/>
@@ -11977,16 +11991,16 @@
       <c r="Z321" s="4"/>
     </row>
     <row r="322">
-      <c r="A322" s="6">
-        <v>712.0</v>
-      </c>
-      <c r="B322" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C322" s="7">
-        <v>295.0</v>
-      </c>
-      <c r="D322" s="5" t="s">
+      <c r="A322" s="1">
+        <v>671.0</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C322" s="3">
+        <v>305.0</v>
+      </c>
+      <c r="D322" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E322" s="4"/>
@@ -12013,16 +12027,16 @@
       <c r="Z322" s="4"/>
     </row>
     <row r="323">
-      <c r="A323" s="6">
-        <v>713.0</v>
-      </c>
-      <c r="B323" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C323" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D323" s="5" t="s">
+      <c r="A323" s="1">
+        <v>672.0</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C323" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D323" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E323" s="4"/>
@@ -12049,16 +12063,16 @@
       <c r="Z323" s="4"/>
     </row>
     <row r="324">
-      <c r="A324" s="1">
-        <v>714.0</v>
-      </c>
-      <c r="B324" s="2" t="s">
+      <c r="A324" s="6">
+        <v>674.0</v>
+      </c>
+      <c r="B324" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C324" s="7">
-        <v>280.0</v>
-      </c>
-      <c r="D324" s="2" t="s">
+        <v>320.0</v>
+      </c>
+      <c r="D324" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E324" s="4"/>
@@ -12086,13 +12100,13 @@
     </row>
     <row r="325">
       <c r="A325" s="6">
-        <v>715.0</v>
+        <v>676.0</v>
       </c>
       <c r="B325" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C325" s="7" t="s">
-        <v>12</v>
+      <c r="C325" s="7">
+        <v>335.0</v>
       </c>
       <c r="D325" s="5" t="s">
         <v>3</v>
@@ -12122,13 +12136,13 @@
     </row>
     <row r="326">
       <c r="A326" s="1">
-        <v>718.0</v>
+        <v>680.0</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C326" s="3">
-        <v>330.0</v>
+        <v>285.0</v>
       </c>
       <c r="D326" s="2" t="s">
         <v>3</v>
@@ -12158,13 +12172,13 @@
     </row>
     <row r="327">
       <c r="A327" s="1">
-        <v>719.0</v>
+        <v>688.0</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C327" s="3">
-        <v>280.0</v>
+        <v>310.0</v>
       </c>
       <c r="D327" s="2" t="s">
         <v>3</v>
@@ -12193,16 +12207,16 @@
       <c r="Z327" s="4"/>
     </row>
     <row r="328">
-      <c r="A328" s="6">
-        <v>724.0</v>
-      </c>
-      <c r="B328" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C328" s="7">
-        <v>330.0</v>
-      </c>
-      <c r="D328" s="5" t="s">
+      <c r="A328" s="9">
+        <v>692.0</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C328" s="9">
+        <v>300.0</v>
+      </c>
+      <c r="D328" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E328" s="4"/>
@@ -12230,13 +12244,13 @@
     </row>
     <row r="329">
       <c r="A329" s="6">
-        <v>725.0</v>
+        <v>694.0</v>
       </c>
       <c r="B329" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C329" s="7">
-        <v>245.0</v>
+      <c r="C329" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="D329" s="5" t="s">
         <v>3</v>
@@ -12265,16 +12279,16 @@
       <c r="Z329" s="4"/>
     </row>
     <row r="330">
-      <c r="A330" s="6">
-        <v>729.0</v>
-      </c>
-      <c r="B330" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C330" s="7">
-        <v>275.0</v>
-      </c>
-      <c r="D330" s="5" t="s">
+      <c r="A330" s="1">
+        <v>696.0</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C330" s="3">
+        <v>300.0</v>
+      </c>
+      <c r="D330" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E330" s="4"/>
@@ -12302,13 +12316,13 @@
     </row>
     <row r="331">
       <c r="A331" s="6">
-        <v>730.0</v>
+        <v>697.0</v>
       </c>
       <c r="B331" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C331" s="7">
-        <v>315.0</v>
+        <v>250.0</v>
       </c>
       <c r="D331" s="5" t="s">
         <v>3</v>
@@ -12338,13 +12352,13 @@
     </row>
     <row r="332">
       <c r="A332" s="6">
-        <v>731.0</v>
+        <v>705.0</v>
       </c>
       <c r="B332" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C332" s="7">
-        <v>260.0</v>
+        <v>280.0</v>
       </c>
       <c r="D332" s="5" t="s">
         <v>3</v>
@@ -12373,16 +12387,16 @@
       <c r="Z332" s="4"/>
     </row>
     <row r="333">
-      <c r="A333" s="1">
-        <v>732.0</v>
-      </c>
-      <c r="B333" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C333" s="3">
-        <v>280.0</v>
-      </c>
-      <c r="D333" s="2" t="s">
+      <c r="A333" s="6">
+        <v>706.0</v>
+      </c>
+      <c r="B333" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C333" s="7">
+        <v>320.0</v>
+      </c>
+      <c r="D333" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E333" s="4"/>
@@ -12409,16 +12423,16 @@
       <c r="Z333" s="4"/>
     </row>
     <row r="334">
-      <c r="A334" s="1">
-        <v>733.0</v>
-      </c>
-      <c r="B334" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C334" s="3">
+      <c r="A334" s="6">
+        <v>709.0</v>
+      </c>
+      <c r="B334" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C334" s="7">
         <v>320.0</v>
       </c>
-      <c r="D334" s="2" t="s">
+      <c r="D334" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E334" s="4"/>
@@ -12445,16 +12459,16 @@
       <c r="Z334" s="4"/>
     </row>
     <row r="335">
-      <c r="A335" s="1">
-        <v>736.0</v>
-      </c>
-      <c r="B335" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C335" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D335" s="2" t="s">
+      <c r="A335" s="6">
+        <v>710.0</v>
+      </c>
+      <c r="B335" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C335" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D335" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E335" s="4"/>
@@ -12482,13 +12496,13 @@
     </row>
     <row r="336">
       <c r="A336" s="6">
-        <v>741.0</v>
+        <v>712.0</v>
       </c>
       <c r="B336" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C336" s="7">
-        <v>280.0</v>
+        <v>295.0</v>
       </c>
       <c r="D336" s="5" t="s">
         <v>3</v>
@@ -12518,13 +12532,13 @@
     </row>
     <row r="337">
       <c r="A337" s="6">
-        <v>742.0</v>
+        <v>713.0</v>
       </c>
       <c r="B337" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C337" s="7">
-        <v>240.0</v>
+      <c r="C337" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="D337" s="5" t="s">
         <v>3</v>
@@ -12554,13 +12568,13 @@
     </row>
     <row r="338">
       <c r="A338" s="1">
-        <v>744.0</v>
+        <v>714.0</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C338" s="3">
-        <v>270.0</v>
+      <c r="C338" s="7">
+        <v>280.0</v>
       </c>
       <c r="D338" s="2" t="s">
         <v>3</v>
@@ -12589,16 +12603,16 @@
       <c r="Z338" s="4"/>
     </row>
     <row r="339">
-      <c r="A339" s="1">
-        <v>747.0</v>
-      </c>
-      <c r="B339" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C339" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D339" s="2" t="s">
+      <c r="A339" s="6">
+        <v>715.0</v>
+      </c>
+      <c r="B339" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C339" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D339" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E339" s="4"/>
@@ -12625,16 +12639,16 @@
       <c r="Z339" s="4"/>
     </row>
     <row r="340">
-      <c r="A340" s="6">
-        <v>748.0</v>
-      </c>
-      <c r="B340" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C340" s="7">
-        <v>230.0</v>
-      </c>
-      <c r="D340" s="5" t="s">
+      <c r="A340" s="1">
+        <v>718.0</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C340" s="3">
+        <v>330.0</v>
+      </c>
+      <c r="D340" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E340" s="4"/>
@@ -12662,13 +12676,13 @@
     </row>
     <row r="341">
       <c r="A341" s="1">
-        <v>749.0</v>
+        <v>719.0</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C341" s="3">
-        <v>335.0</v>
+        <v>280.0</v>
       </c>
       <c r="D341" s="2" t="s">
         <v>3</v>
@@ -12698,13 +12712,13 @@
     </row>
     <row r="342">
       <c r="A342" s="6">
-        <v>754.0</v>
+        <v>722.0</v>
       </c>
       <c r="B342" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C342" s="7" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D342" s="5" t="s">
         <v>3</v>
@@ -12734,13 +12748,13 @@
     </row>
     <row r="343">
       <c r="A343" s="6">
-        <v>755.0</v>
+        <v>724.0</v>
       </c>
       <c r="B343" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C343" s="7" t="s">
-        <v>18</v>
+      <c r="C343" s="7">
+        <v>330.0</v>
       </c>
       <c r="D343" s="5" t="s">
         <v>3</v>
@@ -12770,13 +12784,13 @@
     </row>
     <row r="344">
       <c r="A344" s="6">
-        <v>757.0</v>
+        <v>725.0</v>
       </c>
       <c r="B344" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C344" s="7">
-        <v>280.0</v>
+        <v>245.0</v>
       </c>
       <c r="D344" s="5" t="s">
         <v>3</v>
@@ -12805,16 +12819,16 @@
       <c r="Z344" s="4"/>
     </row>
     <row r="345">
-      <c r="A345" s="1">
-        <v>758.0</v>
-      </c>
-      <c r="B345" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C345" s="3">
-        <v>295.0</v>
-      </c>
-      <c r="D345" s="2" t="s">
+      <c r="A345" s="6">
+        <v>729.0</v>
+      </c>
+      <c r="B345" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C345" s="7">
+        <v>275.0</v>
+      </c>
+      <c r="D345" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E345" s="4"/>
@@ -12842,13 +12856,13 @@
     </row>
     <row r="346">
       <c r="A346" s="6">
-        <v>759.0</v>
+        <v>730.0</v>
       </c>
       <c r="B346" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C346" s="7">
-        <v>275.0</v>
+        <v>315.0</v>
       </c>
       <c r="D346" s="5" t="s">
         <v>3</v>
@@ -12878,7 +12892,7 @@
     </row>
     <row r="347">
       <c r="A347" s="6">
-        <v>761.0</v>
+        <v>731.0</v>
       </c>
       <c r="B347" s="5" t="s">
         <v>3</v>
@@ -12913,16 +12927,16 @@
       <c r="Z347" s="4"/>
     </row>
     <row r="348">
-      <c r="A348" s="6">
-        <v>763.0</v>
-      </c>
-      <c r="B348" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C348" s="7">
-        <v>250.0</v>
-      </c>
-      <c r="D348" s="5" t="s">
+      <c r="A348" s="1">
+        <v>732.0</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C348" s="3">
+        <v>280.0</v>
+      </c>
+      <c r="D348" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E348" s="4"/>
@@ -12949,16 +12963,16 @@
       <c r="Z348" s="4"/>
     </row>
     <row r="349">
-      <c r="A349" s="6">
-        <v>764.0</v>
-      </c>
-      <c r="B349" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C349" s="7">
-        <v>260.0</v>
-      </c>
-      <c r="D349" s="5" t="s">
+      <c r="A349" s="1">
+        <v>733.0</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C349" s="3">
+        <v>320.0</v>
+      </c>
+      <c r="D349" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E349" s="4"/>
@@ -12986,13 +13000,13 @@
     </row>
     <row r="350">
       <c r="A350" s="1">
-        <v>767.0</v>
+        <v>736.0</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C350" s="3">
-        <v>290.0</v>
+        <v>250.0</v>
       </c>
       <c r="D350" s="2" t="s">
         <v>3</v>
@@ -13022,13 +13036,13 @@
     </row>
     <row r="351">
       <c r="A351" s="6">
-        <v>772.0</v>
+        <v>741.0</v>
       </c>
       <c r="B351" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C351" s="7">
-        <v>240.0</v>
+        <v>280.0</v>
       </c>
       <c r="D351" s="5" t="s">
         <v>3</v>
@@ -13058,13 +13072,13 @@
     </row>
     <row r="352">
       <c r="A352" s="6">
-        <v>773.0</v>
+        <v>742.0</v>
       </c>
       <c r="B352" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C352" s="7">
-        <v>285.0</v>
+        <v>240.0</v>
       </c>
       <c r="D352" s="5" t="s">
         <v>3</v>
@@ -13094,13 +13108,13 @@
     </row>
     <row r="353">
       <c r="A353" s="1">
-        <v>775.0</v>
+        <v>744.0</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C353" s="3">
-        <v>260.0</v>
+        <v>270.0</v>
       </c>
       <c r="D353" s="2" t="s">
         <v>3</v>
@@ -13129,16 +13143,16 @@
       <c r="Z353" s="4"/>
     </row>
     <row r="354">
-      <c r="A354" s="6">
-        <v>776.0</v>
-      </c>
-      <c r="B354" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C354" s="7">
-        <v>240.0</v>
-      </c>
-      <c r="D354" s="5" t="s">
+      <c r="A354" s="1">
+        <v>747.0</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C354" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D354" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E354" s="4"/>
@@ -13165,16 +13179,16 @@
       <c r="Z354" s="4"/>
     </row>
     <row r="355">
-      <c r="A355" s="1">
-        <v>777.0</v>
-      </c>
-      <c r="B355" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C355" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D355" s="2" t="s">
+      <c r="A355" s="6">
+        <v>748.0</v>
+      </c>
+      <c r="B355" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C355" s="7">
+        <v>230.0</v>
+      </c>
+      <c r="D355" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E355" s="4"/>
@@ -13201,16 +13215,16 @@
       <c r="Z355" s="4"/>
     </row>
     <row r="356">
-      <c r="A356" s="6">
-        <v>778.0</v>
-      </c>
-      <c r="B356" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C356" s="7">
-        <v>310.0</v>
-      </c>
-      <c r="D356" s="5" t="s">
+      <c r="A356" s="1">
+        <v>749.0</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C356" s="3">
+        <v>335.0</v>
+      </c>
+      <c r="D356" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E356" s="4"/>
@@ -13237,16 +13251,16 @@
       <c r="Z356" s="4"/>
     </row>
     <row r="357">
-      <c r="A357" s="1">
-        <v>792.0</v>
-      </c>
-      <c r="B357" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C357" s="3">
-        <v>320.0</v>
-      </c>
-      <c r="D357" s="2" t="s">
+      <c r="A357" s="6">
+        <v>754.0</v>
+      </c>
+      <c r="B357" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C357" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D357" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E357" s="4"/>
@@ -13274,13 +13288,13 @@
     </row>
     <row r="358">
       <c r="A358" s="6">
-        <v>784.0</v>
+        <v>755.0</v>
       </c>
       <c r="B358" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C358" s="7">
-        <v>270.0</v>
+      <c r="C358" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="D358" s="5" t="s">
         <v>3</v>
@@ -13310,13 +13324,13 @@
     </row>
     <row r="359">
       <c r="A359" s="6">
-        <v>786.0</v>
+        <v>757.0</v>
       </c>
       <c r="B359" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C359" s="7">
-        <v>275.0</v>
+        <v>280.0</v>
       </c>
       <c r="D359" s="5" t="s">
         <v>3</v>
@@ -13345,16 +13359,16 @@
       <c r="Z359" s="4"/>
     </row>
     <row r="360">
-      <c r="A360" s="6">
-        <v>787.0</v>
-      </c>
-      <c r="B360" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C360" s="7">
-        <v>280.0</v>
-      </c>
-      <c r="D360" s="5" t="s">
+      <c r="A360" s="1">
+        <v>758.0</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C360" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D360" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E360" s="4"/>
@@ -13382,13 +13396,13 @@
     </row>
     <row r="361">
       <c r="A361" s="6">
-        <v>789.0</v>
+        <v>759.0</v>
       </c>
       <c r="B361" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C361" s="7">
-        <v>265.0</v>
+        <v>275.0</v>
       </c>
       <c r="D361" s="5" t="s">
         <v>3</v>
@@ -13418,13 +13432,13 @@
     </row>
     <row r="362">
       <c r="A362" s="6">
-        <v>790.0</v>
+        <v>761.0</v>
       </c>
       <c r="B362" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C362" s="7" t="s">
-        <v>35</v>
+      <c r="C362" s="7">
+        <v>260.0</v>
       </c>
       <c r="D362" s="5" t="s">
         <v>3</v>
@@ -13454,13 +13468,13 @@
     </row>
     <row r="363">
       <c r="A363" s="6">
-        <v>793.0</v>
+        <v>763.0</v>
       </c>
       <c r="B363" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C363" s="7" t="s">
-        <v>35</v>
+      <c r="C363" s="7">
+        <v>250.0</v>
       </c>
       <c r="D363" s="5" t="s">
         <v>3</v>
@@ -13489,16 +13503,16 @@
       <c r="Z363" s="4"/>
     </row>
     <row r="364">
-      <c r="A364" s="1">
-        <v>795.0</v>
-      </c>
-      <c r="B364" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C364" s="3">
-        <v>255.0</v>
-      </c>
-      <c r="D364" s="2" t="s">
+      <c r="A364" s="6">
+        <v>764.0</v>
+      </c>
+      <c r="B364" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C364" s="7">
+        <v>260.0</v>
+      </c>
+      <c r="D364" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E364" s="4"/>
@@ -13525,16 +13539,16 @@
       <c r="Z364" s="4"/>
     </row>
     <row r="365">
-      <c r="A365" s="6">
-        <v>797.0</v>
-      </c>
-      <c r="B365" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C365" s="7">
-        <v>325.0</v>
-      </c>
-      <c r="D365" s="5" t="s">
+      <c r="A365" s="1">
+        <v>767.0</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C365" s="3">
+        <v>290.0</v>
+      </c>
+      <c r="D365" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E365" s="4"/>
@@ -13562,13 +13576,13 @@
     </row>
     <row r="366">
       <c r="A366" s="6">
-        <v>799.0</v>
+        <v>772.0</v>
       </c>
       <c r="B366" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C366" s="7">
-        <v>310.0</v>
+        <v>240.0</v>
       </c>
       <c r="D366" s="5" t="s">
         <v>3</v>
@@ -13598,13 +13612,13 @@
     </row>
     <row r="367">
       <c r="A367" s="6">
-        <v>800.0</v>
+        <v>773.0</v>
       </c>
       <c r="B367" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C367" s="7" t="s">
-        <v>33</v>
+      <c r="C367" s="7">
+        <v>285.0</v>
       </c>
       <c r="D367" s="5" t="s">
         <v>3</v>
@@ -13634,13 +13648,13 @@
     </row>
     <row r="368">
       <c r="A368" s="1">
-        <v>801.0</v>
+        <v>775.0</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C368" s="3">
-        <v>230.0</v>
+        <v>260.0</v>
       </c>
       <c r="D368" s="2" t="s">
         <v>3</v>
@@ -13670,13 +13684,13 @@
     </row>
     <row r="369">
       <c r="A369" s="6">
-        <v>802.0</v>
+        <v>776.0</v>
       </c>
       <c r="B369" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C369" s="7">
-        <v>245.0</v>
+        <v>240.0</v>
       </c>
       <c r="D369" s="5" t="s">
         <v>3</v>
@@ -13705,16 +13719,16 @@
       <c r="Z369" s="4"/>
     </row>
     <row r="370">
-      <c r="A370" s="6">
-        <v>806.0</v>
-      </c>
-      <c r="B370" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C370" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D370" s="5" t="s">
+      <c r="A370" s="1">
+        <v>777.0</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C370" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D370" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E370" s="4"/>
@@ -13741,16 +13755,16 @@
       <c r="Z370" s="4"/>
     </row>
     <row r="371">
-      <c r="A371" s="1">
-        <v>809.0</v>
-      </c>
-      <c r="B371" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C371" s="3">
-        <v>270.0</v>
-      </c>
-      <c r="D371" s="2" t="s">
+      <c r="A371" s="6">
+        <v>778.0</v>
+      </c>
+      <c r="B371" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C371" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D371" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E371" s="4"/>
@@ -13777,16 +13791,16 @@
       <c r="Z371" s="4"/>
     </row>
     <row r="372">
-      <c r="A372" s="6">
-        <v>810.0</v>
-      </c>
-      <c r="B372" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C372" s="7">
-        <v>305.0</v>
-      </c>
-      <c r="D372" s="5" t="s">
+      <c r="A372" s="1">
+        <v>792.0</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C372" s="3">
+        <v>320.0</v>
+      </c>
+      <c r="D372" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E372" s="4"/>
@@ -13813,16 +13827,16 @@
       <c r="Z372" s="4"/>
     </row>
     <row r="373">
-      <c r="A373" s="1">
-        <v>811.0</v>
-      </c>
-      <c r="B373" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C373" s="3">
-        <v>260.0</v>
-      </c>
-      <c r="D373" s="2" t="s">
+      <c r="A373" s="6">
+        <v>782.0</v>
+      </c>
+      <c r="B373" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C373" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D373" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E373" s="4"/>
@@ -13850,13 +13864,13 @@
     </row>
     <row r="374">
       <c r="A374" s="6">
-        <v>812.0</v>
+        <v>784.0</v>
       </c>
       <c r="B374" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C374" s="7">
-        <v>315.0</v>
+        <v>270.0</v>
       </c>
       <c r="D374" s="5" t="s">
         <v>3</v>
@@ -13886,7 +13900,7 @@
     </row>
     <row r="375">
       <c r="A375" s="6">
-        <v>813.0</v>
+        <v>786.0</v>
       </c>
       <c r="B375" s="5" t="s">
         <v>3</v>
@@ -13922,13 +13936,13 @@
     </row>
     <row r="376">
       <c r="A376" s="6">
-        <v>816.0</v>
+        <v>787.0</v>
       </c>
       <c r="B376" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C376" s="7">
-        <v>245.0</v>
+        <v>280.0</v>
       </c>
       <c r="D376" s="5" t="s">
         <v>3</v>
@@ -13958,13 +13972,13 @@
     </row>
     <row r="377">
       <c r="A377" s="6">
-        <v>817.0</v>
+        <v>789.0</v>
       </c>
       <c r="B377" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C377" s="7">
-        <v>330.0</v>
+        <v>265.0</v>
       </c>
       <c r="D377" s="5" t="s">
         <v>3</v>
@@ -13994,13 +14008,13 @@
     </row>
     <row r="378">
       <c r="A378" s="6">
-        <v>818.0</v>
+        <v>790.0</v>
       </c>
       <c r="B378" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C378" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D378" s="5" t="s">
         <v>3</v>
@@ -14029,16 +14043,16 @@
       <c r="Z378" s="4"/>
     </row>
     <row r="379">
-      <c r="A379" s="1">
-        <v>819.0</v>
-      </c>
-      <c r="B379" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C379" s="3">
-        <v>200.0</v>
-      </c>
-      <c r="D379" s="2" t="s">
+      <c r="A379" s="6">
+        <v>793.0</v>
+      </c>
+      <c r="B379" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C379" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D379" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E379" s="4"/>
@@ -14066,13 +14080,13 @@
     </row>
     <row r="380">
       <c r="A380" s="1">
-        <v>820.0</v>
+        <v>795.0</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C380" s="3">
-        <v>245.0</v>
+        <v>255.0</v>
       </c>
       <c r="D380" s="2" t="s">
         <v>3</v>
@@ -14101,16 +14115,16 @@
       <c r="Z380" s="4"/>
     </row>
     <row r="381">
-      <c r="A381" s="1">
-        <v>821.0</v>
-      </c>
-      <c r="B381" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C381" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D381" s="2" t="s">
+      <c r="A381" s="6">
+        <v>797.0</v>
+      </c>
+      <c r="B381" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C381" s="7">
+        <v>325.0</v>
+      </c>
+      <c r="D381" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E381" s="4"/>
@@ -14138,7 +14152,7 @@
     </row>
     <row r="382">
       <c r="A382" s="6">
-        <v>824.0</v>
+        <v>799.0</v>
       </c>
       <c r="B382" s="5" t="s">
         <v>3</v>
@@ -14174,13 +14188,13 @@
     </row>
     <row r="383">
       <c r="A383" s="6">
-        <v>827.0</v>
+        <v>800.0</v>
       </c>
       <c r="B383" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C383" s="7">
-        <v>290.0</v>
+      <c r="C383" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="D383" s="5" t="s">
         <v>3</v>
@@ -14209,16 +14223,16 @@
       <c r="Z383" s="4"/>
     </row>
     <row r="384">
-      <c r="A384" s="6">
-        <v>829.0</v>
-      </c>
-      <c r="B384" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C384" s="7">
-        <v>275.0</v>
-      </c>
-      <c r="D384" s="5" t="s">
+      <c r="A384" s="1">
+        <v>801.0</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C384" s="3">
+        <v>230.0</v>
+      </c>
+      <c r="D384" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E384" s="4"/>
@@ -14246,13 +14260,13 @@
     </row>
     <row r="385">
       <c r="A385" s="6">
-        <v>832.0</v>
+        <v>802.0</v>
       </c>
       <c r="B385" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C385" s="7">
-        <v>235.0</v>
+        <v>245.0</v>
       </c>
       <c r="D385" s="5" t="s">
         <v>3</v>
@@ -14282,13 +14296,13 @@
     </row>
     <row r="386">
       <c r="A386" s="6">
-        <v>833.0</v>
+        <v>806.0</v>
       </c>
       <c r="B386" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C386" s="7">
-        <v>235.0</v>
+      <c r="C386" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="D386" s="5" t="s">
         <v>3</v>
@@ -14317,16 +14331,16 @@
       <c r="Z386" s="4"/>
     </row>
     <row r="387">
-      <c r="A387" s="6">
-        <v>834.0</v>
-      </c>
-      <c r="B387" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C387" s="7">
-        <v>225.0</v>
-      </c>
-      <c r="D387" s="5" t="s">
+      <c r="A387" s="1">
+        <v>809.0</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C387" s="3">
+        <v>270.0</v>
+      </c>
+      <c r="D387" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E387" s="4"/>
@@ -14354,13 +14368,13 @@
     </row>
     <row r="388">
       <c r="A388" s="6">
-        <v>837.0</v>
+        <v>810.0</v>
       </c>
       <c r="B388" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C388" s="7">
-        <v>275.0</v>
+        <v>305.0</v>
       </c>
       <c r="D388" s="5" t="s">
         <v>3</v>
@@ -14389,16 +14403,16 @@
       <c r="Z388" s="4"/>
     </row>
     <row r="389">
-      <c r="A389" s="6">
-        <v>838.0</v>
-      </c>
-      <c r="B389" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C389" s="7">
-        <v>295.0</v>
-      </c>
-      <c r="D389" s="5" t="s">
+      <c r="A389" s="1">
+        <v>811.0</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C389" s="3">
+        <v>260.0</v>
+      </c>
+      <c r="D389" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E389" s="4"/>
@@ -14426,13 +14440,13 @@
     </row>
     <row r="390">
       <c r="A390" s="6">
-        <v>843.0</v>
+        <v>812.0</v>
       </c>
       <c r="B390" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C390" s="7">
-        <v>320.0</v>
+        <v>315.0</v>
       </c>
       <c r="D390" s="5" t="s">
         <v>3</v>
@@ -14462,13 +14476,13 @@
     </row>
     <row r="391">
       <c r="A391" s="6">
-        <v>845.0</v>
+        <v>813.0</v>
       </c>
       <c r="B391" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C391" s="7">
-        <v>235.0</v>
+        <v>275.0</v>
       </c>
       <c r="D391" s="5" t="s">
         <v>3</v>
@@ -14497,16 +14511,16 @@
       <c r="Z391" s="4"/>
     </row>
     <row r="392">
-      <c r="A392" s="1">
-        <v>846.0</v>
-      </c>
-      <c r="B392" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C392" s="3">
-        <v>295.0</v>
-      </c>
-      <c r="D392" s="2" t="s">
+      <c r="A392" s="6">
+        <v>816.0</v>
+      </c>
+      <c r="B392" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C392" s="7">
+        <v>245.0</v>
+      </c>
+      <c r="D392" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E392" s="4"/>
@@ -14533,16 +14547,16 @@
       <c r="Z392" s="4"/>
     </row>
     <row r="393">
-      <c r="A393" s="1">
-        <v>853.0</v>
-      </c>
-      <c r="B393" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C393" s="3">
-        <v>290.0</v>
-      </c>
-      <c r="D393" s="2" t="s">
+      <c r="A393" s="6">
+        <v>817.0</v>
+      </c>
+      <c r="B393" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C393" s="7">
+        <v>330.0</v>
+      </c>
+      <c r="D393" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E393" s="4"/>
@@ -14570,13 +14584,13 @@
     </row>
     <row r="394">
       <c r="A394" s="6">
-        <v>854.0</v>
+        <v>818.0</v>
       </c>
       <c r="B394" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C394" s="7">
-        <v>320.0</v>
+      <c r="C394" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="D394" s="5" t="s">
         <v>3</v>
@@ -14605,16 +14619,16 @@
       <c r="Z394" s="4"/>
     </row>
     <row r="395">
-      <c r="A395" s="6">
-        <v>855.0</v>
-      </c>
-      <c r="B395" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C395" s="7">
-        <v>270.0</v>
-      </c>
-      <c r="D395" s="5" t="s">
+      <c r="A395" s="1">
+        <v>819.0</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C395" s="3">
+        <v>200.0</v>
+      </c>
+      <c r="D395" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E395" s="4"/>
@@ -14642,13 +14656,13 @@
     </row>
     <row r="396">
       <c r="A396" s="1">
-        <v>856.0</v>
+        <v>820.0</v>
       </c>
       <c r="B396" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C396" s="3">
-        <v>260.0</v>
+        <v>245.0</v>
       </c>
       <c r="D396" s="2" t="s">
         <v>3</v>
@@ -14677,16 +14691,16 @@
       <c r="Z396" s="4"/>
     </row>
     <row r="397">
-      <c r="A397" s="6">
-        <v>860.0</v>
-      </c>
-      <c r="B397" s="5" t="s">
+      <c r="A397" s="1">
+        <v>821.0</v>
+      </c>
+      <c r="B397" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C397" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D397" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D397" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E397" s="4"/>
@@ -14713,16 +14727,16 @@
       <c r="Z397" s="4"/>
     </row>
     <row r="398">
-      <c r="A398" s="1">
-        <v>861.0</v>
-      </c>
-      <c r="B398" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C398" s="3">
-        <v>305.0</v>
-      </c>
-      <c r="D398" s="2" t="s">
+      <c r="A398" s="6">
+        <v>824.0</v>
+      </c>
+      <c r="B398" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C398" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D398" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E398" s="4"/>
@@ -14750,13 +14764,13 @@
     </row>
     <row r="399">
       <c r="A399" s="6">
-        <v>862.0</v>
+        <v>827.0</v>
       </c>
       <c r="B399" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C399" s="7" t="s">
-        <v>40</v>
+      <c r="C399" s="7">
+        <v>290.0</v>
       </c>
       <c r="D399" s="5" t="s">
         <v>3</v>
@@ -14785,16 +14799,16 @@
       <c r="Z399" s="4"/>
     </row>
     <row r="400">
-      <c r="A400" s="1">
-        <v>863.0</v>
-      </c>
-      <c r="B400" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C400" s="3">
+      <c r="A400" s="6">
+        <v>829.0</v>
+      </c>
+      <c r="B400" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C400" s="7">
         <v>275.0</v>
       </c>
-      <c r="D400" s="2" t="s">
+      <c r="D400" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E400" s="4"/>
@@ -14822,13 +14836,13 @@
     </row>
     <row r="401">
       <c r="A401" s="6">
-        <v>865.0</v>
+        <v>832.0</v>
       </c>
       <c r="B401" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C401" s="7">
-        <v>270.0</v>
+        <v>235.0</v>
       </c>
       <c r="D401" s="5" t="s">
         <v>3</v>
@@ -14858,13 +14872,13 @@
     </row>
     <row r="402">
       <c r="A402" s="6">
-        <v>866.0</v>
+        <v>833.0</v>
       </c>
       <c r="B402" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C402" s="7">
-        <v>300.0</v>
+        <v>235.0</v>
       </c>
       <c r="D402" s="5" t="s">
         <v>3</v>
@@ -14893,16 +14907,16 @@
       <c r="Z402" s="4"/>
     </row>
     <row r="403">
-      <c r="A403" s="1">
-        <v>872.0</v>
-      </c>
-      <c r="B403" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C403" s="3">
-        <v>295.0</v>
-      </c>
-      <c r="D403" s="2" t="s">
+      <c r="A403" s="6">
+        <v>834.0</v>
+      </c>
+      <c r="B403" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C403" s="7">
+        <v>225.0</v>
+      </c>
+      <c r="D403" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E403" s="4"/>
@@ -14930,13 +14944,13 @@
     </row>
     <row r="404">
       <c r="A404" s="6">
-        <v>875.0</v>
+        <v>837.0</v>
       </c>
       <c r="B404" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C404" s="7">
-        <v>305.0</v>
+        <v>275.0</v>
       </c>
       <c r="D404" s="5" t="s">
         <v>3</v>
@@ -14966,13 +14980,13 @@
     </row>
     <row r="405">
       <c r="A405" s="6">
-        <v>876.0</v>
+        <v>838.0</v>
       </c>
       <c r="B405" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C405" s="7">
-        <v>250.0</v>
+        <v>295.0</v>
       </c>
       <c r="D405" s="5" t="s">
         <v>3</v>
@@ -15002,13 +15016,13 @@
     </row>
     <row r="406">
       <c r="A406" s="6">
-        <v>878.0</v>
+        <v>843.0</v>
       </c>
       <c r="B406" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C406" s="7">
-        <v>235.0</v>
+        <v>320.0</v>
       </c>
       <c r="D406" s="5" t="s">
         <v>3</v>
@@ -15038,13 +15052,13 @@
     </row>
     <row r="407">
       <c r="A407" s="6">
-        <v>879.0</v>
+        <v>845.0</v>
       </c>
       <c r="B407" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C407" s="7">
-        <v>305.0</v>
+        <v>235.0</v>
       </c>
       <c r="D407" s="5" t="s">
         <v>3</v>
@@ -15074,13 +15088,13 @@
     </row>
     <row r="408">
       <c r="A408" s="1">
-        <v>880.0</v>
+        <v>846.0</v>
       </c>
       <c r="B408" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C408" s="3">
-        <v>225.0</v>
+        <v>295.0</v>
       </c>
       <c r="D408" s="2" t="s">
         <v>3</v>
@@ -15109,16 +15123,16 @@
       <c r="Z408" s="4"/>
     </row>
     <row r="409">
-      <c r="A409" s="6">
-        <v>882.0</v>
-      </c>
-      <c r="B409" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C409" s="7">
-        <v>240.0</v>
-      </c>
-      <c r="D409" s="5" t="s">
+      <c r="A409" s="1">
+        <v>853.0</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C409" s="3">
+        <v>290.0</v>
+      </c>
+      <c r="D409" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E409" s="4"/>
@@ -15146,13 +15160,13 @@
     </row>
     <row r="410">
       <c r="A410" s="6">
-        <v>883.0</v>
+        <v>854.0</v>
       </c>
       <c r="B410" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C410" s="7">
-        <v>315.0</v>
+        <v>320.0</v>
       </c>
       <c r="D410" s="5" t="s">
         <v>3</v>
@@ -15182,13 +15196,13 @@
     </row>
     <row r="411">
       <c r="A411" s="6">
-        <v>886.0</v>
+        <v>855.0</v>
       </c>
       <c r="B411" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C411" s="7">
-        <v>230.0</v>
+        <v>270.0</v>
       </c>
       <c r="D411" s="5" t="s">
         <v>3</v>
@@ -15217,16 +15231,16 @@
       <c r="Z411" s="4"/>
     </row>
     <row r="412">
-      <c r="A412" s="6">
-        <v>887.0</v>
-      </c>
-      <c r="B412" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C412" s="7">
-        <v>265.0</v>
-      </c>
-      <c r="D412" s="5" t="s">
+      <c r="A412" s="1">
+        <v>856.0</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C412" s="3">
+        <v>260.0</v>
+      </c>
+      <c r="D412" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E412" s="4"/>
@@ -15254,13 +15268,13 @@
     </row>
     <row r="413">
       <c r="A413" s="6">
-        <v>888.0</v>
+        <v>860.0</v>
       </c>
       <c r="B413" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C413" s="7">
-        <v>245.0</v>
+      <c r="C413" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="D413" s="5" t="s">
         <v>3</v>
@@ -15289,16 +15303,16 @@
       <c r="Z413" s="4"/>
     </row>
     <row r="414">
-      <c r="A414" s="6">
-        <v>897.0</v>
-      </c>
-      <c r="B414" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C414" s="7">
-        <v>310.0</v>
-      </c>
-      <c r="D414" s="5" t="s">
+      <c r="A414" s="1">
+        <v>861.0</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C414" s="3">
+        <v>305.0</v>
+      </c>
+      <c r="D414" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E414" s="4"/>
@@ -15325,16 +15339,16 @@
       <c r="Z414" s="4"/>
     </row>
     <row r="415">
-      <c r="A415" s="1">
-        <v>899.0</v>
-      </c>
-      <c r="B415" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C415" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D415" s="2" t="s">
+      <c r="A415" s="6">
+        <v>862.0</v>
+      </c>
+      <c r="B415" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C415" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D415" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E415" s="4"/>
@@ -15361,16 +15375,16 @@
       <c r="Z415" s="4"/>
     </row>
     <row r="416">
-      <c r="A416" s="6">
-        <v>900.0</v>
-      </c>
-      <c r="B416" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C416" s="7">
-        <v>335.0</v>
-      </c>
-      <c r="D416" s="5" t="s">
+      <c r="A416" s="1">
+        <v>863.0</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C416" s="3">
+        <v>275.0</v>
+      </c>
+      <c r="D416" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E416" s="4"/>
@@ -15397,16 +15411,16 @@
       <c r="Z416" s="4"/>
     </row>
     <row r="417">
-      <c r="A417" s="1">
-        <v>901.0</v>
-      </c>
-      <c r="B417" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C417" s="3">
-        <v>275.0</v>
-      </c>
-      <c r="D417" s="2" t="s">
+      <c r="A417" s="6">
+        <v>865.0</v>
+      </c>
+      <c r="B417" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C417" s="7">
+        <v>270.0</v>
+      </c>
+      <c r="D417" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E417" s="4"/>
@@ -15434,13 +15448,13 @@
     </row>
     <row r="418">
       <c r="A418" s="6">
-        <v>910.0</v>
+        <v>866.0</v>
       </c>
       <c r="B418" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C418" s="7">
-        <v>330.0</v>
+        <v>300.0</v>
       </c>
       <c r="D418" s="5" t="s">
         <v>3</v>
@@ -15469,16 +15483,16 @@
       <c r="Z418" s="4"/>
     </row>
     <row r="419">
-      <c r="A419" s="6">
-        <v>911.0</v>
-      </c>
-      <c r="B419" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C419" s="7">
-        <v>330.0</v>
-      </c>
-      <c r="D419" s="5" t="s">
+      <c r="A419" s="1">
+        <v>872.0</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C419" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D419" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E419" s="4"/>
@@ -15505,14 +15519,14 @@
       <c r="Z419" s="4"/>
     </row>
     <row r="420">
-      <c r="A420" s="1">
-        <v>935.0</v>
-      </c>
-      <c r="B420" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C420" s="3">
-        <v>310.0</v>
+      <c r="A420" s="6">
+        <v>875.0</v>
+      </c>
+      <c r="B420" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C420" s="7">
+        <v>305.0</v>
       </c>
       <c r="D420" s="5" t="s">
         <v>3</v>
@@ -15542,13 +15556,13 @@
     </row>
     <row r="421">
       <c r="A421" s="6">
-        <v>939.0</v>
+        <v>876.0</v>
       </c>
       <c r="B421" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C421" s="7">
-        <v>245.0</v>
+        <v>250.0</v>
       </c>
       <c r="D421" s="5" t="s">
         <v>3</v>
@@ -15578,13 +15592,13 @@
     </row>
     <row r="422">
       <c r="A422" s="6">
-        <v>948.0</v>
+        <v>878.0</v>
       </c>
       <c r="B422" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C422" s="7">
-        <v>310.0</v>
+        <v>235.0</v>
       </c>
       <c r="D422" s="5" t="s">
         <v>3</v>
@@ -15614,13 +15628,13 @@
     </row>
     <row r="423">
       <c r="A423" s="6">
-        <v>949.0</v>
+        <v>879.0</v>
       </c>
       <c r="B423" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C423" s="7">
-        <v>310.0</v>
+        <v>305.0</v>
       </c>
       <c r="D423" s="5" t="s">
         <v>3</v>
@@ -15649,16 +15663,16 @@
       <c r="Z423" s="4"/>
     </row>
     <row r="424">
-      <c r="A424" s="5">
-        <v>1000.0</v>
-      </c>
-      <c r="B424" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C424" s="5">
-        <v>2000.0</v>
-      </c>
-      <c r="D424" s="5" t="s">
+      <c r="A424" s="1">
+        <v>880.0</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C424" s="3">
+        <v>225.0</v>
+      </c>
+      <c r="D424" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E424" s="4"/>
@@ -15685,10 +15699,18 @@
       <c r="Z424" s="4"/>
     </row>
     <row r="425">
-      <c r="A425" s="2"/>
-      <c r="B425" s="2"/>
-      <c r="C425" s="2"/>
-      <c r="D425" s="2"/>
+      <c r="A425" s="6">
+        <v>882.0</v>
+      </c>
+      <c r="B425" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C425" s="7">
+        <v>240.0</v>
+      </c>
+      <c r="D425" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E425" s="4"/>
       <c r="F425" s="4"/>
       <c r="G425" s="4"/>
@@ -15713,10 +15735,18 @@
       <c r="Z425" s="4"/>
     </row>
     <row r="426">
-      <c r="A426" s="2"/>
-      <c r="B426" s="2"/>
-      <c r="C426" s="2"/>
-      <c r="D426" s="2"/>
+      <c r="A426" s="6">
+        <v>883.0</v>
+      </c>
+      <c r="B426" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C426" s="7">
+        <v>315.0</v>
+      </c>
+      <c r="D426" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E426" s="4"/>
       <c r="F426" s="4"/>
       <c r="G426" s="4"/>
@@ -15741,10 +15771,18 @@
       <c r="Z426" s="4"/>
     </row>
     <row r="427">
-      <c r="A427" s="2"/>
-      <c r="B427" s="2"/>
-      <c r="C427" s="2"/>
-      <c r="D427" s="2"/>
+      <c r="A427" s="6">
+        <v>886.0</v>
+      </c>
+      <c r="B427" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C427" s="7">
+        <v>230.0</v>
+      </c>
+      <c r="D427" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E427" s="4"/>
       <c r="F427" s="4"/>
       <c r="G427" s="4"/>
@@ -15769,10 +15807,18 @@
       <c r="Z427" s="4"/>
     </row>
     <row r="428">
-      <c r="A428" s="2"/>
-      <c r="B428" s="2"/>
-      <c r="C428" s="2"/>
-      <c r="D428" s="2"/>
+      <c r="A428" s="6">
+        <v>887.0</v>
+      </c>
+      <c r="B428" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C428" s="7">
+        <v>265.0</v>
+      </c>
+      <c r="D428" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E428" s="4"/>
       <c r="F428" s="4"/>
       <c r="G428" s="4"/>
@@ -15797,10 +15843,18 @@
       <c r="Z428" s="4"/>
     </row>
     <row r="429">
-      <c r="A429" s="2"/>
-      <c r="B429" s="2"/>
-      <c r="C429" s="2"/>
-      <c r="D429" s="2"/>
+      <c r="A429" s="6">
+        <v>888.0</v>
+      </c>
+      <c r="B429" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C429" s="7">
+        <v>245.0</v>
+      </c>
+      <c r="D429" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E429" s="4"/>
       <c r="F429" s="4"/>
       <c r="G429" s="4"/>
@@ -15825,10 +15879,18 @@
       <c r="Z429" s="4"/>
     </row>
     <row r="430">
-      <c r="A430" s="2"/>
-      <c r="B430" s="2"/>
-      <c r="C430" s="2"/>
-      <c r="D430" s="2"/>
+      <c r="A430" s="6">
+        <v>897.0</v>
+      </c>
+      <c r="B430" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C430" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D430" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E430" s="4"/>
       <c r="F430" s="4"/>
       <c r="G430" s="4"/>
@@ -15853,10 +15915,18 @@
       <c r="Z430" s="4"/>
     </row>
     <row r="431">
-      <c r="A431" s="2"/>
-      <c r="B431" s="2"/>
-      <c r="C431" s="2"/>
-      <c r="D431" s="2"/>
+      <c r="A431" s="1">
+        <v>899.0</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C431" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D431" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E431" s="4"/>
       <c r="F431" s="4"/>
       <c r="G431" s="4"/>
@@ -15881,10 +15951,18 @@
       <c r="Z431" s="4"/>
     </row>
     <row r="432">
-      <c r="A432" s="2"/>
-      <c r="B432" s="2"/>
-      <c r="C432" s="2"/>
-      <c r="D432" s="2"/>
+      <c r="A432" s="6">
+        <v>900.0</v>
+      </c>
+      <c r="B432" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C432" s="7">
+        <v>335.0</v>
+      </c>
+      <c r="D432" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E432" s="4"/>
       <c r="F432" s="4"/>
       <c r="G432" s="4"/>
@@ -15909,10 +15987,18 @@
       <c r="Z432" s="4"/>
     </row>
     <row r="433">
-      <c r="A433" s="2"/>
-      <c r="B433" s="2"/>
-      <c r="C433" s="2"/>
-      <c r="D433" s="2"/>
+      <c r="A433" s="1">
+        <v>901.0</v>
+      </c>
+      <c r="B433" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C433" s="3">
+        <v>275.0</v>
+      </c>
+      <c r="D433" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E433" s="4"/>
       <c r="F433" s="4"/>
       <c r="G433" s="4"/>
@@ -15937,10 +16023,18 @@
       <c r="Z433" s="4"/>
     </row>
     <row r="434">
-      <c r="A434" s="2"/>
-      <c r="B434" s="2"/>
-      <c r="C434" s="2"/>
-      <c r="D434" s="2"/>
+      <c r="A434" s="6">
+        <v>910.0</v>
+      </c>
+      <c r="B434" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C434" s="7">
+        <v>330.0</v>
+      </c>
+      <c r="D434" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E434" s="4"/>
       <c r="F434" s="4"/>
       <c r="G434" s="4"/>
@@ -15965,10 +16059,18 @@
       <c r="Z434" s="4"/>
     </row>
     <row r="435">
-      <c r="A435" s="2"/>
-      <c r="B435" s="2"/>
-      <c r="C435" s="2"/>
-      <c r="D435" s="2"/>
+      <c r="A435" s="6">
+        <v>911.0</v>
+      </c>
+      <c r="B435" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C435" s="7">
+        <v>330.0</v>
+      </c>
+      <c r="D435" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E435" s="4"/>
       <c r="F435" s="4"/>
       <c r="G435" s="4"/>
@@ -15993,10 +16095,18 @@
       <c r="Z435" s="4"/>
     </row>
     <row r="436">
-      <c r="A436" s="2"/>
-      <c r="B436" s="2"/>
-      <c r="C436" s="2"/>
-      <c r="D436" s="2"/>
+      <c r="A436" s="1">
+        <v>935.0</v>
+      </c>
+      <c r="B436" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C436" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D436" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E436" s="4"/>
       <c r="F436" s="4"/>
       <c r="G436" s="4"/>
@@ -16021,10 +16131,18 @@
       <c r="Z436" s="4"/>
     </row>
     <row r="437">
-      <c r="A437" s="2"/>
-      <c r="B437" s="2"/>
-      <c r="C437" s="2"/>
-      <c r="D437" s="2"/>
+      <c r="A437" s="6">
+        <v>939.0</v>
+      </c>
+      <c r="B437" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C437" s="7">
+        <v>245.0</v>
+      </c>
+      <c r="D437" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E437" s="4"/>
       <c r="F437" s="4"/>
       <c r="G437" s="4"/>
@@ -16049,10 +16167,18 @@
       <c r="Z437" s="4"/>
     </row>
     <row r="438">
-      <c r="A438" s="2"/>
-      <c r="B438" s="2"/>
-      <c r="C438" s="2"/>
-      <c r="D438" s="2"/>
+      <c r="A438" s="6">
+        <v>948.0</v>
+      </c>
+      <c r="B438" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C438" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D438" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E438" s="4"/>
       <c r="F438" s="4"/>
       <c r="G438" s="4"/>
@@ -16077,10 +16203,18 @@
       <c r="Z438" s="4"/>
     </row>
     <row r="439">
-      <c r="A439" s="2"/>
-      <c r="B439" s="2"/>
-      <c r="C439" s="2"/>
-      <c r="D439" s="2"/>
+      <c r="A439" s="6">
+        <v>949.0</v>
+      </c>
+      <c r="B439" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C439" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D439" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E439" s="4"/>
       <c r="F439" s="4"/>
       <c r="G439" s="4"/>
@@ -16105,10 +16239,18 @@
       <c r="Z439" s="4"/>
     </row>
     <row r="440">
-      <c r="A440" s="2"/>
-      <c r="B440" s="2"/>
-      <c r="C440" s="2"/>
-      <c r="D440" s="2"/>
+      <c r="A440" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="B440" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C440" s="5">
+        <v>2000.0</v>
+      </c>
+      <c r="D440" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E440" s="4"/>
       <c r="F440" s="4"/>
       <c r="G440" s="4"/>
@@ -39821,10 +39963,10 @@
       <c r="Z1286" s="4"/>
     </row>
     <row r="1287">
-      <c r="A1287" s="4"/>
-      <c r="B1287" s="4"/>
-      <c r="C1287" s="4"/>
-      <c r="D1287" s="4"/>
+      <c r="A1287" s="2"/>
+      <c r="B1287" s="2"/>
+      <c r="C1287" s="2"/>
+      <c r="D1287" s="2"/>
       <c r="E1287" s="4"/>
       <c r="F1287" s="4"/>
       <c r="G1287" s="4"/>
@@ -39848,6 +39990,454 @@
       <c r="Y1287" s="4"/>
       <c r="Z1287" s="4"/>
     </row>
+    <row r="1288">
+      <c r="A1288" s="2"/>
+      <c r="B1288" s="2"/>
+      <c r="C1288" s="2"/>
+      <c r="D1288" s="2"/>
+      <c r="E1288" s="4"/>
+      <c r="F1288" s="4"/>
+      <c r="G1288" s="4"/>
+      <c r="H1288" s="4"/>
+      <c r="I1288" s="4"/>
+      <c r="J1288" s="4"/>
+      <c r="K1288" s="4"/>
+      <c r="L1288" s="4"/>
+      <c r="M1288" s="4"/>
+      <c r="N1288" s="4"/>
+      <c r="O1288" s="4"/>
+      <c r="P1288" s="4"/>
+      <c r="Q1288" s="4"/>
+      <c r="R1288" s="4"/>
+      <c r="S1288" s="4"/>
+      <c r="T1288" s="4"/>
+      <c r="U1288" s="4"/>
+      <c r="V1288" s="4"/>
+      <c r="W1288" s="4"/>
+      <c r="X1288" s="4"/>
+      <c r="Y1288" s="4"/>
+      <c r="Z1288" s="4"/>
+    </row>
+    <row r="1289">
+      <c r="A1289" s="2"/>
+      <c r="B1289" s="2"/>
+      <c r="C1289" s="2"/>
+      <c r="D1289" s="2"/>
+      <c r="E1289" s="4"/>
+      <c r="F1289" s="4"/>
+      <c r="G1289" s="4"/>
+      <c r="H1289" s="4"/>
+      <c r="I1289" s="4"/>
+      <c r="J1289" s="4"/>
+      <c r="K1289" s="4"/>
+      <c r="L1289" s="4"/>
+      <c r="M1289" s="4"/>
+      <c r="N1289" s="4"/>
+      <c r="O1289" s="4"/>
+      <c r="P1289" s="4"/>
+      <c r="Q1289" s="4"/>
+      <c r="R1289" s="4"/>
+      <c r="S1289" s="4"/>
+      <c r="T1289" s="4"/>
+      <c r="U1289" s="4"/>
+      <c r="V1289" s="4"/>
+      <c r="W1289" s="4"/>
+      <c r="X1289" s="4"/>
+      <c r="Y1289" s="4"/>
+      <c r="Z1289" s="4"/>
+    </row>
+    <row r="1290">
+      <c r="A1290" s="2"/>
+      <c r="B1290" s="2"/>
+      <c r="C1290" s="2"/>
+      <c r="D1290" s="2"/>
+      <c r="E1290" s="4"/>
+      <c r="F1290" s="4"/>
+      <c r="G1290" s="4"/>
+      <c r="H1290" s="4"/>
+      <c r="I1290" s="4"/>
+      <c r="J1290" s="4"/>
+      <c r="K1290" s="4"/>
+      <c r="L1290" s="4"/>
+      <c r="M1290" s="4"/>
+      <c r="N1290" s="4"/>
+      <c r="O1290" s="4"/>
+      <c r="P1290" s="4"/>
+      <c r="Q1290" s="4"/>
+      <c r="R1290" s="4"/>
+      <c r="S1290" s="4"/>
+      <c r="T1290" s="4"/>
+      <c r="U1290" s="4"/>
+      <c r="V1290" s="4"/>
+      <c r="W1290" s="4"/>
+      <c r="X1290" s="4"/>
+      <c r="Y1290" s="4"/>
+      <c r="Z1290" s="4"/>
+    </row>
+    <row r="1291">
+      <c r="A1291" s="2"/>
+      <c r="B1291" s="2"/>
+      <c r="C1291" s="2"/>
+      <c r="D1291" s="2"/>
+      <c r="E1291" s="4"/>
+      <c r="F1291" s="4"/>
+      <c r="G1291" s="4"/>
+      <c r="H1291" s="4"/>
+      <c r="I1291" s="4"/>
+      <c r="J1291" s="4"/>
+      <c r="K1291" s="4"/>
+      <c r="L1291" s="4"/>
+      <c r="M1291" s="4"/>
+      <c r="N1291" s="4"/>
+      <c r="O1291" s="4"/>
+      <c r="P1291" s="4"/>
+      <c r="Q1291" s="4"/>
+      <c r="R1291" s="4"/>
+      <c r="S1291" s="4"/>
+      <c r="T1291" s="4"/>
+      <c r="U1291" s="4"/>
+      <c r="V1291" s="4"/>
+      <c r="W1291" s="4"/>
+      <c r="X1291" s="4"/>
+      <c r="Y1291" s="4"/>
+      <c r="Z1291" s="4"/>
+    </row>
+    <row r="1292">
+      <c r="A1292" s="2"/>
+      <c r="B1292" s="2"/>
+      <c r="C1292" s="2"/>
+      <c r="D1292" s="2"/>
+      <c r="E1292" s="4"/>
+      <c r="F1292" s="4"/>
+      <c r="G1292" s="4"/>
+      <c r="H1292" s="4"/>
+      <c r="I1292" s="4"/>
+      <c r="J1292" s="4"/>
+      <c r="K1292" s="4"/>
+      <c r="L1292" s="4"/>
+      <c r="M1292" s="4"/>
+      <c r="N1292" s="4"/>
+      <c r="O1292" s="4"/>
+      <c r="P1292" s="4"/>
+      <c r="Q1292" s="4"/>
+      <c r="R1292" s="4"/>
+      <c r="S1292" s="4"/>
+      <c r="T1292" s="4"/>
+      <c r="U1292" s="4"/>
+      <c r="V1292" s="4"/>
+      <c r="W1292" s="4"/>
+      <c r="X1292" s="4"/>
+      <c r="Y1292" s="4"/>
+      <c r="Z1292" s="4"/>
+    </row>
+    <row r="1293">
+      <c r="A1293" s="2"/>
+      <c r="B1293" s="2"/>
+      <c r="C1293" s="2"/>
+      <c r="D1293" s="2"/>
+      <c r="E1293" s="4"/>
+      <c r="F1293" s="4"/>
+      <c r="G1293" s="4"/>
+      <c r="H1293" s="4"/>
+      <c r="I1293" s="4"/>
+      <c r="J1293" s="4"/>
+      <c r="K1293" s="4"/>
+      <c r="L1293" s="4"/>
+      <c r="M1293" s="4"/>
+      <c r="N1293" s="4"/>
+      <c r="O1293" s="4"/>
+      <c r="P1293" s="4"/>
+      <c r="Q1293" s="4"/>
+      <c r="R1293" s="4"/>
+      <c r="S1293" s="4"/>
+      <c r="T1293" s="4"/>
+      <c r="U1293" s="4"/>
+      <c r="V1293" s="4"/>
+      <c r="W1293" s="4"/>
+      <c r="X1293" s="4"/>
+      <c r="Y1293" s="4"/>
+      <c r="Z1293" s="4"/>
+    </row>
+    <row r="1294">
+      <c r="A1294" s="2"/>
+      <c r="B1294" s="2"/>
+      <c r="C1294" s="2"/>
+      <c r="D1294" s="2"/>
+      <c r="E1294" s="4"/>
+      <c r="F1294" s="4"/>
+      <c r="G1294" s="4"/>
+      <c r="H1294" s="4"/>
+      <c r="I1294" s="4"/>
+      <c r="J1294" s="4"/>
+      <c r="K1294" s="4"/>
+      <c r="L1294" s="4"/>
+      <c r="M1294" s="4"/>
+      <c r="N1294" s="4"/>
+      <c r="O1294" s="4"/>
+      <c r="P1294" s="4"/>
+      <c r="Q1294" s="4"/>
+      <c r="R1294" s="4"/>
+      <c r="S1294" s="4"/>
+      <c r="T1294" s="4"/>
+      <c r="U1294" s="4"/>
+      <c r="V1294" s="4"/>
+      <c r="W1294" s="4"/>
+      <c r="X1294" s="4"/>
+      <c r="Y1294" s="4"/>
+      <c r="Z1294" s="4"/>
+    </row>
+    <row r="1295">
+      <c r="A1295" s="2"/>
+      <c r="B1295" s="2"/>
+      <c r="C1295" s="2"/>
+      <c r="D1295" s="2"/>
+      <c r="E1295" s="4"/>
+      <c r="F1295" s="4"/>
+      <c r="G1295" s="4"/>
+      <c r="H1295" s="4"/>
+      <c r="I1295" s="4"/>
+      <c r="J1295" s="4"/>
+      <c r="K1295" s="4"/>
+      <c r="L1295" s="4"/>
+      <c r="M1295" s="4"/>
+      <c r="N1295" s="4"/>
+      <c r="O1295" s="4"/>
+      <c r="P1295" s="4"/>
+      <c r="Q1295" s="4"/>
+      <c r="R1295" s="4"/>
+      <c r="S1295" s="4"/>
+      <c r="T1295" s="4"/>
+      <c r="U1295" s="4"/>
+      <c r="V1295" s="4"/>
+      <c r="W1295" s="4"/>
+      <c r="X1295" s="4"/>
+      <c r="Y1295" s="4"/>
+      <c r="Z1295" s="4"/>
+    </row>
+    <row r="1296">
+      <c r="A1296" s="2"/>
+      <c r="B1296" s="2"/>
+      <c r="C1296" s="2"/>
+      <c r="D1296" s="2"/>
+      <c r="E1296" s="4"/>
+      <c r="F1296" s="4"/>
+      <c r="G1296" s="4"/>
+      <c r="H1296" s="4"/>
+      <c r="I1296" s="4"/>
+      <c r="J1296" s="4"/>
+      <c r="K1296" s="4"/>
+      <c r="L1296" s="4"/>
+      <c r="M1296" s="4"/>
+      <c r="N1296" s="4"/>
+      <c r="O1296" s="4"/>
+      <c r="P1296" s="4"/>
+      <c r="Q1296" s="4"/>
+      <c r="R1296" s="4"/>
+      <c r="S1296" s="4"/>
+      <c r="T1296" s="4"/>
+      <c r="U1296" s="4"/>
+      <c r="V1296" s="4"/>
+      <c r="W1296" s="4"/>
+      <c r="X1296" s="4"/>
+      <c r="Y1296" s="4"/>
+      <c r="Z1296" s="4"/>
+    </row>
+    <row r="1297">
+      <c r="A1297" s="2"/>
+      <c r="B1297" s="2"/>
+      <c r="C1297" s="2"/>
+      <c r="D1297" s="2"/>
+      <c r="E1297" s="4"/>
+      <c r="F1297" s="4"/>
+      <c r="G1297" s="4"/>
+      <c r="H1297" s="4"/>
+      <c r="I1297" s="4"/>
+      <c r="J1297" s="4"/>
+      <c r="K1297" s="4"/>
+      <c r="L1297" s="4"/>
+      <c r="M1297" s="4"/>
+      <c r="N1297" s="4"/>
+      <c r="O1297" s="4"/>
+      <c r="P1297" s="4"/>
+      <c r="Q1297" s="4"/>
+      <c r="R1297" s="4"/>
+      <c r="S1297" s="4"/>
+      <c r="T1297" s="4"/>
+      <c r="U1297" s="4"/>
+      <c r="V1297" s="4"/>
+      <c r="W1297" s="4"/>
+      <c r="X1297" s="4"/>
+      <c r="Y1297" s="4"/>
+      <c r="Z1297" s="4"/>
+    </row>
+    <row r="1298">
+      <c r="A1298" s="2"/>
+      <c r="B1298" s="2"/>
+      <c r="C1298" s="2"/>
+      <c r="D1298" s="2"/>
+      <c r="E1298" s="4"/>
+      <c r="F1298" s="4"/>
+      <c r="G1298" s="4"/>
+      <c r="H1298" s="4"/>
+      <c r="I1298" s="4"/>
+      <c r="J1298" s="4"/>
+      <c r="K1298" s="4"/>
+      <c r="L1298" s="4"/>
+      <c r="M1298" s="4"/>
+      <c r="N1298" s="4"/>
+      <c r="O1298" s="4"/>
+      <c r="P1298" s="4"/>
+      <c r="Q1298" s="4"/>
+      <c r="R1298" s="4"/>
+      <c r="S1298" s="4"/>
+      <c r="T1298" s="4"/>
+      <c r="U1298" s="4"/>
+      <c r="V1298" s="4"/>
+      <c r="W1298" s="4"/>
+      <c r="X1298" s="4"/>
+      <c r="Y1298" s="4"/>
+      <c r="Z1298" s="4"/>
+    </row>
+    <row r="1299">
+      <c r="A1299" s="2"/>
+      <c r="B1299" s="2"/>
+      <c r="C1299" s="2"/>
+      <c r="D1299" s="2"/>
+      <c r="E1299" s="4"/>
+      <c r="F1299" s="4"/>
+      <c r="G1299" s="4"/>
+      <c r="H1299" s="4"/>
+      <c r="I1299" s="4"/>
+      <c r="J1299" s="4"/>
+      <c r="K1299" s="4"/>
+      <c r="L1299" s="4"/>
+      <c r="M1299" s="4"/>
+      <c r="N1299" s="4"/>
+      <c r="O1299" s="4"/>
+      <c r="P1299" s="4"/>
+      <c r="Q1299" s="4"/>
+      <c r="R1299" s="4"/>
+      <c r="S1299" s="4"/>
+      <c r="T1299" s="4"/>
+      <c r="U1299" s="4"/>
+      <c r="V1299" s="4"/>
+      <c r="W1299" s="4"/>
+      <c r="X1299" s="4"/>
+      <c r="Y1299" s="4"/>
+      <c r="Z1299" s="4"/>
+    </row>
+    <row r="1300">
+      <c r="A1300" s="2"/>
+      <c r="B1300" s="2"/>
+      <c r="C1300" s="2"/>
+      <c r="D1300" s="2"/>
+      <c r="E1300" s="4"/>
+      <c r="F1300" s="4"/>
+      <c r="G1300" s="4"/>
+      <c r="H1300" s="4"/>
+      <c r="I1300" s="4"/>
+      <c r="J1300" s="4"/>
+      <c r="K1300" s="4"/>
+      <c r="L1300" s="4"/>
+      <c r="M1300" s="4"/>
+      <c r="N1300" s="4"/>
+      <c r="O1300" s="4"/>
+      <c r="P1300" s="4"/>
+      <c r="Q1300" s="4"/>
+      <c r="R1300" s="4"/>
+      <c r="S1300" s="4"/>
+      <c r="T1300" s="4"/>
+      <c r="U1300" s="4"/>
+      <c r="V1300" s="4"/>
+      <c r="W1300" s="4"/>
+      <c r="X1300" s="4"/>
+      <c r="Y1300" s="4"/>
+      <c r="Z1300" s="4"/>
+    </row>
+    <row r="1301">
+      <c r="A1301" s="2"/>
+      <c r="B1301" s="2"/>
+      <c r="C1301" s="2"/>
+      <c r="D1301" s="2"/>
+      <c r="E1301" s="4"/>
+      <c r="F1301" s="4"/>
+      <c r="G1301" s="4"/>
+      <c r="H1301" s="4"/>
+      <c r="I1301" s="4"/>
+      <c r="J1301" s="4"/>
+      <c r="K1301" s="4"/>
+      <c r="L1301" s="4"/>
+      <c r="M1301" s="4"/>
+      <c r="N1301" s="4"/>
+      <c r="O1301" s="4"/>
+      <c r="P1301" s="4"/>
+      <c r="Q1301" s="4"/>
+      <c r="R1301" s="4"/>
+      <c r="S1301" s="4"/>
+      <c r="T1301" s="4"/>
+      <c r="U1301" s="4"/>
+      <c r="V1301" s="4"/>
+      <c r="W1301" s="4"/>
+      <c r="X1301" s="4"/>
+      <c r="Y1301" s="4"/>
+      <c r="Z1301" s="4"/>
+    </row>
+    <row r="1302">
+      <c r="A1302" s="2"/>
+      <c r="B1302" s="2"/>
+      <c r="C1302" s="2"/>
+      <c r="D1302" s="2"/>
+      <c r="E1302" s="4"/>
+      <c r="F1302" s="4"/>
+      <c r="G1302" s="4"/>
+      <c r="H1302" s="4"/>
+      <c r="I1302" s="4"/>
+      <c r="J1302" s="4"/>
+      <c r="K1302" s="4"/>
+      <c r="L1302" s="4"/>
+      <c r="M1302" s="4"/>
+      <c r="N1302" s="4"/>
+      <c r="O1302" s="4"/>
+      <c r="P1302" s="4"/>
+      <c r="Q1302" s="4"/>
+      <c r="R1302" s="4"/>
+      <c r="S1302" s="4"/>
+      <c r="T1302" s="4"/>
+      <c r="U1302" s="4"/>
+      <c r="V1302" s="4"/>
+      <c r="W1302" s="4"/>
+      <c r="X1302" s="4"/>
+      <c r="Y1302" s="4"/>
+      <c r="Z1302" s="4"/>
+    </row>
+    <row r="1303">
+      <c r="A1303" s="4"/>
+      <c r="B1303" s="4"/>
+      <c r="C1303" s="4"/>
+      <c r="D1303" s="4"/>
+      <c r="E1303" s="4"/>
+      <c r="F1303" s="4"/>
+      <c r="G1303" s="4"/>
+      <c r="H1303" s="4"/>
+      <c r="I1303" s="4"/>
+      <c r="J1303" s="4"/>
+      <c r="K1303" s="4"/>
+      <c r="L1303" s="4"/>
+      <c r="M1303" s="4"/>
+      <c r="N1303" s="4"/>
+      <c r="O1303" s="4"/>
+      <c r="P1303" s="4"/>
+      <c r="Q1303" s="4"/>
+      <c r="R1303" s="4"/>
+      <c r="S1303" s="4"/>
+      <c r="T1303" s="4"/>
+      <c r="U1303" s="4"/>
+      <c r="V1303" s="4"/>
+      <c r="W1303" s="4"/>
+      <c r="X1303" s="4"/>
+      <c r="Y1303" s="4"/>
+      <c r="Z1303" s="4"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/hauteur site.xlsx
+++ b/hauteur site.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="49">
   <si>
     <t>code_pneu</t>
   </si>
@@ -52,13 +52,13 @@
     <t>305+</t>
   </si>
   <si>
+    <t>275+</t>
+  </si>
+  <si>
     <t>255-</t>
   </si>
   <si>
     <t>275?</t>
-  </si>
-  <si>
-    <t>275+</t>
   </si>
   <si>
     <t>310*</t>
@@ -91,13 +91,22 @@
     <t>280-</t>
   </si>
   <si>
+    <t>---16/4</t>
+  </si>
+  <si>
     <t>280+</t>
+  </si>
+  <si>
+    <t>310+</t>
   </si>
   <si>
     <t>260-275</t>
   </si>
   <si>
     <t>290+</t>
+  </si>
+  <si>
+    <t>255+</t>
   </si>
   <si>
     <t>245+</t>
@@ -122,6 +131,9 @@
   </si>
   <si>
     <t>290-310</t>
+  </si>
+  <si>
+    <t>240?</t>
   </si>
   <si>
     <t>---28/2</t>
@@ -560,13 +572,13 @@
     </row>
     <row r="4">
       <c r="A4" s="6">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="7">
-        <v>330.0</v>
+        <v>280.0</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>3</v>
@@ -596,13 +608,13 @@
     </row>
     <row r="5">
       <c r="A5" s="6">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="7">
-        <v>230.0</v>
+        <v>330.0</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>3</v>
@@ -632,13 +644,13 @@
     </row>
     <row r="6">
       <c r="A6" s="6">
-        <v>20.0</v>
+        <v>18.0</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>235.0</v>
+        <v>255.0</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>3</v>
@@ -668,13 +680,13 @@
     </row>
     <row r="7">
       <c r="A7" s="6">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>280.0</v>
+        <v>230.0</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>3</v>
@@ -704,13 +716,13 @@
     </row>
     <row r="8">
       <c r="A8" s="6">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>320.0</v>
+        <v>235.0</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>3</v>
@@ -740,13 +752,13 @@
     </row>
     <row r="9">
       <c r="A9" s="6">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>335.0</v>
+        <v>280.0</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>3</v>
@@ -776,13 +788,13 @@
     </row>
     <row r="10">
       <c r="A10" s="6">
-        <v>26.0</v>
+        <v>22.0</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="7">
-        <v>240.0</v>
+        <v>320.0</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>3</v>
@@ -812,13 +824,13 @@
     </row>
     <row r="11">
       <c r="A11" s="6">
-        <v>32.0</v>
+        <v>23.0</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>255.0</v>
+        <v>335.0</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>3</v>
@@ -848,13 +860,13 @@
     </row>
     <row r="12">
       <c r="A12" s="6">
-        <v>38.0</v>
+        <v>26.0</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>280.0</v>
+        <v>240.0</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>3</v>
@@ -883,16 +895,16 @@
       <c r="Z12" s="4"/>
     </row>
     <row r="13">
-      <c r="A13" s="1">
-        <v>44.0</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="3">
-        <v>295.0</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="A13" s="6">
+        <v>32.0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="7">
+        <v>255.0</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="4"/>
@@ -920,13 +932,13 @@
     </row>
     <row r="14">
       <c r="A14" s="6">
-        <v>45.0</v>
+        <v>38.0</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>5</v>
+      <c r="C14" s="7">
+        <v>280.0</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>3</v>
@@ -955,14 +967,16 @@
       <c r="Z14" s="4"/>
     </row>
     <row r="15">
-      <c r="A15" s="6">
-        <v>47.0</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="5" t="s">
+      <c r="A15" s="1">
+        <v>44.0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E15" s="4"/>
@@ -989,16 +1003,16 @@
       <c r="Z15" s="4"/>
     </row>
     <row r="16">
-      <c r="A16" s="1">
-        <v>49.0</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="3">
-        <v>275.0</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="A16" s="6">
+        <v>45.0</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="4"/>
@@ -1026,14 +1040,12 @@
     </row>
     <row r="17">
       <c r="A17" s="6">
-        <v>51.0</v>
+        <v>47.0</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="7">
-        <v>260.0</v>
-      </c>
+      <c r="C17" s="7"/>
       <c r="D17" s="5" t="s">
         <v>3</v>
       </c>
@@ -1061,16 +1073,16 @@
       <c r="Z17" s="4"/>
     </row>
     <row r="18">
-      <c r="A18" s="6">
-        <v>52.0</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>315.0</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="A18" s="1">
+        <v>49.0</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3">
+        <v>275.0</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E18" s="4"/>
@@ -1098,13 +1110,13 @@
     </row>
     <row r="19">
       <c r="A19" s="6">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>310.0</v>
+        <v>260.0</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>3</v>
@@ -1133,16 +1145,16 @@
       <c r="Z19" s="4"/>
     </row>
     <row r="20">
-      <c r="A20" s="1">
-        <v>57.0</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="3">
-        <v>260.0</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="A20" s="6">
+        <v>52.0</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="7">
+        <v>315.0</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E20" s="4"/>
@@ -1170,13 +1182,13 @@
     </row>
     <row r="21">
       <c r="A21" s="6">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>315.0</v>
+        <v>310.0</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>3</v>
@@ -1205,16 +1217,16 @@
       <c r="Z21" s="4"/>
     </row>
     <row r="22">
-      <c r="A22" s="6">
-        <v>63.0</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="7">
+      <c r="A22" s="1">
+        <v>57.0</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="3">
         <v>260.0</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E22" s="4"/>
@@ -1242,13 +1254,13 @@
     </row>
     <row r="23">
       <c r="A23" s="6">
-        <v>64.0</v>
+        <v>61.0</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>255.0</v>
+        <v>315.0</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>3</v>
@@ -1278,13 +1290,13 @@
     </row>
     <row r="24">
       <c r="A24" s="6">
-        <v>67.0</v>
+        <v>63.0</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>255.0</v>
+        <v>260.0</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>3</v>
@@ -1314,13 +1326,13 @@
     </row>
     <row r="25">
       <c r="A25" s="6">
-        <v>68.0</v>
+        <v>64.0</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C25" s="7">
-        <v>240.0</v>
+        <v>255.0</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>3</v>
@@ -1350,12 +1362,14 @@
     </row>
     <row r="26">
       <c r="A26" s="6">
-        <v>69.0</v>
+        <v>67.0</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="7"/>
+      <c r="C26" s="7">
+        <v>255.0</v>
+      </c>
       <c r="D26" s="5" t="s">
         <v>3</v>
       </c>
@@ -1384,13 +1398,13 @@
     </row>
     <row r="27">
       <c r="A27" s="6">
-        <v>70.0</v>
+        <v>68.0</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>225.0</v>
+        <v>240.0</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>3</v>
@@ -1419,16 +1433,14 @@
       <c r="Z27" s="4"/>
     </row>
     <row r="28">
-      <c r="A28" s="1">
-        <v>74.0</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="3">
-        <v>265.0</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="A28" s="6">
+        <v>69.0</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E28" s="4"/>
@@ -1456,13 +1468,13 @@
     </row>
     <row r="29">
       <c r="A29" s="6">
-        <v>76.0</v>
+        <v>70.0</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>6</v>
+      <c r="C29" s="7">
+        <v>225.0</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>3</v>
@@ -1492,13 +1504,13 @@
     </row>
     <row r="30">
       <c r="A30" s="1">
-        <v>77.0</v>
+        <v>74.0</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C30" s="3">
-        <v>260.0</v>
+        <v>265.0</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>3</v>
@@ -1528,13 +1540,13 @@
     </row>
     <row r="31">
       <c r="A31" s="6">
-        <v>79.0</v>
+        <v>76.0</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="7">
-        <v>300.0</v>
+      <c r="C31" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>3</v>
@@ -1564,13 +1576,13 @@
     </row>
     <row r="32">
       <c r="A32" s="1">
-        <v>83.0</v>
+        <v>77.0</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C32" s="3">
-        <v>295.0</v>
+        <v>260.0</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>3</v>
@@ -1600,13 +1612,13 @@
     </row>
     <row r="33">
       <c r="A33" s="6">
-        <v>84.0</v>
+        <v>79.0</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>7</v>
+      <c r="C33" s="7">
+        <v>300.0</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>3</v>
@@ -1635,16 +1647,16 @@
       <c r="Z33" s="4"/>
     </row>
     <row r="34">
-      <c r="A34" s="6">
-        <v>85.0</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="7">
-        <v>275.0</v>
-      </c>
-      <c r="D34" s="5" t="s">
+      <c r="A34" s="1">
+        <v>83.0</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E34" s="4"/>
@@ -1672,13 +1684,13 @@
     </row>
     <row r="35">
       <c r="A35" s="6">
-        <v>90.0</v>
+        <v>84.0</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="7">
-        <v>305.0</v>
+      <c r="C35" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>3</v>
@@ -1708,13 +1720,13 @@
     </row>
     <row r="36">
       <c r="A36" s="6">
-        <v>92.0</v>
+        <v>85.0</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>8</v>
+      <c r="C36" s="7">
+        <v>275.0</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>3</v>
@@ -1743,16 +1755,16 @@
       <c r="Z36" s="4"/>
     </row>
     <row r="37">
-      <c r="A37" s="1">
-        <v>93.0</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D37" s="2" t="s">
+      <c r="A37" s="6">
+        <v>90.0</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="7">
+        <v>305.0</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E37" s="4"/>
@@ -1780,12 +1792,14 @@
     </row>
     <row r="38">
       <c r="A38" s="6">
-        <v>98.0</v>
+        <v>92.0</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="7"/>
+      <c r="C38" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="D38" s="5" t="s">
         <v>3</v>
       </c>
@@ -1813,16 +1827,16 @@
       <c r="Z38" s="4"/>
     </row>
     <row r="39">
-      <c r="A39" s="6">
-        <v>99.0</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="7">
-        <v>275.0</v>
-      </c>
-      <c r="D39" s="5" t="s">
+      <c r="A39" s="1">
+        <v>93.0</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E39" s="4"/>
@@ -1850,13 +1864,13 @@
     </row>
     <row r="40">
       <c r="A40" s="6">
-        <v>102.0</v>
+        <v>98.0</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C40" s="7">
-        <v>245.0</v>
+        <v>265.0</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>3</v>
@@ -1886,13 +1900,13 @@
     </row>
     <row r="41">
       <c r="A41" s="6">
-        <v>103.0</v>
+        <v>99.0</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C41" s="7">
-        <v>230.0</v>
+        <v>275.0</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>3</v>
@@ -1922,13 +1936,13 @@
     </row>
     <row r="42">
       <c r="A42" s="6">
-        <v>105.0</v>
+        <v>102.0</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C42" s="7">
-        <v>260.0</v>
+        <v>245.0</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>3</v>
@@ -1958,12 +1972,14 @@
     </row>
     <row r="43">
       <c r="A43" s="6">
-        <v>106.0</v>
+        <v>103.0</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="7"/>
+      <c r="C43" s="7">
+        <v>230.0</v>
+      </c>
       <c r="D43" s="5" t="s">
         <v>3</v>
       </c>
@@ -1992,7 +2008,7 @@
     </row>
     <row r="44">
       <c r="A44" s="6">
-        <v>107.0</v>
+        <v>105.0</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>3</v>
@@ -2028,14 +2044,12 @@
     </row>
     <row r="45">
       <c r="A45" s="6">
-        <v>109.0</v>
+        <v>106.0</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="7">
-        <v>315.0</v>
-      </c>
+      <c r="C45" s="7"/>
       <c r="D45" s="5" t="s">
         <v>3</v>
       </c>
@@ -2064,13 +2078,13 @@
     </row>
     <row r="46">
       <c r="A46" s="6">
-        <v>110.0</v>
+        <v>107.0</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C46" s="7">
-        <v>275.0</v>
+        <v>260.0</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>3</v>
@@ -2100,13 +2114,13 @@
     </row>
     <row r="47">
       <c r="A47" s="6">
-        <v>111.0</v>
+        <v>109.0</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C47" s="7">
-        <v>255.0</v>
+        <v>315.0</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>3</v>
@@ -2135,16 +2149,16 @@
       <c r="Z47" s="4"/>
     </row>
     <row r="48">
-      <c r="A48" s="1">
-        <v>112.0</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
+      <c r="A48" s="6">
+        <v>110.0</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="7">
+        <v>275.0</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E48" s="4"/>
@@ -2171,16 +2185,16 @@
       <c r="Z48" s="4"/>
     </row>
     <row r="49">
-      <c r="A49" s="1">
-        <v>119.0</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D49" s="2" t="s">
+      <c r="A49" s="6">
+        <v>111.0</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="7">
+        <v>255.0</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E49" s="4"/>
@@ -2207,16 +2221,16 @@
       <c r="Z49" s="4"/>
     </row>
     <row r="50">
-      <c r="A50" s="6">
-        <v>120.0</v>
-      </c>
-      <c r="B50" s="5" t="s">
+      <c r="A50" s="1">
+        <v>112.0</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E50" s="4"/>
@@ -2244,13 +2258,13 @@
     </row>
     <row r="51">
       <c r="A51" s="6">
-        <v>122.0</v>
+        <v>113.0</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C51" s="7">
-        <v>295.0</v>
+        <v>255.0</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>3</v>
@@ -2279,16 +2293,16 @@
       <c r="Z51" s="4"/>
     </row>
     <row r="52">
-      <c r="A52" s="6">
-        <v>123.0</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" s="7">
-        <v>280.0</v>
-      </c>
-      <c r="D52" s="5" t="s">
+      <c r="A52" s="1">
+        <v>119.0</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E52" s="4"/>
@@ -2316,13 +2330,13 @@
     </row>
     <row r="53">
       <c r="A53" s="6">
-        <v>124.0</v>
+        <v>120.0</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C53" s="7">
-        <v>245.0</v>
+      <c r="C53" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>3</v>
@@ -2351,16 +2365,16 @@
       <c r="Z53" s="4"/>
     </row>
     <row r="54">
-      <c r="A54" s="1">
-        <v>125.0</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" s="3">
-        <v>265.0</v>
-      </c>
-      <c r="D54" s="2" t="s">
+      <c r="A54" s="6">
+        <v>122.0</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="7">
+        <v>295.0</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E54" s="4"/>
@@ -2388,13 +2402,13 @@
     </row>
     <row r="55">
       <c r="A55" s="6">
-        <v>126.0</v>
+        <v>123.0</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C55" s="7">
-        <v>265.0</v>
+        <v>280.0</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>3</v>
@@ -2424,13 +2438,13 @@
     </row>
     <row r="56">
       <c r="A56" s="6">
-        <v>127.0</v>
+        <v>124.0</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C56" s="7">
-        <v>290.0</v>
+        <v>245.0</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>3</v>
@@ -2459,16 +2473,16 @@
       <c r="Z56" s="4"/>
     </row>
     <row r="57">
-      <c r="A57" s="6">
-        <v>128.0</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57" s="7">
-        <v>290.0</v>
-      </c>
-      <c r="D57" s="5" t="s">
+      <c r="A57" s="1">
+        <v>125.0</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="3">
+        <v>265.0</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E57" s="4"/>
@@ -2495,16 +2509,16 @@
       <c r="Z57" s="4"/>
     </row>
     <row r="58">
-      <c r="A58" s="1">
-        <v>129.0</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C58" s="3">
-        <v>270.0</v>
-      </c>
-      <c r="D58" s="2" t="s">
+      <c r="A58" s="6">
+        <v>126.0</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="7">
+        <v>265.0</v>
+      </c>
+      <c r="D58" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E58" s="4"/>
@@ -2532,7 +2546,7 @@
     </row>
     <row r="59">
       <c r="A59" s="6">
-        <v>130.0</v>
+        <v>127.0</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>3</v>
@@ -2567,16 +2581,16 @@
       <c r="Z59" s="4"/>
     </row>
     <row r="60">
-      <c r="A60" s="1">
-        <v>131.0</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60" s="3">
-        <v>255.0</v>
-      </c>
-      <c r="D60" s="2" t="s">
+      <c r="A60" s="6">
+        <v>128.0</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="7">
+        <v>290.0</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E60" s="4"/>
@@ -2604,13 +2618,13 @@
     </row>
     <row r="61">
       <c r="A61" s="1">
-        <v>132.0</v>
+        <v>129.0</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C61" s="3">
-        <v>250.0</v>
+        <v>270.0</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>3</v>
@@ -2640,13 +2654,13 @@
     </row>
     <row r="62">
       <c r="A62" s="6">
-        <v>133.0</v>
+        <v>130.0</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C62" s="7">
-        <v>240.0</v>
+        <v>290.0</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>3</v>
@@ -2675,16 +2689,16 @@
       <c r="Z62" s="4"/>
     </row>
     <row r="63">
-      <c r="A63" s="6">
-        <v>135.0</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C63" s="7">
-        <v>310.0</v>
-      </c>
-      <c r="D63" s="5" t="s">
+      <c r="A63" s="1">
+        <v>131.0</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="3">
+        <v>255.0</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E63" s="4"/>
@@ -2711,16 +2725,16 @@
       <c r="Z63" s="4"/>
     </row>
     <row r="64">
-      <c r="A64" s="6">
-        <v>136.0</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C64" s="7">
-        <v>315.0</v>
-      </c>
-      <c r="D64" s="5" t="s">
+      <c r="A64" s="1">
+        <v>132.0</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E64" s="4"/>
@@ -2748,13 +2762,13 @@
     </row>
     <row r="65">
       <c r="A65" s="6">
-        <v>137.0</v>
+        <v>133.0</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C65" s="7" t="s">
-        <v>11</v>
+      <c r="C65" s="7">
+        <v>240.0</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>3</v>
@@ -2783,16 +2797,16 @@
       <c r="Z65" s="4"/>
     </row>
     <row r="66">
-      <c r="A66" s="1">
-        <v>138.0</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66" s="3">
-        <v>315.0</v>
-      </c>
-      <c r="D66" s="2" t="s">
+      <c r="A66" s="6">
+        <v>135.0</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D66" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E66" s="4"/>
@@ -2819,16 +2833,16 @@
       <c r="Z66" s="4"/>
     </row>
     <row r="67">
-      <c r="A67" s="1">
-        <v>139.0</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C67" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D67" s="2" t="s">
+      <c r="A67" s="6">
+        <v>136.0</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="7">
+        <v>315.0</v>
+      </c>
+      <c r="D67" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E67" s="4"/>
@@ -2856,13 +2870,13 @@
     </row>
     <row r="68">
       <c r="A68" s="6">
-        <v>141.0</v>
+        <v>137.0</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>3</v>
@@ -2891,16 +2905,16 @@
       <c r="Z68" s="4"/>
     </row>
     <row r="69">
-      <c r="A69" s="6">
-        <v>144.0</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C69" s="7">
-        <v>305.0</v>
-      </c>
-      <c r="D69" s="5" t="s">
+      <c r="A69" s="1">
+        <v>138.0</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" s="3">
+        <v>315.0</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E69" s="4"/>
@@ -2928,13 +2942,13 @@
     </row>
     <row r="70">
       <c r="A70" s="1">
-        <v>145.0</v>
+        <v>139.0</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C70" s="3">
-        <v>275.0</v>
+        <v>250.0</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>3</v>
@@ -2964,13 +2978,13 @@
     </row>
     <row r="71">
       <c r="A71" s="6">
-        <v>146.0</v>
+        <v>141.0</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C71" s="7">
-        <v>300.0</v>
+      <c r="C71" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>3</v>
@@ -3000,13 +3014,13 @@
     </row>
     <row r="72">
       <c r="A72" s="6">
-        <v>148.0</v>
+        <v>144.0</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C72" s="7" t="s">
-        <v>13</v>
+      <c r="C72" s="7">
+        <v>305.0</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>3</v>
@@ -3036,13 +3050,13 @@
     </row>
     <row r="73">
       <c r="A73" s="1">
-        <v>149.0</v>
+        <v>145.0</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C73" s="3">
-        <v>265.0</v>
+      <c r="C73" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>3</v>
@@ -3072,13 +3086,13 @@
     </row>
     <row r="74">
       <c r="A74" s="6">
-        <v>152.0</v>
+        <v>146.0</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C74" s="7">
-        <v>230.0</v>
+        <v>300.0</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>3</v>
@@ -3107,16 +3121,16 @@
       <c r="Z74" s="4"/>
     </row>
     <row r="75">
-      <c r="A75" s="1">
-        <v>153.0</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C75" s="3">
-        <v>325.0</v>
-      </c>
-      <c r="D75" s="2" t="s">
+      <c r="A75" s="6">
+        <v>148.0</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E75" s="4"/>
@@ -3144,13 +3158,13 @@
     </row>
     <row r="76">
       <c r="A76" s="1">
-        <v>154.0</v>
+        <v>149.0</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C76" s="3">
-        <v>325.0</v>
+        <v>265.0</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>3</v>
@@ -3180,13 +3194,13 @@
     </row>
     <row r="77">
       <c r="A77" s="6">
-        <v>155.0</v>
+        <v>152.0</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C77" s="7">
-        <v>235.0</v>
+        <v>230.0</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>3</v>
@@ -3215,16 +3229,16 @@
       <c r="Z77" s="4"/>
     </row>
     <row r="78">
-      <c r="A78" s="6">
-        <v>156.0</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C78" s="7">
-        <v>310.0</v>
-      </c>
-      <c r="D78" s="5" t="s">
+      <c r="A78" s="1">
+        <v>153.0</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" s="3">
+        <v>325.0</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E78" s="4"/>
@@ -3252,13 +3266,13 @@
     </row>
     <row r="79">
       <c r="A79" s="1">
-        <v>157.0</v>
+        <v>154.0</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C79" s="7" t="s">
-        <v>9</v>
+      <c r="C79" s="3">
+        <v>325.0</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>3</v>
@@ -3288,13 +3302,13 @@
     </row>
     <row r="80">
       <c r="A80" s="6">
-        <v>158.0</v>
+        <v>155.0</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C80" s="7">
-        <v>275.0</v>
+        <v>235.0</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>3</v>
@@ -3324,13 +3338,13 @@
     </row>
     <row r="81">
       <c r="A81" s="6">
-        <v>161.0</v>
+        <v>156.0</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C81" s="7">
-        <v>270.0</v>
+        <v>310.0</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>3</v>
@@ -3359,16 +3373,16 @@
       <c r="Z81" s="4"/>
     </row>
     <row r="82">
-      <c r="A82" s="6">
-        <v>163.0</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C82" s="7">
-        <v>265.0</v>
-      </c>
-      <c r="D82" s="5" t="s">
+      <c r="A82" s="1">
+        <v>157.0</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E82" s="4"/>
@@ -3396,13 +3410,13 @@
     </row>
     <row r="83">
       <c r="A83" s="6">
-        <v>164.0</v>
+        <v>158.0</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C83" s="7">
-        <v>250.0</v>
+        <v>275.0</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>3</v>
@@ -3432,13 +3446,13 @@
     </row>
     <row r="84">
       <c r="A84" s="6">
-        <v>166.0</v>
+        <v>161.0</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C84" s="7">
-        <v>300.0</v>
+        <v>270.0</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>3</v>
@@ -3467,16 +3481,16 @@
       <c r="Z84" s="4"/>
     </row>
     <row r="85">
-      <c r="A85" s="1">
-        <v>167.0</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C85" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D85" s="2" t="s">
+      <c r="A85" s="6">
+        <v>163.0</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" s="7">
+        <v>265.0</v>
+      </c>
+      <c r="D85" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E85" s="4"/>
@@ -3504,13 +3518,13 @@
     </row>
     <row r="86">
       <c r="A86" s="6">
-        <v>169.0</v>
+        <v>164.0</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C86" s="7">
-        <v>235.0</v>
+        <v>250.0</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>3</v>
@@ -3540,13 +3554,13 @@
     </row>
     <row r="87">
       <c r="A87" s="6">
-        <v>171.0</v>
+        <v>166.0</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C87" s="7">
-        <v>325.0</v>
+        <v>300.0</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>3</v>
@@ -3575,16 +3589,16 @@
       <c r="Z87" s="4"/>
     </row>
     <row r="88">
-      <c r="A88" s="6">
-        <v>172.0</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C88" s="7">
-        <v>265.0</v>
-      </c>
-      <c r="D88" s="5" t="s">
+      <c r="A88" s="1">
+        <v>167.0</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E88" s="4"/>
@@ -3611,16 +3625,16 @@
       <c r="Z88" s="4"/>
     </row>
     <row r="89">
-      <c r="A89" s="1">
-        <v>175.0</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C89" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D89" s="2" t="s">
+      <c r="A89" s="6">
+        <v>169.0</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" s="7">
+        <v>235.0</v>
+      </c>
+      <c r="D89" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E89" s="4"/>
@@ -3648,12 +3662,14 @@
     </row>
     <row r="90">
       <c r="A90" s="6">
-        <v>176.0</v>
+        <v>171.0</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C90" s="7"/>
+      <c r="C90" s="7">
+        <v>325.0</v>
+      </c>
       <c r="D90" s="5" t="s">
         <v>3</v>
       </c>
@@ -3681,16 +3697,16 @@
       <c r="Z90" s="4"/>
     </row>
     <row r="91">
-      <c r="A91" s="1">
-        <v>178.0</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C91" s="3">
+      <c r="A91" s="6">
+        <v>172.0</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" s="7">
         <v>265.0</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D91" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E91" s="4"/>
@@ -3718,13 +3734,13 @@
     </row>
     <row r="92">
       <c r="A92" s="1">
-        <v>182.0</v>
+        <v>175.0</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C92" s="7">
-        <v>285.0</v>
+      <c r="C92" s="3">
+        <v>250.0</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>3</v>
@@ -3753,16 +3769,14 @@
       <c r="Z92" s="4"/>
     </row>
     <row r="93">
-      <c r="A93" s="1">
-        <v>183.0</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C93" s="3">
-        <v>270.0</v>
-      </c>
-      <c r="D93" s="2" t="s">
+      <c r="A93" s="6">
+        <v>176.0</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" s="7"/>
+      <c r="D93" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E93" s="4"/>
@@ -3789,16 +3803,16 @@
       <c r="Z93" s="4"/>
     </row>
     <row r="94">
-      <c r="A94" s="6">
-        <v>189.0</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C94" s="7">
-        <v>235.0</v>
-      </c>
-      <c r="D94" s="5" t="s">
+      <c r="A94" s="1">
+        <v>178.0</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" s="3">
+        <v>265.0</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E94" s="4"/>
@@ -3826,13 +3840,13 @@
     </row>
     <row r="95">
       <c r="A95" s="1">
-        <v>190.0</v>
+        <v>182.0</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C95" s="3">
-        <v>305.0</v>
+      <c r="C95" s="7">
+        <v>285.0</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>3</v>
@@ -3862,13 +3876,13 @@
     </row>
     <row r="96">
       <c r="A96" s="1">
-        <v>192.0</v>
+        <v>183.0</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C96" s="3">
-        <v>285.0</v>
+        <v>270.0</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>3</v>
@@ -3898,13 +3912,13 @@
     </row>
     <row r="97">
       <c r="A97" s="6">
-        <v>193.0</v>
+        <v>189.0</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C97" s="7">
-        <v>245.0</v>
+        <v>235.0</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>3</v>
@@ -3933,16 +3947,16 @@
       <c r="Z97" s="4"/>
     </row>
     <row r="98">
-      <c r="A98" s="6">
-        <v>195.0</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C98" s="7">
-        <v>325.0</v>
-      </c>
-      <c r="D98" s="5" t="s">
+      <c r="A98" s="1">
+        <v>190.0</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" s="3">
+        <v>305.0</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E98" s="4"/>
@@ -3969,16 +3983,16 @@
       <c r="Z98" s="4"/>
     </row>
     <row r="99">
-      <c r="A99" s="6">
-        <v>196.0</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C99" s="7">
-        <v>220.0</v>
-      </c>
-      <c r="D99" s="5" t="s">
+      <c r="A99" s="1">
+        <v>192.0</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" s="3">
+        <v>285.0</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E99" s="4"/>
@@ -4006,13 +4020,13 @@
     </row>
     <row r="100">
       <c r="A100" s="6">
-        <v>200.0</v>
+        <v>193.0</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C100" s="7">
-        <v>275.0</v>
+        <v>245.0</v>
       </c>
       <c r="D100" s="5" t="s">
         <v>3</v>
@@ -4041,16 +4055,16 @@
       <c r="Z100" s="4"/>
     </row>
     <row r="101">
-      <c r="A101" s="1">
-        <v>201.0</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C101" s="3">
-        <v>285.0</v>
-      </c>
-      <c r="D101" s="2" t="s">
+      <c r="A101" s="6">
+        <v>195.0</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" s="7">
+        <v>325.0</v>
+      </c>
+      <c r="D101" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E101" s="4"/>
@@ -4078,12 +4092,14 @@
     </row>
     <row r="102">
       <c r="A102" s="6">
-        <v>203.0</v>
+        <v>196.0</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C102" s="3"/>
+      <c r="C102" s="7">
+        <v>220.0</v>
+      </c>
       <c r="D102" s="5" t="s">
         <v>3</v>
       </c>
@@ -4111,16 +4127,16 @@
       <c r="Z102" s="4"/>
     </row>
     <row r="103">
-      <c r="A103" s="1">
-        <v>204.0</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C103" s="3">
-        <v>270.0</v>
-      </c>
-      <c r="D103" s="2" t="s">
+      <c r="A103" s="6">
+        <v>200.0</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103" s="7">
+        <v>275.0</v>
+      </c>
+      <c r="D103" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E103" s="4"/>
@@ -4147,16 +4163,16 @@
       <c r="Z103" s="4"/>
     </row>
     <row r="104">
-      <c r="A104" s="6">
-        <v>205.0</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D104" s="5" t="s">
+      <c r="A104" s="1">
+        <v>201.0</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" s="3">
+        <v>285.0</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E104" s="4"/>
@@ -4184,14 +4200,12 @@
     </row>
     <row r="105">
       <c r="A105" s="6">
-        <v>207.0</v>
+        <v>203.0</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C105" s="7">
-        <v>325.0</v>
-      </c>
+      <c r="C105" s="3"/>
       <c r="D105" s="5" t="s">
         <v>3</v>
       </c>
@@ -4219,16 +4233,16 @@
       <c r="Z105" s="4"/>
     </row>
     <row r="106">
-      <c r="A106" s="6">
-        <v>209.0</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D106" s="5" t="s">
+      <c r="A106" s="1">
+        <v>204.0</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106" s="3">
+        <v>270.0</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E106" s="4"/>
@@ -4256,13 +4270,13 @@
     </row>
     <row r="107">
       <c r="A107" s="6">
-        <v>215.0</v>
+        <v>205.0</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C107" s="7">
-        <v>310.0</v>
+      <c r="C107" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="D107" s="5" t="s">
         <v>3</v>
@@ -4292,13 +4306,13 @@
     </row>
     <row r="108">
       <c r="A108" s="6">
-        <v>216.0</v>
+        <v>207.0</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C108" s="7">
-        <v>320.0</v>
+        <v>325.0</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>3</v>
@@ -4327,16 +4341,16 @@
       <c r="Z108" s="4"/>
     </row>
     <row r="109">
-      <c r="A109" s="1">
-        <v>218.0</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C109" s="3">
-        <v>275.0</v>
-      </c>
-      <c r="D109" s="2" t="s">
+      <c r="A109" s="6">
+        <v>209.0</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D109" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E109" s="4"/>
@@ -4364,13 +4378,13 @@
     </row>
     <row r="110">
       <c r="A110" s="6">
-        <v>219.0</v>
+        <v>215.0</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C110" s="7">
-        <v>275.0</v>
+        <v>310.0</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>3</v>
@@ -4400,7 +4414,7 @@
     </row>
     <row r="111">
       <c r="A111" s="6">
-        <v>220.0</v>
+        <v>216.0</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>3</v>
@@ -4435,16 +4449,16 @@
       <c r="Z111" s="4"/>
     </row>
     <row r="112">
-      <c r="A112" s="6">
-        <v>221.0</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C112" s="7">
-        <v>315.0</v>
-      </c>
-      <c r="D112" s="5" t="s">
+      <c r="A112" s="1">
+        <v>218.0</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112" s="3">
+        <v>275.0</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E112" s="4"/>
@@ -4471,16 +4485,16 @@
       <c r="Z112" s="4"/>
     </row>
     <row r="113">
-      <c r="A113" s="1">
-        <v>227.0</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C113" s="3">
-        <v>325.0</v>
-      </c>
-      <c r="D113" s="2" t="s">
+      <c r="A113" s="6">
+        <v>219.0</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113" s="7">
+        <v>275.0</v>
+      </c>
+      <c r="D113" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E113" s="4"/>
@@ -4507,16 +4521,16 @@
       <c r="Z113" s="4"/>
     </row>
     <row r="114">
-      <c r="A114" s="1">
-        <v>229.0</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C114" s="3">
-        <v>300.0</v>
-      </c>
-      <c r="D114" s="2" t="s">
+      <c r="A114" s="6">
+        <v>220.0</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" s="7">
+        <v>320.0</v>
+      </c>
+      <c r="D114" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E114" s="4"/>
@@ -4544,13 +4558,13 @@
     </row>
     <row r="115">
       <c r="A115" s="6">
-        <v>232.0</v>
+        <v>221.0</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C115" s="7">
-        <v>275.0</v>
+        <v>315.0</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>3</v>
@@ -4579,16 +4593,16 @@
       <c r="Z115" s="4"/>
     </row>
     <row r="116">
-      <c r="A116" s="1">
-        <v>237.0</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C116" s="3">
-        <v>240.0</v>
-      </c>
-      <c r="D116" s="2" t="s">
+      <c r="A116" s="6">
+        <v>223.0</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D116" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E116" s="4"/>
@@ -4615,16 +4629,16 @@
       <c r="Z116" s="4"/>
     </row>
     <row r="117">
-      <c r="A117" s="6">
-        <v>238.0</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C117" s="7">
-        <v>280.0</v>
-      </c>
-      <c r="D117" s="5" t="s">
+      <c r="A117" s="1">
+        <v>227.0</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117" s="3">
+        <v>325.0</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E117" s="4"/>
@@ -4651,16 +4665,16 @@
       <c r="Z117" s="4"/>
     </row>
     <row r="118">
-      <c r="A118" s="6">
-        <v>240.0</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C118" s="7">
+      <c r="A118" s="1">
+        <v>229.0</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C118" s="3">
         <v>300.0</v>
       </c>
-      <c r="D118" s="5" t="s">
+      <c r="D118" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E118" s="4"/>
@@ -4687,16 +4701,16 @@
       <c r="Z118" s="4"/>
     </row>
     <row r="119">
-      <c r="A119" s="1">
-        <v>243.0</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C119" s="3">
-        <v>225.0</v>
-      </c>
-      <c r="D119" s="2" t="s">
+      <c r="A119" s="6">
+        <v>232.0</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119" s="7">
+        <v>275.0</v>
+      </c>
+      <c r="D119" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E119" s="4"/>
@@ -4723,16 +4737,16 @@
       <c r="Z119" s="4"/>
     </row>
     <row r="120">
-      <c r="A120" s="6">
-        <v>245.0</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C120" s="7">
-        <v>325.0</v>
-      </c>
-      <c r="D120" s="5" t="s">
+      <c r="A120" s="1">
+        <v>237.0</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120" s="3">
+        <v>240.0</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E120" s="4"/>
@@ -4760,13 +4774,13 @@
     </row>
     <row r="121">
       <c r="A121" s="6">
-        <v>246.0</v>
+        <v>238.0</v>
       </c>
       <c r="B121" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C121" s="7">
-        <v>265.0</v>
+        <v>280.0</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>3</v>
@@ -4796,13 +4810,13 @@
     </row>
     <row r="122">
       <c r="A122" s="6">
-        <v>250.0</v>
+        <v>240.0</v>
       </c>
       <c r="B122" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C122" s="7">
-        <v>245.0</v>
+        <v>300.0</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>3</v>
@@ -4831,16 +4845,16 @@
       <c r="Z122" s="4"/>
     </row>
     <row r="123">
-      <c r="A123" s="6">
-        <v>252.0</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D123" s="5" t="s">
+      <c r="A123" s="1">
+        <v>243.0</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123" s="3">
+        <v>225.0</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E123" s="4"/>
@@ -4868,12 +4882,14 @@
     </row>
     <row r="124">
       <c r="A124" s="6">
-        <v>256.0</v>
+        <v>245.0</v>
       </c>
       <c r="B124" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C124" s="7"/>
+      <c r="C124" s="7">
+        <v>325.0</v>
+      </c>
       <c r="D124" s="5" t="s">
         <v>3</v>
       </c>
@@ -4902,13 +4918,13 @@
     </row>
     <row r="125">
       <c r="A125" s="6">
-        <v>257.0</v>
+        <v>246.0</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C125" s="7">
-        <v>260.0</v>
+        <v>265.0</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>3</v>
@@ -4938,13 +4954,13 @@
     </row>
     <row r="126">
       <c r="A126" s="6">
-        <v>259.0</v>
+        <v>250.0</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C126" s="7" t="s">
-        <v>16</v>
+      <c r="C126" s="7">
+        <v>245.0</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>3</v>
@@ -4974,13 +4990,13 @@
     </row>
     <row r="127">
       <c r="A127" s="6">
-        <v>260.0</v>
+        <v>252.0</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C127" s="7">
-        <v>260.0</v>
+      <c r="C127" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>3</v>
@@ -5010,14 +5026,12 @@
     </row>
     <row r="128">
       <c r="A128" s="6">
-        <v>261.0</v>
+        <v>256.0</v>
       </c>
       <c r="B128" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C128" s="7">
-        <v>240.0</v>
-      </c>
+      <c r="C128" s="7"/>
       <c r="D128" s="5" t="s">
         <v>3</v>
       </c>
@@ -5046,13 +5060,13 @@
     </row>
     <row r="129">
       <c r="A129" s="6">
-        <v>262.0</v>
+        <v>257.0</v>
       </c>
       <c r="B129" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C129" s="7">
-        <v>250.0</v>
+        <v>260.0</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>3</v>
@@ -5082,13 +5096,13 @@
     </row>
     <row r="130">
       <c r="A130" s="6">
-        <v>263.0</v>
+        <v>259.0</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C130" s="7">
-        <v>275.0</v>
+      <c r="C130" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>3</v>
@@ -5118,13 +5132,13 @@
     </row>
     <row r="131">
       <c r="A131" s="6">
-        <v>264.0</v>
+        <v>260.0</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C131" s="7" t="s">
-        <v>5</v>
+      <c r="C131" s="7">
+        <v>260.0</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>3</v>
@@ -5153,16 +5167,16 @@
       <c r="Z131" s="4"/>
     </row>
     <row r="132">
-      <c r="A132" s="1">
-        <v>265.0</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C132" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D132" s="2" t="s">
+      <c r="A132" s="6">
+        <v>261.0</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C132" s="7">
+        <v>240.0</v>
+      </c>
+      <c r="D132" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E132" s="4"/>
@@ -5190,13 +5204,13 @@
     </row>
     <row r="133">
       <c r="A133" s="6">
-        <v>268.0</v>
+        <v>262.0</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C133" s="7" t="s">
-        <v>17</v>
+      <c r="C133" s="7">
+        <v>250.0</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>3</v>
@@ -5226,13 +5240,13 @@
     </row>
     <row r="134">
       <c r="A134" s="6">
-        <v>270.0</v>
+        <v>263.0</v>
       </c>
       <c r="B134" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C134" s="7">
-        <v>265.0</v>
+        <v>275.0</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>3</v>
@@ -5262,13 +5276,13 @@
     </row>
     <row r="135">
       <c r="A135" s="6">
-        <v>272.0</v>
+        <v>264.0</v>
       </c>
       <c r="B135" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C135" s="7">
-        <v>250.0</v>
+      <c r="C135" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>3</v>
@@ -5297,16 +5311,16 @@
       <c r="Z135" s="4"/>
     </row>
     <row r="136">
-      <c r="A136" s="6">
-        <v>273.0</v>
-      </c>
-      <c r="B136" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C136" s="7">
-        <v>290.0</v>
-      </c>
-      <c r="D136" s="5" t="s">
+      <c r="A136" s="1">
+        <v>265.0</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C136" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E136" s="4"/>
@@ -5333,16 +5347,16 @@
       <c r="Z136" s="4"/>
     </row>
     <row r="137">
-      <c r="A137" s="1">
-        <v>274.0</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C137" s="3">
-        <v>260.0</v>
-      </c>
-      <c r="D137" s="2" t="s">
+      <c r="A137" s="6">
+        <v>268.0</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D137" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E137" s="4"/>
@@ -5370,13 +5384,13 @@
     </row>
     <row r="138">
       <c r="A138" s="6">
-        <v>275.0</v>
+        <v>270.0</v>
       </c>
       <c r="B138" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C138" s="7">
-        <v>290.0</v>
+        <v>265.0</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>3</v>
@@ -5406,13 +5420,13 @@
     </row>
     <row r="139">
       <c r="A139" s="6">
-        <v>277.0</v>
+        <v>272.0</v>
       </c>
       <c r="B139" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C139" s="7">
-        <v>280.0</v>
+        <v>250.0</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>3</v>
@@ -5442,13 +5456,13 @@
     </row>
     <row r="140">
       <c r="A140" s="6">
-        <v>279.0</v>
+        <v>273.0</v>
       </c>
       <c r="B140" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C140" s="7">
-        <v>255.0</v>
+        <v>290.0</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>3</v>
@@ -5477,16 +5491,16 @@
       <c r="Z140" s="4"/>
     </row>
     <row r="141">
-      <c r="A141" s="6">
-        <v>281.0</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C141" s="7">
-        <v>295.0</v>
-      </c>
-      <c r="D141" s="5" t="s">
+      <c r="A141" s="1">
+        <v>274.0</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C141" s="3">
+        <v>260.0</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E141" s="4"/>
@@ -5514,13 +5528,13 @@
     </row>
     <row r="142">
       <c r="A142" s="6">
-        <v>284.0</v>
+        <v>275.0</v>
       </c>
       <c r="B142" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C142" s="7">
-        <v>260.0</v>
+        <v>290.0</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>3</v>
@@ -5550,13 +5564,13 @@
     </row>
     <row r="143">
       <c r="A143" s="6">
-        <v>285.0</v>
+        <v>277.0</v>
       </c>
       <c r="B143" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C143" s="7">
-        <v>245.0</v>
+        <v>280.0</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>3</v>
@@ -5586,13 +5600,13 @@
     </row>
     <row r="144">
       <c r="A144" s="6">
-        <v>286.0</v>
+        <v>279.0</v>
       </c>
       <c r="B144" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C144" s="7">
-        <v>270.0</v>
+        <v>255.0</v>
       </c>
       <c r="D144" s="5" t="s">
         <v>3</v>
@@ -5622,12 +5636,14 @@
     </row>
     <row r="145">
       <c r="A145" s="6">
-        <v>287.0</v>
+        <v>281.0</v>
       </c>
       <c r="B145" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C145" s="7"/>
+      <c r="C145" s="7">
+        <v>295.0</v>
+      </c>
       <c r="D145" s="5" t="s">
         <v>3</v>
       </c>
@@ -5656,7 +5672,7 @@
     </row>
     <row r="146">
       <c r="A146" s="6">
-        <v>289.0</v>
+        <v>284.0</v>
       </c>
       <c r="B146" s="5" t="s">
         <v>3</v>
@@ -5691,16 +5707,16 @@
       <c r="Z146" s="4"/>
     </row>
     <row r="147">
-      <c r="A147" s="1">
-        <v>290.0</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C147" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D147" s="2" t="s">
+      <c r="A147" s="6">
+        <v>285.0</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147" s="7">
+        <v>245.0</v>
+      </c>
+      <c r="D147" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E147" s="4"/>
@@ -5728,13 +5744,13 @@
     </row>
     <row r="148">
       <c r="A148" s="6">
-        <v>295.0</v>
+        <v>286.0</v>
       </c>
       <c r="B148" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C148" s="7" t="s">
-        <v>14</v>
+      <c r="C148" s="7">
+        <v>270.0</v>
       </c>
       <c r="D148" s="5" t="s">
         <v>3</v>
@@ -5764,15 +5780,13 @@
     </row>
     <row r="149">
       <c r="A149" s="6">
-        <v>296.0</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C149" s="7">
-        <v>235.0</v>
-      </c>
-      <c r="D149" s="2" t="s">
+        <v>287.0</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149" s="7"/>
+      <c r="D149" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E149" s="4"/>
@@ -5800,13 +5814,13 @@
     </row>
     <row r="150">
       <c r="A150" s="6">
-        <v>298.0</v>
+        <v>289.0</v>
       </c>
       <c r="B150" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C150" s="7">
-        <v>275.0</v>
+        <v>260.0</v>
       </c>
       <c r="D150" s="5" t="s">
         <v>3</v>
@@ -5835,16 +5849,16 @@
       <c r="Z150" s="4"/>
     </row>
     <row r="151">
-      <c r="A151" s="6">
-        <v>299.0</v>
-      </c>
-      <c r="B151" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C151" s="7">
-        <v>335.0</v>
-      </c>
-      <c r="D151" s="5" t="s">
+      <c r="A151" s="1">
+        <v>290.0</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C151" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D151" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E151" s="4"/>
@@ -5872,13 +5886,13 @@
     </row>
     <row r="152">
       <c r="A152" s="6">
-        <v>302.0</v>
+        <v>295.0</v>
       </c>
       <c r="B152" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D152" s="5" t="s">
         <v>3</v>
@@ -5907,13 +5921,13 @@
       <c r="Z152" s="4"/>
     </row>
     <row r="153">
-      <c r="A153" s="1">
-        <v>306.0</v>
+      <c r="A153" s="6">
+        <v>296.0</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C153" s="3">
+      <c r="C153" s="7">
         <v>235.0</v>
       </c>
       <c r="D153" s="2" t="s">
@@ -5944,13 +5958,13 @@
     </row>
     <row r="154">
       <c r="A154" s="6">
-        <v>307.0</v>
+        <v>298.0</v>
       </c>
       <c r="B154" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C154" s="7">
-        <v>250.0</v>
+        <v>275.0</v>
       </c>
       <c r="D154" s="5" t="s">
         <v>3</v>
@@ -5980,13 +5994,13 @@
     </row>
     <row r="155">
       <c r="A155" s="6">
-        <v>309.0</v>
+        <v>299.0</v>
       </c>
       <c r="B155" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C155" s="7">
-        <v>260.0</v>
+        <v>335.0</v>
       </c>
       <c r="D155" s="5" t="s">
         <v>3</v>
@@ -6016,13 +6030,13 @@
     </row>
     <row r="156">
       <c r="A156" s="6">
-        <v>312.0</v>
+        <v>302.0</v>
       </c>
       <c r="B156" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C156" s="7">
-        <v>325.0</v>
+      <c r="C156" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="D156" s="5" t="s">
         <v>3</v>
@@ -6051,16 +6065,16 @@
       <c r="Z156" s="4"/>
     </row>
     <row r="157">
-      <c r="A157" s="6">
-        <v>313.0</v>
-      </c>
-      <c r="B157" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C157" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D157" s="5" t="s">
+      <c r="A157" s="1">
+        <v>306.0</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C157" s="3">
+        <v>235.0</v>
+      </c>
+      <c r="D157" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E157" s="4"/>
@@ -6088,13 +6102,13 @@
     </row>
     <row r="158">
       <c r="A158" s="6">
-        <v>316.0</v>
+        <v>307.0</v>
       </c>
       <c r="B158" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C158" s="7" t="s">
-        <v>20</v>
+      <c r="C158" s="7">
+        <v>250.0</v>
       </c>
       <c r="D158" s="5" t="s">
         <v>3</v>
@@ -6124,13 +6138,13 @@
     </row>
     <row r="159">
       <c r="A159" s="6">
-        <v>317.0</v>
+        <v>309.0</v>
       </c>
       <c r="B159" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C159" s="7">
-        <v>265.0</v>
+        <v>260.0</v>
       </c>
       <c r="D159" s="5" t="s">
         <v>3</v>
@@ -6160,13 +6174,13 @@
     </row>
     <row r="160">
       <c r="A160" s="6">
-        <v>321.0</v>
+        <v>312.0</v>
       </c>
       <c r="B160" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C160" s="7">
-        <v>305.0</v>
+        <v>325.0</v>
       </c>
       <c r="D160" s="5" t="s">
         <v>3</v>
@@ -6196,13 +6210,13 @@
     </row>
     <row r="161">
       <c r="A161" s="6">
-        <v>323.0</v>
+        <v>313.0</v>
       </c>
       <c r="B161" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C161" s="7">
-        <v>265.0</v>
+      <c r="C161" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="D161" s="5" t="s">
         <v>3</v>
@@ -6231,16 +6245,16 @@
       <c r="Z161" s="4"/>
     </row>
     <row r="162">
-      <c r="A162" s="1">
-        <v>324.0</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C162" s="3">
-        <v>260.0</v>
-      </c>
-      <c r="D162" s="2" t="s">
+      <c r="A162" s="6">
+        <v>316.0</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D162" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E162" s="4"/>
@@ -6268,13 +6282,13 @@
     </row>
     <row r="163">
       <c r="A163" s="6">
-        <v>325.0</v>
+        <v>317.0</v>
       </c>
       <c r="B163" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C163" s="7">
-        <v>320.0</v>
+        <v>265.0</v>
       </c>
       <c r="D163" s="5" t="s">
         <v>3</v>
@@ -6303,16 +6317,16 @@
       <c r="Z163" s="4"/>
     </row>
     <row r="164">
-      <c r="A164" s="1">
-        <v>328.0</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C164" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D164" s="2" t="s">
+      <c r="A164" s="6">
+        <v>321.0</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C164" s="7">
+        <v>305.0</v>
+      </c>
+      <c r="D164" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E164" s="4"/>
@@ -6340,13 +6354,13 @@
     </row>
     <row r="165">
       <c r="A165" s="6">
-        <v>334.0</v>
+        <v>323.0</v>
       </c>
       <c r="B165" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C165" s="7" t="s">
-        <v>22</v>
+      <c r="C165" s="7">
+        <v>265.0</v>
       </c>
       <c r="D165" s="5" t="s">
         <v>3</v>
@@ -6375,16 +6389,16 @@
       <c r="Z165" s="4"/>
     </row>
     <row r="166">
-      <c r="A166" s="6">
-        <v>338.0</v>
-      </c>
-      <c r="B166" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C166" s="7">
-        <v>235.0</v>
-      </c>
-      <c r="D166" s="5" t="s">
+      <c r="A166" s="1">
+        <v>324.0</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C166" s="3">
+        <v>260.0</v>
+      </c>
+      <c r="D166" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E166" s="4"/>
@@ -6412,13 +6426,13 @@
     </row>
     <row r="167">
       <c r="A167" s="6">
-        <v>344.0</v>
+        <v>325.0</v>
       </c>
       <c r="B167" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C167" s="7" t="s">
-        <v>23</v>
+      <c r="C167" s="7">
+        <v>320.0</v>
       </c>
       <c r="D167" s="5" t="s">
         <v>3</v>
@@ -6447,16 +6461,16 @@
       <c r="Z167" s="4"/>
     </row>
     <row r="168">
-      <c r="A168" s="6">
-        <v>345.0</v>
-      </c>
-      <c r="B168" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C168" s="7">
-        <v>325.0</v>
-      </c>
-      <c r="D168" s="5" t="s">
+      <c r="A168" s="1">
+        <v>328.0</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D168" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E168" s="4"/>
@@ -6484,13 +6498,13 @@
     </row>
     <row r="169">
       <c r="A169" s="6">
-        <v>348.0</v>
+        <v>334.0</v>
       </c>
       <c r="B169" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C169" s="7">
-        <v>270.0</v>
+      <c r="C169" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D169" s="5" t="s">
         <v>3</v>
@@ -6519,16 +6533,16 @@
       <c r="Z169" s="4"/>
     </row>
     <row r="170">
-      <c r="A170" s="1">
-        <v>349.0</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C170" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D170" s="2" t="s">
+      <c r="A170" s="6">
+        <v>338.0</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C170" s="7">
+        <v>235.0</v>
+      </c>
+      <c r="D170" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E170" s="4"/>
@@ -6555,16 +6569,16 @@
       <c r="Z170" s="4"/>
     </row>
     <row r="171">
-      <c r="A171" s="1">
-        <v>350.0</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C171" s="3">
-        <v>225.0</v>
-      </c>
-      <c r="D171" s="2" t="s">
+      <c r="A171" s="6">
+        <v>344.0</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D171" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E171" s="4"/>
@@ -6592,13 +6606,13 @@
     </row>
     <row r="172">
       <c r="A172" s="6">
-        <v>351.0</v>
+        <v>345.0</v>
       </c>
       <c r="B172" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C172" s="7">
-        <v>260.0</v>
+        <v>325.0</v>
       </c>
       <c r="D172" s="5" t="s">
         <v>3</v>
@@ -6628,13 +6642,13 @@
     </row>
     <row r="173">
       <c r="A173" s="6">
-        <v>353.0</v>
+        <v>348.0</v>
       </c>
       <c r="B173" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C173" s="7" t="s">
-        <v>24</v>
+      <c r="C173" s="7">
+        <v>270.0</v>
       </c>
       <c r="D173" s="5" t="s">
         <v>3</v>
@@ -6663,16 +6677,16 @@
       <c r="Z173" s="4"/>
     </row>
     <row r="174">
-      <c r="A174" s="6">
-        <v>356.0</v>
-      </c>
-      <c r="B174" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C174" s="7">
-        <v>260.0</v>
-      </c>
-      <c r="D174" s="5" t="s">
+      <c r="A174" s="1">
+        <v>349.0</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C174" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D174" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E174" s="4"/>
@@ -6699,16 +6713,16 @@
       <c r="Z174" s="4"/>
     </row>
     <row r="175">
-      <c r="A175" s="6">
-        <v>357.0</v>
-      </c>
-      <c r="B175" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C175" s="7">
-        <v>300.0</v>
-      </c>
-      <c r="D175" s="5" t="s">
+      <c r="A175" s="1">
+        <v>350.0</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C175" s="3">
+        <v>225.0</v>
+      </c>
+      <c r="D175" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E175" s="4"/>
@@ -6735,16 +6749,16 @@
       <c r="Z175" s="4"/>
     </row>
     <row r="176">
-      <c r="A176" s="1">
-        <v>361.0</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C176" s="3">
-        <v>245.0</v>
-      </c>
-      <c r="D176" s="2" t="s">
+      <c r="A176" s="6">
+        <v>351.0</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C176" s="7">
+        <v>260.0</v>
+      </c>
+      <c r="D176" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E176" s="4"/>
@@ -6772,13 +6786,13 @@
     </row>
     <row r="177">
       <c r="A177" s="6">
-        <v>362.0</v>
+        <v>353.0</v>
       </c>
       <c r="B177" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D177" s="5" t="s">
         <v>3</v>
@@ -6808,13 +6822,13 @@
     </row>
     <row r="178">
       <c r="A178" s="6">
-        <v>365.0</v>
+        <v>356.0</v>
       </c>
       <c r="B178" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C178" s="7">
-        <v>335.0</v>
+        <v>260.0</v>
       </c>
       <c r="D178" s="5" t="s">
         <v>3</v>
@@ -6844,13 +6858,13 @@
     </row>
     <row r="179">
       <c r="A179" s="6">
-        <v>366.0</v>
+        <v>357.0</v>
       </c>
       <c r="B179" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C179" s="7">
-        <v>260.0</v>
+        <v>300.0</v>
       </c>
       <c r="D179" s="5" t="s">
         <v>3</v>
@@ -6879,16 +6893,16 @@
       <c r="Z179" s="4"/>
     </row>
     <row r="180">
-      <c r="A180" s="1">
-        <v>367.0</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C180" s="3">
-        <v>225.0</v>
-      </c>
-      <c r="D180" s="2" t="s">
+      <c r="A180" s="6">
+        <v>360.0</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C180" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D180" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E180" s="4"/>
@@ -6915,16 +6929,16 @@
       <c r="Z180" s="4"/>
     </row>
     <row r="181">
-      <c r="A181" s="6">
-        <v>368.0</v>
-      </c>
-      <c r="B181" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C181" s="7">
-        <v>260.0</v>
-      </c>
-      <c r="D181" s="5" t="s">
+      <c r="A181" s="1">
+        <v>361.0</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C181" s="3">
+        <v>245.0</v>
+      </c>
+      <c r="D181" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E181" s="4"/>
@@ -6951,16 +6965,16 @@
       <c r="Z181" s="4"/>
     </row>
     <row r="182">
-      <c r="A182" s="1">
-        <v>369.0</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C182" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D182" s="2" t="s">
+      <c r="A182" s="6">
+        <v>362.0</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D182" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E182" s="4"/>
@@ -6988,13 +7002,13 @@
     </row>
     <row r="183">
       <c r="A183" s="6">
-        <v>370.0</v>
+        <v>365.0</v>
       </c>
       <c r="B183" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C183" s="7">
-        <v>265.0</v>
+        <v>335.0</v>
       </c>
       <c r="D183" s="5" t="s">
         <v>3</v>
@@ -7023,16 +7037,16 @@
       <c r="Z183" s="4"/>
     </row>
     <row r="184">
-      <c r="A184" s="1">
-        <v>375.0</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C184" s="3">
-        <v>245.0</v>
-      </c>
-      <c r="D184" s="2" t="s">
+      <c r="A184" s="6">
+        <v>366.0</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C184" s="7">
+        <v>260.0</v>
+      </c>
+      <c r="D184" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E184" s="4"/>
@@ -7060,13 +7074,13 @@
     </row>
     <row r="185">
       <c r="A185" s="1">
-        <v>377.0</v>
+        <v>367.0</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C185" s="3">
-        <v>275.0</v>
+        <v>225.0</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>3</v>
@@ -7096,13 +7110,13 @@
     </row>
     <row r="186">
       <c r="A186" s="6">
-        <v>378.0</v>
+        <v>368.0</v>
       </c>
       <c r="B186" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C186" s="7">
-        <v>275.0</v>
+        <v>260.0</v>
       </c>
       <c r="D186" s="5" t="s">
         <v>3</v>
@@ -7131,16 +7145,16 @@
       <c r="Z186" s="4"/>
     </row>
     <row r="187">
-      <c r="A187" s="6">
-        <v>380.0</v>
-      </c>
-      <c r="B187" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C187" s="7">
-        <v>285.0</v>
-      </c>
-      <c r="D187" s="5" t="s">
+      <c r="A187" s="1">
+        <v>369.0</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C187" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D187" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E187" s="4"/>
@@ -7167,16 +7181,16 @@
       <c r="Z187" s="4"/>
     </row>
     <row r="188">
-      <c r="A188" s="1">
-        <v>382.0</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C188" s="3">
-        <v>295.0</v>
-      </c>
-      <c r="D188" s="2" t="s">
+      <c r="A188" s="6">
+        <v>370.0</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C188" s="7">
+        <v>265.0</v>
+      </c>
+      <c r="D188" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E188" s="4"/>
@@ -7204,13 +7218,13 @@
     </row>
     <row r="189">
       <c r="A189" s="6">
-        <v>384.0</v>
+        <v>376.0</v>
       </c>
       <c r="B189" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C189" s="7">
-        <v>310.0</v>
+        <v>315.0</v>
       </c>
       <c r="D189" s="5" t="s">
         <v>3</v>
@@ -7239,16 +7253,16 @@
       <c r="Z189" s="4"/>
     </row>
     <row r="190">
-      <c r="A190" s="6">
-        <v>388.0</v>
-      </c>
-      <c r="B190" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C190" s="7">
-        <v>290.0</v>
-      </c>
-      <c r="D190" s="5" t="s">
+      <c r="A190" s="1">
+        <v>375.0</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C190" s="3">
+        <v>245.0</v>
+      </c>
+      <c r="D190" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E190" s="4"/>
@@ -7276,13 +7290,13 @@
     </row>
     <row r="191">
       <c r="A191" s="1">
-        <v>389.0</v>
+        <v>377.0</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C191" s="3">
-        <v>265.0</v>
+        <v>275.0</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>3</v>
@@ -7312,13 +7326,13 @@
     </row>
     <row r="192">
       <c r="A192" s="6">
-        <v>390.0</v>
+        <v>378.0</v>
       </c>
       <c r="B192" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C192" s="7">
-        <v>300.0</v>
+        <v>275.0</v>
       </c>
       <c r="D192" s="5" t="s">
         <v>3</v>
@@ -7348,13 +7362,13 @@
     </row>
     <row r="193">
       <c r="A193" s="6">
-        <v>395.0</v>
+        <v>380.0</v>
       </c>
       <c r="B193" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C193" s="7" t="s">
-        <v>8</v>
+      <c r="C193" s="7">
+        <v>285.0</v>
       </c>
       <c r="D193" s="5" t="s">
         <v>3</v>
@@ -7383,16 +7397,16 @@
       <c r="Z193" s="4"/>
     </row>
     <row r="194">
-      <c r="A194" s="6">
-        <v>398.0</v>
-      </c>
-      <c r="B194" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C194" s="7">
-        <v>260.0</v>
-      </c>
-      <c r="D194" s="5" t="s">
+      <c r="A194" s="1">
+        <v>382.0</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C194" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D194" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E194" s="4"/>
@@ -7419,16 +7433,16 @@
       <c r="Z194" s="4"/>
     </row>
     <row r="195">
-      <c r="A195" s="1">
-        <v>399.0</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C195" s="3">
-        <v>260.0</v>
-      </c>
-      <c r="D195" s="2" t="s">
+      <c r="A195" s="6">
+        <v>384.0</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C195" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D195" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E195" s="4"/>
@@ -7455,16 +7469,16 @@
       <c r="Z195" s="4"/>
     </row>
     <row r="196">
-      <c r="A196" s="1">
-        <v>404.0</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C196" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D196" s="2" t="s">
+      <c r="A196" s="6">
+        <v>388.0</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C196" s="7">
+        <v>290.0</v>
+      </c>
+      <c r="D196" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E196" s="4"/>
@@ -7491,16 +7505,16 @@
       <c r="Z196" s="4"/>
     </row>
     <row r="197">
-      <c r="A197" s="6">
-        <v>406.0</v>
-      </c>
-      <c r="B197" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C197" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D197" s="5" t="s">
+      <c r="A197" s="1">
+        <v>389.0</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C197" s="3">
+        <v>265.0</v>
+      </c>
+      <c r="D197" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E197" s="4"/>
@@ -7528,13 +7542,13 @@
     </row>
     <row r="198">
       <c r="A198" s="6">
-        <v>409.0</v>
+        <v>390.0</v>
       </c>
       <c r="B198" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C198" s="7">
-        <v>265.0</v>
+        <v>300.0</v>
       </c>
       <c r="D198" s="5" t="s">
         <v>3</v>
@@ -7564,13 +7578,13 @@
     </row>
     <row r="199">
       <c r="A199" s="6">
-        <v>410.0</v>
+        <v>395.0</v>
       </c>
       <c r="B199" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C199" s="7">
-        <v>230.0</v>
+      <c r="C199" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="D199" s="5" t="s">
         <v>3</v>
@@ -7600,13 +7614,13 @@
     </row>
     <row r="200">
       <c r="A200" s="6">
-        <v>413.0</v>
+        <v>398.0</v>
       </c>
       <c r="B200" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C200" s="7">
-        <v>290.0</v>
+        <v>260.0</v>
       </c>
       <c r="D200" s="5" t="s">
         <v>3</v>
@@ -7635,16 +7649,16 @@
       <c r="Z200" s="4"/>
     </row>
     <row r="201">
-      <c r="A201" s="6">
-        <v>418.0</v>
-      </c>
-      <c r="B201" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C201" s="7">
-        <v>275.0</v>
-      </c>
-      <c r="D201" s="5" t="s">
+      <c r="A201" s="1">
+        <v>399.0</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C201" s="3">
+        <v>260.0</v>
+      </c>
+      <c r="D201" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E201" s="4"/>
@@ -7672,13 +7686,13 @@
     </row>
     <row r="202">
       <c r="A202" s="1">
-        <v>423.0</v>
+        <v>404.0</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C202" s="3">
-        <v>280.0</v>
+        <v>250.0</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>3</v>
@@ -7707,16 +7721,16 @@
       <c r="Z202" s="4"/>
     </row>
     <row r="203">
-      <c r="A203" s="1">
-        <v>429.0</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C203" s="3">
-        <v>290.0</v>
-      </c>
-      <c r="D203" s="2" t="s">
+      <c r="A203" s="6">
+        <v>406.0</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D203" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E203" s="4"/>
@@ -7743,16 +7757,16 @@
       <c r="Z203" s="4"/>
     </row>
     <row r="204">
-      <c r="A204" s="1">
-        <v>430.0</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C204" s="3">
-        <v>290.0</v>
-      </c>
-      <c r="D204" s="2" t="s">
+      <c r="A204" s="6">
+        <v>409.0</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C204" s="7">
+        <v>265.0</v>
+      </c>
+      <c r="D204" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E204" s="4"/>
@@ -7780,13 +7794,13 @@
     </row>
     <row r="205">
       <c r="A205" s="6">
-        <v>436.0</v>
+        <v>410.0</v>
       </c>
       <c r="B205" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C205" s="7">
-        <v>260.0</v>
+        <v>230.0</v>
       </c>
       <c r="D205" s="5" t="s">
         <v>3</v>
@@ -7816,13 +7830,13 @@
     </row>
     <row r="206">
       <c r="A206" s="6">
-        <v>438.0</v>
+        <v>413.0</v>
       </c>
       <c r="B206" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C206" s="7">
-        <v>265.0</v>
+        <v>290.0</v>
       </c>
       <c r="D206" s="5" t="s">
         <v>3</v>
@@ -7852,13 +7866,13 @@
     </row>
     <row r="207">
       <c r="A207" s="6">
-        <v>439.0</v>
+        <v>418.0</v>
       </c>
       <c r="B207" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C207" s="7">
-        <v>280.0</v>
+        <v>275.0</v>
       </c>
       <c r="D207" s="5" t="s">
         <v>3</v>
@@ -7887,16 +7901,16 @@
       <c r="Z207" s="4"/>
     </row>
     <row r="208">
-      <c r="A208" s="6">
-        <v>440.0</v>
-      </c>
-      <c r="B208" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C208" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D208" s="5" t="s">
+      <c r="A208" s="1">
+        <v>423.0</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C208" s="3">
+        <v>280.0</v>
+      </c>
+      <c r="D208" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E208" s="4"/>
@@ -7923,16 +7937,16 @@
       <c r="Z208" s="4"/>
     </row>
     <row r="209">
-      <c r="A209" s="6">
-        <v>441.0</v>
-      </c>
-      <c r="B209" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C209" s="7">
-        <v>270.0</v>
-      </c>
-      <c r="D209" s="5" t="s">
+      <c r="A209" s="1">
+        <v>429.0</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C209" s="3">
+        <v>290.0</v>
+      </c>
+      <c r="D209" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E209" s="4"/>
@@ -7960,13 +7974,13 @@
     </row>
     <row r="210">
       <c r="A210" s="1">
-        <v>442.0</v>
+        <v>430.0</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C210" s="3">
-        <v>295.0</v>
+        <v>290.0</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>3</v>
@@ -7996,13 +8010,13 @@
     </row>
     <row r="211">
       <c r="A211" s="6">
-        <v>443.0</v>
+        <v>432.0</v>
       </c>
       <c r="B211" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C211" s="7">
-        <v>305.0</v>
+      <c r="C211" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="D211" s="5" t="s">
         <v>3</v>
@@ -8032,13 +8046,13 @@
     </row>
     <row r="212">
       <c r="A212" s="6">
-        <v>444.0</v>
+        <v>436.0</v>
       </c>
       <c r="B212" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C212" s="7">
-        <v>250.0</v>
+        <v>260.0</v>
       </c>
       <c r="D212" s="5" t="s">
         <v>3</v>
@@ -8068,13 +8082,13 @@
     </row>
     <row r="213">
       <c r="A213" s="6">
-        <v>446.0</v>
+        <v>438.0</v>
       </c>
       <c r="B213" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C213" s="7">
-        <v>280.0</v>
+        <v>265.0</v>
       </c>
       <c r="D213" s="5" t="s">
         <v>3</v>
@@ -8104,13 +8118,13 @@
     </row>
     <row r="214">
       <c r="A214" s="6">
-        <v>450.0</v>
+        <v>439.0</v>
       </c>
       <c r="B214" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C214" s="7">
-        <v>260.0</v>
+        <v>280.0</v>
       </c>
       <c r="D214" s="5" t="s">
         <v>3</v>
@@ -8140,13 +8154,13 @@
     </row>
     <row r="215">
       <c r="A215" s="6">
-        <v>451.0</v>
+        <v>440.0</v>
       </c>
       <c r="B215" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C215" s="7">
-        <v>330.0</v>
+      <c r="C215" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="D215" s="5" t="s">
         <v>3</v>
@@ -8176,13 +8190,13 @@
     </row>
     <row r="216">
       <c r="A216" s="6">
-        <v>452.0</v>
+        <v>441.0</v>
       </c>
       <c r="B216" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C216" s="7">
-        <v>290.0</v>
+        <v>270.0</v>
       </c>
       <c r="D216" s="5" t="s">
         <v>3</v>
@@ -8212,13 +8226,13 @@
     </row>
     <row r="217">
       <c r="A217" s="1">
-        <v>456.0</v>
+        <v>442.0</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C217" s="3">
-        <v>235.0</v>
+        <v>295.0</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>3</v>
@@ -8247,16 +8261,16 @@
       <c r="Z217" s="4"/>
     </row>
     <row r="218">
-      <c r="A218" s="1">
-        <v>457.0</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C218" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D218" s="2" t="s">
+      <c r="A218" s="6">
+        <v>443.0</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C218" s="7">
+        <v>305.0</v>
+      </c>
+      <c r="D218" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E218" s="4"/>
@@ -8284,13 +8298,13 @@
     </row>
     <row r="219">
       <c r="A219" s="6">
-        <v>461.0</v>
+        <v>444.0</v>
       </c>
       <c r="B219" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C219" s="7">
-        <v>210.0</v>
+        <v>250.0</v>
       </c>
       <c r="D219" s="5" t="s">
         <v>3</v>
@@ -8319,16 +8333,16 @@
       <c r="Z219" s="4"/>
     </row>
     <row r="220">
-      <c r="A220" s="1">
-        <v>463.0</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C220" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D220" s="2" t="s">
+      <c r="A220" s="6">
+        <v>445.0</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D220" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E220" s="4"/>
@@ -8355,16 +8369,16 @@
       <c r="Z220" s="4"/>
     </row>
     <row r="221">
-      <c r="A221" s="1">
-        <v>470.0</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C221" s="3">
-        <v>265.0</v>
-      </c>
-      <c r="D221" s="2" t="s">
+      <c r="A221" s="6">
+        <v>446.0</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C221" s="7">
+        <v>280.0</v>
+      </c>
+      <c r="D221" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E221" s="4"/>
@@ -8392,13 +8406,13 @@
     </row>
     <row r="222">
       <c r="A222" s="6">
-        <v>471.0</v>
+        <v>450.0</v>
       </c>
       <c r="B222" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C222" s="7">
-        <v>250.0</v>
+        <v>260.0</v>
       </c>
       <c r="D222" s="5" t="s">
         <v>3</v>
@@ -8428,13 +8442,13 @@
     </row>
     <row r="223">
       <c r="A223" s="6">
-        <v>474.0</v>
+        <v>451.0</v>
       </c>
       <c r="B223" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C223" s="7">
-        <v>260.0</v>
+        <v>330.0</v>
       </c>
       <c r="D223" s="5" t="s">
         <v>3</v>
@@ -8464,13 +8478,13 @@
     </row>
     <row r="224">
       <c r="A224" s="6">
-        <v>476.0</v>
+        <v>452.0</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C224" s="7">
-        <v>255.0</v>
+        <v>290.0</v>
       </c>
       <c r="D224" s="5" t="s">
         <v>3</v>
@@ -8499,16 +8513,16 @@
       <c r="Z224" s="4"/>
     </row>
     <row r="225">
-      <c r="A225" s="6">
-        <v>478.0</v>
-      </c>
-      <c r="B225" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C225" s="7">
-        <v>275.0</v>
-      </c>
-      <c r="D225" s="5" t="s">
+      <c r="A225" s="1">
+        <v>456.0</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C225" s="3">
+        <v>235.0</v>
+      </c>
+      <c r="D225" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E225" s="4"/>
@@ -8535,16 +8549,16 @@
       <c r="Z225" s="4"/>
     </row>
     <row r="226">
-      <c r="A226" s="6">
-        <v>480.0</v>
-      </c>
-      <c r="B226" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C226" s="7">
-        <v>290.0</v>
-      </c>
-      <c r="D226" s="5" t="s">
+      <c r="A226" s="1">
+        <v>457.0</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C226" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D226" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E226" s="4"/>
@@ -8572,13 +8586,13 @@
     </row>
     <row r="227">
       <c r="A227" s="6">
-        <v>482.0</v>
+        <v>460.0</v>
       </c>
       <c r="B227" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C227" s="7">
-        <v>255.0</v>
+        <v>345.0</v>
       </c>
       <c r="D227" s="5" t="s">
         <v>3</v>
@@ -8608,13 +8622,13 @@
     </row>
     <row r="228">
       <c r="A228" s="6">
-        <v>483.0</v>
+        <v>461.0</v>
       </c>
       <c r="B228" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C228" s="7">
-        <v>270.0</v>
+        <v>210.0</v>
       </c>
       <c r="D228" s="5" t="s">
         <v>3</v>
@@ -8644,7 +8658,7 @@
     </row>
     <row r="229">
       <c r="A229" s="1">
-        <v>485.0</v>
+        <v>463.0</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>3</v>
@@ -8679,16 +8693,16 @@
       <c r="Z229" s="4"/>
     </row>
     <row r="230">
-      <c r="A230" s="6">
-        <v>488.0</v>
-      </c>
-      <c r="B230" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C230" s="7">
-        <v>325.0</v>
-      </c>
-      <c r="D230" s="5" t="s">
+      <c r="A230" s="1">
+        <v>470.0</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C230" s="3">
+        <v>265.0</v>
+      </c>
+      <c r="D230" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E230" s="4"/>
@@ -8716,13 +8730,13 @@
     </row>
     <row r="231">
       <c r="A231" s="6">
-        <v>490.0</v>
+        <v>471.0</v>
       </c>
       <c r="B231" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C231" s="7">
-        <v>275.0</v>
+        <v>250.0</v>
       </c>
       <c r="D231" s="5" t="s">
         <v>3</v>
@@ -8752,13 +8766,13 @@
     </row>
     <row r="232">
       <c r="A232" s="6">
-        <v>492.0</v>
+        <v>474.0</v>
       </c>
       <c r="B232" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C232" s="7" t="s">
-        <v>18</v>
+      <c r="C232" s="7">
+        <v>260.0</v>
       </c>
       <c r="D232" s="5" t="s">
         <v>3</v>
@@ -8788,13 +8802,13 @@
     </row>
     <row r="233">
       <c r="A233" s="6">
-        <v>495.0</v>
+        <v>476.0</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C233" s="7" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="C233" s="7">
+        <v>255.0</v>
       </c>
       <c r="D233" s="5" t="s">
         <v>3</v>
@@ -8823,16 +8837,16 @@
       <c r="Z233" s="4"/>
     </row>
     <row r="234">
-      <c r="A234" s="1">
-        <v>503.0</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C234" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D234" s="2" t="s">
+      <c r="A234" s="6">
+        <v>478.0</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C234" s="7">
+        <v>275.0</v>
+      </c>
+      <c r="D234" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E234" s="4"/>
@@ -8860,13 +8874,13 @@
     </row>
     <row r="235">
       <c r="A235" s="6">
-        <v>507.0</v>
+        <v>480.0</v>
       </c>
       <c r="B235" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C235" s="7" t="s">
-        <v>22</v>
+      <c r="C235" s="7">
+        <v>290.0</v>
       </c>
       <c r="D235" s="5" t="s">
         <v>3</v>
@@ -8895,16 +8909,16 @@
       <c r="Z235" s="4"/>
     </row>
     <row r="236">
-      <c r="A236" s="1">
-        <v>510.0</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C236" s="3">
-        <v>285.0</v>
-      </c>
-      <c r="D236" s="2" t="s">
+      <c r="A236" s="6">
+        <v>481.0</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C236" s="7">
+        <v>300.0</v>
+      </c>
+      <c r="D236" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E236" s="4"/>
@@ -8932,13 +8946,13 @@
     </row>
     <row r="237">
       <c r="A237" s="6">
-        <v>514.0</v>
+        <v>482.0</v>
       </c>
       <c r="B237" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C237" s="7">
-        <v>315.0</v>
+        <v>255.0</v>
       </c>
       <c r="D237" s="5" t="s">
         <v>3</v>
@@ -8968,13 +8982,13 @@
     </row>
     <row r="238">
       <c r="A238" s="6">
-        <v>516.0</v>
+        <v>483.0</v>
       </c>
       <c r="B238" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C238" s="7">
-        <v>265.0</v>
+        <v>270.0</v>
       </c>
       <c r="D238" s="5" t="s">
         <v>3</v>
@@ -9003,16 +9017,16 @@
       <c r="Z238" s="4"/>
     </row>
     <row r="239">
-      <c r="A239" s="6">
-        <v>517.0</v>
-      </c>
-      <c r="B239" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C239" s="7">
-        <v>240.0</v>
-      </c>
-      <c r="D239" s="5" t="s">
+      <c r="A239" s="1">
+        <v>485.0</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C239" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D239" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E239" s="4"/>
@@ -9040,13 +9054,13 @@
     </row>
     <row r="240">
       <c r="A240" s="6">
-        <v>518.0</v>
+        <v>488.0</v>
       </c>
       <c r="B240" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C240" s="7">
-        <v>270.0</v>
+        <v>325.0</v>
       </c>
       <c r="D240" s="5" t="s">
         <v>3</v>
@@ -9076,13 +9090,13 @@
     </row>
     <row r="241">
       <c r="A241" s="6">
-        <v>520.0</v>
+        <v>487.0</v>
       </c>
       <c r="B241" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C241" s="7">
-        <v>265.0</v>
+        <v>315.0</v>
       </c>
       <c r="D241" s="5" t="s">
         <v>3</v>
@@ -9112,13 +9126,13 @@
     </row>
     <row r="242">
       <c r="A242" s="6">
-        <v>522.0</v>
+        <v>490.0</v>
       </c>
       <c r="B242" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C242" s="7">
-        <v>290.0</v>
+        <v>275.0</v>
       </c>
       <c r="D242" s="5" t="s">
         <v>3</v>
@@ -9148,13 +9162,13 @@
     </row>
     <row r="243">
       <c r="A243" s="6">
-        <v>524.0</v>
+        <v>491.0</v>
       </c>
       <c r="B243" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C243" s="7">
-        <v>325.0</v>
+      <c r="C243" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="D243" s="5" t="s">
         <v>3</v>
@@ -9184,13 +9198,13 @@
     </row>
     <row r="244">
       <c r="A244" s="6">
-        <v>527.0</v>
+        <v>492.0</v>
       </c>
       <c r="B244" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C244" s="7">
-        <v>230.0</v>
+      <c r="C244" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="D244" s="5" t="s">
         <v>3</v>
@@ -9220,13 +9234,13 @@
     </row>
     <row r="245">
       <c r="A245" s="6">
-        <v>528.0</v>
+        <v>495.0</v>
       </c>
       <c r="B245" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C245" s="7">
-        <v>305.0</v>
+      <c r="C245" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="D245" s="5" t="s">
         <v>3</v>
@@ -9255,16 +9269,16 @@
       <c r="Z245" s="4"/>
     </row>
     <row r="246">
-      <c r="A246" s="6">
-        <v>530.0</v>
-      </c>
-      <c r="B246" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C246" s="7">
-        <v>210.0</v>
-      </c>
-      <c r="D246" s="5" t="s">
+      <c r="A246" s="1">
+        <v>503.0</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C246" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D246" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E246" s="4"/>
@@ -9292,13 +9306,13 @@
     </row>
     <row r="247">
       <c r="A247" s="6">
-        <v>532.0</v>
+        <v>507.0</v>
       </c>
       <c r="B247" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C247" s="7">
-        <v>290.0</v>
+      <c r="C247" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D247" s="5" t="s">
         <v>3</v>
@@ -9328,13 +9342,13 @@
     </row>
     <row r="248">
       <c r="A248" s="1">
-        <v>534.0</v>
+        <v>510.0</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C248" s="7" t="s">
-        <v>19</v>
+      <c r="C248" s="3">
+        <v>285.0</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>3</v>
@@ -9363,16 +9377,16 @@
       <c r="Z248" s="4"/>
     </row>
     <row r="249">
-      <c r="A249" s="1">
-        <v>535.0</v>
-      </c>
-      <c r="B249" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C249" s="3">
-        <v>295.0</v>
-      </c>
-      <c r="D249" s="2" t="s">
+      <c r="A249" s="6">
+        <v>514.0</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C249" s="7">
+        <v>315.0</v>
+      </c>
+      <c r="D249" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E249" s="4"/>
@@ -9400,13 +9414,13 @@
     </row>
     <row r="250">
       <c r="A250" s="6">
-        <v>539.0</v>
+        <v>516.0</v>
       </c>
       <c r="B250" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C250" s="7" t="s">
-        <v>28</v>
+      <c r="C250" s="7">
+        <v>265.0</v>
       </c>
       <c r="D250" s="5" t="s">
         <v>3</v>
@@ -9436,13 +9450,13 @@
     </row>
     <row r="251">
       <c r="A251" s="6">
-        <v>540.0</v>
+        <v>517.0</v>
       </c>
       <c r="B251" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C251" s="7">
-        <v>285.0</v>
+        <v>240.0</v>
       </c>
       <c r="D251" s="5" t="s">
         <v>3</v>
@@ -9472,13 +9486,13 @@
     </row>
     <row r="252">
       <c r="A252" s="6">
-        <v>541.0</v>
+        <v>518.0</v>
       </c>
       <c r="B252" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C252" s="7">
-        <v>280.0</v>
+        <v>270.0</v>
       </c>
       <c r="D252" s="5" t="s">
         <v>3</v>
@@ -9508,13 +9522,13 @@
     </row>
     <row r="253">
       <c r="A253" s="6">
-        <v>543.0</v>
+        <v>520.0</v>
       </c>
       <c r="B253" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C253" s="7">
-        <v>288.0</v>
+        <v>265.0</v>
       </c>
       <c r="D253" s="5" t="s">
         <v>3</v>
@@ -9544,13 +9558,13 @@
     </row>
     <row r="254">
       <c r="A254" s="6">
-        <v>546.0</v>
+        <v>522.0</v>
       </c>
       <c r="B254" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C254" s="7">
-        <v>265.0</v>
+        <v>290.0</v>
       </c>
       <c r="D254" s="5" t="s">
         <v>3</v>
@@ -9580,13 +9594,13 @@
     </row>
     <row r="255">
       <c r="A255" s="6">
-        <v>547.0</v>
+        <v>524.0</v>
       </c>
       <c r="B255" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C255" s="7">
-        <v>245.0</v>
+        <v>325.0</v>
       </c>
       <c r="D255" s="5" t="s">
         <v>3</v>
@@ -9616,13 +9630,13 @@
     </row>
     <row r="256">
       <c r="A256" s="6">
-        <v>549.0</v>
+        <v>527.0</v>
       </c>
       <c r="B256" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C256" s="7" t="s">
-        <v>29</v>
+      <c r="C256" s="7">
+        <v>230.0</v>
       </c>
       <c r="D256" s="5" t="s">
         <v>3</v>
@@ -9652,13 +9666,13 @@
     </row>
     <row r="257">
       <c r="A257" s="6">
-        <v>550.0</v>
+        <v>528.0</v>
       </c>
       <c r="B257" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C257" s="7">
-        <v>290.0</v>
+        <v>305.0</v>
       </c>
       <c r="D257" s="5" t="s">
         <v>3</v>
@@ -9688,13 +9702,13 @@
     </row>
     <row r="258">
       <c r="A258" s="6">
-        <v>551.0</v>
+        <v>530.0</v>
       </c>
       <c r="B258" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C258" s="7">
-        <v>270.0</v>
+        <v>210.0</v>
       </c>
       <c r="D258" s="5" t="s">
         <v>3</v>
@@ -9723,16 +9737,16 @@
       <c r="Z258" s="4"/>
     </row>
     <row r="259">
-      <c r="A259" s="1">
-        <v>552.0</v>
-      </c>
-      <c r="B259" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C259" s="3">
-        <v>280.0</v>
-      </c>
-      <c r="D259" s="2" t="s">
+      <c r="A259" s="6">
+        <v>532.0</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C259" s="7">
+        <v>290.0</v>
+      </c>
+      <c r="D259" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E259" s="4"/>
@@ -9759,16 +9773,16 @@
       <c r="Z259" s="4"/>
     </row>
     <row r="260">
-      <c r="A260" s="6">
-        <v>553.0</v>
-      </c>
-      <c r="B260" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C260" s="7">
-        <v>310.0</v>
-      </c>
-      <c r="D260" s="5" t="s">
+      <c r="A260" s="1">
+        <v>534.0</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C260" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D260" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E260" s="4"/>
@@ -9795,16 +9809,16 @@
       <c r="Z260" s="4"/>
     </row>
     <row r="261">
-      <c r="A261" s="6">
-        <v>555.0</v>
-      </c>
-      <c r="B261" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C261" s="7">
-        <v>345.0</v>
-      </c>
-      <c r="D261" s="5" t="s">
+      <c r="A261" s="1">
+        <v>535.0</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C261" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D261" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E261" s="4"/>
@@ -9832,13 +9846,13 @@
     </row>
     <row r="262">
       <c r="A262" s="6">
-        <v>556.0</v>
+        <v>537.0</v>
       </c>
       <c r="B262" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C262" s="7">
-        <v>280.0</v>
+        <v>245.0</v>
       </c>
       <c r="D262" s="5" t="s">
         <v>3</v>
@@ -9868,13 +9882,13 @@
     </row>
     <row r="263">
       <c r="A263" s="6">
-        <v>560.0</v>
+        <v>539.0</v>
       </c>
       <c r="B263" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C263" s="7">
-        <v>310.0</v>
+      <c r="C263" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="D263" s="5" t="s">
         <v>3</v>
@@ -9903,16 +9917,16 @@
       <c r="Z263" s="4"/>
     </row>
     <row r="264">
-      <c r="A264" s="1">
-        <v>561.0</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C264" s="3">
-        <v>280.0</v>
-      </c>
-      <c r="D264" s="2" t="s">
+      <c r="A264" s="6">
+        <v>540.0</v>
+      </c>
+      <c r="B264" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C264" s="7">
+        <v>285.0</v>
+      </c>
+      <c r="D264" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E264" s="4"/>
@@ -9940,13 +9954,13 @@
     </row>
     <row r="265">
       <c r="A265" s="6">
-        <v>562.0</v>
+        <v>541.0</v>
       </c>
       <c r="B265" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C265" s="7" t="s">
-        <v>5</v>
+      <c r="C265" s="7">
+        <v>280.0</v>
       </c>
       <c r="D265" s="5" t="s">
         <v>3</v>
@@ -9976,13 +9990,13 @@
     </row>
     <row r="266">
       <c r="A266" s="6">
-        <v>564.0</v>
+        <v>543.0</v>
       </c>
       <c r="B266" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C266" s="7">
-        <v>260.0</v>
+        <v>288.0</v>
       </c>
       <c r="D266" s="5" t="s">
         <v>3</v>
@@ -10011,16 +10025,16 @@
       <c r="Z266" s="4"/>
     </row>
     <row r="267">
-      <c r="A267" s="1">
-        <v>567.0</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C267" s="3">
-        <v>325.0</v>
-      </c>
-      <c r="D267" s="2" t="s">
+      <c r="A267" s="6">
+        <v>546.0</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C267" s="7">
+        <v>265.0</v>
+      </c>
+      <c r="D267" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E267" s="4"/>
@@ -10047,16 +10061,16 @@
       <c r="Z267" s="4"/>
     </row>
     <row r="268">
-      <c r="A268" s="1">
-        <v>576.0</v>
-      </c>
-      <c r="B268" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C268" s="3">
-        <v>260.0</v>
-      </c>
-      <c r="D268" s="2" t="s">
+      <c r="A268" s="6">
+        <v>547.0</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C268" s="7">
+        <v>245.0</v>
+      </c>
+      <c r="D268" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E268" s="4"/>
@@ -10084,13 +10098,13 @@
     </row>
     <row r="269">
       <c r="A269" s="6">
-        <v>577.0</v>
+        <v>548.0</v>
       </c>
       <c r="B269" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C269" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D269" s="5" t="s">
         <v>3</v>
@@ -10119,14 +10133,14 @@
       <c r="Z269" s="4"/>
     </row>
     <row r="270">
-      <c r="A270" s="8">
-        <v>578.0</v>
+      <c r="A270" s="6">
+        <v>549.0</v>
       </c>
       <c r="B270" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C270" s="7" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D270" s="5" t="s">
         <v>3</v>
@@ -10155,14 +10169,14 @@
       <c r="Z270" s="4"/>
     </row>
     <row r="271">
-      <c r="A271" s="8">
-        <v>579.0</v>
+      <c r="A271" s="6">
+        <v>550.0</v>
       </c>
       <c r="B271" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C271" s="7">
-        <v>235.0</v>
+        <v>290.0</v>
       </c>
       <c r="D271" s="5" t="s">
         <v>3</v>
@@ -10191,14 +10205,14 @@
       <c r="Z271" s="4"/>
     </row>
     <row r="272">
-      <c r="A272" s="8">
-        <v>580.0</v>
+      <c r="A272" s="6">
+        <v>551.0</v>
       </c>
       <c r="B272" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C272" s="7">
-        <v>240.0</v>
+        <v>270.0</v>
       </c>
       <c r="D272" s="5" t="s">
         <v>3</v>
@@ -10227,16 +10241,16 @@
       <c r="Z272" s="4"/>
     </row>
     <row r="273">
-      <c r="A273" s="6">
-        <v>581.0</v>
-      </c>
-      <c r="B273" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C273" s="7">
-        <v>335.0</v>
-      </c>
-      <c r="D273" s="5" t="s">
+      <c r="A273" s="1">
+        <v>552.0</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C273" s="3">
+        <v>280.0</v>
+      </c>
+      <c r="D273" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E273" s="4"/>
@@ -10263,16 +10277,16 @@
       <c r="Z273" s="4"/>
     </row>
     <row r="274">
-      <c r="A274" s="1">
-        <v>583.0</v>
-      </c>
-      <c r="B274" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C274" s="3">
-        <v>320.0</v>
-      </c>
-      <c r="D274" s="2" t="s">
+      <c r="A274" s="6">
+        <v>553.0</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C274" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D274" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E274" s="4"/>
@@ -10299,16 +10313,16 @@
       <c r="Z274" s="4"/>
     </row>
     <row r="275">
-      <c r="A275" s="1">
-        <v>584.0</v>
-      </c>
-      <c r="B275" s="2" t="s">
+      <c r="A275" s="6">
+        <v>555.0</v>
+      </c>
+      <c r="B275" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C275" s="7">
-        <v>275.0</v>
-      </c>
-      <c r="D275" s="2" t="s">
+        <v>345.0</v>
+      </c>
+      <c r="D275" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E275" s="4"/>
@@ -10336,13 +10350,13 @@
     </row>
     <row r="276">
       <c r="A276" s="6">
-        <v>585.0</v>
+        <v>556.0</v>
       </c>
       <c r="B276" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C276" s="7">
-        <v>235.0</v>
+        <v>280.0</v>
       </c>
       <c r="D276" s="5" t="s">
         <v>3</v>
@@ -10371,16 +10385,16 @@
       <c r="Z276" s="4"/>
     </row>
     <row r="277">
-      <c r="A277" s="1">
-        <v>586.0</v>
-      </c>
-      <c r="B277" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C277" s="3">
-        <v>240.0</v>
-      </c>
-      <c r="D277" s="2" t="s">
+      <c r="A277" s="6">
+        <v>560.0</v>
+      </c>
+      <c r="B277" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C277" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D277" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E277" s="4"/>
@@ -10407,16 +10421,16 @@
       <c r="Z277" s="4"/>
     </row>
     <row r="278">
-      <c r="A278" s="6">
-        <v>587.0</v>
-      </c>
-      <c r="B278" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C278" s="7">
-        <v>265.0</v>
-      </c>
-      <c r="D278" s="5" t="s">
+      <c r="A278" s="1">
+        <v>561.0</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C278" s="3">
+        <v>280.0</v>
+      </c>
+      <c r="D278" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E278" s="4"/>
@@ -10444,13 +10458,13 @@
     </row>
     <row r="279">
       <c r="A279" s="6">
-        <v>589.0</v>
+        <v>562.0</v>
       </c>
       <c r="B279" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C279" s="7">
-        <v>265.0</v>
+      <c r="C279" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="D279" s="5" t="s">
         <v>3</v>
@@ -10480,13 +10494,13 @@
     </row>
     <row r="280">
       <c r="A280" s="6">
-        <v>590.0</v>
+        <v>564.0</v>
       </c>
       <c r="B280" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C280" s="7" t="s">
-        <v>31</v>
+      <c r="C280" s="7">
+        <v>260.0</v>
       </c>
       <c r="D280" s="5" t="s">
         <v>3</v>
@@ -10515,16 +10529,16 @@
       <c r="Z280" s="4"/>
     </row>
     <row r="281">
-      <c r="A281" s="6">
-        <v>591.0</v>
-      </c>
-      <c r="B281" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C281" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D281" s="5" t="s">
+      <c r="A281" s="1">
+        <v>567.0</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C281" s="3">
+        <v>325.0</v>
+      </c>
+      <c r="D281" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E281" s="4"/>
@@ -10551,16 +10565,16 @@
       <c r="Z281" s="4"/>
     </row>
     <row r="282">
-      <c r="A282" s="1">
-        <v>593.0</v>
-      </c>
-      <c r="B282" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C282" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D282" s="2" t="s">
+      <c r="A282" s="6">
+        <v>569.0</v>
+      </c>
+      <c r="B282" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C282" s="7">
+        <v>280.0</v>
+      </c>
+      <c r="D282" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E282" s="4"/>
@@ -10587,16 +10601,16 @@
       <c r="Z282" s="4"/>
     </row>
     <row r="283">
-      <c r="A283" s="6">
-        <v>595.0</v>
-      </c>
-      <c r="B283" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C283" s="7">
-        <v>280.0</v>
-      </c>
-      <c r="D283" s="5" t="s">
+      <c r="A283" s="1">
+        <v>576.0</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C283" s="3">
+        <v>260.0</v>
+      </c>
+      <c r="D283" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E283" s="4"/>
@@ -10624,13 +10638,13 @@
     </row>
     <row r="284">
       <c r="A284" s="6">
-        <v>596.0</v>
+        <v>577.0</v>
       </c>
       <c r="B284" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C284" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D284" s="5" t="s">
         <v>3</v>
@@ -10659,14 +10673,14 @@
       <c r="Z284" s="4"/>
     </row>
     <row r="285">
-      <c r="A285" s="6">
-        <v>597.0</v>
+      <c r="A285" s="8">
+        <v>578.0</v>
       </c>
       <c r="B285" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C285" s="7">
-        <v>320.0</v>
+      <c r="C285" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="D285" s="5" t="s">
         <v>3</v>
@@ -10695,14 +10709,14 @@
       <c r="Z285" s="4"/>
     </row>
     <row r="286">
-      <c r="A286" s="6">
-        <v>599.0</v>
+      <c r="A286" s="8">
+        <v>579.0</v>
       </c>
       <c r="B286" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C286" s="7">
-        <v>280.0</v>
+        <v>235.0</v>
       </c>
       <c r="D286" s="5" t="s">
         <v>3</v>
@@ -10731,14 +10745,14 @@
       <c r="Z286" s="4"/>
     </row>
     <row r="287">
-      <c r="A287" s="6">
-        <v>601.0</v>
+      <c r="A287" s="8">
+        <v>580.0</v>
       </c>
       <c r="B287" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C287" s="7">
-        <v>305.0</v>
+        <v>240.0</v>
       </c>
       <c r="D287" s="5" t="s">
         <v>3</v>
@@ -10768,13 +10782,13 @@
     </row>
     <row r="288">
       <c r="A288" s="6">
-        <v>603.0</v>
+        <v>581.0</v>
       </c>
       <c r="B288" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C288" s="7">
-        <v>280.0</v>
+        <v>335.0</v>
       </c>
       <c r="D288" s="5" t="s">
         <v>3</v>
@@ -10804,13 +10818,13 @@
     </row>
     <row r="289">
       <c r="A289" s="1">
-        <v>604.0</v>
+        <v>583.0</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C289" s="3">
-        <v>295.0</v>
+        <v>320.0</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>3</v>
@@ -10839,14 +10853,14 @@
       <c r="Z289" s="4"/>
     </row>
     <row r="290">
-      <c r="A290" s="6">
-        <v>605.0</v>
+      <c r="A290" s="1">
+        <v>584.0</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C290" s="7">
-        <v>270.0</v>
+        <v>275.0</v>
       </c>
       <c r="D290" s="2" t="s">
         <v>3</v>
@@ -10876,13 +10890,13 @@
     </row>
     <row r="291">
       <c r="A291" s="6">
-        <v>610.0</v>
+        <v>585.0</v>
       </c>
       <c r="B291" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C291" s="7">
-        <v>260.0</v>
+        <v>235.0</v>
       </c>
       <c r="D291" s="5" t="s">
         <v>3</v>
@@ -10911,16 +10925,16 @@
       <c r="Z291" s="4"/>
     </row>
     <row r="292">
-      <c r="A292" s="6">
-        <v>611.0</v>
-      </c>
-      <c r="B292" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C292" s="7">
-        <v>260.0</v>
-      </c>
-      <c r="D292" s="5" t="s">
+      <c r="A292" s="1">
+        <v>586.0</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C292" s="3">
+        <v>240.0</v>
+      </c>
+      <c r="D292" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E292" s="4"/>
@@ -10947,16 +10961,16 @@
       <c r="Z292" s="4"/>
     </row>
     <row r="293">
-      <c r="A293" s="1">
-        <v>612.0</v>
-      </c>
-      <c r="B293" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C293" s="3">
-        <v>255.0</v>
-      </c>
-      <c r="D293" s="2" t="s">
+      <c r="A293" s="6">
+        <v>587.0</v>
+      </c>
+      <c r="B293" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C293" s="7">
+        <v>265.0</v>
+      </c>
+      <c r="D293" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E293" s="4"/>
@@ -10984,13 +10998,13 @@
     </row>
     <row r="294">
       <c r="A294" s="6">
-        <v>615.0</v>
+        <v>589.0</v>
       </c>
       <c r="B294" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C294" s="7" t="s">
-        <v>5</v>
+      <c r="C294" s="7">
+        <v>265.0</v>
       </c>
       <c r="D294" s="5" t="s">
         <v>3</v>
@@ -11019,16 +11033,16 @@
       <c r="Z294" s="4"/>
     </row>
     <row r="295">
-      <c r="A295" s="1">
-        <v>617.0</v>
-      </c>
-      <c r="B295" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C295" s="3">
-        <v>330.0</v>
-      </c>
-      <c r="D295" s="2" t="s">
+      <c r="A295" s="6">
+        <v>590.0</v>
+      </c>
+      <c r="B295" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C295" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D295" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E295" s="4"/>
@@ -11056,13 +11070,13 @@
     </row>
     <row r="296">
       <c r="A296" s="6">
-        <v>618.0</v>
+        <v>591.0</v>
       </c>
       <c r="B296" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C296" s="7">
-        <v>330.0</v>
+      <c r="C296" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="D296" s="5" t="s">
         <v>3</v>
@@ -11091,16 +11105,16 @@
       <c r="Z296" s="4"/>
     </row>
     <row r="297">
-      <c r="A297" s="6">
-        <v>621.0</v>
-      </c>
-      <c r="B297" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C297" s="7">
-        <v>325.0</v>
-      </c>
-      <c r="D297" s="5" t="s">
+      <c r="A297" s="1">
+        <v>593.0</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C297" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="D297" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E297" s="4"/>
@@ -11128,13 +11142,13 @@
     </row>
     <row r="298">
       <c r="A298" s="6">
-        <v>622.0</v>
+        <v>595.0</v>
       </c>
       <c r="B298" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C298" s="7" t="s">
-        <v>33</v>
+      <c r="C298" s="7">
+        <v>280.0</v>
       </c>
       <c r="D298" s="5" t="s">
         <v>3</v>
@@ -11163,16 +11177,16 @@
       <c r="Z298" s="4"/>
     </row>
     <row r="299">
-      <c r="A299" s="1">
-        <v>623.0</v>
-      </c>
-      <c r="B299" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C299" s="3">
-        <v>290.0</v>
-      </c>
-      <c r="D299" s="2" t="s">
+      <c r="A299" s="6">
+        <v>596.0</v>
+      </c>
+      <c r="B299" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C299" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D299" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E299" s="4"/>
@@ -11200,13 +11214,13 @@
     </row>
     <row r="300">
       <c r="A300" s="6">
-        <v>624.0</v>
+        <v>597.0</v>
       </c>
       <c r="B300" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C300" s="7">
-        <v>310.0</v>
+        <v>320.0</v>
       </c>
       <c r="D300" s="5" t="s">
         <v>3</v>
@@ -11235,16 +11249,16 @@
       <c r="Z300" s="4"/>
     </row>
     <row r="301">
-      <c r="A301" s="1">
-        <v>625.0</v>
-      </c>
-      <c r="B301" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C301" s="3">
-        <v>320.0</v>
-      </c>
-      <c r="D301" s="2" t="s">
+      <c r="A301" s="6">
+        <v>599.0</v>
+      </c>
+      <c r="B301" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C301" s="7">
+        <v>280.0</v>
+      </c>
+      <c r="D301" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E301" s="4"/>
@@ -11271,16 +11285,16 @@
       <c r="Z301" s="4"/>
     </row>
     <row r="302">
-      <c r="A302" s="1">
-        <v>626.0</v>
-      </c>
-      <c r="B302" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C302" s="3">
+      <c r="A302" s="6">
+        <v>601.0</v>
+      </c>
+      <c r="B302" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C302" s="7">
         <v>305.0</v>
       </c>
-      <c r="D302" s="2" t="s">
+      <c r="D302" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E302" s="4"/>
@@ -11308,13 +11322,13 @@
     </row>
     <row r="303">
       <c r="A303" s="6">
-        <v>628.0</v>
+        <v>603.0</v>
       </c>
       <c r="B303" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C303" s="7">
-        <v>305.0</v>
+        <v>280.0</v>
       </c>
       <c r="D303" s="5" t="s">
         <v>3</v>
@@ -11344,7 +11358,7 @@
     </row>
     <row r="304">
       <c r="A304" s="1">
-        <v>635.0</v>
+        <v>604.0</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>3</v>
@@ -11380,15 +11394,15 @@
     </row>
     <row r="305">
       <c r="A305" s="6">
-        <v>636.0</v>
-      </c>
-      <c r="B305" s="5" t="s">
+        <v>605.0</v>
+      </c>
+      <c r="B305" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C305" s="7">
-        <v>315.0</v>
-      </c>
-      <c r="D305" s="5" t="s">
+        <v>270.0</v>
+      </c>
+      <c r="D305" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E305" s="4"/>
@@ -11416,13 +11430,13 @@
     </row>
     <row r="306">
       <c r="A306" s="6">
-        <v>640.0</v>
+        <v>610.0</v>
       </c>
       <c r="B306" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C306" s="7">
-        <v>275.0</v>
+        <v>260.0</v>
       </c>
       <c r="D306" s="5" t="s">
         <v>3</v>
@@ -11451,16 +11465,16 @@
       <c r="Z306" s="4"/>
     </row>
     <row r="307">
-      <c r="A307" s="1">
-        <v>642.0</v>
-      </c>
-      <c r="B307" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C307" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D307" s="2" t="s">
+      <c r="A307" s="6">
+        <v>611.0</v>
+      </c>
+      <c r="B307" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C307" s="7">
+        <v>260.0</v>
+      </c>
+      <c r="D307" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E307" s="4"/>
@@ -11488,13 +11502,13 @@
     </row>
     <row r="308">
       <c r="A308" s="1">
-        <v>643.0</v>
+        <v>612.0</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C308" s="3">
-        <v>310.0</v>
+        <v>255.0</v>
       </c>
       <c r="D308" s="2" t="s">
         <v>3</v>
@@ -11524,13 +11538,13 @@
     </row>
     <row r="309">
       <c r="A309" s="6">
-        <v>647.0</v>
+        <v>615.0</v>
       </c>
       <c r="B309" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C309" s="7">
-        <v>285.0</v>
+      <c r="C309" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="D309" s="5" t="s">
         <v>3</v>
@@ -11559,16 +11573,16 @@
       <c r="Z309" s="4"/>
     </row>
     <row r="310">
-      <c r="A310" s="6">
-        <v>648.0</v>
-      </c>
-      <c r="B310" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C310" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D310" s="5" t="s">
+      <c r="A310" s="1">
+        <v>617.0</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C310" s="3">
+        <v>330.0</v>
+      </c>
+      <c r="D310" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E310" s="4"/>
@@ -11596,15 +11610,15 @@
     </row>
     <row r="311">
       <c r="A311" s="6">
-        <v>651.0</v>
-      </c>
-      <c r="B311" s="2" t="s">
+        <v>618.0</v>
+      </c>
+      <c r="B311" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C311" s="7">
-        <v>230.0</v>
-      </c>
-      <c r="D311" s="2" t="s">
+        <v>330.0</v>
+      </c>
+      <c r="D311" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E311" s="4"/>
@@ -11631,16 +11645,16 @@
       <c r="Z311" s="4"/>
     </row>
     <row r="312">
-      <c r="A312" s="1">
-        <v>652.0</v>
-      </c>
-      <c r="B312" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C312" s="3">
-        <v>330.0</v>
-      </c>
-      <c r="D312" s="2" t="s">
+      <c r="A312" s="6">
+        <v>621.0</v>
+      </c>
+      <c r="B312" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C312" s="7">
+        <v>325.0</v>
+      </c>
+      <c r="D312" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E312" s="4"/>
@@ -11668,13 +11682,13 @@
     </row>
     <row r="313">
       <c r="A313" s="6">
-        <v>655.0</v>
+        <v>622.0</v>
       </c>
       <c r="B313" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C313" s="7">
-        <v>295.0</v>
+      <c r="C313" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="D313" s="5" t="s">
         <v>3</v>
@@ -11703,16 +11717,16 @@
       <c r="Z313" s="4"/>
     </row>
     <row r="314">
-      <c r="A314" s="6">
-        <v>657.0</v>
-      </c>
-      <c r="B314" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C314" s="7">
-        <v>335.0</v>
-      </c>
-      <c r="D314" s="5" t="s">
+      <c r="A314" s="1">
+        <v>623.0</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C314" s="3">
+        <v>290.0</v>
+      </c>
+      <c r="D314" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E314" s="4"/>
@@ -11740,13 +11754,13 @@
     </row>
     <row r="315">
       <c r="A315" s="6">
-        <v>658.0</v>
+        <v>624.0</v>
       </c>
       <c r="B315" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C315" s="7">
-        <v>255.0</v>
+        <v>310.0</v>
       </c>
       <c r="D315" s="5" t="s">
         <v>3</v>
@@ -11775,16 +11789,16 @@
       <c r="Z315" s="4"/>
     </row>
     <row r="316">
-      <c r="A316" s="6">
-        <v>659.0</v>
-      </c>
-      <c r="B316" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C316" s="7">
-        <v>305.0</v>
-      </c>
-      <c r="D316" s="5" t="s">
+      <c r="A316" s="1">
+        <v>625.0</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C316" s="3">
+        <v>320.0</v>
+      </c>
+      <c r="D316" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E316" s="4"/>
@@ -11812,13 +11826,13 @@
     </row>
     <row r="317">
       <c r="A317" s="1">
-        <v>663.0</v>
+        <v>626.0</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C317" s="3">
-        <v>265.0</v>
+        <v>305.0</v>
       </c>
       <c r="D317" s="2" t="s">
         <v>3</v>
@@ -11848,13 +11862,13 @@
     </row>
     <row r="318">
       <c r="A318" s="6">
-        <v>666.0</v>
+        <v>628.0</v>
       </c>
       <c r="B318" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C318" s="7">
-        <v>300.0</v>
+        <v>305.0</v>
       </c>
       <c r="D318" s="5" t="s">
         <v>3</v>
@@ -11884,13 +11898,13 @@
     </row>
     <row r="319">
       <c r="A319" s="1">
-        <v>668.0</v>
+        <v>635.0</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C319" s="3">
-        <v>305.0</v>
+        <v>295.0</v>
       </c>
       <c r="D319" s="2" t="s">
         <v>3</v>
@@ -11920,13 +11934,13 @@
     </row>
     <row r="320">
       <c r="A320" s="6">
-        <v>669.0</v>
+        <v>636.0</v>
       </c>
       <c r="B320" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C320" s="7">
-        <v>310.0</v>
+        <v>315.0</v>
       </c>
       <c r="D320" s="5" t="s">
         <v>3</v>
@@ -11955,16 +11969,16 @@
       <c r="Z320" s="4"/>
     </row>
     <row r="321">
-      <c r="A321" s="1">
-        <v>670.0</v>
-      </c>
-      <c r="B321" s="2" t="s">
+      <c r="A321" s="6">
+        <v>638.0</v>
+      </c>
+      <c r="B321" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C321" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D321" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D321" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E321" s="4"/>
@@ -11991,16 +12005,16 @@
       <c r="Z321" s="4"/>
     </row>
     <row r="322">
-      <c r="A322" s="1">
-        <v>671.0</v>
-      </c>
-      <c r="B322" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C322" s="3">
-        <v>305.0</v>
-      </c>
-      <c r="D322" s="2" t="s">
+      <c r="A322" s="6">
+        <v>640.0</v>
+      </c>
+      <c r="B322" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C322" s="7">
+        <v>275.0</v>
+      </c>
+      <c r="D322" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E322" s="4"/>
@@ -12028,13 +12042,13 @@
     </row>
     <row r="323">
       <c r="A323" s="1">
-        <v>672.0</v>
+        <v>642.0</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C323" s="3">
-        <v>295.0</v>
+      <c r="C323" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="D323" s="2" t="s">
         <v>3</v>
@@ -12063,16 +12077,16 @@
       <c r="Z323" s="4"/>
     </row>
     <row r="324">
-      <c r="A324" s="6">
-        <v>674.0</v>
-      </c>
-      <c r="B324" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C324" s="7">
-        <v>320.0</v>
-      </c>
-      <c r="D324" s="5" t="s">
+      <c r="A324" s="1">
+        <v>643.0</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C324" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D324" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E324" s="4"/>
@@ -12100,13 +12114,13 @@
     </row>
     <row r="325">
       <c r="A325" s="6">
-        <v>676.0</v>
+        <v>647.0</v>
       </c>
       <c r="B325" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C325" s="7">
-        <v>335.0</v>
+        <v>285.0</v>
       </c>
       <c r="D325" s="5" t="s">
         <v>3</v>
@@ -12135,16 +12149,16 @@
       <c r="Z325" s="4"/>
     </row>
     <row r="326">
-      <c r="A326" s="1">
-        <v>680.0</v>
-      </c>
-      <c r="B326" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C326" s="3">
-        <v>285.0</v>
-      </c>
-      <c r="D326" s="2" t="s">
+      <c r="A326" s="6">
+        <v>648.0</v>
+      </c>
+      <c r="B326" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C326" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D326" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E326" s="4"/>
@@ -12171,14 +12185,14 @@
       <c r="Z326" s="4"/>
     </row>
     <row r="327">
-      <c r="A327" s="1">
-        <v>688.0</v>
+      <c r="A327" s="6">
+        <v>651.0</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C327" s="3">
-        <v>310.0</v>
+      <c r="C327" s="7">
+        <v>230.0</v>
       </c>
       <c r="D327" s="2" t="s">
         <v>3</v>
@@ -12207,14 +12221,14 @@
       <c r="Z327" s="4"/>
     </row>
     <row r="328">
-      <c r="A328" s="9">
-        <v>692.0</v>
+      <c r="A328" s="1">
+        <v>652.0</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C328" s="9">
-        <v>300.0</v>
+      <c r="C328" s="3">
+        <v>330.0</v>
       </c>
       <c r="D328" s="2" t="s">
         <v>3</v>
@@ -12244,13 +12258,13 @@
     </row>
     <row r="329">
       <c r="A329" s="6">
-        <v>694.0</v>
+        <v>655.0</v>
       </c>
       <c r="B329" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C329" s="7" t="s">
-        <v>35</v>
+      <c r="C329" s="7">
+        <v>295.0</v>
       </c>
       <c r="D329" s="5" t="s">
         <v>3</v>
@@ -12279,16 +12293,16 @@
       <c r="Z329" s="4"/>
     </row>
     <row r="330">
-      <c r="A330" s="1">
-        <v>696.0</v>
-      </c>
-      <c r="B330" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C330" s="3">
-        <v>300.0</v>
-      </c>
-      <c r="D330" s="2" t="s">
+      <c r="A330" s="6">
+        <v>657.0</v>
+      </c>
+      <c r="B330" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C330" s="7">
+        <v>335.0</v>
+      </c>
+      <c r="D330" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E330" s="4"/>
@@ -12316,13 +12330,13 @@
     </row>
     <row r="331">
       <c r="A331" s="6">
-        <v>697.0</v>
+        <v>658.0</v>
       </c>
       <c r="B331" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C331" s="7">
-        <v>250.0</v>
+        <v>255.0</v>
       </c>
       <c r="D331" s="5" t="s">
         <v>3</v>
@@ -12352,13 +12366,13 @@
     </row>
     <row r="332">
       <c r="A332" s="6">
-        <v>705.0</v>
+        <v>659.0</v>
       </c>
       <c r="B332" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C332" s="7">
-        <v>280.0</v>
+        <v>305.0</v>
       </c>
       <c r="D332" s="5" t="s">
         <v>3</v>
@@ -12387,16 +12401,16 @@
       <c r="Z332" s="4"/>
     </row>
     <row r="333">
-      <c r="A333" s="6">
-        <v>706.0</v>
-      </c>
-      <c r="B333" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C333" s="7">
-        <v>320.0</v>
-      </c>
-      <c r="D333" s="5" t="s">
+      <c r="A333" s="1">
+        <v>663.0</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C333" s="3">
+        <v>265.0</v>
+      </c>
+      <c r="D333" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E333" s="4"/>
@@ -12424,13 +12438,13 @@
     </row>
     <row r="334">
       <c r="A334" s="6">
-        <v>709.0</v>
+        <v>666.0</v>
       </c>
       <c r="B334" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C334" s="7">
-        <v>320.0</v>
+        <v>300.0</v>
       </c>
       <c r="D334" s="5" t="s">
         <v>3</v>
@@ -12459,16 +12473,16 @@
       <c r="Z334" s="4"/>
     </row>
     <row r="335">
-      <c r="A335" s="6">
-        <v>710.0</v>
-      </c>
-      <c r="B335" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C335" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D335" s="5" t="s">
+      <c r="A335" s="1">
+        <v>668.0</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C335" s="3">
+        <v>305.0</v>
+      </c>
+      <c r="D335" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E335" s="4"/>
@@ -12496,13 +12510,13 @@
     </row>
     <row r="336">
       <c r="A336" s="6">
-        <v>712.0</v>
+        <v>669.0</v>
       </c>
       <c r="B336" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C336" s="7">
-        <v>295.0</v>
+        <v>310.0</v>
       </c>
       <c r="D336" s="5" t="s">
         <v>3</v>
@@ -12531,16 +12545,16 @@
       <c r="Z336" s="4"/>
     </row>
     <row r="337">
-      <c r="A337" s="6">
-        <v>713.0</v>
-      </c>
-      <c r="B337" s="5" t="s">
+      <c r="A337" s="1">
+        <v>670.0</v>
+      </c>
+      <c r="B337" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C337" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D337" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D337" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E337" s="4"/>
@@ -12568,13 +12582,13 @@
     </row>
     <row r="338">
       <c r="A338" s="1">
-        <v>714.0</v>
+        <v>671.0</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C338" s="7">
-        <v>280.0</v>
+      <c r="C338" s="3">
+        <v>305.0</v>
       </c>
       <c r="D338" s="2" t="s">
         <v>3</v>
@@ -12603,16 +12617,16 @@
       <c r="Z338" s="4"/>
     </row>
     <row r="339">
-      <c r="A339" s="6">
-        <v>715.0</v>
-      </c>
-      <c r="B339" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C339" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D339" s="5" t="s">
+      <c r="A339" s="1">
+        <v>672.0</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C339" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D339" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E339" s="4"/>
@@ -12639,16 +12653,16 @@
       <c r="Z339" s="4"/>
     </row>
     <row r="340">
-      <c r="A340" s="1">
-        <v>718.0</v>
-      </c>
-      <c r="B340" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C340" s="3">
-        <v>330.0</v>
-      </c>
-      <c r="D340" s="2" t="s">
+      <c r="A340" s="6">
+        <v>674.0</v>
+      </c>
+      <c r="B340" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C340" s="7">
+        <v>320.0</v>
+      </c>
+      <c r="D340" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E340" s="4"/>
@@ -12675,16 +12689,16 @@
       <c r="Z340" s="4"/>
     </row>
     <row r="341">
-      <c r="A341" s="1">
-        <v>719.0</v>
-      </c>
-      <c r="B341" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C341" s="3">
-        <v>280.0</v>
-      </c>
-      <c r="D341" s="2" t="s">
+      <c r="A341" s="6">
+        <v>676.0</v>
+      </c>
+      <c r="B341" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C341" s="7">
+        <v>335.0</v>
+      </c>
+      <c r="D341" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E341" s="4"/>
@@ -12711,16 +12725,16 @@
       <c r="Z341" s="4"/>
     </row>
     <row r="342">
-      <c r="A342" s="6">
-        <v>722.0</v>
-      </c>
-      <c r="B342" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C342" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D342" s="5" t="s">
+      <c r="A342" s="1">
+        <v>680.0</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C342" s="3">
+        <v>285.0</v>
+      </c>
+      <c r="D342" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E342" s="4"/>
@@ -12747,16 +12761,16 @@
       <c r="Z342" s="4"/>
     </row>
     <row r="343">
-      <c r="A343" s="6">
-        <v>724.0</v>
-      </c>
-      <c r="B343" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C343" s="7">
-        <v>330.0</v>
-      </c>
-      <c r="D343" s="5" t="s">
+      <c r="A343" s="1">
+        <v>688.0</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C343" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D343" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E343" s="4"/>
@@ -12783,16 +12797,16 @@
       <c r="Z343" s="4"/>
     </row>
     <row r="344">
-      <c r="A344" s="6">
-        <v>725.0</v>
-      </c>
-      <c r="B344" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C344" s="7">
-        <v>245.0</v>
-      </c>
-      <c r="D344" s="5" t="s">
+      <c r="A344" s="9">
+        <v>692.0</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C344" s="9">
+        <v>300.0</v>
+      </c>
+      <c r="D344" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E344" s="4"/>
@@ -12820,13 +12834,13 @@
     </row>
     <row r="345">
       <c r="A345" s="6">
-        <v>729.0</v>
+        <v>694.0</v>
       </c>
       <c r="B345" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C345" s="7">
-        <v>275.0</v>
+      <c r="C345" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="D345" s="5" t="s">
         <v>3</v>
@@ -12855,16 +12869,16 @@
       <c r="Z345" s="4"/>
     </row>
     <row r="346">
-      <c r="A346" s="6">
-        <v>730.0</v>
-      </c>
-      <c r="B346" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C346" s="7">
-        <v>315.0</v>
-      </c>
-      <c r="D346" s="5" t="s">
+      <c r="A346" s="1">
+        <v>696.0</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C346" s="3">
+        <v>300.0</v>
+      </c>
+      <c r="D346" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E346" s="4"/>
@@ -12892,13 +12906,13 @@
     </row>
     <row r="347">
       <c r="A347" s="6">
-        <v>731.0</v>
+        <v>697.0</v>
       </c>
       <c r="B347" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C347" s="7">
-        <v>260.0</v>
+        <v>250.0</v>
       </c>
       <c r="D347" s="5" t="s">
         <v>3</v>
@@ -12927,16 +12941,16 @@
       <c r="Z347" s="4"/>
     </row>
     <row r="348">
-      <c r="A348" s="1">
-        <v>732.0</v>
-      </c>
-      <c r="B348" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C348" s="3">
+      <c r="A348" s="6">
+        <v>705.0</v>
+      </c>
+      <c r="B348" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C348" s="7">
         <v>280.0</v>
       </c>
-      <c r="D348" s="2" t="s">
+      <c r="D348" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E348" s="4"/>
@@ -12963,16 +12977,16 @@
       <c r="Z348" s="4"/>
     </row>
     <row r="349">
-      <c r="A349" s="1">
-        <v>733.0</v>
-      </c>
-      <c r="B349" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C349" s="3">
+      <c r="A349" s="6">
+        <v>706.0</v>
+      </c>
+      <c r="B349" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C349" s="7">
         <v>320.0</v>
       </c>
-      <c r="D349" s="2" t="s">
+      <c r="D349" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E349" s="4"/>
@@ -12999,16 +13013,16 @@
       <c r="Z349" s="4"/>
     </row>
     <row r="350">
-      <c r="A350" s="1">
-        <v>736.0</v>
-      </c>
-      <c r="B350" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C350" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D350" s="2" t="s">
+      <c r="A350" s="6">
+        <v>707.0</v>
+      </c>
+      <c r="B350" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C350" s="7">
+        <v>315.0</v>
+      </c>
+      <c r="D350" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E350" s="4"/>
@@ -13036,13 +13050,13 @@
     </row>
     <row r="351">
       <c r="A351" s="6">
-        <v>741.0</v>
+        <v>709.0</v>
       </c>
       <c r="B351" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C351" s="7">
-        <v>280.0</v>
+        <v>320.0</v>
       </c>
       <c r="D351" s="5" t="s">
         <v>3</v>
@@ -13072,13 +13086,13 @@
     </row>
     <row r="352">
       <c r="A352" s="6">
-        <v>742.0</v>
+        <v>710.0</v>
       </c>
       <c r="B352" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C352" s="7">
-        <v>240.0</v>
+      <c r="C352" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="D352" s="5" t="s">
         <v>3</v>
@@ -13107,16 +13121,16 @@
       <c r="Z352" s="4"/>
     </row>
     <row r="353">
-      <c r="A353" s="1">
-        <v>744.0</v>
-      </c>
-      <c r="B353" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C353" s="3">
-        <v>270.0</v>
-      </c>
-      <c r="D353" s="2" t="s">
+      <c r="A353" s="6">
+        <v>712.0</v>
+      </c>
+      <c r="B353" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C353" s="7">
+        <v>295.0</v>
+      </c>
+      <c r="D353" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E353" s="4"/>
@@ -13143,16 +13157,16 @@
       <c r="Z353" s="4"/>
     </row>
     <row r="354">
-      <c r="A354" s="1">
-        <v>747.0</v>
-      </c>
-      <c r="B354" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C354" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="D354" s="2" t="s">
+      <c r="A354" s="6">
+        <v>713.0</v>
+      </c>
+      <c r="B354" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C354" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D354" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E354" s="4"/>
@@ -13179,16 +13193,16 @@
       <c r="Z354" s="4"/>
     </row>
     <row r="355">
-      <c r="A355" s="6">
-        <v>748.0</v>
-      </c>
-      <c r="B355" s="5" t="s">
+      <c r="A355" s="1">
+        <v>714.0</v>
+      </c>
+      <c r="B355" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C355" s="7">
-        <v>230.0</v>
-      </c>
-      <c r="D355" s="5" t="s">
+        <v>280.0</v>
+      </c>
+      <c r="D355" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E355" s="4"/>
@@ -13215,16 +13229,16 @@
       <c r="Z355" s="4"/>
     </row>
     <row r="356">
-      <c r="A356" s="1">
-        <v>749.0</v>
-      </c>
-      <c r="B356" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C356" s="3">
-        <v>335.0</v>
-      </c>
-      <c r="D356" s="2" t="s">
+      <c r="A356" s="6">
+        <v>715.0</v>
+      </c>
+      <c r="B356" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C356" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D356" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E356" s="4"/>
@@ -13252,13 +13266,13 @@
     </row>
     <row r="357">
       <c r="A357" s="6">
-        <v>754.0</v>
+        <v>717.0</v>
       </c>
       <c r="B357" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C357" s="7" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D357" s="5" t="s">
         <v>3</v>
@@ -13287,16 +13301,16 @@
       <c r="Z357" s="4"/>
     </row>
     <row r="358">
-      <c r="A358" s="6">
-        <v>755.0</v>
-      </c>
-      <c r="B358" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C358" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D358" s="5" t="s">
+      <c r="A358" s="1">
+        <v>718.0</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C358" s="3">
+        <v>330.0</v>
+      </c>
+      <c r="D358" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E358" s="4"/>
@@ -13323,16 +13337,16 @@
       <c r="Z358" s="4"/>
     </row>
     <row r="359">
-      <c r="A359" s="6">
-        <v>757.0</v>
-      </c>
-      <c r="B359" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C359" s="7">
+      <c r="A359" s="1">
+        <v>719.0</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C359" s="3">
         <v>280.0</v>
       </c>
-      <c r="D359" s="5" t="s">
+      <c r="D359" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E359" s="4"/>
@@ -13359,16 +13373,16 @@
       <c r="Z359" s="4"/>
     </row>
     <row r="360">
-      <c r="A360" s="1">
-        <v>758.0</v>
-      </c>
-      <c r="B360" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C360" s="3">
-        <v>295.0</v>
-      </c>
-      <c r="D360" s="2" t="s">
+      <c r="A360" s="6">
+        <v>722.0</v>
+      </c>
+      <c r="B360" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C360" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D360" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E360" s="4"/>
@@ -13396,13 +13410,13 @@
     </row>
     <row r="361">
       <c r="A361" s="6">
-        <v>759.0</v>
+        <v>724.0</v>
       </c>
       <c r="B361" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C361" s="7">
-        <v>275.0</v>
+        <v>330.0</v>
       </c>
       <c r="D361" s="5" t="s">
         <v>3</v>
@@ -13432,13 +13446,13 @@
     </row>
     <row r="362">
       <c r="A362" s="6">
-        <v>761.0</v>
+        <v>725.0</v>
       </c>
       <c r="B362" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C362" s="7">
-        <v>260.0</v>
+        <v>245.0</v>
       </c>
       <c r="D362" s="5" t="s">
         <v>3</v>
@@ -13468,13 +13482,13 @@
     </row>
     <row r="363">
       <c r="A363" s="6">
-        <v>763.0</v>
+        <v>729.0</v>
       </c>
       <c r="B363" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C363" s="7">
-        <v>250.0</v>
+        <v>275.0</v>
       </c>
       <c r="D363" s="5" t="s">
         <v>3</v>
@@ -13504,13 +13518,13 @@
     </row>
     <row r="364">
       <c r="A364" s="6">
-        <v>764.0</v>
+        <v>730.0</v>
       </c>
       <c r="B364" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C364" s="7">
-        <v>260.0</v>
+        <v>315.0</v>
       </c>
       <c r="D364" s="5" t="s">
         <v>3</v>
@@ -13539,16 +13553,16 @@
       <c r="Z364" s="4"/>
     </row>
     <row r="365">
-      <c r="A365" s="1">
-        <v>767.0</v>
-      </c>
-      <c r="B365" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C365" s="3">
-        <v>290.0</v>
-      </c>
-      <c r="D365" s="2" t="s">
+      <c r="A365" s="6">
+        <v>731.0</v>
+      </c>
+      <c r="B365" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C365" s="7">
+        <v>260.0</v>
+      </c>
+      <c r="D365" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E365" s="4"/>
@@ -13575,16 +13589,16 @@
       <c r="Z365" s="4"/>
     </row>
     <row r="366">
-      <c r="A366" s="6">
-        <v>772.0</v>
-      </c>
-      <c r="B366" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C366" s="7">
-        <v>240.0</v>
-      </c>
-      <c r="D366" s="5" t="s">
+      <c r="A366" s="1">
+        <v>732.0</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C366" s="3">
+        <v>280.0</v>
+      </c>
+      <c r="D366" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E366" s="4"/>
@@ -13611,16 +13625,16 @@
       <c r="Z366" s="4"/>
     </row>
     <row r="367">
-      <c r="A367" s="6">
-        <v>773.0</v>
-      </c>
-      <c r="B367" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C367" s="7">
-        <v>285.0</v>
-      </c>
-      <c r="D367" s="5" t="s">
+      <c r="A367" s="1">
+        <v>733.0</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C367" s="3">
+        <v>320.0</v>
+      </c>
+      <c r="D367" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E367" s="4"/>
@@ -13648,13 +13662,13 @@
     </row>
     <row r="368">
       <c r="A368" s="1">
-        <v>775.0</v>
+        <v>736.0</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C368" s="3">
-        <v>260.0</v>
+        <v>250.0</v>
       </c>
       <c r="D368" s="2" t="s">
         <v>3</v>
@@ -13684,13 +13698,13 @@
     </row>
     <row r="369">
       <c r="A369" s="6">
-        <v>776.0</v>
+        <v>741.0</v>
       </c>
       <c r="B369" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C369" s="7">
-        <v>240.0</v>
+        <v>280.0</v>
       </c>
       <c r="D369" s="5" t="s">
         <v>3</v>
@@ -13719,16 +13733,16 @@
       <c r="Z369" s="4"/>
     </row>
     <row r="370">
-      <c r="A370" s="1">
-        <v>777.0</v>
-      </c>
-      <c r="B370" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C370" s="3">
-        <v>310.0</v>
-      </c>
-      <c r="D370" s="2" t="s">
+      <c r="A370" s="6">
+        <v>742.0</v>
+      </c>
+      <c r="B370" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C370" s="7">
+        <v>240.0</v>
+      </c>
+      <c r="D370" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E370" s="4"/>
@@ -13755,16 +13769,16 @@
       <c r="Z370" s="4"/>
     </row>
     <row r="371">
-      <c r="A371" s="6">
-        <v>778.0</v>
-      </c>
-      <c r="B371" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C371" s="7">
-        <v>310.0</v>
-      </c>
-      <c r="D371" s="5" t="s">
+      <c r="A371" s="1">
+        <v>744.0</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C371" s="3">
+        <v>270.0</v>
+      </c>
+      <c r="D371" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E371" s="4"/>
@@ -13792,13 +13806,13 @@
     </row>
     <row r="372">
       <c r="A372" s="1">
-        <v>792.0</v>
+        <v>747.0</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C372" s="3">
-        <v>320.0</v>
+        <v>250.0</v>
       </c>
       <c r="D372" s="2" t="s">
         <v>3</v>
@@ -13828,13 +13842,13 @@
     </row>
     <row r="373">
       <c r="A373" s="6">
-        <v>782.0</v>
+        <v>748.0</v>
       </c>
       <c r="B373" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C373" s="7" t="s">
-        <v>38</v>
+      <c r="C373" s="7">
+        <v>230.0</v>
       </c>
       <c r="D373" s="5" t="s">
         <v>3</v>
@@ -13863,16 +13877,16 @@
       <c r="Z373" s="4"/>
     </row>
     <row r="374">
-      <c r="A374" s="6">
-        <v>784.0</v>
-      </c>
-      <c r="B374" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C374" s="7">
-        <v>270.0</v>
-      </c>
-      <c r="D374" s="5" t="s">
+      <c r="A374" s="1">
+        <v>749.0</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C374" s="3">
+        <v>335.0</v>
+      </c>
+      <c r="D374" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E374" s="4"/>
@@ -13900,13 +13914,13 @@
     </row>
     <row r="375">
       <c r="A375" s="6">
-        <v>786.0</v>
+        <v>754.0</v>
       </c>
       <c r="B375" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C375" s="7">
-        <v>275.0</v>
+      <c r="C375" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="D375" s="5" t="s">
         <v>3</v>
@@ -13936,13 +13950,13 @@
     </row>
     <row r="376">
       <c r="A376" s="6">
-        <v>787.0</v>
+        <v>755.0</v>
       </c>
       <c r="B376" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C376" s="7">
-        <v>280.0</v>
+      <c r="C376" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="D376" s="5" t="s">
         <v>3</v>
@@ -13972,13 +13986,13 @@
     </row>
     <row r="377">
       <c r="A377" s="6">
-        <v>789.0</v>
+        <v>757.0</v>
       </c>
       <c r="B377" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C377" s="7">
-        <v>265.0</v>
+        <v>280.0</v>
       </c>
       <c r="D377" s="5" t="s">
         <v>3</v>
@@ -14007,16 +14021,16 @@
       <c r="Z377" s="4"/>
     </row>
     <row r="378">
-      <c r="A378" s="6">
-        <v>790.0</v>
-      </c>
-      <c r="B378" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C378" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D378" s="5" t="s">
+      <c r="A378" s="1">
+        <v>758.0</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C378" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D378" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E378" s="4"/>
@@ -14044,13 +14058,13 @@
     </row>
     <row r="379">
       <c r="A379" s="6">
-        <v>793.0</v>
+        <v>759.0</v>
       </c>
       <c r="B379" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C379" s="7" t="s">
-        <v>39</v>
+      <c r="C379" s="7">
+        <v>275.0</v>
       </c>
       <c r="D379" s="5" t="s">
         <v>3</v>
@@ -14079,16 +14093,16 @@
       <c r="Z379" s="4"/>
     </row>
     <row r="380">
-      <c r="A380" s="1">
-        <v>795.0</v>
-      </c>
-      <c r="B380" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C380" s="3">
-        <v>255.0</v>
-      </c>
-      <c r="D380" s="2" t="s">
+      <c r="A380" s="6">
+        <v>761.0</v>
+      </c>
+      <c r="B380" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C380" s="7">
+        <v>260.0</v>
+      </c>
+      <c r="D380" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E380" s="4"/>
@@ -14116,13 +14130,13 @@
     </row>
     <row r="381">
       <c r="A381" s="6">
-        <v>797.0</v>
+        <v>763.0</v>
       </c>
       <c r="B381" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C381" s="7">
-        <v>325.0</v>
+        <v>250.0</v>
       </c>
       <c r="D381" s="5" t="s">
         <v>3</v>
@@ -14152,13 +14166,13 @@
     </row>
     <row r="382">
       <c r="A382" s="6">
-        <v>799.0</v>
+        <v>764.0</v>
       </c>
       <c r="B382" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C382" s="7">
-        <v>310.0</v>
+        <v>260.0</v>
       </c>
       <c r="D382" s="5" t="s">
         <v>3</v>
@@ -14187,16 +14201,16 @@
       <c r="Z382" s="4"/>
     </row>
     <row r="383">
-      <c r="A383" s="6">
-        <v>800.0</v>
-      </c>
-      <c r="B383" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C383" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D383" s="5" t="s">
+      <c r="A383" s="1">
+        <v>767.0</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C383" s="3">
+        <v>290.0</v>
+      </c>
+      <c r="D383" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E383" s="4"/>
@@ -14223,16 +14237,16 @@
       <c r="Z383" s="4"/>
     </row>
     <row r="384">
-      <c r="A384" s="1">
-        <v>801.0</v>
-      </c>
-      <c r="B384" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C384" s="3">
-        <v>230.0</v>
-      </c>
-      <c r="D384" s="2" t="s">
+      <c r="A384" s="6">
+        <v>768.0</v>
+      </c>
+      <c r="B384" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C384" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D384" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E384" s="4"/>
@@ -14260,13 +14274,13 @@
     </row>
     <row r="385">
       <c r="A385" s="6">
-        <v>802.0</v>
+        <v>772.0</v>
       </c>
       <c r="B385" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C385" s="7">
-        <v>245.0</v>
+        <v>240.0</v>
       </c>
       <c r="D385" s="5" t="s">
         <v>3</v>
@@ -14296,13 +14310,13 @@
     </row>
     <row r="386">
       <c r="A386" s="6">
-        <v>806.0</v>
+        <v>773.0</v>
       </c>
       <c r="B386" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C386" s="7" t="s">
-        <v>40</v>
+      <c r="C386" s="7">
+        <v>285.0</v>
       </c>
       <c r="D386" s="5" t="s">
         <v>3</v>
@@ -14332,13 +14346,13 @@
     </row>
     <row r="387">
       <c r="A387" s="1">
-        <v>809.0</v>
+        <v>775.0</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C387" s="3">
-        <v>270.0</v>
+        <v>260.0</v>
       </c>
       <c r="D387" s="2" t="s">
         <v>3</v>
@@ -14368,13 +14382,13 @@
     </row>
     <row r="388">
       <c r="A388" s="6">
-        <v>810.0</v>
+        <v>776.0</v>
       </c>
       <c r="B388" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C388" s="7">
-        <v>305.0</v>
+        <v>240.0</v>
       </c>
       <c r="D388" s="5" t="s">
         <v>3</v>
@@ -14404,13 +14418,13 @@
     </row>
     <row r="389">
       <c r="A389" s="1">
-        <v>811.0</v>
+        <v>777.0</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C389" s="3">
-        <v>260.0</v>
+        <v>310.0</v>
       </c>
       <c r="D389" s="2" t="s">
         <v>3</v>
@@ -14440,13 +14454,13 @@
     </row>
     <row r="390">
       <c r="A390" s="6">
-        <v>812.0</v>
+        <v>778.0</v>
       </c>
       <c r="B390" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C390" s="7">
-        <v>315.0</v>
+        <v>310.0</v>
       </c>
       <c r="D390" s="5" t="s">
         <v>3</v>
@@ -14475,16 +14489,16 @@
       <c r="Z390" s="4"/>
     </row>
     <row r="391">
-      <c r="A391" s="6">
-        <v>813.0</v>
-      </c>
-      <c r="B391" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C391" s="7">
-        <v>275.0</v>
-      </c>
-      <c r="D391" s="5" t="s">
+      <c r="A391" s="1">
+        <v>792.0</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C391" s="3">
+        <v>320.0</v>
+      </c>
+      <c r="D391" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E391" s="4"/>
@@ -14512,13 +14526,13 @@
     </row>
     <row r="392">
       <c r="A392" s="6">
-        <v>816.0</v>
+        <v>782.0</v>
       </c>
       <c r="B392" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C392" s="7">
-        <v>245.0</v>
+      <c r="C392" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="D392" s="5" t="s">
         <v>3</v>
@@ -14548,13 +14562,13 @@
     </row>
     <row r="393">
       <c r="A393" s="6">
-        <v>817.0</v>
+        <v>784.0</v>
       </c>
       <c r="B393" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C393" s="7">
-        <v>330.0</v>
+        <v>270.0</v>
       </c>
       <c r="D393" s="5" t="s">
         <v>3</v>
@@ -14584,13 +14598,13 @@
     </row>
     <row r="394">
       <c r="A394" s="6">
-        <v>818.0</v>
+        <v>786.0</v>
       </c>
       <c r="B394" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C394" s="7" t="s">
-        <v>41</v>
+      <c r="C394" s="7">
+        <v>275.0</v>
       </c>
       <c r="D394" s="5" t="s">
         <v>3</v>
@@ -14619,16 +14633,16 @@
       <c r="Z394" s="4"/>
     </row>
     <row r="395">
-      <c r="A395" s="1">
-        <v>819.0</v>
-      </c>
-      <c r="B395" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C395" s="3">
-        <v>200.0</v>
-      </c>
-      <c r="D395" s="2" t="s">
+      <c r="A395" s="6">
+        <v>787.0</v>
+      </c>
+      <c r="B395" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C395" s="7">
+        <v>280.0</v>
+      </c>
+      <c r="D395" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E395" s="4"/>
@@ -14655,16 +14669,16 @@
       <c r="Z395" s="4"/>
     </row>
     <row r="396">
-      <c r="A396" s="1">
-        <v>820.0</v>
-      </c>
-      <c r="B396" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C396" s="3">
-        <v>245.0</v>
-      </c>
-      <c r="D396" s="2" t="s">
+      <c r="A396" s="6">
+        <v>789.0</v>
+      </c>
+      <c r="B396" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C396" s="7">
+        <v>265.0</v>
+      </c>
+      <c r="D396" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E396" s="4"/>
@@ -14691,16 +14705,16 @@
       <c r="Z396" s="4"/>
     </row>
     <row r="397">
-      <c r="A397" s="1">
-        <v>821.0</v>
-      </c>
-      <c r="B397" s="2" t="s">
+      <c r="A397" s="6">
+        <v>790.0</v>
+      </c>
+      <c r="B397" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C397" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D397" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D397" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E397" s="4"/>
@@ -14728,13 +14742,13 @@
     </row>
     <row r="398">
       <c r="A398" s="6">
-        <v>824.0</v>
+        <v>793.0</v>
       </c>
       <c r="B398" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C398" s="7">
-        <v>310.0</v>
+      <c r="C398" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="D398" s="5" t="s">
         <v>3</v>
@@ -14763,16 +14777,16 @@
       <c r="Z398" s="4"/>
     </row>
     <row r="399">
-      <c r="A399" s="6">
-        <v>827.0</v>
-      </c>
-      <c r="B399" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C399" s="7">
-        <v>290.0</v>
-      </c>
-      <c r="D399" s="5" t="s">
+      <c r="A399" s="1">
+        <v>795.0</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C399" s="3">
+        <v>255.0</v>
+      </c>
+      <c r="D399" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E399" s="4"/>
@@ -14800,13 +14814,13 @@
     </row>
     <row r="400">
       <c r="A400" s="6">
-        <v>829.0</v>
+        <v>797.0</v>
       </c>
       <c r="B400" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C400" s="7">
-        <v>275.0</v>
+        <v>325.0</v>
       </c>
       <c r="D400" s="5" t="s">
         <v>3</v>
@@ -14836,13 +14850,13 @@
     </row>
     <row r="401">
       <c r="A401" s="6">
-        <v>832.0</v>
+        <v>799.0</v>
       </c>
       <c r="B401" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C401" s="7">
-        <v>235.0</v>
+        <v>310.0</v>
       </c>
       <c r="D401" s="5" t="s">
         <v>3</v>
@@ -14872,13 +14886,13 @@
     </row>
     <row r="402">
       <c r="A402" s="6">
-        <v>833.0</v>
+        <v>800.0</v>
       </c>
       <c r="B402" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C402" s="7">
-        <v>235.0</v>
+      <c r="C402" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="D402" s="5" t="s">
         <v>3</v>
@@ -14907,16 +14921,16 @@
       <c r="Z402" s="4"/>
     </row>
     <row r="403">
-      <c r="A403" s="6">
-        <v>834.0</v>
-      </c>
-      <c r="B403" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C403" s="7">
-        <v>225.0</v>
-      </c>
-      <c r="D403" s="5" t="s">
+      <c r="A403" s="1">
+        <v>801.0</v>
+      </c>
+      <c r="B403" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C403" s="3">
+        <v>230.0</v>
+      </c>
+      <c r="D403" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E403" s="4"/>
@@ -14944,13 +14958,13 @@
     </row>
     <row r="404">
       <c r="A404" s="6">
-        <v>837.0</v>
+        <v>802.0</v>
       </c>
       <c r="B404" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C404" s="7">
-        <v>275.0</v>
+        <v>245.0</v>
       </c>
       <c r="D404" s="5" t="s">
         <v>3</v>
@@ -14980,13 +14994,13 @@
     </row>
     <row r="405">
       <c r="A405" s="6">
-        <v>838.0</v>
+        <v>806.0</v>
       </c>
       <c r="B405" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C405" s="7">
-        <v>295.0</v>
+      <c r="C405" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="D405" s="5" t="s">
         <v>3</v>
@@ -15015,16 +15029,16 @@
       <c r="Z405" s="4"/>
     </row>
     <row r="406">
-      <c r="A406" s="6">
-        <v>843.0</v>
-      </c>
-      <c r="B406" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C406" s="7">
-        <v>320.0</v>
-      </c>
-      <c r="D406" s="5" t="s">
+      <c r="A406" s="1">
+        <v>809.0</v>
+      </c>
+      <c r="B406" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C406" s="3">
+        <v>270.0</v>
+      </c>
+      <c r="D406" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E406" s="4"/>
@@ -15052,13 +15066,13 @@
     </row>
     <row r="407">
       <c r="A407" s="6">
-        <v>845.0</v>
+        <v>810.0</v>
       </c>
       <c r="B407" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C407" s="7">
-        <v>235.0</v>
+        <v>305.0</v>
       </c>
       <c r="D407" s="5" t="s">
         <v>3</v>
@@ -15088,13 +15102,13 @@
     </row>
     <row r="408">
       <c r="A408" s="1">
-        <v>846.0</v>
+        <v>811.0</v>
       </c>
       <c r="B408" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C408" s="3">
-        <v>295.0</v>
+        <v>260.0</v>
       </c>
       <c r="D408" s="2" t="s">
         <v>3</v>
@@ -15123,16 +15137,16 @@
       <c r="Z408" s="4"/>
     </row>
     <row r="409">
-      <c r="A409" s="1">
-        <v>853.0</v>
-      </c>
-      <c r="B409" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C409" s="3">
-        <v>290.0</v>
-      </c>
-      <c r="D409" s="2" t="s">
+      <c r="A409" s="6">
+        <v>812.0</v>
+      </c>
+      <c r="B409" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C409" s="7">
+        <v>315.0</v>
+      </c>
+      <c r="D409" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E409" s="4"/>
@@ -15160,13 +15174,13 @@
     </row>
     <row r="410">
       <c r="A410" s="6">
-        <v>854.0</v>
+        <v>813.0</v>
       </c>
       <c r="B410" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C410" s="7">
-        <v>320.0</v>
+        <v>275.0</v>
       </c>
       <c r="D410" s="5" t="s">
         <v>3</v>
@@ -15196,13 +15210,13 @@
     </row>
     <row r="411">
       <c r="A411" s="6">
-        <v>855.0</v>
+        <v>816.0</v>
       </c>
       <c r="B411" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C411" s="7">
-        <v>270.0</v>
+        <v>245.0</v>
       </c>
       <c r="D411" s="5" t="s">
         <v>3</v>
@@ -15231,16 +15245,16 @@
       <c r="Z411" s="4"/>
     </row>
     <row r="412">
-      <c r="A412" s="1">
-        <v>856.0</v>
-      </c>
-      <c r="B412" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C412" s="3">
-        <v>260.0</v>
-      </c>
-      <c r="D412" s="2" t="s">
+      <c r="A412" s="6">
+        <v>817.0</v>
+      </c>
+      <c r="B412" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C412" s="7">
+        <v>330.0</v>
+      </c>
+      <c r="D412" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E412" s="4"/>
@@ -15268,13 +15282,13 @@
     </row>
     <row r="413">
       <c r="A413" s="6">
-        <v>860.0</v>
+        <v>818.0</v>
       </c>
       <c r="B413" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C413" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D413" s="5" t="s">
         <v>3</v>
@@ -15304,13 +15318,13 @@
     </row>
     <row r="414">
       <c r="A414" s="1">
-        <v>861.0</v>
+        <v>819.0</v>
       </c>
       <c r="B414" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C414" s="3">
-        <v>305.0</v>
+        <v>200.0</v>
       </c>
       <c r="D414" s="2" t="s">
         <v>3</v>
@@ -15339,16 +15353,16 @@
       <c r="Z414" s="4"/>
     </row>
     <row r="415">
-      <c r="A415" s="6">
-        <v>862.0</v>
-      </c>
-      <c r="B415" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C415" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D415" s="5" t="s">
+      <c r="A415" s="1">
+        <v>820.0</v>
+      </c>
+      <c r="B415" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C415" s="3">
+        <v>245.0</v>
+      </c>
+      <c r="D415" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E415" s="4"/>
@@ -15376,13 +15390,13 @@
     </row>
     <row r="416">
       <c r="A416" s="1">
-        <v>863.0</v>
+        <v>821.0</v>
       </c>
       <c r="B416" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C416" s="3">
-        <v>275.0</v>
+      <c r="C416" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="D416" s="2" t="s">
         <v>3</v>
@@ -15412,13 +15426,13 @@
     </row>
     <row r="417">
       <c r="A417" s="6">
-        <v>865.0</v>
+        <v>824.0</v>
       </c>
       <c r="B417" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C417" s="7">
-        <v>270.0</v>
+        <v>310.0</v>
       </c>
       <c r="D417" s="5" t="s">
         <v>3</v>
@@ -15448,13 +15462,13 @@
     </row>
     <row r="418">
       <c r="A418" s="6">
-        <v>866.0</v>
+        <v>827.0</v>
       </c>
       <c r="B418" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C418" s="7">
-        <v>300.0</v>
+        <v>290.0</v>
       </c>
       <c r="D418" s="5" t="s">
         <v>3</v>
@@ -15483,16 +15497,16 @@
       <c r="Z418" s="4"/>
     </row>
     <row r="419">
-      <c r="A419" s="1">
-        <v>872.0</v>
-      </c>
-      <c r="B419" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C419" s="3">
-        <v>295.0</v>
-      </c>
-      <c r="D419" s="2" t="s">
+      <c r="A419" s="6">
+        <v>829.0</v>
+      </c>
+      <c r="B419" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C419" s="7">
+        <v>275.0</v>
+      </c>
+      <c r="D419" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E419" s="4"/>
@@ -15520,13 +15534,13 @@
     </row>
     <row r="420">
       <c r="A420" s="6">
-        <v>875.0</v>
+        <v>832.0</v>
       </c>
       <c r="B420" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C420" s="7">
-        <v>305.0</v>
+        <v>235.0</v>
       </c>
       <c r="D420" s="5" t="s">
         <v>3</v>
@@ -15556,13 +15570,13 @@
     </row>
     <row r="421">
       <c r="A421" s="6">
-        <v>876.0</v>
+        <v>833.0</v>
       </c>
       <c r="B421" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C421" s="7">
-        <v>250.0</v>
+        <v>235.0</v>
       </c>
       <c r="D421" s="5" t="s">
         <v>3</v>
@@ -15592,13 +15606,13 @@
     </row>
     <row r="422">
       <c r="A422" s="6">
-        <v>878.0</v>
+        <v>834.0</v>
       </c>
       <c r="B422" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C422" s="7">
-        <v>235.0</v>
+        <v>225.0</v>
       </c>
       <c r="D422" s="5" t="s">
         <v>3</v>
@@ -15628,13 +15642,13 @@
     </row>
     <row r="423">
       <c r="A423" s="6">
-        <v>879.0</v>
+        <v>837.0</v>
       </c>
       <c r="B423" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C423" s="7">
-        <v>305.0</v>
+        <v>275.0</v>
       </c>
       <c r="D423" s="5" t="s">
         <v>3</v>
@@ -15663,16 +15677,16 @@
       <c r="Z423" s="4"/>
     </row>
     <row r="424">
-      <c r="A424" s="1">
-        <v>880.0</v>
-      </c>
-      <c r="B424" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C424" s="3">
-        <v>225.0</v>
-      </c>
-      <c r="D424" s="2" t="s">
+      <c r="A424" s="6">
+        <v>838.0</v>
+      </c>
+      <c r="B424" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C424" s="7">
+        <v>295.0</v>
+      </c>
+      <c r="D424" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E424" s="4"/>
@@ -15700,13 +15714,13 @@
     </row>
     <row r="425">
       <c r="A425" s="6">
-        <v>882.0</v>
+        <v>843.0</v>
       </c>
       <c r="B425" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C425" s="7">
-        <v>240.0</v>
+        <v>320.0</v>
       </c>
       <c r="D425" s="5" t="s">
         <v>3</v>
@@ -15736,13 +15750,13 @@
     </row>
     <row r="426">
       <c r="A426" s="6">
-        <v>883.0</v>
+        <v>845.0</v>
       </c>
       <c r="B426" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C426" s="7">
-        <v>315.0</v>
+        <v>235.0</v>
       </c>
       <c r="D426" s="5" t="s">
         <v>3</v>
@@ -15771,16 +15785,16 @@
       <c r="Z426" s="4"/>
     </row>
     <row r="427">
-      <c r="A427" s="6">
-        <v>886.0</v>
-      </c>
-      <c r="B427" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C427" s="7">
-        <v>230.0</v>
-      </c>
-      <c r="D427" s="5" t="s">
+      <c r="A427" s="1">
+        <v>846.0</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C427" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D427" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E427" s="4"/>
@@ -15807,16 +15821,16 @@
       <c r="Z427" s="4"/>
     </row>
     <row r="428">
-      <c r="A428" s="6">
-        <v>887.0</v>
-      </c>
-      <c r="B428" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C428" s="7">
-        <v>265.0</v>
-      </c>
-      <c r="D428" s="5" t="s">
+      <c r="A428" s="1">
+        <v>853.0</v>
+      </c>
+      <c r="B428" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C428" s="3">
+        <v>290.0</v>
+      </c>
+      <c r="D428" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E428" s="4"/>
@@ -15844,13 +15858,13 @@
     </row>
     <row r="429">
       <c r="A429" s="6">
-        <v>888.0</v>
+        <v>854.0</v>
       </c>
       <c r="B429" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C429" s="7">
-        <v>245.0</v>
+        <v>320.0</v>
       </c>
       <c r="D429" s="5" t="s">
         <v>3</v>
@@ -15880,13 +15894,13 @@
     </row>
     <row r="430">
       <c r="A430" s="6">
-        <v>897.0</v>
+        <v>855.0</v>
       </c>
       <c r="B430" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C430" s="7">
-        <v>310.0</v>
+        <v>270.0</v>
       </c>
       <c r="D430" s="5" t="s">
         <v>3</v>
@@ -15916,13 +15930,13 @@
     </row>
     <row r="431">
       <c r="A431" s="1">
-        <v>899.0</v>
+        <v>856.0</v>
       </c>
       <c r="B431" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C431" s="3">
-        <v>310.0</v>
+        <v>260.0</v>
       </c>
       <c r="D431" s="2" t="s">
         <v>3</v>
@@ -15952,13 +15966,13 @@
     </row>
     <row r="432">
       <c r="A432" s="6">
-        <v>900.0</v>
+        <v>860.0</v>
       </c>
       <c r="B432" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C432" s="7">
-        <v>335.0</v>
+      <c r="C432" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="D432" s="5" t="s">
         <v>3</v>
@@ -15988,13 +16002,13 @@
     </row>
     <row r="433">
       <c r="A433" s="1">
-        <v>901.0</v>
+        <v>861.0</v>
       </c>
       <c r="B433" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C433" s="3">
-        <v>275.0</v>
+        <v>305.0</v>
       </c>
       <c r="D433" s="2" t="s">
         <v>3</v>
@@ -16024,13 +16038,13 @@
     </row>
     <row r="434">
       <c r="A434" s="6">
-        <v>910.0</v>
+        <v>862.0</v>
       </c>
       <c r="B434" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C434" s="7">
-        <v>330.0</v>
+      <c r="C434" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="D434" s="5" t="s">
         <v>3</v>
@@ -16059,16 +16073,16 @@
       <c r="Z434" s="4"/>
     </row>
     <row r="435">
-      <c r="A435" s="6">
-        <v>911.0</v>
-      </c>
-      <c r="B435" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C435" s="7">
-        <v>330.0</v>
-      </c>
-      <c r="D435" s="5" t="s">
+      <c r="A435" s="1">
+        <v>863.0</v>
+      </c>
+      <c r="B435" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C435" s="3">
+        <v>275.0</v>
+      </c>
+      <c r="D435" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E435" s="4"/>
@@ -16095,14 +16109,14 @@
       <c r="Z435" s="4"/>
     </row>
     <row r="436">
-      <c r="A436" s="1">
-        <v>935.0</v>
-      </c>
-      <c r="B436" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C436" s="3">
-        <v>310.0</v>
+      <c r="A436" s="6">
+        <v>865.0</v>
+      </c>
+      <c r="B436" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C436" s="7">
+        <v>270.0</v>
       </c>
       <c r="D436" s="5" t="s">
         <v>3</v>
@@ -16132,13 +16146,13 @@
     </row>
     <row r="437">
       <c r="A437" s="6">
-        <v>939.0</v>
+        <v>866.0</v>
       </c>
       <c r="B437" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C437" s="7">
-        <v>245.0</v>
+        <v>300.0</v>
       </c>
       <c r="D437" s="5" t="s">
         <v>3</v>
@@ -16167,16 +16181,16 @@
       <c r="Z437" s="4"/>
     </row>
     <row r="438">
-      <c r="A438" s="6">
-        <v>948.0</v>
-      </c>
-      <c r="B438" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C438" s="7">
-        <v>310.0</v>
-      </c>
-      <c r="D438" s="5" t="s">
+      <c r="A438" s="1">
+        <v>872.0</v>
+      </c>
+      <c r="B438" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C438" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="D438" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E438" s="4"/>
@@ -16204,13 +16218,13 @@
     </row>
     <row r="439">
       <c r="A439" s="6">
-        <v>949.0</v>
+        <v>875.0</v>
       </c>
       <c r="B439" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C439" s="7">
-        <v>310.0</v>
+        <v>305.0</v>
       </c>
       <c r="D439" s="5" t="s">
         <v>3</v>
@@ -16239,14 +16253,14 @@
       <c r="Z439" s="4"/>
     </row>
     <row r="440">
-      <c r="A440" s="5">
-        <v>1000.0</v>
+      <c r="A440" s="6">
+        <v>876.0</v>
       </c>
       <c r="B440" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C440" s="5">
-        <v>2000.0</v>
+      <c r="C440" s="7">
+        <v>250.0</v>
       </c>
       <c r="D440" s="5" t="s">
         <v>3</v>
@@ -16275,10 +16289,18 @@
       <c r="Z440" s="4"/>
     </row>
     <row r="441">
-      <c r="A441" s="2"/>
-      <c r="B441" s="2"/>
-      <c r="C441" s="2"/>
-      <c r="D441" s="2"/>
+      <c r="A441" s="6">
+        <v>878.0</v>
+      </c>
+      <c r="B441" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C441" s="7">
+        <v>235.0</v>
+      </c>
+      <c r="D441" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E441" s="4"/>
       <c r="F441" s="4"/>
       <c r="G441" s="4"/>
@@ -16303,10 +16325,18 @@
       <c r="Z441" s="4"/>
     </row>
     <row r="442">
-      <c r="A442" s="2"/>
-      <c r="B442" s="2"/>
-      <c r="C442" s="2"/>
-      <c r="D442" s="2"/>
+      <c r="A442" s="6">
+        <v>879.0</v>
+      </c>
+      <c r="B442" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C442" s="7">
+        <v>305.0</v>
+      </c>
+      <c r="D442" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E442" s="4"/>
       <c r="F442" s="4"/>
       <c r="G442" s="4"/>
@@ -16331,10 +16361,18 @@
       <c r="Z442" s="4"/>
     </row>
     <row r="443">
-      <c r="A443" s="2"/>
-      <c r="B443" s="2"/>
-      <c r="C443" s="2"/>
-      <c r="D443" s="2"/>
+      <c r="A443" s="1">
+        <v>880.0</v>
+      </c>
+      <c r="B443" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C443" s="3">
+        <v>225.0</v>
+      </c>
+      <c r="D443" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E443" s="4"/>
       <c r="F443" s="4"/>
       <c r="G443" s="4"/>
@@ -16359,10 +16397,18 @@
       <c r="Z443" s="4"/>
     </row>
     <row r="444">
-      <c r="A444" s="2"/>
-      <c r="B444" s="2"/>
-      <c r="C444" s="2"/>
-      <c r="D444" s="2"/>
+      <c r="A444" s="6">
+        <v>882.0</v>
+      </c>
+      <c r="B444" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C444" s="7">
+        <v>240.0</v>
+      </c>
+      <c r="D444" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E444" s="4"/>
       <c r="F444" s="4"/>
       <c r="G444" s="4"/>
@@ -16387,10 +16433,18 @@
       <c r="Z444" s="4"/>
     </row>
     <row r="445">
-      <c r="A445" s="2"/>
-      <c r="B445" s="2"/>
-      <c r="C445" s="2"/>
-      <c r="D445" s="2"/>
+      <c r="A445" s="6">
+        <v>883.0</v>
+      </c>
+      <c r="B445" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C445" s="7">
+        <v>315.0</v>
+      </c>
+      <c r="D445" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E445" s="4"/>
       <c r="F445" s="4"/>
       <c r="G445" s="4"/>
@@ -16415,10 +16469,18 @@
       <c r="Z445" s="4"/>
     </row>
     <row r="446">
-      <c r="A446" s="2"/>
-      <c r="B446" s="2"/>
-      <c r="C446" s="2"/>
-      <c r="D446" s="2"/>
+      <c r="A446" s="6">
+        <v>886.0</v>
+      </c>
+      <c r="B446" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C446" s="7">
+        <v>230.0</v>
+      </c>
+      <c r="D446" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E446" s="4"/>
       <c r="F446" s="4"/>
       <c r="G446" s="4"/>
@@ -16443,10 +16505,18 @@
       <c r="Z446" s="4"/>
     </row>
     <row r="447">
-      <c r="A447" s="2"/>
-      <c r="B447" s="2"/>
-      <c r="C447" s="2"/>
-      <c r="D447" s="2"/>
+      <c r="A447" s="6">
+        <v>887.0</v>
+      </c>
+      <c r="B447" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C447" s="7">
+        <v>265.0</v>
+      </c>
+      <c r="D447" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E447" s="4"/>
       <c r="F447" s="4"/>
       <c r="G447" s="4"/>
@@ -16471,10 +16541,18 @@
       <c r="Z447" s="4"/>
     </row>
     <row r="448">
-      <c r="A448" s="2"/>
-      <c r="B448" s="2"/>
-      <c r="C448" s="2"/>
-      <c r="D448" s="2"/>
+      <c r="A448" s="6">
+        <v>888.0</v>
+      </c>
+      <c r="B448" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C448" s="7">
+        <v>245.0</v>
+      </c>
+      <c r="D448" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E448" s="4"/>
       <c r="F448" s="4"/>
       <c r="G448" s="4"/>
@@ -16499,10 +16577,18 @@
       <c r="Z448" s="4"/>
     </row>
     <row r="449">
-      <c r="A449" s="2"/>
-      <c r="B449" s="2"/>
-      <c r="C449" s="2"/>
-      <c r="D449" s="2"/>
+      <c r="A449" s="6">
+        <v>897.0</v>
+      </c>
+      <c r="B449" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C449" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D449" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E449" s="4"/>
       <c r="F449" s="4"/>
       <c r="G449" s="4"/>
@@ -16527,10 +16613,18 @@
       <c r="Z449" s="4"/>
     </row>
     <row r="450">
-      <c r="A450" s="2"/>
-      <c r="B450" s="2"/>
-      <c r="C450" s="2"/>
-      <c r="D450" s="2"/>
+      <c r="A450" s="1">
+        <v>899.0</v>
+      </c>
+      <c r="B450" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C450" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D450" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E450" s="4"/>
       <c r="F450" s="4"/>
       <c r="G450" s="4"/>
@@ -16555,10 +16649,18 @@
       <c r="Z450" s="4"/>
     </row>
     <row r="451">
-      <c r="A451" s="2"/>
-      <c r="B451" s="2"/>
-      <c r="C451" s="2"/>
-      <c r="D451" s="2"/>
+      <c r="A451" s="6">
+        <v>900.0</v>
+      </c>
+      <c r="B451" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C451" s="7">
+        <v>335.0</v>
+      </c>
+      <c r="D451" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E451" s="4"/>
       <c r="F451" s="4"/>
       <c r="G451" s="4"/>
@@ -16583,10 +16685,18 @@
       <c r="Z451" s="4"/>
     </row>
     <row r="452">
-      <c r="A452" s="2"/>
-      <c r="B452" s="2"/>
-      <c r="C452" s="2"/>
-      <c r="D452" s="2"/>
+      <c r="A452" s="1">
+        <v>901.0</v>
+      </c>
+      <c r="B452" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C452" s="3">
+        <v>275.0</v>
+      </c>
+      <c r="D452" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E452" s="4"/>
       <c r="F452" s="4"/>
       <c r="G452" s="4"/>
@@ -16611,10 +16721,18 @@
       <c r="Z452" s="4"/>
     </row>
     <row r="453">
-      <c r="A453" s="2"/>
-      <c r="B453" s="2"/>
-      <c r="C453" s="2"/>
-      <c r="D453" s="2"/>
+      <c r="A453" s="6">
+        <v>910.0</v>
+      </c>
+      <c r="B453" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C453" s="7">
+        <v>330.0</v>
+      </c>
+      <c r="D453" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E453" s="4"/>
       <c r="F453" s="4"/>
       <c r="G453" s="4"/>
@@ -16639,10 +16757,18 @@
       <c r="Z453" s="4"/>
     </row>
     <row r="454">
-      <c r="A454" s="2"/>
-      <c r="B454" s="2"/>
-      <c r="C454" s="2"/>
-      <c r="D454" s="2"/>
+      <c r="A454" s="6">
+        <v>911.0</v>
+      </c>
+      <c r="B454" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C454" s="7">
+        <v>330.0</v>
+      </c>
+      <c r="D454" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E454" s="4"/>
       <c r="F454" s="4"/>
       <c r="G454" s="4"/>
@@ -16667,10 +16793,18 @@
       <c r="Z454" s="4"/>
     </row>
     <row r="455">
-      <c r="A455" s="2"/>
-      <c r="B455" s="2"/>
-      <c r="C455" s="2"/>
-      <c r="D455" s="2"/>
+      <c r="A455" s="1">
+        <v>935.0</v>
+      </c>
+      <c r="B455" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C455" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="D455" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E455" s="4"/>
       <c r="F455" s="4"/>
       <c r="G455" s="4"/>
@@ -16695,10 +16829,18 @@
       <c r="Z455" s="4"/>
     </row>
     <row r="456">
-      <c r="A456" s="2"/>
-      <c r="B456" s="2"/>
-      <c r="C456" s="2"/>
-      <c r="D456" s="2"/>
+      <c r="A456" s="6">
+        <v>939.0</v>
+      </c>
+      <c r="B456" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C456" s="7">
+        <v>245.0</v>
+      </c>
+      <c r="D456" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E456" s="4"/>
       <c r="F456" s="4"/>
       <c r="G456" s="4"/>
@@ -16723,10 +16865,18 @@
       <c r="Z456" s="4"/>
     </row>
     <row r="457">
-      <c r="A457" s="2"/>
-      <c r="B457" s="2"/>
-      <c r="C457" s="2"/>
-      <c r="D457" s="2"/>
+      <c r="A457" s="6">
+        <v>948.0</v>
+      </c>
+      <c r="B457" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C457" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D457" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E457" s="4"/>
       <c r="F457" s="4"/>
       <c r="G457" s="4"/>
@@ -16751,10 +16901,18 @@
       <c r="Z457" s="4"/>
     </row>
     <row r="458">
-      <c r="A458" s="2"/>
-      <c r="B458" s="2"/>
-      <c r="C458" s="2"/>
-      <c r="D458" s="2"/>
+      <c r="A458" s="6">
+        <v>949.0</v>
+      </c>
+      <c r="B458" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C458" s="7">
+        <v>310.0</v>
+      </c>
+      <c r="D458" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E458" s="4"/>
       <c r="F458" s="4"/>
       <c r="G458" s="4"/>
@@ -16779,10 +16937,18 @@
       <c r="Z458" s="4"/>
     </row>
     <row r="459">
-      <c r="A459" s="2"/>
-      <c r="B459" s="2"/>
-      <c r="C459" s="2"/>
-      <c r="D459" s="2"/>
+      <c r="A459" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="B459" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C459" s="5">
+        <v>2000.0</v>
+      </c>
+      <c r="D459" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E459" s="4"/>
       <c r="F459" s="4"/>
       <c r="G459" s="4"/>
@@ -40411,10 +40577,10 @@
       <c r="Z1302" s="4"/>
     </row>
     <row r="1303">
-      <c r="A1303" s="4"/>
-      <c r="B1303" s="4"/>
-      <c r="C1303" s="4"/>
-      <c r="D1303" s="4"/>
+      <c r="A1303" s="2"/>
+      <c r="B1303" s="2"/>
+      <c r="C1303" s="2"/>
+      <c r="D1303" s="2"/>
       <c r="E1303" s="4"/>
       <c r="F1303" s="4"/>
       <c r="G1303" s="4"/>
@@ -40438,6 +40604,538 @@
       <c r="Y1303" s="4"/>
       <c r="Z1303" s="4"/>
     </row>
+    <row r="1304">
+      <c r="A1304" s="2"/>
+      <c r="B1304" s="2"/>
+      <c r="C1304" s="2"/>
+      <c r="D1304" s="2"/>
+      <c r="E1304" s="4"/>
+      <c r="F1304" s="4"/>
+      <c r="G1304" s="4"/>
+      <c r="H1304" s="4"/>
+      <c r="I1304" s="4"/>
+      <c r="J1304" s="4"/>
+      <c r="K1304" s="4"/>
+      <c r="L1304" s="4"/>
+      <c r="M1304" s="4"/>
+      <c r="N1304" s="4"/>
+      <c r="O1304" s="4"/>
+      <c r="P1304" s="4"/>
+      <c r="Q1304" s="4"/>
+      <c r="R1304" s="4"/>
+      <c r="S1304" s="4"/>
+      <c r="T1304" s="4"/>
+      <c r="U1304" s="4"/>
+      <c r="V1304" s="4"/>
+      <c r="W1304" s="4"/>
+      <c r="X1304" s="4"/>
+      <c r="Y1304" s="4"/>
+      <c r="Z1304" s="4"/>
+    </row>
+    <row r="1305">
+      <c r="A1305" s="2"/>
+      <c r="B1305" s="2"/>
+      <c r="C1305" s="2"/>
+      <c r="D1305" s="2"/>
+      <c r="E1305" s="4"/>
+      <c r="F1305" s="4"/>
+      <c r="G1305" s="4"/>
+      <c r="H1305" s="4"/>
+      <c r="I1305" s="4"/>
+      <c r="J1305" s="4"/>
+      <c r="K1305" s="4"/>
+      <c r="L1305" s="4"/>
+      <c r="M1305" s="4"/>
+      <c r="N1305" s="4"/>
+      <c r="O1305" s="4"/>
+      <c r="P1305" s="4"/>
+      <c r="Q1305" s="4"/>
+      <c r="R1305" s="4"/>
+      <c r="S1305" s="4"/>
+      <c r="T1305" s="4"/>
+      <c r="U1305" s="4"/>
+      <c r="V1305" s="4"/>
+      <c r="W1305" s="4"/>
+      <c r="X1305" s="4"/>
+      <c r="Y1305" s="4"/>
+      <c r="Z1305" s="4"/>
+    </row>
+    <row r="1306">
+      <c r="A1306" s="2"/>
+      <c r="B1306" s="2"/>
+      <c r="C1306" s="2"/>
+      <c r="D1306" s="2"/>
+      <c r="E1306" s="4"/>
+      <c r="F1306" s="4"/>
+      <c r="G1306" s="4"/>
+      <c r="H1306" s="4"/>
+      <c r="I1306" s="4"/>
+      <c r="J1306" s="4"/>
+      <c r="K1306" s="4"/>
+      <c r="L1306" s="4"/>
+      <c r="M1306" s="4"/>
+      <c r="N1306" s="4"/>
+      <c r="O1306" s="4"/>
+      <c r="P1306" s="4"/>
+      <c r="Q1306" s="4"/>
+      <c r="R1306" s="4"/>
+      <c r="S1306" s="4"/>
+      <c r="T1306" s="4"/>
+      <c r="U1306" s="4"/>
+      <c r="V1306" s="4"/>
+      <c r="W1306" s="4"/>
+      <c r="X1306" s="4"/>
+      <c r="Y1306" s="4"/>
+      <c r="Z1306" s="4"/>
+    </row>
+    <row r="1307">
+      <c r="A1307" s="2"/>
+      <c r="B1307" s="2"/>
+      <c r="C1307" s="2"/>
+      <c r="D1307" s="2"/>
+      <c r="E1307" s="4"/>
+      <c r="F1307" s="4"/>
+      <c r="G1307" s="4"/>
+      <c r="H1307" s="4"/>
+      <c r="I1307" s="4"/>
+      <c r="J1307" s="4"/>
+      <c r="K1307" s="4"/>
+      <c r="L1307" s="4"/>
+      <c r="M1307" s="4"/>
+      <c r="N1307" s="4"/>
+      <c r="O1307" s="4"/>
+      <c r="P1307" s="4"/>
+      <c r="Q1307" s="4"/>
+      <c r="R1307" s="4"/>
+      <c r="S1307" s="4"/>
+      <c r="T1307" s="4"/>
+      <c r="U1307" s="4"/>
+      <c r="V1307" s="4"/>
+      <c r="W1307" s="4"/>
+      <c r="X1307" s="4"/>
+      <c r="Y1307" s="4"/>
+      <c r="Z1307" s="4"/>
+    </row>
+    <row r="1308">
+      <c r="A1308" s="2"/>
+      <c r="B1308" s="2"/>
+      <c r="C1308" s="2"/>
+      <c r="D1308" s="2"/>
+      <c r="E1308" s="4"/>
+      <c r="F1308" s="4"/>
+      <c r="G1308" s="4"/>
+      <c r="H1308" s="4"/>
+      <c r="I1308" s="4"/>
+      <c r="J1308" s="4"/>
+      <c r="K1308" s="4"/>
+      <c r="L1308" s="4"/>
+      <c r="M1308" s="4"/>
+      <c r="N1308" s="4"/>
+      <c r="O1308" s="4"/>
+      <c r="P1308" s="4"/>
+      <c r="Q1308" s="4"/>
+      <c r="R1308" s="4"/>
+      <c r="S1308" s="4"/>
+      <c r="T1308" s="4"/>
+      <c r="U1308" s="4"/>
+      <c r="V1308" s="4"/>
+      <c r="W1308" s="4"/>
+      <c r="X1308" s="4"/>
+      <c r="Y1308" s="4"/>
+      <c r="Z1308" s="4"/>
+    </row>
+    <row r="1309">
+      <c r="A1309" s="2"/>
+      <c r="B1309" s="2"/>
+      <c r="C1309" s="2"/>
+      <c r="D1309" s="2"/>
+      <c r="E1309" s="4"/>
+      <c r="F1309" s="4"/>
+      <c r="G1309" s="4"/>
+      <c r="H1309" s="4"/>
+      <c r="I1309" s="4"/>
+      <c r="J1309" s="4"/>
+      <c r="K1309" s="4"/>
+      <c r="L1309" s="4"/>
+      <c r="M1309" s="4"/>
+      <c r="N1309" s="4"/>
+      <c r="O1309" s="4"/>
+      <c r="P1309" s="4"/>
+      <c r="Q1309" s="4"/>
+      <c r="R1309" s="4"/>
+      <c r="S1309" s="4"/>
+      <c r="T1309" s="4"/>
+      <c r="U1309" s="4"/>
+      <c r="V1309" s="4"/>
+      <c r="W1309" s="4"/>
+      <c r="X1309" s="4"/>
+      <c r="Y1309" s="4"/>
+      <c r="Z1309" s="4"/>
+    </row>
+    <row r="1310">
+      <c r="A1310" s="2"/>
+      <c r="B1310" s="2"/>
+      <c r="C1310" s="2"/>
+      <c r="D1310" s="2"/>
+      <c r="E1310" s="4"/>
+      <c r="F1310" s="4"/>
+      <c r="G1310" s="4"/>
+      <c r="H1310" s="4"/>
+      <c r="I1310" s="4"/>
+      <c r="J1310" s="4"/>
+      <c r="K1310" s="4"/>
+      <c r="L1310" s="4"/>
+      <c r="M1310" s="4"/>
+      <c r="N1310" s="4"/>
+      <c r="O1310" s="4"/>
+      <c r="P1310" s="4"/>
+      <c r="Q1310" s="4"/>
+      <c r="R1310" s="4"/>
+      <c r="S1310" s="4"/>
+      <c r="T1310" s="4"/>
+      <c r="U1310" s="4"/>
+      <c r="V1310" s="4"/>
+      <c r="W1310" s="4"/>
+      <c r="X1310" s="4"/>
+      <c r="Y1310" s="4"/>
+      <c r="Z1310" s="4"/>
+    </row>
+    <row r="1311">
+      <c r="A1311" s="2"/>
+      <c r="B1311" s="2"/>
+      <c r="C1311" s="2"/>
+      <c r="D1311" s="2"/>
+      <c r="E1311" s="4"/>
+      <c r="F1311" s="4"/>
+      <c r="G1311" s="4"/>
+      <c r="H1311" s="4"/>
+      <c r="I1311" s="4"/>
+      <c r="J1311" s="4"/>
+      <c r="K1311" s="4"/>
+      <c r="L1311" s="4"/>
+      <c r="M1311" s="4"/>
+      <c r="N1311" s="4"/>
+      <c r="O1311" s="4"/>
+      <c r="P1311" s="4"/>
+      <c r="Q1311" s="4"/>
+      <c r="R1311" s="4"/>
+      <c r="S1311" s="4"/>
+      <c r="T1311" s="4"/>
+      <c r="U1311" s="4"/>
+      <c r="V1311" s="4"/>
+      <c r="W1311" s="4"/>
+      <c r="X1311" s="4"/>
+      <c r="Y1311" s="4"/>
+      <c r="Z1311" s="4"/>
+    </row>
+    <row r="1312">
+      <c r="A1312" s="2"/>
+      <c r="B1312" s="2"/>
+      <c r="C1312" s="2"/>
+      <c r="D1312" s="2"/>
+      <c r="E1312" s="4"/>
+      <c r="F1312" s="4"/>
+      <c r="G1312" s="4"/>
+      <c r="H1312" s="4"/>
+      <c r="I1312" s="4"/>
+      <c r="J1312" s="4"/>
+      <c r="K1312" s="4"/>
+      <c r="L1312" s="4"/>
+      <c r="M1312" s="4"/>
+      <c r="N1312" s="4"/>
+      <c r="O1312" s="4"/>
+      <c r="P1312" s="4"/>
+      <c r="Q1312" s="4"/>
+      <c r="R1312" s="4"/>
+      <c r="S1312" s="4"/>
+      <c r="T1312" s="4"/>
+      <c r="U1312" s="4"/>
+      <c r="V1312" s="4"/>
+      <c r="W1312" s="4"/>
+      <c r="X1312" s="4"/>
+      <c r="Y1312" s="4"/>
+      <c r="Z1312" s="4"/>
+    </row>
+    <row r="1313">
+      <c r="A1313" s="2"/>
+      <c r="B1313" s="2"/>
+      <c r="C1313" s="2"/>
+      <c r="D1313" s="2"/>
+      <c r="E1313" s="4"/>
+      <c r="F1313" s="4"/>
+      <c r="G1313" s="4"/>
+      <c r="H1313" s="4"/>
+      <c r="I1313" s="4"/>
+      <c r="J1313" s="4"/>
+      <c r="K1313" s="4"/>
+      <c r="L1313" s="4"/>
+      <c r="M1313" s="4"/>
+      <c r="N1313" s="4"/>
+      <c r="O1313" s="4"/>
+      <c r="P1313" s="4"/>
+      <c r="Q1313" s="4"/>
+      <c r="R1313" s="4"/>
+      <c r="S1313" s="4"/>
+      <c r="T1313" s="4"/>
+      <c r="U1313" s="4"/>
+      <c r="V1313" s="4"/>
+      <c r="W1313" s="4"/>
+      <c r="X1313" s="4"/>
+      <c r="Y1313" s="4"/>
+      <c r="Z1313" s="4"/>
+    </row>
+    <row r="1314">
+      <c r="A1314" s="2"/>
+      <c r="B1314" s="2"/>
+      <c r="C1314" s="2"/>
+      <c r="D1314" s="2"/>
+      <c r="E1314" s="4"/>
+      <c r="F1314" s="4"/>
+      <c r="G1314" s="4"/>
+      <c r="H1314" s="4"/>
+      <c r="I1314" s="4"/>
+      <c r="J1314" s="4"/>
+      <c r="K1314" s="4"/>
+      <c r="L1314" s="4"/>
+      <c r="M1314" s="4"/>
+      <c r="N1314" s="4"/>
+      <c r="O1314" s="4"/>
+      <c r="P1314" s="4"/>
+      <c r="Q1314" s="4"/>
+      <c r="R1314" s="4"/>
+      <c r="S1314" s="4"/>
+      <c r="T1314" s="4"/>
+      <c r="U1314" s="4"/>
+      <c r="V1314" s="4"/>
+      <c r="W1314" s="4"/>
+      <c r="X1314" s="4"/>
+      <c r="Y1314" s="4"/>
+      <c r="Z1314" s="4"/>
+    </row>
+    <row r="1315">
+      <c r="A1315" s="2"/>
+      <c r="B1315" s="2"/>
+      <c r="C1315" s="2"/>
+      <c r="D1315" s="2"/>
+      <c r="E1315" s="4"/>
+      <c r="F1315" s="4"/>
+      <c r="G1315" s="4"/>
+      <c r="H1315" s="4"/>
+      <c r="I1315" s="4"/>
+      <c r="J1315" s="4"/>
+      <c r="K1315" s="4"/>
+      <c r="L1315" s="4"/>
+      <c r="M1315" s="4"/>
+      <c r="N1315" s="4"/>
+      <c r="O1315" s="4"/>
+      <c r="P1315" s="4"/>
+      <c r="Q1315" s="4"/>
+      <c r="R1315" s="4"/>
+      <c r="S1315" s="4"/>
+      <c r="T1315" s="4"/>
+      <c r="U1315" s="4"/>
+      <c r="V1315" s="4"/>
+      <c r="W1315" s="4"/>
+      <c r="X1315" s="4"/>
+      <c r="Y1315" s="4"/>
+      <c r="Z1315" s="4"/>
+    </row>
+    <row r="1316">
+      <c r="A1316" s="2"/>
+      <c r="B1316" s="2"/>
+      <c r="C1316" s="2"/>
+      <c r="D1316" s="2"/>
+      <c r="E1316" s="4"/>
+      <c r="F1316" s="4"/>
+      <c r="G1316" s="4"/>
+      <c r="H1316" s="4"/>
+      <c r="I1316" s="4"/>
+      <c r="J1316" s="4"/>
+      <c r="K1316" s="4"/>
+      <c r="L1316" s="4"/>
+      <c r="M1316" s="4"/>
+      <c r="N1316" s="4"/>
+      <c r="O1316" s="4"/>
+      <c r="P1316" s="4"/>
+      <c r="Q1316" s="4"/>
+      <c r="R1316" s="4"/>
+      <c r="S1316" s="4"/>
+      <c r="T1316" s="4"/>
+      <c r="U1316" s="4"/>
+      <c r="V1316" s="4"/>
+      <c r="W1316" s="4"/>
+      <c r="X1316" s="4"/>
+      <c r="Y1316" s="4"/>
+      <c r="Z1316" s="4"/>
+    </row>
+    <row r="1317">
+      <c r="A1317" s="2"/>
+      <c r="B1317" s="2"/>
+      <c r="C1317" s="2"/>
+      <c r="D1317" s="2"/>
+      <c r="E1317" s="4"/>
+      <c r="F1317" s="4"/>
+      <c r="G1317" s="4"/>
+      <c r="H1317" s="4"/>
+      <c r="I1317" s="4"/>
+      <c r="J1317" s="4"/>
+      <c r="K1317" s="4"/>
+      <c r="L1317" s="4"/>
+      <c r="M1317" s="4"/>
+      <c r="N1317" s="4"/>
+      <c r="O1317" s="4"/>
+      <c r="P1317" s="4"/>
+      <c r="Q1317" s="4"/>
+      <c r="R1317" s="4"/>
+      <c r="S1317" s="4"/>
+      <c r="T1317" s="4"/>
+      <c r="U1317" s="4"/>
+      <c r="V1317" s="4"/>
+      <c r="W1317" s="4"/>
+      <c r="X1317" s="4"/>
+      <c r="Y1317" s="4"/>
+      <c r="Z1317" s="4"/>
+    </row>
+    <row r="1318">
+      <c r="A1318" s="2"/>
+      <c r="B1318" s="2"/>
+      <c r="C1318" s="2"/>
+      <c r="D1318" s="2"/>
+      <c r="E1318" s="4"/>
+      <c r="F1318" s="4"/>
+      <c r="G1318" s="4"/>
+      <c r="H1318" s="4"/>
+      <c r="I1318" s="4"/>
+      <c r="J1318" s="4"/>
+      <c r="K1318" s="4"/>
+      <c r="L1318" s="4"/>
+      <c r="M1318" s="4"/>
+      <c r="N1318" s="4"/>
+      <c r="O1318" s="4"/>
+      <c r="P1318" s="4"/>
+      <c r="Q1318" s="4"/>
+      <c r="R1318" s="4"/>
+      <c r="S1318" s="4"/>
+      <c r="T1318" s="4"/>
+      <c r="U1318" s="4"/>
+      <c r="V1318" s="4"/>
+      <c r="W1318" s="4"/>
+      <c r="X1318" s="4"/>
+      <c r="Y1318" s="4"/>
+      <c r="Z1318" s="4"/>
+    </row>
+    <row r="1319">
+      <c r="A1319" s="2"/>
+      <c r="B1319" s="2"/>
+      <c r="C1319" s="2"/>
+      <c r="D1319" s="2"/>
+      <c r="E1319" s="4"/>
+      <c r="F1319" s="4"/>
+      <c r="G1319" s="4"/>
+      <c r="H1319" s="4"/>
+      <c r="I1319" s="4"/>
+      <c r="J1319" s="4"/>
+      <c r="K1319" s="4"/>
+      <c r="L1319" s="4"/>
+      <c r="M1319" s="4"/>
+      <c r="N1319" s="4"/>
+      <c r="O1319" s="4"/>
+      <c r="P1319" s="4"/>
+      <c r="Q1319" s="4"/>
+      <c r="R1319" s="4"/>
+      <c r="S1319" s="4"/>
+      <c r="T1319" s="4"/>
+      <c r="U1319" s="4"/>
+      <c r="V1319" s="4"/>
+      <c r="W1319" s="4"/>
+      <c r="X1319" s="4"/>
+      <c r="Y1319" s="4"/>
+      <c r="Z1319" s="4"/>
+    </row>
+    <row r="1320">
+      <c r="A1320" s="2"/>
+      <c r="B1320" s="2"/>
+      <c r="C1320" s="2"/>
+      <c r="D1320" s="2"/>
+      <c r="E1320" s="4"/>
+      <c r="F1320" s="4"/>
+      <c r="G1320" s="4"/>
+      <c r="H1320" s="4"/>
+      <c r="I1320" s="4"/>
+      <c r="J1320" s="4"/>
+      <c r="K1320" s="4"/>
+      <c r="L1320" s="4"/>
+      <c r="M1320" s="4"/>
+      <c r="N1320" s="4"/>
+      <c r="O1320" s="4"/>
+      <c r="P1320" s="4"/>
+      <c r="Q1320" s="4"/>
+      <c r="R1320" s="4"/>
+      <c r="S1320" s="4"/>
+      <c r="T1320" s="4"/>
+      <c r="U1320" s="4"/>
+      <c r="V1320" s="4"/>
+      <c r="W1320" s="4"/>
+      <c r="X1320" s="4"/>
+      <c r="Y1320" s="4"/>
+      <c r="Z1320" s="4"/>
+    </row>
+    <row r="1321">
+      <c r="A1321" s="2"/>
+      <c r="B1321" s="2"/>
+      <c r="C1321" s="2"/>
+      <c r="D1321" s="2"/>
+      <c r="E1321" s="4"/>
+      <c r="F1321" s="4"/>
+      <c r="G1321" s="4"/>
+      <c r="H1321" s="4"/>
+      <c r="I1321" s="4"/>
+      <c r="J1321" s="4"/>
+      <c r="K1321" s="4"/>
+      <c r="L1321" s="4"/>
+      <c r="M1321" s="4"/>
+      <c r="N1321" s="4"/>
+      <c r="O1321" s="4"/>
+      <c r="P1321" s="4"/>
+      <c r="Q1321" s="4"/>
+      <c r="R1321" s="4"/>
+      <c r="S1321" s="4"/>
+      <c r="T1321" s="4"/>
+      <c r="U1321" s="4"/>
+      <c r="V1321" s="4"/>
+      <c r="W1321" s="4"/>
+      <c r="X1321" s="4"/>
+      <c r="Y1321" s="4"/>
+      <c r="Z1321" s="4"/>
+    </row>
+    <row r="1322">
+      <c r="A1322" s="4"/>
+      <c r="B1322" s="4"/>
+      <c r="C1322" s="4"/>
+      <c r="D1322" s="4"/>
+      <c r="E1322" s="4"/>
+      <c r="F1322" s="4"/>
+      <c r="G1322" s="4"/>
+      <c r="H1322" s="4"/>
+      <c r="I1322" s="4"/>
+      <c r="J1322" s="4"/>
+      <c r="K1322" s="4"/>
+      <c r="L1322" s="4"/>
+      <c r="M1322" s="4"/>
+      <c r="N1322" s="4"/>
+      <c r="O1322" s="4"/>
+      <c r="P1322" s="4"/>
+      <c r="Q1322" s="4"/>
+      <c r="R1322" s="4"/>
+      <c r="S1322" s="4"/>
+      <c r="T1322" s="4"/>
+      <c r="U1322" s="4"/>
+      <c r="V1322" s="4"/>
+      <c r="W1322" s="4"/>
+      <c r="X1322" s="4"/>
+      <c r="Y1322" s="4"/>
+      <c r="Z1322" s="4"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
